--- a/TimeSheetTemplate.xlsx
+++ b/TimeSheetTemplate.xlsx
@@ -36,7 +36,31 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="196" uniqueCount="74">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="197" uniqueCount="75">
+  <si>
+    <t xml:space="preserve">Monthly timesheet for MSc Geoinformatics IP </t>
+    <phoneticPr fontId="32" type="noConversion"/>
+  </si>
+  <si>
+    <t>Set up Landsat image transfer (~70 images) for possible use case with Martin inc</t>
+    <phoneticPr fontId="32" type="noConversion"/>
+  </si>
+  <si>
+    <t>Project Management class, part II</t>
+    <phoneticPr fontId="32" type="noConversion"/>
+  </si>
+  <si>
+    <t>Work on first draft of Risk Matrix, Gantt and PERT Charts in ProjectLibre</t>
+    <phoneticPr fontId="32" type="noConversion"/>
+  </si>
+  <si>
+    <t>Learn Git, create GitHub repository, including excel documents</t>
+    <phoneticPr fontId="32" type="noConversion"/>
+  </si>
+  <si>
+    <t>Create Pecha Kucha Presentation</t>
+    <phoneticPr fontId="32" type="noConversion"/>
+  </si>
   <si>
     <t>ProjectLibre Tutorials and improving charts</t>
     <phoneticPr fontId="32" type="noConversion"/>
@@ -47,10 +71,6 @@
   </si>
   <si>
     <t>Python Tutorial</t>
-    <phoneticPr fontId="32" type="noConversion"/>
-  </si>
-  <si>
-    <t>Learn Git, create GitHub repository, including excel documents</t>
     <phoneticPr fontId="32" type="noConversion"/>
   </si>
   <si>
@@ -281,32 +301,16 @@
     <t>Meeting with I3 Professors and editing abstract, incl. travel time</t>
     <phoneticPr fontId="32" type="noConversion"/>
   </si>
-  <si>
-    <t xml:space="preserve">Monthly timesheet for MSc Geoinformatics IP </t>
-    <phoneticPr fontId="32" type="noConversion"/>
-  </si>
-  <si>
-    <t>Set up Landsat image transfer (~70 images) for possible use case with Martin inc</t>
-    <phoneticPr fontId="32" type="noConversion"/>
-  </si>
-  <si>
-    <t>Project Management class, part II</t>
-    <phoneticPr fontId="32" type="noConversion"/>
-  </si>
-  <si>
-    <t>Work on first draft of Risk Matrix, Gantt and PERT Charts in ProjectLibre</t>
-    <phoneticPr fontId="32" type="noConversion"/>
-  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
-    <numFmt numFmtId="198" formatCode="dd/mm/yy;@"/>
-    <numFmt numFmtId="199" formatCode="_-* #,##0.00\ [$€-1]_-;\-* #,##0.00\ [$€-1]_-;_-* &quot;-&quot;??\ [$€-1]_-"/>
-    <numFmt numFmtId="208" formatCode="h:mm;@"/>
-    <numFmt numFmtId="216" formatCode="[h]:mm:ss;@"/>
+    <numFmt numFmtId="164" formatCode="dd/mm/yy;@"/>
+    <numFmt numFmtId="165" formatCode="_-* #,##0.00\ [$€-1]_-;\-* #,##0.00\ [$€-1]_-;_-* &quot;-&quot;??\ [$€-1]_-"/>
+    <numFmt numFmtId="166" formatCode="h:mm;@"/>
+    <numFmt numFmtId="167" formatCode="[h]:mm:ss;@"/>
   </numFmts>
   <fonts count="33">
     <font>
@@ -1098,7 +1102,7 @@
     <xf numFmtId="0" fontId="17" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="18" fillId="18" borderId="29" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="19" fillId="19" borderId="30" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="199" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="165" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="21" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="22" fillId="0" borderId="31" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0"/>
@@ -1121,7 +1125,7 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="198" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1"/>
@@ -1140,7 +1144,7 @@
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" wrapText="1"/>
     </xf>
-    <xf numFmtId="198" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="4" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
@@ -1171,42 +1175,93 @@
     <xf numFmtId="0" fontId="5" fillId="0" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
-    <xf numFmtId="216" fontId="10" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="167" fontId="10" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
     <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="11" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="208" fontId="0" fillId="2" borderId="18" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="208" fontId="0" fillId="2" borderId="19" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="166" fontId="0" fillId="2" borderId="18" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="166" fontId="0" fillId="2" borderId="19" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="4" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="208" fontId="0" fillId="0" borderId="18" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="208" fontId="0" fillId="0" borderId="19" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="166" fontId="0" fillId="0" borderId="18" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="166" fontId="0" fillId="0" borderId="19" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="27" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="208" fontId="0" fillId="0" borderId="28" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="216" fontId="10" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="166" fontId="0" fillId="0" borderId="28" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="167" fontId="10" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
     <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="11" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="208" fontId="0" fillId="4" borderId="18" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="208" fontId="0" fillId="4" borderId="19" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="166" fontId="0" fillId="4" borderId="18" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="166" fontId="0" fillId="4" borderId="19" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="4" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="208" fontId="0" fillId="0" borderId="12" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="208" fontId="0" fillId="0" borderId="13" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="208" fontId="0" fillId="0" borderId="20" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="208" fontId="0" fillId="0" borderId="11" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="208" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="24" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="166" fontId="0" fillId="0" borderId="12" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="166" fontId="0" fillId="0" borderId="13" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="166" fontId="0" fillId="0" borderId="20" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="166" fontId="0" fillId="0" borderId="11" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="166" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="24" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="25" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="26" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="4" borderId="24" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="25" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -1215,26 +1270,7 @@
     <xf numFmtId="0" fontId="0" fillId="4" borderId="26" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="24" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="25" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="26" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1"/>
-    </xf>
-    <xf numFmtId="216" fontId="10" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="216" fontId="10" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="216" fontId="11" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="216" fontId="11" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="5" fillId="4" borderId="24" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="24" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="10" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -1283,56 +1319,24 @@
     <xf numFmtId="0" fontId="10" fillId="0" borderId="23" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="167" fontId="10" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="216" fontId="11" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="167" fontId="10" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="216" fontId="11" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="216" fontId="10" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="167" fontId="11" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="216" fontId="10" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="167" fontId="11" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="167" fontId="11" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="167" fontId="11" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="167" fontId="10" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="167" fontId="10" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="24" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -1808,17 +1812,17 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:50" s="7" customFormat="1" ht="18" thickBot="1">
-      <c r="A1" s="90" t="s">
-        <v>70</v>
-      </c>
-      <c r="B1" s="90"/>
-      <c r="C1" s="90"/>
-      <c r="D1" s="90"/>
-      <c r="E1" s="90"/>
-      <c r="F1" s="90"/>
-      <c r="G1" s="90"/>
-      <c r="H1" s="90"/>
-      <c r="I1" s="90"/>
+      <c r="A1" s="60" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="60"/>
+      <c r="C1" s="60"/>
+      <c r="D1" s="60"/>
+      <c r="E1" s="60"/>
+      <c r="F1" s="60"/>
+      <c r="G1" s="60"/>
+      <c r="H1" s="60"/>
+      <c r="I1" s="60"/>
       <c r="J1" s="8"/>
       <c r="K1" s="8"/>
       <c r="L1" s="8"/>
@@ -1861,15 +1865,15 @@
       <c r="AW1" s="8"/>
     </row>
     <row r="2" spans="1:50" s="1" customFormat="1" ht="7.5" customHeight="1">
-      <c r="A2" s="91"/>
-      <c r="B2" s="91"/>
-      <c r="C2" s="91"/>
-      <c r="D2" s="91"/>
-      <c r="E2" s="91"/>
-      <c r="F2" s="91"/>
-      <c r="G2" s="91"/>
-      <c r="H2" s="91"/>
-      <c r="I2" s="91"/>
+      <c r="A2" s="61"/>
+      <c r="B2" s="61"/>
+      <c r="C2" s="61"/>
+      <c r="D2" s="61"/>
+      <c r="E2" s="61"/>
+      <c r="F2" s="61"/>
+      <c r="G2" s="61"/>
+      <c r="H2" s="61"/>
+      <c r="I2" s="61"/>
       <c r="J2" s="9"/>
       <c r="K2" s="9"/>
       <c r="L2" s="9"/>
@@ -1912,16 +1916,16 @@
       <c r="AW2" s="9"/>
     </row>
     <row r="3" spans="1:50" s="11" customFormat="1" ht="13.5" customHeight="1">
-      <c r="A3" s="92" t="s">
-        <v>54</v>
-      </c>
-      <c r="B3" s="92"/>
-      <c r="C3" s="92"/>
-      <c r="D3" s="92"/>
-      <c r="E3" s="92"/>
-      <c r="F3" s="92"/>
-      <c r="G3" s="92"/>
-      <c r="H3" s="92"/>
+      <c r="A3" s="62" t="s">
+        <v>59</v>
+      </c>
+      <c r="B3" s="62"/>
+      <c r="C3" s="62"/>
+      <c r="D3" s="62"/>
+      <c r="E3" s="62"/>
+      <c r="F3" s="62"/>
+      <c r="G3" s="62"/>
+      <c r="H3" s="62"/>
       <c r="I3" s="23"/>
       <c r="J3" s="22"/>
       <c r="K3" s="22"/>
@@ -1966,29 +1970,29 @@
       <c r="AX3" s="10"/>
     </row>
     <row r="4" spans="1:50" s="6" customFormat="1" ht="9" customHeight="1">
-      <c r="A4" s="93"/>
-      <c r="B4" s="93"/>
-      <c r="C4" s="93"/>
-      <c r="D4" s="93"/>
-      <c r="E4" s="93"/>
-      <c r="F4" s="93"/>
-      <c r="G4" s="93"/>
-      <c r="H4" s="93"/>
-      <c r="I4" s="93"/>
+      <c r="A4" s="63"/>
+      <c r="B4" s="63"/>
+      <c r="C4" s="63"/>
+      <c r="D4" s="63"/>
+      <c r="E4" s="63"/>
+      <c r="F4" s="63"/>
+      <c r="G4" s="63"/>
+      <c r="H4" s="63"/>
+      <c r="I4" s="63"/>
     </row>
     <row r="5" spans="1:50" s="1" customFormat="1" ht="13.75" customHeight="1">
-      <c r="A5" s="96" t="s">
-        <v>51</v>
-      </c>
-      <c r="B5" s="97"/>
-      <c r="C5" s="97"/>
-      <c r="D5" s="84" t="s">
-        <v>57</v>
-      </c>
-      <c r="E5" s="85"/>
-      <c r="F5" s="85"/>
-      <c r="G5" s="85"/>
-      <c r="H5" s="86"/>
+      <c r="A5" s="70" t="s">
+        <v>56</v>
+      </c>
+      <c r="B5" s="71"/>
+      <c r="C5" s="71"/>
+      <c r="D5" s="66" t="s">
+        <v>62</v>
+      </c>
+      <c r="E5" s="67"/>
+      <c r="F5" s="67"/>
+      <c r="G5" s="67"/>
+      <c r="H5" s="68"/>
       <c r="I5" s="23"/>
       <c r="J5" s="9"/>
       <c r="K5" s="9"/>
@@ -1996,77 +2000,77 @@
       <c r="M5" s="9"/>
     </row>
     <row r="6" spans="1:50" s="1" customFormat="1" ht="7.5" customHeight="1">
-      <c r="A6" s="87"/>
-      <c r="B6" s="87"/>
-      <c r="C6" s="87"/>
-      <c r="D6" s="87"/>
-      <c r="E6" s="87"/>
-      <c r="F6" s="87"/>
-      <c r="G6" s="87"/>
-      <c r="H6" s="87"/>
-      <c r="I6" s="87"/>
+      <c r="A6" s="72"/>
+      <c r="B6" s="72"/>
+      <c r="C6" s="72"/>
+      <c r="D6" s="72"/>
+      <c r="E6" s="72"/>
+      <c r="F6" s="72"/>
+      <c r="G6" s="72"/>
+      <c r="H6" s="72"/>
+      <c r="I6" s="72"/>
     </row>
     <row r="7" spans="1:50" s="1" customFormat="1" ht="13.75" customHeight="1">
-      <c r="A7" s="88" t="s">
-        <v>55</v>
-      </c>
-      <c r="B7" s="88"/>
-      <c r="C7" s="88"/>
-      <c r="D7" s="89" t="s">
-        <v>58</v>
-      </c>
-      <c r="E7" s="89"/>
-      <c r="F7" s="89"/>
-      <c r="G7" s="89"/>
-      <c r="H7" s="89"/>
+      <c r="A7" s="65" t="s">
+        <v>60</v>
+      </c>
+      <c r="B7" s="65"/>
+      <c r="C7" s="65"/>
+      <c r="D7" s="73" t="s">
+        <v>63</v>
+      </c>
+      <c r="E7" s="73"/>
+      <c r="F7" s="73"/>
+      <c r="G7" s="73"/>
+      <c r="H7" s="73"/>
       <c r="I7" s="24"/>
     </row>
     <row r="8" spans="1:50" s="1" customFormat="1" ht="7.5" customHeight="1">
-      <c r="A8" s="94"/>
-      <c r="B8" s="94"/>
-      <c r="C8" s="94"/>
-      <c r="D8" s="94"/>
-      <c r="E8" s="94"/>
-      <c r="F8" s="94"/>
-      <c r="G8" s="94"/>
-      <c r="H8" s="94"/>
-      <c r="I8" s="94"/>
+      <c r="A8" s="64"/>
+      <c r="B8" s="64"/>
+      <c r="C8" s="64"/>
+      <c r="D8" s="64"/>
+      <c r="E8" s="64"/>
+      <c r="F8" s="64"/>
+      <c r="G8" s="64"/>
+      <c r="H8" s="64"/>
+      <c r="I8" s="64"/>
     </row>
     <row r="9" spans="1:50" s="1" customFormat="1" ht="13.75" customHeight="1">
-      <c r="A9" s="88" t="s">
-        <v>56</v>
-      </c>
-      <c r="B9" s="88"/>
-      <c r="C9" s="88"/>
-      <c r="D9" s="84" t="s">
-        <v>59</v>
-      </c>
-      <c r="E9" s="85"/>
-      <c r="F9" s="85"/>
-      <c r="G9" s="85"/>
-      <c r="H9" s="86"/>
+      <c r="A9" s="65" t="s">
+        <v>61</v>
+      </c>
+      <c r="B9" s="65"/>
+      <c r="C9" s="65"/>
+      <c r="D9" s="66" t="s">
+        <v>64</v>
+      </c>
+      <c r="E9" s="67"/>
+      <c r="F9" s="67"/>
+      <c r="G9" s="67"/>
+      <c r="H9" s="68"/>
       <c r="I9" s="24"/>
       <c r="J9" s="15"/>
     </row>
     <row r="10" spans="1:50" s="1" customFormat="1" ht="7.5" customHeight="1">
-      <c r="A10" s="95"/>
-      <c r="B10" s="95"/>
-      <c r="C10" s="95"/>
-      <c r="D10" s="95"/>
-      <c r="E10" s="95"/>
-      <c r="F10" s="95"/>
-      <c r="G10" s="95"/>
-      <c r="H10" s="95"/>
-      <c r="I10" s="95"/>
+      <c r="A10" s="69"/>
+      <c r="B10" s="69"/>
+      <c r="C10" s="69"/>
+      <c r="D10" s="69"/>
+      <c r="E10" s="69"/>
+      <c r="F10" s="69"/>
+      <c r="G10" s="69"/>
+      <c r="H10" s="69"/>
+      <c r="I10" s="69"/>
     </row>
     <row r="11" spans="1:50" s="1" customFormat="1" ht="12">
       <c r="A11" s="21" t="s">
-        <v>52</v>
+        <v>57</v>
       </c>
       <c r="B11" s="21"/>
       <c r="C11" s="21"/>
       <c r="D11" s="21" t="s">
-        <v>60</v>
+        <v>65</v>
       </c>
       <c r="E11" s="21"/>
       <c r="F11" s="21"/>
@@ -2086,55 +2090,55 @@
       <c r="I12" s="26"/>
     </row>
     <row r="13" spans="1:50" s="2" customFormat="1" ht="15.5" customHeight="1">
-      <c r="A13" s="68" t="s">
-        <v>12</v>
-      </c>
-      <c r="B13" s="71" t="s">
-        <v>48</v>
-      </c>
-      <c r="C13" s="72"/>
-      <c r="D13" s="72"/>
-      <c r="E13" s="72"/>
-      <c r="F13" s="72"/>
-      <c r="G13" s="72"/>
-      <c r="H13" s="72"/>
-      <c r="I13" s="73"/>
+      <c r="A13" s="78" t="s">
+        <v>17</v>
+      </c>
+      <c r="B13" s="81" t="s">
+        <v>53</v>
+      </c>
+      <c r="C13" s="82"/>
+      <c r="D13" s="82"/>
+      <c r="E13" s="82"/>
+      <c r="F13" s="82"/>
+      <c r="G13" s="82"/>
+      <c r="H13" s="82"/>
+      <c r="I13" s="83"/>
     </row>
     <row r="14" spans="1:50" s="2" customFormat="1" ht="13.75" customHeight="1">
-      <c r="A14" s="69"/>
-      <c r="B14" s="74" t="s">
-        <v>13</v>
-      </c>
-      <c r="C14" s="75"/>
-      <c r="D14" s="76" t="s">
-        <v>14</v>
-      </c>
-      <c r="E14" s="78" t="s">
-        <v>49</v>
-      </c>
-      <c r="F14" s="79"/>
-      <c r="G14" s="79"/>
-      <c r="H14" s="79"/>
-      <c r="I14" s="80"/>
+      <c r="A14" s="79"/>
+      <c r="B14" s="84" t="s">
+        <v>18</v>
+      </c>
+      <c r="C14" s="85"/>
+      <c r="D14" s="86" t="s">
+        <v>19</v>
+      </c>
+      <c r="E14" s="88" t="s">
+        <v>54</v>
+      </c>
+      <c r="F14" s="89"/>
+      <c r="G14" s="89"/>
+      <c r="H14" s="89"/>
+      <c r="I14" s="90"/>
     </row>
     <row r="15" spans="1:50" ht="13" customHeight="1">
-      <c r="A15" s="70"/>
+      <c r="A15" s="80"/>
       <c r="B15" s="32" t="s">
-        <v>15</v>
+        <v>20</v>
       </c>
       <c r="C15" s="33" t="s">
-        <v>16</v>
-      </c>
-      <c r="D15" s="77"/>
-      <c r="E15" s="81"/>
-      <c r="F15" s="82"/>
-      <c r="G15" s="82"/>
-      <c r="H15" s="82"/>
-      <c r="I15" s="83"/>
+        <v>21</v>
+      </c>
+      <c r="D15" s="87"/>
+      <c r="E15" s="91"/>
+      <c r="F15" s="92"/>
+      <c r="G15" s="92"/>
+      <c r="H15" s="92"/>
+      <c r="I15" s="93"/>
     </row>
     <row r="16" spans="1:50" s="51" customFormat="1" ht="12">
       <c r="A16" s="48" t="s">
-        <v>17</v>
+        <v>22</v>
       </c>
       <c r="B16" s="49">
         <v>0.33333333333333331</v>
@@ -2146,17 +2150,17 @@
         <f>C16-B16</f>
         <v>0.20833333333333331</v>
       </c>
-      <c r="E16" s="67" t="s">
-        <v>61</v>
-      </c>
-      <c r="F16" s="58"/>
-      <c r="G16" s="58"/>
-      <c r="H16" s="58"/>
-      <c r="I16" s="59"/>
+      <c r="E16" s="74" t="s">
+        <v>66</v>
+      </c>
+      <c r="F16" s="75"/>
+      <c r="G16" s="75"/>
+      <c r="H16" s="75"/>
+      <c r="I16" s="76"/>
     </row>
     <row r="17" spans="1:9" s="51" customFormat="1" ht="12">
       <c r="A17" s="48" t="s">
-        <v>18</v>
+        <v>23</v>
       </c>
       <c r="B17" s="49"/>
       <c r="C17" s="50"/>
@@ -2164,15 +2168,15 @@
         <f t="shared" ref="D17:D49" si="0">C17-B17</f>
         <v>0</v>
       </c>
-      <c r="E17" s="57"/>
-      <c r="F17" s="58"/>
-      <c r="G17" s="58"/>
-      <c r="H17" s="58"/>
-      <c r="I17" s="59"/>
+      <c r="E17" s="77"/>
+      <c r="F17" s="75"/>
+      <c r="G17" s="75"/>
+      <c r="H17" s="75"/>
+      <c r="I17" s="76"/>
     </row>
     <row r="18" spans="1:9" s="43" customFormat="1" ht="12">
       <c r="A18" s="40" t="s">
-        <v>19</v>
+        <v>24</v>
       </c>
       <c r="B18" s="41"/>
       <c r="C18" s="42"/>
@@ -2180,15 +2184,15 @@
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="E18" s="60"/>
-      <c r="F18" s="61"/>
-      <c r="G18" s="61"/>
-      <c r="H18" s="61"/>
-      <c r="I18" s="62"/>
+      <c r="E18" s="57"/>
+      <c r="F18" s="58"/>
+      <c r="G18" s="58"/>
+      <c r="H18" s="58"/>
+      <c r="I18" s="59"/>
     </row>
     <row r="19" spans="1:9" s="43" customFormat="1" ht="12">
       <c r="A19" s="40" t="s">
-        <v>20</v>
+        <v>25</v>
       </c>
       <c r="B19" s="41">
         <v>0.66666666666666663</v>
@@ -2200,17 +2204,17 @@
         <f t="shared" si="0"/>
         <v>4.1666666666666741E-2</v>
       </c>
-      <c r="E19" s="60" t="s">
-        <v>63</v>
-      </c>
-      <c r="F19" s="61"/>
-      <c r="G19" s="61"/>
-      <c r="H19" s="61"/>
-      <c r="I19" s="62"/>
+      <c r="E19" s="57" t="s">
+        <v>68</v>
+      </c>
+      <c r="F19" s="58"/>
+      <c r="G19" s="58"/>
+      <c r="H19" s="58"/>
+      <c r="I19" s="59"/>
     </row>
     <row r="20" spans="1:9" s="43" customFormat="1" ht="12">
       <c r="A20" s="40" t="s">
-        <v>21</v>
+        <v>26</v>
       </c>
       <c r="B20" s="41"/>
       <c r="C20" s="42"/>
@@ -2218,15 +2222,15 @@
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="E20" s="60"/>
-      <c r="F20" s="61"/>
-      <c r="G20" s="61"/>
-      <c r="H20" s="61"/>
-      <c r="I20" s="62"/>
+      <c r="E20" s="57"/>
+      <c r="F20" s="58"/>
+      <c r="G20" s="58"/>
+      <c r="H20" s="58"/>
+      <c r="I20" s="59"/>
     </row>
     <row r="21" spans="1:9" s="43" customFormat="1" ht="12">
       <c r="A21" s="40" t="s">
-        <v>22</v>
+        <v>27</v>
       </c>
       <c r="B21" s="41"/>
       <c r="C21" s="42"/>
@@ -2234,15 +2238,15 @@
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="E21" s="60"/>
-      <c r="F21" s="61"/>
-      <c r="G21" s="61"/>
-      <c r="H21" s="61"/>
-      <c r="I21" s="62"/>
+      <c r="E21" s="57"/>
+      <c r="F21" s="58"/>
+      <c r="G21" s="58"/>
+      <c r="H21" s="58"/>
+      <c r="I21" s="59"/>
     </row>
     <row r="22" spans="1:9" s="43" customFormat="1" ht="12">
       <c r="A22" s="40" t="s">
-        <v>23</v>
+        <v>28</v>
       </c>
       <c r="B22" s="41"/>
       <c r="C22" s="42"/>
@@ -2250,15 +2254,15 @@
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="E22" s="60"/>
-      <c r="F22" s="61"/>
-      <c r="G22" s="61"/>
-      <c r="H22" s="61"/>
-      <c r="I22" s="62"/>
+      <c r="E22" s="57"/>
+      <c r="F22" s="58"/>
+      <c r="G22" s="58"/>
+      <c r="H22" s="58"/>
+      <c r="I22" s="59"/>
     </row>
     <row r="23" spans="1:9" s="51" customFormat="1" ht="12">
       <c r="A23" s="48" t="s">
-        <v>24</v>
+        <v>29</v>
       </c>
       <c r="B23" s="49"/>
       <c r="C23" s="50"/>
@@ -2266,15 +2270,15 @@
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="E23" s="57"/>
-      <c r="F23" s="58"/>
-      <c r="G23" s="58"/>
-      <c r="H23" s="58"/>
-      <c r="I23" s="59"/>
+      <c r="E23" s="77"/>
+      <c r="F23" s="75"/>
+      <c r="G23" s="75"/>
+      <c r="H23" s="75"/>
+      <c r="I23" s="76"/>
     </row>
     <row r="24" spans="1:9" s="51" customFormat="1" ht="12">
       <c r="A24" s="48" t="s">
-        <v>25</v>
+        <v>30</v>
       </c>
       <c r="B24" s="49">
         <v>0.5</v>
@@ -2286,17 +2290,17 @@
         <f t="shared" si="0"/>
         <v>8.333333333333337E-2</v>
       </c>
-      <c r="E24" s="57" t="s">
-        <v>65</v>
-      </c>
-      <c r="F24" s="58"/>
-      <c r="G24" s="58"/>
-      <c r="H24" s="58"/>
-      <c r="I24" s="59"/>
+      <c r="E24" s="77" t="s">
+        <v>70</v>
+      </c>
+      <c r="F24" s="75"/>
+      <c r="G24" s="75"/>
+      <c r="H24" s="75"/>
+      <c r="I24" s="76"/>
     </row>
     <row r="25" spans="1:9" s="43" customFormat="1" ht="12">
       <c r="A25" s="40" t="s">
-        <v>26</v>
+        <v>31</v>
       </c>
       <c r="B25" s="41">
         <v>0.625</v>
@@ -2308,17 +2312,17 @@
         <f t="shared" si="0"/>
         <v>0.16666666666666663</v>
       </c>
-      <c r="E25" s="60" t="s">
-        <v>64</v>
-      </c>
-      <c r="F25" s="61"/>
-      <c r="G25" s="61"/>
-      <c r="H25" s="61"/>
-      <c r="I25" s="62"/>
+      <c r="E25" s="57" t="s">
+        <v>69</v>
+      </c>
+      <c r="F25" s="58"/>
+      <c r="G25" s="58"/>
+      <c r="H25" s="58"/>
+      <c r="I25" s="59"/>
     </row>
     <row r="26" spans="1:9" s="43" customFormat="1" ht="12">
       <c r="A26" s="40" t="s">
-        <v>27</v>
+        <v>32</v>
       </c>
       <c r="B26" s="41">
         <v>0.375</v>
@@ -2330,13 +2334,13 @@
         <f>C26-B26</f>
         <v>0.125</v>
       </c>
-      <c r="E26" s="60" t="s">
-        <v>71</v>
-      </c>
-      <c r="F26" s="61"/>
-      <c r="G26" s="61"/>
-      <c r="H26" s="61"/>
-      <c r="I26" s="62"/>
+      <c r="E26" s="57" t="s">
+        <v>1</v>
+      </c>
+      <c r="F26" s="58"/>
+      <c r="G26" s="58"/>
+      <c r="H26" s="58"/>
+      <c r="I26" s="59"/>
     </row>
     <row r="27" spans="1:9" s="43" customFormat="1" ht="12">
       <c r="A27" s="40"/>
@@ -2350,17 +2354,17 @@
         <f t="shared" si="0"/>
         <v>8.333333333333337E-2</v>
       </c>
-      <c r="E27" s="60" t="s">
-        <v>69</v>
-      </c>
-      <c r="F27" s="61"/>
-      <c r="G27" s="61"/>
-      <c r="H27" s="61"/>
-      <c r="I27" s="62"/>
+      <c r="E27" s="57" t="s">
+        <v>74</v>
+      </c>
+      <c r="F27" s="58"/>
+      <c r="G27" s="58"/>
+      <c r="H27" s="58"/>
+      <c r="I27" s="59"/>
     </row>
     <row r="28" spans="1:9" s="43" customFormat="1" ht="12">
       <c r="A28" s="40" t="s">
-        <v>28</v>
+        <v>33</v>
       </c>
       <c r="B28" s="41">
         <v>0.83333333333333337</v>
@@ -2372,17 +2376,17 @@
         <f t="shared" si="0"/>
         <v>0.125</v>
       </c>
-      <c r="E28" s="60" t="s">
-        <v>66</v>
-      </c>
-      <c r="F28" s="61"/>
-      <c r="G28" s="61"/>
-      <c r="H28" s="61"/>
-      <c r="I28" s="62"/>
+      <c r="E28" s="57" t="s">
+        <v>71</v>
+      </c>
+      <c r="F28" s="58"/>
+      <c r="G28" s="58"/>
+      <c r="H28" s="58"/>
+      <c r="I28" s="59"/>
     </row>
     <row r="29" spans="1:9" s="43" customFormat="1" ht="12">
       <c r="A29" s="40" t="s">
-        <v>29</v>
+        <v>34</v>
       </c>
       <c r="B29" s="41">
         <v>0.5</v>
@@ -2394,17 +2398,17 @@
         <f t="shared" si="0"/>
         <v>3.125E-2</v>
       </c>
-      <c r="E29" s="60" t="s">
-        <v>68</v>
-      </c>
-      <c r="F29" s="61"/>
-      <c r="G29" s="61"/>
-      <c r="H29" s="61"/>
-      <c r="I29" s="62"/>
+      <c r="E29" s="57" t="s">
+        <v>73</v>
+      </c>
+      <c r="F29" s="58"/>
+      <c r="G29" s="58"/>
+      <c r="H29" s="58"/>
+      <c r="I29" s="59"/>
     </row>
     <row r="30" spans="1:9" s="43" customFormat="1" ht="12">
       <c r="A30" s="40" t="s">
-        <v>30</v>
+        <v>35</v>
       </c>
       <c r="B30" s="41"/>
       <c r="C30" s="42"/>
@@ -2412,15 +2416,15 @@
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="E30" s="60"/>
-      <c r="F30" s="61"/>
-      <c r="G30" s="61"/>
-      <c r="H30" s="61"/>
-      <c r="I30" s="62"/>
+      <c r="E30" s="57"/>
+      <c r="F30" s="58"/>
+      <c r="G30" s="58"/>
+      <c r="H30" s="58"/>
+      <c r="I30" s="59"/>
     </row>
     <row r="31" spans="1:9" s="51" customFormat="1" ht="12">
       <c r="A31" s="48" t="s">
-        <v>31</v>
+        <v>36</v>
       </c>
       <c r="B31" s="49"/>
       <c r="C31" s="50"/>
@@ -2428,15 +2432,15 @@
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="E31" s="57"/>
-      <c r="F31" s="58"/>
-      <c r="G31" s="58"/>
-      <c r="H31" s="58"/>
-      <c r="I31" s="59"/>
+      <c r="E31" s="77"/>
+      <c r="F31" s="75"/>
+      <c r="G31" s="75"/>
+      <c r="H31" s="75"/>
+      <c r="I31" s="76"/>
     </row>
     <row r="32" spans="1:9" s="51" customFormat="1" ht="12">
       <c r="A32" s="48" t="s">
-        <v>32</v>
+        <v>37</v>
       </c>
       <c r="B32" s="49"/>
       <c r="C32" s="50"/>
@@ -2444,15 +2448,15 @@
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="E32" s="57"/>
-      <c r="F32" s="58"/>
-      <c r="G32" s="58"/>
-      <c r="H32" s="58"/>
-      <c r="I32" s="59"/>
+      <c r="E32" s="77"/>
+      <c r="F32" s="75"/>
+      <c r="G32" s="75"/>
+      <c r="H32" s="75"/>
+      <c r="I32" s="76"/>
     </row>
     <row r="33" spans="1:9" s="43" customFormat="1" ht="12">
       <c r="A33" s="40" t="s">
-        <v>33</v>
+        <v>38</v>
       </c>
       <c r="B33" s="41"/>
       <c r="C33" s="42"/>
@@ -2460,15 +2464,15 @@
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="E33" s="60"/>
-      <c r="F33" s="61"/>
-      <c r="G33" s="61"/>
-      <c r="H33" s="61"/>
-      <c r="I33" s="62"/>
+      <c r="E33" s="57"/>
+      <c r="F33" s="58"/>
+      <c r="G33" s="58"/>
+      <c r="H33" s="58"/>
+      <c r="I33" s="59"/>
     </row>
     <row r="34" spans="1:9" s="43" customFormat="1" ht="12">
       <c r="A34" s="40" t="s">
-        <v>34</v>
+        <v>39</v>
       </c>
       <c r="B34" s="41"/>
       <c r="C34" s="42"/>
@@ -2476,15 +2480,15 @@
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="E34" s="60"/>
-      <c r="F34" s="61"/>
-      <c r="G34" s="61"/>
-      <c r="H34" s="61"/>
-      <c r="I34" s="62"/>
+      <c r="E34" s="57"/>
+      <c r="F34" s="58"/>
+      <c r="G34" s="58"/>
+      <c r="H34" s="58"/>
+      <c r="I34" s="59"/>
     </row>
     <row r="35" spans="1:9" s="43" customFormat="1" ht="12">
       <c r="A35" s="40" t="s">
-        <v>35</v>
+        <v>40</v>
       </c>
       <c r="B35" s="41"/>
       <c r="C35" s="42"/>
@@ -2492,15 +2496,15 @@
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="E35" s="60"/>
-      <c r="F35" s="61"/>
-      <c r="G35" s="61"/>
-      <c r="H35" s="61"/>
-      <c r="I35" s="62"/>
+      <c r="E35" s="57"/>
+      <c r="F35" s="58"/>
+      <c r="G35" s="58"/>
+      <c r="H35" s="58"/>
+      <c r="I35" s="59"/>
     </row>
     <row r="36" spans="1:9" s="43" customFormat="1" ht="12">
       <c r="A36" s="40" t="s">
-        <v>36</v>
+        <v>41</v>
       </c>
       <c r="B36" s="41"/>
       <c r="C36" s="42"/>
@@ -2508,15 +2512,15 @@
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="E36" s="60"/>
-      <c r="F36" s="61"/>
-      <c r="G36" s="61"/>
-      <c r="H36" s="61"/>
-      <c r="I36" s="62"/>
+      <c r="E36" s="57"/>
+      <c r="F36" s="58"/>
+      <c r="G36" s="58"/>
+      <c r="H36" s="58"/>
+      <c r="I36" s="59"/>
     </row>
     <row r="37" spans="1:9" s="43" customFormat="1" ht="12">
       <c r="A37" s="40" t="s">
-        <v>37</v>
+        <v>42</v>
       </c>
       <c r="B37" s="41"/>
       <c r="C37" s="42"/>
@@ -2524,15 +2528,15 @@
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="E37" s="60"/>
-      <c r="F37" s="61"/>
-      <c r="G37" s="61"/>
-      <c r="H37" s="61"/>
-      <c r="I37" s="62"/>
+      <c r="E37" s="57"/>
+      <c r="F37" s="58"/>
+      <c r="G37" s="58"/>
+      <c r="H37" s="58"/>
+      <c r="I37" s="59"/>
     </row>
     <row r="38" spans="1:9" s="51" customFormat="1" ht="12">
       <c r="A38" s="48" t="s">
-        <v>38</v>
+        <v>43</v>
       </c>
       <c r="B38" s="49"/>
       <c r="C38" s="50"/>
@@ -2540,15 +2544,15 @@
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="E38" s="57"/>
-      <c r="F38" s="58"/>
-      <c r="G38" s="58"/>
-      <c r="H38" s="58"/>
-      <c r="I38" s="59"/>
+      <c r="E38" s="77"/>
+      <c r="F38" s="75"/>
+      <c r="G38" s="75"/>
+      <c r="H38" s="75"/>
+      <c r="I38" s="76"/>
     </row>
     <row r="39" spans="1:9" s="51" customFormat="1" ht="12">
       <c r="A39" s="48" t="s">
-        <v>39</v>
+        <v>44</v>
       </c>
       <c r="B39" s="49"/>
       <c r="C39" s="50"/>
@@ -2556,15 +2560,15 @@
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="E39" s="57"/>
-      <c r="F39" s="58"/>
-      <c r="G39" s="58"/>
-      <c r="H39" s="58"/>
-      <c r="I39" s="59"/>
+      <c r="E39" s="77"/>
+      <c r="F39" s="75"/>
+      <c r="G39" s="75"/>
+      <c r="H39" s="75"/>
+      <c r="I39" s="76"/>
     </row>
     <row r="40" spans="1:9" s="43" customFormat="1" ht="12">
       <c r="A40" s="40" t="s">
-        <v>40</v>
+        <v>45</v>
       </c>
       <c r="B40" s="41">
         <v>0.9375</v>
@@ -2576,17 +2580,17 @@
         <f t="shared" si="0"/>
         <v>4.166666666666663E-2</v>
       </c>
-      <c r="E40" s="60" t="s">
-        <v>67</v>
-      </c>
-      <c r="F40" s="61"/>
-      <c r="G40" s="61"/>
-      <c r="H40" s="61"/>
-      <c r="I40" s="62"/>
+      <c r="E40" s="57" t="s">
+        <v>72</v>
+      </c>
+      <c r="F40" s="58"/>
+      <c r="G40" s="58"/>
+      <c r="H40" s="58"/>
+      <c r="I40" s="59"/>
     </row>
     <row r="41" spans="1:9" s="43" customFormat="1" ht="12">
       <c r="A41" s="40" t="s">
-        <v>41</v>
+        <v>46</v>
       </c>
       <c r="B41" s="41">
         <v>0.41666666666666669</v>
@@ -2598,13 +2602,13 @@
         <f t="shared" si="0"/>
         <v>0.12499999999999994</v>
       </c>
-      <c r="E41" s="60" t="s">
-        <v>73</v>
-      </c>
-      <c r="F41" s="61"/>
-      <c r="G41" s="61"/>
-      <c r="H41" s="61"/>
-      <c r="I41" s="62"/>
+      <c r="E41" s="57" t="s">
+        <v>3</v>
+      </c>
+      <c r="F41" s="58"/>
+      <c r="G41" s="58"/>
+      <c r="H41" s="58"/>
+      <c r="I41" s="59"/>
     </row>
     <row r="42" spans="1:9" s="43" customFormat="1" ht="12">
       <c r="A42" s="40"/>
@@ -2618,13 +2622,13 @@
         <f t="shared" si="0"/>
         <v>0.16666666666666663</v>
       </c>
-      <c r="E42" s="60" t="s">
-        <v>72</v>
-      </c>
-      <c r="F42" s="61"/>
-      <c r="G42" s="61"/>
-      <c r="H42" s="61"/>
-      <c r="I42" s="62"/>
+      <c r="E42" s="57" t="s">
+        <v>2</v>
+      </c>
+      <c r="F42" s="58"/>
+      <c r="G42" s="58"/>
+      <c r="H42" s="58"/>
+      <c r="I42" s="59"/>
     </row>
     <row r="43" spans="1:9" s="43" customFormat="1" ht="12">
       <c r="A43" s="40"/>
@@ -2638,17 +2642,17 @@
         <f t="shared" si="0"/>
         <v>0.10416666666666663</v>
       </c>
-      <c r="E43" s="60" t="s">
-        <v>0</v>
-      </c>
-      <c r="F43" s="61"/>
-      <c r="G43" s="61"/>
-      <c r="H43" s="61"/>
-      <c r="I43" s="62"/>
+      <c r="E43" s="57" t="s">
+        <v>6</v>
+      </c>
+      <c r="F43" s="58"/>
+      <c r="G43" s="58"/>
+      <c r="H43" s="58"/>
+      <c r="I43" s="59"/>
     </row>
     <row r="44" spans="1:9" s="43" customFormat="1" ht="12">
       <c r="A44" s="40" t="s">
-        <v>42</v>
+        <v>47</v>
       </c>
       <c r="B44" s="41">
         <v>0.5</v>
@@ -2660,17 +2664,17 @@
         <f t="shared" si="0"/>
         <v>8.333333333333337E-2</v>
       </c>
-      <c r="E44" s="60" t="s">
-        <v>1</v>
-      </c>
-      <c r="F44" s="61"/>
-      <c r="G44" s="61"/>
-      <c r="H44" s="61"/>
-      <c r="I44" s="62"/>
+      <c r="E44" s="57" t="s">
+        <v>7</v>
+      </c>
+      <c r="F44" s="58"/>
+      <c r="G44" s="58"/>
+      <c r="H44" s="58"/>
+      <c r="I44" s="59"/>
     </row>
     <row r="45" spans="1:9" s="43" customFormat="1" ht="12">
       <c r="A45" s="40" t="s">
-        <v>43</v>
+        <v>48</v>
       </c>
       <c r="B45" s="41">
         <v>0.41666666666666669</v>
@@ -2682,17 +2686,17 @@
         <f t="shared" si="0"/>
         <v>2.0833333333333315E-2</v>
       </c>
-      <c r="E45" s="60" t="s">
-        <v>11</v>
-      </c>
-      <c r="F45" s="61"/>
-      <c r="G45" s="61"/>
-      <c r="H45" s="61"/>
-      <c r="I45" s="62"/>
+      <c r="E45" s="57" t="s">
+        <v>16</v>
+      </c>
+      <c r="F45" s="58"/>
+      <c r="G45" s="58"/>
+      <c r="H45" s="58"/>
+      <c r="I45" s="59"/>
     </row>
     <row r="46" spans="1:9" s="43" customFormat="1" ht="12">
       <c r="A46" s="40" t="s">
-        <v>44</v>
+        <v>49</v>
       </c>
       <c r="B46" s="41">
         <v>0.5</v>
@@ -2704,17 +2708,17 @@
         <f t="shared" si="0"/>
         <v>0.16666666666666663</v>
       </c>
-      <c r="E46" s="60" t="s">
-        <v>2</v>
-      </c>
-      <c r="F46" s="61"/>
-      <c r="G46" s="61"/>
-      <c r="H46" s="61"/>
-      <c r="I46" s="62"/>
+      <c r="E46" s="57" t="s">
+        <v>8</v>
+      </c>
+      <c r="F46" s="58"/>
+      <c r="G46" s="58"/>
+      <c r="H46" s="58"/>
+      <c r="I46" s="59"/>
     </row>
     <row r="47" spans="1:9" s="51" customFormat="1" ht="12">
       <c r="A47" s="48" t="s">
-        <v>45</v>
+        <v>50</v>
       </c>
       <c r="B47" s="49"/>
       <c r="C47" s="50"/>
@@ -2722,15 +2726,15 @@
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="E47" s="57"/>
-      <c r="F47" s="58"/>
-      <c r="G47" s="58"/>
-      <c r="H47" s="58"/>
-      <c r="I47" s="59"/>
+      <c r="E47" s="77"/>
+      <c r="F47" s="75"/>
+      <c r="G47" s="75"/>
+      <c r="H47" s="75"/>
+      <c r="I47" s="76"/>
     </row>
     <row r="48" spans="1:9" s="51" customFormat="1" ht="12">
       <c r="A48" s="48" t="s">
-        <v>46</v>
+        <v>51</v>
       </c>
       <c r="B48" s="49"/>
       <c r="C48" s="50"/>
@@ -2738,15 +2742,15 @@
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="E48" s="57"/>
-      <c r="F48" s="58"/>
-      <c r="G48" s="58"/>
-      <c r="H48" s="58"/>
-      <c r="I48" s="59"/>
+      <c r="E48" s="77"/>
+      <c r="F48" s="75"/>
+      <c r="G48" s="75"/>
+      <c r="H48" s="75"/>
+      <c r="I48" s="76"/>
     </row>
     <row r="49" spans="1:13" s="43" customFormat="1" ht="12">
       <c r="A49" s="44" t="s">
-        <v>47</v>
+        <v>52</v>
       </c>
       <c r="B49" s="41">
         <v>0.5</v>
@@ -2758,27 +2762,27 @@
         <f t="shared" si="0"/>
         <v>8.333333333333337E-2</v>
       </c>
-      <c r="E49" s="60" t="s">
-        <v>4</v>
-      </c>
-      <c r="F49" s="61"/>
-      <c r="G49" s="61"/>
-      <c r="H49" s="61"/>
-      <c r="I49" s="62"/>
+      <c r="E49" s="57" t="s">
+        <v>9</v>
+      </c>
+      <c r="F49" s="58"/>
+      <c r="G49" s="58"/>
+      <c r="H49" s="58"/>
+      <c r="I49" s="59"/>
     </row>
     <row r="50" spans="1:13" s="47" customFormat="1" ht="13">
-      <c r="A50" s="63"/>
-      <c r="B50" s="64"/>
-      <c r="C50" s="64"/>
+      <c r="A50" s="94"/>
+      <c r="B50" s="95"/>
+      <c r="C50" s="95"/>
       <c r="D50" s="46">
         <f>SUM(D16:D49)</f>
         <v>1.65625</v>
       </c>
-      <c r="E50" s="65"/>
-      <c r="F50" s="65"/>
-      <c r="G50" s="65"/>
-      <c r="H50" s="65"/>
-      <c r="I50" s="66"/>
+      <c r="E50" s="96"/>
+      <c r="F50" s="96"/>
+      <c r="G50" s="96"/>
+      <c r="H50" s="96"/>
+      <c r="I50" s="97"/>
     </row>
     <row r="51" spans="1:13" ht="7.5" customHeight="1">
       <c r="A51" s="28"/>
@@ -2811,6 +2815,44 @@
     </row>
   </sheetData>
   <mergeCells count="54">
+    <mergeCell ref="E48:I48"/>
+    <mergeCell ref="E49:I49"/>
+    <mergeCell ref="A50:C50"/>
+    <mergeCell ref="E50:I50"/>
+    <mergeCell ref="E45:I45"/>
+    <mergeCell ref="E46:I46"/>
+    <mergeCell ref="E47:I47"/>
+    <mergeCell ref="E44:I44"/>
+    <mergeCell ref="E37:I37"/>
+    <mergeCell ref="E38:I38"/>
+    <mergeCell ref="E39:I39"/>
+    <mergeCell ref="E34:I34"/>
+    <mergeCell ref="E35:I35"/>
+    <mergeCell ref="E36:I36"/>
+    <mergeCell ref="E40:I40"/>
+    <mergeCell ref="E41:I41"/>
+    <mergeCell ref="E42:I42"/>
+    <mergeCell ref="E31:I31"/>
+    <mergeCell ref="E32:I32"/>
+    <mergeCell ref="E33:I33"/>
+    <mergeCell ref="E28:I28"/>
+    <mergeCell ref="E29:I29"/>
+    <mergeCell ref="E30:I30"/>
+    <mergeCell ref="E24:I24"/>
+    <mergeCell ref="E25:I25"/>
+    <mergeCell ref="E27:I27"/>
+    <mergeCell ref="E21:I21"/>
+    <mergeCell ref="E22:I22"/>
+    <mergeCell ref="E23:I23"/>
+    <mergeCell ref="E26:I26"/>
+    <mergeCell ref="E20:I20"/>
+    <mergeCell ref="E16:I16"/>
+    <mergeCell ref="E17:I17"/>
+    <mergeCell ref="A13:A15"/>
+    <mergeCell ref="B13:I13"/>
+    <mergeCell ref="B14:C14"/>
+    <mergeCell ref="D14:D15"/>
+    <mergeCell ref="E14:I15"/>
     <mergeCell ref="E43:I43"/>
     <mergeCell ref="A1:I1"/>
     <mergeCell ref="A2:I2"/>
@@ -2827,44 +2869,6 @@
     <mergeCell ref="D7:H7"/>
     <mergeCell ref="E18:I18"/>
     <mergeCell ref="E19:I19"/>
-    <mergeCell ref="E20:I20"/>
-    <mergeCell ref="E16:I16"/>
-    <mergeCell ref="E17:I17"/>
-    <mergeCell ref="A13:A15"/>
-    <mergeCell ref="B13:I13"/>
-    <mergeCell ref="B14:C14"/>
-    <mergeCell ref="D14:D15"/>
-    <mergeCell ref="E14:I15"/>
-    <mergeCell ref="E24:I24"/>
-    <mergeCell ref="E25:I25"/>
-    <mergeCell ref="E27:I27"/>
-    <mergeCell ref="E21:I21"/>
-    <mergeCell ref="E22:I22"/>
-    <mergeCell ref="E23:I23"/>
-    <mergeCell ref="E26:I26"/>
-    <mergeCell ref="E31:I31"/>
-    <mergeCell ref="E32:I32"/>
-    <mergeCell ref="E33:I33"/>
-    <mergeCell ref="E28:I28"/>
-    <mergeCell ref="E29:I29"/>
-    <mergeCell ref="E30:I30"/>
-    <mergeCell ref="E44:I44"/>
-    <mergeCell ref="E37:I37"/>
-    <mergeCell ref="E38:I38"/>
-    <mergeCell ref="E39:I39"/>
-    <mergeCell ref="E34:I34"/>
-    <mergeCell ref="E35:I35"/>
-    <mergeCell ref="E36:I36"/>
-    <mergeCell ref="E40:I40"/>
-    <mergeCell ref="E41:I41"/>
-    <mergeCell ref="E42:I42"/>
-    <mergeCell ref="E48:I48"/>
-    <mergeCell ref="E49:I49"/>
-    <mergeCell ref="A50:C50"/>
-    <mergeCell ref="E50:I50"/>
-    <mergeCell ref="E45:I45"/>
-    <mergeCell ref="E46:I46"/>
-    <mergeCell ref="E47:I47"/>
   </mergeCells>
   <phoneticPr fontId="32" type="noConversion"/>
   <printOptions horizontalCentered="1"/>
@@ -2886,7 +2890,7 @@
   <dimension ref="A1:AS47"/>
   <sheetViews>
     <sheetView tabSelected="1" view="pageLayout" zoomScale="85" zoomScaleSheetLayoutView="85" workbookViewId="0">
-      <selection activeCell="E36" sqref="E36:I36"/>
+      <selection activeCell="E35" sqref="E35:I35"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.1640625" defaultRowHeight="10"/>
@@ -2904,17 +2908,17 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:45" s="7" customFormat="1" ht="18" thickBot="1">
-      <c r="A1" s="90" t="s">
-        <v>50</v>
-      </c>
-      <c r="B1" s="90"/>
-      <c r="C1" s="90"/>
-      <c r="D1" s="90"/>
-      <c r="E1" s="90"/>
-      <c r="F1" s="90"/>
-      <c r="G1" s="90"/>
-      <c r="H1" s="90"/>
-      <c r="I1" s="90"/>
+      <c r="A1" s="60" t="s">
+        <v>55</v>
+      </c>
+      <c r="B1" s="60"/>
+      <c r="C1" s="60"/>
+      <c r="D1" s="60"/>
+      <c r="E1" s="60"/>
+      <c r="F1" s="60"/>
+      <c r="G1" s="60"/>
+      <c r="H1" s="60"/>
+      <c r="I1" s="60"/>
       <c r="J1" s="8"/>
       <c r="K1" s="8"/>
       <c r="L1" s="8"/>
@@ -2952,15 +2956,15 @@
       <c r="AR1" s="8"/>
     </row>
     <row r="2" spans="1:45" s="1" customFormat="1" ht="7.5" customHeight="1">
-      <c r="A2" s="91"/>
-      <c r="B2" s="91"/>
-      <c r="C2" s="91"/>
-      <c r="D2" s="91"/>
-      <c r="E2" s="91"/>
-      <c r="F2" s="91"/>
-      <c r="G2" s="91"/>
-      <c r="H2" s="91"/>
-      <c r="I2" s="91"/>
+      <c r="A2" s="61"/>
+      <c r="B2" s="61"/>
+      <c r="C2" s="61"/>
+      <c r="D2" s="61"/>
+      <c r="E2" s="61"/>
+      <c r="F2" s="61"/>
+      <c r="G2" s="61"/>
+      <c r="H2" s="61"/>
+      <c r="I2" s="61"/>
       <c r="J2" s="9"/>
       <c r="K2" s="9"/>
       <c r="L2" s="9"/>
@@ -2998,16 +3002,16 @@
       <c r="AR2" s="9"/>
     </row>
     <row r="3" spans="1:45" s="11" customFormat="1" ht="13.5" customHeight="1">
-      <c r="A3" s="92" t="s">
-        <v>54</v>
-      </c>
-      <c r="B3" s="92"/>
-      <c r="C3" s="92"/>
-      <c r="D3" s="92"/>
-      <c r="E3" s="92"/>
-      <c r="F3" s="92"/>
-      <c r="G3" s="92"/>
-      <c r="H3" s="92"/>
+      <c r="A3" s="62" t="s">
+        <v>59</v>
+      </c>
+      <c r="B3" s="62"/>
+      <c r="C3" s="62"/>
+      <c r="D3" s="62"/>
+      <c r="E3" s="62"/>
+      <c r="F3" s="62"/>
+      <c r="G3" s="62"/>
+      <c r="H3" s="62"/>
       <c r="I3" s="23"/>
       <c r="J3" s="22"/>
       <c r="K3" s="22"/>
@@ -3047,112 +3051,112 @@
       <c r="AS3" s="10"/>
     </row>
     <row r="4" spans="1:45" s="6" customFormat="1" ht="9" customHeight="1">
-      <c r="A4" s="93"/>
-      <c r="B4" s="93"/>
-      <c r="C4" s="93"/>
-      <c r="D4" s="93"/>
-      <c r="E4" s="93"/>
-      <c r="F4" s="93"/>
-      <c r="G4" s="93"/>
-      <c r="H4" s="93"/>
-      <c r="I4" s="93"/>
+      <c r="A4" s="63"/>
+      <c r="B4" s="63"/>
+      <c r="C4" s="63"/>
+      <c r="D4" s="63"/>
+      <c r="E4" s="63"/>
+      <c r="F4" s="63"/>
+      <c r="G4" s="63"/>
+      <c r="H4" s="63"/>
+      <c r="I4" s="63"/>
     </row>
     <row r="5" spans="1:45" s="1" customFormat="1" ht="13.75" customHeight="1">
-      <c r="A5" s="96" t="str">
+      <c r="A5" s="70" t="str">
         <f>October!A5</f>
         <v>Firstname Lastname</v>
       </c>
-      <c r="B5" s="97"/>
-      <c r="C5" s="97"/>
-      <c r="D5" s="84" t="str">
+      <c r="B5" s="71"/>
+      <c r="C5" s="71"/>
+      <c r="D5" s="66" t="str">
         <f>October!D5</f>
         <v>Augustin Hannah</v>
       </c>
-      <c r="E5" s="85"/>
-      <c r="F5" s="85"/>
-      <c r="G5" s="85"/>
-      <c r="H5" s="86"/>
+      <c r="E5" s="67"/>
+      <c r="F5" s="67"/>
+      <c r="G5" s="67"/>
+      <c r="H5" s="68"/>
       <c r="I5" s="23"/>
       <c r="J5" s="9"/>
       <c r="K5" s="9"/>
       <c r="L5" s="9"/>
     </row>
     <row r="6" spans="1:45" s="1" customFormat="1" ht="7.5" customHeight="1">
-      <c r="A6" s="87"/>
-      <c r="B6" s="87"/>
-      <c r="C6" s="87"/>
-      <c r="D6" s="87"/>
-      <c r="E6" s="87"/>
-      <c r="F6" s="87"/>
-      <c r="G6" s="87"/>
-      <c r="H6" s="87"/>
-      <c r="I6" s="87"/>
+      <c r="A6" s="72"/>
+      <c r="B6" s="72"/>
+      <c r="C6" s="72"/>
+      <c r="D6" s="72"/>
+      <c r="E6" s="72"/>
+      <c r="F6" s="72"/>
+      <c r="G6" s="72"/>
+      <c r="H6" s="72"/>
+      <c r="I6" s="72"/>
     </row>
     <row r="7" spans="1:45" s="1" customFormat="1" ht="13.75" customHeight="1">
-      <c r="A7" s="88" t="str">
+      <c r="A7" s="65" t="str">
         <f>October!A7</f>
         <v>Project Acronym</v>
       </c>
-      <c r="B7" s="88"/>
-      <c r="C7" s="88"/>
-      <c r="D7" s="89" t="str">
+      <c r="B7" s="65"/>
+      <c r="C7" s="65"/>
+      <c r="D7" s="73" t="str">
         <f>October!D7</f>
         <v>AIQ</v>
       </c>
-      <c r="E7" s="89"/>
-      <c r="F7" s="89"/>
-      <c r="G7" s="89"/>
-      <c r="H7" s="89"/>
+      <c r="E7" s="73"/>
+      <c r="F7" s="73"/>
+      <c r="G7" s="73"/>
+      <c r="H7" s="73"/>
       <c r="I7" s="24"/>
     </row>
     <row r="8" spans="1:45" s="1" customFormat="1" ht="7.5" customHeight="1">
-      <c r="A8" s="94"/>
-      <c r="B8" s="94"/>
-      <c r="C8" s="94"/>
-      <c r="D8" s="94"/>
-      <c r="E8" s="94"/>
-      <c r="F8" s="94"/>
-      <c r="G8" s="94"/>
-      <c r="H8" s="94"/>
-      <c r="I8" s="94"/>
+      <c r="A8" s="64"/>
+      <c r="B8" s="64"/>
+      <c r="C8" s="64"/>
+      <c r="D8" s="64"/>
+      <c r="E8" s="64"/>
+      <c r="F8" s="64"/>
+      <c r="G8" s="64"/>
+      <c r="H8" s="64"/>
+      <c r="I8" s="64"/>
     </row>
     <row r="9" spans="1:45" s="1" customFormat="1" ht="13.75" customHeight="1">
-      <c r="A9" s="88" t="str">
+      <c r="A9" s="65" t="str">
         <f>October!A9</f>
         <v>Project Title</v>
       </c>
-      <c r="B9" s="88"/>
-      <c r="C9" s="88"/>
-      <c r="D9" s="84" t="str">
+      <c r="B9" s="65"/>
+      <c r="C9" s="65"/>
+      <c r="D9" s="66" t="str">
         <f>October!D9</f>
         <v>Automating change detection in ImageQuerying</v>
       </c>
-      <c r="E9" s="85"/>
-      <c r="F9" s="85"/>
-      <c r="G9" s="85"/>
-      <c r="H9" s="86"/>
+      <c r="E9" s="67"/>
+      <c r="F9" s="67"/>
+      <c r="G9" s="67"/>
+      <c r="H9" s="68"/>
       <c r="I9" s="24"/>
       <c r="J9" s="15"/>
     </row>
     <row r="10" spans="1:45" s="1" customFormat="1" ht="7.5" customHeight="1">
-      <c r="A10" s="95"/>
-      <c r="B10" s="95"/>
-      <c r="C10" s="95"/>
-      <c r="D10" s="95"/>
-      <c r="E10" s="95"/>
-      <c r="F10" s="95"/>
-      <c r="G10" s="95"/>
-      <c r="H10" s="95"/>
-      <c r="I10" s="95"/>
+      <c r="A10" s="69"/>
+      <c r="B10" s="69"/>
+      <c r="C10" s="69"/>
+      <c r="D10" s="69"/>
+      <c r="E10" s="69"/>
+      <c r="F10" s="69"/>
+      <c r="G10" s="69"/>
+      <c r="H10" s="69"/>
+      <c r="I10" s="69"/>
     </row>
     <row r="11" spans="1:45" s="1" customFormat="1" ht="12">
       <c r="A11" s="21" t="s">
-        <v>52</v>
+        <v>57</v>
       </c>
       <c r="B11" s="21"/>
       <c r="C11" s="21"/>
       <c r="D11" s="21" t="s">
-        <v>53</v>
+        <v>58</v>
       </c>
       <c r="E11" s="21"/>
       <c r="F11" s="21"/>
@@ -3172,55 +3176,55 @@
       <c r="I12" s="26"/>
     </row>
     <row r="13" spans="1:45" s="2" customFormat="1" ht="15.5" customHeight="1">
-      <c r="A13" s="68" t="s">
-        <v>12</v>
-      </c>
-      <c r="B13" s="71" t="s">
-        <v>48</v>
-      </c>
-      <c r="C13" s="72"/>
-      <c r="D13" s="72"/>
-      <c r="E13" s="72"/>
-      <c r="F13" s="72"/>
-      <c r="G13" s="72"/>
-      <c r="H13" s="72"/>
-      <c r="I13" s="73"/>
+      <c r="A13" s="78" t="s">
+        <v>17</v>
+      </c>
+      <c r="B13" s="81" t="s">
+        <v>53</v>
+      </c>
+      <c r="C13" s="82"/>
+      <c r="D13" s="82"/>
+      <c r="E13" s="82"/>
+      <c r="F13" s="82"/>
+      <c r="G13" s="82"/>
+      <c r="H13" s="82"/>
+      <c r="I13" s="83"/>
     </row>
     <row r="14" spans="1:45" s="2" customFormat="1" ht="13.75" customHeight="1">
-      <c r="A14" s="69"/>
-      <c r="B14" s="74" t="s">
-        <v>13</v>
-      </c>
-      <c r="C14" s="75"/>
-      <c r="D14" s="76" t="s">
-        <v>14</v>
-      </c>
-      <c r="E14" s="78" t="s">
-        <v>49</v>
-      </c>
-      <c r="F14" s="79"/>
-      <c r="G14" s="79"/>
-      <c r="H14" s="79"/>
-      <c r="I14" s="80"/>
+      <c r="A14" s="79"/>
+      <c r="B14" s="84" t="s">
+        <v>18</v>
+      </c>
+      <c r="C14" s="85"/>
+      <c r="D14" s="86" t="s">
+        <v>19</v>
+      </c>
+      <c r="E14" s="88" t="s">
+        <v>54</v>
+      </c>
+      <c r="F14" s="89"/>
+      <c r="G14" s="89"/>
+      <c r="H14" s="89"/>
+      <c r="I14" s="90"/>
     </row>
     <row r="15" spans="1:45" ht="13" customHeight="1">
-      <c r="A15" s="70"/>
+      <c r="A15" s="80"/>
       <c r="B15" s="32" t="s">
-        <v>15</v>
+        <v>20</v>
       </c>
       <c r="C15" s="33" t="s">
-        <v>16</v>
-      </c>
-      <c r="D15" s="77"/>
-      <c r="E15" s="81"/>
-      <c r="F15" s="82"/>
-      <c r="G15" s="82"/>
-      <c r="H15" s="82"/>
-      <c r="I15" s="83"/>
+        <v>21</v>
+      </c>
+      <c r="D15" s="87"/>
+      <c r="E15" s="91"/>
+      <c r="F15" s="92"/>
+      <c r="G15" s="92"/>
+      <c r="H15" s="92"/>
+      <c r="I15" s="93"/>
     </row>
     <row r="16" spans="1:45" s="43" customFormat="1" ht="12">
       <c r="A16" s="40" t="s">
-        <v>17</v>
+        <v>22</v>
       </c>
       <c r="B16" s="41"/>
       <c r="C16" s="42"/>
@@ -3228,15 +3232,15 @@
         <f>C16-B16</f>
         <v>0</v>
       </c>
-      <c r="E16" s="60"/>
-      <c r="F16" s="61"/>
-      <c r="G16" s="61"/>
-      <c r="H16" s="61"/>
-      <c r="I16" s="62"/>
+      <c r="E16" s="57"/>
+      <c r="F16" s="58"/>
+      <c r="G16" s="58"/>
+      <c r="H16" s="58"/>
+      <c r="I16" s="59"/>
     </row>
     <row r="17" spans="1:9" s="43" customFormat="1" ht="12">
       <c r="A17" s="40" t="s">
-        <v>18</v>
+        <v>23</v>
       </c>
       <c r="B17" s="41"/>
       <c r="C17" s="42"/>
@@ -3244,15 +3248,15 @@
         <f t="shared" ref="D17:D45" si="0">C17-B17</f>
         <v>0</v>
       </c>
-      <c r="E17" s="60"/>
-      <c r="F17" s="61"/>
-      <c r="G17" s="61"/>
-      <c r="H17" s="61"/>
-      <c r="I17" s="62"/>
+      <c r="E17" s="57"/>
+      <c r="F17" s="58"/>
+      <c r="G17" s="58"/>
+      <c r="H17" s="58"/>
+      <c r="I17" s="59"/>
     </row>
     <row r="18" spans="1:9" s="43" customFormat="1" ht="12">
       <c r="A18" s="40" t="s">
-        <v>19</v>
+        <v>24</v>
       </c>
       <c r="B18" s="41"/>
       <c r="C18" s="42"/>
@@ -3260,15 +3264,15 @@
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="E18" s="60"/>
-      <c r="F18" s="61"/>
-      <c r="G18" s="61"/>
-      <c r="H18" s="61"/>
-      <c r="I18" s="62"/>
+      <c r="E18" s="57"/>
+      <c r="F18" s="58"/>
+      <c r="G18" s="58"/>
+      <c r="H18" s="58"/>
+      <c r="I18" s="59"/>
     </row>
     <row r="19" spans="1:9" s="43" customFormat="1" ht="12">
       <c r="A19" s="40" t="s">
-        <v>20</v>
+        <v>25</v>
       </c>
       <c r="B19" s="41">
         <v>0.58333333333333337</v>
@@ -3280,17 +3284,17 @@
         <f t="shared" si="0"/>
         <v>0.16666666666666663</v>
       </c>
-      <c r="E19" s="60" t="s">
-        <v>5</v>
-      </c>
-      <c r="F19" s="61"/>
-      <c r="G19" s="61"/>
-      <c r="H19" s="61"/>
-      <c r="I19" s="62"/>
+      <c r="E19" s="57" t="s">
+        <v>10</v>
+      </c>
+      <c r="F19" s="58"/>
+      <c r="G19" s="58"/>
+      <c r="H19" s="58"/>
+      <c r="I19" s="59"/>
     </row>
     <row r="20" spans="1:9" s="51" customFormat="1" ht="12">
       <c r="A20" s="48" t="s">
-        <v>21</v>
+        <v>26</v>
       </c>
       <c r="B20" s="49"/>
       <c r="C20" s="50"/>
@@ -3298,15 +3302,15 @@
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="E20" s="57"/>
-      <c r="F20" s="58"/>
-      <c r="G20" s="58"/>
-      <c r="H20" s="58"/>
-      <c r="I20" s="59"/>
+      <c r="E20" s="77"/>
+      <c r="F20" s="75"/>
+      <c r="G20" s="75"/>
+      <c r="H20" s="75"/>
+      <c r="I20" s="76"/>
     </row>
     <row r="21" spans="1:9" s="51" customFormat="1" ht="12">
       <c r="A21" s="48" t="s">
-        <v>22</v>
+        <v>27</v>
       </c>
       <c r="B21" s="49"/>
       <c r="C21" s="50"/>
@@ -3314,15 +3318,15 @@
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="E21" s="57"/>
-      <c r="F21" s="58"/>
-      <c r="G21" s="58"/>
-      <c r="H21" s="58"/>
-      <c r="I21" s="59"/>
+      <c r="E21" s="77"/>
+      <c r="F21" s="75"/>
+      <c r="G21" s="75"/>
+      <c r="H21" s="75"/>
+      <c r="I21" s="76"/>
     </row>
     <row r="22" spans="1:9" s="43" customFormat="1" ht="12">
       <c r="A22" s="40" t="s">
-        <v>23</v>
+        <v>28</v>
       </c>
       <c r="B22" s="41">
         <v>0.39583333333333331</v>
@@ -3334,17 +3338,17 @@
         <f t="shared" si="0"/>
         <v>0.16666666666666669</v>
       </c>
-      <c r="E22" s="60" t="s">
-        <v>10</v>
-      </c>
-      <c r="F22" s="61"/>
-      <c r="G22" s="61"/>
-      <c r="H22" s="61"/>
-      <c r="I22" s="62"/>
+      <c r="E22" s="57" t="s">
+        <v>15</v>
+      </c>
+      <c r="F22" s="58"/>
+      <c r="G22" s="58"/>
+      <c r="H22" s="58"/>
+      <c r="I22" s="59"/>
     </row>
     <row r="23" spans="1:9" s="43" customFormat="1" ht="12">
       <c r="A23" s="40" t="s">
-        <v>24</v>
+        <v>29</v>
       </c>
       <c r="B23" s="41">
         <v>0.41666666666666669</v>
@@ -3356,17 +3360,17 @@
         <f t="shared" si="0"/>
         <v>0.12499999999999994</v>
       </c>
-      <c r="E23" s="60" t="s">
-        <v>9</v>
-      </c>
-      <c r="F23" s="61"/>
-      <c r="G23" s="61"/>
-      <c r="H23" s="61"/>
-      <c r="I23" s="62"/>
+      <c r="E23" s="57" t="s">
+        <v>14</v>
+      </c>
+      <c r="F23" s="58"/>
+      <c r="G23" s="58"/>
+      <c r="H23" s="58"/>
+      <c r="I23" s="59"/>
     </row>
     <row r="24" spans="1:9" s="43" customFormat="1" ht="12">
       <c r="A24" s="40" t="s">
-        <v>25</v>
+        <v>30</v>
       </c>
       <c r="B24" s="41"/>
       <c r="C24" s="42"/>
@@ -3374,15 +3378,15 @@
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="E24" s="60"/>
-      <c r="F24" s="61"/>
-      <c r="G24" s="61"/>
-      <c r="H24" s="61"/>
-      <c r="I24" s="62"/>
+      <c r="E24" s="57"/>
+      <c r="F24" s="58"/>
+      <c r="G24" s="58"/>
+      <c r="H24" s="58"/>
+      <c r="I24" s="59"/>
     </row>
     <row r="25" spans="1:9" s="43" customFormat="1" ht="12">
       <c r="A25" s="40" t="s">
-        <v>26</v>
+        <v>31</v>
       </c>
       <c r="B25" s="41">
         <v>0.75</v>
@@ -3394,17 +3398,17 @@
         <f t="shared" si="0"/>
         <v>0.16666666666666663</v>
       </c>
-      <c r="E25" s="60" t="s">
-        <v>8</v>
-      </c>
-      <c r="F25" s="61"/>
-      <c r="G25" s="61"/>
-      <c r="H25" s="61"/>
-      <c r="I25" s="62"/>
+      <c r="E25" s="57" t="s">
+        <v>13</v>
+      </c>
+      <c r="F25" s="58"/>
+      <c r="G25" s="58"/>
+      <c r="H25" s="58"/>
+      <c r="I25" s="59"/>
     </row>
     <row r="26" spans="1:9" s="43" customFormat="1" ht="12">
       <c r="A26" s="40" t="s">
-        <v>27</v>
+        <v>32</v>
       </c>
       <c r="B26" s="41"/>
       <c r="C26" s="42"/>
@@ -3412,15 +3416,15 @@
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="E26" s="60"/>
-      <c r="F26" s="61"/>
-      <c r="G26" s="61"/>
-      <c r="H26" s="61"/>
-      <c r="I26" s="62"/>
+      <c r="E26" s="57"/>
+      <c r="F26" s="58"/>
+      <c r="G26" s="58"/>
+      <c r="H26" s="58"/>
+      <c r="I26" s="59"/>
     </row>
     <row r="27" spans="1:9" s="51" customFormat="1" ht="12">
       <c r="A27" s="48" t="s">
-        <v>28</v>
+        <v>33</v>
       </c>
       <c r="B27" s="49"/>
       <c r="C27" s="50"/>
@@ -3428,15 +3432,15 @@
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="E27" s="57"/>
-      <c r="F27" s="58"/>
-      <c r="G27" s="58"/>
-      <c r="H27" s="58"/>
-      <c r="I27" s="59"/>
+      <c r="E27" s="77"/>
+      <c r="F27" s="75"/>
+      <c r="G27" s="75"/>
+      <c r="H27" s="75"/>
+      <c r="I27" s="76"/>
     </row>
     <row r="28" spans="1:9" s="51" customFormat="1" ht="12">
       <c r="A28" s="48" t="s">
-        <v>29</v>
+        <v>34</v>
       </c>
       <c r="B28" s="49">
         <v>0.45833333333333331</v>
@@ -3448,17 +3452,17 @@
         <f t="shared" si="0"/>
         <v>0.25000000000000006</v>
       </c>
-      <c r="E28" s="57" t="s">
-        <v>6</v>
-      </c>
-      <c r="F28" s="58"/>
-      <c r="G28" s="58"/>
-      <c r="H28" s="58"/>
-      <c r="I28" s="59"/>
+      <c r="E28" s="77" t="s">
+        <v>11</v>
+      </c>
+      <c r="F28" s="75"/>
+      <c r="G28" s="75"/>
+      <c r="H28" s="75"/>
+      <c r="I28" s="76"/>
     </row>
     <row r="29" spans="1:9" s="43" customFormat="1" ht="12">
       <c r="A29" s="40" t="s">
-        <v>30</v>
+        <v>35</v>
       </c>
       <c r="B29" s="41">
         <v>0.70833333333333337</v>
@@ -3470,17 +3474,17 @@
         <f t="shared" si="0"/>
         <v>0.20833333333333326</v>
       </c>
-      <c r="E29" s="60" t="s">
-        <v>7</v>
-      </c>
-      <c r="F29" s="61"/>
-      <c r="G29" s="61"/>
-      <c r="H29" s="61"/>
-      <c r="I29" s="62"/>
+      <c r="E29" s="57" t="s">
+        <v>12</v>
+      </c>
+      <c r="F29" s="58"/>
+      <c r="G29" s="58"/>
+      <c r="H29" s="58"/>
+      <c r="I29" s="59"/>
     </row>
     <row r="30" spans="1:9" s="43" customFormat="1" ht="12">
       <c r="A30" s="40" t="s">
-        <v>31</v>
+        <v>36</v>
       </c>
       <c r="B30" s="41">
         <v>0.66666666666666663</v>
@@ -3492,17 +3496,17 @@
         <f t="shared" si="0"/>
         <v>0.16666666666666674</v>
       </c>
-      <c r="E30" s="60" t="s">
-        <v>3</v>
-      </c>
-      <c r="F30" s="61"/>
-      <c r="G30" s="61"/>
-      <c r="H30" s="61"/>
-      <c r="I30" s="62"/>
+      <c r="E30" s="57" t="s">
+        <v>4</v>
+      </c>
+      <c r="F30" s="58"/>
+      <c r="G30" s="58"/>
+      <c r="H30" s="58"/>
+      <c r="I30" s="59"/>
     </row>
     <row r="31" spans="1:9" s="43" customFormat="1" ht="12">
       <c r="A31" s="40" t="s">
-        <v>32</v>
+        <v>37</v>
       </c>
       <c r="B31" s="41"/>
       <c r="C31" s="42"/>
@@ -3510,15 +3514,15 @@
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="E31" s="60"/>
-      <c r="F31" s="61"/>
-      <c r="G31" s="61"/>
-      <c r="H31" s="61"/>
-      <c r="I31" s="62"/>
+      <c r="E31" s="57"/>
+      <c r="F31" s="58"/>
+      <c r="G31" s="58"/>
+      <c r="H31" s="58"/>
+      <c r="I31" s="59"/>
     </row>
     <row r="32" spans="1:9" s="43" customFormat="1" ht="12">
       <c r="A32" s="40" t="s">
-        <v>33</v>
+        <v>38</v>
       </c>
       <c r="B32" s="41"/>
       <c r="C32" s="42"/>
@@ -3526,15 +3530,15 @@
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="E32" s="60"/>
-      <c r="F32" s="61"/>
-      <c r="G32" s="61"/>
-      <c r="H32" s="61"/>
-      <c r="I32" s="62"/>
+      <c r="E32" s="57"/>
+      <c r="F32" s="58"/>
+      <c r="G32" s="58"/>
+      <c r="H32" s="58"/>
+      <c r="I32" s="59"/>
     </row>
     <row r="33" spans="1:12" s="43" customFormat="1" ht="12">
       <c r="A33" s="40" t="s">
-        <v>34</v>
+        <v>39</v>
       </c>
       <c r="B33" s="41"/>
       <c r="C33" s="42"/>
@@ -3542,15 +3546,17 @@
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="E33" s="60"/>
-      <c r="F33" s="61"/>
-      <c r="G33" s="61"/>
-      <c r="H33" s="61"/>
-      <c r="I33" s="62"/>
+      <c r="E33" s="57" t="s">
+        <v>5</v>
+      </c>
+      <c r="F33" s="58"/>
+      <c r="G33" s="58"/>
+      <c r="H33" s="58"/>
+      <c r="I33" s="59"/>
     </row>
     <row r="34" spans="1:12" s="51" customFormat="1" ht="12">
       <c r="A34" s="48" t="s">
-        <v>35</v>
+        <v>40</v>
       </c>
       <c r="B34" s="49"/>
       <c r="C34" s="50"/>
@@ -3558,15 +3564,15 @@
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="E34" s="57"/>
-      <c r="F34" s="58"/>
-      <c r="G34" s="58"/>
-      <c r="H34" s="58"/>
-      <c r="I34" s="59"/>
+      <c r="E34" s="77"/>
+      <c r="F34" s="75"/>
+      <c r="G34" s="75"/>
+      <c r="H34" s="75"/>
+      <c r="I34" s="76"/>
     </row>
     <row r="35" spans="1:12" s="51" customFormat="1" ht="12">
       <c r="A35" s="48" t="s">
-        <v>36</v>
+        <v>41</v>
       </c>
       <c r="B35" s="49"/>
       <c r="C35" s="50"/>
@@ -3574,15 +3580,15 @@
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="E35" s="57"/>
-      <c r="F35" s="58"/>
-      <c r="G35" s="58"/>
-      <c r="H35" s="58"/>
-      <c r="I35" s="59"/>
+      <c r="E35" s="77"/>
+      <c r="F35" s="75"/>
+      <c r="G35" s="75"/>
+      <c r="H35" s="75"/>
+      <c r="I35" s="76"/>
     </row>
     <row r="36" spans="1:12" s="43" customFormat="1" ht="12">
       <c r="A36" s="40" t="s">
-        <v>37</v>
+        <v>42</v>
       </c>
       <c r="B36" s="41"/>
       <c r="C36" s="42"/>
@@ -3590,15 +3596,15 @@
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="E36" s="60"/>
-      <c r="F36" s="61"/>
-      <c r="G36" s="61"/>
-      <c r="H36" s="61"/>
-      <c r="I36" s="62"/>
+      <c r="E36" s="57"/>
+      <c r="F36" s="58"/>
+      <c r="G36" s="58"/>
+      <c r="H36" s="58"/>
+      <c r="I36" s="59"/>
     </row>
     <row r="37" spans="1:12" s="43" customFormat="1" ht="12">
       <c r="A37" s="40" t="s">
-        <v>38</v>
+        <v>43</v>
       </c>
       <c r="B37" s="41"/>
       <c r="C37" s="42"/>
@@ -3606,15 +3612,15 @@
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="E37" s="60"/>
-      <c r="F37" s="61"/>
-      <c r="G37" s="61"/>
-      <c r="H37" s="61"/>
-      <c r="I37" s="62"/>
+      <c r="E37" s="57"/>
+      <c r="F37" s="58"/>
+      <c r="G37" s="58"/>
+      <c r="H37" s="58"/>
+      <c r="I37" s="59"/>
     </row>
     <row r="38" spans="1:12" s="43" customFormat="1" ht="12">
       <c r="A38" s="40" t="s">
-        <v>39</v>
+        <v>44</v>
       </c>
       <c r="B38" s="41"/>
       <c r="C38" s="42"/>
@@ -3622,15 +3628,15 @@
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="E38" s="60"/>
-      <c r="F38" s="61"/>
-      <c r="G38" s="61"/>
-      <c r="H38" s="61"/>
-      <c r="I38" s="62"/>
+      <c r="E38" s="57"/>
+      <c r="F38" s="58"/>
+      <c r="G38" s="58"/>
+      <c r="H38" s="58"/>
+      <c r="I38" s="59"/>
     </row>
     <row r="39" spans="1:12" s="43" customFormat="1" ht="12">
       <c r="A39" s="40" t="s">
-        <v>40</v>
+        <v>45</v>
       </c>
       <c r="B39" s="41"/>
       <c r="C39" s="42"/>
@@ -3638,15 +3644,15 @@
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="E39" s="60"/>
-      <c r="F39" s="61"/>
-      <c r="G39" s="61"/>
-      <c r="H39" s="61"/>
-      <c r="I39" s="62"/>
+      <c r="E39" s="57"/>
+      <c r="F39" s="58"/>
+      <c r="G39" s="58"/>
+      <c r="H39" s="58"/>
+      <c r="I39" s="59"/>
     </row>
     <row r="40" spans="1:12" s="43" customFormat="1" ht="12">
       <c r="A40" s="40" t="s">
-        <v>41</v>
+        <v>46</v>
       </c>
       <c r="B40" s="41"/>
       <c r="C40" s="42"/>
@@ -3654,15 +3660,15 @@
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="E40" s="60"/>
-      <c r="F40" s="61"/>
-      <c r="G40" s="61"/>
-      <c r="H40" s="61"/>
-      <c r="I40" s="62"/>
+      <c r="E40" s="57"/>
+      <c r="F40" s="58"/>
+      <c r="G40" s="58"/>
+      <c r="H40" s="58"/>
+      <c r="I40" s="59"/>
     </row>
     <row r="41" spans="1:12" s="51" customFormat="1" ht="12">
       <c r="A41" s="48" t="s">
-        <v>42</v>
+        <v>47</v>
       </c>
       <c r="B41" s="49"/>
       <c r="C41" s="50"/>
@@ -3670,15 +3676,15 @@
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="E41" s="57"/>
-      <c r="F41" s="58"/>
-      <c r="G41" s="58"/>
-      <c r="H41" s="58"/>
-      <c r="I41" s="59"/>
+      <c r="E41" s="77"/>
+      <c r="F41" s="75"/>
+      <c r="G41" s="75"/>
+      <c r="H41" s="75"/>
+      <c r="I41" s="76"/>
     </row>
     <row r="42" spans="1:12" s="51" customFormat="1" ht="12">
       <c r="A42" s="48" t="s">
-        <v>43</v>
+        <v>48</v>
       </c>
       <c r="B42" s="49"/>
       <c r="C42" s="50"/>
@@ -3686,15 +3692,15 @@
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="E42" s="57"/>
-      <c r="F42" s="58"/>
-      <c r="G42" s="58"/>
-      <c r="H42" s="58"/>
-      <c r="I42" s="59"/>
+      <c r="E42" s="77"/>
+      <c r="F42" s="75"/>
+      <c r="G42" s="75"/>
+      <c r="H42" s="75"/>
+      <c r="I42" s="76"/>
     </row>
     <row r="43" spans="1:12" s="43" customFormat="1" ht="12">
       <c r="A43" s="40" t="s">
-        <v>44</v>
+        <v>49</v>
       </c>
       <c r="B43" s="41"/>
       <c r="C43" s="42"/>
@@ -3702,15 +3708,15 @@
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="E43" s="60"/>
-      <c r="F43" s="61"/>
-      <c r="G43" s="61"/>
-      <c r="H43" s="61"/>
-      <c r="I43" s="62"/>
+      <c r="E43" s="57"/>
+      <c r="F43" s="58"/>
+      <c r="G43" s="58"/>
+      <c r="H43" s="58"/>
+      <c r="I43" s="59"/>
     </row>
     <row r="44" spans="1:12" s="43" customFormat="1" ht="12">
       <c r="A44" s="40" t="s">
-        <v>45</v>
+        <v>50</v>
       </c>
       <c r="B44" s="41"/>
       <c r="C44" s="42"/>
@@ -3718,15 +3724,15 @@
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="E44" s="60"/>
-      <c r="F44" s="61"/>
-      <c r="G44" s="61"/>
-      <c r="H44" s="61"/>
-      <c r="I44" s="62"/>
+      <c r="E44" s="57"/>
+      <c r="F44" s="58"/>
+      <c r="G44" s="58"/>
+      <c r="H44" s="58"/>
+      <c r="I44" s="59"/>
     </row>
     <row r="45" spans="1:12" s="43" customFormat="1" ht="12">
       <c r="A45" s="40" t="s">
-        <v>46</v>
+        <v>51</v>
       </c>
       <c r="B45" s="41"/>
       <c r="C45" s="42"/>
@@ -3734,25 +3740,25 @@
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="E45" s="60"/>
-      <c r="F45" s="61"/>
-      <c r="G45" s="61"/>
-      <c r="H45" s="61"/>
-      <c r="I45" s="62"/>
+      <c r="E45" s="57"/>
+      <c r="F45" s="58"/>
+      <c r="G45" s="58"/>
+      <c r="H45" s="58"/>
+      <c r="I45" s="59"/>
     </row>
     <row r="46" spans="1:12" s="47" customFormat="1" ht="13">
-      <c r="A46" s="63"/>
-      <c r="B46" s="64"/>
-      <c r="C46" s="64"/>
+      <c r="A46" s="94"/>
+      <c r="B46" s="95"/>
+      <c r="C46" s="95"/>
       <c r="D46" s="46">
         <f>SUM(D16:D45)</f>
         <v>1.25</v>
       </c>
-      <c r="E46" s="65"/>
-      <c r="F46" s="65"/>
-      <c r="G46" s="65"/>
-      <c r="H46" s="65"/>
-      <c r="I46" s="66"/>
+      <c r="E46" s="96"/>
+      <c r="F46" s="96"/>
+      <c r="G46" s="96"/>
+      <c r="H46" s="96"/>
+      <c r="I46" s="97"/>
     </row>
     <row r="47" spans="1:12" ht="7" customHeight="1">
       <c r="A47" s="28"/>
@@ -3770,16 +3776,36 @@
     </row>
   </sheetData>
   <mergeCells count="50">
-    <mergeCell ref="A1:I1"/>
-    <mergeCell ref="A2:I2"/>
-    <mergeCell ref="A3:H3"/>
-    <mergeCell ref="A4:I4"/>
-    <mergeCell ref="E19:I19"/>
-    <mergeCell ref="E20:I20"/>
-    <mergeCell ref="B14:C14"/>
-    <mergeCell ref="A5:C5"/>
-    <mergeCell ref="D5:H5"/>
-    <mergeCell ref="A6:I6"/>
+    <mergeCell ref="A46:C46"/>
+    <mergeCell ref="E46:I46"/>
+    <mergeCell ref="E43:I43"/>
+    <mergeCell ref="E44:I44"/>
+    <mergeCell ref="E45:I45"/>
+    <mergeCell ref="E34:I34"/>
+    <mergeCell ref="E35:I35"/>
+    <mergeCell ref="E36:I36"/>
+    <mergeCell ref="A7:C7"/>
+    <mergeCell ref="D7:H7"/>
+    <mergeCell ref="A8:I8"/>
+    <mergeCell ref="D14:D15"/>
+    <mergeCell ref="E41:I41"/>
+    <mergeCell ref="E42:I42"/>
+    <mergeCell ref="E37:I37"/>
+    <mergeCell ref="E38:I38"/>
+    <mergeCell ref="E39:I39"/>
+    <mergeCell ref="E40:I40"/>
+    <mergeCell ref="E31:I31"/>
+    <mergeCell ref="E32:I32"/>
+    <mergeCell ref="E33:I33"/>
+    <mergeCell ref="E28:I28"/>
+    <mergeCell ref="E29:I29"/>
+    <mergeCell ref="E30:I30"/>
+    <mergeCell ref="E25:I25"/>
+    <mergeCell ref="E26:I26"/>
+    <mergeCell ref="E27:I27"/>
+    <mergeCell ref="E22:I22"/>
+    <mergeCell ref="E23:I23"/>
+    <mergeCell ref="E24:I24"/>
     <mergeCell ref="E21:I21"/>
     <mergeCell ref="E18:I18"/>
     <mergeCell ref="E17:I17"/>
@@ -3790,36 +3816,16 @@
     <mergeCell ref="E16:I16"/>
     <mergeCell ref="A13:A15"/>
     <mergeCell ref="B13:I13"/>
-    <mergeCell ref="E25:I25"/>
-    <mergeCell ref="E26:I26"/>
-    <mergeCell ref="E27:I27"/>
-    <mergeCell ref="E22:I22"/>
-    <mergeCell ref="E23:I23"/>
-    <mergeCell ref="E24:I24"/>
-    <mergeCell ref="E31:I31"/>
-    <mergeCell ref="E32:I32"/>
-    <mergeCell ref="E33:I33"/>
-    <mergeCell ref="E28:I28"/>
-    <mergeCell ref="E29:I29"/>
-    <mergeCell ref="E30:I30"/>
-    <mergeCell ref="E41:I41"/>
-    <mergeCell ref="E42:I42"/>
-    <mergeCell ref="E37:I37"/>
-    <mergeCell ref="E38:I38"/>
-    <mergeCell ref="E39:I39"/>
-    <mergeCell ref="E34:I34"/>
-    <mergeCell ref="E35:I35"/>
-    <mergeCell ref="E36:I36"/>
-    <mergeCell ref="A7:C7"/>
-    <mergeCell ref="D7:H7"/>
-    <mergeCell ref="A8:I8"/>
-    <mergeCell ref="D14:D15"/>
-    <mergeCell ref="A46:C46"/>
-    <mergeCell ref="E46:I46"/>
-    <mergeCell ref="E43:I43"/>
-    <mergeCell ref="E44:I44"/>
-    <mergeCell ref="E45:I45"/>
-    <mergeCell ref="E40:I40"/>
+    <mergeCell ref="E20:I20"/>
+    <mergeCell ref="B14:C14"/>
+    <mergeCell ref="A5:C5"/>
+    <mergeCell ref="D5:H5"/>
+    <mergeCell ref="A6:I6"/>
+    <mergeCell ref="A1:I1"/>
+    <mergeCell ref="A2:I2"/>
+    <mergeCell ref="A3:H3"/>
+    <mergeCell ref="A4:I4"/>
+    <mergeCell ref="E19:I19"/>
   </mergeCells>
   <phoneticPr fontId="32" type="noConversion"/>
   <printOptions horizontalCentered="1"/>
@@ -3858,17 +3864,17 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:40" s="7" customFormat="1" ht="18" thickBot="1">
-      <c r="A1" s="90" t="s">
-        <v>50</v>
-      </c>
-      <c r="B1" s="90"/>
-      <c r="C1" s="90"/>
-      <c r="D1" s="90"/>
-      <c r="E1" s="90"/>
-      <c r="F1" s="90"/>
-      <c r="G1" s="90"/>
-      <c r="H1" s="90"/>
-      <c r="I1" s="90"/>
+      <c r="A1" s="60" t="s">
+        <v>55</v>
+      </c>
+      <c r="B1" s="60"/>
+      <c r="C1" s="60"/>
+      <c r="D1" s="60"/>
+      <c r="E1" s="60"/>
+      <c r="F1" s="60"/>
+      <c r="G1" s="60"/>
+      <c r="H1" s="60"/>
+      <c r="I1" s="60"/>
       <c r="J1" s="8"/>
       <c r="K1" s="8"/>
       <c r="L1" s="8"/>
@@ -3901,15 +3907,15 @@
       <c r="AM1" s="8"/>
     </row>
     <row r="2" spans="1:40" s="1" customFormat="1" ht="7.5" customHeight="1">
-      <c r="A2" s="91"/>
-      <c r="B2" s="91"/>
-      <c r="C2" s="91"/>
-      <c r="D2" s="91"/>
-      <c r="E2" s="91"/>
-      <c r="F2" s="91"/>
-      <c r="G2" s="91"/>
-      <c r="H2" s="91"/>
-      <c r="I2" s="91"/>
+      <c r="A2" s="61"/>
+      <c r="B2" s="61"/>
+      <c r="C2" s="61"/>
+      <c r="D2" s="61"/>
+      <c r="E2" s="61"/>
+      <c r="F2" s="61"/>
+      <c r="G2" s="61"/>
+      <c r="H2" s="61"/>
+      <c r="I2" s="61"/>
       <c r="J2" s="9"/>
       <c r="K2" s="9"/>
       <c r="L2" s="9"/>
@@ -3942,16 +3948,16 @@
       <c r="AM2" s="9"/>
     </row>
     <row r="3" spans="1:40" s="11" customFormat="1" ht="13.5" customHeight="1">
-      <c r="A3" s="92" t="s">
-        <v>54</v>
-      </c>
-      <c r="B3" s="92"/>
-      <c r="C3" s="92"/>
-      <c r="D3" s="92"/>
-      <c r="E3" s="92"/>
-      <c r="F3" s="92"/>
-      <c r="G3" s="92"/>
-      <c r="H3" s="92"/>
+      <c r="A3" s="62" t="s">
+        <v>59</v>
+      </c>
+      <c r="B3" s="62"/>
+      <c r="C3" s="62"/>
+      <c r="D3" s="62"/>
+      <c r="E3" s="62"/>
+      <c r="F3" s="62"/>
+      <c r="G3" s="62"/>
+      <c r="H3" s="62"/>
       <c r="I3" s="23"/>
       <c r="J3" s="22"/>
       <c r="K3" s="22"/>
@@ -3986,112 +3992,112 @@
       <c r="AN3" s="10"/>
     </row>
     <row r="4" spans="1:40" s="6" customFormat="1" ht="9" customHeight="1">
-      <c r="A4" s="93"/>
-      <c r="B4" s="93"/>
-      <c r="C4" s="93"/>
-      <c r="D4" s="93"/>
-      <c r="E4" s="93"/>
-      <c r="F4" s="93"/>
-      <c r="G4" s="93"/>
-      <c r="H4" s="93"/>
-      <c r="I4" s="93"/>
+      <c r="A4" s="63"/>
+      <c r="B4" s="63"/>
+      <c r="C4" s="63"/>
+      <c r="D4" s="63"/>
+      <c r="E4" s="63"/>
+      <c r="F4" s="63"/>
+      <c r="G4" s="63"/>
+      <c r="H4" s="63"/>
+      <c r="I4" s="63"/>
     </row>
     <row r="5" spans="1:40" s="1" customFormat="1" ht="13.75" customHeight="1">
-      <c r="A5" s="96" t="str">
+      <c r="A5" s="70" t="str">
         <f>October!A5</f>
         <v>Firstname Lastname</v>
       </c>
-      <c r="B5" s="97"/>
-      <c r="C5" s="97"/>
-      <c r="D5" s="84" t="str">
+      <c r="B5" s="71"/>
+      <c r="C5" s="71"/>
+      <c r="D5" s="66" t="str">
         <f>October!D5</f>
         <v>Augustin Hannah</v>
       </c>
-      <c r="E5" s="85"/>
-      <c r="F5" s="85"/>
-      <c r="G5" s="85"/>
-      <c r="H5" s="86"/>
+      <c r="E5" s="67"/>
+      <c r="F5" s="67"/>
+      <c r="G5" s="67"/>
+      <c r="H5" s="68"/>
       <c r="I5" s="23"/>
       <c r="J5" s="9"/>
       <c r="K5" s="9"/>
       <c r="L5" s="9"/>
     </row>
     <row r="6" spans="1:40" s="1" customFormat="1" ht="7.5" customHeight="1">
-      <c r="A6" s="87"/>
-      <c r="B6" s="87"/>
-      <c r="C6" s="87"/>
-      <c r="D6" s="87"/>
-      <c r="E6" s="87"/>
-      <c r="F6" s="87"/>
-      <c r="G6" s="87"/>
-      <c r="H6" s="87"/>
-      <c r="I6" s="87"/>
+      <c r="A6" s="72"/>
+      <c r="B6" s="72"/>
+      <c r="C6" s="72"/>
+      <c r="D6" s="72"/>
+      <c r="E6" s="72"/>
+      <c r="F6" s="72"/>
+      <c r="G6" s="72"/>
+      <c r="H6" s="72"/>
+      <c r="I6" s="72"/>
     </row>
     <row r="7" spans="1:40" s="1" customFormat="1" ht="13.75" customHeight="1">
-      <c r="A7" s="88" t="str">
+      <c r="A7" s="65" t="str">
         <f>October!A7</f>
         <v>Project Acronym</v>
       </c>
-      <c r="B7" s="88"/>
-      <c r="C7" s="88"/>
-      <c r="D7" s="89" t="str">
+      <c r="B7" s="65"/>
+      <c r="C7" s="65"/>
+      <c r="D7" s="73" t="str">
         <f>October!D7</f>
         <v>AIQ</v>
       </c>
-      <c r="E7" s="89"/>
-      <c r="F7" s="89"/>
-      <c r="G7" s="89"/>
-      <c r="H7" s="89"/>
+      <c r="E7" s="73"/>
+      <c r="F7" s="73"/>
+      <c r="G7" s="73"/>
+      <c r="H7" s="73"/>
       <c r="I7" s="24"/>
     </row>
     <row r="8" spans="1:40" s="1" customFormat="1" ht="7.5" customHeight="1">
-      <c r="A8" s="94"/>
-      <c r="B8" s="94"/>
-      <c r="C8" s="94"/>
-      <c r="D8" s="94"/>
-      <c r="E8" s="94"/>
-      <c r="F8" s="94"/>
-      <c r="G8" s="94"/>
-      <c r="H8" s="94"/>
-      <c r="I8" s="94"/>
+      <c r="A8" s="64"/>
+      <c r="B8" s="64"/>
+      <c r="C8" s="64"/>
+      <c r="D8" s="64"/>
+      <c r="E8" s="64"/>
+      <c r="F8" s="64"/>
+      <c r="G8" s="64"/>
+      <c r="H8" s="64"/>
+      <c r="I8" s="64"/>
     </row>
     <row r="9" spans="1:40" s="1" customFormat="1" ht="13.75" customHeight="1">
-      <c r="A9" s="88" t="str">
+      <c r="A9" s="65" t="str">
         <f>October!A9</f>
         <v>Project Title</v>
       </c>
-      <c r="B9" s="88"/>
-      <c r="C9" s="88"/>
-      <c r="D9" s="84" t="str">
+      <c r="B9" s="65"/>
+      <c r="C9" s="65"/>
+      <c r="D9" s="66" t="str">
         <f>October!D9</f>
         <v>Automating change detection in ImageQuerying</v>
       </c>
-      <c r="E9" s="85"/>
-      <c r="F9" s="85"/>
-      <c r="G9" s="85"/>
-      <c r="H9" s="86"/>
+      <c r="E9" s="67"/>
+      <c r="F9" s="67"/>
+      <c r="G9" s="67"/>
+      <c r="H9" s="68"/>
       <c r="I9" s="24"/>
       <c r="J9" s="15"/>
     </row>
     <row r="10" spans="1:40" s="1" customFormat="1" ht="7.5" customHeight="1">
-      <c r="A10" s="95"/>
-      <c r="B10" s="95"/>
-      <c r="C10" s="95"/>
-      <c r="D10" s="95"/>
-      <c r="E10" s="95"/>
-      <c r="F10" s="95"/>
-      <c r="G10" s="95"/>
-      <c r="H10" s="95"/>
-      <c r="I10" s="95"/>
+      <c r="A10" s="69"/>
+      <c r="B10" s="69"/>
+      <c r="C10" s="69"/>
+      <c r="D10" s="69"/>
+      <c r="E10" s="69"/>
+      <c r="F10" s="69"/>
+      <c r="G10" s="69"/>
+      <c r="H10" s="69"/>
+      <c r="I10" s="69"/>
     </row>
     <row r="11" spans="1:40" s="1" customFormat="1" ht="12">
       <c r="A11" s="21" t="s">
-        <v>52</v>
+        <v>57</v>
       </c>
       <c r="B11" s="21"/>
       <c r="C11" s="21"/>
       <c r="D11" s="21" t="s">
-        <v>53</v>
+        <v>58</v>
       </c>
       <c r="E11" s="21"/>
       <c r="F11" s="21"/>
@@ -4111,55 +4117,55 @@
       <c r="I12" s="26"/>
     </row>
     <row r="13" spans="1:40" s="2" customFormat="1" ht="15.5" customHeight="1">
-      <c r="A13" s="68" t="s">
-        <v>12</v>
-      </c>
-      <c r="B13" s="71" t="s">
-        <v>48</v>
-      </c>
-      <c r="C13" s="72"/>
-      <c r="D13" s="72"/>
-      <c r="E13" s="72"/>
-      <c r="F13" s="72"/>
-      <c r="G13" s="72"/>
-      <c r="H13" s="72"/>
-      <c r="I13" s="73"/>
+      <c r="A13" s="78" t="s">
+        <v>17</v>
+      </c>
+      <c r="B13" s="81" t="s">
+        <v>53</v>
+      </c>
+      <c r="C13" s="82"/>
+      <c r="D13" s="82"/>
+      <c r="E13" s="82"/>
+      <c r="F13" s="82"/>
+      <c r="G13" s="82"/>
+      <c r="H13" s="82"/>
+      <c r="I13" s="83"/>
     </row>
     <row r="14" spans="1:40" s="2" customFormat="1" ht="13.75" customHeight="1">
-      <c r="A14" s="69"/>
-      <c r="B14" s="74" t="s">
-        <v>13</v>
-      </c>
-      <c r="C14" s="75"/>
-      <c r="D14" s="76" t="s">
-        <v>14</v>
-      </c>
-      <c r="E14" s="78" t="s">
-        <v>49</v>
-      </c>
-      <c r="F14" s="79"/>
-      <c r="G14" s="79"/>
-      <c r="H14" s="79"/>
-      <c r="I14" s="80"/>
+      <c r="A14" s="79"/>
+      <c r="B14" s="84" t="s">
+        <v>18</v>
+      </c>
+      <c r="C14" s="85"/>
+      <c r="D14" s="86" t="s">
+        <v>19</v>
+      </c>
+      <c r="E14" s="88" t="s">
+        <v>54</v>
+      </c>
+      <c r="F14" s="89"/>
+      <c r="G14" s="89"/>
+      <c r="H14" s="89"/>
+      <c r="I14" s="90"/>
     </row>
     <row r="15" spans="1:40" ht="13" customHeight="1">
-      <c r="A15" s="70"/>
+      <c r="A15" s="80"/>
       <c r="B15" s="32" t="s">
-        <v>15</v>
+        <v>20</v>
       </c>
       <c r="C15" s="33" t="s">
-        <v>16</v>
-      </c>
-      <c r="D15" s="77"/>
-      <c r="E15" s="81"/>
-      <c r="F15" s="82"/>
-      <c r="G15" s="82"/>
-      <c r="H15" s="82"/>
-      <c r="I15" s="83"/>
+        <v>21</v>
+      </c>
+      <c r="D15" s="87"/>
+      <c r="E15" s="91"/>
+      <c r="F15" s="92"/>
+      <c r="G15" s="92"/>
+      <c r="H15" s="92"/>
+      <c r="I15" s="93"/>
     </row>
     <row r="16" spans="1:40" s="43" customFormat="1" ht="12">
       <c r="A16" s="40" t="s">
-        <v>17</v>
+        <v>22</v>
       </c>
       <c r="B16" s="41"/>
       <c r="C16" s="42"/>
@@ -4167,15 +4173,15 @@
         <f>C16-B16</f>
         <v>0</v>
       </c>
-      <c r="E16" s="60"/>
-      <c r="F16" s="61"/>
-      <c r="G16" s="61"/>
-      <c r="H16" s="61"/>
-      <c r="I16" s="62"/>
+      <c r="E16" s="57"/>
+      <c r="F16" s="58"/>
+      <c r="G16" s="58"/>
+      <c r="H16" s="58"/>
+      <c r="I16" s="59"/>
     </row>
     <row r="17" spans="1:9" s="43" customFormat="1" ht="12">
       <c r="A17" s="40" t="s">
-        <v>18</v>
+        <v>23</v>
       </c>
       <c r="B17" s="41"/>
       <c r="C17" s="42"/>
@@ -4183,15 +4189,15 @@
         <f t="shared" ref="D17:D46" si="0">C17-B17</f>
         <v>0</v>
       </c>
-      <c r="E17" s="60"/>
-      <c r="F17" s="61"/>
-      <c r="G17" s="61"/>
-      <c r="H17" s="61"/>
-      <c r="I17" s="62"/>
+      <c r="E17" s="57"/>
+      <c r="F17" s="58"/>
+      <c r="G17" s="58"/>
+      <c r="H17" s="58"/>
+      <c r="I17" s="59"/>
     </row>
     <row r="18" spans="1:9" s="51" customFormat="1" ht="12">
       <c r="A18" s="48" t="s">
-        <v>19</v>
+        <v>24</v>
       </c>
       <c r="B18" s="49"/>
       <c r="C18" s="50"/>
@@ -4199,15 +4205,15 @@
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="E18" s="57"/>
-      <c r="F18" s="58"/>
-      <c r="G18" s="58"/>
-      <c r="H18" s="58"/>
-      <c r="I18" s="59"/>
+      <c r="E18" s="77"/>
+      <c r="F18" s="75"/>
+      <c r="G18" s="75"/>
+      <c r="H18" s="75"/>
+      <c r="I18" s="76"/>
     </row>
     <row r="19" spans="1:9" s="51" customFormat="1" ht="12">
       <c r="A19" s="48" t="s">
-        <v>20</v>
+        <v>25</v>
       </c>
       <c r="B19" s="49"/>
       <c r="C19" s="50"/>
@@ -4215,15 +4221,15 @@
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="E19" s="57"/>
-      <c r="F19" s="58"/>
-      <c r="G19" s="58"/>
-      <c r="H19" s="58"/>
-      <c r="I19" s="59"/>
+      <c r="E19" s="77"/>
+      <c r="F19" s="75"/>
+      <c r="G19" s="75"/>
+      <c r="H19" s="75"/>
+      <c r="I19" s="76"/>
     </row>
     <row r="20" spans="1:9" s="43" customFormat="1" ht="12">
       <c r="A20" s="40" t="s">
-        <v>21</v>
+        <v>26</v>
       </c>
       <c r="B20" s="41"/>
       <c r="C20" s="42"/>
@@ -4231,15 +4237,15 @@
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="E20" s="60"/>
-      <c r="F20" s="61"/>
-      <c r="G20" s="61"/>
-      <c r="H20" s="61"/>
-      <c r="I20" s="62"/>
+      <c r="E20" s="57"/>
+      <c r="F20" s="58"/>
+      <c r="G20" s="58"/>
+      <c r="H20" s="58"/>
+      <c r="I20" s="59"/>
     </row>
     <row r="21" spans="1:9" s="43" customFormat="1" ht="12">
       <c r="A21" s="40" t="s">
-        <v>22</v>
+        <v>27</v>
       </c>
       <c r="B21" s="41"/>
       <c r="C21" s="42"/>
@@ -4247,15 +4253,15 @@
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="E21" s="60"/>
-      <c r="F21" s="61"/>
-      <c r="G21" s="61"/>
-      <c r="H21" s="61"/>
-      <c r="I21" s="62"/>
+      <c r="E21" s="57"/>
+      <c r="F21" s="58"/>
+      <c r="G21" s="58"/>
+      <c r="H21" s="58"/>
+      <c r="I21" s="59"/>
     </row>
     <row r="22" spans="1:9" s="43" customFormat="1" ht="12">
       <c r="A22" s="40" t="s">
-        <v>23</v>
+        <v>28</v>
       </c>
       <c r="B22" s="41"/>
       <c r="C22" s="42"/>
@@ -4263,15 +4269,15 @@
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="E22" s="60"/>
-      <c r="F22" s="61"/>
-      <c r="G22" s="61"/>
-      <c r="H22" s="61"/>
-      <c r="I22" s="62"/>
+      <c r="E22" s="57"/>
+      <c r="F22" s="58"/>
+      <c r="G22" s="58"/>
+      <c r="H22" s="58"/>
+      <c r="I22" s="59"/>
     </row>
     <row r="23" spans="1:9" s="43" customFormat="1" ht="12">
       <c r="A23" s="40" t="s">
-        <v>24</v>
+        <v>29</v>
       </c>
       <c r="B23" s="41"/>
       <c r="C23" s="42"/>
@@ -4279,15 +4285,15 @@
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="E23" s="60"/>
-      <c r="F23" s="61"/>
-      <c r="G23" s="61"/>
-      <c r="H23" s="61"/>
-      <c r="I23" s="62"/>
+      <c r="E23" s="57"/>
+      <c r="F23" s="58"/>
+      <c r="G23" s="58"/>
+      <c r="H23" s="58"/>
+      <c r="I23" s="59"/>
     </row>
     <row r="24" spans="1:9" s="43" customFormat="1" ht="12">
       <c r="A24" s="40" t="s">
-        <v>25</v>
+        <v>30</v>
       </c>
       <c r="B24" s="41"/>
       <c r="C24" s="42"/>
@@ -4295,15 +4301,15 @@
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="E24" s="60"/>
-      <c r="F24" s="61"/>
-      <c r="G24" s="61"/>
-      <c r="H24" s="61"/>
-      <c r="I24" s="62"/>
+      <c r="E24" s="57"/>
+      <c r="F24" s="58"/>
+      <c r="G24" s="58"/>
+      <c r="H24" s="58"/>
+      <c r="I24" s="59"/>
     </row>
     <row r="25" spans="1:9" s="51" customFormat="1" ht="12">
       <c r="A25" s="48" t="s">
-        <v>26</v>
+        <v>31</v>
       </c>
       <c r="B25" s="49"/>
       <c r="C25" s="50"/>
@@ -4311,15 +4317,15 @@
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="E25" s="57"/>
-      <c r="F25" s="58"/>
-      <c r="G25" s="58"/>
-      <c r="H25" s="58"/>
-      <c r="I25" s="59"/>
+      <c r="E25" s="77"/>
+      <c r="F25" s="75"/>
+      <c r="G25" s="75"/>
+      <c r="H25" s="75"/>
+      <c r="I25" s="76"/>
     </row>
     <row r="26" spans="1:9" s="51" customFormat="1" ht="12">
       <c r="A26" s="48" t="s">
-        <v>27</v>
+        <v>32</v>
       </c>
       <c r="B26" s="49"/>
       <c r="C26" s="50"/>
@@ -4327,15 +4333,15 @@
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="E26" s="57"/>
-      <c r="F26" s="58"/>
-      <c r="G26" s="58"/>
-      <c r="H26" s="58"/>
-      <c r="I26" s="59"/>
+      <c r="E26" s="77"/>
+      <c r="F26" s="75"/>
+      <c r="G26" s="75"/>
+      <c r="H26" s="75"/>
+      <c r="I26" s="76"/>
     </row>
     <row r="27" spans="1:9" s="43" customFormat="1" ht="12">
       <c r="A27" s="40" t="s">
-        <v>28</v>
+        <v>33</v>
       </c>
       <c r="B27" s="41"/>
       <c r="C27" s="42"/>
@@ -4343,15 +4349,15 @@
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="E27" s="60"/>
-      <c r="F27" s="61"/>
-      <c r="G27" s="61"/>
-      <c r="H27" s="61"/>
-      <c r="I27" s="62"/>
+      <c r="E27" s="57"/>
+      <c r="F27" s="58"/>
+      <c r="G27" s="58"/>
+      <c r="H27" s="58"/>
+      <c r="I27" s="59"/>
     </row>
     <row r="28" spans="1:9" s="43" customFormat="1" ht="12">
       <c r="A28" s="40" t="s">
-        <v>29</v>
+        <v>34</v>
       </c>
       <c r="B28" s="41"/>
       <c r="C28" s="42"/>
@@ -4359,15 +4365,15 @@
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="E28" s="60"/>
-      <c r="F28" s="61"/>
-      <c r="G28" s="61"/>
-      <c r="H28" s="61"/>
-      <c r="I28" s="62"/>
+      <c r="E28" s="57"/>
+      <c r="F28" s="58"/>
+      <c r="G28" s="58"/>
+      <c r="H28" s="58"/>
+      <c r="I28" s="59"/>
     </row>
     <row r="29" spans="1:9" s="43" customFormat="1" ht="12">
       <c r="A29" s="40" t="s">
-        <v>30</v>
+        <v>35</v>
       </c>
       <c r="B29" s="41"/>
       <c r="C29" s="42"/>
@@ -4375,15 +4381,15 @@
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="E29" s="60"/>
-      <c r="F29" s="61"/>
-      <c r="G29" s="61"/>
-      <c r="H29" s="61"/>
-      <c r="I29" s="62"/>
+      <c r="E29" s="57"/>
+      <c r="F29" s="58"/>
+      <c r="G29" s="58"/>
+      <c r="H29" s="58"/>
+      <c r="I29" s="59"/>
     </row>
     <row r="30" spans="1:9" s="43" customFormat="1" ht="12">
       <c r="A30" s="40" t="s">
-        <v>31</v>
+        <v>36</v>
       </c>
       <c r="B30" s="41"/>
       <c r="C30" s="42"/>
@@ -4391,15 +4397,15 @@
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="E30" s="60"/>
-      <c r="F30" s="61"/>
-      <c r="G30" s="61"/>
-      <c r="H30" s="61"/>
-      <c r="I30" s="62"/>
+      <c r="E30" s="57"/>
+      <c r="F30" s="58"/>
+      <c r="G30" s="58"/>
+      <c r="H30" s="58"/>
+      <c r="I30" s="59"/>
     </row>
     <row r="31" spans="1:9" s="43" customFormat="1" ht="12">
       <c r="A31" s="40" t="s">
-        <v>32</v>
+        <v>37</v>
       </c>
       <c r="B31" s="41"/>
       <c r="C31" s="42"/>
@@ -4407,15 +4413,15 @@
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="E31" s="60"/>
-      <c r="F31" s="61"/>
-      <c r="G31" s="61"/>
-      <c r="H31" s="61"/>
-      <c r="I31" s="62"/>
+      <c r="E31" s="57"/>
+      <c r="F31" s="58"/>
+      <c r="G31" s="58"/>
+      <c r="H31" s="58"/>
+      <c r="I31" s="59"/>
     </row>
     <row r="32" spans="1:9" s="51" customFormat="1" ht="12">
       <c r="A32" s="48" t="s">
-        <v>33</v>
+        <v>38</v>
       </c>
       <c r="B32" s="49"/>
       <c r="C32" s="50"/>
@@ -4423,15 +4429,15 @@
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="E32" s="57"/>
-      <c r="F32" s="58"/>
-      <c r="G32" s="58"/>
-      <c r="H32" s="58"/>
-      <c r="I32" s="59"/>
+      <c r="E32" s="77"/>
+      <c r="F32" s="75"/>
+      <c r="G32" s="75"/>
+      <c r="H32" s="75"/>
+      <c r="I32" s="76"/>
     </row>
     <row r="33" spans="1:12" s="51" customFormat="1" ht="12">
       <c r="A33" s="48" t="s">
-        <v>34</v>
+        <v>39</v>
       </c>
       <c r="B33" s="49"/>
       <c r="C33" s="50"/>
@@ -4439,15 +4445,15 @@
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="E33" s="57"/>
-      <c r="F33" s="58"/>
-      <c r="G33" s="58"/>
-      <c r="H33" s="58"/>
-      <c r="I33" s="59"/>
+      <c r="E33" s="77"/>
+      <c r="F33" s="75"/>
+      <c r="G33" s="75"/>
+      <c r="H33" s="75"/>
+      <c r="I33" s="76"/>
     </row>
     <row r="34" spans="1:12" s="43" customFormat="1" ht="12">
       <c r="A34" s="40" t="s">
-        <v>35</v>
+        <v>40</v>
       </c>
       <c r="B34" s="41"/>
       <c r="C34" s="42"/>
@@ -4455,15 +4461,15 @@
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="E34" s="60"/>
-      <c r="F34" s="61"/>
-      <c r="G34" s="61"/>
-      <c r="H34" s="61"/>
-      <c r="I34" s="62"/>
+      <c r="E34" s="57"/>
+      <c r="F34" s="58"/>
+      <c r="G34" s="58"/>
+      <c r="H34" s="58"/>
+      <c r="I34" s="59"/>
     </row>
     <row r="35" spans="1:12" s="43" customFormat="1" ht="12">
       <c r="A35" s="40" t="s">
-        <v>36</v>
+        <v>41</v>
       </c>
       <c r="B35" s="41"/>
       <c r="C35" s="42"/>
@@ -4471,15 +4477,15 @@
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="E35" s="60"/>
-      <c r="F35" s="61"/>
-      <c r="G35" s="61"/>
-      <c r="H35" s="61"/>
-      <c r="I35" s="62"/>
+      <c r="E35" s="57"/>
+      <c r="F35" s="58"/>
+      <c r="G35" s="58"/>
+      <c r="H35" s="58"/>
+      <c r="I35" s="59"/>
     </row>
     <row r="36" spans="1:12" s="43" customFormat="1" ht="12">
       <c r="A36" s="40" t="s">
-        <v>37</v>
+        <v>42</v>
       </c>
       <c r="B36" s="41"/>
       <c r="C36" s="42"/>
@@ -4487,15 +4493,15 @@
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="E36" s="60"/>
-      <c r="F36" s="61"/>
-      <c r="G36" s="61"/>
-      <c r="H36" s="61"/>
-      <c r="I36" s="62"/>
+      <c r="E36" s="57"/>
+      <c r="F36" s="58"/>
+      <c r="G36" s="58"/>
+      <c r="H36" s="58"/>
+      <c r="I36" s="59"/>
     </row>
     <row r="37" spans="1:12" s="43" customFormat="1" ht="12">
       <c r="A37" s="40" t="s">
-        <v>38</v>
+        <v>43</v>
       </c>
       <c r="B37" s="41"/>
       <c r="C37" s="42"/>
@@ -4503,15 +4509,15 @@
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="E37" s="60"/>
-      <c r="F37" s="61"/>
-      <c r="G37" s="61"/>
-      <c r="H37" s="61"/>
-      <c r="I37" s="62"/>
+      <c r="E37" s="57"/>
+      <c r="F37" s="58"/>
+      <c r="G37" s="58"/>
+      <c r="H37" s="58"/>
+      <c r="I37" s="59"/>
     </row>
     <row r="38" spans="1:12" s="43" customFormat="1" ht="12">
       <c r="A38" s="40" t="s">
-        <v>39</v>
+        <v>44</v>
       </c>
       <c r="B38" s="41"/>
       <c r="C38" s="42"/>
@@ -4519,15 +4525,15 @@
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="E38" s="60"/>
-      <c r="F38" s="61"/>
-      <c r="G38" s="61"/>
-      <c r="H38" s="61"/>
-      <c r="I38" s="62"/>
+      <c r="E38" s="57"/>
+      <c r="F38" s="58"/>
+      <c r="G38" s="58"/>
+      <c r="H38" s="58"/>
+      <c r="I38" s="59"/>
     </row>
     <row r="39" spans="1:12" s="51" customFormat="1" ht="12">
       <c r="A39" s="48" t="s">
-        <v>40</v>
+        <v>45</v>
       </c>
       <c r="B39" s="49"/>
       <c r="C39" s="50"/>
@@ -4535,15 +4541,15 @@
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="E39" s="57"/>
-      <c r="F39" s="58"/>
-      <c r="G39" s="58"/>
-      <c r="H39" s="58"/>
-      <c r="I39" s="59"/>
+      <c r="E39" s="77"/>
+      <c r="F39" s="75"/>
+      <c r="G39" s="75"/>
+      <c r="H39" s="75"/>
+      <c r="I39" s="76"/>
     </row>
     <row r="40" spans="1:12" s="51" customFormat="1" ht="12">
       <c r="A40" s="48" t="s">
-        <v>41</v>
+        <v>46</v>
       </c>
       <c r="B40" s="49"/>
       <c r="C40" s="50"/>
@@ -4551,15 +4557,15 @@
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="E40" s="57"/>
-      <c r="F40" s="58"/>
-      <c r="G40" s="58"/>
-      <c r="H40" s="58"/>
-      <c r="I40" s="59"/>
+      <c r="E40" s="77"/>
+      <c r="F40" s="75"/>
+      <c r="G40" s="75"/>
+      <c r="H40" s="75"/>
+      <c r="I40" s="76"/>
     </row>
     <row r="41" spans="1:12" s="43" customFormat="1" ht="12">
       <c r="A41" s="40" t="s">
-        <v>42</v>
+        <v>47</v>
       </c>
       <c r="B41" s="41"/>
       <c r="C41" s="42"/>
@@ -4567,15 +4573,15 @@
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="E41" s="60"/>
-      <c r="F41" s="61"/>
-      <c r="G41" s="61"/>
-      <c r="H41" s="61"/>
-      <c r="I41" s="62"/>
+      <c r="E41" s="57"/>
+      <c r="F41" s="58"/>
+      <c r="G41" s="58"/>
+      <c r="H41" s="58"/>
+      <c r="I41" s="59"/>
     </row>
     <row r="42" spans="1:12" s="43" customFormat="1" ht="12">
       <c r="A42" s="40" t="s">
-        <v>43</v>
+        <v>48</v>
       </c>
       <c r="B42" s="41"/>
       <c r="C42" s="42"/>
@@ -4583,15 +4589,15 @@
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="E42" s="60"/>
-      <c r="F42" s="61"/>
-      <c r="G42" s="61"/>
-      <c r="H42" s="61"/>
-      <c r="I42" s="62"/>
+      <c r="E42" s="57"/>
+      <c r="F42" s="58"/>
+      <c r="G42" s="58"/>
+      <c r="H42" s="58"/>
+      <c r="I42" s="59"/>
     </row>
     <row r="43" spans="1:12" s="43" customFormat="1" ht="12">
       <c r="A43" s="40" t="s">
-        <v>44</v>
+        <v>49</v>
       </c>
       <c r="B43" s="41"/>
       <c r="C43" s="42"/>
@@ -4599,15 +4605,15 @@
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="E43" s="60"/>
-      <c r="F43" s="61"/>
-      <c r="G43" s="61"/>
-      <c r="H43" s="61"/>
-      <c r="I43" s="62"/>
+      <c r="E43" s="57"/>
+      <c r="F43" s="58"/>
+      <c r="G43" s="58"/>
+      <c r="H43" s="58"/>
+      <c r="I43" s="59"/>
     </row>
     <row r="44" spans="1:12" s="43" customFormat="1" ht="12">
       <c r="A44" s="40" t="s">
-        <v>45</v>
+        <v>50</v>
       </c>
       <c r="B44" s="41"/>
       <c r="C44" s="42"/>
@@ -4615,15 +4621,15 @@
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="E44" s="60"/>
-      <c r="F44" s="61"/>
-      <c r="G44" s="61"/>
-      <c r="H44" s="61"/>
-      <c r="I44" s="62"/>
+      <c r="E44" s="57"/>
+      <c r="F44" s="58"/>
+      <c r="G44" s="58"/>
+      <c r="H44" s="58"/>
+      <c r="I44" s="59"/>
     </row>
     <row r="45" spans="1:12" s="43" customFormat="1" ht="12">
       <c r="A45" s="40" t="s">
-        <v>46</v>
+        <v>51</v>
       </c>
       <c r="B45" s="41"/>
       <c r="C45" s="42"/>
@@ -4631,15 +4637,15 @@
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="E45" s="60"/>
-      <c r="F45" s="61"/>
-      <c r="G45" s="61"/>
-      <c r="H45" s="61"/>
-      <c r="I45" s="62"/>
+      <c r="E45" s="57"/>
+      <c r="F45" s="58"/>
+      <c r="G45" s="58"/>
+      <c r="H45" s="58"/>
+      <c r="I45" s="59"/>
     </row>
     <row r="46" spans="1:12" s="51" customFormat="1" ht="12">
       <c r="A46" s="48" t="s">
-        <v>47</v>
+        <v>52</v>
       </c>
       <c r="B46" s="49"/>
       <c r="C46" s="50"/>
@@ -4647,11 +4653,11 @@
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="E46" s="57"/>
-      <c r="F46" s="58"/>
-      <c r="G46" s="58"/>
-      <c r="H46" s="58"/>
-      <c r="I46" s="59"/>
+      <c r="E46" s="77"/>
+      <c r="F46" s="75"/>
+      <c r="G46" s="75"/>
+      <c r="H46" s="75"/>
+      <c r="I46" s="76"/>
     </row>
     <row r="47" spans="1:12" s="35" customFormat="1" ht="13">
       <c r="A47" s="100"/>
@@ -4682,46 +4688,7 @@
       <c r="L48" s="13"/>
     </row>
   </sheetData>
-  <sheetCalcPr fullCalcOnLoad="1"/>
   <mergeCells count="51">
-    <mergeCell ref="D9:H9"/>
-    <mergeCell ref="A10:I10"/>
-    <mergeCell ref="A1:I1"/>
-    <mergeCell ref="A2:I2"/>
-    <mergeCell ref="A3:H3"/>
-    <mergeCell ref="A4:I4"/>
-    <mergeCell ref="A5:C5"/>
-    <mergeCell ref="D5:H5"/>
-    <mergeCell ref="A6:I6"/>
-    <mergeCell ref="E20:I20"/>
-    <mergeCell ref="E21:I21"/>
-    <mergeCell ref="E22:I22"/>
-    <mergeCell ref="E18:I18"/>
-    <mergeCell ref="E19:I19"/>
-    <mergeCell ref="E17:I17"/>
-    <mergeCell ref="E26:I26"/>
-    <mergeCell ref="E27:I27"/>
-    <mergeCell ref="E28:I28"/>
-    <mergeCell ref="E23:I23"/>
-    <mergeCell ref="E24:I24"/>
-    <mergeCell ref="E25:I25"/>
-    <mergeCell ref="E32:I32"/>
-    <mergeCell ref="E33:I33"/>
-    <mergeCell ref="E34:I34"/>
-    <mergeCell ref="E29:I29"/>
-    <mergeCell ref="E30:I30"/>
-    <mergeCell ref="E31:I31"/>
-    <mergeCell ref="E38:I38"/>
-    <mergeCell ref="E39:I39"/>
-    <mergeCell ref="E40:I40"/>
-    <mergeCell ref="E35:I35"/>
-    <mergeCell ref="E36:I36"/>
-    <mergeCell ref="E37:I37"/>
-    <mergeCell ref="E47:I47"/>
-    <mergeCell ref="A47:C47"/>
-    <mergeCell ref="E44:I44"/>
-    <mergeCell ref="E45:I45"/>
-    <mergeCell ref="E46:I46"/>
     <mergeCell ref="E41:I41"/>
     <mergeCell ref="E42:I42"/>
     <mergeCell ref="E43:I43"/>
@@ -4735,6 +4702,44 @@
     <mergeCell ref="D14:D15"/>
     <mergeCell ref="E14:I15"/>
     <mergeCell ref="A9:C9"/>
+    <mergeCell ref="E47:I47"/>
+    <mergeCell ref="A47:C47"/>
+    <mergeCell ref="E44:I44"/>
+    <mergeCell ref="E45:I45"/>
+    <mergeCell ref="E46:I46"/>
+    <mergeCell ref="E38:I38"/>
+    <mergeCell ref="E39:I39"/>
+    <mergeCell ref="E40:I40"/>
+    <mergeCell ref="E35:I35"/>
+    <mergeCell ref="E36:I36"/>
+    <mergeCell ref="E37:I37"/>
+    <mergeCell ref="E32:I32"/>
+    <mergeCell ref="E33:I33"/>
+    <mergeCell ref="E34:I34"/>
+    <mergeCell ref="E29:I29"/>
+    <mergeCell ref="E30:I30"/>
+    <mergeCell ref="E31:I31"/>
+    <mergeCell ref="E17:I17"/>
+    <mergeCell ref="E26:I26"/>
+    <mergeCell ref="E27:I27"/>
+    <mergeCell ref="E28:I28"/>
+    <mergeCell ref="E23:I23"/>
+    <mergeCell ref="E24:I24"/>
+    <mergeCell ref="E25:I25"/>
+    <mergeCell ref="E20:I20"/>
+    <mergeCell ref="E21:I21"/>
+    <mergeCell ref="E22:I22"/>
+    <mergeCell ref="E18:I18"/>
+    <mergeCell ref="E19:I19"/>
+    <mergeCell ref="D9:H9"/>
+    <mergeCell ref="A10:I10"/>
+    <mergeCell ref="A1:I1"/>
+    <mergeCell ref="A2:I2"/>
+    <mergeCell ref="A3:H3"/>
+    <mergeCell ref="A4:I4"/>
+    <mergeCell ref="A5:C5"/>
+    <mergeCell ref="D5:H5"/>
+    <mergeCell ref="A6:I6"/>
   </mergeCells>
   <phoneticPr fontId="32" type="noConversion"/>
   <printOptions horizontalCentered="1"/>
@@ -4773,17 +4778,17 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:40" s="7" customFormat="1" ht="18" thickBot="1">
-      <c r="A1" s="90" t="s">
-        <v>50</v>
-      </c>
-      <c r="B1" s="90"/>
-      <c r="C1" s="90"/>
-      <c r="D1" s="90"/>
-      <c r="E1" s="90"/>
-      <c r="F1" s="90"/>
-      <c r="G1" s="90"/>
-      <c r="H1" s="90"/>
-      <c r="I1" s="90"/>
+      <c r="A1" s="60" t="s">
+        <v>55</v>
+      </c>
+      <c r="B1" s="60"/>
+      <c r="C1" s="60"/>
+      <c r="D1" s="60"/>
+      <c r="E1" s="60"/>
+      <c r="F1" s="60"/>
+      <c r="G1" s="60"/>
+      <c r="H1" s="60"/>
+      <c r="I1" s="60"/>
       <c r="J1" s="8"/>
       <c r="K1" s="8"/>
       <c r="L1" s="8"/>
@@ -4816,15 +4821,15 @@
       <c r="AM1" s="8"/>
     </row>
     <row r="2" spans="1:40" s="1" customFormat="1" ht="7.5" customHeight="1">
-      <c r="A2" s="91"/>
-      <c r="B2" s="91"/>
-      <c r="C2" s="91"/>
-      <c r="D2" s="91"/>
-      <c r="E2" s="91"/>
-      <c r="F2" s="91"/>
-      <c r="G2" s="91"/>
-      <c r="H2" s="91"/>
-      <c r="I2" s="91"/>
+      <c r="A2" s="61"/>
+      <c r="B2" s="61"/>
+      <c r="C2" s="61"/>
+      <c r="D2" s="61"/>
+      <c r="E2" s="61"/>
+      <c r="F2" s="61"/>
+      <c r="G2" s="61"/>
+      <c r="H2" s="61"/>
+      <c r="I2" s="61"/>
       <c r="J2" s="9"/>
       <c r="K2" s="9"/>
       <c r="L2" s="9"/>
@@ -4857,16 +4862,16 @@
       <c r="AM2" s="9"/>
     </row>
     <row r="3" spans="1:40" s="11" customFormat="1" ht="13.5" customHeight="1">
-      <c r="A3" s="92" t="s">
-        <v>54</v>
-      </c>
-      <c r="B3" s="92"/>
-      <c r="C3" s="92"/>
-      <c r="D3" s="92"/>
-      <c r="E3" s="92"/>
-      <c r="F3" s="92"/>
-      <c r="G3" s="92"/>
-      <c r="H3" s="92"/>
+      <c r="A3" s="62" t="s">
+        <v>59</v>
+      </c>
+      <c r="B3" s="62"/>
+      <c r="C3" s="62"/>
+      <c r="D3" s="62"/>
+      <c r="E3" s="62"/>
+      <c r="F3" s="62"/>
+      <c r="G3" s="62"/>
+      <c r="H3" s="62"/>
       <c r="I3" s="23"/>
       <c r="J3" s="22"/>
       <c r="K3" s="22"/>
@@ -4901,112 +4906,112 @@
       <c r="AN3" s="10"/>
     </row>
     <row r="4" spans="1:40" s="6" customFormat="1" ht="9" customHeight="1">
-      <c r="A4" s="93"/>
-      <c r="B4" s="93"/>
-      <c r="C4" s="93"/>
-      <c r="D4" s="93"/>
-      <c r="E4" s="93"/>
-      <c r="F4" s="93"/>
-      <c r="G4" s="93"/>
-      <c r="H4" s="93"/>
-      <c r="I4" s="93"/>
+      <c r="A4" s="63"/>
+      <c r="B4" s="63"/>
+      <c r="C4" s="63"/>
+      <c r="D4" s="63"/>
+      <c r="E4" s="63"/>
+      <c r="F4" s="63"/>
+      <c r="G4" s="63"/>
+      <c r="H4" s="63"/>
+      <c r="I4" s="63"/>
     </row>
     <row r="5" spans="1:40" s="1" customFormat="1" ht="13.75" customHeight="1">
-      <c r="A5" s="96" t="str">
+      <c r="A5" s="70" t="str">
         <f>October!A5</f>
         <v>Firstname Lastname</v>
       </c>
-      <c r="B5" s="97"/>
-      <c r="C5" s="97"/>
-      <c r="D5" s="84" t="str">
+      <c r="B5" s="71"/>
+      <c r="C5" s="71"/>
+      <c r="D5" s="66" t="str">
         <f>October!D5</f>
         <v>Augustin Hannah</v>
       </c>
-      <c r="E5" s="85"/>
-      <c r="F5" s="85"/>
-      <c r="G5" s="85"/>
-      <c r="H5" s="86"/>
+      <c r="E5" s="67"/>
+      <c r="F5" s="67"/>
+      <c r="G5" s="67"/>
+      <c r="H5" s="68"/>
       <c r="I5" s="23"/>
       <c r="J5" s="9"/>
       <c r="K5" s="9"/>
       <c r="L5" s="9"/>
     </row>
     <row r="6" spans="1:40" s="1" customFormat="1" ht="7.5" customHeight="1">
-      <c r="A6" s="87"/>
-      <c r="B6" s="87"/>
-      <c r="C6" s="87"/>
-      <c r="D6" s="87"/>
-      <c r="E6" s="87"/>
-      <c r="F6" s="87"/>
-      <c r="G6" s="87"/>
-      <c r="H6" s="87"/>
-      <c r="I6" s="87"/>
+      <c r="A6" s="72"/>
+      <c r="B6" s="72"/>
+      <c r="C6" s="72"/>
+      <c r="D6" s="72"/>
+      <c r="E6" s="72"/>
+      <c r="F6" s="72"/>
+      <c r="G6" s="72"/>
+      <c r="H6" s="72"/>
+      <c r="I6" s="72"/>
     </row>
     <row r="7" spans="1:40" s="1" customFormat="1" ht="13.75" customHeight="1">
-      <c r="A7" s="88" t="str">
+      <c r="A7" s="65" t="str">
         <f>October!A7</f>
         <v>Project Acronym</v>
       </c>
-      <c r="B7" s="88"/>
-      <c r="C7" s="88"/>
-      <c r="D7" s="89" t="str">
+      <c r="B7" s="65"/>
+      <c r="C7" s="65"/>
+      <c r="D7" s="73" t="str">
         <f>October!D7</f>
         <v>AIQ</v>
       </c>
-      <c r="E7" s="89"/>
-      <c r="F7" s="89"/>
-      <c r="G7" s="89"/>
-      <c r="H7" s="89"/>
+      <c r="E7" s="73"/>
+      <c r="F7" s="73"/>
+      <c r="G7" s="73"/>
+      <c r="H7" s="73"/>
       <c r="I7" s="24"/>
     </row>
     <row r="8" spans="1:40" s="1" customFormat="1" ht="7.5" customHeight="1">
-      <c r="A8" s="94"/>
-      <c r="B8" s="94"/>
-      <c r="C8" s="94"/>
-      <c r="D8" s="94"/>
-      <c r="E8" s="94"/>
-      <c r="F8" s="94"/>
-      <c r="G8" s="94"/>
-      <c r="H8" s="94"/>
-      <c r="I8" s="94"/>
+      <c r="A8" s="64"/>
+      <c r="B8" s="64"/>
+      <c r="C8" s="64"/>
+      <c r="D8" s="64"/>
+      <c r="E8" s="64"/>
+      <c r="F8" s="64"/>
+      <c r="G8" s="64"/>
+      <c r="H8" s="64"/>
+      <c r="I8" s="64"/>
     </row>
     <row r="9" spans="1:40" s="1" customFormat="1" ht="13.75" customHeight="1">
-      <c r="A9" s="88" t="str">
+      <c r="A9" s="65" t="str">
         <f>October!A9</f>
         <v>Project Title</v>
       </c>
-      <c r="B9" s="88"/>
-      <c r="C9" s="88"/>
-      <c r="D9" s="84" t="str">
+      <c r="B9" s="65"/>
+      <c r="C9" s="65"/>
+      <c r="D9" s="66" t="str">
         <f>October!D9</f>
         <v>Automating change detection in ImageQuerying</v>
       </c>
-      <c r="E9" s="85"/>
-      <c r="F9" s="85"/>
-      <c r="G9" s="85"/>
-      <c r="H9" s="86"/>
+      <c r="E9" s="67"/>
+      <c r="F9" s="67"/>
+      <c r="G9" s="67"/>
+      <c r="H9" s="68"/>
       <c r="I9" s="24"/>
       <c r="J9" s="15"/>
     </row>
     <row r="10" spans="1:40" s="1" customFormat="1" ht="7.5" customHeight="1">
-      <c r="A10" s="95"/>
-      <c r="B10" s="95"/>
-      <c r="C10" s="95"/>
-      <c r="D10" s="95"/>
-      <c r="E10" s="95"/>
-      <c r="F10" s="95"/>
-      <c r="G10" s="95"/>
-      <c r="H10" s="95"/>
-      <c r="I10" s="95"/>
+      <c r="A10" s="69"/>
+      <c r="B10" s="69"/>
+      <c r="C10" s="69"/>
+      <c r="D10" s="69"/>
+      <c r="E10" s="69"/>
+      <c r="F10" s="69"/>
+      <c r="G10" s="69"/>
+      <c r="H10" s="69"/>
+      <c r="I10" s="69"/>
     </row>
     <row r="11" spans="1:40" s="1" customFormat="1" ht="12">
       <c r="A11" s="21" t="s">
-        <v>52</v>
+        <v>57</v>
       </c>
       <c r="B11" s="21"/>
       <c r="C11" s="21"/>
       <c r="D11" s="21" t="s">
-        <v>53</v>
+        <v>58</v>
       </c>
       <c r="E11" s="21"/>
       <c r="F11" s="21"/>
@@ -5026,55 +5031,55 @@
       <c r="I12" s="26"/>
     </row>
     <row r="13" spans="1:40" s="2" customFormat="1" ht="15.5" customHeight="1">
-      <c r="A13" s="68" t="s">
-        <v>12</v>
-      </c>
-      <c r="B13" s="71" t="s">
-        <v>48</v>
-      </c>
-      <c r="C13" s="72"/>
-      <c r="D13" s="72"/>
-      <c r="E13" s="72"/>
-      <c r="F13" s="72"/>
-      <c r="G13" s="72"/>
-      <c r="H13" s="72"/>
-      <c r="I13" s="73"/>
+      <c r="A13" s="78" t="s">
+        <v>17</v>
+      </c>
+      <c r="B13" s="81" t="s">
+        <v>53</v>
+      </c>
+      <c r="C13" s="82"/>
+      <c r="D13" s="82"/>
+      <c r="E13" s="82"/>
+      <c r="F13" s="82"/>
+      <c r="G13" s="82"/>
+      <c r="H13" s="82"/>
+      <c r="I13" s="83"/>
     </row>
     <row r="14" spans="1:40" s="2" customFormat="1" ht="13.75" customHeight="1">
-      <c r="A14" s="69"/>
-      <c r="B14" s="74" t="s">
-        <v>13</v>
-      </c>
-      <c r="C14" s="75"/>
-      <c r="D14" s="76" t="s">
-        <v>14</v>
-      </c>
-      <c r="E14" s="78" t="s">
-        <v>49</v>
-      </c>
-      <c r="F14" s="79"/>
-      <c r="G14" s="79"/>
-      <c r="H14" s="79"/>
-      <c r="I14" s="80"/>
+      <c r="A14" s="79"/>
+      <c r="B14" s="84" t="s">
+        <v>18</v>
+      </c>
+      <c r="C14" s="85"/>
+      <c r="D14" s="86" t="s">
+        <v>19</v>
+      </c>
+      <c r="E14" s="88" t="s">
+        <v>54</v>
+      </c>
+      <c r="F14" s="89"/>
+      <c r="G14" s="89"/>
+      <c r="H14" s="89"/>
+      <c r="I14" s="90"/>
     </row>
     <row r="15" spans="1:40" ht="12" customHeight="1">
-      <c r="A15" s="70"/>
+      <c r="A15" s="80"/>
       <c r="B15" s="32" t="s">
-        <v>15</v>
+        <v>20</v>
       </c>
       <c r="C15" s="33" t="s">
-        <v>16</v>
-      </c>
-      <c r="D15" s="77"/>
-      <c r="E15" s="81"/>
-      <c r="F15" s="82"/>
-      <c r="G15" s="82"/>
-      <c r="H15" s="82"/>
-      <c r="I15" s="83"/>
+        <v>21</v>
+      </c>
+      <c r="D15" s="87"/>
+      <c r="E15" s="91"/>
+      <c r="F15" s="92"/>
+      <c r="G15" s="92"/>
+      <c r="H15" s="92"/>
+      <c r="I15" s="93"/>
     </row>
     <row r="16" spans="1:40" s="51" customFormat="1" ht="12">
       <c r="A16" s="48" t="s">
-        <v>17</v>
+        <v>22</v>
       </c>
       <c r="B16" s="49"/>
       <c r="C16" s="50"/>
@@ -5082,15 +5087,15 @@
         <f>C16-B16</f>
         <v>0</v>
       </c>
-      <c r="E16" s="57"/>
-      <c r="F16" s="58"/>
-      <c r="G16" s="58"/>
-      <c r="H16" s="58"/>
-      <c r="I16" s="59"/>
+      <c r="E16" s="77"/>
+      <c r="F16" s="75"/>
+      <c r="G16" s="75"/>
+      <c r="H16" s="75"/>
+      <c r="I16" s="76"/>
     </row>
     <row r="17" spans="1:9" s="43" customFormat="1" ht="12">
       <c r="A17" s="40" t="s">
-        <v>18</v>
+        <v>23</v>
       </c>
       <c r="B17" s="41"/>
       <c r="C17" s="42"/>
@@ -5098,15 +5103,15 @@
         <f t="shared" ref="D17:D46" si="0">C17-B17</f>
         <v>0</v>
       </c>
-      <c r="E17" s="60"/>
-      <c r="F17" s="61"/>
-      <c r="G17" s="61"/>
-      <c r="H17" s="61"/>
-      <c r="I17" s="62"/>
+      <c r="E17" s="57"/>
+      <c r="F17" s="58"/>
+      <c r="G17" s="58"/>
+      <c r="H17" s="58"/>
+      <c r="I17" s="59"/>
     </row>
     <row r="18" spans="1:9" s="43" customFormat="1" ht="12">
       <c r="A18" s="40" t="s">
-        <v>19</v>
+        <v>24</v>
       </c>
       <c r="B18" s="41"/>
       <c r="C18" s="42"/>
@@ -5114,15 +5119,15 @@
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="E18" s="60"/>
-      <c r="F18" s="61"/>
-      <c r="G18" s="61"/>
-      <c r="H18" s="61"/>
-      <c r="I18" s="62"/>
+      <c r="E18" s="57"/>
+      <c r="F18" s="58"/>
+      <c r="G18" s="58"/>
+      <c r="H18" s="58"/>
+      <c r="I18" s="59"/>
     </row>
     <row r="19" spans="1:9" s="43" customFormat="1" ht="12">
       <c r="A19" s="40" t="s">
-        <v>20</v>
+        <v>25</v>
       </c>
       <c r="B19" s="41"/>
       <c r="C19" s="42"/>
@@ -5130,15 +5135,15 @@
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="E19" s="60"/>
-      <c r="F19" s="61"/>
-      <c r="G19" s="61"/>
-      <c r="H19" s="61"/>
-      <c r="I19" s="62"/>
+      <c r="E19" s="57"/>
+      <c r="F19" s="58"/>
+      <c r="G19" s="58"/>
+      <c r="H19" s="58"/>
+      <c r="I19" s="59"/>
     </row>
     <row r="20" spans="1:9" s="43" customFormat="1" ht="12">
       <c r="A20" s="40" t="s">
-        <v>21</v>
+        <v>26</v>
       </c>
       <c r="B20" s="41"/>
       <c r="C20" s="42"/>
@@ -5146,15 +5151,15 @@
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="E20" s="60"/>
-      <c r="F20" s="61"/>
-      <c r="G20" s="61"/>
-      <c r="H20" s="61"/>
-      <c r="I20" s="62"/>
+      <c r="E20" s="57"/>
+      <c r="F20" s="58"/>
+      <c r="G20" s="58"/>
+      <c r="H20" s="58"/>
+      <c r="I20" s="59"/>
     </row>
     <row r="21" spans="1:9" s="43" customFormat="1" ht="12">
       <c r="A21" s="40" t="s">
-        <v>22</v>
+        <v>27</v>
       </c>
       <c r="B21" s="41"/>
       <c r="C21" s="42"/>
@@ -5162,15 +5167,15 @@
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="E21" s="60"/>
-      <c r="F21" s="61"/>
-      <c r="G21" s="61"/>
-      <c r="H21" s="61"/>
-      <c r="I21" s="62"/>
+      <c r="E21" s="57"/>
+      <c r="F21" s="58"/>
+      <c r="G21" s="58"/>
+      <c r="H21" s="58"/>
+      <c r="I21" s="59"/>
     </row>
     <row r="22" spans="1:9" s="51" customFormat="1" ht="12">
       <c r="A22" s="48" t="s">
-        <v>23</v>
+        <v>28</v>
       </c>
       <c r="B22" s="49"/>
       <c r="C22" s="50"/>
@@ -5178,15 +5183,15 @@
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="E22" s="57"/>
-      <c r="F22" s="58"/>
-      <c r="G22" s="58"/>
-      <c r="H22" s="58"/>
-      <c r="I22" s="59"/>
+      <c r="E22" s="77"/>
+      <c r="F22" s="75"/>
+      <c r="G22" s="75"/>
+      <c r="H22" s="75"/>
+      <c r="I22" s="76"/>
     </row>
     <row r="23" spans="1:9" s="51" customFormat="1" ht="12">
       <c r="A23" s="48" t="s">
-        <v>24</v>
+        <v>29</v>
       </c>
       <c r="B23" s="49"/>
       <c r="C23" s="50"/>
@@ -5194,15 +5199,15 @@
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="E23" s="57"/>
-      <c r="F23" s="58"/>
-      <c r="G23" s="58"/>
-      <c r="H23" s="58"/>
-      <c r="I23" s="59"/>
+      <c r="E23" s="77"/>
+      <c r="F23" s="75"/>
+      <c r="G23" s="75"/>
+      <c r="H23" s="75"/>
+      <c r="I23" s="76"/>
     </row>
     <row r="24" spans="1:9" s="43" customFormat="1" ht="12">
       <c r="A24" s="40" t="s">
-        <v>25</v>
+        <v>30</v>
       </c>
       <c r="B24" s="41"/>
       <c r="C24" s="42"/>
@@ -5210,15 +5215,15 @@
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="E24" s="60"/>
-      <c r="F24" s="61"/>
-      <c r="G24" s="61"/>
-      <c r="H24" s="61"/>
-      <c r="I24" s="62"/>
+      <c r="E24" s="57"/>
+      <c r="F24" s="58"/>
+      <c r="G24" s="58"/>
+      <c r="H24" s="58"/>
+      <c r="I24" s="59"/>
     </row>
     <row r="25" spans="1:9" s="43" customFormat="1" ht="12">
       <c r="A25" s="40" t="s">
-        <v>26</v>
+        <v>31</v>
       </c>
       <c r="B25" s="41"/>
       <c r="C25" s="42"/>
@@ -5226,15 +5231,15 @@
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="E25" s="60"/>
-      <c r="F25" s="61"/>
-      <c r="G25" s="61"/>
-      <c r="H25" s="61"/>
-      <c r="I25" s="62"/>
+      <c r="E25" s="57"/>
+      <c r="F25" s="58"/>
+      <c r="G25" s="58"/>
+      <c r="H25" s="58"/>
+      <c r="I25" s="59"/>
     </row>
     <row r="26" spans="1:9" s="43" customFormat="1" ht="12">
       <c r="A26" s="40" t="s">
-        <v>27</v>
+        <v>32</v>
       </c>
       <c r="B26" s="41"/>
       <c r="C26" s="42"/>
@@ -5242,15 +5247,15 @@
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="E26" s="60"/>
-      <c r="F26" s="61"/>
-      <c r="G26" s="61"/>
-      <c r="H26" s="61"/>
-      <c r="I26" s="62"/>
+      <c r="E26" s="57"/>
+      <c r="F26" s="58"/>
+      <c r="G26" s="58"/>
+      <c r="H26" s="58"/>
+      <c r="I26" s="59"/>
     </row>
     <row r="27" spans="1:9" s="43" customFormat="1" ht="12">
       <c r="A27" s="40" t="s">
-        <v>28</v>
+        <v>33</v>
       </c>
       <c r="B27" s="41"/>
       <c r="C27" s="42"/>
@@ -5258,15 +5263,15 @@
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="E27" s="60"/>
-      <c r="F27" s="61"/>
-      <c r="G27" s="61"/>
-      <c r="H27" s="61"/>
-      <c r="I27" s="62"/>
+      <c r="E27" s="57"/>
+      <c r="F27" s="58"/>
+      <c r="G27" s="58"/>
+      <c r="H27" s="58"/>
+      <c r="I27" s="59"/>
     </row>
     <row r="28" spans="1:9" s="43" customFormat="1" ht="12">
       <c r="A28" s="40" t="s">
-        <v>29</v>
+        <v>34</v>
       </c>
       <c r="B28" s="41"/>
       <c r="C28" s="42"/>
@@ -5274,15 +5279,15 @@
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="E28" s="60"/>
-      <c r="F28" s="61"/>
-      <c r="G28" s="61"/>
-      <c r="H28" s="61"/>
-      <c r="I28" s="62"/>
+      <c r="E28" s="57"/>
+      <c r="F28" s="58"/>
+      <c r="G28" s="58"/>
+      <c r="H28" s="58"/>
+      <c r="I28" s="59"/>
     </row>
     <row r="29" spans="1:9" s="51" customFormat="1" ht="12">
       <c r="A29" s="48" t="s">
-        <v>30</v>
+        <v>35</v>
       </c>
       <c r="B29" s="49"/>
       <c r="C29" s="50"/>
@@ -5290,15 +5295,15 @@
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="E29" s="57"/>
-      <c r="F29" s="58"/>
-      <c r="G29" s="58"/>
-      <c r="H29" s="58"/>
-      <c r="I29" s="59"/>
+      <c r="E29" s="77"/>
+      <c r="F29" s="75"/>
+      <c r="G29" s="75"/>
+      <c r="H29" s="75"/>
+      <c r="I29" s="76"/>
     </row>
     <row r="30" spans="1:9" s="51" customFormat="1" ht="12">
       <c r="A30" s="48" t="s">
-        <v>31</v>
+        <v>36</v>
       </c>
       <c r="B30" s="49"/>
       <c r="C30" s="50"/>
@@ -5306,15 +5311,15 @@
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="E30" s="57"/>
-      <c r="F30" s="58"/>
-      <c r="G30" s="58"/>
-      <c r="H30" s="58"/>
-      <c r="I30" s="59"/>
+      <c r="E30" s="77"/>
+      <c r="F30" s="75"/>
+      <c r="G30" s="75"/>
+      <c r="H30" s="75"/>
+      <c r="I30" s="76"/>
     </row>
     <row r="31" spans="1:9" s="43" customFormat="1" ht="12">
       <c r="A31" s="40" t="s">
-        <v>32</v>
+        <v>37</v>
       </c>
       <c r="B31" s="41"/>
       <c r="C31" s="42"/>
@@ -5322,15 +5327,15 @@
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="E31" s="60"/>
-      <c r="F31" s="61"/>
-      <c r="G31" s="61"/>
-      <c r="H31" s="61"/>
-      <c r="I31" s="62"/>
+      <c r="E31" s="57"/>
+      <c r="F31" s="58"/>
+      <c r="G31" s="58"/>
+      <c r="H31" s="58"/>
+      <c r="I31" s="59"/>
     </row>
     <row r="32" spans="1:9" s="43" customFormat="1" ht="12">
       <c r="A32" s="40" t="s">
-        <v>33</v>
+        <v>38</v>
       </c>
       <c r="B32" s="41"/>
       <c r="C32" s="42"/>
@@ -5338,15 +5343,15 @@
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="E32" s="60"/>
-      <c r="F32" s="61"/>
-      <c r="G32" s="61"/>
-      <c r="H32" s="61"/>
-      <c r="I32" s="62"/>
+      <c r="E32" s="57"/>
+      <c r="F32" s="58"/>
+      <c r="G32" s="58"/>
+      <c r="H32" s="58"/>
+      <c r="I32" s="59"/>
     </row>
     <row r="33" spans="1:12" s="43" customFormat="1" ht="12">
       <c r="A33" s="40" t="s">
-        <v>34</v>
+        <v>39</v>
       </c>
       <c r="B33" s="41"/>
       <c r="C33" s="42"/>
@@ -5354,15 +5359,15 @@
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="E33" s="60"/>
-      <c r="F33" s="61"/>
-      <c r="G33" s="61"/>
-      <c r="H33" s="61"/>
-      <c r="I33" s="62"/>
+      <c r="E33" s="57"/>
+      <c r="F33" s="58"/>
+      <c r="G33" s="58"/>
+      <c r="H33" s="58"/>
+      <c r="I33" s="59"/>
     </row>
     <row r="34" spans="1:12" s="43" customFormat="1" ht="12">
       <c r="A34" s="40" t="s">
-        <v>35</v>
+        <v>40</v>
       </c>
       <c r="B34" s="41"/>
       <c r="C34" s="42"/>
@@ -5370,15 +5375,15 @@
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="E34" s="60"/>
-      <c r="F34" s="61"/>
-      <c r="G34" s="61"/>
-      <c r="H34" s="61"/>
-      <c r="I34" s="62"/>
+      <c r="E34" s="57"/>
+      <c r="F34" s="58"/>
+      <c r="G34" s="58"/>
+      <c r="H34" s="58"/>
+      <c r="I34" s="59"/>
     </row>
     <row r="35" spans="1:12" s="43" customFormat="1" ht="12">
       <c r="A35" s="40" t="s">
-        <v>36</v>
+        <v>41</v>
       </c>
       <c r="B35" s="41"/>
       <c r="C35" s="42"/>
@@ -5386,15 +5391,15 @@
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="E35" s="60"/>
-      <c r="F35" s="61"/>
-      <c r="G35" s="61"/>
-      <c r="H35" s="61"/>
-      <c r="I35" s="62"/>
+      <c r="E35" s="57"/>
+      <c r="F35" s="58"/>
+      <c r="G35" s="58"/>
+      <c r="H35" s="58"/>
+      <c r="I35" s="59"/>
     </row>
     <row r="36" spans="1:12" s="51" customFormat="1" ht="12">
       <c r="A36" s="48" t="s">
-        <v>37</v>
+        <v>42</v>
       </c>
       <c r="B36" s="49"/>
       <c r="C36" s="50"/>
@@ -5402,15 +5407,15 @@
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="E36" s="57"/>
-      <c r="F36" s="58"/>
-      <c r="G36" s="58"/>
-      <c r="H36" s="58"/>
-      <c r="I36" s="59"/>
+      <c r="E36" s="77"/>
+      <c r="F36" s="75"/>
+      <c r="G36" s="75"/>
+      <c r="H36" s="75"/>
+      <c r="I36" s="76"/>
     </row>
     <row r="37" spans="1:12" s="51" customFormat="1" ht="12">
       <c r="A37" s="48" t="s">
-        <v>38</v>
+        <v>43</v>
       </c>
       <c r="B37" s="49"/>
       <c r="C37" s="50"/>
@@ -5418,15 +5423,15 @@
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="E37" s="57"/>
-      <c r="F37" s="58"/>
-      <c r="G37" s="58"/>
-      <c r="H37" s="58"/>
-      <c r="I37" s="59"/>
+      <c r="E37" s="77"/>
+      <c r="F37" s="75"/>
+      <c r="G37" s="75"/>
+      <c r="H37" s="75"/>
+      <c r="I37" s="76"/>
     </row>
     <row r="38" spans="1:12" s="43" customFormat="1" ht="12">
       <c r="A38" s="40" t="s">
-        <v>39</v>
+        <v>44</v>
       </c>
       <c r="B38" s="41"/>
       <c r="C38" s="42"/>
@@ -5434,15 +5439,15 @@
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="E38" s="60"/>
-      <c r="F38" s="61"/>
-      <c r="G38" s="61"/>
-      <c r="H38" s="61"/>
-      <c r="I38" s="62"/>
+      <c r="E38" s="57"/>
+      <c r="F38" s="58"/>
+      <c r="G38" s="58"/>
+      <c r="H38" s="58"/>
+      <c r="I38" s="59"/>
     </row>
     <row r="39" spans="1:12" s="43" customFormat="1" ht="12">
       <c r="A39" s="40" t="s">
-        <v>40</v>
+        <v>45</v>
       </c>
       <c r="B39" s="41"/>
       <c r="C39" s="42"/>
@@ -5450,15 +5455,15 @@
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="E39" s="60"/>
-      <c r="F39" s="61"/>
-      <c r="G39" s="61"/>
-      <c r="H39" s="61"/>
-      <c r="I39" s="62"/>
+      <c r="E39" s="57"/>
+      <c r="F39" s="58"/>
+      <c r="G39" s="58"/>
+      <c r="H39" s="58"/>
+      <c r="I39" s="59"/>
     </row>
     <row r="40" spans="1:12" s="43" customFormat="1" ht="12">
       <c r="A40" s="40" t="s">
-        <v>41</v>
+        <v>46</v>
       </c>
       <c r="B40" s="41"/>
       <c r="C40" s="42"/>
@@ -5466,15 +5471,15 @@
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="E40" s="60"/>
-      <c r="F40" s="61"/>
-      <c r="G40" s="61"/>
-      <c r="H40" s="61"/>
-      <c r="I40" s="62"/>
+      <c r="E40" s="57"/>
+      <c r="F40" s="58"/>
+      <c r="G40" s="58"/>
+      <c r="H40" s="58"/>
+      <c r="I40" s="59"/>
     </row>
     <row r="41" spans="1:12" s="43" customFormat="1" ht="12">
       <c r="A41" s="40" t="s">
-        <v>42</v>
+        <v>47</v>
       </c>
       <c r="B41" s="41"/>
       <c r="C41" s="42"/>
@@ -5482,15 +5487,15 @@
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="E41" s="60"/>
-      <c r="F41" s="61"/>
-      <c r="G41" s="61"/>
-      <c r="H41" s="61"/>
-      <c r="I41" s="62"/>
+      <c r="E41" s="57"/>
+      <c r="F41" s="58"/>
+      <c r="G41" s="58"/>
+      <c r="H41" s="58"/>
+      <c r="I41" s="59"/>
     </row>
     <row r="42" spans="1:12" s="43" customFormat="1" ht="12">
       <c r="A42" s="40" t="s">
-        <v>43</v>
+        <v>48</v>
       </c>
       <c r="B42" s="41"/>
       <c r="C42" s="42"/>
@@ -5498,15 +5503,15 @@
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="E42" s="60"/>
-      <c r="F42" s="61"/>
-      <c r="G42" s="61"/>
-      <c r="H42" s="61"/>
-      <c r="I42" s="62"/>
+      <c r="E42" s="57"/>
+      <c r="F42" s="58"/>
+      <c r="G42" s="58"/>
+      <c r="H42" s="58"/>
+      <c r="I42" s="59"/>
     </row>
     <row r="43" spans="1:12" s="51" customFormat="1" ht="12">
       <c r="A43" s="48" t="s">
-        <v>44</v>
+        <v>49</v>
       </c>
       <c r="B43" s="49"/>
       <c r="C43" s="50"/>
@@ -5514,15 +5519,15 @@
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="E43" s="57"/>
-      <c r="F43" s="58"/>
-      <c r="G43" s="58"/>
-      <c r="H43" s="58"/>
-      <c r="I43" s="59"/>
+      <c r="E43" s="77"/>
+      <c r="F43" s="75"/>
+      <c r="G43" s="75"/>
+      <c r="H43" s="75"/>
+      <c r="I43" s="76"/>
     </row>
     <row r="44" spans="1:12" s="51" customFormat="1" ht="12">
       <c r="A44" s="48" t="s">
-        <v>45</v>
+        <v>50</v>
       </c>
       <c r="B44" s="49"/>
       <c r="C44" s="50"/>
@@ -5530,15 +5535,15 @@
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="E44" s="57"/>
-      <c r="F44" s="58"/>
-      <c r="G44" s="58"/>
-      <c r="H44" s="58"/>
-      <c r="I44" s="59"/>
+      <c r="E44" s="77"/>
+      <c r="F44" s="75"/>
+      <c r="G44" s="75"/>
+      <c r="H44" s="75"/>
+      <c r="I44" s="76"/>
     </row>
     <row r="45" spans="1:12" s="39" customFormat="1" ht="12">
       <c r="A45" s="36" t="s">
-        <v>46</v>
+        <v>51</v>
       </c>
       <c r="B45" s="37"/>
       <c r="C45" s="38"/>
@@ -5554,7 +5559,7 @@
     </row>
     <row r="46" spans="1:12" s="39" customFormat="1" ht="12">
       <c r="A46" s="36" t="s">
-        <v>62</v>
+        <v>67</v>
       </c>
       <c r="B46" s="37"/>
       <c r="C46" s="38"/>
@@ -5597,46 +5602,7 @@
       <c r="L48" s="13"/>
     </row>
   </sheetData>
-  <sheetCalcPr fullCalcOnLoad="1"/>
   <mergeCells count="51">
-    <mergeCell ref="A1:I1"/>
-    <mergeCell ref="A2:I2"/>
-    <mergeCell ref="A3:H3"/>
-    <mergeCell ref="A4:I4"/>
-    <mergeCell ref="A5:C5"/>
-    <mergeCell ref="D5:H5"/>
-    <mergeCell ref="A6:I6"/>
-    <mergeCell ref="A7:C7"/>
-    <mergeCell ref="D7:H7"/>
-    <mergeCell ref="A8:I8"/>
-    <mergeCell ref="A9:C9"/>
-    <mergeCell ref="D9:H9"/>
-    <mergeCell ref="A10:I10"/>
-    <mergeCell ref="A13:A15"/>
-    <mergeCell ref="B13:I13"/>
-    <mergeCell ref="B14:C14"/>
-    <mergeCell ref="D14:D15"/>
-    <mergeCell ref="E14:I15"/>
-    <mergeCell ref="E16:I16"/>
-    <mergeCell ref="E17:I17"/>
-    <mergeCell ref="E18:I18"/>
-    <mergeCell ref="E19:I19"/>
-    <mergeCell ref="E20:I20"/>
-    <mergeCell ref="E21:I21"/>
-    <mergeCell ref="E22:I22"/>
-    <mergeCell ref="E23:I23"/>
-    <mergeCell ref="E24:I24"/>
-    <mergeCell ref="E25:I25"/>
-    <mergeCell ref="E26:I26"/>
-    <mergeCell ref="E27:I27"/>
-    <mergeCell ref="E28:I28"/>
-    <mergeCell ref="E29:I29"/>
-    <mergeCell ref="E30:I30"/>
-    <mergeCell ref="E31:I31"/>
-    <mergeCell ref="E32:I32"/>
-    <mergeCell ref="E33:I33"/>
-    <mergeCell ref="E34:I34"/>
-    <mergeCell ref="E35:I35"/>
     <mergeCell ref="E36:I36"/>
     <mergeCell ref="E37:I37"/>
     <mergeCell ref="E38:I38"/>
@@ -5650,6 +5616,44 @@
     <mergeCell ref="E44:I44"/>
     <mergeCell ref="E46:I46"/>
     <mergeCell ref="E45:I45"/>
+    <mergeCell ref="E31:I31"/>
+    <mergeCell ref="E32:I32"/>
+    <mergeCell ref="E33:I33"/>
+    <mergeCell ref="E34:I34"/>
+    <mergeCell ref="E35:I35"/>
+    <mergeCell ref="E26:I26"/>
+    <mergeCell ref="E27:I27"/>
+    <mergeCell ref="E28:I28"/>
+    <mergeCell ref="E29:I29"/>
+    <mergeCell ref="E30:I30"/>
+    <mergeCell ref="E21:I21"/>
+    <mergeCell ref="E22:I22"/>
+    <mergeCell ref="E23:I23"/>
+    <mergeCell ref="E24:I24"/>
+    <mergeCell ref="E25:I25"/>
+    <mergeCell ref="E16:I16"/>
+    <mergeCell ref="E17:I17"/>
+    <mergeCell ref="E18:I18"/>
+    <mergeCell ref="E19:I19"/>
+    <mergeCell ref="E20:I20"/>
+    <mergeCell ref="A10:I10"/>
+    <mergeCell ref="A13:A15"/>
+    <mergeCell ref="B13:I13"/>
+    <mergeCell ref="B14:C14"/>
+    <mergeCell ref="D14:D15"/>
+    <mergeCell ref="E14:I15"/>
+    <mergeCell ref="A6:I6"/>
+    <mergeCell ref="A7:C7"/>
+    <mergeCell ref="D7:H7"/>
+    <mergeCell ref="A8:I8"/>
+    <mergeCell ref="A9:C9"/>
+    <mergeCell ref="D9:H9"/>
+    <mergeCell ref="A1:I1"/>
+    <mergeCell ref="A2:I2"/>
+    <mergeCell ref="A3:H3"/>
+    <mergeCell ref="A4:I4"/>
+    <mergeCell ref="A5:C5"/>
+    <mergeCell ref="D5:H5"/>
   </mergeCells>
   <phoneticPr fontId="32" type="noConversion"/>
   <printOptions horizontalCentered="1"/>

--- a/TimeSheetTemplate.xlsx
+++ b/TimeSheetTemplate.xlsx
@@ -17,7 +17,7 @@
     <definedName name="M_satz">#REF!</definedName>
     <definedName name="_xlnm.Print_Area" localSheetId="2">December!$A$1:$L$48</definedName>
     <definedName name="_xlnm.Print_Area" localSheetId="3">January!$A$1:$L$48</definedName>
-    <definedName name="_xlnm.Print_Area" localSheetId="1">November!$A$1:$L$47</definedName>
+    <definedName name="_xlnm.Print_Area" localSheetId="1">November!$A$1:$L$49</definedName>
     <definedName name="_xlnm.Print_Area" localSheetId="0">October!$A$1:$I$51</definedName>
     <definedName name="_xlnm.Print_Titles" localSheetId="2">December!$16:$17</definedName>
     <definedName name="_xlnm.Print_Titles" localSheetId="3">January!$16:$17</definedName>
@@ -36,7 +36,67 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="197" uniqueCount="75">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="204" uniqueCount="82">
+  <si>
+    <t>Windows 10 (Solved!), complete clean install, upload to git, merge script versions</t>
+    <phoneticPr fontId="32" type="noConversion"/>
+  </si>
+  <si>
+    <t>Meeting with Dirk and Martin</t>
+    <phoneticPr fontId="32" type="noConversion"/>
+  </si>
+  <si>
+    <t>Read Articles from Dirk</t>
+    <phoneticPr fontId="32" type="noConversion"/>
+  </si>
+  <si>
+    <t>Adjust Download script to SciHub and new size structure</t>
+    <phoneticPr fontId="32" type="noConversion"/>
+  </si>
+  <si>
+    <t>Read slides from previous week</t>
+    <phoneticPr fontId="32" type="noConversion"/>
+  </si>
+  <si>
+    <t>Set up timesheet</t>
+    <phoneticPr fontId="32" type="noConversion"/>
+  </si>
+  <si>
+    <t>Meeting with I3 Professors and editing abstract, incl. travel time</t>
+    <phoneticPr fontId="32" type="noConversion"/>
+  </si>
+  <si>
+    <t>Troubleshoot Windows 10 crash (5 hours personal time)</t>
+    <phoneticPr fontId="32" type="noConversion"/>
+  </si>
+  <si>
+    <t>Plan out Pecha Kucha Slides</t>
+    <phoneticPr fontId="32" type="noConversion"/>
+  </si>
+  <si>
+    <t>Work on download script issues</t>
+    <phoneticPr fontId="32" type="noConversion"/>
+  </si>
+  <si>
+    <t>Create Pecha Kucha Presentation</t>
+    <phoneticPr fontId="32" type="noConversion"/>
+  </si>
+  <si>
+    <t>Practice Pecha Kucha // make changes</t>
+    <phoneticPr fontId="32" type="noConversion"/>
+  </si>
+  <si>
+    <t>In Class: Give Pecha Kucha Presentation</t>
+    <phoneticPr fontId="32" type="noConversion"/>
+  </si>
+  <si>
+    <t>I3 class and update meeting</t>
+    <phoneticPr fontId="32" type="noConversion"/>
+  </si>
+  <si>
+    <t>Python docs -- brainstorming solutions for all scripts</t>
+    <phoneticPr fontId="32" type="noConversion"/>
+  </si>
   <si>
     <t xml:space="preserve">Monthly timesheet for MSc Geoinformatics IP </t>
     <phoneticPr fontId="32" type="noConversion"/>
@@ -58,10 +118,6 @@
     <phoneticPr fontId="32" type="noConversion"/>
   </si>
   <si>
-    <t>Create Pecha Kucha Presentation</t>
-    <phoneticPr fontId="32" type="noConversion"/>
-  </si>
-  <si>
     <t>ProjectLibre Tutorials and improving charts</t>
     <phoneticPr fontId="32" type="noConversion"/>
   </si>
@@ -79,10 +135,6 @@
   </si>
   <si>
     <t>Developing possible use-case during Hackathon, with Martin Sudmanns and team</t>
-    <phoneticPr fontId="32" type="noConversion"/>
-  </si>
-  <si>
-    <t>Python docs and reworking download script</t>
     <phoneticPr fontId="32" type="noConversion"/>
   </si>
   <si>
@@ -275,30 +327,6 @@
   </si>
   <si>
     <t>First Meeting</t>
-    <phoneticPr fontId="32" type="noConversion"/>
-  </si>
-  <si>
-    <t>Meeting with Dirk and Martin</t>
-    <phoneticPr fontId="32" type="noConversion"/>
-  </si>
-  <si>
-    <t>Read Articles from Dirk</t>
-    <phoneticPr fontId="32" type="noConversion"/>
-  </si>
-  <si>
-    <t>Adjust Download script to SciHub and new size structure</t>
-    <phoneticPr fontId="32" type="noConversion"/>
-  </si>
-  <si>
-    <t>Read slides from previous week</t>
-    <phoneticPr fontId="32" type="noConversion"/>
-  </si>
-  <si>
-    <t>Set up timesheet</t>
-    <phoneticPr fontId="32" type="noConversion"/>
-  </si>
-  <si>
-    <t>Meeting with I3 Professors and editing abstract, incl. travel time</t>
     <phoneticPr fontId="32" type="noConversion"/>
   </si>
 </sst>
@@ -1210,6 +1238,15 @@
     <xf numFmtId="166" fontId="0" fillId="0" borderId="20" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="166" fontId="0" fillId="0" borderId="11" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="166" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="24" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="25" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="26" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="24" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" wrapText="1"/>
     </xf>
@@ -1219,58 +1256,17 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="26" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="167" fontId="10" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1"/>
-    </xf>
+    <xf numFmtId="167" fontId="10" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="167" fontId="11" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="167" fontId="11" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="5" fillId="4" borderId="24" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="25" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="26" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="24" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="10" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -1319,16 +1315,48 @@
     <xf numFmtId="0" fontId="10" fillId="0" borderId="23" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="167" fontId="10" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="13" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="167" fontId="10" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="167" fontId="11" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="167" fontId="11" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
     <xf numFmtId="167" fontId="11" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -1812,17 +1840,17 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:50" s="7" customFormat="1" ht="18" thickBot="1">
-      <c r="A1" s="60" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" s="60"/>
-      <c r="C1" s="60"/>
-      <c r="D1" s="60"/>
-      <c r="E1" s="60"/>
-      <c r="F1" s="60"/>
-      <c r="G1" s="60"/>
-      <c r="H1" s="60"/>
-      <c r="I1" s="60"/>
+      <c r="A1" s="84" t="s">
+        <v>15</v>
+      </c>
+      <c r="B1" s="84"/>
+      <c r="C1" s="84"/>
+      <c r="D1" s="84"/>
+      <c r="E1" s="84"/>
+      <c r="F1" s="84"/>
+      <c r="G1" s="84"/>
+      <c r="H1" s="84"/>
+      <c r="I1" s="84"/>
       <c r="J1" s="8"/>
       <c r="K1" s="8"/>
       <c r="L1" s="8"/>
@@ -1865,15 +1893,15 @@
       <c r="AW1" s="8"/>
     </row>
     <row r="2" spans="1:50" s="1" customFormat="1" ht="7.5" customHeight="1">
-      <c r="A2" s="61"/>
-      <c r="B2" s="61"/>
-      <c r="C2" s="61"/>
-      <c r="D2" s="61"/>
-      <c r="E2" s="61"/>
-      <c r="F2" s="61"/>
-      <c r="G2" s="61"/>
-      <c r="H2" s="61"/>
-      <c r="I2" s="61"/>
+      <c r="A2" s="85"/>
+      <c r="B2" s="85"/>
+      <c r="C2" s="85"/>
+      <c r="D2" s="85"/>
+      <c r="E2" s="85"/>
+      <c r="F2" s="85"/>
+      <c r="G2" s="85"/>
+      <c r="H2" s="85"/>
+      <c r="I2" s="85"/>
       <c r="J2" s="9"/>
       <c r="K2" s="9"/>
       <c r="L2" s="9"/>
@@ -1916,16 +1944,16 @@
       <c r="AW2" s="9"/>
     </row>
     <row r="3" spans="1:50" s="11" customFormat="1" ht="13.5" customHeight="1">
-      <c r="A3" s="62" t="s">
-        <v>59</v>
-      </c>
-      <c r="B3" s="62"/>
-      <c r="C3" s="62"/>
-      <c r="D3" s="62"/>
-      <c r="E3" s="62"/>
-      <c r="F3" s="62"/>
-      <c r="G3" s="62"/>
-      <c r="H3" s="62"/>
+      <c r="A3" s="86" t="s">
+        <v>72</v>
+      </c>
+      <c r="B3" s="86"/>
+      <c r="C3" s="86"/>
+      <c r="D3" s="86"/>
+      <c r="E3" s="86"/>
+      <c r="F3" s="86"/>
+      <c r="G3" s="86"/>
+      <c r="H3" s="86"/>
       <c r="I3" s="23"/>
       <c r="J3" s="22"/>
       <c r="K3" s="22"/>
@@ -1970,29 +1998,29 @@
       <c r="AX3" s="10"/>
     </row>
     <row r="4" spans="1:50" s="6" customFormat="1" ht="9" customHeight="1">
-      <c r="A4" s="63"/>
-      <c r="B4" s="63"/>
-      <c r="C4" s="63"/>
-      <c r="D4" s="63"/>
-      <c r="E4" s="63"/>
-      <c r="F4" s="63"/>
-      <c r="G4" s="63"/>
-      <c r="H4" s="63"/>
-      <c r="I4" s="63"/>
+      <c r="A4" s="87"/>
+      <c r="B4" s="87"/>
+      <c r="C4" s="87"/>
+      <c r="D4" s="87"/>
+      <c r="E4" s="87"/>
+      <c r="F4" s="87"/>
+      <c r="G4" s="87"/>
+      <c r="H4" s="87"/>
+      <c r="I4" s="87"/>
     </row>
     <row r="5" spans="1:50" s="1" customFormat="1" ht="13.75" customHeight="1">
-      <c r="A5" s="70" t="s">
-        <v>56</v>
-      </c>
-      <c r="B5" s="71"/>
-      <c r="C5" s="71"/>
-      <c r="D5" s="66" t="s">
-        <v>62</v>
-      </c>
-      <c r="E5" s="67"/>
-      <c r="F5" s="67"/>
-      <c r="G5" s="67"/>
-      <c r="H5" s="68"/>
+      <c r="A5" s="94" t="s">
+        <v>69</v>
+      </c>
+      <c r="B5" s="95"/>
+      <c r="C5" s="95"/>
+      <c r="D5" s="90" t="s">
+        <v>75</v>
+      </c>
+      <c r="E5" s="91"/>
+      <c r="F5" s="91"/>
+      <c r="G5" s="91"/>
+      <c r="H5" s="92"/>
       <c r="I5" s="23"/>
       <c r="J5" s="9"/>
       <c r="K5" s="9"/>
@@ -2000,77 +2028,77 @@
       <c r="M5" s="9"/>
     </row>
     <row r="6" spans="1:50" s="1" customFormat="1" ht="7.5" customHeight="1">
-      <c r="A6" s="72"/>
-      <c r="B6" s="72"/>
-      <c r="C6" s="72"/>
-      <c r="D6" s="72"/>
-      <c r="E6" s="72"/>
-      <c r="F6" s="72"/>
-      <c r="G6" s="72"/>
-      <c r="H6" s="72"/>
-      <c r="I6" s="72"/>
+      <c r="A6" s="96"/>
+      <c r="B6" s="96"/>
+      <c r="C6" s="96"/>
+      <c r="D6" s="96"/>
+      <c r="E6" s="96"/>
+      <c r="F6" s="96"/>
+      <c r="G6" s="96"/>
+      <c r="H6" s="96"/>
+      <c r="I6" s="96"/>
     </row>
     <row r="7" spans="1:50" s="1" customFormat="1" ht="13.75" customHeight="1">
-      <c r="A7" s="65" t="s">
-        <v>60</v>
-      </c>
-      <c r="B7" s="65"/>
-      <c r="C7" s="65"/>
-      <c r="D7" s="73" t="s">
-        <v>63</v>
-      </c>
-      <c r="E7" s="73"/>
-      <c r="F7" s="73"/>
-      <c r="G7" s="73"/>
-      <c r="H7" s="73"/>
+      <c r="A7" s="89" t="s">
+        <v>73</v>
+      </c>
+      <c r="B7" s="89"/>
+      <c r="C7" s="89"/>
+      <c r="D7" s="97" t="s">
+        <v>76</v>
+      </c>
+      <c r="E7" s="97"/>
+      <c r="F7" s="97"/>
+      <c r="G7" s="97"/>
+      <c r="H7" s="97"/>
       <c r="I7" s="24"/>
     </row>
     <row r="8" spans="1:50" s="1" customFormat="1" ht="7.5" customHeight="1">
-      <c r="A8" s="64"/>
-      <c r="B8" s="64"/>
-      <c r="C8" s="64"/>
-      <c r="D8" s="64"/>
-      <c r="E8" s="64"/>
-      <c r="F8" s="64"/>
-      <c r="G8" s="64"/>
-      <c r="H8" s="64"/>
-      <c r="I8" s="64"/>
+      <c r="A8" s="88"/>
+      <c r="B8" s="88"/>
+      <c r="C8" s="88"/>
+      <c r="D8" s="88"/>
+      <c r="E8" s="88"/>
+      <c r="F8" s="88"/>
+      <c r="G8" s="88"/>
+      <c r="H8" s="88"/>
+      <c r="I8" s="88"/>
     </row>
     <row r="9" spans="1:50" s="1" customFormat="1" ht="13.75" customHeight="1">
-      <c r="A9" s="65" t="s">
-        <v>61</v>
-      </c>
-      <c r="B9" s="65"/>
-      <c r="C9" s="65"/>
-      <c r="D9" s="66" t="s">
-        <v>64</v>
-      </c>
-      <c r="E9" s="67"/>
-      <c r="F9" s="67"/>
-      <c r="G9" s="67"/>
-      <c r="H9" s="68"/>
+      <c r="A9" s="89" t="s">
+        <v>74</v>
+      </c>
+      <c r="B9" s="89"/>
+      <c r="C9" s="89"/>
+      <c r="D9" s="90" t="s">
+        <v>77</v>
+      </c>
+      <c r="E9" s="91"/>
+      <c r="F9" s="91"/>
+      <c r="G9" s="91"/>
+      <c r="H9" s="92"/>
       <c r="I9" s="24"/>
       <c r="J9" s="15"/>
     </row>
     <row r="10" spans="1:50" s="1" customFormat="1" ht="7.5" customHeight="1">
-      <c r="A10" s="69"/>
-      <c r="B10" s="69"/>
-      <c r="C10" s="69"/>
-      <c r="D10" s="69"/>
-      <c r="E10" s="69"/>
-      <c r="F10" s="69"/>
-      <c r="G10" s="69"/>
-      <c r="H10" s="69"/>
-      <c r="I10" s="69"/>
+      <c r="A10" s="93"/>
+      <c r="B10" s="93"/>
+      <c r="C10" s="93"/>
+      <c r="D10" s="93"/>
+      <c r="E10" s="93"/>
+      <c r="F10" s="93"/>
+      <c r="G10" s="93"/>
+      <c r="H10" s="93"/>
+      <c r="I10" s="93"/>
     </row>
     <row r="11" spans="1:50" s="1" customFormat="1" ht="12">
       <c r="A11" s="21" t="s">
-        <v>57</v>
+        <v>70</v>
       </c>
       <c r="B11" s="21"/>
       <c r="C11" s="21"/>
       <c r="D11" s="21" t="s">
-        <v>65</v>
+        <v>78</v>
       </c>
       <c r="E11" s="21"/>
       <c r="F11" s="21"/>
@@ -2090,55 +2118,55 @@
       <c r="I12" s="26"/>
     </row>
     <row r="13" spans="1:50" s="2" customFormat="1" ht="15.5" customHeight="1">
-      <c r="A13" s="78" t="s">
-        <v>17</v>
-      </c>
-      <c r="B13" s="81" t="s">
-        <v>53</v>
-      </c>
-      <c r="C13" s="82"/>
-      <c r="D13" s="82"/>
-      <c r="E13" s="82"/>
-      <c r="F13" s="82"/>
-      <c r="G13" s="82"/>
-      <c r="H13" s="82"/>
-      <c r="I13" s="83"/>
+      <c r="A13" s="68" t="s">
+        <v>30</v>
+      </c>
+      <c r="B13" s="71" t="s">
+        <v>66</v>
+      </c>
+      <c r="C13" s="72"/>
+      <c r="D13" s="72"/>
+      <c r="E13" s="72"/>
+      <c r="F13" s="72"/>
+      <c r="G13" s="72"/>
+      <c r="H13" s="72"/>
+      <c r="I13" s="73"/>
     </row>
     <row r="14" spans="1:50" s="2" customFormat="1" ht="13.75" customHeight="1">
-      <c r="A14" s="79"/>
-      <c r="B14" s="84" t="s">
-        <v>18</v>
-      </c>
-      <c r="C14" s="85"/>
-      <c r="D14" s="86" t="s">
-        <v>19</v>
-      </c>
-      <c r="E14" s="88" t="s">
-        <v>54</v>
-      </c>
-      <c r="F14" s="89"/>
-      <c r="G14" s="89"/>
-      <c r="H14" s="89"/>
-      <c r="I14" s="90"/>
+      <c r="A14" s="69"/>
+      <c r="B14" s="74" t="s">
+        <v>31</v>
+      </c>
+      <c r="C14" s="75"/>
+      <c r="D14" s="76" t="s">
+        <v>32</v>
+      </c>
+      <c r="E14" s="78" t="s">
+        <v>67</v>
+      </c>
+      <c r="F14" s="79"/>
+      <c r="G14" s="79"/>
+      <c r="H14" s="79"/>
+      <c r="I14" s="80"/>
     </row>
     <row r="15" spans="1:50" ht="13" customHeight="1">
-      <c r="A15" s="80"/>
+      <c r="A15" s="70"/>
       <c r="B15" s="32" t="s">
-        <v>20</v>
+        <v>33</v>
       </c>
       <c r="C15" s="33" t="s">
-        <v>21</v>
-      </c>
-      <c r="D15" s="87"/>
-      <c r="E15" s="91"/>
-      <c r="F15" s="92"/>
-      <c r="G15" s="92"/>
-      <c r="H15" s="92"/>
-      <c r="I15" s="93"/>
+        <v>34</v>
+      </c>
+      <c r="D15" s="77"/>
+      <c r="E15" s="81"/>
+      <c r="F15" s="82"/>
+      <c r="G15" s="82"/>
+      <c r="H15" s="82"/>
+      <c r="I15" s="83"/>
     </row>
     <row r="16" spans="1:50" s="51" customFormat="1" ht="12">
       <c r="A16" s="48" t="s">
-        <v>22</v>
+        <v>35</v>
       </c>
       <c r="B16" s="49">
         <v>0.33333333333333331</v>
@@ -2150,17 +2178,17 @@
         <f>C16-B16</f>
         <v>0.20833333333333331</v>
       </c>
-      <c r="E16" s="74" t="s">
-        <v>66</v>
-      </c>
-      <c r="F16" s="75"/>
-      <c r="G16" s="75"/>
-      <c r="H16" s="75"/>
-      <c r="I16" s="76"/>
+      <c r="E16" s="67" t="s">
+        <v>79</v>
+      </c>
+      <c r="F16" s="58"/>
+      <c r="G16" s="58"/>
+      <c r="H16" s="58"/>
+      <c r="I16" s="59"/>
     </row>
     <row r="17" spans="1:9" s="51" customFormat="1" ht="12">
       <c r="A17" s="48" t="s">
-        <v>23</v>
+        <v>36</v>
       </c>
       <c r="B17" s="49"/>
       <c r="C17" s="50"/>
@@ -2168,15 +2196,15 @@
         <f t="shared" ref="D17:D49" si="0">C17-B17</f>
         <v>0</v>
       </c>
-      <c r="E17" s="77"/>
-      <c r="F17" s="75"/>
-      <c r="G17" s="75"/>
-      <c r="H17" s="75"/>
-      <c r="I17" s="76"/>
+      <c r="E17" s="57"/>
+      <c r="F17" s="58"/>
+      <c r="G17" s="58"/>
+      <c r="H17" s="58"/>
+      <c r="I17" s="59"/>
     </row>
     <row r="18" spans="1:9" s="43" customFormat="1" ht="12">
       <c r="A18" s="40" t="s">
-        <v>24</v>
+        <v>37</v>
       </c>
       <c r="B18" s="41"/>
       <c r="C18" s="42"/>
@@ -2184,15 +2212,15 @@
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="E18" s="57"/>
-      <c r="F18" s="58"/>
-      <c r="G18" s="58"/>
-      <c r="H18" s="58"/>
-      <c r="I18" s="59"/>
+      <c r="E18" s="60"/>
+      <c r="F18" s="61"/>
+      <c r="G18" s="61"/>
+      <c r="H18" s="61"/>
+      <c r="I18" s="62"/>
     </row>
     <row r="19" spans="1:9" s="43" customFormat="1" ht="12">
       <c r="A19" s="40" t="s">
-        <v>25</v>
+        <v>38</v>
       </c>
       <c r="B19" s="41">
         <v>0.66666666666666663</v>
@@ -2204,17 +2232,17 @@
         <f t="shared" si="0"/>
         <v>4.1666666666666741E-2</v>
       </c>
-      <c r="E19" s="57" t="s">
-        <v>68</v>
-      </c>
-      <c r="F19" s="58"/>
-      <c r="G19" s="58"/>
-      <c r="H19" s="58"/>
-      <c r="I19" s="59"/>
+      <c r="E19" s="60" t="s">
+        <v>81</v>
+      </c>
+      <c r="F19" s="61"/>
+      <c r="G19" s="61"/>
+      <c r="H19" s="61"/>
+      <c r="I19" s="62"/>
     </row>
     <row r="20" spans="1:9" s="43" customFormat="1" ht="12">
       <c r="A20" s="40" t="s">
-        <v>26</v>
+        <v>39</v>
       </c>
       <c r="B20" s="41"/>
       <c r="C20" s="42"/>
@@ -2222,15 +2250,15 @@
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="E20" s="57"/>
-      <c r="F20" s="58"/>
-      <c r="G20" s="58"/>
-      <c r="H20" s="58"/>
-      <c r="I20" s="59"/>
+      <c r="E20" s="60"/>
+      <c r="F20" s="61"/>
+      <c r="G20" s="61"/>
+      <c r="H20" s="61"/>
+      <c r="I20" s="62"/>
     </row>
     <row r="21" spans="1:9" s="43" customFormat="1" ht="12">
       <c r="A21" s="40" t="s">
-        <v>27</v>
+        <v>40</v>
       </c>
       <c r="B21" s="41"/>
       <c r="C21" s="42"/>
@@ -2238,15 +2266,15 @@
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="E21" s="57"/>
-      <c r="F21" s="58"/>
-      <c r="G21" s="58"/>
-      <c r="H21" s="58"/>
-      <c r="I21" s="59"/>
+      <c r="E21" s="60"/>
+      <c r="F21" s="61"/>
+      <c r="G21" s="61"/>
+      <c r="H21" s="61"/>
+      <c r="I21" s="62"/>
     </row>
     <row r="22" spans="1:9" s="43" customFormat="1" ht="12">
       <c r="A22" s="40" t="s">
-        <v>28</v>
+        <v>41</v>
       </c>
       <c r="B22" s="41"/>
       <c r="C22" s="42"/>
@@ -2254,15 +2282,15 @@
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="E22" s="57"/>
-      <c r="F22" s="58"/>
-      <c r="G22" s="58"/>
-      <c r="H22" s="58"/>
-      <c r="I22" s="59"/>
+      <c r="E22" s="60"/>
+      <c r="F22" s="61"/>
+      <c r="G22" s="61"/>
+      <c r="H22" s="61"/>
+      <c r="I22" s="62"/>
     </row>
     <row r="23" spans="1:9" s="51" customFormat="1" ht="12">
       <c r="A23" s="48" t="s">
-        <v>29</v>
+        <v>42</v>
       </c>
       <c r="B23" s="49"/>
       <c r="C23" s="50"/>
@@ -2270,15 +2298,15 @@
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="E23" s="77"/>
-      <c r="F23" s="75"/>
-      <c r="G23" s="75"/>
-      <c r="H23" s="75"/>
-      <c r="I23" s="76"/>
+      <c r="E23" s="57"/>
+      <c r="F23" s="58"/>
+      <c r="G23" s="58"/>
+      <c r="H23" s="58"/>
+      <c r="I23" s="59"/>
     </row>
     <row r="24" spans="1:9" s="51" customFormat="1" ht="12">
       <c r="A24" s="48" t="s">
-        <v>30</v>
+        <v>43</v>
       </c>
       <c r="B24" s="49">
         <v>0.5</v>
@@ -2290,17 +2318,17 @@
         <f t="shared" si="0"/>
         <v>8.333333333333337E-2</v>
       </c>
-      <c r="E24" s="77" t="s">
-        <v>70</v>
-      </c>
-      <c r="F24" s="75"/>
-      <c r="G24" s="75"/>
-      <c r="H24" s="75"/>
-      <c r="I24" s="76"/>
+      <c r="E24" s="57" t="s">
+        <v>2</v>
+      </c>
+      <c r="F24" s="58"/>
+      <c r="G24" s="58"/>
+      <c r="H24" s="58"/>
+      <c r="I24" s="59"/>
     </row>
     <row r="25" spans="1:9" s="43" customFormat="1" ht="12">
       <c r="A25" s="40" t="s">
-        <v>31</v>
+        <v>44</v>
       </c>
       <c r="B25" s="41">
         <v>0.625</v>
@@ -2312,17 +2340,17 @@
         <f t="shared" si="0"/>
         <v>0.16666666666666663</v>
       </c>
-      <c r="E25" s="57" t="s">
-        <v>69</v>
-      </c>
-      <c r="F25" s="58"/>
-      <c r="G25" s="58"/>
-      <c r="H25" s="58"/>
-      <c r="I25" s="59"/>
+      <c r="E25" s="60" t="s">
+        <v>1</v>
+      </c>
+      <c r="F25" s="61"/>
+      <c r="G25" s="61"/>
+      <c r="H25" s="61"/>
+      <c r="I25" s="62"/>
     </row>
     <row r="26" spans="1:9" s="43" customFormat="1" ht="12">
       <c r="A26" s="40" t="s">
-        <v>32</v>
+        <v>45</v>
       </c>
       <c r="B26" s="41">
         <v>0.375</v>
@@ -2334,13 +2362,13 @@
         <f>C26-B26</f>
         <v>0.125</v>
       </c>
-      <c r="E26" s="57" t="s">
-        <v>1</v>
-      </c>
-      <c r="F26" s="58"/>
-      <c r="G26" s="58"/>
-      <c r="H26" s="58"/>
-      <c r="I26" s="59"/>
+      <c r="E26" s="60" t="s">
+        <v>16</v>
+      </c>
+      <c r="F26" s="61"/>
+      <c r="G26" s="61"/>
+      <c r="H26" s="61"/>
+      <c r="I26" s="62"/>
     </row>
     <row r="27" spans="1:9" s="43" customFormat="1" ht="12">
       <c r="A27" s="40"/>
@@ -2354,17 +2382,17 @@
         <f t="shared" si="0"/>
         <v>8.333333333333337E-2</v>
       </c>
-      <c r="E27" s="57" t="s">
-        <v>74</v>
-      </c>
-      <c r="F27" s="58"/>
-      <c r="G27" s="58"/>
-      <c r="H27" s="58"/>
-      <c r="I27" s="59"/>
+      <c r="E27" s="60" t="s">
+        <v>6</v>
+      </c>
+      <c r="F27" s="61"/>
+      <c r="G27" s="61"/>
+      <c r="H27" s="61"/>
+      <c r="I27" s="62"/>
     </row>
     <row r="28" spans="1:9" s="43" customFormat="1" ht="12">
       <c r="A28" s="40" t="s">
-        <v>33</v>
+        <v>46</v>
       </c>
       <c r="B28" s="41">
         <v>0.83333333333333337</v>
@@ -2376,17 +2404,17 @@
         <f t="shared" si="0"/>
         <v>0.125</v>
       </c>
-      <c r="E28" s="57" t="s">
-        <v>71</v>
-      </c>
-      <c r="F28" s="58"/>
-      <c r="G28" s="58"/>
-      <c r="H28" s="58"/>
-      <c r="I28" s="59"/>
+      <c r="E28" s="60" t="s">
+        <v>3</v>
+      </c>
+      <c r="F28" s="61"/>
+      <c r="G28" s="61"/>
+      <c r="H28" s="61"/>
+      <c r="I28" s="62"/>
     </row>
     <row r="29" spans="1:9" s="43" customFormat="1" ht="12">
       <c r="A29" s="40" t="s">
-        <v>34</v>
+        <v>47</v>
       </c>
       <c r="B29" s="41">
         <v>0.5</v>
@@ -2398,17 +2426,17 @@
         <f t="shared" si="0"/>
         <v>3.125E-2</v>
       </c>
-      <c r="E29" s="57" t="s">
-        <v>73</v>
-      </c>
-      <c r="F29" s="58"/>
-      <c r="G29" s="58"/>
-      <c r="H29" s="58"/>
-      <c r="I29" s="59"/>
+      <c r="E29" s="60" t="s">
+        <v>5</v>
+      </c>
+      <c r="F29" s="61"/>
+      <c r="G29" s="61"/>
+      <c r="H29" s="61"/>
+      <c r="I29" s="62"/>
     </row>
     <row r="30" spans="1:9" s="43" customFormat="1" ht="12">
       <c r="A30" s="40" t="s">
-        <v>35</v>
+        <v>48</v>
       </c>
       <c r="B30" s="41"/>
       <c r="C30" s="42"/>
@@ -2416,15 +2444,15 @@
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="E30" s="57"/>
-      <c r="F30" s="58"/>
-      <c r="G30" s="58"/>
-      <c r="H30" s="58"/>
-      <c r="I30" s="59"/>
+      <c r="E30" s="60"/>
+      <c r="F30" s="61"/>
+      <c r="G30" s="61"/>
+      <c r="H30" s="61"/>
+      <c r="I30" s="62"/>
     </row>
     <row r="31" spans="1:9" s="51" customFormat="1" ht="12">
       <c r="A31" s="48" t="s">
-        <v>36</v>
+        <v>49</v>
       </c>
       <c r="B31" s="49"/>
       <c r="C31" s="50"/>
@@ -2432,15 +2460,15 @@
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="E31" s="77"/>
-      <c r="F31" s="75"/>
-      <c r="G31" s="75"/>
-      <c r="H31" s="75"/>
-      <c r="I31" s="76"/>
+      <c r="E31" s="57"/>
+      <c r="F31" s="58"/>
+      <c r="G31" s="58"/>
+      <c r="H31" s="58"/>
+      <c r="I31" s="59"/>
     </row>
     <row r="32" spans="1:9" s="51" customFormat="1" ht="12">
       <c r="A32" s="48" t="s">
-        <v>37</v>
+        <v>50</v>
       </c>
       <c r="B32" s="49"/>
       <c r="C32" s="50"/>
@@ -2448,15 +2476,15 @@
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="E32" s="77"/>
-      <c r="F32" s="75"/>
-      <c r="G32" s="75"/>
-      <c r="H32" s="75"/>
-      <c r="I32" s="76"/>
+      <c r="E32" s="57"/>
+      <c r="F32" s="58"/>
+      <c r="G32" s="58"/>
+      <c r="H32" s="58"/>
+      <c r="I32" s="59"/>
     </row>
     <row r="33" spans="1:9" s="43" customFormat="1" ht="12">
       <c r="A33" s="40" t="s">
-        <v>38</v>
+        <v>51</v>
       </c>
       <c r="B33" s="41"/>
       <c r="C33" s="42"/>
@@ -2464,15 +2492,15 @@
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="E33" s="57"/>
-      <c r="F33" s="58"/>
-      <c r="G33" s="58"/>
-      <c r="H33" s="58"/>
-      <c r="I33" s="59"/>
+      <c r="E33" s="60"/>
+      <c r="F33" s="61"/>
+      <c r="G33" s="61"/>
+      <c r="H33" s="61"/>
+      <c r="I33" s="62"/>
     </row>
     <row r="34" spans="1:9" s="43" customFormat="1" ht="12">
       <c r="A34" s="40" t="s">
-        <v>39</v>
+        <v>52</v>
       </c>
       <c r="B34" s="41"/>
       <c r="C34" s="42"/>
@@ -2480,15 +2508,15 @@
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="E34" s="57"/>
-      <c r="F34" s="58"/>
-      <c r="G34" s="58"/>
-      <c r="H34" s="58"/>
-      <c r="I34" s="59"/>
+      <c r="E34" s="60"/>
+      <c r="F34" s="61"/>
+      <c r="G34" s="61"/>
+      <c r="H34" s="61"/>
+      <c r="I34" s="62"/>
     </row>
     <row r="35" spans="1:9" s="43" customFormat="1" ht="12">
       <c r="A35" s="40" t="s">
-        <v>40</v>
+        <v>53</v>
       </c>
       <c r="B35" s="41"/>
       <c r="C35" s="42"/>
@@ -2496,15 +2524,15 @@
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="E35" s="57"/>
-      <c r="F35" s="58"/>
-      <c r="G35" s="58"/>
-      <c r="H35" s="58"/>
-      <c r="I35" s="59"/>
+      <c r="E35" s="60"/>
+      <c r="F35" s="61"/>
+      <c r="G35" s="61"/>
+      <c r="H35" s="61"/>
+      <c r="I35" s="62"/>
     </row>
     <row r="36" spans="1:9" s="43" customFormat="1" ht="12">
       <c r="A36" s="40" t="s">
-        <v>41</v>
+        <v>54</v>
       </c>
       <c r="B36" s="41"/>
       <c r="C36" s="42"/>
@@ -2512,15 +2540,15 @@
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="E36" s="57"/>
-      <c r="F36" s="58"/>
-      <c r="G36" s="58"/>
-      <c r="H36" s="58"/>
-      <c r="I36" s="59"/>
+      <c r="E36" s="60"/>
+      <c r="F36" s="61"/>
+      <c r="G36" s="61"/>
+      <c r="H36" s="61"/>
+      <c r="I36" s="62"/>
     </row>
     <row r="37" spans="1:9" s="43" customFormat="1" ht="12">
       <c r="A37" s="40" t="s">
-        <v>42</v>
+        <v>55</v>
       </c>
       <c r="B37" s="41"/>
       <c r="C37" s="42"/>
@@ -2528,15 +2556,15 @@
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="E37" s="57"/>
-      <c r="F37" s="58"/>
-      <c r="G37" s="58"/>
-      <c r="H37" s="58"/>
-      <c r="I37" s="59"/>
+      <c r="E37" s="60"/>
+      <c r="F37" s="61"/>
+      <c r="G37" s="61"/>
+      <c r="H37" s="61"/>
+      <c r="I37" s="62"/>
     </row>
     <row r="38" spans="1:9" s="51" customFormat="1" ht="12">
       <c r="A38" s="48" t="s">
-        <v>43</v>
+        <v>56</v>
       </c>
       <c r="B38" s="49"/>
       <c r="C38" s="50"/>
@@ -2544,15 +2572,15 @@
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="E38" s="77"/>
-      <c r="F38" s="75"/>
-      <c r="G38" s="75"/>
-      <c r="H38" s="75"/>
-      <c r="I38" s="76"/>
+      <c r="E38" s="57"/>
+      <c r="F38" s="58"/>
+      <c r="G38" s="58"/>
+      <c r="H38" s="58"/>
+      <c r="I38" s="59"/>
     </row>
     <row r="39" spans="1:9" s="51" customFormat="1" ht="12">
       <c r="A39" s="48" t="s">
-        <v>44</v>
+        <v>57</v>
       </c>
       <c r="B39" s="49"/>
       <c r="C39" s="50"/>
@@ -2560,15 +2588,15 @@
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="E39" s="77"/>
-      <c r="F39" s="75"/>
-      <c r="G39" s="75"/>
-      <c r="H39" s="75"/>
-      <c r="I39" s="76"/>
+      <c r="E39" s="57"/>
+      <c r="F39" s="58"/>
+      <c r="G39" s="58"/>
+      <c r="H39" s="58"/>
+      <c r="I39" s="59"/>
     </row>
     <row r="40" spans="1:9" s="43" customFormat="1" ht="12">
       <c r="A40" s="40" t="s">
-        <v>45</v>
+        <v>58</v>
       </c>
       <c r="B40" s="41">
         <v>0.9375</v>
@@ -2580,17 +2608,17 @@
         <f t="shared" si="0"/>
         <v>4.166666666666663E-2</v>
       </c>
-      <c r="E40" s="57" t="s">
-        <v>72</v>
-      </c>
-      <c r="F40" s="58"/>
-      <c r="G40" s="58"/>
-      <c r="H40" s="58"/>
-      <c r="I40" s="59"/>
+      <c r="E40" s="60" t="s">
+        <v>4</v>
+      </c>
+      <c r="F40" s="61"/>
+      <c r="G40" s="61"/>
+      <c r="H40" s="61"/>
+      <c r="I40" s="62"/>
     </row>
     <row r="41" spans="1:9" s="43" customFormat="1" ht="12">
       <c r="A41" s="40" t="s">
-        <v>46</v>
+        <v>59</v>
       </c>
       <c r="B41" s="41">
         <v>0.41666666666666669</v>
@@ -2602,13 +2630,13 @@
         <f t="shared" si="0"/>
         <v>0.12499999999999994</v>
       </c>
-      <c r="E41" s="57" t="s">
-        <v>3</v>
-      </c>
-      <c r="F41" s="58"/>
-      <c r="G41" s="58"/>
-      <c r="H41" s="58"/>
-      <c r="I41" s="59"/>
+      <c r="E41" s="60" t="s">
+        <v>18</v>
+      </c>
+      <c r="F41" s="61"/>
+      <c r="G41" s="61"/>
+      <c r="H41" s="61"/>
+      <c r="I41" s="62"/>
     </row>
     <row r="42" spans="1:9" s="43" customFormat="1" ht="12">
       <c r="A42" s="40"/>
@@ -2622,13 +2650,13 @@
         <f t="shared" si="0"/>
         <v>0.16666666666666663</v>
       </c>
-      <c r="E42" s="57" t="s">
-        <v>2</v>
-      </c>
-      <c r="F42" s="58"/>
-      <c r="G42" s="58"/>
-      <c r="H42" s="58"/>
-      <c r="I42" s="59"/>
+      <c r="E42" s="60" t="s">
+        <v>17</v>
+      </c>
+      <c r="F42" s="61"/>
+      <c r="G42" s="61"/>
+      <c r="H42" s="61"/>
+      <c r="I42" s="62"/>
     </row>
     <row r="43" spans="1:9" s="43" customFormat="1" ht="12">
       <c r="A43" s="40"/>
@@ -2642,17 +2670,17 @@
         <f t="shared" si="0"/>
         <v>0.10416666666666663</v>
       </c>
-      <c r="E43" s="57" t="s">
-        <v>6</v>
-      </c>
-      <c r="F43" s="58"/>
-      <c r="G43" s="58"/>
-      <c r="H43" s="58"/>
-      <c r="I43" s="59"/>
+      <c r="E43" s="60" t="s">
+        <v>20</v>
+      </c>
+      <c r="F43" s="61"/>
+      <c r="G43" s="61"/>
+      <c r="H43" s="61"/>
+      <c r="I43" s="62"/>
     </row>
     <row r="44" spans="1:9" s="43" customFormat="1" ht="12">
       <c r="A44" s="40" t="s">
-        <v>47</v>
+        <v>60</v>
       </c>
       <c r="B44" s="41">
         <v>0.5</v>
@@ -2664,17 +2692,17 @@
         <f t="shared" si="0"/>
         <v>8.333333333333337E-2</v>
       </c>
-      <c r="E44" s="57" t="s">
-        <v>7</v>
-      </c>
-      <c r="F44" s="58"/>
-      <c r="G44" s="58"/>
-      <c r="H44" s="58"/>
-      <c r="I44" s="59"/>
+      <c r="E44" s="60" t="s">
+        <v>21</v>
+      </c>
+      <c r="F44" s="61"/>
+      <c r="G44" s="61"/>
+      <c r="H44" s="61"/>
+      <c r="I44" s="62"/>
     </row>
     <row r="45" spans="1:9" s="43" customFormat="1" ht="12">
       <c r="A45" s="40" t="s">
-        <v>48</v>
+        <v>61</v>
       </c>
       <c r="B45" s="41">
         <v>0.41666666666666669</v>
@@ -2686,17 +2714,17 @@
         <f t="shared" si="0"/>
         <v>2.0833333333333315E-2</v>
       </c>
-      <c r="E45" s="57" t="s">
-        <v>16</v>
-      </c>
-      <c r="F45" s="58"/>
-      <c r="G45" s="58"/>
-      <c r="H45" s="58"/>
-      <c r="I45" s="59"/>
+      <c r="E45" s="60" t="s">
+        <v>29</v>
+      </c>
+      <c r="F45" s="61"/>
+      <c r="G45" s="61"/>
+      <c r="H45" s="61"/>
+      <c r="I45" s="62"/>
     </row>
     <row r="46" spans="1:9" s="43" customFormat="1" ht="12">
       <c r="A46" s="40" t="s">
-        <v>49</v>
+        <v>62</v>
       </c>
       <c r="B46" s="41">
         <v>0.5</v>
@@ -2708,17 +2736,17 @@
         <f t="shared" si="0"/>
         <v>0.16666666666666663</v>
       </c>
-      <c r="E46" s="57" t="s">
-        <v>8</v>
-      </c>
-      <c r="F46" s="58"/>
-      <c r="G46" s="58"/>
-      <c r="H46" s="58"/>
-      <c r="I46" s="59"/>
+      <c r="E46" s="60" t="s">
+        <v>22</v>
+      </c>
+      <c r="F46" s="61"/>
+      <c r="G46" s="61"/>
+      <c r="H46" s="61"/>
+      <c r="I46" s="62"/>
     </row>
     <row r="47" spans="1:9" s="51" customFormat="1" ht="12">
       <c r="A47" s="48" t="s">
-        <v>50</v>
+        <v>63</v>
       </c>
       <c r="B47" s="49"/>
       <c r="C47" s="50"/>
@@ -2726,15 +2754,15 @@
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="E47" s="77"/>
-      <c r="F47" s="75"/>
-      <c r="G47" s="75"/>
-      <c r="H47" s="75"/>
-      <c r="I47" s="76"/>
+      <c r="E47" s="57"/>
+      <c r="F47" s="58"/>
+      <c r="G47" s="58"/>
+      <c r="H47" s="58"/>
+      <c r="I47" s="59"/>
     </row>
     <row r="48" spans="1:9" s="51" customFormat="1" ht="12">
       <c r="A48" s="48" t="s">
-        <v>51</v>
+        <v>64</v>
       </c>
       <c r="B48" s="49"/>
       <c r="C48" s="50"/>
@@ -2742,15 +2770,15 @@
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="E48" s="77"/>
-      <c r="F48" s="75"/>
-      <c r="G48" s="75"/>
-      <c r="H48" s="75"/>
-      <c r="I48" s="76"/>
+      <c r="E48" s="57"/>
+      <c r="F48" s="58"/>
+      <c r="G48" s="58"/>
+      <c r="H48" s="58"/>
+      <c r="I48" s="59"/>
     </row>
     <row r="49" spans="1:13" s="43" customFormat="1" ht="12">
       <c r="A49" s="44" t="s">
-        <v>52</v>
+        <v>65</v>
       </c>
       <c r="B49" s="41">
         <v>0.5</v>
@@ -2762,27 +2790,27 @@
         <f t="shared" si="0"/>
         <v>8.333333333333337E-2</v>
       </c>
-      <c r="E49" s="57" t="s">
-        <v>9</v>
-      </c>
-      <c r="F49" s="58"/>
-      <c r="G49" s="58"/>
-      <c r="H49" s="58"/>
-      <c r="I49" s="59"/>
+      <c r="E49" s="60" t="s">
+        <v>23</v>
+      </c>
+      <c r="F49" s="61"/>
+      <c r="G49" s="61"/>
+      <c r="H49" s="61"/>
+      <c r="I49" s="62"/>
     </row>
     <row r="50" spans="1:13" s="47" customFormat="1" ht="13">
-      <c r="A50" s="94"/>
-      <c r="B50" s="95"/>
-      <c r="C50" s="95"/>
+      <c r="A50" s="63"/>
+      <c r="B50" s="64"/>
+      <c r="C50" s="64"/>
       <c r="D50" s="46">
         <f>SUM(D16:D49)</f>
         <v>1.65625</v>
       </c>
-      <c r="E50" s="96"/>
-      <c r="F50" s="96"/>
-      <c r="G50" s="96"/>
-      <c r="H50" s="96"/>
-      <c r="I50" s="97"/>
+      <c r="E50" s="65"/>
+      <c r="F50" s="65"/>
+      <c r="G50" s="65"/>
+      <c r="H50" s="65"/>
+      <c r="I50" s="66"/>
     </row>
     <row r="51" spans="1:13" ht="7.5" customHeight="1">
       <c r="A51" s="28"/>
@@ -2815,13 +2843,42 @@
     </row>
   </sheetData>
   <mergeCells count="54">
-    <mergeCell ref="E48:I48"/>
-    <mergeCell ref="E49:I49"/>
-    <mergeCell ref="A50:C50"/>
-    <mergeCell ref="E50:I50"/>
-    <mergeCell ref="E45:I45"/>
-    <mergeCell ref="E46:I46"/>
-    <mergeCell ref="E47:I47"/>
+    <mergeCell ref="A9:C9"/>
+    <mergeCell ref="D9:H9"/>
+    <mergeCell ref="A10:I10"/>
+    <mergeCell ref="A5:C5"/>
+    <mergeCell ref="D5:H5"/>
+    <mergeCell ref="A6:I6"/>
+    <mergeCell ref="A7:C7"/>
+    <mergeCell ref="D7:H7"/>
+    <mergeCell ref="A1:I1"/>
+    <mergeCell ref="A2:I2"/>
+    <mergeCell ref="A3:H3"/>
+    <mergeCell ref="A4:I4"/>
+    <mergeCell ref="A8:I8"/>
+    <mergeCell ref="E20:I20"/>
+    <mergeCell ref="E16:I16"/>
+    <mergeCell ref="E17:I17"/>
+    <mergeCell ref="A13:A15"/>
+    <mergeCell ref="B13:I13"/>
+    <mergeCell ref="B14:C14"/>
+    <mergeCell ref="D14:D15"/>
+    <mergeCell ref="E14:I15"/>
+    <mergeCell ref="E18:I18"/>
+    <mergeCell ref="E19:I19"/>
+    <mergeCell ref="E24:I24"/>
+    <mergeCell ref="E25:I25"/>
+    <mergeCell ref="E27:I27"/>
+    <mergeCell ref="E21:I21"/>
+    <mergeCell ref="E22:I22"/>
+    <mergeCell ref="E23:I23"/>
+    <mergeCell ref="E26:I26"/>
+    <mergeCell ref="E31:I31"/>
+    <mergeCell ref="E32:I32"/>
+    <mergeCell ref="E33:I33"/>
+    <mergeCell ref="E28:I28"/>
+    <mergeCell ref="E29:I29"/>
+    <mergeCell ref="E30:I30"/>
     <mergeCell ref="E44:I44"/>
     <mergeCell ref="E37:I37"/>
     <mergeCell ref="E38:I38"/>
@@ -2832,43 +2889,14 @@
     <mergeCell ref="E40:I40"/>
     <mergeCell ref="E41:I41"/>
     <mergeCell ref="E42:I42"/>
-    <mergeCell ref="E31:I31"/>
-    <mergeCell ref="E32:I32"/>
-    <mergeCell ref="E33:I33"/>
-    <mergeCell ref="E28:I28"/>
-    <mergeCell ref="E29:I29"/>
-    <mergeCell ref="E30:I30"/>
-    <mergeCell ref="E24:I24"/>
-    <mergeCell ref="E25:I25"/>
-    <mergeCell ref="E27:I27"/>
-    <mergeCell ref="E21:I21"/>
-    <mergeCell ref="E22:I22"/>
-    <mergeCell ref="E23:I23"/>
-    <mergeCell ref="E26:I26"/>
-    <mergeCell ref="E20:I20"/>
-    <mergeCell ref="E16:I16"/>
-    <mergeCell ref="E17:I17"/>
-    <mergeCell ref="A13:A15"/>
-    <mergeCell ref="B13:I13"/>
-    <mergeCell ref="B14:C14"/>
-    <mergeCell ref="D14:D15"/>
-    <mergeCell ref="E14:I15"/>
     <mergeCell ref="E43:I43"/>
-    <mergeCell ref="A1:I1"/>
-    <mergeCell ref="A2:I2"/>
-    <mergeCell ref="A3:H3"/>
-    <mergeCell ref="A4:I4"/>
-    <mergeCell ref="A8:I8"/>
-    <mergeCell ref="A9:C9"/>
-    <mergeCell ref="D9:H9"/>
-    <mergeCell ref="A10:I10"/>
-    <mergeCell ref="A5:C5"/>
-    <mergeCell ref="D5:H5"/>
-    <mergeCell ref="A6:I6"/>
-    <mergeCell ref="A7:C7"/>
-    <mergeCell ref="D7:H7"/>
-    <mergeCell ref="E18:I18"/>
-    <mergeCell ref="E19:I19"/>
+    <mergeCell ref="E48:I48"/>
+    <mergeCell ref="E49:I49"/>
+    <mergeCell ref="A50:C50"/>
+    <mergeCell ref="E50:I50"/>
+    <mergeCell ref="E45:I45"/>
+    <mergeCell ref="E46:I46"/>
+    <mergeCell ref="E47:I47"/>
   </mergeCells>
   <phoneticPr fontId="32" type="noConversion"/>
   <printOptions horizontalCentered="1"/>
@@ -2887,10 +2915,10 @@
   <sheetPr enableFormatConditionsCalculation="0">
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A1:AS47"/>
+  <dimension ref="A1:AS49"/>
   <sheetViews>
     <sheetView tabSelected="1" view="pageLayout" zoomScale="85" zoomScaleSheetLayoutView="85" workbookViewId="0">
-      <selection activeCell="E35" sqref="E35:I35"/>
+      <selection activeCell="E44" sqref="E44:I44"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.1640625" defaultRowHeight="10"/>
@@ -2901,24 +2929,24 @@
     <col min="5" max="5" width="3.5" style="3" customWidth="1"/>
     <col min="6" max="6" width="12.5" style="3" customWidth="1"/>
     <col min="7" max="7" width="38.83203125" style="4" customWidth="1"/>
-    <col min="8" max="8" width="7.6640625" style="3" customWidth="1"/>
+    <col min="8" max="8" width="8" style="3" customWidth="1"/>
     <col min="9" max="9" width="3.1640625" style="3" customWidth="1"/>
     <col min="10" max="12" width="11.5" style="3" hidden="1" customWidth="1"/>
     <col min="13" max="16384" width="9.1640625" style="3"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:45" s="7" customFormat="1" ht="18" thickBot="1">
-      <c r="A1" s="60" t="s">
-        <v>55</v>
-      </c>
-      <c r="B1" s="60"/>
-      <c r="C1" s="60"/>
-      <c r="D1" s="60"/>
-      <c r="E1" s="60"/>
-      <c r="F1" s="60"/>
-      <c r="G1" s="60"/>
-      <c r="H1" s="60"/>
-      <c r="I1" s="60"/>
+      <c r="A1" s="84" t="s">
+        <v>68</v>
+      </c>
+      <c r="B1" s="84"/>
+      <c r="C1" s="84"/>
+      <c r="D1" s="84"/>
+      <c r="E1" s="84"/>
+      <c r="F1" s="84"/>
+      <c r="G1" s="84"/>
+      <c r="H1" s="84"/>
+      <c r="I1" s="84"/>
       <c r="J1" s="8"/>
       <c r="K1" s="8"/>
       <c r="L1" s="8"/>
@@ -2956,15 +2984,15 @@
       <c r="AR1" s="8"/>
     </row>
     <row r="2" spans="1:45" s="1" customFormat="1" ht="7.5" customHeight="1">
-      <c r="A2" s="61"/>
-      <c r="B2" s="61"/>
-      <c r="C2" s="61"/>
-      <c r="D2" s="61"/>
-      <c r="E2" s="61"/>
-      <c r="F2" s="61"/>
-      <c r="G2" s="61"/>
-      <c r="H2" s="61"/>
-      <c r="I2" s="61"/>
+      <c r="A2" s="85"/>
+      <c r="B2" s="85"/>
+      <c r="C2" s="85"/>
+      <c r="D2" s="85"/>
+      <c r="E2" s="85"/>
+      <c r="F2" s="85"/>
+      <c r="G2" s="85"/>
+      <c r="H2" s="85"/>
+      <c r="I2" s="85"/>
       <c r="J2" s="9"/>
       <c r="K2" s="9"/>
       <c r="L2" s="9"/>
@@ -3002,16 +3030,16 @@
       <c r="AR2" s="9"/>
     </row>
     <row r="3" spans="1:45" s="11" customFormat="1" ht="13.5" customHeight="1">
-      <c r="A3" s="62" t="s">
-        <v>59</v>
-      </c>
-      <c r="B3" s="62"/>
-      <c r="C3" s="62"/>
-      <c r="D3" s="62"/>
-      <c r="E3" s="62"/>
-      <c r="F3" s="62"/>
-      <c r="G3" s="62"/>
-      <c r="H3" s="62"/>
+      <c r="A3" s="86" t="s">
+        <v>72</v>
+      </c>
+      <c r="B3" s="86"/>
+      <c r="C3" s="86"/>
+      <c r="D3" s="86"/>
+      <c r="E3" s="86"/>
+      <c r="F3" s="86"/>
+      <c r="G3" s="86"/>
+      <c r="H3" s="86"/>
       <c r="I3" s="23"/>
       <c r="J3" s="22"/>
       <c r="K3" s="22"/>
@@ -3051,112 +3079,112 @@
       <c r="AS3" s="10"/>
     </row>
     <row r="4" spans="1:45" s="6" customFormat="1" ht="9" customHeight="1">
-      <c r="A4" s="63"/>
-      <c r="B4" s="63"/>
-      <c r="C4" s="63"/>
-      <c r="D4" s="63"/>
-      <c r="E4" s="63"/>
-      <c r="F4" s="63"/>
-      <c r="G4" s="63"/>
-      <c r="H4" s="63"/>
-      <c r="I4" s="63"/>
+      <c r="A4" s="87"/>
+      <c r="B4" s="87"/>
+      <c r="C4" s="87"/>
+      <c r="D4" s="87"/>
+      <c r="E4" s="87"/>
+      <c r="F4" s="87"/>
+      <c r="G4" s="87"/>
+      <c r="H4" s="87"/>
+      <c r="I4" s="87"/>
     </row>
     <row r="5" spans="1:45" s="1" customFormat="1" ht="13.75" customHeight="1">
-      <c r="A5" s="70" t="str">
+      <c r="A5" s="94" t="str">
         <f>October!A5</f>
         <v>Firstname Lastname</v>
       </c>
-      <c r="B5" s="71"/>
-      <c r="C5" s="71"/>
-      <c r="D5" s="66" t="str">
+      <c r="B5" s="95"/>
+      <c r="C5" s="95"/>
+      <c r="D5" s="90" t="str">
         <f>October!D5</f>
         <v>Augustin Hannah</v>
       </c>
-      <c r="E5" s="67"/>
-      <c r="F5" s="67"/>
-      <c r="G5" s="67"/>
-      <c r="H5" s="68"/>
+      <c r="E5" s="91"/>
+      <c r="F5" s="91"/>
+      <c r="G5" s="91"/>
+      <c r="H5" s="92"/>
       <c r="I5" s="23"/>
       <c r="J5" s="9"/>
       <c r="K5" s="9"/>
       <c r="L5" s="9"/>
     </row>
     <row r="6" spans="1:45" s="1" customFormat="1" ht="7.5" customHeight="1">
-      <c r="A6" s="72"/>
-      <c r="B6" s="72"/>
-      <c r="C6" s="72"/>
-      <c r="D6" s="72"/>
-      <c r="E6" s="72"/>
-      <c r="F6" s="72"/>
-      <c r="G6" s="72"/>
-      <c r="H6" s="72"/>
-      <c r="I6" s="72"/>
+      <c r="A6" s="96"/>
+      <c r="B6" s="96"/>
+      <c r="C6" s="96"/>
+      <c r="D6" s="96"/>
+      <c r="E6" s="96"/>
+      <c r="F6" s="96"/>
+      <c r="G6" s="96"/>
+      <c r="H6" s="96"/>
+      <c r="I6" s="96"/>
     </row>
     <row r="7" spans="1:45" s="1" customFormat="1" ht="13.75" customHeight="1">
-      <c r="A7" s="65" t="str">
+      <c r="A7" s="89" t="str">
         <f>October!A7</f>
         <v>Project Acronym</v>
       </c>
-      <c r="B7" s="65"/>
-      <c r="C7" s="65"/>
-      <c r="D7" s="73" t="str">
+      <c r="B7" s="89"/>
+      <c r="C7" s="89"/>
+      <c r="D7" s="97" t="str">
         <f>October!D7</f>
         <v>AIQ</v>
       </c>
-      <c r="E7" s="73"/>
-      <c r="F7" s="73"/>
-      <c r="G7" s="73"/>
-      <c r="H7" s="73"/>
+      <c r="E7" s="97"/>
+      <c r="F7" s="97"/>
+      <c r="G7" s="97"/>
+      <c r="H7" s="97"/>
       <c r="I7" s="24"/>
     </row>
     <row r="8" spans="1:45" s="1" customFormat="1" ht="7.5" customHeight="1">
-      <c r="A8" s="64"/>
-      <c r="B8" s="64"/>
-      <c r="C8" s="64"/>
-      <c r="D8" s="64"/>
-      <c r="E8" s="64"/>
-      <c r="F8" s="64"/>
-      <c r="G8" s="64"/>
-      <c r="H8" s="64"/>
-      <c r="I8" s="64"/>
+      <c r="A8" s="88"/>
+      <c r="B8" s="88"/>
+      <c r="C8" s="88"/>
+      <c r="D8" s="88"/>
+      <c r="E8" s="88"/>
+      <c r="F8" s="88"/>
+      <c r="G8" s="88"/>
+      <c r="H8" s="88"/>
+      <c r="I8" s="88"/>
     </row>
     <row r="9" spans="1:45" s="1" customFormat="1" ht="13.75" customHeight="1">
-      <c r="A9" s="65" t="str">
+      <c r="A9" s="89" t="str">
         <f>October!A9</f>
         <v>Project Title</v>
       </c>
-      <c r="B9" s="65"/>
-      <c r="C9" s="65"/>
-      <c r="D9" s="66" t="str">
+      <c r="B9" s="89"/>
+      <c r="C9" s="89"/>
+      <c r="D9" s="90" t="str">
         <f>October!D9</f>
         <v>Automating change detection in ImageQuerying</v>
       </c>
-      <c r="E9" s="67"/>
-      <c r="F9" s="67"/>
-      <c r="G9" s="67"/>
-      <c r="H9" s="68"/>
+      <c r="E9" s="91"/>
+      <c r="F9" s="91"/>
+      <c r="G9" s="91"/>
+      <c r="H9" s="92"/>
       <c r="I9" s="24"/>
       <c r="J9" s="15"/>
     </row>
     <row r="10" spans="1:45" s="1" customFormat="1" ht="7.5" customHeight="1">
-      <c r="A10" s="69"/>
-      <c r="B10" s="69"/>
-      <c r="C10" s="69"/>
-      <c r="D10" s="69"/>
-      <c r="E10" s="69"/>
-      <c r="F10" s="69"/>
-      <c r="G10" s="69"/>
-      <c r="H10" s="69"/>
-      <c r="I10" s="69"/>
+      <c r="A10" s="93"/>
+      <c r="B10" s="93"/>
+      <c r="C10" s="93"/>
+      <c r="D10" s="93"/>
+      <c r="E10" s="93"/>
+      <c r="F10" s="93"/>
+      <c r="G10" s="93"/>
+      <c r="H10" s="93"/>
+      <c r="I10" s="93"/>
     </row>
     <row r="11" spans="1:45" s="1" customFormat="1" ht="12">
       <c r="A11" s="21" t="s">
-        <v>57</v>
+        <v>70</v>
       </c>
       <c r="B11" s="21"/>
       <c r="C11" s="21"/>
       <c r="D11" s="21" t="s">
-        <v>58</v>
+        <v>71</v>
       </c>
       <c r="E11" s="21"/>
       <c r="F11" s="21"/>
@@ -3176,55 +3204,55 @@
       <c r="I12" s="26"/>
     </row>
     <row r="13" spans="1:45" s="2" customFormat="1" ht="15.5" customHeight="1">
-      <c r="A13" s="78" t="s">
-        <v>17</v>
-      </c>
-      <c r="B13" s="81" t="s">
-        <v>53</v>
-      </c>
-      <c r="C13" s="82"/>
-      <c r="D13" s="82"/>
-      <c r="E13" s="82"/>
-      <c r="F13" s="82"/>
-      <c r="G13" s="82"/>
-      <c r="H13" s="82"/>
-      <c r="I13" s="83"/>
+      <c r="A13" s="68" t="s">
+        <v>30</v>
+      </c>
+      <c r="B13" s="71" t="s">
+        <v>66</v>
+      </c>
+      <c r="C13" s="72"/>
+      <c r="D13" s="72"/>
+      <c r="E13" s="72"/>
+      <c r="F13" s="72"/>
+      <c r="G13" s="72"/>
+      <c r="H13" s="72"/>
+      <c r="I13" s="73"/>
     </row>
     <row r="14" spans="1:45" s="2" customFormat="1" ht="13.75" customHeight="1">
-      <c r="A14" s="79"/>
-      <c r="B14" s="84" t="s">
-        <v>18</v>
-      </c>
-      <c r="C14" s="85"/>
-      <c r="D14" s="86" t="s">
-        <v>19</v>
-      </c>
-      <c r="E14" s="88" t="s">
-        <v>54</v>
-      </c>
-      <c r="F14" s="89"/>
-      <c r="G14" s="89"/>
-      <c r="H14" s="89"/>
-      <c r="I14" s="90"/>
+      <c r="A14" s="69"/>
+      <c r="B14" s="74" t="s">
+        <v>31</v>
+      </c>
+      <c r="C14" s="75"/>
+      <c r="D14" s="76" t="s">
+        <v>32</v>
+      </c>
+      <c r="E14" s="78" t="s">
+        <v>67</v>
+      </c>
+      <c r="F14" s="79"/>
+      <c r="G14" s="79"/>
+      <c r="H14" s="79"/>
+      <c r="I14" s="80"/>
     </row>
     <row r="15" spans="1:45" ht="13" customHeight="1">
-      <c r="A15" s="80"/>
+      <c r="A15" s="70"/>
       <c r="B15" s="32" t="s">
-        <v>20</v>
+        <v>33</v>
       </c>
       <c r="C15" s="33" t="s">
-        <v>21</v>
-      </c>
-      <c r="D15" s="87"/>
-      <c r="E15" s="91"/>
-      <c r="F15" s="92"/>
-      <c r="G15" s="92"/>
-      <c r="H15" s="92"/>
-      <c r="I15" s="93"/>
+        <v>34</v>
+      </c>
+      <c r="D15" s="77"/>
+      <c r="E15" s="81"/>
+      <c r="F15" s="82"/>
+      <c r="G15" s="82"/>
+      <c r="H15" s="82"/>
+      <c r="I15" s="83"/>
     </row>
     <row r="16" spans="1:45" s="43" customFormat="1" ht="12">
       <c r="A16" s="40" t="s">
-        <v>22</v>
+        <v>35</v>
       </c>
       <c r="B16" s="41"/>
       <c r="C16" s="42"/>
@@ -3232,31 +3260,31 @@
         <f>C16-B16</f>
         <v>0</v>
       </c>
-      <c r="E16" s="57"/>
-      <c r="F16" s="58"/>
-      <c r="G16" s="58"/>
-      <c r="H16" s="58"/>
-      <c r="I16" s="59"/>
+      <c r="E16" s="60"/>
+      <c r="F16" s="61"/>
+      <c r="G16" s="61"/>
+      <c r="H16" s="61"/>
+      <c r="I16" s="62"/>
     </row>
     <row r="17" spans="1:9" s="43" customFormat="1" ht="12">
       <c r="A17" s="40" t="s">
-        <v>23</v>
+        <v>36</v>
       </c>
       <c r="B17" s="41"/>
       <c r="C17" s="42"/>
       <c r="D17" s="42">
-        <f t="shared" ref="D17:D45" si="0">C17-B17</f>
-        <v>0</v>
-      </c>
-      <c r="E17" s="57"/>
-      <c r="F17" s="58"/>
-      <c r="G17" s="58"/>
-      <c r="H17" s="58"/>
-      <c r="I17" s="59"/>
+        <f t="shared" ref="D17:D47" si="0">C17-B17</f>
+        <v>0</v>
+      </c>
+      <c r="E17" s="60"/>
+      <c r="F17" s="61"/>
+      <c r="G17" s="61"/>
+      <c r="H17" s="61"/>
+      <c r="I17" s="62"/>
     </row>
     <row r="18" spans="1:9" s="43" customFormat="1" ht="12">
       <c r="A18" s="40" t="s">
-        <v>24</v>
+        <v>37</v>
       </c>
       <c r="B18" s="41"/>
       <c r="C18" s="42"/>
@@ -3264,15 +3292,15 @@
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="E18" s="57"/>
-      <c r="F18" s="58"/>
-      <c r="G18" s="58"/>
-      <c r="H18" s="58"/>
-      <c r="I18" s="59"/>
+      <c r="E18" s="60"/>
+      <c r="F18" s="61"/>
+      <c r="G18" s="61"/>
+      <c r="H18" s="61"/>
+      <c r="I18" s="62"/>
     </row>
     <row r="19" spans="1:9" s="43" customFormat="1" ht="12">
       <c r="A19" s="40" t="s">
-        <v>25</v>
+        <v>38</v>
       </c>
       <c r="B19" s="41">
         <v>0.58333333333333337</v>
@@ -3284,49 +3312,49 @@
         <f t="shared" si="0"/>
         <v>0.16666666666666663</v>
       </c>
-      <c r="E19" s="57" t="s">
-        <v>10</v>
-      </c>
-      <c r="F19" s="58"/>
-      <c r="G19" s="58"/>
-      <c r="H19" s="58"/>
-      <c r="I19" s="59"/>
+      <c r="E19" s="60" t="s">
+        <v>24</v>
+      </c>
+      <c r="F19" s="61"/>
+      <c r="G19" s="61"/>
+      <c r="H19" s="61"/>
+      <c r="I19" s="62"/>
     </row>
     <row r="20" spans="1:9" s="51" customFormat="1" ht="12">
       <c r="A20" s="48" t="s">
-        <v>26</v>
+        <v>39</v>
       </c>
       <c r="B20" s="49"/>
       <c r="C20" s="50"/>
-      <c r="D20" s="50">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="E20" s="77"/>
-      <c r="F20" s="75"/>
-      <c r="G20" s="75"/>
-      <c r="H20" s="75"/>
-      <c r="I20" s="76"/>
+      <c r="D20" s="42">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="E20" s="57"/>
+      <c r="F20" s="58"/>
+      <c r="G20" s="58"/>
+      <c r="H20" s="58"/>
+      <c r="I20" s="59"/>
     </row>
     <row r="21" spans="1:9" s="51" customFormat="1" ht="12">
       <c r="A21" s="48" t="s">
-        <v>27</v>
+        <v>40</v>
       </c>
       <c r="B21" s="49"/>
       <c r="C21" s="50"/>
-      <c r="D21" s="50">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="E21" s="77"/>
-      <c r="F21" s="75"/>
-      <c r="G21" s="75"/>
-      <c r="H21" s="75"/>
-      <c r="I21" s="76"/>
+      <c r="D21" s="42">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="E21" s="57"/>
+      <c r="F21" s="58"/>
+      <c r="G21" s="58"/>
+      <c r="H21" s="58"/>
+      <c r="I21" s="59"/>
     </row>
     <row r="22" spans="1:9" s="43" customFormat="1" ht="12">
       <c r="A22" s="40" t="s">
-        <v>28</v>
+        <v>41</v>
       </c>
       <c r="B22" s="41">
         <v>0.39583333333333331</v>
@@ -3338,17 +3366,17 @@
         <f t="shared" si="0"/>
         <v>0.16666666666666669</v>
       </c>
-      <c r="E22" s="57" t="s">
-        <v>15</v>
-      </c>
-      <c r="F22" s="58"/>
-      <c r="G22" s="58"/>
-      <c r="H22" s="58"/>
-      <c r="I22" s="59"/>
+      <c r="E22" s="60" t="s">
+        <v>28</v>
+      </c>
+      <c r="F22" s="61"/>
+      <c r="G22" s="61"/>
+      <c r="H22" s="61"/>
+      <c r="I22" s="62"/>
     </row>
     <row r="23" spans="1:9" s="43" customFormat="1" ht="12">
       <c r="A23" s="40" t="s">
-        <v>29</v>
+        <v>42</v>
       </c>
       <c r="B23" s="41">
         <v>0.41666666666666669</v>
@@ -3360,122 +3388,120 @@
         <f t="shared" si="0"/>
         <v>0.12499999999999994</v>
       </c>
-      <c r="E23" s="57" t="s">
-        <v>14</v>
-      </c>
-      <c r="F23" s="58"/>
-      <c r="G23" s="58"/>
-      <c r="H23" s="58"/>
-      <c r="I23" s="59"/>
+      <c r="E23" s="60" t="s">
+        <v>27</v>
+      </c>
+      <c r="F23" s="61"/>
+      <c r="G23" s="61"/>
+      <c r="H23" s="61"/>
+      <c r="I23" s="62"/>
     </row>
     <row r="24" spans="1:9" s="43" customFormat="1" ht="12">
-      <c r="A24" s="40" t="s">
-        <v>30</v>
-      </c>
-      <c r="B24" s="41"/>
-      <c r="C24" s="42"/>
+      <c r="A24" s="40"/>
+      <c r="B24" s="41">
+        <v>0.625</v>
+      </c>
+      <c r="C24" s="42">
+        <v>0.70833333333333337</v>
+      </c>
       <c r="D24" s="42">
         <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="E24" s="57"/>
-      <c r="F24" s="58"/>
-      <c r="G24" s="58"/>
-      <c r="H24" s="58"/>
-      <c r="I24" s="59"/>
+        <v>8.333333333333337E-2</v>
+      </c>
+      <c r="E24" s="60" t="s">
+        <v>13</v>
+      </c>
+      <c r="F24" s="61"/>
+      <c r="G24" s="61"/>
+      <c r="H24" s="61"/>
+      <c r="I24" s="62"/>
     </row>
     <row r="25" spans="1:9" s="43" customFormat="1" ht="12">
       <c r="A25" s="40" t="s">
-        <v>31</v>
-      </c>
-      <c r="B25" s="41">
-        <v>0.75</v>
-      </c>
-      <c r="C25" s="42">
-        <v>0.91666666666666663</v>
-      </c>
+        <v>43</v>
+      </c>
+      <c r="B25" s="41"/>
+      <c r="C25" s="42"/>
       <c r="D25" s="42">
         <f t="shared" si="0"/>
-        <v>0.16666666666666663</v>
-      </c>
-      <c r="E25" s="57" t="s">
-        <v>13</v>
-      </c>
-      <c r="F25" s="58"/>
-      <c r="G25" s="58"/>
-      <c r="H25" s="58"/>
-      <c r="I25" s="59"/>
+        <v>0</v>
+      </c>
+      <c r="E25" s="60"/>
+      <c r="F25" s="61"/>
+      <c r="G25" s="61"/>
+      <c r="H25" s="61"/>
+      <c r="I25" s="62"/>
     </row>
     <row r="26" spans="1:9" s="43" customFormat="1" ht="12">
       <c r="A26" s="40" t="s">
-        <v>32</v>
-      </c>
-      <c r="B26" s="41"/>
-      <c r="C26" s="42"/>
+        <v>44</v>
+      </c>
+      <c r="B26" s="41">
+        <v>0.75</v>
+      </c>
+      <c r="C26" s="42">
+        <v>0.91666666666666663</v>
+      </c>
       <c r="D26" s="42">
         <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="E26" s="57"/>
-      <c r="F26" s="58"/>
-      <c r="G26" s="58"/>
-      <c r="H26" s="58"/>
-      <c r="I26" s="59"/>
-    </row>
-    <row r="27" spans="1:9" s="51" customFormat="1" ht="12">
-      <c r="A27" s="48" t="s">
-        <v>33</v>
-      </c>
-      <c r="B27" s="49"/>
-      <c r="C27" s="50"/>
-      <c r="D27" s="50">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="E27" s="77"/>
-      <c r="F27" s="75"/>
-      <c r="G27" s="75"/>
-      <c r="H27" s="75"/>
-      <c r="I27" s="76"/>
+        <v>0.16666666666666663</v>
+      </c>
+      <c r="E26" s="60" t="s">
+        <v>26</v>
+      </c>
+      <c r="F26" s="61"/>
+      <c r="G26" s="61"/>
+      <c r="H26" s="61"/>
+      <c r="I26" s="62"/>
+    </row>
+    <row r="27" spans="1:9" s="43" customFormat="1" ht="12">
+      <c r="A27" s="40" t="s">
+        <v>45</v>
+      </c>
+      <c r="B27" s="41"/>
+      <c r="C27" s="42"/>
+      <c r="D27" s="42">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="E27" s="60"/>
+      <c r="F27" s="61"/>
+      <c r="G27" s="61"/>
+      <c r="H27" s="61"/>
+      <c r="I27" s="62"/>
     </row>
     <row r="28" spans="1:9" s="51" customFormat="1" ht="12">
       <c r="A28" s="48" t="s">
-        <v>34</v>
-      </c>
-      <c r="B28" s="49">
+        <v>46</v>
+      </c>
+      <c r="B28" s="49"/>
+      <c r="C28" s="50"/>
+      <c r="D28" s="42">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="E28" s="57"/>
+      <c r="F28" s="58"/>
+      <c r="G28" s="58"/>
+      <c r="H28" s="58"/>
+      <c r="I28" s="59"/>
+    </row>
+    <row r="29" spans="1:9" s="51" customFormat="1" ht="12">
+      <c r="A29" s="48" t="s">
+        <v>47</v>
+      </c>
+      <c r="B29" s="49">
         <v>0.45833333333333331</v>
       </c>
-      <c r="C28" s="50">
+      <c r="C29" s="50">
         <v>0.70833333333333337</v>
       </c>
-      <c r="D28" s="50">
+      <c r="D29" s="42">
         <f t="shared" si="0"/>
         <v>0.25000000000000006</v>
       </c>
-      <c r="E28" s="77" t="s">
-        <v>11</v>
-      </c>
-      <c r="F28" s="75"/>
-      <c r="G28" s="75"/>
-      <c r="H28" s="75"/>
-      <c r="I28" s="76"/>
-    </row>
-    <row r="29" spans="1:9" s="43" customFormat="1" ht="12">
-      <c r="A29" s="40" t="s">
-        <v>35</v>
-      </c>
-      <c r="B29" s="41">
-        <v>0.70833333333333337</v>
-      </c>
-      <c r="C29" s="42">
-        <v>0.91666666666666663</v>
-      </c>
-      <c r="D29" s="42">
-        <f t="shared" si="0"/>
-        <v>0.20833333333333326</v>
-      </c>
       <c r="E29" s="57" t="s">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="F29" s="58"/>
       <c r="G29" s="58"/>
@@ -3484,45 +3510,51 @@
     </row>
     <row r="30" spans="1:9" s="43" customFormat="1" ht="12">
       <c r="A30" s="40" t="s">
-        <v>36</v>
+        <v>48</v>
       </c>
       <c r="B30" s="41">
-        <v>0.66666666666666663</v>
+        <v>0.70833333333333337</v>
       </c>
       <c r="C30" s="42">
-        <v>0.83333333333333337</v>
+        <v>0.91666666666666663</v>
       </c>
       <c r="D30" s="42">
         <f t="shared" si="0"/>
-        <v>0.16666666666666674</v>
-      </c>
-      <c r="E30" s="57" t="s">
-        <v>4</v>
-      </c>
-      <c r="F30" s="58"/>
-      <c r="G30" s="58"/>
-      <c r="H30" s="58"/>
-      <c r="I30" s="59"/>
+        <v>0.20833333333333326</v>
+      </c>
+      <c r="E30" s="60" t="s">
+        <v>25</v>
+      </c>
+      <c r="F30" s="61"/>
+      <c r="G30" s="61"/>
+      <c r="H30" s="61"/>
+      <c r="I30" s="62"/>
     </row>
     <row r="31" spans="1:9" s="43" customFormat="1" ht="12">
       <c r="A31" s="40" t="s">
-        <v>37</v>
-      </c>
-      <c r="B31" s="41"/>
-      <c r="C31" s="42"/>
+        <v>49</v>
+      </c>
+      <c r="B31" s="41">
+        <v>0.66666666666666663</v>
+      </c>
+      <c r="C31" s="42">
+        <v>0.83333333333333337</v>
+      </c>
       <c r="D31" s="42">
         <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="E31" s="57"/>
-      <c r="F31" s="58"/>
-      <c r="G31" s="58"/>
-      <c r="H31" s="58"/>
-      <c r="I31" s="59"/>
+        <v>0.16666666666666674</v>
+      </c>
+      <c r="E31" s="60" t="s">
+        <v>19</v>
+      </c>
+      <c r="F31" s="61"/>
+      <c r="G31" s="61"/>
+      <c r="H31" s="61"/>
+      <c r="I31" s="62"/>
     </row>
     <row r="32" spans="1:9" s="43" customFormat="1" ht="12">
       <c r="A32" s="40" t="s">
-        <v>38</v>
+        <v>50</v>
       </c>
       <c r="B32" s="41"/>
       <c r="C32" s="42"/>
@@ -3530,97 +3562,121 @@
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="E32" s="57"/>
-      <c r="F32" s="58"/>
-      <c r="G32" s="58"/>
-      <c r="H32" s="58"/>
-      <c r="I32" s="59"/>
-    </row>
-    <row r="33" spans="1:12" s="43" customFormat="1" ht="12">
+      <c r="E32" s="60" t="s">
+        <v>7</v>
+      </c>
+      <c r="F32" s="61"/>
+      <c r="G32" s="61"/>
+      <c r="H32" s="61"/>
+      <c r="I32" s="62"/>
+    </row>
+    <row r="33" spans="1:9" s="43" customFormat="1" ht="12">
       <c r="A33" s="40" t="s">
-        <v>39</v>
-      </c>
-      <c r="B33" s="41"/>
-      <c r="C33" s="42"/>
+        <v>51</v>
+      </c>
+      <c r="B33" s="41">
+        <v>0.41666666666666669</v>
+      </c>
+      <c r="C33" s="42">
+        <v>0.45833333333333331</v>
+      </c>
       <c r="D33" s="42">
         <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="E33" s="57" t="s">
-        <v>5</v>
-      </c>
-      <c r="F33" s="58"/>
-      <c r="G33" s="58"/>
-      <c r="H33" s="58"/>
-      <c r="I33" s="59"/>
-    </row>
-    <row r="34" spans="1:12" s="51" customFormat="1" ht="12">
-      <c r="A34" s="48" t="s">
-        <v>40</v>
-      </c>
-      <c r="B34" s="49"/>
-      <c r="C34" s="50"/>
-      <c r="D34" s="50">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="E34" s="77"/>
-      <c r="F34" s="75"/>
-      <c r="G34" s="75"/>
-      <c r="H34" s="75"/>
-      <c r="I34" s="76"/>
-    </row>
-    <row r="35" spans="1:12" s="51" customFormat="1" ht="12">
-      <c r="A35" s="48" t="s">
-        <v>41</v>
-      </c>
-      <c r="B35" s="49"/>
-      <c r="C35" s="50"/>
-      <c r="D35" s="50">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="E35" s="77"/>
-      <c r="F35" s="75"/>
-      <c r="G35" s="75"/>
-      <c r="H35" s="75"/>
-      <c r="I35" s="76"/>
-    </row>
-    <row r="36" spans="1:12" s="43" customFormat="1" ht="12">
-      <c r="A36" s="40" t="s">
-        <v>42</v>
-      </c>
-      <c r="B36" s="41"/>
-      <c r="C36" s="42"/>
+        <v>4.166666666666663E-2</v>
+      </c>
+      <c r="E33" s="60" t="s">
+        <v>8</v>
+      </c>
+      <c r="F33" s="61"/>
+      <c r="G33" s="61"/>
+      <c r="H33" s="61"/>
+      <c r="I33" s="62"/>
+    </row>
+    <row r="34" spans="1:9" s="43" customFormat="1" ht="12">
+      <c r="A34" s="40"/>
+      <c r="B34" s="41">
+        <v>0.75</v>
+      </c>
+      <c r="C34" s="42">
+        <v>0.91666666666666663</v>
+      </c>
+      <c r="D34" s="42">
+        <f t="shared" si="0"/>
+        <v>0.16666666666666663</v>
+      </c>
+      <c r="E34" s="60" t="s">
+        <v>0</v>
+      </c>
+      <c r="F34" s="61"/>
+      <c r="G34" s="61"/>
+      <c r="H34" s="61"/>
+      <c r="I34" s="62"/>
+    </row>
+    <row r="35" spans="1:9" s="43" customFormat="1" ht="12">
+      <c r="A35" s="40" t="s">
+        <v>52</v>
+      </c>
+      <c r="B35" s="41">
+        <v>0.4375</v>
+      </c>
+      <c r="C35" s="42">
+        <v>0.54166666666666663</v>
+      </c>
+      <c r="D35" s="42">
+        <f t="shared" si="0"/>
+        <v>0.10416666666666663</v>
+      </c>
+      <c r="E35" s="60" t="s">
+        <v>9</v>
+      </c>
+      <c r="F35" s="61"/>
+      <c r="G35" s="61"/>
+      <c r="H35" s="61"/>
+      <c r="I35" s="62"/>
+    </row>
+    <row r="36" spans="1:9" s="51" customFormat="1" ht="12">
+      <c r="A36" s="48" t="s">
+        <v>53</v>
+      </c>
+      <c r="B36" s="49">
+        <v>0.33333333333333331</v>
+      </c>
+      <c r="C36" s="50">
+        <v>0.39583333333333331</v>
+      </c>
       <c r="D36" s="42">
         <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="E36" s="57"/>
+        <v>6.25E-2</v>
+      </c>
+      <c r="E36" s="57" t="s">
+        <v>10</v>
+      </c>
       <c r="F36" s="58"/>
       <c r="G36" s="58"/>
       <c r="H36" s="58"/>
       <c r="I36" s="59"/>
     </row>
-    <row r="37" spans="1:12" s="43" customFormat="1" ht="12">
-      <c r="A37" s="40" t="s">
-        <v>43</v>
-      </c>
-      <c r="B37" s="41"/>
-      <c r="C37" s="42"/>
+    <row r="37" spans="1:9" s="51" customFormat="1" ht="12">
+      <c r="A37" s="48" t="s">
+        <v>54</v>
+      </c>
+      <c r="B37" s="49"/>
+      <c r="C37" s="50"/>
       <c r="D37" s="42">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="E37" s="57"/>
+      <c r="E37" s="57" t="s">
+        <v>11</v>
+      </c>
       <c r="F37" s="58"/>
       <c r="G37" s="58"/>
       <c r="H37" s="58"/>
       <c r="I37" s="59"/>
     </row>
-    <row r="38" spans="1:12" s="43" customFormat="1" ht="12">
+    <row r="38" spans="1:9" s="43" customFormat="1" ht="12">
       <c r="A38" s="40" t="s">
-        <v>44</v>
+        <v>55</v>
       </c>
       <c r="B38" s="41"/>
       <c r="C38" s="42"/>
@@ -3628,15 +3684,15 @@
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="E38" s="57"/>
-      <c r="F38" s="58"/>
-      <c r="G38" s="58"/>
-      <c r="H38" s="58"/>
-      <c r="I38" s="59"/>
-    </row>
-    <row r="39" spans="1:12" s="43" customFormat="1" ht="12">
+      <c r="E38" s="60"/>
+      <c r="F38" s="61"/>
+      <c r="G38" s="61"/>
+      <c r="H38" s="61"/>
+      <c r="I38" s="62"/>
+    </row>
+    <row r="39" spans="1:9" s="43" customFormat="1" ht="12">
       <c r="A39" s="40" t="s">
-        <v>45</v>
+        <v>56</v>
       </c>
       <c r="B39" s="41"/>
       <c r="C39" s="42"/>
@@ -3644,15 +3700,17 @@
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="E39" s="57"/>
-      <c r="F39" s="58"/>
-      <c r="G39" s="58"/>
-      <c r="H39" s="58"/>
-      <c r="I39" s="59"/>
-    </row>
-    <row r="40" spans="1:12" s="43" customFormat="1" ht="12">
+      <c r="E39" s="60" t="s">
+        <v>12</v>
+      </c>
+      <c r="F39" s="61"/>
+      <c r="G39" s="61"/>
+      <c r="H39" s="61"/>
+      <c r="I39" s="62"/>
+    </row>
+    <row r="40" spans="1:9" s="43" customFormat="1" ht="12">
       <c r="A40" s="40" t="s">
-        <v>46</v>
+        <v>57</v>
       </c>
       <c r="B40" s="41"/>
       <c r="C40" s="42"/>
@@ -3660,50 +3718,50 @@
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="E40" s="57"/>
-      <c r="F40" s="58"/>
-      <c r="G40" s="58"/>
-      <c r="H40" s="58"/>
-      <c r="I40" s="59"/>
-    </row>
-    <row r="41" spans="1:12" s="51" customFormat="1" ht="12">
-      <c r="A41" s="48" t="s">
-        <v>47</v>
-      </c>
-      <c r="B41" s="49"/>
-      <c r="C41" s="50"/>
-      <c r="D41" s="50">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="E41" s="77"/>
-      <c r="F41" s="75"/>
-      <c r="G41" s="75"/>
-      <c r="H41" s="75"/>
-      <c r="I41" s="76"/>
-    </row>
-    <row r="42" spans="1:12" s="51" customFormat="1" ht="12">
-      <c r="A42" s="48" t="s">
-        <v>48</v>
-      </c>
-      <c r="B42" s="49"/>
-      <c r="C42" s="50"/>
-      <c r="D42" s="50">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="E42" s="77"/>
-      <c r="F42" s="75"/>
-      <c r="G42" s="75"/>
-      <c r="H42" s="75"/>
-      <c r="I42" s="76"/>
-    </row>
-    <row r="43" spans="1:12" s="43" customFormat="1" ht="12">
-      <c r="A43" s="40" t="s">
-        <v>49</v>
-      </c>
-      <c r="B43" s="41"/>
-      <c r="C43" s="42"/>
+      <c r="E40" s="60"/>
+      <c r="F40" s="61"/>
+      <c r="G40" s="61"/>
+      <c r="H40" s="61"/>
+      <c r="I40" s="62"/>
+    </row>
+    <row r="41" spans="1:9" s="43" customFormat="1" ht="12">
+      <c r="A41" s="40" t="s">
+        <v>58</v>
+      </c>
+      <c r="B41" s="41"/>
+      <c r="C41" s="42"/>
+      <c r="D41" s="42">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="E41" s="60"/>
+      <c r="F41" s="61"/>
+      <c r="G41" s="61"/>
+      <c r="H41" s="61"/>
+      <c r="I41" s="62"/>
+    </row>
+    <row r="42" spans="1:9" s="43" customFormat="1" ht="12">
+      <c r="A42" s="40" t="s">
+        <v>59</v>
+      </c>
+      <c r="B42" s="41"/>
+      <c r="C42" s="42"/>
+      <c r="D42" s="42">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="E42" s="60"/>
+      <c r="F42" s="61"/>
+      <c r="G42" s="61"/>
+      <c r="H42" s="61"/>
+      <c r="I42" s="62"/>
+    </row>
+    <row r="43" spans="1:9" s="51" customFormat="1" ht="12">
+      <c r="A43" s="48" t="s">
+        <v>60</v>
+      </c>
+      <c r="B43" s="49"/>
+      <c r="C43" s="50"/>
       <c r="D43" s="42">
         <f t="shared" si="0"/>
         <v>0</v>
@@ -3714,12 +3772,12 @@
       <c r="H43" s="58"/>
       <c r="I43" s="59"/>
     </row>
-    <row r="44" spans="1:12" s="43" customFormat="1" ht="12">
-      <c r="A44" s="40" t="s">
-        <v>50</v>
-      </c>
-      <c r="B44" s="41"/>
-      <c r="C44" s="42"/>
+    <row r="44" spans="1:9" s="51" customFormat="1" ht="12">
+      <c r="A44" s="48" t="s">
+        <v>61</v>
+      </c>
+      <c r="B44" s="49"/>
+      <c r="C44" s="50"/>
       <c r="D44" s="42">
         <f t="shared" si="0"/>
         <v>0</v>
@@ -3730,9 +3788,9 @@
       <c r="H44" s="58"/>
       <c r="I44" s="59"/>
     </row>
-    <row r="45" spans="1:12" s="43" customFormat="1" ht="12">
+    <row r="45" spans="1:9" s="43" customFormat="1" ht="12">
       <c r="A45" s="40" t="s">
-        <v>51</v>
+        <v>62</v>
       </c>
       <c r="B45" s="41"/>
       <c r="C45" s="42"/>
@@ -3740,74 +3798,83 @@
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="E45" s="57"/>
-      <c r="F45" s="58"/>
-      <c r="G45" s="58"/>
-      <c r="H45" s="58"/>
-      <c r="I45" s="59"/>
-    </row>
-    <row r="46" spans="1:12" s="47" customFormat="1" ht="13">
-      <c r="A46" s="94"/>
-      <c r="B46" s="95"/>
-      <c r="C46" s="95"/>
-      <c r="D46" s="46">
-        <f>SUM(D16:D45)</f>
-        <v>1.25</v>
-      </c>
-      <c r="E46" s="96"/>
-      <c r="F46" s="96"/>
-      <c r="G46" s="96"/>
-      <c r="H46" s="96"/>
-      <c r="I46" s="97"/>
-    </row>
-    <row r="47" spans="1:12" ht="7" customHeight="1">
-      <c r="A47" s="28"/>
-      <c r="B47" s="28"/>
-      <c r="C47" s="28"/>
-      <c r="D47" s="29"/>
-      <c r="E47" s="30"/>
-      <c r="F47" s="30"/>
-      <c r="G47" s="30"/>
-      <c r="H47" s="30"/>
-      <c r="I47" s="31"/>
-      <c r="J47" s="14"/>
-      <c r="K47" s="13"/>
-      <c r="L47" s="13"/>
+      <c r="E45" s="60"/>
+      <c r="F45" s="61"/>
+      <c r="G45" s="61"/>
+      <c r="H45" s="61"/>
+      <c r="I45" s="62"/>
+    </row>
+    <row r="46" spans="1:9" s="43" customFormat="1" ht="12">
+      <c r="A46" s="40" t="s">
+        <v>63</v>
+      </c>
+      <c r="B46" s="41"/>
+      <c r="C46" s="42"/>
+      <c r="D46" s="42">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="E46" s="60"/>
+      <c r="F46" s="61"/>
+      <c r="G46" s="61"/>
+      <c r="H46" s="61"/>
+      <c r="I46" s="62"/>
+    </row>
+    <row r="47" spans="1:9" s="43" customFormat="1" ht="12">
+      <c r="A47" s="40" t="s">
+        <v>64</v>
+      </c>
+      <c r="B47" s="41"/>
+      <c r="C47" s="42"/>
+      <c r="D47" s="42">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="E47" s="60"/>
+      <c r="F47" s="61"/>
+      <c r="G47" s="61"/>
+      <c r="H47" s="61"/>
+      <c r="I47" s="62"/>
+    </row>
+    <row r="48" spans="1:9" s="47" customFormat="1" ht="13">
+      <c r="A48" s="63"/>
+      <c r="B48" s="64"/>
+      <c r="C48" s="64"/>
+      <c r="D48" s="46">
+        <f>SUM(D16:D47)</f>
+        <v>1.708333333333333</v>
+      </c>
+      <c r="E48" s="65"/>
+      <c r="F48" s="65"/>
+      <c r="G48" s="65"/>
+      <c r="H48" s="65"/>
+      <c r="I48" s="66"/>
+    </row>
+    <row r="49" spans="1:12" ht="7" customHeight="1">
+      <c r="A49" s="28"/>
+      <c r="B49" s="28"/>
+      <c r="C49" s="28"/>
+      <c r="D49" s="29"/>
+      <c r="E49" s="30"/>
+      <c r="F49" s="30"/>
+      <c r="G49" s="30"/>
+      <c r="H49" s="30"/>
+      <c r="I49" s="31"/>
+      <c r="J49" s="14"/>
+      <c r="K49" s="13"/>
+      <c r="L49" s="13"/>
     </row>
   </sheetData>
-  <mergeCells count="50">
-    <mergeCell ref="A46:C46"/>
-    <mergeCell ref="E46:I46"/>
-    <mergeCell ref="E43:I43"/>
-    <mergeCell ref="E44:I44"/>
-    <mergeCell ref="E45:I45"/>
+  <mergeCells count="52">
     <mergeCell ref="E34:I34"/>
-    <mergeCell ref="E35:I35"/>
-    <mergeCell ref="E36:I36"/>
-    <mergeCell ref="A7:C7"/>
-    <mergeCell ref="D7:H7"/>
-    <mergeCell ref="A8:I8"/>
-    <mergeCell ref="D14:D15"/>
-    <mergeCell ref="E41:I41"/>
-    <mergeCell ref="E42:I42"/>
-    <mergeCell ref="E37:I37"/>
-    <mergeCell ref="E38:I38"/>
-    <mergeCell ref="E39:I39"/>
-    <mergeCell ref="E40:I40"/>
-    <mergeCell ref="E31:I31"/>
-    <mergeCell ref="E32:I32"/>
-    <mergeCell ref="E33:I33"/>
-    <mergeCell ref="E28:I28"/>
-    <mergeCell ref="E29:I29"/>
-    <mergeCell ref="E30:I30"/>
-    <mergeCell ref="E25:I25"/>
-    <mergeCell ref="E26:I26"/>
-    <mergeCell ref="E27:I27"/>
-    <mergeCell ref="E22:I22"/>
-    <mergeCell ref="E23:I23"/>
     <mergeCell ref="E24:I24"/>
-    <mergeCell ref="E21:I21"/>
-    <mergeCell ref="E18:I18"/>
+    <mergeCell ref="A5:C5"/>
+    <mergeCell ref="D5:H5"/>
+    <mergeCell ref="A6:I6"/>
+    <mergeCell ref="A1:I1"/>
+    <mergeCell ref="A2:I2"/>
+    <mergeCell ref="A3:H3"/>
+    <mergeCell ref="A4:I4"/>
     <mergeCell ref="E17:I17"/>
     <mergeCell ref="A9:C9"/>
     <mergeCell ref="D9:H9"/>
@@ -3816,21 +3883,46 @@
     <mergeCell ref="E16:I16"/>
     <mergeCell ref="A13:A15"/>
     <mergeCell ref="B13:I13"/>
+    <mergeCell ref="B14:C14"/>
+    <mergeCell ref="E22:I22"/>
+    <mergeCell ref="E23:I23"/>
+    <mergeCell ref="E25:I25"/>
+    <mergeCell ref="E21:I21"/>
+    <mergeCell ref="E18:I18"/>
     <mergeCell ref="E20:I20"/>
-    <mergeCell ref="B14:C14"/>
-    <mergeCell ref="A5:C5"/>
-    <mergeCell ref="D5:H5"/>
-    <mergeCell ref="A6:I6"/>
-    <mergeCell ref="A1:I1"/>
-    <mergeCell ref="A2:I2"/>
-    <mergeCell ref="A3:H3"/>
-    <mergeCell ref="A4:I4"/>
     <mergeCell ref="E19:I19"/>
+    <mergeCell ref="E43:I43"/>
+    <mergeCell ref="E44:I44"/>
+    <mergeCell ref="E39:I39"/>
+    <mergeCell ref="E40:I40"/>
+    <mergeCell ref="E41:I41"/>
+    <mergeCell ref="E42:I42"/>
+    <mergeCell ref="E36:I36"/>
+    <mergeCell ref="E37:I37"/>
+    <mergeCell ref="E38:I38"/>
+    <mergeCell ref="A7:C7"/>
+    <mergeCell ref="D7:H7"/>
+    <mergeCell ref="A8:I8"/>
+    <mergeCell ref="D14:D15"/>
+    <mergeCell ref="E32:I32"/>
+    <mergeCell ref="E33:I33"/>
+    <mergeCell ref="E35:I35"/>
+    <mergeCell ref="E29:I29"/>
+    <mergeCell ref="E30:I30"/>
+    <mergeCell ref="E31:I31"/>
+    <mergeCell ref="E26:I26"/>
+    <mergeCell ref="E27:I27"/>
+    <mergeCell ref="E28:I28"/>
+    <mergeCell ref="A48:C48"/>
+    <mergeCell ref="E48:I48"/>
+    <mergeCell ref="E45:I45"/>
+    <mergeCell ref="E46:I46"/>
+    <mergeCell ref="E47:I47"/>
   </mergeCells>
   <phoneticPr fontId="32" type="noConversion"/>
   <printOptions horizontalCentered="1"/>
   <pageMargins left="0.44" right="0.03" top="0.02" bottom="0.03" header="0.19685039370078741" footer="0.19685039370078741"/>
-  <pageSetup paperSize="9" scale="96" orientation="landscape"/>
+  <pageSetup paperSize="9" scale="92" orientation="landscape"/>
   <extLst>
     <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="http://schemas.microsoft.com/office/mac/excel/2008/main">
       <mx:PLV Mode="1" OnePage="0" WScale="0"/>
@@ -3864,17 +3956,17 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:40" s="7" customFormat="1" ht="18" thickBot="1">
-      <c r="A1" s="60" t="s">
-        <v>55</v>
-      </c>
-      <c r="B1" s="60"/>
-      <c r="C1" s="60"/>
-      <c r="D1" s="60"/>
-      <c r="E1" s="60"/>
-      <c r="F1" s="60"/>
-      <c r="G1" s="60"/>
-      <c r="H1" s="60"/>
-      <c r="I1" s="60"/>
+      <c r="A1" s="84" t="s">
+        <v>68</v>
+      </c>
+      <c r="B1" s="84"/>
+      <c r="C1" s="84"/>
+      <c r="D1" s="84"/>
+      <c r="E1" s="84"/>
+      <c r="F1" s="84"/>
+      <c r="G1" s="84"/>
+      <c r="H1" s="84"/>
+      <c r="I1" s="84"/>
       <c r="J1" s="8"/>
       <c r="K1" s="8"/>
       <c r="L1" s="8"/>
@@ -3907,15 +3999,15 @@
       <c r="AM1" s="8"/>
     </row>
     <row r="2" spans="1:40" s="1" customFormat="1" ht="7.5" customHeight="1">
-      <c r="A2" s="61"/>
-      <c r="B2" s="61"/>
-      <c r="C2" s="61"/>
-      <c r="D2" s="61"/>
-      <c r="E2" s="61"/>
-      <c r="F2" s="61"/>
-      <c r="G2" s="61"/>
-      <c r="H2" s="61"/>
-      <c r="I2" s="61"/>
+      <c r="A2" s="85"/>
+      <c r="B2" s="85"/>
+      <c r="C2" s="85"/>
+      <c r="D2" s="85"/>
+      <c r="E2" s="85"/>
+      <c r="F2" s="85"/>
+      <c r="G2" s="85"/>
+      <c r="H2" s="85"/>
+      <c r="I2" s="85"/>
       <c r="J2" s="9"/>
       <c r="K2" s="9"/>
       <c r="L2" s="9"/>
@@ -3948,16 +4040,16 @@
       <c r="AM2" s="9"/>
     </row>
     <row r="3" spans="1:40" s="11" customFormat="1" ht="13.5" customHeight="1">
-      <c r="A3" s="62" t="s">
-        <v>59</v>
-      </c>
-      <c r="B3" s="62"/>
-      <c r="C3" s="62"/>
-      <c r="D3" s="62"/>
-      <c r="E3" s="62"/>
-      <c r="F3" s="62"/>
-      <c r="G3" s="62"/>
-      <c r="H3" s="62"/>
+      <c r="A3" s="86" t="s">
+        <v>72</v>
+      </c>
+      <c r="B3" s="86"/>
+      <c r="C3" s="86"/>
+      <c r="D3" s="86"/>
+      <c r="E3" s="86"/>
+      <c r="F3" s="86"/>
+      <c r="G3" s="86"/>
+      <c r="H3" s="86"/>
       <c r="I3" s="23"/>
       <c r="J3" s="22"/>
       <c r="K3" s="22"/>
@@ -3992,112 +4084,112 @@
       <c r="AN3" s="10"/>
     </row>
     <row r="4" spans="1:40" s="6" customFormat="1" ht="9" customHeight="1">
-      <c r="A4" s="63"/>
-      <c r="B4" s="63"/>
-      <c r="C4" s="63"/>
-      <c r="D4" s="63"/>
-      <c r="E4" s="63"/>
-      <c r="F4" s="63"/>
-      <c r="G4" s="63"/>
-      <c r="H4" s="63"/>
-      <c r="I4" s="63"/>
+      <c r="A4" s="87"/>
+      <c r="B4" s="87"/>
+      <c r="C4" s="87"/>
+      <c r="D4" s="87"/>
+      <c r="E4" s="87"/>
+      <c r="F4" s="87"/>
+      <c r="G4" s="87"/>
+      <c r="H4" s="87"/>
+      <c r="I4" s="87"/>
     </row>
     <row r="5" spans="1:40" s="1" customFormat="1" ht="13.75" customHeight="1">
-      <c r="A5" s="70" t="str">
+      <c r="A5" s="94" t="str">
         <f>October!A5</f>
         <v>Firstname Lastname</v>
       </c>
-      <c r="B5" s="71"/>
-      <c r="C5" s="71"/>
-      <c r="D5" s="66" t="str">
+      <c r="B5" s="95"/>
+      <c r="C5" s="95"/>
+      <c r="D5" s="90" t="str">
         <f>October!D5</f>
         <v>Augustin Hannah</v>
       </c>
-      <c r="E5" s="67"/>
-      <c r="F5" s="67"/>
-      <c r="G5" s="67"/>
-      <c r="H5" s="68"/>
+      <c r="E5" s="91"/>
+      <c r="F5" s="91"/>
+      <c r="G5" s="91"/>
+      <c r="H5" s="92"/>
       <c r="I5" s="23"/>
       <c r="J5" s="9"/>
       <c r="K5" s="9"/>
       <c r="L5" s="9"/>
     </row>
     <row r="6" spans="1:40" s="1" customFormat="1" ht="7.5" customHeight="1">
-      <c r="A6" s="72"/>
-      <c r="B6" s="72"/>
-      <c r="C6" s="72"/>
-      <c r="D6" s="72"/>
-      <c r="E6" s="72"/>
-      <c r="F6" s="72"/>
-      <c r="G6" s="72"/>
-      <c r="H6" s="72"/>
-      <c r="I6" s="72"/>
+      <c r="A6" s="96"/>
+      <c r="B6" s="96"/>
+      <c r="C6" s="96"/>
+      <c r="D6" s="96"/>
+      <c r="E6" s="96"/>
+      <c r="F6" s="96"/>
+      <c r="G6" s="96"/>
+      <c r="H6" s="96"/>
+      <c r="I6" s="96"/>
     </row>
     <row r="7" spans="1:40" s="1" customFormat="1" ht="13.75" customHeight="1">
-      <c r="A7" s="65" t="str">
+      <c r="A7" s="89" t="str">
         <f>October!A7</f>
         <v>Project Acronym</v>
       </c>
-      <c r="B7" s="65"/>
-      <c r="C7" s="65"/>
-      <c r="D7" s="73" t="str">
+      <c r="B7" s="89"/>
+      <c r="C7" s="89"/>
+      <c r="D7" s="97" t="str">
         <f>October!D7</f>
         <v>AIQ</v>
       </c>
-      <c r="E7" s="73"/>
-      <c r="F7" s="73"/>
-      <c r="G7" s="73"/>
-      <c r="H7" s="73"/>
+      <c r="E7" s="97"/>
+      <c r="F7" s="97"/>
+      <c r="G7" s="97"/>
+      <c r="H7" s="97"/>
       <c r="I7" s="24"/>
     </row>
     <row r="8" spans="1:40" s="1" customFormat="1" ht="7.5" customHeight="1">
-      <c r="A8" s="64"/>
-      <c r="B8" s="64"/>
-      <c r="C8" s="64"/>
-      <c r="D8" s="64"/>
-      <c r="E8" s="64"/>
-      <c r="F8" s="64"/>
-      <c r="G8" s="64"/>
-      <c r="H8" s="64"/>
-      <c r="I8" s="64"/>
+      <c r="A8" s="88"/>
+      <c r="B8" s="88"/>
+      <c r="C8" s="88"/>
+      <c r="D8" s="88"/>
+      <c r="E8" s="88"/>
+      <c r="F8" s="88"/>
+      <c r="G8" s="88"/>
+      <c r="H8" s="88"/>
+      <c r="I8" s="88"/>
     </row>
     <row r="9" spans="1:40" s="1" customFormat="1" ht="13.75" customHeight="1">
-      <c r="A9" s="65" t="str">
+      <c r="A9" s="89" t="str">
         <f>October!A9</f>
         <v>Project Title</v>
       </c>
-      <c r="B9" s="65"/>
-      <c r="C9" s="65"/>
-      <c r="D9" s="66" t="str">
+      <c r="B9" s="89"/>
+      <c r="C9" s="89"/>
+      <c r="D9" s="90" t="str">
         <f>October!D9</f>
         <v>Automating change detection in ImageQuerying</v>
       </c>
-      <c r="E9" s="67"/>
-      <c r="F9" s="67"/>
-      <c r="G9" s="67"/>
-      <c r="H9" s="68"/>
+      <c r="E9" s="91"/>
+      <c r="F9" s="91"/>
+      <c r="G9" s="91"/>
+      <c r="H9" s="92"/>
       <c r="I9" s="24"/>
       <c r="J9" s="15"/>
     </row>
     <row r="10" spans="1:40" s="1" customFormat="1" ht="7.5" customHeight="1">
-      <c r="A10" s="69"/>
-      <c r="B10" s="69"/>
-      <c r="C10" s="69"/>
-      <c r="D10" s="69"/>
-      <c r="E10" s="69"/>
-      <c r="F10" s="69"/>
-      <c r="G10" s="69"/>
-      <c r="H10" s="69"/>
-      <c r="I10" s="69"/>
+      <c r="A10" s="93"/>
+      <c r="B10" s="93"/>
+      <c r="C10" s="93"/>
+      <c r="D10" s="93"/>
+      <c r="E10" s="93"/>
+      <c r="F10" s="93"/>
+      <c r="G10" s="93"/>
+      <c r="H10" s="93"/>
+      <c r="I10" s="93"/>
     </row>
     <row r="11" spans="1:40" s="1" customFormat="1" ht="12">
       <c r="A11" s="21" t="s">
-        <v>57</v>
+        <v>70</v>
       </c>
       <c r="B11" s="21"/>
       <c r="C11" s="21"/>
       <c r="D11" s="21" t="s">
-        <v>58</v>
+        <v>71</v>
       </c>
       <c r="E11" s="21"/>
       <c r="F11" s="21"/>
@@ -4117,55 +4209,55 @@
       <c r="I12" s="26"/>
     </row>
     <row r="13" spans="1:40" s="2" customFormat="1" ht="15.5" customHeight="1">
-      <c r="A13" s="78" t="s">
-        <v>17</v>
-      </c>
-      <c r="B13" s="81" t="s">
-        <v>53</v>
-      </c>
-      <c r="C13" s="82"/>
-      <c r="D13" s="82"/>
-      <c r="E13" s="82"/>
-      <c r="F13" s="82"/>
-      <c r="G13" s="82"/>
-      <c r="H13" s="82"/>
-      <c r="I13" s="83"/>
+      <c r="A13" s="68" t="s">
+        <v>30</v>
+      </c>
+      <c r="B13" s="71" t="s">
+        <v>66</v>
+      </c>
+      <c r="C13" s="72"/>
+      <c r="D13" s="72"/>
+      <c r="E13" s="72"/>
+      <c r="F13" s="72"/>
+      <c r="G13" s="72"/>
+      <c r="H13" s="72"/>
+      <c r="I13" s="73"/>
     </row>
     <row r="14" spans="1:40" s="2" customFormat="1" ht="13.75" customHeight="1">
-      <c r="A14" s="79"/>
-      <c r="B14" s="84" t="s">
-        <v>18</v>
-      </c>
-      <c r="C14" s="85"/>
-      <c r="D14" s="86" t="s">
-        <v>19</v>
-      </c>
-      <c r="E14" s="88" t="s">
-        <v>54</v>
-      </c>
-      <c r="F14" s="89"/>
-      <c r="G14" s="89"/>
-      <c r="H14" s="89"/>
-      <c r="I14" s="90"/>
+      <c r="A14" s="69"/>
+      <c r="B14" s="74" t="s">
+        <v>31</v>
+      </c>
+      <c r="C14" s="75"/>
+      <c r="D14" s="76" t="s">
+        <v>32</v>
+      </c>
+      <c r="E14" s="78" t="s">
+        <v>67</v>
+      </c>
+      <c r="F14" s="79"/>
+      <c r="G14" s="79"/>
+      <c r="H14" s="79"/>
+      <c r="I14" s="80"/>
     </row>
     <row r="15" spans="1:40" ht="13" customHeight="1">
-      <c r="A15" s="80"/>
+      <c r="A15" s="70"/>
       <c r="B15" s="32" t="s">
-        <v>20</v>
+        <v>33</v>
       </c>
       <c r="C15" s="33" t="s">
-        <v>21</v>
-      </c>
-      <c r="D15" s="87"/>
-      <c r="E15" s="91"/>
-      <c r="F15" s="92"/>
-      <c r="G15" s="92"/>
-      <c r="H15" s="92"/>
-      <c r="I15" s="93"/>
+        <v>34</v>
+      </c>
+      <c r="D15" s="77"/>
+      <c r="E15" s="81"/>
+      <c r="F15" s="82"/>
+      <c r="G15" s="82"/>
+      <c r="H15" s="82"/>
+      <c r="I15" s="83"/>
     </row>
     <row r="16" spans="1:40" s="43" customFormat="1" ht="12">
       <c r="A16" s="40" t="s">
-        <v>22</v>
+        <v>35</v>
       </c>
       <c r="B16" s="41"/>
       <c r="C16" s="42"/>
@@ -4173,15 +4265,15 @@
         <f>C16-B16</f>
         <v>0</v>
       </c>
-      <c r="E16" s="57"/>
-      <c r="F16" s="58"/>
-      <c r="G16" s="58"/>
-      <c r="H16" s="58"/>
-      <c r="I16" s="59"/>
+      <c r="E16" s="60"/>
+      <c r="F16" s="61"/>
+      <c r="G16" s="61"/>
+      <c r="H16" s="61"/>
+      <c r="I16" s="62"/>
     </row>
     <row r="17" spans="1:9" s="43" customFormat="1" ht="12">
       <c r="A17" s="40" t="s">
-        <v>23</v>
+        <v>36</v>
       </c>
       <c r="B17" s="41"/>
       <c r="C17" s="42"/>
@@ -4189,15 +4281,15 @@
         <f t="shared" ref="D17:D46" si="0">C17-B17</f>
         <v>0</v>
       </c>
-      <c r="E17" s="57"/>
-      <c r="F17" s="58"/>
-      <c r="G17" s="58"/>
-      <c r="H17" s="58"/>
-      <c r="I17" s="59"/>
+      <c r="E17" s="60"/>
+      <c r="F17" s="61"/>
+      <c r="G17" s="61"/>
+      <c r="H17" s="61"/>
+      <c r="I17" s="62"/>
     </row>
     <row r="18" spans="1:9" s="51" customFormat="1" ht="12">
       <c r="A18" s="48" t="s">
-        <v>24</v>
+        <v>37</v>
       </c>
       <c r="B18" s="49"/>
       <c r="C18" s="50"/>
@@ -4205,15 +4297,15 @@
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="E18" s="77"/>
-      <c r="F18" s="75"/>
-      <c r="G18" s="75"/>
-      <c r="H18" s="75"/>
-      <c r="I18" s="76"/>
+      <c r="E18" s="57"/>
+      <c r="F18" s="58"/>
+      <c r="G18" s="58"/>
+      <c r="H18" s="58"/>
+      <c r="I18" s="59"/>
     </row>
     <row r="19" spans="1:9" s="51" customFormat="1" ht="12">
       <c r="A19" s="48" t="s">
-        <v>25</v>
+        <v>38</v>
       </c>
       <c r="B19" s="49"/>
       <c r="C19" s="50"/>
@@ -4221,15 +4313,15 @@
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="E19" s="77"/>
-      <c r="F19" s="75"/>
-      <c r="G19" s="75"/>
-      <c r="H19" s="75"/>
-      <c r="I19" s="76"/>
+      <c r="E19" s="57"/>
+      <c r="F19" s="58"/>
+      <c r="G19" s="58"/>
+      <c r="H19" s="58"/>
+      <c r="I19" s="59"/>
     </row>
     <row r="20" spans="1:9" s="43" customFormat="1" ht="12">
       <c r="A20" s="40" t="s">
-        <v>26</v>
+        <v>39</v>
       </c>
       <c r="B20" s="41"/>
       <c r="C20" s="42"/>
@@ -4237,15 +4329,15 @@
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="E20" s="57"/>
-      <c r="F20" s="58"/>
-      <c r="G20" s="58"/>
-      <c r="H20" s="58"/>
-      <c r="I20" s="59"/>
+      <c r="E20" s="60"/>
+      <c r="F20" s="61"/>
+      <c r="G20" s="61"/>
+      <c r="H20" s="61"/>
+      <c r="I20" s="62"/>
     </row>
     <row r="21" spans="1:9" s="43" customFormat="1" ht="12">
       <c r="A21" s="40" t="s">
-        <v>27</v>
+        <v>40</v>
       </c>
       <c r="B21" s="41"/>
       <c r="C21" s="42"/>
@@ -4253,15 +4345,15 @@
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="E21" s="57"/>
-      <c r="F21" s="58"/>
-      <c r="G21" s="58"/>
-      <c r="H21" s="58"/>
-      <c r="I21" s="59"/>
+      <c r="E21" s="60"/>
+      <c r="F21" s="61"/>
+      <c r="G21" s="61"/>
+      <c r="H21" s="61"/>
+      <c r="I21" s="62"/>
     </row>
     <row r="22" spans="1:9" s="43" customFormat="1" ht="12">
       <c r="A22" s="40" t="s">
-        <v>28</v>
+        <v>41</v>
       </c>
       <c r="B22" s="41"/>
       <c r="C22" s="42"/>
@@ -4269,15 +4361,15 @@
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="E22" s="57"/>
-      <c r="F22" s="58"/>
-      <c r="G22" s="58"/>
-      <c r="H22" s="58"/>
-      <c r="I22" s="59"/>
+      <c r="E22" s="60"/>
+      <c r="F22" s="61"/>
+      <c r="G22" s="61"/>
+      <c r="H22" s="61"/>
+      <c r="I22" s="62"/>
     </row>
     <row r="23" spans="1:9" s="43" customFormat="1" ht="12">
       <c r="A23" s="40" t="s">
-        <v>29</v>
+        <v>42</v>
       </c>
       <c r="B23" s="41"/>
       <c r="C23" s="42"/>
@@ -4285,15 +4377,15 @@
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="E23" s="57"/>
-      <c r="F23" s="58"/>
-      <c r="G23" s="58"/>
-      <c r="H23" s="58"/>
-      <c r="I23" s="59"/>
+      <c r="E23" s="60"/>
+      <c r="F23" s="61"/>
+      <c r="G23" s="61"/>
+      <c r="H23" s="61"/>
+      <c r="I23" s="62"/>
     </row>
     <row r="24" spans="1:9" s="43" customFormat="1" ht="12">
       <c r="A24" s="40" t="s">
-        <v>30</v>
+        <v>43</v>
       </c>
       <c r="B24" s="41"/>
       <c r="C24" s="42"/>
@@ -4301,15 +4393,15 @@
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="E24" s="57"/>
-      <c r="F24" s="58"/>
-      <c r="G24" s="58"/>
-      <c r="H24" s="58"/>
-      <c r="I24" s="59"/>
+      <c r="E24" s="60"/>
+      <c r="F24" s="61"/>
+      <c r="G24" s="61"/>
+      <c r="H24" s="61"/>
+      <c r="I24" s="62"/>
     </row>
     <row r="25" spans="1:9" s="51" customFormat="1" ht="12">
       <c r="A25" s="48" t="s">
-        <v>31</v>
+        <v>44</v>
       </c>
       <c r="B25" s="49"/>
       <c r="C25" s="50"/>
@@ -4317,15 +4409,15 @@
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="E25" s="77"/>
-      <c r="F25" s="75"/>
-      <c r="G25" s="75"/>
-      <c r="H25" s="75"/>
-      <c r="I25" s="76"/>
+      <c r="E25" s="57"/>
+      <c r="F25" s="58"/>
+      <c r="G25" s="58"/>
+      <c r="H25" s="58"/>
+      <c r="I25" s="59"/>
     </row>
     <row r="26" spans="1:9" s="51" customFormat="1" ht="12">
       <c r="A26" s="48" t="s">
-        <v>32</v>
+        <v>45</v>
       </c>
       <c r="B26" s="49"/>
       <c r="C26" s="50"/>
@@ -4333,15 +4425,15 @@
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="E26" s="77"/>
-      <c r="F26" s="75"/>
-      <c r="G26" s="75"/>
-      <c r="H26" s="75"/>
-      <c r="I26" s="76"/>
+      <c r="E26" s="57"/>
+      <c r="F26" s="58"/>
+      <c r="G26" s="58"/>
+      <c r="H26" s="58"/>
+      <c r="I26" s="59"/>
     </row>
     <row r="27" spans="1:9" s="43" customFormat="1" ht="12">
       <c r="A27" s="40" t="s">
-        <v>33</v>
+        <v>46</v>
       </c>
       <c r="B27" s="41"/>
       <c r="C27" s="42"/>
@@ -4349,15 +4441,15 @@
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="E27" s="57"/>
-      <c r="F27" s="58"/>
-      <c r="G27" s="58"/>
-      <c r="H27" s="58"/>
-      <c r="I27" s="59"/>
+      <c r="E27" s="60"/>
+      <c r="F27" s="61"/>
+      <c r="G27" s="61"/>
+      <c r="H27" s="61"/>
+      <c r="I27" s="62"/>
     </row>
     <row r="28" spans="1:9" s="43" customFormat="1" ht="12">
       <c r="A28" s="40" t="s">
-        <v>34</v>
+        <v>47</v>
       </c>
       <c r="B28" s="41"/>
       <c r="C28" s="42"/>
@@ -4365,15 +4457,15 @@
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="E28" s="57"/>
-      <c r="F28" s="58"/>
-      <c r="G28" s="58"/>
-      <c r="H28" s="58"/>
-      <c r="I28" s="59"/>
+      <c r="E28" s="60"/>
+      <c r="F28" s="61"/>
+      <c r="G28" s="61"/>
+      <c r="H28" s="61"/>
+      <c r="I28" s="62"/>
     </row>
     <row r="29" spans="1:9" s="43" customFormat="1" ht="12">
       <c r="A29" s="40" t="s">
-        <v>35</v>
+        <v>48</v>
       </c>
       <c r="B29" s="41"/>
       <c r="C29" s="42"/>
@@ -4381,15 +4473,15 @@
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="E29" s="57"/>
-      <c r="F29" s="58"/>
-      <c r="G29" s="58"/>
-      <c r="H29" s="58"/>
-      <c r="I29" s="59"/>
+      <c r="E29" s="60"/>
+      <c r="F29" s="61"/>
+      <c r="G29" s="61"/>
+      <c r="H29" s="61"/>
+      <c r="I29" s="62"/>
     </row>
     <row r="30" spans="1:9" s="43" customFormat="1" ht="12">
       <c r="A30" s="40" t="s">
-        <v>36</v>
+        <v>49</v>
       </c>
       <c r="B30" s="41"/>
       <c r="C30" s="42"/>
@@ -4397,15 +4489,15 @@
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="E30" s="57"/>
-      <c r="F30" s="58"/>
-      <c r="G30" s="58"/>
-      <c r="H30" s="58"/>
-      <c r="I30" s="59"/>
+      <c r="E30" s="60"/>
+      <c r="F30" s="61"/>
+      <c r="G30" s="61"/>
+      <c r="H30" s="61"/>
+      <c r="I30" s="62"/>
     </row>
     <row r="31" spans="1:9" s="43" customFormat="1" ht="12">
       <c r="A31" s="40" t="s">
-        <v>37</v>
+        <v>50</v>
       </c>
       <c r="B31" s="41"/>
       <c r="C31" s="42"/>
@@ -4413,15 +4505,15 @@
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="E31" s="57"/>
-      <c r="F31" s="58"/>
-      <c r="G31" s="58"/>
-      <c r="H31" s="58"/>
-      <c r="I31" s="59"/>
+      <c r="E31" s="60"/>
+      <c r="F31" s="61"/>
+      <c r="G31" s="61"/>
+      <c r="H31" s="61"/>
+      <c r="I31" s="62"/>
     </row>
     <row r="32" spans="1:9" s="51" customFormat="1" ht="12">
       <c r="A32" s="48" t="s">
-        <v>38</v>
+        <v>51</v>
       </c>
       <c r="B32" s="49"/>
       <c r="C32" s="50"/>
@@ -4429,15 +4521,15 @@
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="E32" s="77"/>
-      <c r="F32" s="75"/>
-      <c r="G32" s="75"/>
-      <c r="H32" s="75"/>
-      <c r="I32" s="76"/>
+      <c r="E32" s="57"/>
+      <c r="F32" s="58"/>
+      <c r="G32" s="58"/>
+      <c r="H32" s="58"/>
+      <c r="I32" s="59"/>
     </row>
     <row r="33" spans="1:12" s="51" customFormat="1" ht="12">
       <c r="A33" s="48" t="s">
-        <v>39</v>
+        <v>52</v>
       </c>
       <c r="B33" s="49"/>
       <c r="C33" s="50"/>
@@ -4445,15 +4537,15 @@
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="E33" s="77"/>
-      <c r="F33" s="75"/>
-      <c r="G33" s="75"/>
-      <c r="H33" s="75"/>
-      <c r="I33" s="76"/>
+      <c r="E33" s="57"/>
+      <c r="F33" s="58"/>
+      <c r="G33" s="58"/>
+      <c r="H33" s="58"/>
+      <c r="I33" s="59"/>
     </row>
     <row r="34" spans="1:12" s="43" customFormat="1" ht="12">
       <c r="A34" s="40" t="s">
-        <v>40</v>
+        <v>53</v>
       </c>
       <c r="B34" s="41"/>
       <c r="C34" s="42"/>
@@ -4461,15 +4553,15 @@
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="E34" s="57"/>
-      <c r="F34" s="58"/>
-      <c r="G34" s="58"/>
-      <c r="H34" s="58"/>
-      <c r="I34" s="59"/>
+      <c r="E34" s="60"/>
+      <c r="F34" s="61"/>
+      <c r="G34" s="61"/>
+      <c r="H34" s="61"/>
+      <c r="I34" s="62"/>
     </row>
     <row r="35" spans="1:12" s="43" customFormat="1" ht="12">
       <c r="A35" s="40" t="s">
-        <v>41</v>
+        <v>54</v>
       </c>
       <c r="B35" s="41"/>
       <c r="C35" s="42"/>
@@ -4477,15 +4569,15 @@
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="E35" s="57"/>
-      <c r="F35" s="58"/>
-      <c r="G35" s="58"/>
-      <c r="H35" s="58"/>
-      <c r="I35" s="59"/>
+      <c r="E35" s="60"/>
+      <c r="F35" s="61"/>
+      <c r="G35" s="61"/>
+      <c r="H35" s="61"/>
+      <c r="I35" s="62"/>
     </row>
     <row r="36" spans="1:12" s="43" customFormat="1" ht="12">
       <c r="A36" s="40" t="s">
-        <v>42</v>
+        <v>55</v>
       </c>
       <c r="B36" s="41"/>
       <c r="C36" s="42"/>
@@ -4493,15 +4585,15 @@
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="E36" s="57"/>
-      <c r="F36" s="58"/>
-      <c r="G36" s="58"/>
-      <c r="H36" s="58"/>
-      <c r="I36" s="59"/>
+      <c r="E36" s="60"/>
+      <c r="F36" s="61"/>
+      <c r="G36" s="61"/>
+      <c r="H36" s="61"/>
+      <c r="I36" s="62"/>
     </row>
     <row r="37" spans="1:12" s="43" customFormat="1" ht="12">
       <c r="A37" s="40" t="s">
-        <v>43</v>
+        <v>56</v>
       </c>
       <c r="B37" s="41"/>
       <c r="C37" s="42"/>
@@ -4509,15 +4601,15 @@
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="E37" s="57"/>
-      <c r="F37" s="58"/>
-      <c r="G37" s="58"/>
-      <c r="H37" s="58"/>
-      <c r="I37" s="59"/>
+      <c r="E37" s="60"/>
+      <c r="F37" s="61"/>
+      <c r="G37" s="61"/>
+      <c r="H37" s="61"/>
+      <c r="I37" s="62"/>
     </row>
     <row r="38" spans="1:12" s="43" customFormat="1" ht="12">
       <c r="A38" s="40" t="s">
-        <v>44</v>
+        <v>57</v>
       </c>
       <c r="B38" s="41"/>
       <c r="C38" s="42"/>
@@ -4525,15 +4617,15 @@
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="E38" s="57"/>
-      <c r="F38" s="58"/>
-      <c r="G38" s="58"/>
-      <c r="H38" s="58"/>
-      <c r="I38" s="59"/>
+      <c r="E38" s="60"/>
+      <c r="F38" s="61"/>
+      <c r="G38" s="61"/>
+      <c r="H38" s="61"/>
+      <c r="I38" s="62"/>
     </row>
     <row r="39" spans="1:12" s="51" customFormat="1" ht="12">
       <c r="A39" s="48" t="s">
-        <v>45</v>
+        <v>58</v>
       </c>
       <c r="B39" s="49"/>
       <c r="C39" s="50"/>
@@ -4541,15 +4633,15 @@
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="E39" s="77"/>
-      <c r="F39" s="75"/>
-      <c r="G39" s="75"/>
-      <c r="H39" s="75"/>
-      <c r="I39" s="76"/>
+      <c r="E39" s="57"/>
+      <c r="F39" s="58"/>
+      <c r="G39" s="58"/>
+      <c r="H39" s="58"/>
+      <c r="I39" s="59"/>
     </row>
     <row r="40" spans="1:12" s="51" customFormat="1" ht="12">
       <c r="A40" s="48" t="s">
-        <v>46</v>
+        <v>59</v>
       </c>
       <c r="B40" s="49"/>
       <c r="C40" s="50"/>
@@ -4557,15 +4649,15 @@
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="E40" s="77"/>
-      <c r="F40" s="75"/>
-      <c r="G40" s="75"/>
-      <c r="H40" s="75"/>
-      <c r="I40" s="76"/>
+      <c r="E40" s="57"/>
+      <c r="F40" s="58"/>
+      <c r="G40" s="58"/>
+      <c r="H40" s="58"/>
+      <c r="I40" s="59"/>
     </row>
     <row r="41" spans="1:12" s="43" customFormat="1" ht="12">
       <c r="A41" s="40" t="s">
-        <v>47</v>
+        <v>60</v>
       </c>
       <c r="B41" s="41"/>
       <c r="C41" s="42"/>
@@ -4573,15 +4665,15 @@
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="E41" s="57"/>
-      <c r="F41" s="58"/>
-      <c r="G41" s="58"/>
-      <c r="H41" s="58"/>
-      <c r="I41" s="59"/>
+      <c r="E41" s="60"/>
+      <c r="F41" s="61"/>
+      <c r="G41" s="61"/>
+      <c r="H41" s="61"/>
+      <c r="I41" s="62"/>
     </row>
     <row r="42" spans="1:12" s="43" customFormat="1" ht="12">
       <c r="A42" s="40" t="s">
-        <v>48</v>
+        <v>61</v>
       </c>
       <c r="B42" s="41"/>
       <c r="C42" s="42"/>
@@ -4589,15 +4681,15 @@
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="E42" s="57"/>
-      <c r="F42" s="58"/>
-      <c r="G42" s="58"/>
-      <c r="H42" s="58"/>
-      <c r="I42" s="59"/>
+      <c r="E42" s="60"/>
+      <c r="F42" s="61"/>
+      <c r="G42" s="61"/>
+      <c r="H42" s="61"/>
+      <c r="I42" s="62"/>
     </row>
     <row r="43" spans="1:12" s="43" customFormat="1" ht="12">
       <c r="A43" s="40" t="s">
-        <v>49</v>
+        <v>62</v>
       </c>
       <c r="B43" s="41"/>
       <c r="C43" s="42"/>
@@ -4605,15 +4697,15 @@
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="E43" s="57"/>
-      <c r="F43" s="58"/>
-      <c r="G43" s="58"/>
-      <c r="H43" s="58"/>
-      <c r="I43" s="59"/>
+      <c r="E43" s="60"/>
+      <c r="F43" s="61"/>
+      <c r="G43" s="61"/>
+      <c r="H43" s="61"/>
+      <c r="I43" s="62"/>
     </row>
     <row r="44" spans="1:12" s="43" customFormat="1" ht="12">
       <c r="A44" s="40" t="s">
-        <v>50</v>
+        <v>63</v>
       </c>
       <c r="B44" s="41"/>
       <c r="C44" s="42"/>
@@ -4621,15 +4713,15 @@
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="E44" s="57"/>
-      <c r="F44" s="58"/>
-      <c r="G44" s="58"/>
-      <c r="H44" s="58"/>
-      <c r="I44" s="59"/>
+      <c r="E44" s="60"/>
+      <c r="F44" s="61"/>
+      <c r="G44" s="61"/>
+      <c r="H44" s="61"/>
+      <c r="I44" s="62"/>
     </row>
     <row r="45" spans="1:12" s="43" customFormat="1" ht="12">
       <c r="A45" s="40" t="s">
-        <v>51</v>
+        <v>64</v>
       </c>
       <c r="B45" s="41"/>
       <c r="C45" s="42"/>
@@ -4637,15 +4729,15 @@
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="E45" s="57"/>
-      <c r="F45" s="58"/>
-      <c r="G45" s="58"/>
-      <c r="H45" s="58"/>
-      <c r="I45" s="59"/>
+      <c r="E45" s="60"/>
+      <c r="F45" s="61"/>
+      <c r="G45" s="61"/>
+      <c r="H45" s="61"/>
+      <c r="I45" s="62"/>
     </row>
     <row r="46" spans="1:12" s="51" customFormat="1" ht="12">
       <c r="A46" s="48" t="s">
-        <v>52</v>
+        <v>65</v>
       </c>
       <c r="B46" s="49"/>
       <c r="C46" s="50"/>
@@ -4653,11 +4745,11 @@
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="E46" s="77"/>
-      <c r="F46" s="75"/>
-      <c r="G46" s="75"/>
-      <c r="H46" s="75"/>
-      <c r="I46" s="76"/>
+      <c r="E46" s="57"/>
+      <c r="F46" s="58"/>
+      <c r="G46" s="58"/>
+      <c r="H46" s="58"/>
+      <c r="I46" s="59"/>
     </row>
     <row r="47" spans="1:12" s="35" customFormat="1" ht="13">
       <c r="A47" s="100"/>
@@ -4689,33 +4781,15 @@
     </row>
   </sheetData>
   <mergeCells count="51">
-    <mergeCell ref="E41:I41"/>
-    <mergeCell ref="E42:I42"/>
-    <mergeCell ref="E43:I43"/>
-    <mergeCell ref="E16:I16"/>
-    <mergeCell ref="A7:C7"/>
-    <mergeCell ref="D7:H7"/>
-    <mergeCell ref="A8:I8"/>
-    <mergeCell ref="A13:A15"/>
-    <mergeCell ref="B13:I13"/>
-    <mergeCell ref="B14:C14"/>
-    <mergeCell ref="D14:D15"/>
-    <mergeCell ref="E14:I15"/>
-    <mergeCell ref="A9:C9"/>
-    <mergeCell ref="E47:I47"/>
-    <mergeCell ref="A47:C47"/>
-    <mergeCell ref="E44:I44"/>
-    <mergeCell ref="E45:I45"/>
-    <mergeCell ref="E46:I46"/>
-    <mergeCell ref="E38:I38"/>
-    <mergeCell ref="E39:I39"/>
-    <mergeCell ref="E40:I40"/>
-    <mergeCell ref="E35:I35"/>
-    <mergeCell ref="E36:I36"/>
-    <mergeCell ref="E37:I37"/>
-    <mergeCell ref="E32:I32"/>
-    <mergeCell ref="E33:I33"/>
-    <mergeCell ref="E34:I34"/>
+    <mergeCell ref="D9:H9"/>
+    <mergeCell ref="A10:I10"/>
+    <mergeCell ref="A1:I1"/>
+    <mergeCell ref="A2:I2"/>
+    <mergeCell ref="A3:H3"/>
+    <mergeCell ref="A4:I4"/>
+    <mergeCell ref="A5:C5"/>
+    <mergeCell ref="D5:H5"/>
+    <mergeCell ref="A6:I6"/>
     <mergeCell ref="E29:I29"/>
     <mergeCell ref="E30:I30"/>
     <mergeCell ref="E31:I31"/>
@@ -4731,15 +4805,33 @@
     <mergeCell ref="E22:I22"/>
     <mergeCell ref="E18:I18"/>
     <mergeCell ref="E19:I19"/>
-    <mergeCell ref="D9:H9"/>
-    <mergeCell ref="A10:I10"/>
-    <mergeCell ref="A1:I1"/>
-    <mergeCell ref="A2:I2"/>
-    <mergeCell ref="A3:H3"/>
-    <mergeCell ref="A4:I4"/>
-    <mergeCell ref="A5:C5"/>
-    <mergeCell ref="D5:H5"/>
-    <mergeCell ref="A6:I6"/>
+    <mergeCell ref="E35:I35"/>
+    <mergeCell ref="E36:I36"/>
+    <mergeCell ref="E37:I37"/>
+    <mergeCell ref="E32:I32"/>
+    <mergeCell ref="E33:I33"/>
+    <mergeCell ref="E34:I34"/>
+    <mergeCell ref="E47:I47"/>
+    <mergeCell ref="A47:C47"/>
+    <mergeCell ref="E44:I44"/>
+    <mergeCell ref="E45:I45"/>
+    <mergeCell ref="E46:I46"/>
+    <mergeCell ref="E41:I41"/>
+    <mergeCell ref="E42:I42"/>
+    <mergeCell ref="E43:I43"/>
+    <mergeCell ref="E16:I16"/>
+    <mergeCell ref="A7:C7"/>
+    <mergeCell ref="D7:H7"/>
+    <mergeCell ref="A8:I8"/>
+    <mergeCell ref="A13:A15"/>
+    <mergeCell ref="B13:I13"/>
+    <mergeCell ref="B14:C14"/>
+    <mergeCell ref="D14:D15"/>
+    <mergeCell ref="E14:I15"/>
+    <mergeCell ref="A9:C9"/>
+    <mergeCell ref="E38:I38"/>
+    <mergeCell ref="E39:I39"/>
+    <mergeCell ref="E40:I40"/>
   </mergeCells>
   <phoneticPr fontId="32" type="noConversion"/>
   <printOptions horizontalCentered="1"/>
@@ -4778,17 +4870,17 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:40" s="7" customFormat="1" ht="18" thickBot="1">
-      <c r="A1" s="60" t="s">
-        <v>55</v>
-      </c>
-      <c r="B1" s="60"/>
-      <c r="C1" s="60"/>
-      <c r="D1" s="60"/>
-      <c r="E1" s="60"/>
-      <c r="F1" s="60"/>
-      <c r="G1" s="60"/>
-      <c r="H1" s="60"/>
-      <c r="I1" s="60"/>
+      <c r="A1" s="84" t="s">
+        <v>68</v>
+      </c>
+      <c r="B1" s="84"/>
+      <c r="C1" s="84"/>
+      <c r="D1" s="84"/>
+      <c r="E1" s="84"/>
+      <c r="F1" s="84"/>
+      <c r="G1" s="84"/>
+      <c r="H1" s="84"/>
+      <c r="I1" s="84"/>
       <c r="J1" s="8"/>
       <c r="K1" s="8"/>
       <c r="L1" s="8"/>
@@ -4821,15 +4913,15 @@
       <c r="AM1" s="8"/>
     </row>
     <row r="2" spans="1:40" s="1" customFormat="1" ht="7.5" customHeight="1">
-      <c r="A2" s="61"/>
-      <c r="B2" s="61"/>
-      <c r="C2" s="61"/>
-      <c r="D2" s="61"/>
-      <c r="E2" s="61"/>
-      <c r="F2" s="61"/>
-      <c r="G2" s="61"/>
-      <c r="H2" s="61"/>
-      <c r="I2" s="61"/>
+      <c r="A2" s="85"/>
+      <c r="B2" s="85"/>
+      <c r="C2" s="85"/>
+      <c r="D2" s="85"/>
+      <c r="E2" s="85"/>
+      <c r="F2" s="85"/>
+      <c r="G2" s="85"/>
+      <c r="H2" s="85"/>
+      <c r="I2" s="85"/>
       <c r="J2" s="9"/>
       <c r="K2" s="9"/>
       <c r="L2" s="9"/>
@@ -4862,16 +4954,16 @@
       <c r="AM2" s="9"/>
     </row>
     <row r="3" spans="1:40" s="11" customFormat="1" ht="13.5" customHeight="1">
-      <c r="A3" s="62" t="s">
-        <v>59</v>
-      </c>
-      <c r="B3" s="62"/>
-      <c r="C3" s="62"/>
-      <c r="D3" s="62"/>
-      <c r="E3" s="62"/>
-      <c r="F3" s="62"/>
-      <c r="G3" s="62"/>
-      <c r="H3" s="62"/>
+      <c r="A3" s="86" t="s">
+        <v>72</v>
+      </c>
+      <c r="B3" s="86"/>
+      <c r="C3" s="86"/>
+      <c r="D3" s="86"/>
+      <c r="E3" s="86"/>
+      <c r="F3" s="86"/>
+      <c r="G3" s="86"/>
+      <c r="H3" s="86"/>
       <c r="I3" s="23"/>
       <c r="J3" s="22"/>
       <c r="K3" s="22"/>
@@ -4906,112 +4998,112 @@
       <c r="AN3" s="10"/>
     </row>
     <row r="4" spans="1:40" s="6" customFormat="1" ht="9" customHeight="1">
-      <c r="A4" s="63"/>
-      <c r="B4" s="63"/>
-      <c r="C4" s="63"/>
-      <c r="D4" s="63"/>
-      <c r="E4" s="63"/>
-      <c r="F4" s="63"/>
-      <c r="G4" s="63"/>
-      <c r="H4" s="63"/>
-      <c r="I4" s="63"/>
+      <c r="A4" s="87"/>
+      <c r="B4" s="87"/>
+      <c r="C4" s="87"/>
+      <c r="D4" s="87"/>
+      <c r="E4" s="87"/>
+      <c r="F4" s="87"/>
+      <c r="G4" s="87"/>
+      <c r="H4" s="87"/>
+      <c r="I4" s="87"/>
     </row>
     <row r="5" spans="1:40" s="1" customFormat="1" ht="13.75" customHeight="1">
-      <c r="A5" s="70" t="str">
+      <c r="A5" s="94" t="str">
         <f>October!A5</f>
         <v>Firstname Lastname</v>
       </c>
-      <c r="B5" s="71"/>
-      <c r="C5" s="71"/>
-      <c r="D5" s="66" t="str">
+      <c r="B5" s="95"/>
+      <c r="C5" s="95"/>
+      <c r="D5" s="90" t="str">
         <f>October!D5</f>
         <v>Augustin Hannah</v>
       </c>
-      <c r="E5" s="67"/>
-      <c r="F5" s="67"/>
-      <c r="G5" s="67"/>
-      <c r="H5" s="68"/>
+      <c r="E5" s="91"/>
+      <c r="F5" s="91"/>
+      <c r="G5" s="91"/>
+      <c r="H5" s="92"/>
       <c r="I5" s="23"/>
       <c r="J5" s="9"/>
       <c r="K5" s="9"/>
       <c r="L5" s="9"/>
     </row>
     <row r="6" spans="1:40" s="1" customFormat="1" ht="7.5" customHeight="1">
-      <c r="A6" s="72"/>
-      <c r="B6" s="72"/>
-      <c r="C6" s="72"/>
-      <c r="D6" s="72"/>
-      <c r="E6" s="72"/>
-      <c r="F6" s="72"/>
-      <c r="G6" s="72"/>
-      <c r="H6" s="72"/>
-      <c r="I6" s="72"/>
+      <c r="A6" s="96"/>
+      <c r="B6" s="96"/>
+      <c r="C6" s="96"/>
+      <c r="D6" s="96"/>
+      <c r="E6" s="96"/>
+      <c r="F6" s="96"/>
+      <c r="G6" s="96"/>
+      <c r="H6" s="96"/>
+      <c r="I6" s="96"/>
     </row>
     <row r="7" spans="1:40" s="1" customFormat="1" ht="13.75" customHeight="1">
-      <c r="A7" s="65" t="str">
+      <c r="A7" s="89" t="str">
         <f>October!A7</f>
         <v>Project Acronym</v>
       </c>
-      <c r="B7" s="65"/>
-      <c r="C7" s="65"/>
-      <c r="D7" s="73" t="str">
+      <c r="B7" s="89"/>
+      <c r="C7" s="89"/>
+      <c r="D7" s="97" t="str">
         <f>October!D7</f>
         <v>AIQ</v>
       </c>
-      <c r="E7" s="73"/>
-      <c r="F7" s="73"/>
-      <c r="G7" s="73"/>
-      <c r="H7" s="73"/>
+      <c r="E7" s="97"/>
+      <c r="F7" s="97"/>
+      <c r="G7" s="97"/>
+      <c r="H7" s="97"/>
       <c r="I7" s="24"/>
     </row>
     <row r="8" spans="1:40" s="1" customFormat="1" ht="7.5" customHeight="1">
-      <c r="A8" s="64"/>
-      <c r="B8" s="64"/>
-      <c r="C8" s="64"/>
-      <c r="D8" s="64"/>
-      <c r="E8" s="64"/>
-      <c r="F8" s="64"/>
-      <c r="G8" s="64"/>
-      <c r="H8" s="64"/>
-      <c r="I8" s="64"/>
+      <c r="A8" s="88"/>
+      <c r="B8" s="88"/>
+      <c r="C8" s="88"/>
+      <c r="D8" s="88"/>
+      <c r="E8" s="88"/>
+      <c r="F8" s="88"/>
+      <c r="G8" s="88"/>
+      <c r="H8" s="88"/>
+      <c r="I8" s="88"/>
     </row>
     <row r="9" spans="1:40" s="1" customFormat="1" ht="13.75" customHeight="1">
-      <c r="A9" s="65" t="str">
+      <c r="A9" s="89" t="str">
         <f>October!A9</f>
         <v>Project Title</v>
       </c>
-      <c r="B9" s="65"/>
-      <c r="C9" s="65"/>
-      <c r="D9" s="66" t="str">
+      <c r="B9" s="89"/>
+      <c r="C9" s="89"/>
+      <c r="D9" s="90" t="str">
         <f>October!D9</f>
         <v>Automating change detection in ImageQuerying</v>
       </c>
-      <c r="E9" s="67"/>
-      <c r="F9" s="67"/>
-      <c r="G9" s="67"/>
-      <c r="H9" s="68"/>
+      <c r="E9" s="91"/>
+      <c r="F9" s="91"/>
+      <c r="G9" s="91"/>
+      <c r="H9" s="92"/>
       <c r="I9" s="24"/>
       <c r="J9" s="15"/>
     </row>
     <row r="10" spans="1:40" s="1" customFormat="1" ht="7.5" customHeight="1">
-      <c r="A10" s="69"/>
-      <c r="B10" s="69"/>
-      <c r="C10" s="69"/>
-      <c r="D10" s="69"/>
-      <c r="E10" s="69"/>
-      <c r="F10" s="69"/>
-      <c r="G10" s="69"/>
-      <c r="H10" s="69"/>
-      <c r="I10" s="69"/>
+      <c r="A10" s="93"/>
+      <c r="B10" s="93"/>
+      <c r="C10" s="93"/>
+      <c r="D10" s="93"/>
+      <c r="E10" s="93"/>
+      <c r="F10" s="93"/>
+      <c r="G10" s="93"/>
+      <c r="H10" s="93"/>
+      <c r="I10" s="93"/>
     </row>
     <row r="11" spans="1:40" s="1" customFormat="1" ht="12">
       <c r="A11" s="21" t="s">
-        <v>57</v>
+        <v>70</v>
       </c>
       <c r="B11" s="21"/>
       <c r="C11" s="21"/>
       <c r="D11" s="21" t="s">
-        <v>58</v>
+        <v>71</v>
       </c>
       <c r="E11" s="21"/>
       <c r="F11" s="21"/>
@@ -5031,55 +5123,55 @@
       <c r="I12" s="26"/>
     </row>
     <row r="13" spans="1:40" s="2" customFormat="1" ht="15.5" customHeight="1">
-      <c r="A13" s="78" t="s">
-        <v>17</v>
-      </c>
-      <c r="B13" s="81" t="s">
-        <v>53</v>
-      </c>
-      <c r="C13" s="82"/>
-      <c r="D13" s="82"/>
-      <c r="E13" s="82"/>
-      <c r="F13" s="82"/>
-      <c r="G13" s="82"/>
-      <c r="H13" s="82"/>
-      <c r="I13" s="83"/>
+      <c r="A13" s="68" t="s">
+        <v>30</v>
+      </c>
+      <c r="B13" s="71" t="s">
+        <v>66</v>
+      </c>
+      <c r="C13" s="72"/>
+      <c r="D13" s="72"/>
+      <c r="E13" s="72"/>
+      <c r="F13" s="72"/>
+      <c r="G13" s="72"/>
+      <c r="H13" s="72"/>
+      <c r="I13" s="73"/>
     </row>
     <row r="14" spans="1:40" s="2" customFormat="1" ht="13.75" customHeight="1">
-      <c r="A14" s="79"/>
-      <c r="B14" s="84" t="s">
-        <v>18</v>
-      </c>
-      <c r="C14" s="85"/>
-      <c r="D14" s="86" t="s">
-        <v>19</v>
-      </c>
-      <c r="E14" s="88" t="s">
-        <v>54</v>
-      </c>
-      <c r="F14" s="89"/>
-      <c r="G14" s="89"/>
-      <c r="H14" s="89"/>
-      <c r="I14" s="90"/>
+      <c r="A14" s="69"/>
+      <c r="B14" s="74" t="s">
+        <v>31</v>
+      </c>
+      <c r="C14" s="75"/>
+      <c r="D14" s="76" t="s">
+        <v>32</v>
+      </c>
+      <c r="E14" s="78" t="s">
+        <v>67</v>
+      </c>
+      <c r="F14" s="79"/>
+      <c r="G14" s="79"/>
+      <c r="H14" s="79"/>
+      <c r="I14" s="80"/>
     </row>
     <row r="15" spans="1:40" ht="12" customHeight="1">
-      <c r="A15" s="80"/>
+      <c r="A15" s="70"/>
       <c r="B15" s="32" t="s">
-        <v>20</v>
+        <v>33</v>
       </c>
       <c r="C15" s="33" t="s">
-        <v>21</v>
-      </c>
-      <c r="D15" s="87"/>
-      <c r="E15" s="91"/>
-      <c r="F15" s="92"/>
-      <c r="G15" s="92"/>
-      <c r="H15" s="92"/>
-      <c r="I15" s="93"/>
+        <v>34</v>
+      </c>
+      <c r="D15" s="77"/>
+      <c r="E15" s="81"/>
+      <c r="F15" s="82"/>
+      <c r="G15" s="82"/>
+      <c r="H15" s="82"/>
+      <c r="I15" s="83"/>
     </row>
     <row r="16" spans="1:40" s="51" customFormat="1" ht="12">
       <c r="A16" s="48" t="s">
-        <v>22</v>
+        <v>35</v>
       </c>
       <c r="B16" s="49"/>
       <c r="C16" s="50"/>
@@ -5087,15 +5179,15 @@
         <f>C16-B16</f>
         <v>0</v>
       </c>
-      <c r="E16" s="77"/>
-      <c r="F16" s="75"/>
-      <c r="G16" s="75"/>
-      <c r="H16" s="75"/>
-      <c r="I16" s="76"/>
+      <c r="E16" s="57"/>
+      <c r="F16" s="58"/>
+      <c r="G16" s="58"/>
+      <c r="H16" s="58"/>
+      <c r="I16" s="59"/>
     </row>
     <row r="17" spans="1:9" s="43" customFormat="1" ht="12">
       <c r="A17" s="40" t="s">
-        <v>23</v>
+        <v>36</v>
       </c>
       <c r="B17" s="41"/>
       <c r="C17" s="42"/>
@@ -5103,15 +5195,15 @@
         <f t="shared" ref="D17:D46" si="0">C17-B17</f>
         <v>0</v>
       </c>
-      <c r="E17" s="57"/>
-      <c r="F17" s="58"/>
-      <c r="G17" s="58"/>
-      <c r="H17" s="58"/>
-      <c r="I17" s="59"/>
+      <c r="E17" s="60"/>
+      <c r="F17" s="61"/>
+      <c r="G17" s="61"/>
+      <c r="H17" s="61"/>
+      <c r="I17" s="62"/>
     </row>
     <row r="18" spans="1:9" s="43" customFormat="1" ht="12">
       <c r="A18" s="40" t="s">
-        <v>24</v>
+        <v>37</v>
       </c>
       <c r="B18" s="41"/>
       <c r="C18" s="42"/>
@@ -5119,15 +5211,15 @@
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="E18" s="57"/>
-      <c r="F18" s="58"/>
-      <c r="G18" s="58"/>
-      <c r="H18" s="58"/>
-      <c r="I18" s="59"/>
+      <c r="E18" s="60"/>
+      <c r="F18" s="61"/>
+      <c r="G18" s="61"/>
+      <c r="H18" s="61"/>
+      <c r="I18" s="62"/>
     </row>
     <row r="19" spans="1:9" s="43" customFormat="1" ht="12">
       <c r="A19" s="40" t="s">
-        <v>25</v>
+        <v>38</v>
       </c>
       <c r="B19" s="41"/>
       <c r="C19" s="42"/>
@@ -5135,15 +5227,15 @@
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="E19" s="57"/>
-      <c r="F19" s="58"/>
-      <c r="G19" s="58"/>
-      <c r="H19" s="58"/>
-      <c r="I19" s="59"/>
+      <c r="E19" s="60"/>
+      <c r="F19" s="61"/>
+      <c r="G19" s="61"/>
+      <c r="H19" s="61"/>
+      <c r="I19" s="62"/>
     </row>
     <row r="20" spans="1:9" s="43" customFormat="1" ht="12">
       <c r="A20" s="40" t="s">
-        <v>26</v>
+        <v>39</v>
       </c>
       <c r="B20" s="41"/>
       <c r="C20" s="42"/>
@@ -5151,15 +5243,15 @@
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="E20" s="57"/>
-      <c r="F20" s="58"/>
-      <c r="G20" s="58"/>
-      <c r="H20" s="58"/>
-      <c r="I20" s="59"/>
+      <c r="E20" s="60"/>
+      <c r="F20" s="61"/>
+      <c r="G20" s="61"/>
+      <c r="H20" s="61"/>
+      <c r="I20" s="62"/>
     </row>
     <row r="21" spans="1:9" s="43" customFormat="1" ht="12">
       <c r="A21" s="40" t="s">
-        <v>27</v>
+        <v>40</v>
       </c>
       <c r="B21" s="41"/>
       <c r="C21" s="42"/>
@@ -5167,15 +5259,15 @@
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="E21" s="57"/>
-      <c r="F21" s="58"/>
-      <c r="G21" s="58"/>
-      <c r="H21" s="58"/>
-      <c r="I21" s="59"/>
+      <c r="E21" s="60"/>
+      <c r="F21" s="61"/>
+      <c r="G21" s="61"/>
+      <c r="H21" s="61"/>
+      <c r="I21" s="62"/>
     </row>
     <row r="22" spans="1:9" s="51" customFormat="1" ht="12">
       <c r="A22" s="48" t="s">
-        <v>28</v>
+        <v>41</v>
       </c>
       <c r="B22" s="49"/>
       <c r="C22" s="50"/>
@@ -5183,15 +5275,15 @@
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="E22" s="77"/>
-      <c r="F22" s="75"/>
-      <c r="G22" s="75"/>
-      <c r="H22" s="75"/>
-      <c r="I22" s="76"/>
+      <c r="E22" s="57"/>
+      <c r="F22" s="58"/>
+      <c r="G22" s="58"/>
+      <c r="H22" s="58"/>
+      <c r="I22" s="59"/>
     </row>
     <row r="23" spans="1:9" s="51" customFormat="1" ht="12">
       <c r="A23" s="48" t="s">
-        <v>29</v>
+        <v>42</v>
       </c>
       <c r="B23" s="49"/>
       <c r="C23" s="50"/>
@@ -5199,15 +5291,15 @@
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="E23" s="77"/>
-      <c r="F23" s="75"/>
-      <c r="G23" s="75"/>
-      <c r="H23" s="75"/>
-      <c r="I23" s="76"/>
+      <c r="E23" s="57"/>
+      <c r="F23" s="58"/>
+      <c r="G23" s="58"/>
+      <c r="H23" s="58"/>
+      <c r="I23" s="59"/>
     </row>
     <row r="24" spans="1:9" s="43" customFormat="1" ht="12">
       <c r="A24" s="40" t="s">
-        <v>30</v>
+        <v>43</v>
       </c>
       <c r="B24" s="41"/>
       <c r="C24" s="42"/>
@@ -5215,15 +5307,15 @@
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="E24" s="57"/>
-      <c r="F24" s="58"/>
-      <c r="G24" s="58"/>
-      <c r="H24" s="58"/>
-      <c r="I24" s="59"/>
+      <c r="E24" s="60"/>
+      <c r="F24" s="61"/>
+      <c r="G24" s="61"/>
+      <c r="H24" s="61"/>
+      <c r="I24" s="62"/>
     </row>
     <row r="25" spans="1:9" s="43" customFormat="1" ht="12">
       <c r="A25" s="40" t="s">
-        <v>31</v>
+        <v>44</v>
       </c>
       <c r="B25" s="41"/>
       <c r="C25" s="42"/>
@@ -5231,15 +5323,15 @@
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="E25" s="57"/>
-      <c r="F25" s="58"/>
-      <c r="G25" s="58"/>
-      <c r="H25" s="58"/>
-      <c r="I25" s="59"/>
+      <c r="E25" s="60"/>
+      <c r="F25" s="61"/>
+      <c r="G25" s="61"/>
+      <c r="H25" s="61"/>
+      <c r="I25" s="62"/>
     </row>
     <row r="26" spans="1:9" s="43" customFormat="1" ht="12">
       <c r="A26" s="40" t="s">
-        <v>32</v>
+        <v>45</v>
       </c>
       <c r="B26" s="41"/>
       <c r="C26" s="42"/>
@@ -5247,15 +5339,15 @@
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="E26" s="57"/>
-      <c r="F26" s="58"/>
-      <c r="G26" s="58"/>
-      <c r="H26" s="58"/>
-      <c r="I26" s="59"/>
+      <c r="E26" s="60"/>
+      <c r="F26" s="61"/>
+      <c r="G26" s="61"/>
+      <c r="H26" s="61"/>
+      <c r="I26" s="62"/>
     </row>
     <row r="27" spans="1:9" s="43" customFormat="1" ht="12">
       <c r="A27" s="40" t="s">
-        <v>33</v>
+        <v>46</v>
       </c>
       <c r="B27" s="41"/>
       <c r="C27" s="42"/>
@@ -5263,15 +5355,15 @@
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="E27" s="57"/>
-      <c r="F27" s="58"/>
-      <c r="G27" s="58"/>
-      <c r="H27" s="58"/>
-      <c r="I27" s="59"/>
+      <c r="E27" s="60"/>
+      <c r="F27" s="61"/>
+      <c r="G27" s="61"/>
+      <c r="H27" s="61"/>
+      <c r="I27" s="62"/>
     </row>
     <row r="28" spans="1:9" s="43" customFormat="1" ht="12">
       <c r="A28" s="40" t="s">
-        <v>34</v>
+        <v>47</v>
       </c>
       <c r="B28" s="41"/>
       <c r="C28" s="42"/>
@@ -5279,15 +5371,15 @@
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="E28" s="57"/>
-      <c r="F28" s="58"/>
-      <c r="G28" s="58"/>
-      <c r="H28" s="58"/>
-      <c r="I28" s="59"/>
+      <c r="E28" s="60"/>
+      <c r="F28" s="61"/>
+      <c r="G28" s="61"/>
+      <c r="H28" s="61"/>
+      <c r="I28" s="62"/>
     </row>
     <row r="29" spans="1:9" s="51" customFormat="1" ht="12">
       <c r="A29" s="48" t="s">
-        <v>35</v>
+        <v>48</v>
       </c>
       <c r="B29" s="49"/>
       <c r="C29" s="50"/>
@@ -5295,15 +5387,15 @@
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="E29" s="77"/>
-      <c r="F29" s="75"/>
-      <c r="G29" s="75"/>
-      <c r="H29" s="75"/>
-      <c r="I29" s="76"/>
+      <c r="E29" s="57"/>
+      <c r="F29" s="58"/>
+      <c r="G29" s="58"/>
+      <c r="H29" s="58"/>
+      <c r="I29" s="59"/>
     </row>
     <row r="30" spans="1:9" s="51" customFormat="1" ht="12">
       <c r="A30" s="48" t="s">
-        <v>36</v>
+        <v>49</v>
       </c>
       <c r="B30" s="49"/>
       <c r="C30" s="50"/>
@@ -5311,15 +5403,15 @@
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="E30" s="77"/>
-      <c r="F30" s="75"/>
-      <c r="G30" s="75"/>
-      <c r="H30" s="75"/>
-      <c r="I30" s="76"/>
+      <c r="E30" s="57"/>
+      <c r="F30" s="58"/>
+      <c r="G30" s="58"/>
+      <c r="H30" s="58"/>
+      <c r="I30" s="59"/>
     </row>
     <row r="31" spans="1:9" s="43" customFormat="1" ht="12">
       <c r="A31" s="40" t="s">
-        <v>37</v>
+        <v>50</v>
       </c>
       <c r="B31" s="41"/>
       <c r="C31" s="42"/>
@@ -5327,15 +5419,15 @@
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="E31" s="57"/>
-      <c r="F31" s="58"/>
-      <c r="G31" s="58"/>
-      <c r="H31" s="58"/>
-      <c r="I31" s="59"/>
+      <c r="E31" s="60"/>
+      <c r="F31" s="61"/>
+      <c r="G31" s="61"/>
+      <c r="H31" s="61"/>
+      <c r="I31" s="62"/>
     </row>
     <row r="32" spans="1:9" s="43" customFormat="1" ht="12">
       <c r="A32" s="40" t="s">
-        <v>38</v>
+        <v>51</v>
       </c>
       <c r="B32" s="41"/>
       <c r="C32" s="42"/>
@@ -5343,15 +5435,15 @@
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="E32" s="57"/>
-      <c r="F32" s="58"/>
-      <c r="G32" s="58"/>
-      <c r="H32" s="58"/>
-      <c r="I32" s="59"/>
+      <c r="E32" s="60"/>
+      <c r="F32" s="61"/>
+      <c r="G32" s="61"/>
+      <c r="H32" s="61"/>
+      <c r="I32" s="62"/>
     </row>
     <row r="33" spans="1:12" s="43" customFormat="1" ht="12">
       <c r="A33" s="40" t="s">
-        <v>39</v>
+        <v>52</v>
       </c>
       <c r="B33" s="41"/>
       <c r="C33" s="42"/>
@@ -5359,15 +5451,15 @@
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="E33" s="57"/>
-      <c r="F33" s="58"/>
-      <c r="G33" s="58"/>
-      <c r="H33" s="58"/>
-      <c r="I33" s="59"/>
+      <c r="E33" s="60"/>
+      <c r="F33" s="61"/>
+      <c r="G33" s="61"/>
+      <c r="H33" s="61"/>
+      <c r="I33" s="62"/>
     </row>
     <row r="34" spans="1:12" s="43" customFormat="1" ht="12">
       <c r="A34" s="40" t="s">
-        <v>40</v>
+        <v>53</v>
       </c>
       <c r="B34" s="41"/>
       <c r="C34" s="42"/>
@@ -5375,15 +5467,15 @@
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="E34" s="57"/>
-      <c r="F34" s="58"/>
-      <c r="G34" s="58"/>
-      <c r="H34" s="58"/>
-      <c r="I34" s="59"/>
+      <c r="E34" s="60"/>
+      <c r="F34" s="61"/>
+      <c r="G34" s="61"/>
+      <c r="H34" s="61"/>
+      <c r="I34" s="62"/>
     </row>
     <row r="35" spans="1:12" s="43" customFormat="1" ht="12">
       <c r="A35" s="40" t="s">
-        <v>41</v>
+        <v>54</v>
       </c>
       <c r="B35" s="41"/>
       <c r="C35" s="42"/>
@@ -5391,15 +5483,15 @@
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="E35" s="57"/>
-      <c r="F35" s="58"/>
-      <c r="G35" s="58"/>
-      <c r="H35" s="58"/>
-      <c r="I35" s="59"/>
+      <c r="E35" s="60"/>
+      <c r="F35" s="61"/>
+      <c r="G35" s="61"/>
+      <c r="H35" s="61"/>
+      <c r="I35" s="62"/>
     </row>
     <row r="36" spans="1:12" s="51" customFormat="1" ht="12">
       <c r="A36" s="48" t="s">
-        <v>42</v>
+        <v>55</v>
       </c>
       <c r="B36" s="49"/>
       <c r="C36" s="50"/>
@@ -5407,15 +5499,15 @@
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="E36" s="77"/>
-      <c r="F36" s="75"/>
-      <c r="G36" s="75"/>
-      <c r="H36" s="75"/>
-      <c r="I36" s="76"/>
+      <c r="E36" s="57"/>
+      <c r="F36" s="58"/>
+      <c r="G36" s="58"/>
+      <c r="H36" s="58"/>
+      <c r="I36" s="59"/>
     </row>
     <row r="37" spans="1:12" s="51" customFormat="1" ht="12">
       <c r="A37" s="48" t="s">
-        <v>43</v>
+        <v>56</v>
       </c>
       <c r="B37" s="49"/>
       <c r="C37" s="50"/>
@@ -5423,15 +5515,15 @@
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="E37" s="77"/>
-      <c r="F37" s="75"/>
-      <c r="G37" s="75"/>
-      <c r="H37" s="75"/>
-      <c r="I37" s="76"/>
+      <c r="E37" s="57"/>
+      <c r="F37" s="58"/>
+      <c r="G37" s="58"/>
+      <c r="H37" s="58"/>
+      <c r="I37" s="59"/>
     </row>
     <row r="38" spans="1:12" s="43" customFormat="1" ht="12">
       <c r="A38" s="40" t="s">
-        <v>44</v>
+        <v>57</v>
       </c>
       <c r="B38" s="41"/>
       <c r="C38" s="42"/>
@@ -5439,15 +5531,15 @@
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="E38" s="57"/>
-      <c r="F38" s="58"/>
-      <c r="G38" s="58"/>
-      <c r="H38" s="58"/>
-      <c r="I38" s="59"/>
+      <c r="E38" s="60"/>
+      <c r="F38" s="61"/>
+      <c r="G38" s="61"/>
+      <c r="H38" s="61"/>
+      <c r="I38" s="62"/>
     </row>
     <row r="39" spans="1:12" s="43" customFormat="1" ht="12">
       <c r="A39" s="40" t="s">
-        <v>45</v>
+        <v>58</v>
       </c>
       <c r="B39" s="41"/>
       <c r="C39" s="42"/>
@@ -5455,15 +5547,15 @@
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="E39" s="57"/>
-      <c r="F39" s="58"/>
-      <c r="G39" s="58"/>
-      <c r="H39" s="58"/>
-      <c r="I39" s="59"/>
+      <c r="E39" s="60"/>
+      <c r="F39" s="61"/>
+      <c r="G39" s="61"/>
+      <c r="H39" s="61"/>
+      <c r="I39" s="62"/>
     </row>
     <row r="40" spans="1:12" s="43" customFormat="1" ht="12">
       <c r="A40" s="40" t="s">
-        <v>46</v>
+        <v>59</v>
       </c>
       <c r="B40" s="41"/>
       <c r="C40" s="42"/>
@@ -5471,15 +5563,15 @@
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="E40" s="57"/>
-      <c r="F40" s="58"/>
-      <c r="G40" s="58"/>
-      <c r="H40" s="58"/>
-      <c r="I40" s="59"/>
+      <c r="E40" s="60"/>
+      <c r="F40" s="61"/>
+      <c r="G40" s="61"/>
+      <c r="H40" s="61"/>
+      <c r="I40" s="62"/>
     </row>
     <row r="41" spans="1:12" s="43" customFormat="1" ht="12">
       <c r="A41" s="40" t="s">
-        <v>47</v>
+        <v>60</v>
       </c>
       <c r="B41" s="41"/>
       <c r="C41" s="42"/>
@@ -5487,15 +5579,15 @@
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="E41" s="57"/>
-      <c r="F41" s="58"/>
-      <c r="G41" s="58"/>
-      <c r="H41" s="58"/>
-      <c r="I41" s="59"/>
+      <c r="E41" s="60"/>
+      <c r="F41" s="61"/>
+      <c r="G41" s="61"/>
+      <c r="H41" s="61"/>
+      <c r="I41" s="62"/>
     </row>
     <row r="42" spans="1:12" s="43" customFormat="1" ht="12">
       <c r="A42" s="40" t="s">
-        <v>48</v>
+        <v>61</v>
       </c>
       <c r="B42" s="41"/>
       <c r="C42" s="42"/>
@@ -5503,15 +5595,15 @@
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="E42" s="57"/>
-      <c r="F42" s="58"/>
-      <c r="G42" s="58"/>
-      <c r="H42" s="58"/>
-      <c r="I42" s="59"/>
+      <c r="E42" s="60"/>
+      <c r="F42" s="61"/>
+      <c r="G42" s="61"/>
+      <c r="H42" s="61"/>
+      <c r="I42" s="62"/>
     </row>
     <row r="43" spans="1:12" s="51" customFormat="1" ht="12">
       <c r="A43" s="48" t="s">
-        <v>49</v>
+        <v>62</v>
       </c>
       <c r="B43" s="49"/>
       <c r="C43" s="50"/>
@@ -5519,15 +5611,15 @@
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="E43" s="77"/>
-      <c r="F43" s="75"/>
-      <c r="G43" s="75"/>
-      <c r="H43" s="75"/>
-      <c r="I43" s="76"/>
+      <c r="E43" s="57"/>
+      <c r="F43" s="58"/>
+      <c r="G43" s="58"/>
+      <c r="H43" s="58"/>
+      <c r="I43" s="59"/>
     </row>
     <row r="44" spans="1:12" s="51" customFormat="1" ht="12">
       <c r="A44" s="48" t="s">
-        <v>50</v>
+        <v>63</v>
       </c>
       <c r="B44" s="49"/>
       <c r="C44" s="50"/>
@@ -5535,15 +5627,15 @@
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="E44" s="77"/>
-      <c r="F44" s="75"/>
-      <c r="G44" s="75"/>
-      <c r="H44" s="75"/>
-      <c r="I44" s="76"/>
+      <c r="E44" s="57"/>
+      <c r="F44" s="58"/>
+      <c r="G44" s="58"/>
+      <c r="H44" s="58"/>
+      <c r="I44" s="59"/>
     </row>
     <row r="45" spans="1:12" s="39" customFormat="1" ht="12">
       <c r="A45" s="36" t="s">
-        <v>51</v>
+        <v>64</v>
       </c>
       <c r="B45" s="37"/>
       <c r="C45" s="38"/>
@@ -5559,7 +5651,7 @@
     </row>
     <row r="46" spans="1:12" s="39" customFormat="1" ht="12">
       <c r="A46" s="36" t="s">
-        <v>67</v>
+        <v>80</v>
       </c>
       <c r="B46" s="37"/>
       <c r="C46" s="38"/>
@@ -5603,6 +5695,44 @@
     </row>
   </sheetData>
   <mergeCells count="51">
+    <mergeCell ref="A1:I1"/>
+    <mergeCell ref="A2:I2"/>
+    <mergeCell ref="A3:H3"/>
+    <mergeCell ref="A4:I4"/>
+    <mergeCell ref="A5:C5"/>
+    <mergeCell ref="D5:H5"/>
+    <mergeCell ref="A6:I6"/>
+    <mergeCell ref="A7:C7"/>
+    <mergeCell ref="D7:H7"/>
+    <mergeCell ref="A8:I8"/>
+    <mergeCell ref="A9:C9"/>
+    <mergeCell ref="D9:H9"/>
+    <mergeCell ref="A10:I10"/>
+    <mergeCell ref="A13:A15"/>
+    <mergeCell ref="B13:I13"/>
+    <mergeCell ref="B14:C14"/>
+    <mergeCell ref="D14:D15"/>
+    <mergeCell ref="E14:I15"/>
+    <mergeCell ref="E16:I16"/>
+    <mergeCell ref="E17:I17"/>
+    <mergeCell ref="E18:I18"/>
+    <mergeCell ref="E19:I19"/>
+    <mergeCell ref="E20:I20"/>
+    <mergeCell ref="E21:I21"/>
+    <mergeCell ref="E22:I22"/>
+    <mergeCell ref="E23:I23"/>
+    <mergeCell ref="E24:I24"/>
+    <mergeCell ref="E25:I25"/>
+    <mergeCell ref="E26:I26"/>
+    <mergeCell ref="E27:I27"/>
+    <mergeCell ref="E28:I28"/>
+    <mergeCell ref="E29:I29"/>
+    <mergeCell ref="E30:I30"/>
+    <mergeCell ref="E31:I31"/>
+    <mergeCell ref="E32:I32"/>
+    <mergeCell ref="E33:I33"/>
+    <mergeCell ref="E34:I34"/>
+    <mergeCell ref="E35:I35"/>
     <mergeCell ref="E36:I36"/>
     <mergeCell ref="E37:I37"/>
     <mergeCell ref="E38:I38"/>
@@ -5616,44 +5746,6 @@
     <mergeCell ref="E44:I44"/>
     <mergeCell ref="E46:I46"/>
     <mergeCell ref="E45:I45"/>
-    <mergeCell ref="E31:I31"/>
-    <mergeCell ref="E32:I32"/>
-    <mergeCell ref="E33:I33"/>
-    <mergeCell ref="E34:I34"/>
-    <mergeCell ref="E35:I35"/>
-    <mergeCell ref="E26:I26"/>
-    <mergeCell ref="E27:I27"/>
-    <mergeCell ref="E28:I28"/>
-    <mergeCell ref="E29:I29"/>
-    <mergeCell ref="E30:I30"/>
-    <mergeCell ref="E21:I21"/>
-    <mergeCell ref="E22:I22"/>
-    <mergeCell ref="E23:I23"/>
-    <mergeCell ref="E24:I24"/>
-    <mergeCell ref="E25:I25"/>
-    <mergeCell ref="E16:I16"/>
-    <mergeCell ref="E17:I17"/>
-    <mergeCell ref="E18:I18"/>
-    <mergeCell ref="E19:I19"/>
-    <mergeCell ref="E20:I20"/>
-    <mergeCell ref="A10:I10"/>
-    <mergeCell ref="A13:A15"/>
-    <mergeCell ref="B13:I13"/>
-    <mergeCell ref="B14:C14"/>
-    <mergeCell ref="D14:D15"/>
-    <mergeCell ref="E14:I15"/>
-    <mergeCell ref="A6:I6"/>
-    <mergeCell ref="A7:C7"/>
-    <mergeCell ref="D7:H7"/>
-    <mergeCell ref="A8:I8"/>
-    <mergeCell ref="A9:C9"/>
-    <mergeCell ref="D9:H9"/>
-    <mergeCell ref="A1:I1"/>
-    <mergeCell ref="A2:I2"/>
-    <mergeCell ref="A3:H3"/>
-    <mergeCell ref="A4:I4"/>
-    <mergeCell ref="A5:C5"/>
-    <mergeCell ref="D5:H5"/>
   </mergeCells>
   <phoneticPr fontId="32" type="noConversion"/>
   <printOptions horizontalCentered="1"/>

--- a/TimeSheetTemplate.xlsx
+++ b/TimeSheetTemplate.xlsx
@@ -17,7 +17,7 @@
     <definedName name="M_satz">#REF!</definedName>
     <definedName name="_xlnm.Print_Area" localSheetId="2">December!$A$1:$L$48</definedName>
     <definedName name="_xlnm.Print_Area" localSheetId="3">January!$A$1:$L$48</definedName>
-    <definedName name="_xlnm.Print_Area" localSheetId="1">November!$A$1:$L$49</definedName>
+    <definedName name="_xlnm.Print_Area" localSheetId="1">November!$A$1:$L$50</definedName>
     <definedName name="_xlnm.Print_Area" localSheetId="0">October!$A$1:$I$51</definedName>
     <definedName name="_xlnm.Print_Titles" localSheetId="2">December!$16:$17</definedName>
     <definedName name="_xlnm.Print_Titles" localSheetId="3">January!$16:$17</definedName>
@@ -36,193 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="204" uniqueCount="82">
-  <si>
-    <t>Windows 10 (Solved!), complete clean install, upload to git, merge script versions</t>
-    <phoneticPr fontId="32" type="noConversion"/>
-  </si>
-  <si>
-    <t>Meeting with Dirk and Martin</t>
-    <phoneticPr fontId="32" type="noConversion"/>
-  </si>
-  <si>
-    <t>Read Articles from Dirk</t>
-    <phoneticPr fontId="32" type="noConversion"/>
-  </si>
-  <si>
-    <t>Adjust Download script to SciHub and new size structure</t>
-    <phoneticPr fontId="32" type="noConversion"/>
-  </si>
-  <si>
-    <t>Read slides from previous week</t>
-    <phoneticPr fontId="32" type="noConversion"/>
-  </si>
-  <si>
-    <t>Set up timesheet</t>
-    <phoneticPr fontId="32" type="noConversion"/>
-  </si>
-  <si>
-    <t>Meeting with I3 Professors and editing abstract, incl. travel time</t>
-    <phoneticPr fontId="32" type="noConversion"/>
-  </si>
-  <si>
-    <t>Troubleshoot Windows 10 crash (5 hours personal time)</t>
-    <phoneticPr fontId="32" type="noConversion"/>
-  </si>
-  <si>
-    <t>Plan out Pecha Kucha Slides</t>
-    <phoneticPr fontId="32" type="noConversion"/>
-  </si>
-  <si>
-    <t>Work on download script issues</t>
-    <phoneticPr fontId="32" type="noConversion"/>
-  </si>
-  <si>
-    <t>Create Pecha Kucha Presentation</t>
-    <phoneticPr fontId="32" type="noConversion"/>
-  </si>
-  <si>
-    <t>Practice Pecha Kucha // make changes</t>
-    <phoneticPr fontId="32" type="noConversion"/>
-  </si>
-  <si>
-    <t>In Class: Give Pecha Kucha Presentation</t>
-    <phoneticPr fontId="32" type="noConversion"/>
-  </si>
-  <si>
-    <t>I3 class and update meeting</t>
-    <phoneticPr fontId="32" type="noConversion"/>
-  </si>
-  <si>
-    <t>Python docs -- brainstorming solutions for all scripts</t>
-    <phoneticPr fontId="32" type="noConversion"/>
-  </si>
-  <si>
-    <t xml:space="preserve">Monthly timesheet for MSc Geoinformatics IP </t>
-    <phoneticPr fontId="32" type="noConversion"/>
-  </si>
-  <si>
-    <t>Set up Landsat image transfer (~70 images) for possible use case with Martin inc</t>
-    <phoneticPr fontId="32" type="noConversion"/>
-  </si>
-  <si>
-    <t>Project Management class, part II</t>
-    <phoneticPr fontId="32" type="noConversion"/>
-  </si>
-  <si>
-    <t>Work on first draft of Risk Matrix, Gantt and PERT Charts in ProjectLibre</t>
-    <phoneticPr fontId="32" type="noConversion"/>
-  </si>
-  <si>
-    <t>Learn Git, create GitHub repository, including excel documents</t>
-    <phoneticPr fontId="32" type="noConversion"/>
-  </si>
-  <si>
-    <t>ProjectLibre Tutorials and improving charts</t>
-    <phoneticPr fontId="32" type="noConversion"/>
-  </si>
-  <si>
-    <t>Sort out problem with Python on Mac (Canopy software deinstallation)</t>
-    <phoneticPr fontId="32" type="noConversion"/>
-  </si>
-  <si>
-    <t>Python Tutorial</t>
-    <phoneticPr fontId="32" type="noConversion"/>
-  </si>
-  <si>
-    <t>Python Tutorial</t>
-    <phoneticPr fontId="32" type="noConversion"/>
-  </si>
-  <si>
-    <t>Developing possible use-case during Hackathon, with Martin Sudmanns and team</t>
-    <phoneticPr fontId="32" type="noConversion"/>
-  </si>
-  <si>
-    <t>CLI CodeAcademy course; introduction to Git</t>
-    <phoneticPr fontId="32" type="noConversion"/>
-  </si>
-  <si>
-    <t>Read Processing scripts, brainstorm solutions</t>
-    <phoneticPr fontId="32" type="noConversion"/>
-  </si>
-  <si>
-    <t>Work on extended abstract -- mostly citations in Zotero</t>
-    <phoneticPr fontId="32" type="noConversion"/>
-  </si>
-  <si>
-    <t>Work on extended abstract</t>
-    <phoneticPr fontId="32" type="noConversion"/>
-  </si>
-  <si>
-    <t>Acquire preprocessing scripts from Tiede and briefly skim them for further questions</t>
-    <phoneticPr fontId="32" type="noConversion"/>
-  </si>
-  <si>
-    <t>Day</t>
-  </si>
-  <si>
-    <t>Time</t>
-  </si>
-  <si>
-    <t>Hours</t>
-  </si>
-  <si>
-    <t>(from)</t>
-  </si>
-  <si>
-    <t>(to)</t>
-  </si>
-  <si>
-    <t>1.</t>
-  </si>
-  <si>
-    <t>2.</t>
-  </si>
-  <si>
-    <t>3.</t>
-  </si>
-  <si>
-    <t>4.</t>
-  </si>
-  <si>
-    <t>5.</t>
-  </si>
-  <si>
-    <t>6.</t>
-  </si>
-  <si>
-    <t>7.</t>
-  </si>
-  <si>
-    <t>8.</t>
-  </si>
-  <si>
-    <t>9.</t>
-  </si>
-  <si>
-    <t>10.</t>
-  </si>
-  <si>
-    <t>11.</t>
-  </si>
-  <si>
-    <t>12.</t>
-  </si>
-  <si>
-    <t>13.</t>
-  </si>
-  <si>
-    <t>14.</t>
-  </si>
-  <si>
-    <t>15.</t>
-  </si>
-  <si>
-    <t>16.</t>
-  </si>
-  <si>
-    <t>17.</t>
-  </si>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="205" uniqueCount="84">
   <si>
     <t>18.</t>
   </si>
@@ -328,6 +142,200 @@
   <si>
     <t>First Meeting</t>
     <phoneticPr fontId="32" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">Monthly timesheet for MSc Geoinformatics IP </t>
+    <phoneticPr fontId="32" type="noConversion"/>
+  </si>
+  <si>
+    <t>Pecha Kucha preparation and presentation</t>
+    <phoneticPr fontId="32" type="noConversion"/>
+  </si>
+  <si>
+    <t>Troubleshoot Download script</t>
+    <phoneticPr fontId="32" type="noConversion"/>
+  </si>
+  <si>
+    <t>Create Pecha Kucha Presentation Outline</t>
+    <phoneticPr fontId="32" type="noConversion"/>
+  </si>
+  <si>
+    <t>Query tile's XML files and ability to find a tile's center point from the ESA KML file</t>
+    <phoneticPr fontId="32" type="noConversion"/>
+  </si>
+  <si>
+    <t>Windows 10 (Solved!), complete clean install, upload to git, merge script versions</t>
+    <phoneticPr fontId="32" type="noConversion"/>
+  </si>
+  <si>
+    <t>Meeting with Dirk and Martin</t>
+    <phoneticPr fontId="32" type="noConversion"/>
+  </si>
+  <si>
+    <t>Read Articles from Dirk</t>
+    <phoneticPr fontId="32" type="noConversion"/>
+  </si>
+  <si>
+    <t>Adjust Download script to SciHub and new size structure</t>
+    <phoneticPr fontId="32" type="noConversion"/>
+  </si>
+  <si>
+    <t>Read slides from previous week</t>
+    <phoneticPr fontId="32" type="noConversion"/>
+  </si>
+  <si>
+    <t>Set up timesheet</t>
+    <phoneticPr fontId="32" type="noConversion"/>
+  </si>
+  <si>
+    <t>Meeting with I3 Professors and editing abstract, incl. travel time</t>
+    <phoneticPr fontId="32" type="noConversion"/>
+  </si>
+  <si>
+    <t>Troubleshoot Windows 10 crash (5 hours personal time)</t>
+    <phoneticPr fontId="32" type="noConversion"/>
+  </si>
+  <si>
+    <t>Plan out Pecha Kucha Slides</t>
+    <phoneticPr fontId="32" type="noConversion"/>
+  </si>
+  <si>
+    <t>Work on download script issues</t>
+    <phoneticPr fontId="32" type="noConversion"/>
+  </si>
+  <si>
+    <t>I3 class and update meeting</t>
+    <phoneticPr fontId="32" type="noConversion"/>
+  </si>
+  <si>
+    <t>Python docs -- brainstorming solutions for all scripts</t>
+    <phoneticPr fontId="32" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">Monthly timesheet for MSc Geoinformatics IP </t>
+    <phoneticPr fontId="32" type="noConversion"/>
+  </si>
+  <si>
+    <t>Set up Landsat image transfer (~70 images) for possible use case with Martin inc</t>
+    <phoneticPr fontId="32" type="noConversion"/>
+  </si>
+  <si>
+    <t>Project Management class, part II</t>
+    <phoneticPr fontId="32" type="noConversion"/>
+  </si>
+  <si>
+    <t>Work on first draft of Risk Matrix, Gantt and PERT Charts in ProjectLibre</t>
+    <phoneticPr fontId="32" type="noConversion"/>
+  </si>
+  <si>
+    <t>Learn Git, create GitHub repository, including excel documents</t>
+    <phoneticPr fontId="32" type="noConversion"/>
+  </si>
+  <si>
+    <t>ProjectLibre Tutorials and improving charts</t>
+    <phoneticPr fontId="32" type="noConversion"/>
+  </si>
+  <si>
+    <t>Sort out problem with Python on Mac (Canopy software deinstallation)</t>
+    <phoneticPr fontId="32" type="noConversion"/>
+  </si>
+  <si>
+    <t>Python Tutorial</t>
+    <phoneticPr fontId="32" type="noConversion"/>
+  </si>
+  <si>
+    <t>Python Tutorial</t>
+    <phoneticPr fontId="32" type="noConversion"/>
+  </si>
+  <si>
+    <t>Developing possible use-case during Hackathon, with Martin Sudmanns and team</t>
+    <phoneticPr fontId="32" type="noConversion"/>
+  </si>
+  <si>
+    <t>CLI CodeAcademy course; introduction to Git</t>
+    <phoneticPr fontId="32" type="noConversion"/>
+  </si>
+  <si>
+    <t>Read Processing scripts, brainstorm solutions</t>
+    <phoneticPr fontId="32" type="noConversion"/>
+  </si>
+  <si>
+    <t>Work on extended abstract -- mostly citations in Zotero</t>
+    <phoneticPr fontId="32" type="noConversion"/>
+  </si>
+  <si>
+    <t>Work on extended abstract</t>
+    <phoneticPr fontId="32" type="noConversion"/>
+  </si>
+  <si>
+    <t>Acquire preprocessing scripts from Tiede and briefly skim them for further questions</t>
+    <phoneticPr fontId="32" type="noConversion"/>
+  </si>
+  <si>
+    <t>Day</t>
+  </si>
+  <si>
+    <t>Time</t>
+  </si>
+  <si>
+    <t>Hours</t>
+  </si>
+  <si>
+    <t>(from)</t>
+  </si>
+  <si>
+    <t>(to)</t>
+  </si>
+  <si>
+    <t>1.</t>
+  </si>
+  <si>
+    <t>2.</t>
+  </si>
+  <si>
+    <t>3.</t>
+  </si>
+  <si>
+    <t>4.</t>
+  </si>
+  <si>
+    <t>5.</t>
+  </si>
+  <si>
+    <t>6.</t>
+  </si>
+  <si>
+    <t>7.</t>
+  </si>
+  <si>
+    <t>8.</t>
+  </si>
+  <si>
+    <t>9.</t>
+  </si>
+  <si>
+    <t>10.</t>
+  </si>
+  <si>
+    <t>11.</t>
+  </si>
+  <si>
+    <t>12.</t>
+  </si>
+  <si>
+    <t>13.</t>
+  </si>
+  <si>
+    <t>14.</t>
+  </si>
+  <si>
+    <t>15.</t>
+  </si>
+  <si>
+    <t>16.</t>
+  </si>
+  <si>
+    <t>17.</t>
   </si>
 </sst>
 </file>
@@ -1238,7 +1246,58 @@
     <xf numFmtId="166" fontId="0" fillId="0" borderId="20" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="166" fontId="0" fillId="0" borderId="11" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="166" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="24" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="24" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="25" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="26" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="4" borderId="24" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="25" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -1247,26 +1306,7 @@
     <xf numFmtId="0" fontId="0" fillId="4" borderId="26" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="24" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="25" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="26" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1"/>
-    </xf>
-    <xf numFmtId="167" fontId="10" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="167" fontId="10" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="167" fontId="11" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="167" fontId="11" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="5" fillId="4" borderId="24" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="24" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="10" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -1315,48 +1355,16 @@
     <xf numFmtId="0" fontId="10" fillId="0" borderId="23" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="167" fontId="10" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1"/>
-    </xf>
+    <xf numFmtId="167" fontId="10" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="167" fontId="11" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="167" fontId="11" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="167" fontId="11" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -1840,17 +1848,17 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:50" s="7" customFormat="1" ht="18" thickBot="1">
-      <c r="A1" s="84" t="s">
-        <v>15</v>
-      </c>
-      <c r="B1" s="84"/>
-      <c r="C1" s="84"/>
-      <c r="D1" s="84"/>
-      <c r="E1" s="84"/>
-      <c r="F1" s="84"/>
-      <c r="G1" s="84"/>
-      <c r="H1" s="84"/>
-      <c r="I1" s="84"/>
+      <c r="A1" s="66" t="s">
+        <v>47</v>
+      </c>
+      <c r="B1" s="66"/>
+      <c r="C1" s="66"/>
+      <c r="D1" s="66"/>
+      <c r="E1" s="66"/>
+      <c r="F1" s="66"/>
+      <c r="G1" s="66"/>
+      <c r="H1" s="66"/>
+      <c r="I1" s="66"/>
       <c r="J1" s="8"/>
       <c r="K1" s="8"/>
       <c r="L1" s="8"/>
@@ -1893,15 +1901,15 @@
       <c r="AW1" s="8"/>
     </row>
     <row r="2" spans="1:50" s="1" customFormat="1" ht="7.5" customHeight="1">
-      <c r="A2" s="85"/>
-      <c r="B2" s="85"/>
-      <c r="C2" s="85"/>
-      <c r="D2" s="85"/>
-      <c r="E2" s="85"/>
-      <c r="F2" s="85"/>
-      <c r="G2" s="85"/>
-      <c r="H2" s="85"/>
-      <c r="I2" s="85"/>
+      <c r="A2" s="67"/>
+      <c r="B2" s="67"/>
+      <c r="C2" s="67"/>
+      <c r="D2" s="67"/>
+      <c r="E2" s="67"/>
+      <c r="F2" s="67"/>
+      <c r="G2" s="67"/>
+      <c r="H2" s="67"/>
+      <c r="I2" s="67"/>
       <c r="J2" s="9"/>
       <c r="K2" s="9"/>
       <c r="L2" s="9"/>
@@ -1944,16 +1952,16 @@
       <c r="AW2" s="9"/>
     </row>
     <row r="3" spans="1:50" s="11" customFormat="1" ht="13.5" customHeight="1">
-      <c r="A3" s="86" t="s">
-        <v>72</v>
-      </c>
-      <c r="B3" s="86"/>
-      <c r="C3" s="86"/>
-      <c r="D3" s="86"/>
-      <c r="E3" s="86"/>
-      <c r="F3" s="86"/>
-      <c r="G3" s="86"/>
-      <c r="H3" s="86"/>
+      <c r="A3" s="68" t="s">
+        <v>20</v>
+      </c>
+      <c r="B3" s="68"/>
+      <c r="C3" s="68"/>
+      <c r="D3" s="68"/>
+      <c r="E3" s="68"/>
+      <c r="F3" s="68"/>
+      <c r="G3" s="68"/>
+      <c r="H3" s="68"/>
       <c r="I3" s="23"/>
       <c r="J3" s="22"/>
       <c r="K3" s="22"/>
@@ -1998,29 +2006,29 @@
       <c r="AX3" s="10"/>
     </row>
     <row r="4" spans="1:50" s="6" customFormat="1" ht="9" customHeight="1">
-      <c r="A4" s="87"/>
-      <c r="B4" s="87"/>
-      <c r="C4" s="87"/>
-      <c r="D4" s="87"/>
-      <c r="E4" s="87"/>
-      <c r="F4" s="87"/>
-      <c r="G4" s="87"/>
-      <c r="H4" s="87"/>
-      <c r="I4" s="87"/>
+      <c r="A4" s="69"/>
+      <c r="B4" s="69"/>
+      <c r="C4" s="69"/>
+      <c r="D4" s="69"/>
+      <c r="E4" s="69"/>
+      <c r="F4" s="69"/>
+      <c r="G4" s="69"/>
+      <c r="H4" s="69"/>
+      <c r="I4" s="69"/>
     </row>
     <row r="5" spans="1:50" s="1" customFormat="1" ht="13.75" customHeight="1">
-      <c r="A5" s="94" t="s">
-        <v>69</v>
-      </c>
-      <c r="B5" s="95"/>
-      <c r="C5" s="95"/>
-      <c r="D5" s="90" t="s">
-        <v>75</v>
-      </c>
-      <c r="E5" s="91"/>
-      <c r="F5" s="91"/>
-      <c r="G5" s="91"/>
-      <c r="H5" s="92"/>
+      <c r="A5" s="62" t="s">
+        <v>17</v>
+      </c>
+      <c r="B5" s="63"/>
+      <c r="C5" s="63"/>
+      <c r="D5" s="58" t="s">
+        <v>23</v>
+      </c>
+      <c r="E5" s="59"/>
+      <c r="F5" s="59"/>
+      <c r="G5" s="59"/>
+      <c r="H5" s="60"/>
       <c r="I5" s="23"/>
       <c r="J5" s="9"/>
       <c r="K5" s="9"/>
@@ -2028,77 +2036,77 @@
       <c r="M5" s="9"/>
     </row>
     <row r="6" spans="1:50" s="1" customFormat="1" ht="7.5" customHeight="1">
-      <c r="A6" s="96"/>
-      <c r="B6" s="96"/>
-      <c r="C6" s="96"/>
-      <c r="D6" s="96"/>
-      <c r="E6" s="96"/>
-      <c r="F6" s="96"/>
-      <c r="G6" s="96"/>
-      <c r="H6" s="96"/>
-      <c r="I6" s="96"/>
+      <c r="A6" s="64"/>
+      <c r="B6" s="64"/>
+      <c r="C6" s="64"/>
+      <c r="D6" s="64"/>
+      <c r="E6" s="64"/>
+      <c r="F6" s="64"/>
+      <c r="G6" s="64"/>
+      <c r="H6" s="64"/>
+      <c r="I6" s="64"/>
     </row>
     <row r="7" spans="1:50" s="1" customFormat="1" ht="13.75" customHeight="1">
-      <c r="A7" s="89" t="s">
-        <v>73</v>
-      </c>
-      <c r="B7" s="89"/>
-      <c r="C7" s="89"/>
-      <c r="D7" s="97" t="s">
-        <v>76</v>
-      </c>
-      <c r="E7" s="97"/>
-      <c r="F7" s="97"/>
-      <c r="G7" s="97"/>
-      <c r="H7" s="97"/>
+      <c r="A7" s="57" t="s">
+        <v>21</v>
+      </c>
+      <c r="B7" s="57"/>
+      <c r="C7" s="57"/>
+      <c r="D7" s="65" t="s">
+        <v>24</v>
+      </c>
+      <c r="E7" s="65"/>
+      <c r="F7" s="65"/>
+      <c r="G7" s="65"/>
+      <c r="H7" s="65"/>
       <c r="I7" s="24"/>
     </row>
     <row r="8" spans="1:50" s="1" customFormat="1" ht="7.5" customHeight="1">
-      <c r="A8" s="88"/>
-      <c r="B8" s="88"/>
-      <c r="C8" s="88"/>
-      <c r="D8" s="88"/>
-      <c r="E8" s="88"/>
-      <c r="F8" s="88"/>
-      <c r="G8" s="88"/>
-      <c r="H8" s="88"/>
-      <c r="I8" s="88"/>
+      <c r="A8" s="70"/>
+      <c r="B8" s="70"/>
+      <c r="C8" s="70"/>
+      <c r="D8" s="70"/>
+      <c r="E8" s="70"/>
+      <c r="F8" s="70"/>
+      <c r="G8" s="70"/>
+      <c r="H8" s="70"/>
+      <c r="I8" s="70"/>
     </row>
     <row r="9" spans="1:50" s="1" customFormat="1" ht="13.75" customHeight="1">
-      <c r="A9" s="89" t="s">
-        <v>74</v>
-      </c>
-      <c r="B9" s="89"/>
-      <c r="C9" s="89"/>
-      <c r="D9" s="90" t="s">
-        <v>77</v>
-      </c>
-      <c r="E9" s="91"/>
-      <c r="F9" s="91"/>
-      <c r="G9" s="91"/>
-      <c r="H9" s="92"/>
+      <c r="A9" s="57" t="s">
+        <v>22</v>
+      </c>
+      <c r="B9" s="57"/>
+      <c r="C9" s="57"/>
+      <c r="D9" s="58" t="s">
+        <v>25</v>
+      </c>
+      <c r="E9" s="59"/>
+      <c r="F9" s="59"/>
+      <c r="G9" s="59"/>
+      <c r="H9" s="60"/>
       <c r="I9" s="24"/>
       <c r="J9" s="15"/>
     </row>
     <row r="10" spans="1:50" s="1" customFormat="1" ht="7.5" customHeight="1">
-      <c r="A10" s="93"/>
-      <c r="B10" s="93"/>
-      <c r="C10" s="93"/>
-      <c r="D10" s="93"/>
-      <c r="E10" s="93"/>
-      <c r="F10" s="93"/>
-      <c r="G10" s="93"/>
-      <c r="H10" s="93"/>
-      <c r="I10" s="93"/>
+      <c r="A10" s="61"/>
+      <c r="B10" s="61"/>
+      <c r="C10" s="61"/>
+      <c r="D10" s="61"/>
+      <c r="E10" s="61"/>
+      <c r="F10" s="61"/>
+      <c r="G10" s="61"/>
+      <c r="H10" s="61"/>
+      <c r="I10" s="61"/>
     </row>
     <row r="11" spans="1:50" s="1" customFormat="1" ht="12">
       <c r="A11" s="21" t="s">
-        <v>70</v>
+        <v>18</v>
       </c>
       <c r="B11" s="21"/>
       <c r="C11" s="21"/>
       <c r="D11" s="21" t="s">
-        <v>78</v>
+        <v>26</v>
       </c>
       <c r="E11" s="21"/>
       <c r="F11" s="21"/>
@@ -2118,55 +2126,55 @@
       <c r="I12" s="26"/>
     </row>
     <row r="13" spans="1:50" s="2" customFormat="1" ht="15.5" customHeight="1">
-      <c r="A13" s="68" t="s">
-        <v>30</v>
-      </c>
-      <c r="B13" s="71" t="s">
+      <c r="A13" s="78" t="s">
+        <v>62</v>
+      </c>
+      <c r="B13" s="81" t="s">
+        <v>14</v>
+      </c>
+      <c r="C13" s="82"/>
+      <c r="D13" s="82"/>
+      <c r="E13" s="82"/>
+      <c r="F13" s="82"/>
+      <c r="G13" s="82"/>
+      <c r="H13" s="82"/>
+      <c r="I13" s="83"/>
+    </row>
+    <row r="14" spans="1:50" s="2" customFormat="1" ht="13.75" customHeight="1">
+      <c r="A14" s="79"/>
+      <c r="B14" s="84" t="s">
+        <v>63</v>
+      </c>
+      <c r="C14" s="85"/>
+      <c r="D14" s="86" t="s">
+        <v>64</v>
+      </c>
+      <c r="E14" s="88" t="s">
+        <v>15</v>
+      </c>
+      <c r="F14" s="89"/>
+      <c r="G14" s="89"/>
+      <c r="H14" s="89"/>
+      <c r="I14" s="90"/>
+    </row>
+    <row r="15" spans="1:50" ht="13" customHeight="1">
+      <c r="A15" s="80"/>
+      <c r="B15" s="32" t="s">
+        <v>65</v>
+      </c>
+      <c r="C15" s="33" t="s">
         <v>66</v>
       </c>
-      <c r="C13" s="72"/>
-      <c r="D13" s="72"/>
-      <c r="E13" s="72"/>
-      <c r="F13" s="72"/>
-      <c r="G13" s="72"/>
-      <c r="H13" s="72"/>
-      <c r="I13" s="73"/>
-    </row>
-    <row r="14" spans="1:50" s="2" customFormat="1" ht="13.75" customHeight="1">
-      <c r="A14" s="69"/>
-      <c r="B14" s="74" t="s">
-        <v>31</v>
-      </c>
-      <c r="C14" s="75"/>
-      <c r="D14" s="76" t="s">
-        <v>32</v>
-      </c>
-      <c r="E14" s="78" t="s">
-        <v>67</v>
-      </c>
-      <c r="F14" s="79"/>
-      <c r="G14" s="79"/>
-      <c r="H14" s="79"/>
-      <c r="I14" s="80"/>
-    </row>
-    <row r="15" spans="1:50" ht="13" customHeight="1">
-      <c r="A15" s="70"/>
-      <c r="B15" s="32" t="s">
-        <v>33</v>
-      </c>
-      <c r="C15" s="33" t="s">
-        <v>34</v>
-      </c>
-      <c r="D15" s="77"/>
-      <c r="E15" s="81"/>
-      <c r="F15" s="82"/>
-      <c r="G15" s="82"/>
-      <c r="H15" s="82"/>
-      <c r="I15" s="83"/>
+      <c r="D15" s="87"/>
+      <c r="E15" s="91"/>
+      <c r="F15" s="92"/>
+      <c r="G15" s="92"/>
+      <c r="H15" s="92"/>
+      <c r="I15" s="93"/>
     </row>
     <row r="16" spans="1:50" s="51" customFormat="1" ht="12">
       <c r="A16" s="48" t="s">
-        <v>35</v>
+        <v>67</v>
       </c>
       <c r="B16" s="49">
         <v>0.33333333333333331</v>
@@ -2178,17 +2186,17 @@
         <f>C16-B16</f>
         <v>0.20833333333333331</v>
       </c>
-      <c r="E16" s="67" t="s">
-        <v>79</v>
-      </c>
-      <c r="F16" s="58"/>
-      <c r="G16" s="58"/>
-      <c r="H16" s="58"/>
-      <c r="I16" s="59"/>
+      <c r="E16" s="74" t="s">
+        <v>27</v>
+      </c>
+      <c r="F16" s="75"/>
+      <c r="G16" s="75"/>
+      <c r="H16" s="75"/>
+      <c r="I16" s="76"/>
     </row>
     <row r="17" spans="1:9" s="51" customFormat="1" ht="12">
       <c r="A17" s="48" t="s">
-        <v>36</v>
+        <v>68</v>
       </c>
       <c r="B17" s="49"/>
       <c r="C17" s="50"/>
@@ -2196,15 +2204,15 @@
         <f t="shared" ref="D17:D49" si="0">C17-B17</f>
         <v>0</v>
       </c>
-      <c r="E17" s="57"/>
-      <c r="F17" s="58"/>
-      <c r="G17" s="58"/>
-      <c r="H17" s="58"/>
-      <c r="I17" s="59"/>
+      <c r="E17" s="77"/>
+      <c r="F17" s="75"/>
+      <c r="G17" s="75"/>
+      <c r="H17" s="75"/>
+      <c r="I17" s="76"/>
     </row>
     <row r="18" spans="1:9" s="43" customFormat="1" ht="12">
       <c r="A18" s="40" t="s">
-        <v>37</v>
+        <v>69</v>
       </c>
       <c r="B18" s="41"/>
       <c r="C18" s="42"/>
@@ -2212,15 +2220,15 @@
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="E18" s="60"/>
-      <c r="F18" s="61"/>
-      <c r="G18" s="61"/>
-      <c r="H18" s="61"/>
-      <c r="I18" s="62"/>
+      <c r="E18" s="71"/>
+      <c r="F18" s="72"/>
+      <c r="G18" s="72"/>
+      <c r="H18" s="72"/>
+      <c r="I18" s="73"/>
     </row>
     <row r="19" spans="1:9" s="43" customFormat="1" ht="12">
       <c r="A19" s="40" t="s">
-        <v>38</v>
+        <v>70</v>
       </c>
       <c r="B19" s="41">
         <v>0.66666666666666663</v>
@@ -2232,17 +2240,17 @@
         <f t="shared" si="0"/>
         <v>4.1666666666666741E-2</v>
       </c>
-      <c r="E19" s="60" t="s">
-        <v>81</v>
-      </c>
-      <c r="F19" s="61"/>
-      <c r="G19" s="61"/>
-      <c r="H19" s="61"/>
-      <c r="I19" s="62"/>
+      <c r="E19" s="71" t="s">
+        <v>29</v>
+      </c>
+      <c r="F19" s="72"/>
+      <c r="G19" s="72"/>
+      <c r="H19" s="72"/>
+      <c r="I19" s="73"/>
     </row>
     <row r="20" spans="1:9" s="43" customFormat="1" ht="12">
       <c r="A20" s="40" t="s">
-        <v>39</v>
+        <v>71</v>
       </c>
       <c r="B20" s="41"/>
       <c r="C20" s="42"/>
@@ -2250,15 +2258,15 @@
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="E20" s="60"/>
-      <c r="F20" s="61"/>
-      <c r="G20" s="61"/>
-      <c r="H20" s="61"/>
-      <c r="I20" s="62"/>
+      <c r="E20" s="71"/>
+      <c r="F20" s="72"/>
+      <c r="G20" s="72"/>
+      <c r="H20" s="72"/>
+      <c r="I20" s="73"/>
     </row>
     <row r="21" spans="1:9" s="43" customFormat="1" ht="12">
       <c r="A21" s="40" t="s">
-        <v>40</v>
+        <v>72</v>
       </c>
       <c r="B21" s="41"/>
       <c r="C21" s="42"/>
@@ -2266,15 +2274,15 @@
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="E21" s="60"/>
-      <c r="F21" s="61"/>
-      <c r="G21" s="61"/>
-      <c r="H21" s="61"/>
-      <c r="I21" s="62"/>
+      <c r="E21" s="71"/>
+      <c r="F21" s="72"/>
+      <c r="G21" s="72"/>
+      <c r="H21" s="72"/>
+      <c r="I21" s="73"/>
     </row>
     <row r="22" spans="1:9" s="43" customFormat="1" ht="12">
       <c r="A22" s="40" t="s">
-        <v>41</v>
+        <v>73</v>
       </c>
       <c r="B22" s="41"/>
       <c r="C22" s="42"/>
@@ -2282,15 +2290,15 @@
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="E22" s="60"/>
-      <c r="F22" s="61"/>
-      <c r="G22" s="61"/>
-      <c r="H22" s="61"/>
-      <c r="I22" s="62"/>
+      <c r="E22" s="71"/>
+      <c r="F22" s="72"/>
+      <c r="G22" s="72"/>
+      <c r="H22" s="72"/>
+      <c r="I22" s="73"/>
     </row>
     <row r="23" spans="1:9" s="51" customFormat="1" ht="12">
       <c r="A23" s="48" t="s">
-        <v>42</v>
+        <v>74</v>
       </c>
       <c r="B23" s="49"/>
       <c r="C23" s="50"/>
@@ -2298,15 +2306,15 @@
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="E23" s="57"/>
-      <c r="F23" s="58"/>
-      <c r="G23" s="58"/>
-      <c r="H23" s="58"/>
-      <c r="I23" s="59"/>
+      <c r="E23" s="77"/>
+      <c r="F23" s="75"/>
+      <c r="G23" s="75"/>
+      <c r="H23" s="75"/>
+      <c r="I23" s="76"/>
     </row>
     <row r="24" spans="1:9" s="51" customFormat="1" ht="12">
       <c r="A24" s="48" t="s">
-        <v>43</v>
+        <v>75</v>
       </c>
       <c r="B24" s="49">
         <v>0.5</v>
@@ -2318,17 +2326,17 @@
         <f t="shared" si="0"/>
         <v>8.333333333333337E-2</v>
       </c>
-      <c r="E24" s="57" t="s">
-        <v>2</v>
-      </c>
-      <c r="F24" s="58"/>
-      <c r="G24" s="58"/>
-      <c r="H24" s="58"/>
-      <c r="I24" s="59"/>
+      <c r="E24" s="77" t="s">
+        <v>37</v>
+      </c>
+      <c r="F24" s="75"/>
+      <c r="G24" s="75"/>
+      <c r="H24" s="75"/>
+      <c r="I24" s="76"/>
     </row>
     <row r="25" spans="1:9" s="43" customFormat="1" ht="12">
       <c r="A25" s="40" t="s">
-        <v>44</v>
+        <v>76</v>
       </c>
       <c r="B25" s="41">
         <v>0.625</v>
@@ -2340,17 +2348,17 @@
         <f t="shared" si="0"/>
         <v>0.16666666666666663</v>
       </c>
-      <c r="E25" s="60" t="s">
-        <v>1</v>
-      </c>
-      <c r="F25" s="61"/>
-      <c r="G25" s="61"/>
-      <c r="H25" s="61"/>
-      <c r="I25" s="62"/>
+      <c r="E25" s="71" t="s">
+        <v>36</v>
+      </c>
+      <c r="F25" s="72"/>
+      <c r="G25" s="72"/>
+      <c r="H25" s="72"/>
+      <c r="I25" s="73"/>
     </row>
     <row r="26" spans="1:9" s="43" customFormat="1" ht="12">
       <c r="A26" s="40" t="s">
-        <v>45</v>
+        <v>77</v>
       </c>
       <c r="B26" s="41">
         <v>0.375</v>
@@ -2362,13 +2370,13 @@
         <f>C26-B26</f>
         <v>0.125</v>
       </c>
-      <c r="E26" s="60" t="s">
-        <v>16</v>
-      </c>
-      <c r="F26" s="61"/>
-      <c r="G26" s="61"/>
-      <c r="H26" s="61"/>
-      <c r="I26" s="62"/>
+      <c r="E26" s="71" t="s">
+        <v>48</v>
+      </c>
+      <c r="F26" s="72"/>
+      <c r="G26" s="72"/>
+      <c r="H26" s="72"/>
+      <c r="I26" s="73"/>
     </row>
     <row r="27" spans="1:9" s="43" customFormat="1" ht="12">
       <c r="A27" s="40"/>
@@ -2382,17 +2390,17 @@
         <f t="shared" si="0"/>
         <v>8.333333333333337E-2</v>
       </c>
-      <c r="E27" s="60" t="s">
-        <v>6</v>
-      </c>
-      <c r="F27" s="61"/>
-      <c r="G27" s="61"/>
-      <c r="H27" s="61"/>
-      <c r="I27" s="62"/>
+      <c r="E27" s="71" t="s">
+        <v>41</v>
+      </c>
+      <c r="F27" s="72"/>
+      <c r="G27" s="72"/>
+      <c r="H27" s="72"/>
+      <c r="I27" s="73"/>
     </row>
     <row r="28" spans="1:9" s="43" customFormat="1" ht="12">
       <c r="A28" s="40" t="s">
-        <v>46</v>
+        <v>78</v>
       </c>
       <c r="B28" s="41">
         <v>0.83333333333333337</v>
@@ -2404,17 +2412,17 @@
         <f t="shared" si="0"/>
         <v>0.125</v>
       </c>
-      <c r="E28" s="60" t="s">
-        <v>3</v>
-      </c>
-      <c r="F28" s="61"/>
-      <c r="G28" s="61"/>
-      <c r="H28" s="61"/>
-      <c r="I28" s="62"/>
+      <c r="E28" s="71" t="s">
+        <v>38</v>
+      </c>
+      <c r="F28" s="72"/>
+      <c r="G28" s="72"/>
+      <c r="H28" s="72"/>
+      <c r="I28" s="73"/>
     </row>
     <row r="29" spans="1:9" s="43" customFormat="1" ht="12">
       <c r="A29" s="40" t="s">
-        <v>47</v>
+        <v>79</v>
       </c>
       <c r="B29" s="41">
         <v>0.5</v>
@@ -2426,17 +2434,17 @@
         <f t="shared" si="0"/>
         <v>3.125E-2</v>
       </c>
-      <c r="E29" s="60" t="s">
-        <v>5</v>
-      </c>
-      <c r="F29" s="61"/>
-      <c r="G29" s="61"/>
-      <c r="H29" s="61"/>
-      <c r="I29" s="62"/>
+      <c r="E29" s="71" t="s">
+        <v>40</v>
+      </c>
+      <c r="F29" s="72"/>
+      <c r="G29" s="72"/>
+      <c r="H29" s="72"/>
+      <c r="I29" s="73"/>
     </row>
     <row r="30" spans="1:9" s="43" customFormat="1" ht="12">
       <c r="A30" s="40" t="s">
-        <v>48</v>
+        <v>80</v>
       </c>
       <c r="B30" s="41"/>
       <c r="C30" s="42"/>
@@ -2444,15 +2452,15 @@
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="E30" s="60"/>
-      <c r="F30" s="61"/>
-      <c r="G30" s="61"/>
-      <c r="H30" s="61"/>
-      <c r="I30" s="62"/>
+      <c r="E30" s="71"/>
+      <c r="F30" s="72"/>
+      <c r="G30" s="72"/>
+      <c r="H30" s="72"/>
+      <c r="I30" s="73"/>
     </row>
     <row r="31" spans="1:9" s="51" customFormat="1" ht="12">
       <c r="A31" s="48" t="s">
-        <v>49</v>
+        <v>81</v>
       </c>
       <c r="B31" s="49"/>
       <c r="C31" s="50"/>
@@ -2460,15 +2468,15 @@
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="E31" s="57"/>
-      <c r="F31" s="58"/>
-      <c r="G31" s="58"/>
-      <c r="H31" s="58"/>
-      <c r="I31" s="59"/>
+      <c r="E31" s="77"/>
+      <c r="F31" s="75"/>
+      <c r="G31" s="75"/>
+      <c r="H31" s="75"/>
+      <c r="I31" s="76"/>
     </row>
     <row r="32" spans="1:9" s="51" customFormat="1" ht="12">
       <c r="A32" s="48" t="s">
-        <v>50</v>
+        <v>82</v>
       </c>
       <c r="B32" s="49"/>
       <c r="C32" s="50"/>
@@ -2476,15 +2484,15 @@
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="E32" s="57"/>
-      <c r="F32" s="58"/>
-      <c r="G32" s="58"/>
-      <c r="H32" s="58"/>
-      <c r="I32" s="59"/>
+      <c r="E32" s="77"/>
+      <c r="F32" s="75"/>
+      <c r="G32" s="75"/>
+      <c r="H32" s="75"/>
+      <c r="I32" s="76"/>
     </row>
     <row r="33" spans="1:9" s="43" customFormat="1" ht="12">
       <c r="A33" s="40" t="s">
-        <v>51</v>
+        <v>83</v>
       </c>
       <c r="B33" s="41"/>
       <c r="C33" s="42"/>
@@ -2492,15 +2500,15 @@
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="E33" s="60"/>
-      <c r="F33" s="61"/>
-      <c r="G33" s="61"/>
-      <c r="H33" s="61"/>
-      <c r="I33" s="62"/>
+      <c r="E33" s="71"/>
+      <c r="F33" s="72"/>
+      <c r="G33" s="72"/>
+      <c r="H33" s="72"/>
+      <c r="I33" s="73"/>
     </row>
     <row r="34" spans="1:9" s="43" customFormat="1" ht="12">
       <c r="A34" s="40" t="s">
-        <v>52</v>
+        <v>0</v>
       </c>
       <c r="B34" s="41"/>
       <c r="C34" s="42"/>
@@ -2508,15 +2516,15 @@
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="E34" s="60"/>
-      <c r="F34" s="61"/>
-      <c r="G34" s="61"/>
-      <c r="H34" s="61"/>
-      <c r="I34" s="62"/>
+      <c r="E34" s="71"/>
+      <c r="F34" s="72"/>
+      <c r="G34" s="72"/>
+      <c r="H34" s="72"/>
+      <c r="I34" s="73"/>
     </row>
     <row r="35" spans="1:9" s="43" customFormat="1" ht="12">
       <c r="A35" s="40" t="s">
-        <v>53</v>
+        <v>1</v>
       </c>
       <c r="B35" s="41"/>
       <c r="C35" s="42"/>
@@ -2524,15 +2532,15 @@
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="E35" s="60"/>
-      <c r="F35" s="61"/>
-      <c r="G35" s="61"/>
-      <c r="H35" s="61"/>
-      <c r="I35" s="62"/>
+      <c r="E35" s="71"/>
+      <c r="F35" s="72"/>
+      <c r="G35" s="72"/>
+      <c r="H35" s="72"/>
+      <c r="I35" s="73"/>
     </row>
     <row r="36" spans="1:9" s="43" customFormat="1" ht="12">
       <c r="A36" s="40" t="s">
-        <v>54</v>
+        <v>2</v>
       </c>
       <c r="B36" s="41"/>
       <c r="C36" s="42"/>
@@ -2540,15 +2548,15 @@
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="E36" s="60"/>
-      <c r="F36" s="61"/>
-      <c r="G36" s="61"/>
-      <c r="H36" s="61"/>
-      <c r="I36" s="62"/>
+      <c r="E36" s="71"/>
+      <c r="F36" s="72"/>
+      <c r="G36" s="72"/>
+      <c r="H36" s="72"/>
+      <c r="I36" s="73"/>
     </row>
     <row r="37" spans="1:9" s="43" customFormat="1" ht="12">
       <c r="A37" s="40" t="s">
-        <v>55</v>
+        <v>3</v>
       </c>
       <c r="B37" s="41"/>
       <c r="C37" s="42"/>
@@ -2556,15 +2564,15 @@
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="E37" s="60"/>
-      <c r="F37" s="61"/>
-      <c r="G37" s="61"/>
-      <c r="H37" s="61"/>
-      <c r="I37" s="62"/>
+      <c r="E37" s="71"/>
+      <c r="F37" s="72"/>
+      <c r="G37" s="72"/>
+      <c r="H37" s="72"/>
+      <c r="I37" s="73"/>
     </row>
     <row r="38" spans="1:9" s="51" customFormat="1" ht="12">
       <c r="A38" s="48" t="s">
-        <v>56</v>
+        <v>4</v>
       </c>
       <c r="B38" s="49"/>
       <c r="C38" s="50"/>
@@ -2572,15 +2580,15 @@
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="E38" s="57"/>
-      <c r="F38" s="58"/>
-      <c r="G38" s="58"/>
-      <c r="H38" s="58"/>
-      <c r="I38" s="59"/>
+      <c r="E38" s="77"/>
+      <c r="F38" s="75"/>
+      <c r="G38" s="75"/>
+      <c r="H38" s="75"/>
+      <c r="I38" s="76"/>
     </row>
     <row r="39" spans="1:9" s="51" customFormat="1" ht="12">
       <c r="A39" s="48" t="s">
-        <v>57</v>
+        <v>5</v>
       </c>
       <c r="B39" s="49"/>
       <c r="C39" s="50"/>
@@ -2588,15 +2596,15 @@
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="E39" s="57"/>
-      <c r="F39" s="58"/>
-      <c r="G39" s="58"/>
-      <c r="H39" s="58"/>
-      <c r="I39" s="59"/>
+      <c r="E39" s="77"/>
+      <c r="F39" s="75"/>
+      <c r="G39" s="75"/>
+      <c r="H39" s="75"/>
+      <c r="I39" s="76"/>
     </row>
     <row r="40" spans="1:9" s="43" customFormat="1" ht="12">
       <c r="A40" s="40" t="s">
-        <v>58</v>
+        <v>6</v>
       </c>
       <c r="B40" s="41">
         <v>0.9375</v>
@@ -2608,17 +2616,17 @@
         <f t="shared" si="0"/>
         <v>4.166666666666663E-2</v>
       </c>
-      <c r="E40" s="60" t="s">
-        <v>4</v>
-      </c>
-      <c r="F40" s="61"/>
-      <c r="G40" s="61"/>
-      <c r="H40" s="61"/>
-      <c r="I40" s="62"/>
+      <c r="E40" s="71" t="s">
+        <v>39</v>
+      </c>
+      <c r="F40" s="72"/>
+      <c r="G40" s="72"/>
+      <c r="H40" s="72"/>
+      <c r="I40" s="73"/>
     </row>
     <row r="41" spans="1:9" s="43" customFormat="1" ht="12">
       <c r="A41" s="40" t="s">
-        <v>59</v>
+        <v>7</v>
       </c>
       <c r="B41" s="41">
         <v>0.41666666666666669</v>
@@ -2630,13 +2638,13 @@
         <f t="shared" si="0"/>
         <v>0.12499999999999994</v>
       </c>
-      <c r="E41" s="60" t="s">
-        <v>18</v>
-      </c>
-      <c r="F41" s="61"/>
-      <c r="G41" s="61"/>
-      <c r="H41" s="61"/>
-      <c r="I41" s="62"/>
+      <c r="E41" s="71" t="s">
+        <v>50</v>
+      </c>
+      <c r="F41" s="72"/>
+      <c r="G41" s="72"/>
+      <c r="H41" s="72"/>
+      <c r="I41" s="73"/>
     </row>
     <row r="42" spans="1:9" s="43" customFormat="1" ht="12">
       <c r="A42" s="40"/>
@@ -2650,13 +2658,13 @@
         <f t="shared" si="0"/>
         <v>0.16666666666666663</v>
       </c>
-      <c r="E42" s="60" t="s">
-        <v>17</v>
-      </c>
-      <c r="F42" s="61"/>
-      <c r="G42" s="61"/>
-      <c r="H42" s="61"/>
-      <c r="I42" s="62"/>
+      <c r="E42" s="71" t="s">
+        <v>49</v>
+      </c>
+      <c r="F42" s="72"/>
+      <c r="G42" s="72"/>
+      <c r="H42" s="72"/>
+      <c r="I42" s="73"/>
     </row>
     <row r="43" spans="1:9" s="43" customFormat="1" ht="12">
       <c r="A43" s="40"/>
@@ -2670,17 +2678,17 @@
         <f t="shared" si="0"/>
         <v>0.10416666666666663</v>
       </c>
-      <c r="E43" s="60" t="s">
-        <v>20</v>
-      </c>
-      <c r="F43" s="61"/>
-      <c r="G43" s="61"/>
-      <c r="H43" s="61"/>
-      <c r="I43" s="62"/>
+      <c r="E43" s="71" t="s">
+        <v>52</v>
+      </c>
+      <c r="F43" s="72"/>
+      <c r="G43" s="72"/>
+      <c r="H43" s="72"/>
+      <c r="I43" s="73"/>
     </row>
     <row r="44" spans="1:9" s="43" customFormat="1" ht="12">
       <c r="A44" s="40" t="s">
-        <v>60</v>
+        <v>8</v>
       </c>
       <c r="B44" s="41">
         <v>0.5</v>
@@ -2692,17 +2700,17 @@
         <f t="shared" si="0"/>
         <v>8.333333333333337E-2</v>
       </c>
-      <c r="E44" s="60" t="s">
-        <v>21</v>
-      </c>
-      <c r="F44" s="61"/>
-      <c r="G44" s="61"/>
-      <c r="H44" s="61"/>
-      <c r="I44" s="62"/>
+      <c r="E44" s="71" t="s">
+        <v>53</v>
+      </c>
+      <c r="F44" s="72"/>
+      <c r="G44" s="72"/>
+      <c r="H44" s="72"/>
+      <c r="I44" s="73"/>
     </row>
     <row r="45" spans="1:9" s="43" customFormat="1" ht="12">
       <c r="A45" s="40" t="s">
-        <v>61</v>
+        <v>9</v>
       </c>
       <c r="B45" s="41">
         <v>0.41666666666666669</v>
@@ -2714,17 +2722,17 @@
         <f t="shared" si="0"/>
         <v>2.0833333333333315E-2</v>
       </c>
-      <c r="E45" s="60" t="s">
-        <v>29</v>
-      </c>
-      <c r="F45" s="61"/>
-      <c r="G45" s="61"/>
-      <c r="H45" s="61"/>
-      <c r="I45" s="62"/>
+      <c r="E45" s="71" t="s">
+        <v>61</v>
+      </c>
+      <c r="F45" s="72"/>
+      <c r="G45" s="72"/>
+      <c r="H45" s="72"/>
+      <c r="I45" s="73"/>
     </row>
     <row r="46" spans="1:9" s="43" customFormat="1" ht="12">
       <c r="A46" s="40" t="s">
-        <v>62</v>
+        <v>10</v>
       </c>
       <c r="B46" s="41">
         <v>0.5</v>
@@ -2736,17 +2744,17 @@
         <f t="shared" si="0"/>
         <v>0.16666666666666663</v>
       </c>
-      <c r="E46" s="60" t="s">
-        <v>22</v>
-      </c>
-      <c r="F46" s="61"/>
-      <c r="G46" s="61"/>
-      <c r="H46" s="61"/>
-      <c r="I46" s="62"/>
+      <c r="E46" s="71" t="s">
+        <v>54</v>
+      </c>
+      <c r="F46" s="72"/>
+      <c r="G46" s="72"/>
+      <c r="H46" s="72"/>
+      <c r="I46" s="73"/>
     </row>
     <row r="47" spans="1:9" s="51" customFormat="1" ht="12">
       <c r="A47" s="48" t="s">
-        <v>63</v>
+        <v>11</v>
       </c>
       <c r="B47" s="49"/>
       <c r="C47" s="50"/>
@@ -2754,15 +2762,15 @@
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="E47" s="57"/>
-      <c r="F47" s="58"/>
-      <c r="G47" s="58"/>
-      <c r="H47" s="58"/>
-      <c r="I47" s="59"/>
+      <c r="E47" s="77"/>
+      <c r="F47" s="75"/>
+      <c r="G47" s="75"/>
+      <c r="H47" s="75"/>
+      <c r="I47" s="76"/>
     </row>
     <row r="48" spans="1:9" s="51" customFormat="1" ht="12">
       <c r="A48" s="48" t="s">
-        <v>64</v>
+        <v>12</v>
       </c>
       <c r="B48" s="49"/>
       <c r="C48" s="50"/>
@@ -2770,15 +2778,15 @@
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="E48" s="57"/>
-      <c r="F48" s="58"/>
-      <c r="G48" s="58"/>
-      <c r="H48" s="58"/>
-      <c r="I48" s="59"/>
+      <c r="E48" s="77"/>
+      <c r="F48" s="75"/>
+      <c r="G48" s="75"/>
+      <c r="H48" s="75"/>
+      <c r="I48" s="76"/>
     </row>
     <row r="49" spans="1:13" s="43" customFormat="1" ht="12">
       <c r="A49" s="44" t="s">
-        <v>65</v>
+        <v>13</v>
       </c>
       <c r="B49" s="41">
         <v>0.5</v>
@@ -2790,27 +2798,27 @@
         <f t="shared" si="0"/>
         <v>8.333333333333337E-2</v>
       </c>
-      <c r="E49" s="60" t="s">
-        <v>23</v>
-      </c>
-      <c r="F49" s="61"/>
-      <c r="G49" s="61"/>
-      <c r="H49" s="61"/>
-      <c r="I49" s="62"/>
+      <c r="E49" s="71" t="s">
+        <v>55</v>
+      </c>
+      <c r="F49" s="72"/>
+      <c r="G49" s="72"/>
+      <c r="H49" s="72"/>
+      <c r="I49" s="73"/>
     </row>
     <row r="50" spans="1:13" s="47" customFormat="1" ht="13">
-      <c r="A50" s="63"/>
-      <c r="B50" s="64"/>
-      <c r="C50" s="64"/>
+      <c r="A50" s="94"/>
+      <c r="B50" s="95"/>
+      <c r="C50" s="95"/>
       <c r="D50" s="46">
         <f>SUM(D16:D49)</f>
         <v>1.65625</v>
       </c>
-      <c r="E50" s="65"/>
-      <c r="F50" s="65"/>
-      <c r="G50" s="65"/>
-      <c r="H50" s="65"/>
-      <c r="I50" s="66"/>
+      <c r="E50" s="96"/>
+      <c r="F50" s="96"/>
+      <c r="G50" s="96"/>
+      <c r="H50" s="96"/>
+      <c r="I50" s="97"/>
     </row>
     <row r="51" spans="1:13" ht="7.5" customHeight="1">
       <c r="A51" s="28"/>
@@ -2843,42 +2851,13 @@
     </row>
   </sheetData>
   <mergeCells count="54">
-    <mergeCell ref="A9:C9"/>
-    <mergeCell ref="D9:H9"/>
-    <mergeCell ref="A10:I10"/>
-    <mergeCell ref="A5:C5"/>
-    <mergeCell ref="D5:H5"/>
-    <mergeCell ref="A6:I6"/>
-    <mergeCell ref="A7:C7"/>
-    <mergeCell ref="D7:H7"/>
-    <mergeCell ref="A1:I1"/>
-    <mergeCell ref="A2:I2"/>
-    <mergeCell ref="A3:H3"/>
-    <mergeCell ref="A4:I4"/>
-    <mergeCell ref="A8:I8"/>
-    <mergeCell ref="E20:I20"/>
-    <mergeCell ref="E16:I16"/>
-    <mergeCell ref="E17:I17"/>
-    <mergeCell ref="A13:A15"/>
-    <mergeCell ref="B13:I13"/>
-    <mergeCell ref="B14:C14"/>
-    <mergeCell ref="D14:D15"/>
-    <mergeCell ref="E14:I15"/>
-    <mergeCell ref="E18:I18"/>
-    <mergeCell ref="E19:I19"/>
-    <mergeCell ref="E24:I24"/>
-    <mergeCell ref="E25:I25"/>
-    <mergeCell ref="E27:I27"/>
-    <mergeCell ref="E21:I21"/>
-    <mergeCell ref="E22:I22"/>
-    <mergeCell ref="E23:I23"/>
-    <mergeCell ref="E26:I26"/>
-    <mergeCell ref="E31:I31"/>
-    <mergeCell ref="E32:I32"/>
-    <mergeCell ref="E33:I33"/>
-    <mergeCell ref="E28:I28"/>
-    <mergeCell ref="E29:I29"/>
-    <mergeCell ref="E30:I30"/>
+    <mergeCell ref="E48:I48"/>
+    <mergeCell ref="E49:I49"/>
+    <mergeCell ref="A50:C50"/>
+    <mergeCell ref="E50:I50"/>
+    <mergeCell ref="E45:I45"/>
+    <mergeCell ref="E46:I46"/>
+    <mergeCell ref="E47:I47"/>
     <mergeCell ref="E44:I44"/>
     <mergeCell ref="E37:I37"/>
     <mergeCell ref="E38:I38"/>
@@ -2890,13 +2869,42 @@
     <mergeCell ref="E41:I41"/>
     <mergeCell ref="E42:I42"/>
     <mergeCell ref="E43:I43"/>
-    <mergeCell ref="E48:I48"/>
-    <mergeCell ref="E49:I49"/>
-    <mergeCell ref="A50:C50"/>
-    <mergeCell ref="E50:I50"/>
-    <mergeCell ref="E45:I45"/>
-    <mergeCell ref="E46:I46"/>
-    <mergeCell ref="E47:I47"/>
+    <mergeCell ref="E31:I31"/>
+    <mergeCell ref="E32:I32"/>
+    <mergeCell ref="E33:I33"/>
+    <mergeCell ref="E28:I28"/>
+    <mergeCell ref="E29:I29"/>
+    <mergeCell ref="E30:I30"/>
+    <mergeCell ref="E24:I24"/>
+    <mergeCell ref="E25:I25"/>
+    <mergeCell ref="E27:I27"/>
+    <mergeCell ref="E21:I21"/>
+    <mergeCell ref="E22:I22"/>
+    <mergeCell ref="E23:I23"/>
+    <mergeCell ref="E26:I26"/>
+    <mergeCell ref="E20:I20"/>
+    <mergeCell ref="E16:I16"/>
+    <mergeCell ref="E17:I17"/>
+    <mergeCell ref="A13:A15"/>
+    <mergeCell ref="B13:I13"/>
+    <mergeCell ref="B14:C14"/>
+    <mergeCell ref="D14:D15"/>
+    <mergeCell ref="E14:I15"/>
+    <mergeCell ref="E18:I18"/>
+    <mergeCell ref="E19:I19"/>
+    <mergeCell ref="A1:I1"/>
+    <mergeCell ref="A2:I2"/>
+    <mergeCell ref="A3:H3"/>
+    <mergeCell ref="A4:I4"/>
+    <mergeCell ref="A8:I8"/>
+    <mergeCell ref="A9:C9"/>
+    <mergeCell ref="D9:H9"/>
+    <mergeCell ref="A10:I10"/>
+    <mergeCell ref="A5:C5"/>
+    <mergeCell ref="D5:H5"/>
+    <mergeCell ref="A6:I6"/>
+    <mergeCell ref="A7:C7"/>
+    <mergeCell ref="D7:H7"/>
   </mergeCells>
   <phoneticPr fontId="32" type="noConversion"/>
   <printOptions horizontalCentered="1"/>
@@ -2915,10 +2923,10 @@
   <sheetPr enableFormatConditionsCalculation="0">
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A1:AS49"/>
+  <dimension ref="A1:AS50"/>
   <sheetViews>
     <sheetView tabSelected="1" view="pageLayout" zoomScale="85" zoomScaleSheetLayoutView="85" workbookViewId="0">
-      <selection activeCell="E44" sqref="E44:I44"/>
+      <selection activeCell="E39" sqref="E39:I39"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.1640625" defaultRowHeight="10"/>
@@ -2936,17 +2944,17 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:45" s="7" customFormat="1" ht="18" thickBot="1">
-      <c r="A1" s="84" t="s">
-        <v>68</v>
-      </c>
-      <c r="B1" s="84"/>
-      <c r="C1" s="84"/>
-      <c r="D1" s="84"/>
-      <c r="E1" s="84"/>
-      <c r="F1" s="84"/>
-      <c r="G1" s="84"/>
-      <c r="H1" s="84"/>
-      <c r="I1" s="84"/>
+      <c r="A1" s="66" t="s">
+        <v>30</v>
+      </c>
+      <c r="B1" s="66"/>
+      <c r="C1" s="66"/>
+      <c r="D1" s="66"/>
+      <c r="E1" s="66"/>
+      <c r="F1" s="66"/>
+      <c r="G1" s="66"/>
+      <c r="H1" s="66"/>
+      <c r="I1" s="66"/>
       <c r="J1" s="8"/>
       <c r="K1" s="8"/>
       <c r="L1" s="8"/>
@@ -2984,15 +2992,15 @@
       <c r="AR1" s="8"/>
     </row>
     <row r="2" spans="1:45" s="1" customFormat="1" ht="7.5" customHeight="1">
-      <c r="A2" s="85"/>
-      <c r="B2" s="85"/>
-      <c r="C2" s="85"/>
-      <c r="D2" s="85"/>
-      <c r="E2" s="85"/>
-      <c r="F2" s="85"/>
-      <c r="G2" s="85"/>
-      <c r="H2" s="85"/>
-      <c r="I2" s="85"/>
+      <c r="A2" s="67"/>
+      <c r="B2" s="67"/>
+      <c r="C2" s="67"/>
+      <c r="D2" s="67"/>
+      <c r="E2" s="67"/>
+      <c r="F2" s="67"/>
+      <c r="G2" s="67"/>
+      <c r="H2" s="67"/>
+      <c r="I2" s="67"/>
       <c r="J2" s="9"/>
       <c r="K2" s="9"/>
       <c r="L2" s="9"/>
@@ -3030,16 +3038,16 @@
       <c r="AR2" s="9"/>
     </row>
     <row r="3" spans="1:45" s="11" customFormat="1" ht="13.5" customHeight="1">
-      <c r="A3" s="86" t="s">
-        <v>72</v>
-      </c>
-      <c r="B3" s="86"/>
-      <c r="C3" s="86"/>
-      <c r="D3" s="86"/>
-      <c r="E3" s="86"/>
-      <c r="F3" s="86"/>
-      <c r="G3" s="86"/>
-      <c r="H3" s="86"/>
+      <c r="A3" s="68" t="s">
+        <v>20</v>
+      </c>
+      <c r="B3" s="68"/>
+      <c r="C3" s="68"/>
+      <c r="D3" s="68"/>
+      <c r="E3" s="68"/>
+      <c r="F3" s="68"/>
+      <c r="G3" s="68"/>
+      <c r="H3" s="68"/>
       <c r="I3" s="23"/>
       <c r="J3" s="22"/>
       <c r="K3" s="22"/>
@@ -3079,112 +3087,112 @@
       <c r="AS3" s="10"/>
     </row>
     <row r="4" spans="1:45" s="6" customFormat="1" ht="9" customHeight="1">
-      <c r="A4" s="87"/>
-      <c r="B4" s="87"/>
-      <c r="C4" s="87"/>
-      <c r="D4" s="87"/>
-      <c r="E4" s="87"/>
-      <c r="F4" s="87"/>
-      <c r="G4" s="87"/>
-      <c r="H4" s="87"/>
-      <c r="I4" s="87"/>
+      <c r="A4" s="69"/>
+      <c r="B4" s="69"/>
+      <c r="C4" s="69"/>
+      <c r="D4" s="69"/>
+      <c r="E4" s="69"/>
+      <c r="F4" s="69"/>
+      <c r="G4" s="69"/>
+      <c r="H4" s="69"/>
+      <c r="I4" s="69"/>
     </row>
     <row r="5" spans="1:45" s="1" customFormat="1" ht="13.75" customHeight="1">
-      <c r="A5" s="94" t="str">
+      <c r="A5" s="62" t="str">
         <f>October!A5</f>
         <v>Firstname Lastname</v>
       </c>
-      <c r="B5" s="95"/>
-      <c r="C5" s="95"/>
-      <c r="D5" s="90" t="str">
+      <c r="B5" s="63"/>
+      <c r="C5" s="63"/>
+      <c r="D5" s="58" t="str">
         <f>October!D5</f>
         <v>Augustin Hannah</v>
       </c>
-      <c r="E5" s="91"/>
-      <c r="F5" s="91"/>
-      <c r="G5" s="91"/>
-      <c r="H5" s="92"/>
+      <c r="E5" s="59"/>
+      <c r="F5" s="59"/>
+      <c r="G5" s="59"/>
+      <c r="H5" s="60"/>
       <c r="I5" s="23"/>
       <c r="J5" s="9"/>
       <c r="K5" s="9"/>
       <c r="L5" s="9"/>
     </row>
     <row r="6" spans="1:45" s="1" customFormat="1" ht="7.5" customHeight="1">
-      <c r="A6" s="96"/>
-      <c r="B6" s="96"/>
-      <c r="C6" s="96"/>
-      <c r="D6" s="96"/>
-      <c r="E6" s="96"/>
-      <c r="F6" s="96"/>
-      <c r="G6" s="96"/>
-      <c r="H6" s="96"/>
-      <c r="I6" s="96"/>
+      <c r="A6" s="64"/>
+      <c r="B6" s="64"/>
+      <c r="C6" s="64"/>
+      <c r="D6" s="64"/>
+      <c r="E6" s="64"/>
+      <c r="F6" s="64"/>
+      <c r="G6" s="64"/>
+      <c r="H6" s="64"/>
+      <c r="I6" s="64"/>
     </row>
     <row r="7" spans="1:45" s="1" customFormat="1" ht="13.75" customHeight="1">
-      <c r="A7" s="89" t="str">
+      <c r="A7" s="57" t="str">
         <f>October!A7</f>
         <v>Project Acronym</v>
       </c>
-      <c r="B7" s="89"/>
-      <c r="C7" s="89"/>
-      <c r="D7" s="97" t="str">
+      <c r="B7" s="57"/>
+      <c r="C7" s="57"/>
+      <c r="D7" s="65" t="str">
         <f>October!D7</f>
         <v>AIQ</v>
       </c>
-      <c r="E7" s="97"/>
-      <c r="F7" s="97"/>
-      <c r="G7" s="97"/>
-      <c r="H7" s="97"/>
+      <c r="E7" s="65"/>
+      <c r="F7" s="65"/>
+      <c r="G7" s="65"/>
+      <c r="H7" s="65"/>
       <c r="I7" s="24"/>
     </row>
     <row r="8" spans="1:45" s="1" customFormat="1" ht="7.5" customHeight="1">
-      <c r="A8" s="88"/>
-      <c r="B8" s="88"/>
-      <c r="C8" s="88"/>
-      <c r="D8" s="88"/>
-      <c r="E8" s="88"/>
-      <c r="F8" s="88"/>
-      <c r="G8" s="88"/>
-      <c r="H8" s="88"/>
-      <c r="I8" s="88"/>
+      <c r="A8" s="70"/>
+      <c r="B8" s="70"/>
+      <c r="C8" s="70"/>
+      <c r="D8" s="70"/>
+      <c r="E8" s="70"/>
+      <c r="F8" s="70"/>
+      <c r="G8" s="70"/>
+      <c r="H8" s="70"/>
+      <c r="I8" s="70"/>
     </row>
     <row r="9" spans="1:45" s="1" customFormat="1" ht="13.75" customHeight="1">
-      <c r="A9" s="89" t="str">
+      <c r="A9" s="57" t="str">
         <f>October!A9</f>
         <v>Project Title</v>
       </c>
-      <c r="B9" s="89"/>
-      <c r="C9" s="89"/>
-      <c r="D9" s="90" t="str">
+      <c r="B9" s="57"/>
+      <c r="C9" s="57"/>
+      <c r="D9" s="58" t="str">
         <f>October!D9</f>
         <v>Automating change detection in ImageQuerying</v>
       </c>
-      <c r="E9" s="91"/>
-      <c r="F9" s="91"/>
-      <c r="G9" s="91"/>
-      <c r="H9" s="92"/>
+      <c r="E9" s="59"/>
+      <c r="F9" s="59"/>
+      <c r="G9" s="59"/>
+      <c r="H9" s="60"/>
       <c r="I9" s="24"/>
       <c r="J9" s="15"/>
     </row>
     <row r="10" spans="1:45" s="1" customFormat="1" ht="7.5" customHeight="1">
-      <c r="A10" s="93"/>
-      <c r="B10" s="93"/>
-      <c r="C10" s="93"/>
-      <c r="D10" s="93"/>
-      <c r="E10" s="93"/>
-      <c r="F10" s="93"/>
-      <c r="G10" s="93"/>
-      <c r="H10" s="93"/>
-      <c r="I10" s="93"/>
+      <c r="A10" s="61"/>
+      <c r="B10" s="61"/>
+      <c r="C10" s="61"/>
+      <c r="D10" s="61"/>
+      <c r="E10" s="61"/>
+      <c r="F10" s="61"/>
+      <c r="G10" s="61"/>
+      <c r="H10" s="61"/>
+      <c r="I10" s="61"/>
     </row>
     <row r="11" spans="1:45" s="1" customFormat="1" ht="12">
       <c r="A11" s="21" t="s">
-        <v>70</v>
+        <v>18</v>
       </c>
       <c r="B11" s="21"/>
       <c r="C11" s="21"/>
       <c r="D11" s="21" t="s">
-        <v>71</v>
+        <v>19</v>
       </c>
       <c r="E11" s="21"/>
       <c r="F11" s="21"/>
@@ -3204,55 +3212,55 @@
       <c r="I12" s="26"/>
     </row>
     <row r="13" spans="1:45" s="2" customFormat="1" ht="15.5" customHeight="1">
-      <c r="A13" s="68" t="s">
-        <v>30</v>
-      </c>
-      <c r="B13" s="71" t="s">
+      <c r="A13" s="78" t="s">
+        <v>62</v>
+      </c>
+      <c r="B13" s="81" t="s">
+        <v>14</v>
+      </c>
+      <c r="C13" s="82"/>
+      <c r="D13" s="82"/>
+      <c r="E13" s="82"/>
+      <c r="F13" s="82"/>
+      <c r="G13" s="82"/>
+      <c r="H13" s="82"/>
+      <c r="I13" s="83"/>
+    </row>
+    <row r="14" spans="1:45" s="2" customFormat="1" ht="13.75" customHeight="1">
+      <c r="A14" s="79"/>
+      <c r="B14" s="84" t="s">
+        <v>63</v>
+      </c>
+      <c r="C14" s="85"/>
+      <c r="D14" s="86" t="s">
+        <v>64</v>
+      </c>
+      <c r="E14" s="88" t="s">
+        <v>15</v>
+      </c>
+      <c r="F14" s="89"/>
+      <c r="G14" s="89"/>
+      <c r="H14" s="89"/>
+      <c r="I14" s="90"/>
+    </row>
+    <row r="15" spans="1:45" ht="13" customHeight="1">
+      <c r="A15" s="80"/>
+      <c r="B15" s="32" t="s">
+        <v>65</v>
+      </c>
+      <c r="C15" s="33" t="s">
         <v>66</v>
       </c>
-      <c r="C13" s="72"/>
-      <c r="D13" s="72"/>
-      <c r="E13" s="72"/>
-      <c r="F13" s="72"/>
-      <c r="G13" s="72"/>
-      <c r="H13" s="72"/>
-      <c r="I13" s="73"/>
-    </row>
-    <row r="14" spans="1:45" s="2" customFormat="1" ht="13.75" customHeight="1">
-      <c r="A14" s="69"/>
-      <c r="B14" s="74" t="s">
-        <v>31</v>
-      </c>
-      <c r="C14" s="75"/>
-      <c r="D14" s="76" t="s">
-        <v>32</v>
-      </c>
-      <c r="E14" s="78" t="s">
-        <v>67</v>
-      </c>
-      <c r="F14" s="79"/>
-      <c r="G14" s="79"/>
-      <c r="H14" s="79"/>
-      <c r="I14" s="80"/>
-    </row>
-    <row r="15" spans="1:45" ht="13" customHeight="1">
-      <c r="A15" s="70"/>
-      <c r="B15" s="32" t="s">
-        <v>33</v>
-      </c>
-      <c r="C15" s="33" t="s">
-        <v>34</v>
-      </c>
-      <c r="D15" s="77"/>
-      <c r="E15" s="81"/>
-      <c r="F15" s="82"/>
-      <c r="G15" s="82"/>
-      <c r="H15" s="82"/>
-      <c r="I15" s="83"/>
+      <c r="D15" s="87"/>
+      <c r="E15" s="91"/>
+      <c r="F15" s="92"/>
+      <c r="G15" s="92"/>
+      <c r="H15" s="92"/>
+      <c r="I15" s="93"/>
     </row>
     <row r="16" spans="1:45" s="43" customFormat="1" ht="12">
       <c r="A16" s="40" t="s">
-        <v>35</v>
+        <v>67</v>
       </c>
       <c r="B16" s="41"/>
       <c r="C16" s="42"/>
@@ -3260,31 +3268,31 @@
         <f>C16-B16</f>
         <v>0</v>
       </c>
-      <c r="E16" s="60"/>
-      <c r="F16" s="61"/>
-      <c r="G16" s="61"/>
-      <c r="H16" s="61"/>
-      <c r="I16" s="62"/>
+      <c r="E16" s="71"/>
+      <c r="F16" s="72"/>
+      <c r="G16" s="72"/>
+      <c r="H16" s="72"/>
+      <c r="I16" s="73"/>
     </row>
     <row r="17" spans="1:9" s="43" customFormat="1" ht="12">
       <c r="A17" s="40" t="s">
-        <v>36</v>
+        <v>68</v>
       </c>
       <c r="B17" s="41"/>
       <c r="C17" s="42"/>
       <c r="D17" s="42">
-        <f t="shared" ref="D17:D47" si="0">C17-B17</f>
-        <v>0</v>
-      </c>
-      <c r="E17" s="60"/>
-      <c r="F17" s="61"/>
-      <c r="G17" s="61"/>
-      <c r="H17" s="61"/>
-      <c r="I17" s="62"/>
+        <f t="shared" ref="D17:D48" si="0">C17-B17</f>
+        <v>0</v>
+      </c>
+      <c r="E17" s="71"/>
+      <c r="F17" s="72"/>
+      <c r="G17" s="72"/>
+      <c r="H17" s="72"/>
+      <c r="I17" s="73"/>
     </row>
     <row r="18" spans="1:9" s="43" customFormat="1" ht="12">
       <c r="A18" s="40" t="s">
-        <v>37</v>
+        <v>69</v>
       </c>
       <c r="B18" s="41"/>
       <c r="C18" s="42"/>
@@ -3292,15 +3300,15 @@
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="E18" s="60"/>
-      <c r="F18" s="61"/>
-      <c r="G18" s="61"/>
-      <c r="H18" s="61"/>
-      <c r="I18" s="62"/>
+      <c r="E18" s="71"/>
+      <c r="F18" s="72"/>
+      <c r="G18" s="72"/>
+      <c r="H18" s="72"/>
+      <c r="I18" s="73"/>
     </row>
     <row r="19" spans="1:9" s="43" customFormat="1" ht="12">
       <c r="A19" s="40" t="s">
-        <v>38</v>
+        <v>70</v>
       </c>
       <c r="B19" s="41">
         <v>0.58333333333333337</v>
@@ -3312,17 +3320,17 @@
         <f t="shared" si="0"/>
         <v>0.16666666666666663</v>
       </c>
-      <c r="E19" s="60" t="s">
-        <v>24</v>
-      </c>
-      <c r="F19" s="61"/>
-      <c r="G19" s="61"/>
-      <c r="H19" s="61"/>
-      <c r="I19" s="62"/>
+      <c r="E19" s="71" t="s">
+        <v>56</v>
+      </c>
+      <c r="F19" s="72"/>
+      <c r="G19" s="72"/>
+      <c r="H19" s="72"/>
+      <c r="I19" s="73"/>
     </row>
     <row r="20" spans="1:9" s="51" customFormat="1" ht="12">
       <c r="A20" s="48" t="s">
-        <v>39</v>
+        <v>71</v>
       </c>
       <c r="B20" s="49"/>
       <c r="C20" s="50"/>
@@ -3330,15 +3338,15 @@
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="E20" s="57"/>
-      <c r="F20" s="58"/>
-      <c r="G20" s="58"/>
-      <c r="H20" s="58"/>
-      <c r="I20" s="59"/>
+      <c r="E20" s="77"/>
+      <c r="F20" s="75"/>
+      <c r="G20" s="75"/>
+      <c r="H20" s="75"/>
+      <c r="I20" s="76"/>
     </row>
     <row r="21" spans="1:9" s="51" customFormat="1" ht="12">
       <c r="A21" s="48" t="s">
-        <v>40</v>
+        <v>72</v>
       </c>
       <c r="B21" s="49"/>
       <c r="C21" s="50"/>
@@ -3346,15 +3354,15 @@
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="E21" s="57"/>
-      <c r="F21" s="58"/>
-      <c r="G21" s="58"/>
-      <c r="H21" s="58"/>
-      <c r="I21" s="59"/>
+      <c r="E21" s="77"/>
+      <c r="F21" s="75"/>
+      <c r="G21" s="75"/>
+      <c r="H21" s="75"/>
+      <c r="I21" s="76"/>
     </row>
     <row r="22" spans="1:9" s="43" customFormat="1" ht="12">
       <c r="A22" s="40" t="s">
-        <v>41</v>
+        <v>73</v>
       </c>
       <c r="B22" s="41">
         <v>0.39583333333333331</v>
@@ -3366,17 +3374,17 @@
         <f t="shared" si="0"/>
         <v>0.16666666666666669</v>
       </c>
-      <c r="E22" s="60" t="s">
-        <v>28</v>
-      </c>
-      <c r="F22" s="61"/>
-      <c r="G22" s="61"/>
-      <c r="H22" s="61"/>
-      <c r="I22" s="62"/>
+      <c r="E22" s="71" t="s">
+        <v>60</v>
+      </c>
+      <c r="F22" s="72"/>
+      <c r="G22" s="72"/>
+      <c r="H22" s="72"/>
+      <c r="I22" s="73"/>
     </row>
     <row r="23" spans="1:9" s="43" customFormat="1" ht="12">
       <c r="A23" s="40" t="s">
-        <v>42</v>
+        <v>74</v>
       </c>
       <c r="B23" s="41">
         <v>0.41666666666666669</v>
@@ -3388,13 +3396,13 @@
         <f t="shared" si="0"/>
         <v>0.12499999999999994</v>
       </c>
-      <c r="E23" s="60" t="s">
-        <v>27</v>
-      </c>
-      <c r="F23" s="61"/>
-      <c r="G23" s="61"/>
-      <c r="H23" s="61"/>
-      <c r="I23" s="62"/>
+      <c r="E23" s="71" t="s">
+        <v>59</v>
+      </c>
+      <c r="F23" s="72"/>
+      <c r="G23" s="72"/>
+      <c r="H23" s="72"/>
+      <c r="I23" s="73"/>
     </row>
     <row r="24" spans="1:9" s="43" customFormat="1" ht="12">
       <c r="A24" s="40"/>
@@ -3408,17 +3416,17 @@
         <f t="shared" si="0"/>
         <v>8.333333333333337E-2</v>
       </c>
-      <c r="E24" s="60" t="s">
-        <v>13</v>
-      </c>
-      <c r="F24" s="61"/>
-      <c r="G24" s="61"/>
-      <c r="H24" s="61"/>
-      <c r="I24" s="62"/>
+      <c r="E24" s="71" t="s">
+        <v>45</v>
+      </c>
+      <c r="F24" s="72"/>
+      <c r="G24" s="72"/>
+      <c r="H24" s="72"/>
+      <c r="I24" s="73"/>
     </row>
     <row r="25" spans="1:9" s="43" customFormat="1" ht="12">
       <c r="A25" s="40" t="s">
-        <v>43</v>
+        <v>75</v>
       </c>
       <c r="B25" s="41"/>
       <c r="C25" s="42"/>
@@ -3426,15 +3434,15 @@
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="E25" s="60"/>
-      <c r="F25" s="61"/>
-      <c r="G25" s="61"/>
-      <c r="H25" s="61"/>
-      <c r="I25" s="62"/>
+      <c r="E25" s="71"/>
+      <c r="F25" s="72"/>
+      <c r="G25" s="72"/>
+      <c r="H25" s="72"/>
+      <c r="I25" s="73"/>
     </row>
     <row r="26" spans="1:9" s="43" customFormat="1" ht="12">
       <c r="A26" s="40" t="s">
-        <v>44</v>
+        <v>76</v>
       </c>
       <c r="B26" s="41">
         <v>0.75</v>
@@ -3446,17 +3454,17 @@
         <f t="shared" si="0"/>
         <v>0.16666666666666663</v>
       </c>
-      <c r="E26" s="60" t="s">
-        <v>26</v>
-      </c>
-      <c r="F26" s="61"/>
-      <c r="G26" s="61"/>
-      <c r="H26" s="61"/>
-      <c r="I26" s="62"/>
+      <c r="E26" s="71" t="s">
+        <v>58</v>
+      </c>
+      <c r="F26" s="72"/>
+      <c r="G26" s="72"/>
+      <c r="H26" s="72"/>
+      <c r="I26" s="73"/>
     </row>
     <row r="27" spans="1:9" s="43" customFormat="1" ht="12">
       <c r="A27" s="40" t="s">
-        <v>45</v>
+        <v>77</v>
       </c>
       <c r="B27" s="41"/>
       <c r="C27" s="42"/>
@@ -3464,15 +3472,15 @@
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="E27" s="60"/>
-      <c r="F27" s="61"/>
-      <c r="G27" s="61"/>
-      <c r="H27" s="61"/>
-      <c r="I27" s="62"/>
+      <c r="E27" s="71"/>
+      <c r="F27" s="72"/>
+      <c r="G27" s="72"/>
+      <c r="H27" s="72"/>
+      <c r="I27" s="73"/>
     </row>
     <row r="28" spans="1:9" s="51" customFormat="1" ht="12">
       <c r="A28" s="48" t="s">
-        <v>46</v>
+        <v>78</v>
       </c>
       <c r="B28" s="49"/>
       <c r="C28" s="50"/>
@@ -3480,15 +3488,15 @@
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="E28" s="57"/>
-      <c r="F28" s="58"/>
-      <c r="G28" s="58"/>
-      <c r="H28" s="58"/>
-      <c r="I28" s="59"/>
+      <c r="E28" s="77"/>
+      <c r="F28" s="75"/>
+      <c r="G28" s="75"/>
+      <c r="H28" s="75"/>
+      <c r="I28" s="76"/>
     </row>
     <row r="29" spans="1:9" s="51" customFormat="1" ht="12">
       <c r="A29" s="48" t="s">
-        <v>47</v>
+        <v>79</v>
       </c>
       <c r="B29" s="49">
         <v>0.45833333333333331</v>
@@ -3500,17 +3508,17 @@
         <f t="shared" si="0"/>
         <v>0.25000000000000006</v>
       </c>
-      <c r="E29" s="57" t="s">
-        <v>14</v>
-      </c>
-      <c r="F29" s="58"/>
-      <c r="G29" s="58"/>
-      <c r="H29" s="58"/>
-      <c r="I29" s="59"/>
+      <c r="E29" s="77" t="s">
+        <v>46</v>
+      </c>
+      <c r="F29" s="75"/>
+      <c r="G29" s="75"/>
+      <c r="H29" s="75"/>
+      <c r="I29" s="76"/>
     </row>
     <row r="30" spans="1:9" s="43" customFormat="1" ht="12">
       <c r="A30" s="40" t="s">
-        <v>48</v>
+        <v>80</v>
       </c>
       <c r="B30" s="41">
         <v>0.70833333333333337</v>
@@ -3522,17 +3530,17 @@
         <f t="shared" si="0"/>
         <v>0.20833333333333326</v>
       </c>
-      <c r="E30" s="60" t="s">
-        <v>25</v>
-      </c>
-      <c r="F30" s="61"/>
-      <c r="G30" s="61"/>
-      <c r="H30" s="61"/>
-      <c r="I30" s="62"/>
+      <c r="E30" s="71" t="s">
+        <v>57</v>
+      </c>
+      <c r="F30" s="72"/>
+      <c r="G30" s="72"/>
+      <c r="H30" s="72"/>
+      <c r="I30" s="73"/>
     </row>
     <row r="31" spans="1:9" s="43" customFormat="1" ht="12">
       <c r="A31" s="40" t="s">
-        <v>49</v>
+        <v>81</v>
       </c>
       <c r="B31" s="41">
         <v>0.66666666666666663</v>
@@ -3544,17 +3552,17 @@
         <f t="shared" si="0"/>
         <v>0.16666666666666674</v>
       </c>
-      <c r="E31" s="60" t="s">
-        <v>19</v>
-      </c>
-      <c r="F31" s="61"/>
-      <c r="G31" s="61"/>
-      <c r="H31" s="61"/>
-      <c r="I31" s="62"/>
+      <c r="E31" s="71" t="s">
+        <v>51</v>
+      </c>
+      <c r="F31" s="72"/>
+      <c r="G31" s="72"/>
+      <c r="H31" s="72"/>
+      <c r="I31" s="73"/>
     </row>
     <row r="32" spans="1:9" s="43" customFormat="1" ht="12">
       <c r="A32" s="40" t="s">
-        <v>50</v>
+        <v>82</v>
       </c>
       <c r="B32" s="41"/>
       <c r="C32" s="42"/>
@@ -3562,17 +3570,17 @@
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="E32" s="60" t="s">
-        <v>7</v>
-      </c>
-      <c r="F32" s="61"/>
-      <c r="G32" s="61"/>
-      <c r="H32" s="61"/>
-      <c r="I32" s="62"/>
+      <c r="E32" s="71" t="s">
+        <v>42</v>
+      </c>
+      <c r="F32" s="72"/>
+      <c r="G32" s="72"/>
+      <c r="H32" s="72"/>
+      <c r="I32" s="73"/>
     </row>
     <row r="33" spans="1:9" s="43" customFormat="1" ht="12">
       <c r="A33" s="40" t="s">
-        <v>51</v>
+        <v>83</v>
       </c>
       <c r="B33" s="41">
         <v>0.41666666666666669</v>
@@ -3584,13 +3592,13 @@
         <f t="shared" si="0"/>
         <v>4.166666666666663E-2</v>
       </c>
-      <c r="E33" s="60" t="s">
-        <v>8</v>
-      </c>
-      <c r="F33" s="61"/>
-      <c r="G33" s="61"/>
-      <c r="H33" s="61"/>
-      <c r="I33" s="62"/>
+      <c r="E33" s="71" t="s">
+        <v>43</v>
+      </c>
+      <c r="F33" s="72"/>
+      <c r="G33" s="72"/>
+      <c r="H33" s="72"/>
+      <c r="I33" s="73"/>
     </row>
     <row r="34" spans="1:9" s="43" customFormat="1" ht="12">
       <c r="A34" s="40"/>
@@ -3604,17 +3612,17 @@
         <f t="shared" si="0"/>
         <v>0.16666666666666663</v>
       </c>
-      <c r="E34" s="60" t="s">
-        <v>0</v>
-      </c>
-      <c r="F34" s="61"/>
-      <c r="G34" s="61"/>
-      <c r="H34" s="61"/>
-      <c r="I34" s="62"/>
+      <c r="E34" s="71" t="s">
+        <v>35</v>
+      </c>
+      <c r="F34" s="72"/>
+      <c r="G34" s="72"/>
+      <c r="H34" s="72"/>
+      <c r="I34" s="73"/>
     </row>
     <row r="35" spans="1:9" s="43" customFormat="1" ht="12">
       <c r="A35" s="40" t="s">
-        <v>52</v>
+        <v>0</v>
       </c>
       <c r="B35" s="41">
         <v>0.4375</v>
@@ -3626,17 +3634,17 @@
         <f t="shared" si="0"/>
         <v>0.10416666666666663</v>
       </c>
-      <c r="E35" s="60" t="s">
-        <v>9</v>
-      </c>
-      <c r="F35" s="61"/>
-      <c r="G35" s="61"/>
-      <c r="H35" s="61"/>
-      <c r="I35" s="62"/>
+      <c r="E35" s="71" t="s">
+        <v>44</v>
+      </c>
+      <c r="F35" s="72"/>
+      <c r="G35" s="72"/>
+      <c r="H35" s="72"/>
+      <c r="I35" s="73"/>
     </row>
     <row r="36" spans="1:9" s="51" customFormat="1" ht="12">
       <c r="A36" s="48" t="s">
-        <v>53</v>
+        <v>1</v>
       </c>
       <c r="B36" s="49">
         <v>0.33333333333333331</v>
@@ -3648,85 +3656,97 @@
         <f t="shared" si="0"/>
         <v>6.25E-2</v>
       </c>
-      <c r="E36" s="57" t="s">
-        <v>10</v>
-      </c>
-      <c r="F36" s="58"/>
-      <c r="G36" s="58"/>
-      <c r="H36" s="58"/>
-      <c r="I36" s="59"/>
+      <c r="E36" s="77" t="s">
+        <v>33</v>
+      </c>
+      <c r="F36" s="75"/>
+      <c r="G36" s="75"/>
+      <c r="H36" s="75"/>
+      <c r="I36" s="76"/>
     </row>
     <row r="37" spans="1:9" s="51" customFormat="1" ht="12">
-      <c r="A37" s="48" t="s">
-        <v>54</v>
-      </c>
-      <c r="B37" s="49"/>
-      <c r="C37" s="50"/>
+      <c r="A37" s="48"/>
+      <c r="B37" s="49">
+        <v>0.625</v>
+      </c>
+      <c r="C37" s="50">
+        <v>0.75</v>
+      </c>
       <c r="D37" s="42">
         <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="E37" s="57" t="s">
-        <v>11</v>
-      </c>
-      <c r="F37" s="58"/>
-      <c r="G37" s="58"/>
-      <c r="H37" s="58"/>
-      <c r="I37" s="59"/>
-    </row>
-    <row r="38" spans="1:9" s="43" customFormat="1" ht="12">
-      <c r="A38" s="40" t="s">
-        <v>55</v>
-      </c>
-      <c r="B38" s="41"/>
-      <c r="C38" s="42"/>
+        <v>0.125</v>
+      </c>
+      <c r="E37" s="77" t="s">
+        <v>32</v>
+      </c>
+      <c r="F37" s="75"/>
+      <c r="G37" s="75"/>
+      <c r="H37" s="75"/>
+      <c r="I37" s="76"/>
+    </row>
+    <row r="38" spans="1:9" s="51" customFormat="1" ht="12">
+      <c r="A38" s="48" t="s">
+        <v>2</v>
+      </c>
+      <c r="B38" s="49"/>
+      <c r="C38" s="50"/>
       <c r="D38" s="42">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="E38" s="60"/>
-      <c r="F38" s="61"/>
-      <c r="G38" s="61"/>
-      <c r="H38" s="61"/>
-      <c r="I38" s="62"/>
+      <c r="E38" s="77"/>
+      <c r="F38" s="75"/>
+      <c r="G38" s="75"/>
+      <c r="H38" s="75"/>
+      <c r="I38" s="76"/>
     </row>
     <row r="39" spans="1:9" s="43" customFormat="1" ht="12">
       <c r="A39" s="40" t="s">
-        <v>56</v>
-      </c>
-      <c r="B39" s="41"/>
-      <c r="C39" s="42"/>
+        <v>3</v>
+      </c>
+      <c r="B39" s="41">
+        <v>0.41666666666666669</v>
+      </c>
+      <c r="C39" s="42">
+        <v>0.83333333333333337</v>
+      </c>
       <c r="D39" s="42">
         <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="E39" s="60" t="s">
-        <v>12</v>
-      </c>
-      <c r="F39" s="61"/>
-      <c r="G39" s="61"/>
-      <c r="H39" s="61"/>
-      <c r="I39" s="62"/>
+        <v>0.41666666666666669</v>
+      </c>
+      <c r="E39" s="71" t="s">
+        <v>34</v>
+      </c>
+      <c r="F39" s="72"/>
+      <c r="G39" s="72"/>
+      <c r="H39" s="72"/>
+      <c r="I39" s="73"/>
     </row>
     <row r="40" spans="1:9" s="43" customFormat="1" ht="12">
       <c r="A40" s="40" t="s">
-        <v>57</v>
-      </c>
-      <c r="B40" s="41"/>
-      <c r="C40" s="42"/>
+        <v>4</v>
+      </c>
+      <c r="B40" s="41">
+        <v>0.375</v>
+      </c>
+      <c r="C40" s="42">
+        <v>0.66666666666666663</v>
+      </c>
       <c r="D40" s="42">
         <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="E40" s="60"/>
-      <c r="F40" s="61"/>
-      <c r="G40" s="61"/>
-      <c r="H40" s="61"/>
-      <c r="I40" s="62"/>
+        <v>0.29166666666666663</v>
+      </c>
+      <c r="E40" s="71" t="s">
+        <v>31</v>
+      </c>
+      <c r="F40" s="72"/>
+      <c r="G40" s="72"/>
+      <c r="H40" s="72"/>
+      <c r="I40" s="73"/>
     </row>
     <row r="41" spans="1:9" s="43" customFormat="1" ht="12">
       <c r="A41" s="40" t="s">
-        <v>58</v>
+        <v>5</v>
       </c>
       <c r="B41" s="41"/>
       <c r="C41" s="42"/>
@@ -3734,15 +3754,15 @@
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="E41" s="60"/>
-      <c r="F41" s="61"/>
-      <c r="G41" s="61"/>
-      <c r="H41" s="61"/>
-      <c r="I41" s="62"/>
+      <c r="E41" s="71"/>
+      <c r="F41" s="72"/>
+      <c r="G41" s="72"/>
+      <c r="H41" s="72"/>
+      <c r="I41" s="73"/>
     </row>
     <row r="42" spans="1:9" s="43" customFormat="1" ht="12">
       <c r="A42" s="40" t="s">
-        <v>59</v>
+        <v>6</v>
       </c>
       <c r="B42" s="41"/>
       <c r="C42" s="42"/>
@@ -3750,31 +3770,31 @@
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="E42" s="60"/>
-      <c r="F42" s="61"/>
-      <c r="G42" s="61"/>
-      <c r="H42" s="61"/>
-      <c r="I42" s="62"/>
-    </row>
-    <row r="43" spans="1:9" s="51" customFormat="1" ht="12">
-      <c r="A43" s="48" t="s">
-        <v>60</v>
-      </c>
-      <c r="B43" s="49"/>
-      <c r="C43" s="50"/>
+      <c r="E42" s="71"/>
+      <c r="F42" s="72"/>
+      <c r="G42" s="72"/>
+      <c r="H42" s="72"/>
+      <c r="I42" s="73"/>
+    </row>
+    <row r="43" spans="1:9" s="43" customFormat="1" ht="12">
+      <c r="A43" s="40" t="s">
+        <v>7</v>
+      </c>
+      <c r="B43" s="41"/>
+      <c r="C43" s="42"/>
       <c r="D43" s="42">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="E43" s="57"/>
-      <c r="F43" s="58"/>
-      <c r="G43" s="58"/>
-      <c r="H43" s="58"/>
-      <c r="I43" s="59"/>
+      <c r="E43" s="71"/>
+      <c r="F43" s="72"/>
+      <c r="G43" s="72"/>
+      <c r="H43" s="72"/>
+      <c r="I43" s="73"/>
     </row>
     <row r="44" spans="1:9" s="51" customFormat="1" ht="12">
       <c r="A44" s="48" t="s">
-        <v>61</v>
+        <v>8</v>
       </c>
       <c r="B44" s="49"/>
       <c r="C44" s="50"/>
@@ -3782,31 +3802,31 @@
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="E44" s="57"/>
-      <c r="F44" s="58"/>
-      <c r="G44" s="58"/>
-      <c r="H44" s="58"/>
-      <c r="I44" s="59"/>
-    </row>
-    <row r="45" spans="1:9" s="43" customFormat="1" ht="12">
-      <c r="A45" s="40" t="s">
-        <v>62</v>
-      </c>
-      <c r="B45" s="41"/>
-      <c r="C45" s="42"/>
+      <c r="E44" s="77"/>
+      <c r="F44" s="75"/>
+      <c r="G44" s="75"/>
+      <c r="H44" s="75"/>
+      <c r="I44" s="76"/>
+    </row>
+    <row r="45" spans="1:9" s="51" customFormat="1" ht="12">
+      <c r="A45" s="48" t="s">
+        <v>9</v>
+      </c>
+      <c r="B45" s="49"/>
+      <c r="C45" s="50"/>
       <c r="D45" s="42">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="E45" s="60"/>
-      <c r="F45" s="61"/>
-      <c r="G45" s="61"/>
-      <c r="H45" s="61"/>
-      <c r="I45" s="62"/>
+      <c r="E45" s="77"/>
+      <c r="F45" s="75"/>
+      <c r="G45" s="75"/>
+      <c r="H45" s="75"/>
+      <c r="I45" s="76"/>
     </row>
     <row r="46" spans="1:9" s="43" customFormat="1" ht="12">
       <c r="A46" s="40" t="s">
-        <v>63</v>
+        <v>10</v>
       </c>
       <c r="B46" s="41"/>
       <c r="C46" s="42"/>
@@ -3814,15 +3834,15 @@
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="E46" s="60"/>
-      <c r="F46" s="61"/>
-      <c r="G46" s="61"/>
-      <c r="H46" s="61"/>
-      <c r="I46" s="62"/>
+      <c r="E46" s="71"/>
+      <c r="F46" s="72"/>
+      <c r="G46" s="72"/>
+      <c r="H46" s="72"/>
+      <c r="I46" s="73"/>
     </row>
     <row r="47" spans="1:9" s="43" customFormat="1" ht="12">
       <c r="A47" s="40" t="s">
-        <v>64</v>
+        <v>11</v>
       </c>
       <c r="B47" s="41"/>
       <c r="C47" s="42"/>
@@ -3830,47 +3850,86 @@
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="E47" s="60"/>
-      <c r="F47" s="61"/>
-      <c r="G47" s="61"/>
-      <c r="H47" s="61"/>
-      <c r="I47" s="62"/>
-    </row>
-    <row r="48" spans="1:9" s="47" customFormat="1" ht="13">
-      <c r="A48" s="63"/>
-      <c r="B48" s="64"/>
-      <c r="C48" s="64"/>
-      <c r="D48" s="46">
-        <f>SUM(D16:D47)</f>
-        <v>1.708333333333333</v>
-      </c>
-      <c r="E48" s="65"/>
-      <c r="F48" s="65"/>
-      <c r="G48" s="65"/>
-      <c r="H48" s="65"/>
-      <c r="I48" s="66"/>
-    </row>
-    <row r="49" spans="1:12" ht="7" customHeight="1">
-      <c r="A49" s="28"/>
-      <c r="B49" s="28"/>
-      <c r="C49" s="28"/>
-      <c r="D49" s="29"/>
-      <c r="E49" s="30"/>
-      <c r="F49" s="30"/>
-      <c r="G49" s="30"/>
-      <c r="H49" s="30"/>
-      <c r="I49" s="31"/>
-      <c r="J49" s="14"/>
-      <c r="K49" s="13"/>
-      <c r="L49" s="13"/>
+      <c r="E47" s="71"/>
+      <c r="F47" s="72"/>
+      <c r="G47" s="72"/>
+      <c r="H47" s="72"/>
+      <c r="I47" s="73"/>
+    </row>
+    <row r="48" spans="1:9" s="43" customFormat="1" ht="12">
+      <c r="A48" s="40" t="s">
+        <v>12</v>
+      </c>
+      <c r="B48" s="41"/>
+      <c r="C48" s="42"/>
+      <c r="D48" s="42">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="E48" s="71"/>
+      <c r="F48" s="72"/>
+      <c r="G48" s="72"/>
+      <c r="H48" s="72"/>
+      <c r="I48" s="73"/>
+    </row>
+    <row r="49" spans="1:12" s="47" customFormat="1" ht="13">
+      <c r="A49" s="94"/>
+      <c r="B49" s="95"/>
+      <c r="C49" s="95"/>
+      <c r="D49" s="46">
+        <f>SUM(D16:D48)</f>
+        <v>2.5416666666666661</v>
+      </c>
+      <c r="E49" s="96"/>
+      <c r="F49" s="96"/>
+      <c r="G49" s="96"/>
+      <c r="H49" s="96"/>
+      <c r="I49" s="97"/>
+    </row>
+    <row r="50" spans="1:12" ht="7" customHeight="1">
+      <c r="A50" s="28"/>
+      <c r="B50" s="28"/>
+      <c r="C50" s="28"/>
+      <c r="D50" s="29"/>
+      <c r="E50" s="30"/>
+      <c r="F50" s="30"/>
+      <c r="G50" s="30"/>
+      <c r="H50" s="30"/>
+      <c r="I50" s="31"/>
+      <c r="J50" s="14"/>
+      <c r="K50" s="13"/>
+      <c r="L50" s="13"/>
     </row>
   </sheetData>
-  <mergeCells count="52">
-    <mergeCell ref="E34:I34"/>
-    <mergeCell ref="E24:I24"/>
-    <mergeCell ref="A5:C5"/>
-    <mergeCell ref="D5:H5"/>
-    <mergeCell ref="A6:I6"/>
+  <mergeCells count="53">
+    <mergeCell ref="E37:I37"/>
+    <mergeCell ref="A49:C49"/>
+    <mergeCell ref="E49:I49"/>
+    <mergeCell ref="E46:I46"/>
+    <mergeCell ref="E47:I47"/>
+    <mergeCell ref="E48:I48"/>
+    <mergeCell ref="E36:I36"/>
+    <mergeCell ref="E38:I38"/>
+    <mergeCell ref="E39:I39"/>
+    <mergeCell ref="A7:C7"/>
+    <mergeCell ref="D7:H7"/>
+    <mergeCell ref="A8:I8"/>
+    <mergeCell ref="D14:D15"/>
+    <mergeCell ref="E32:I32"/>
+    <mergeCell ref="E33:I33"/>
+    <mergeCell ref="E35:I35"/>
+    <mergeCell ref="E29:I29"/>
+    <mergeCell ref="E30:I30"/>
+    <mergeCell ref="E31:I31"/>
+    <mergeCell ref="E26:I26"/>
+    <mergeCell ref="E27:I27"/>
+    <mergeCell ref="E28:I28"/>
+    <mergeCell ref="E44:I44"/>
+    <mergeCell ref="E45:I45"/>
+    <mergeCell ref="E40:I40"/>
+    <mergeCell ref="E41:I41"/>
+    <mergeCell ref="E42:I42"/>
+    <mergeCell ref="E43:I43"/>
     <mergeCell ref="A1:I1"/>
     <mergeCell ref="A2:I2"/>
     <mergeCell ref="A3:H3"/>
@@ -3884,6 +3943,11 @@
     <mergeCell ref="A13:A15"/>
     <mergeCell ref="B13:I13"/>
     <mergeCell ref="B14:C14"/>
+    <mergeCell ref="E34:I34"/>
+    <mergeCell ref="E24:I24"/>
+    <mergeCell ref="A5:C5"/>
+    <mergeCell ref="D5:H5"/>
+    <mergeCell ref="A6:I6"/>
     <mergeCell ref="E22:I22"/>
     <mergeCell ref="E23:I23"/>
     <mergeCell ref="E25:I25"/>
@@ -3891,38 +3955,11 @@
     <mergeCell ref="E18:I18"/>
     <mergeCell ref="E20:I20"/>
     <mergeCell ref="E19:I19"/>
-    <mergeCell ref="E43:I43"/>
-    <mergeCell ref="E44:I44"/>
-    <mergeCell ref="E39:I39"/>
-    <mergeCell ref="E40:I40"/>
-    <mergeCell ref="E41:I41"/>
-    <mergeCell ref="E42:I42"/>
-    <mergeCell ref="E36:I36"/>
-    <mergeCell ref="E37:I37"/>
-    <mergeCell ref="E38:I38"/>
-    <mergeCell ref="A7:C7"/>
-    <mergeCell ref="D7:H7"/>
-    <mergeCell ref="A8:I8"/>
-    <mergeCell ref="D14:D15"/>
-    <mergeCell ref="E32:I32"/>
-    <mergeCell ref="E33:I33"/>
-    <mergeCell ref="E35:I35"/>
-    <mergeCell ref="E29:I29"/>
-    <mergeCell ref="E30:I30"/>
-    <mergeCell ref="E31:I31"/>
-    <mergeCell ref="E26:I26"/>
-    <mergeCell ref="E27:I27"/>
-    <mergeCell ref="E28:I28"/>
-    <mergeCell ref="A48:C48"/>
-    <mergeCell ref="E48:I48"/>
-    <mergeCell ref="E45:I45"/>
-    <mergeCell ref="E46:I46"/>
-    <mergeCell ref="E47:I47"/>
   </mergeCells>
   <phoneticPr fontId="32" type="noConversion"/>
   <printOptions horizontalCentered="1"/>
   <pageMargins left="0.44" right="0.03" top="0.02" bottom="0.03" header="0.19685039370078741" footer="0.19685039370078741"/>
-  <pageSetup paperSize="9" scale="92" orientation="landscape"/>
+  <pageSetup paperSize="9" scale="91" orientation="landscape"/>
   <extLst>
     <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="http://schemas.microsoft.com/office/mac/excel/2008/main">
       <mx:PLV Mode="1" OnePage="0" WScale="0"/>
@@ -3956,17 +3993,17 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:40" s="7" customFormat="1" ht="18" thickBot="1">
-      <c r="A1" s="84" t="s">
-        <v>68</v>
-      </c>
-      <c r="B1" s="84"/>
-      <c r="C1" s="84"/>
-      <c r="D1" s="84"/>
-      <c r="E1" s="84"/>
-      <c r="F1" s="84"/>
-      <c r="G1" s="84"/>
-      <c r="H1" s="84"/>
-      <c r="I1" s="84"/>
+      <c r="A1" s="66" t="s">
+        <v>16</v>
+      </c>
+      <c r="B1" s="66"/>
+      <c r="C1" s="66"/>
+      <c r="D1" s="66"/>
+      <c r="E1" s="66"/>
+      <c r="F1" s="66"/>
+      <c r="G1" s="66"/>
+      <c r="H1" s="66"/>
+      <c r="I1" s="66"/>
       <c r="J1" s="8"/>
       <c r="K1" s="8"/>
       <c r="L1" s="8"/>
@@ -3999,15 +4036,15 @@
       <c r="AM1" s="8"/>
     </row>
     <row r="2" spans="1:40" s="1" customFormat="1" ht="7.5" customHeight="1">
-      <c r="A2" s="85"/>
-      <c r="B2" s="85"/>
-      <c r="C2" s="85"/>
-      <c r="D2" s="85"/>
-      <c r="E2" s="85"/>
-      <c r="F2" s="85"/>
-      <c r="G2" s="85"/>
-      <c r="H2" s="85"/>
-      <c r="I2" s="85"/>
+      <c r="A2" s="67"/>
+      <c r="B2" s="67"/>
+      <c r="C2" s="67"/>
+      <c r="D2" s="67"/>
+      <c r="E2" s="67"/>
+      <c r="F2" s="67"/>
+      <c r="G2" s="67"/>
+      <c r="H2" s="67"/>
+      <c r="I2" s="67"/>
       <c r="J2" s="9"/>
       <c r="K2" s="9"/>
       <c r="L2" s="9"/>
@@ -4040,16 +4077,16 @@
       <c r="AM2" s="9"/>
     </row>
     <row r="3" spans="1:40" s="11" customFormat="1" ht="13.5" customHeight="1">
-      <c r="A3" s="86" t="s">
-        <v>72</v>
-      </c>
-      <c r="B3" s="86"/>
-      <c r="C3" s="86"/>
-      <c r="D3" s="86"/>
-      <c r="E3" s="86"/>
-      <c r="F3" s="86"/>
-      <c r="G3" s="86"/>
-      <c r="H3" s="86"/>
+      <c r="A3" s="68" t="s">
+        <v>20</v>
+      </c>
+      <c r="B3" s="68"/>
+      <c r="C3" s="68"/>
+      <c r="D3" s="68"/>
+      <c r="E3" s="68"/>
+      <c r="F3" s="68"/>
+      <c r="G3" s="68"/>
+      <c r="H3" s="68"/>
       <c r="I3" s="23"/>
       <c r="J3" s="22"/>
       <c r="K3" s="22"/>
@@ -4084,112 +4121,112 @@
       <c r="AN3" s="10"/>
     </row>
     <row r="4" spans="1:40" s="6" customFormat="1" ht="9" customHeight="1">
-      <c r="A4" s="87"/>
-      <c r="B4" s="87"/>
-      <c r="C4" s="87"/>
-      <c r="D4" s="87"/>
-      <c r="E4" s="87"/>
-      <c r="F4" s="87"/>
-      <c r="G4" s="87"/>
-      <c r="H4" s="87"/>
-      <c r="I4" s="87"/>
+      <c r="A4" s="69"/>
+      <c r="B4" s="69"/>
+      <c r="C4" s="69"/>
+      <c r="D4" s="69"/>
+      <c r="E4" s="69"/>
+      <c r="F4" s="69"/>
+      <c r="G4" s="69"/>
+      <c r="H4" s="69"/>
+      <c r="I4" s="69"/>
     </row>
     <row r="5" spans="1:40" s="1" customFormat="1" ht="13.75" customHeight="1">
-      <c r="A5" s="94" t="str">
+      <c r="A5" s="62" t="str">
         <f>October!A5</f>
         <v>Firstname Lastname</v>
       </c>
-      <c r="B5" s="95"/>
-      <c r="C5" s="95"/>
-      <c r="D5" s="90" t="str">
+      <c r="B5" s="63"/>
+      <c r="C5" s="63"/>
+      <c r="D5" s="58" t="str">
         <f>October!D5</f>
         <v>Augustin Hannah</v>
       </c>
-      <c r="E5" s="91"/>
-      <c r="F5" s="91"/>
-      <c r="G5" s="91"/>
-      <c r="H5" s="92"/>
+      <c r="E5" s="59"/>
+      <c r="F5" s="59"/>
+      <c r="G5" s="59"/>
+      <c r="H5" s="60"/>
       <c r="I5" s="23"/>
       <c r="J5" s="9"/>
       <c r="K5" s="9"/>
       <c r="L5" s="9"/>
     </row>
     <row r="6" spans="1:40" s="1" customFormat="1" ht="7.5" customHeight="1">
-      <c r="A6" s="96"/>
-      <c r="B6" s="96"/>
-      <c r="C6" s="96"/>
-      <c r="D6" s="96"/>
-      <c r="E6" s="96"/>
-      <c r="F6" s="96"/>
-      <c r="G6" s="96"/>
-      <c r="H6" s="96"/>
-      <c r="I6" s="96"/>
+      <c r="A6" s="64"/>
+      <c r="B6" s="64"/>
+      <c r="C6" s="64"/>
+      <c r="D6" s="64"/>
+      <c r="E6" s="64"/>
+      <c r="F6" s="64"/>
+      <c r="G6" s="64"/>
+      <c r="H6" s="64"/>
+      <c r="I6" s="64"/>
     </row>
     <row r="7" spans="1:40" s="1" customFormat="1" ht="13.75" customHeight="1">
-      <c r="A7" s="89" t="str">
+      <c r="A7" s="57" t="str">
         <f>October!A7</f>
         <v>Project Acronym</v>
       </c>
-      <c r="B7" s="89"/>
-      <c r="C7" s="89"/>
-      <c r="D7" s="97" t="str">
+      <c r="B7" s="57"/>
+      <c r="C7" s="57"/>
+      <c r="D7" s="65" t="str">
         <f>October!D7</f>
         <v>AIQ</v>
       </c>
-      <c r="E7" s="97"/>
-      <c r="F7" s="97"/>
-      <c r="G7" s="97"/>
-      <c r="H7" s="97"/>
+      <c r="E7" s="65"/>
+      <c r="F7" s="65"/>
+      <c r="G7" s="65"/>
+      <c r="H7" s="65"/>
       <c r="I7" s="24"/>
     </row>
     <row r="8" spans="1:40" s="1" customFormat="1" ht="7.5" customHeight="1">
-      <c r="A8" s="88"/>
-      <c r="B8" s="88"/>
-      <c r="C8" s="88"/>
-      <c r="D8" s="88"/>
-      <c r="E8" s="88"/>
-      <c r="F8" s="88"/>
-      <c r="G8" s="88"/>
-      <c r="H8" s="88"/>
-      <c r="I8" s="88"/>
+      <c r="A8" s="70"/>
+      <c r="B8" s="70"/>
+      <c r="C8" s="70"/>
+      <c r="D8" s="70"/>
+      <c r="E8" s="70"/>
+      <c r="F8" s="70"/>
+      <c r="G8" s="70"/>
+      <c r="H8" s="70"/>
+      <c r="I8" s="70"/>
     </row>
     <row r="9" spans="1:40" s="1" customFormat="1" ht="13.75" customHeight="1">
-      <c r="A9" s="89" t="str">
+      <c r="A9" s="57" t="str">
         <f>October!A9</f>
         <v>Project Title</v>
       </c>
-      <c r="B9" s="89"/>
-      <c r="C9" s="89"/>
-      <c r="D9" s="90" t="str">
+      <c r="B9" s="57"/>
+      <c r="C9" s="57"/>
+      <c r="D9" s="58" t="str">
         <f>October!D9</f>
         <v>Automating change detection in ImageQuerying</v>
       </c>
-      <c r="E9" s="91"/>
-      <c r="F9" s="91"/>
-      <c r="G9" s="91"/>
-      <c r="H9" s="92"/>
+      <c r="E9" s="59"/>
+      <c r="F9" s="59"/>
+      <c r="G9" s="59"/>
+      <c r="H9" s="60"/>
       <c r="I9" s="24"/>
       <c r="J9" s="15"/>
     </row>
     <row r="10" spans="1:40" s="1" customFormat="1" ht="7.5" customHeight="1">
-      <c r="A10" s="93"/>
-      <c r="B10" s="93"/>
-      <c r="C10" s="93"/>
-      <c r="D10" s="93"/>
-      <c r="E10" s="93"/>
-      <c r="F10" s="93"/>
-      <c r="G10" s="93"/>
-      <c r="H10" s="93"/>
-      <c r="I10" s="93"/>
+      <c r="A10" s="61"/>
+      <c r="B10" s="61"/>
+      <c r="C10" s="61"/>
+      <c r="D10" s="61"/>
+      <c r="E10" s="61"/>
+      <c r="F10" s="61"/>
+      <c r="G10" s="61"/>
+      <c r="H10" s="61"/>
+      <c r="I10" s="61"/>
     </row>
     <row r="11" spans="1:40" s="1" customFormat="1" ht="12">
       <c r="A11" s="21" t="s">
-        <v>70</v>
+        <v>18</v>
       </c>
       <c r="B11" s="21"/>
       <c r="C11" s="21"/>
       <c r="D11" s="21" t="s">
-        <v>71</v>
+        <v>19</v>
       </c>
       <c r="E11" s="21"/>
       <c r="F11" s="21"/>
@@ -4209,55 +4246,55 @@
       <c r="I12" s="26"/>
     </row>
     <row r="13" spans="1:40" s="2" customFormat="1" ht="15.5" customHeight="1">
-      <c r="A13" s="68" t="s">
-        <v>30</v>
-      </c>
-      <c r="B13" s="71" t="s">
+      <c r="A13" s="78" t="s">
+        <v>62</v>
+      </c>
+      <c r="B13" s="81" t="s">
+        <v>14</v>
+      </c>
+      <c r="C13" s="82"/>
+      <c r="D13" s="82"/>
+      <c r="E13" s="82"/>
+      <c r="F13" s="82"/>
+      <c r="G13" s="82"/>
+      <c r="H13" s="82"/>
+      <c r="I13" s="83"/>
+    </row>
+    <row r="14" spans="1:40" s="2" customFormat="1" ht="13.75" customHeight="1">
+      <c r="A14" s="79"/>
+      <c r="B14" s="84" t="s">
+        <v>63</v>
+      </c>
+      <c r="C14" s="85"/>
+      <c r="D14" s="86" t="s">
+        <v>64</v>
+      </c>
+      <c r="E14" s="88" t="s">
+        <v>15</v>
+      </c>
+      <c r="F14" s="89"/>
+      <c r="G14" s="89"/>
+      <c r="H14" s="89"/>
+      <c r="I14" s="90"/>
+    </row>
+    <row r="15" spans="1:40" ht="13" customHeight="1">
+      <c r="A15" s="80"/>
+      <c r="B15" s="32" t="s">
+        <v>65</v>
+      </c>
+      <c r="C15" s="33" t="s">
         <v>66</v>
       </c>
-      <c r="C13" s="72"/>
-      <c r="D13" s="72"/>
-      <c r="E13" s="72"/>
-      <c r="F13" s="72"/>
-      <c r="G13" s="72"/>
-      <c r="H13" s="72"/>
-      <c r="I13" s="73"/>
-    </row>
-    <row r="14" spans="1:40" s="2" customFormat="1" ht="13.75" customHeight="1">
-      <c r="A14" s="69"/>
-      <c r="B14" s="74" t="s">
-        <v>31</v>
-      </c>
-      <c r="C14" s="75"/>
-      <c r="D14" s="76" t="s">
-        <v>32</v>
-      </c>
-      <c r="E14" s="78" t="s">
-        <v>67</v>
-      </c>
-      <c r="F14" s="79"/>
-      <c r="G14" s="79"/>
-      <c r="H14" s="79"/>
-      <c r="I14" s="80"/>
-    </row>
-    <row r="15" spans="1:40" ht="13" customHeight="1">
-      <c r="A15" s="70"/>
-      <c r="B15" s="32" t="s">
-        <v>33</v>
-      </c>
-      <c r="C15" s="33" t="s">
-        <v>34</v>
-      </c>
-      <c r="D15" s="77"/>
-      <c r="E15" s="81"/>
-      <c r="F15" s="82"/>
-      <c r="G15" s="82"/>
-      <c r="H15" s="82"/>
-      <c r="I15" s="83"/>
+      <c r="D15" s="87"/>
+      <c r="E15" s="91"/>
+      <c r="F15" s="92"/>
+      <c r="G15" s="92"/>
+      <c r="H15" s="92"/>
+      <c r="I15" s="93"/>
     </row>
     <row r="16" spans="1:40" s="43" customFormat="1" ht="12">
       <c r="A16" s="40" t="s">
-        <v>35</v>
+        <v>67</v>
       </c>
       <c r="B16" s="41"/>
       <c r="C16" s="42"/>
@@ -4265,15 +4302,15 @@
         <f>C16-B16</f>
         <v>0</v>
       </c>
-      <c r="E16" s="60"/>
-      <c r="F16" s="61"/>
-      <c r="G16" s="61"/>
-      <c r="H16" s="61"/>
-      <c r="I16" s="62"/>
+      <c r="E16" s="71"/>
+      <c r="F16" s="72"/>
+      <c r="G16" s="72"/>
+      <c r="H16" s="72"/>
+      <c r="I16" s="73"/>
     </row>
     <row r="17" spans="1:9" s="43" customFormat="1" ht="12">
       <c r="A17" s="40" t="s">
-        <v>36</v>
+        <v>68</v>
       </c>
       <c r="B17" s="41"/>
       <c r="C17" s="42"/>
@@ -4281,15 +4318,15 @@
         <f t="shared" ref="D17:D46" si="0">C17-B17</f>
         <v>0</v>
       </c>
-      <c r="E17" s="60"/>
-      <c r="F17" s="61"/>
-      <c r="G17" s="61"/>
-      <c r="H17" s="61"/>
-      <c r="I17" s="62"/>
+      <c r="E17" s="71"/>
+      <c r="F17" s="72"/>
+      <c r="G17" s="72"/>
+      <c r="H17" s="72"/>
+      <c r="I17" s="73"/>
     </row>
     <row r="18" spans="1:9" s="51" customFormat="1" ht="12">
       <c r="A18" s="48" t="s">
-        <v>37</v>
+        <v>69</v>
       </c>
       <c r="B18" s="49"/>
       <c r="C18" s="50"/>
@@ -4297,15 +4334,15 @@
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="E18" s="57"/>
-      <c r="F18" s="58"/>
-      <c r="G18" s="58"/>
-      <c r="H18" s="58"/>
-      <c r="I18" s="59"/>
+      <c r="E18" s="77"/>
+      <c r="F18" s="75"/>
+      <c r="G18" s="75"/>
+      <c r="H18" s="75"/>
+      <c r="I18" s="76"/>
     </row>
     <row r="19" spans="1:9" s="51" customFormat="1" ht="12">
       <c r="A19" s="48" t="s">
-        <v>38</v>
+        <v>70</v>
       </c>
       <c r="B19" s="49"/>
       <c r="C19" s="50"/>
@@ -4313,15 +4350,15 @@
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="E19" s="57"/>
-      <c r="F19" s="58"/>
-      <c r="G19" s="58"/>
-      <c r="H19" s="58"/>
-      <c r="I19" s="59"/>
+      <c r="E19" s="77"/>
+      <c r="F19" s="75"/>
+      <c r="G19" s="75"/>
+      <c r="H19" s="75"/>
+      <c r="I19" s="76"/>
     </row>
     <row r="20" spans="1:9" s="43" customFormat="1" ht="12">
       <c r="A20" s="40" t="s">
-        <v>39</v>
+        <v>71</v>
       </c>
       <c r="B20" s="41"/>
       <c r="C20" s="42"/>
@@ -4329,15 +4366,15 @@
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="E20" s="60"/>
-      <c r="F20" s="61"/>
-      <c r="G20" s="61"/>
-      <c r="H20" s="61"/>
-      <c r="I20" s="62"/>
+      <c r="E20" s="71"/>
+      <c r="F20" s="72"/>
+      <c r="G20" s="72"/>
+      <c r="H20" s="72"/>
+      <c r="I20" s="73"/>
     </row>
     <row r="21" spans="1:9" s="43" customFormat="1" ht="12">
       <c r="A21" s="40" t="s">
-        <v>40</v>
+        <v>72</v>
       </c>
       <c r="B21" s="41"/>
       <c r="C21" s="42"/>
@@ -4345,15 +4382,15 @@
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="E21" s="60"/>
-      <c r="F21" s="61"/>
-      <c r="G21" s="61"/>
-      <c r="H21" s="61"/>
-      <c r="I21" s="62"/>
+      <c r="E21" s="71"/>
+      <c r="F21" s="72"/>
+      <c r="G21" s="72"/>
+      <c r="H21" s="72"/>
+      <c r="I21" s="73"/>
     </row>
     <row r="22" spans="1:9" s="43" customFormat="1" ht="12">
       <c r="A22" s="40" t="s">
-        <v>41</v>
+        <v>73</v>
       </c>
       <c r="B22" s="41"/>
       <c r="C22" s="42"/>
@@ -4361,15 +4398,15 @@
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="E22" s="60"/>
-      <c r="F22" s="61"/>
-      <c r="G22" s="61"/>
-      <c r="H22" s="61"/>
-      <c r="I22" s="62"/>
+      <c r="E22" s="71"/>
+      <c r="F22" s="72"/>
+      <c r="G22" s="72"/>
+      <c r="H22" s="72"/>
+      <c r="I22" s="73"/>
     </row>
     <row r="23" spans="1:9" s="43" customFormat="1" ht="12">
       <c r="A23" s="40" t="s">
-        <v>42</v>
+        <v>74</v>
       </c>
       <c r="B23" s="41"/>
       <c r="C23" s="42"/>
@@ -4377,15 +4414,15 @@
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="E23" s="60"/>
-      <c r="F23" s="61"/>
-      <c r="G23" s="61"/>
-      <c r="H23" s="61"/>
-      <c r="I23" s="62"/>
+      <c r="E23" s="71"/>
+      <c r="F23" s="72"/>
+      <c r="G23" s="72"/>
+      <c r="H23" s="72"/>
+      <c r="I23" s="73"/>
     </row>
     <row r="24" spans="1:9" s="43" customFormat="1" ht="12">
       <c r="A24" s="40" t="s">
-        <v>43</v>
+        <v>75</v>
       </c>
       <c r="B24" s="41"/>
       <c r="C24" s="42"/>
@@ -4393,15 +4430,15 @@
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="E24" s="60"/>
-      <c r="F24" s="61"/>
-      <c r="G24" s="61"/>
-      <c r="H24" s="61"/>
-      <c r="I24" s="62"/>
+      <c r="E24" s="71"/>
+      <c r="F24" s="72"/>
+      <c r="G24" s="72"/>
+      <c r="H24" s="72"/>
+      <c r="I24" s="73"/>
     </row>
     <row r="25" spans="1:9" s="51" customFormat="1" ht="12">
       <c r="A25" s="48" t="s">
-        <v>44</v>
+        <v>76</v>
       </c>
       <c r="B25" s="49"/>
       <c r="C25" s="50"/>
@@ -4409,15 +4446,15 @@
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="E25" s="57"/>
-      <c r="F25" s="58"/>
-      <c r="G25" s="58"/>
-      <c r="H25" s="58"/>
-      <c r="I25" s="59"/>
+      <c r="E25" s="77"/>
+      <c r="F25" s="75"/>
+      <c r="G25" s="75"/>
+      <c r="H25" s="75"/>
+      <c r="I25" s="76"/>
     </row>
     <row r="26" spans="1:9" s="51" customFormat="1" ht="12">
       <c r="A26" s="48" t="s">
-        <v>45</v>
+        <v>77</v>
       </c>
       <c r="B26" s="49"/>
       <c r="C26" s="50"/>
@@ -4425,15 +4462,15 @@
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="E26" s="57"/>
-      <c r="F26" s="58"/>
-      <c r="G26" s="58"/>
-      <c r="H26" s="58"/>
-      <c r="I26" s="59"/>
+      <c r="E26" s="77"/>
+      <c r="F26" s="75"/>
+      <c r="G26" s="75"/>
+      <c r="H26" s="75"/>
+      <c r="I26" s="76"/>
     </row>
     <row r="27" spans="1:9" s="43" customFormat="1" ht="12">
       <c r="A27" s="40" t="s">
-        <v>46</v>
+        <v>78</v>
       </c>
       <c r="B27" s="41"/>
       <c r="C27" s="42"/>
@@ -4441,15 +4478,15 @@
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="E27" s="60"/>
-      <c r="F27" s="61"/>
-      <c r="G27" s="61"/>
-      <c r="H27" s="61"/>
-      <c r="I27" s="62"/>
+      <c r="E27" s="71"/>
+      <c r="F27" s="72"/>
+      <c r="G27" s="72"/>
+      <c r="H27" s="72"/>
+      <c r="I27" s="73"/>
     </row>
     <row r="28" spans="1:9" s="43" customFormat="1" ht="12">
       <c r="A28" s="40" t="s">
-        <v>47</v>
+        <v>79</v>
       </c>
       <c r="B28" s="41"/>
       <c r="C28" s="42"/>
@@ -4457,15 +4494,15 @@
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="E28" s="60"/>
-      <c r="F28" s="61"/>
-      <c r="G28" s="61"/>
-      <c r="H28" s="61"/>
-      <c r="I28" s="62"/>
+      <c r="E28" s="71"/>
+      <c r="F28" s="72"/>
+      <c r="G28" s="72"/>
+      <c r="H28" s="72"/>
+      <c r="I28" s="73"/>
     </row>
     <row r="29" spans="1:9" s="43" customFormat="1" ht="12">
       <c r="A29" s="40" t="s">
-        <v>48</v>
+        <v>80</v>
       </c>
       <c r="B29" s="41"/>
       <c r="C29" s="42"/>
@@ -4473,15 +4510,15 @@
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="E29" s="60"/>
-      <c r="F29" s="61"/>
-      <c r="G29" s="61"/>
-      <c r="H29" s="61"/>
-      <c r="I29" s="62"/>
+      <c r="E29" s="71"/>
+      <c r="F29" s="72"/>
+      <c r="G29" s="72"/>
+      <c r="H29" s="72"/>
+      <c r="I29" s="73"/>
     </row>
     <row r="30" spans="1:9" s="43" customFormat="1" ht="12">
       <c r="A30" s="40" t="s">
-        <v>49</v>
+        <v>81</v>
       </c>
       <c r="B30" s="41"/>
       <c r="C30" s="42"/>
@@ -4489,15 +4526,15 @@
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="E30" s="60"/>
-      <c r="F30" s="61"/>
-      <c r="G30" s="61"/>
-      <c r="H30" s="61"/>
-      <c r="I30" s="62"/>
+      <c r="E30" s="71"/>
+      <c r="F30" s="72"/>
+      <c r="G30" s="72"/>
+      <c r="H30" s="72"/>
+      <c r="I30" s="73"/>
     </row>
     <row r="31" spans="1:9" s="43" customFormat="1" ht="12">
       <c r="A31" s="40" t="s">
-        <v>50</v>
+        <v>82</v>
       </c>
       <c r="B31" s="41"/>
       <c r="C31" s="42"/>
@@ -4505,15 +4542,15 @@
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="E31" s="60"/>
-      <c r="F31" s="61"/>
-      <c r="G31" s="61"/>
-      <c r="H31" s="61"/>
-      <c r="I31" s="62"/>
+      <c r="E31" s="71"/>
+      <c r="F31" s="72"/>
+      <c r="G31" s="72"/>
+      <c r="H31" s="72"/>
+      <c r="I31" s="73"/>
     </row>
     <row r="32" spans="1:9" s="51" customFormat="1" ht="12">
       <c r="A32" s="48" t="s">
-        <v>51</v>
+        <v>83</v>
       </c>
       <c r="B32" s="49"/>
       <c r="C32" s="50"/>
@@ -4521,15 +4558,15 @@
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="E32" s="57"/>
-      <c r="F32" s="58"/>
-      <c r="G32" s="58"/>
-      <c r="H32" s="58"/>
-      <c r="I32" s="59"/>
+      <c r="E32" s="77"/>
+      <c r="F32" s="75"/>
+      <c r="G32" s="75"/>
+      <c r="H32" s="75"/>
+      <c r="I32" s="76"/>
     </row>
     <row r="33" spans="1:12" s="51" customFormat="1" ht="12">
       <c r="A33" s="48" t="s">
-        <v>52</v>
+        <v>0</v>
       </c>
       <c r="B33" s="49"/>
       <c r="C33" s="50"/>
@@ -4537,15 +4574,15 @@
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="E33" s="57"/>
-      <c r="F33" s="58"/>
-      <c r="G33" s="58"/>
-      <c r="H33" s="58"/>
-      <c r="I33" s="59"/>
+      <c r="E33" s="77"/>
+      <c r="F33" s="75"/>
+      <c r="G33" s="75"/>
+      <c r="H33" s="75"/>
+      <c r="I33" s="76"/>
     </row>
     <row r="34" spans="1:12" s="43" customFormat="1" ht="12">
       <c r="A34" s="40" t="s">
-        <v>53</v>
+        <v>1</v>
       </c>
       <c r="B34" s="41"/>
       <c r="C34" s="42"/>
@@ -4553,15 +4590,15 @@
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="E34" s="60"/>
-      <c r="F34" s="61"/>
-      <c r="G34" s="61"/>
-      <c r="H34" s="61"/>
-      <c r="I34" s="62"/>
+      <c r="E34" s="71"/>
+      <c r="F34" s="72"/>
+      <c r="G34" s="72"/>
+      <c r="H34" s="72"/>
+      <c r="I34" s="73"/>
     </row>
     <row r="35" spans="1:12" s="43" customFormat="1" ht="12">
       <c r="A35" s="40" t="s">
-        <v>54</v>
+        <v>2</v>
       </c>
       <c r="B35" s="41"/>
       <c r="C35" s="42"/>
@@ -4569,15 +4606,15 @@
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="E35" s="60"/>
-      <c r="F35" s="61"/>
-      <c r="G35" s="61"/>
-      <c r="H35" s="61"/>
-      <c r="I35" s="62"/>
+      <c r="E35" s="71"/>
+      <c r="F35" s="72"/>
+      <c r="G35" s="72"/>
+      <c r="H35" s="72"/>
+      <c r="I35" s="73"/>
     </row>
     <row r="36" spans="1:12" s="43" customFormat="1" ht="12">
       <c r="A36" s="40" t="s">
-        <v>55</v>
+        <v>3</v>
       </c>
       <c r="B36" s="41"/>
       <c r="C36" s="42"/>
@@ -4585,15 +4622,15 @@
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="E36" s="60"/>
-      <c r="F36" s="61"/>
-      <c r="G36" s="61"/>
-      <c r="H36" s="61"/>
-      <c r="I36" s="62"/>
+      <c r="E36" s="71"/>
+      <c r="F36" s="72"/>
+      <c r="G36" s="72"/>
+      <c r="H36" s="72"/>
+      <c r="I36" s="73"/>
     </row>
     <row r="37" spans="1:12" s="43" customFormat="1" ht="12">
       <c r="A37" s="40" t="s">
-        <v>56</v>
+        <v>4</v>
       </c>
       <c r="B37" s="41"/>
       <c r="C37" s="42"/>
@@ -4601,15 +4638,15 @@
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="E37" s="60"/>
-      <c r="F37" s="61"/>
-      <c r="G37" s="61"/>
-      <c r="H37" s="61"/>
-      <c r="I37" s="62"/>
+      <c r="E37" s="71"/>
+      <c r="F37" s="72"/>
+      <c r="G37" s="72"/>
+      <c r="H37" s="72"/>
+      <c r="I37" s="73"/>
     </row>
     <row r="38" spans="1:12" s="43" customFormat="1" ht="12">
       <c r="A38" s="40" t="s">
-        <v>57</v>
+        <v>5</v>
       </c>
       <c r="B38" s="41"/>
       <c r="C38" s="42"/>
@@ -4617,15 +4654,15 @@
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="E38" s="60"/>
-      <c r="F38" s="61"/>
-      <c r="G38" s="61"/>
-      <c r="H38" s="61"/>
-      <c r="I38" s="62"/>
+      <c r="E38" s="71"/>
+      <c r="F38" s="72"/>
+      <c r="G38" s="72"/>
+      <c r="H38" s="72"/>
+      <c r="I38" s="73"/>
     </row>
     <row r="39" spans="1:12" s="51" customFormat="1" ht="12">
       <c r="A39" s="48" t="s">
-        <v>58</v>
+        <v>6</v>
       </c>
       <c r="B39" s="49"/>
       <c r="C39" s="50"/>
@@ -4633,15 +4670,15 @@
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="E39" s="57"/>
-      <c r="F39" s="58"/>
-      <c r="G39" s="58"/>
-      <c r="H39" s="58"/>
-      <c r="I39" s="59"/>
+      <c r="E39" s="77"/>
+      <c r="F39" s="75"/>
+      <c r="G39" s="75"/>
+      <c r="H39" s="75"/>
+      <c r="I39" s="76"/>
     </row>
     <row r="40" spans="1:12" s="51" customFormat="1" ht="12">
       <c r="A40" s="48" t="s">
-        <v>59</v>
+        <v>7</v>
       </c>
       <c r="B40" s="49"/>
       <c r="C40" s="50"/>
@@ -4649,15 +4686,15 @@
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="E40" s="57"/>
-      <c r="F40" s="58"/>
-      <c r="G40" s="58"/>
-      <c r="H40" s="58"/>
-      <c r="I40" s="59"/>
+      <c r="E40" s="77"/>
+      <c r="F40" s="75"/>
+      <c r="G40" s="75"/>
+      <c r="H40" s="75"/>
+      <c r="I40" s="76"/>
     </row>
     <row r="41" spans="1:12" s="43" customFormat="1" ht="12">
       <c r="A41" s="40" t="s">
-        <v>60</v>
+        <v>8</v>
       </c>
       <c r="B41" s="41"/>
       <c r="C41" s="42"/>
@@ -4665,15 +4702,15 @@
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="E41" s="60"/>
-      <c r="F41" s="61"/>
-      <c r="G41" s="61"/>
-      <c r="H41" s="61"/>
-      <c r="I41" s="62"/>
+      <c r="E41" s="71"/>
+      <c r="F41" s="72"/>
+      <c r="G41" s="72"/>
+      <c r="H41" s="72"/>
+      <c r="I41" s="73"/>
     </row>
     <row r="42" spans="1:12" s="43" customFormat="1" ht="12">
       <c r="A42" s="40" t="s">
-        <v>61</v>
+        <v>9</v>
       </c>
       <c r="B42" s="41"/>
       <c r="C42" s="42"/>
@@ -4681,15 +4718,15 @@
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="E42" s="60"/>
-      <c r="F42" s="61"/>
-      <c r="G42" s="61"/>
-      <c r="H42" s="61"/>
-      <c r="I42" s="62"/>
+      <c r="E42" s="71"/>
+      <c r="F42" s="72"/>
+      <c r="G42" s="72"/>
+      <c r="H42" s="72"/>
+      <c r="I42" s="73"/>
     </row>
     <row r="43" spans="1:12" s="43" customFormat="1" ht="12">
       <c r="A43" s="40" t="s">
-        <v>62</v>
+        <v>10</v>
       </c>
       <c r="B43" s="41"/>
       <c r="C43" s="42"/>
@@ -4697,15 +4734,15 @@
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="E43" s="60"/>
-      <c r="F43" s="61"/>
-      <c r="G43" s="61"/>
-      <c r="H43" s="61"/>
-      <c r="I43" s="62"/>
+      <c r="E43" s="71"/>
+      <c r="F43" s="72"/>
+      <c r="G43" s="72"/>
+      <c r="H43" s="72"/>
+      <c r="I43" s="73"/>
     </row>
     <row r="44" spans="1:12" s="43" customFormat="1" ht="12">
       <c r="A44" s="40" t="s">
-        <v>63</v>
+        <v>11</v>
       </c>
       <c r="B44" s="41"/>
       <c r="C44" s="42"/>
@@ -4713,15 +4750,15 @@
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="E44" s="60"/>
-      <c r="F44" s="61"/>
-      <c r="G44" s="61"/>
-      <c r="H44" s="61"/>
-      <c r="I44" s="62"/>
+      <c r="E44" s="71"/>
+      <c r="F44" s="72"/>
+      <c r="G44" s="72"/>
+      <c r="H44" s="72"/>
+      <c r="I44" s="73"/>
     </row>
     <row r="45" spans="1:12" s="43" customFormat="1" ht="12">
       <c r="A45" s="40" t="s">
-        <v>64</v>
+        <v>12</v>
       </c>
       <c r="B45" s="41"/>
       <c r="C45" s="42"/>
@@ -4729,15 +4766,15 @@
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="E45" s="60"/>
-      <c r="F45" s="61"/>
-      <c r="G45" s="61"/>
-      <c r="H45" s="61"/>
-      <c r="I45" s="62"/>
+      <c r="E45" s="71"/>
+      <c r="F45" s="72"/>
+      <c r="G45" s="72"/>
+      <c r="H45" s="72"/>
+      <c r="I45" s="73"/>
     </row>
     <row r="46" spans="1:12" s="51" customFormat="1" ht="12">
       <c r="A46" s="48" t="s">
-        <v>65</v>
+        <v>13</v>
       </c>
       <c r="B46" s="49"/>
       <c r="C46" s="50"/>
@@ -4745,11 +4782,11 @@
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="E46" s="57"/>
-      <c r="F46" s="58"/>
-      <c r="G46" s="58"/>
-      <c r="H46" s="58"/>
-      <c r="I46" s="59"/>
+      <c r="E46" s="77"/>
+      <c r="F46" s="75"/>
+      <c r="G46" s="75"/>
+      <c r="H46" s="75"/>
+      <c r="I46" s="76"/>
     </row>
     <row r="47" spans="1:12" s="35" customFormat="1" ht="13">
       <c r="A47" s="100"/>
@@ -4781,41 +4818,6 @@
     </row>
   </sheetData>
   <mergeCells count="51">
-    <mergeCell ref="D9:H9"/>
-    <mergeCell ref="A10:I10"/>
-    <mergeCell ref="A1:I1"/>
-    <mergeCell ref="A2:I2"/>
-    <mergeCell ref="A3:H3"/>
-    <mergeCell ref="A4:I4"/>
-    <mergeCell ref="A5:C5"/>
-    <mergeCell ref="D5:H5"/>
-    <mergeCell ref="A6:I6"/>
-    <mergeCell ref="E29:I29"/>
-    <mergeCell ref="E30:I30"/>
-    <mergeCell ref="E31:I31"/>
-    <mergeCell ref="E17:I17"/>
-    <mergeCell ref="E26:I26"/>
-    <mergeCell ref="E27:I27"/>
-    <mergeCell ref="E28:I28"/>
-    <mergeCell ref="E23:I23"/>
-    <mergeCell ref="E24:I24"/>
-    <mergeCell ref="E25:I25"/>
-    <mergeCell ref="E20:I20"/>
-    <mergeCell ref="E21:I21"/>
-    <mergeCell ref="E22:I22"/>
-    <mergeCell ref="E18:I18"/>
-    <mergeCell ref="E19:I19"/>
-    <mergeCell ref="E35:I35"/>
-    <mergeCell ref="E36:I36"/>
-    <mergeCell ref="E37:I37"/>
-    <mergeCell ref="E32:I32"/>
-    <mergeCell ref="E33:I33"/>
-    <mergeCell ref="E34:I34"/>
-    <mergeCell ref="E47:I47"/>
-    <mergeCell ref="A47:C47"/>
-    <mergeCell ref="E44:I44"/>
-    <mergeCell ref="E45:I45"/>
-    <mergeCell ref="E46:I46"/>
     <mergeCell ref="E41:I41"/>
     <mergeCell ref="E42:I42"/>
     <mergeCell ref="E43:I43"/>
@@ -4832,6 +4834,41 @@
     <mergeCell ref="E38:I38"/>
     <mergeCell ref="E39:I39"/>
     <mergeCell ref="E40:I40"/>
+    <mergeCell ref="E47:I47"/>
+    <mergeCell ref="A47:C47"/>
+    <mergeCell ref="E44:I44"/>
+    <mergeCell ref="E45:I45"/>
+    <mergeCell ref="E46:I46"/>
+    <mergeCell ref="E35:I35"/>
+    <mergeCell ref="E36:I36"/>
+    <mergeCell ref="E37:I37"/>
+    <mergeCell ref="E32:I32"/>
+    <mergeCell ref="E33:I33"/>
+    <mergeCell ref="E34:I34"/>
+    <mergeCell ref="E29:I29"/>
+    <mergeCell ref="E30:I30"/>
+    <mergeCell ref="E31:I31"/>
+    <mergeCell ref="E17:I17"/>
+    <mergeCell ref="E26:I26"/>
+    <mergeCell ref="E27:I27"/>
+    <mergeCell ref="E28:I28"/>
+    <mergeCell ref="E23:I23"/>
+    <mergeCell ref="E24:I24"/>
+    <mergeCell ref="E25:I25"/>
+    <mergeCell ref="E20:I20"/>
+    <mergeCell ref="E21:I21"/>
+    <mergeCell ref="E22:I22"/>
+    <mergeCell ref="E18:I18"/>
+    <mergeCell ref="E19:I19"/>
+    <mergeCell ref="D9:H9"/>
+    <mergeCell ref="A10:I10"/>
+    <mergeCell ref="A1:I1"/>
+    <mergeCell ref="A2:I2"/>
+    <mergeCell ref="A3:H3"/>
+    <mergeCell ref="A4:I4"/>
+    <mergeCell ref="A5:C5"/>
+    <mergeCell ref="D5:H5"/>
+    <mergeCell ref="A6:I6"/>
   </mergeCells>
   <phoneticPr fontId="32" type="noConversion"/>
   <printOptions horizontalCentered="1"/>
@@ -4870,17 +4907,17 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:40" s="7" customFormat="1" ht="18" thickBot="1">
-      <c r="A1" s="84" t="s">
-        <v>68</v>
-      </c>
-      <c r="B1" s="84"/>
-      <c r="C1" s="84"/>
-      <c r="D1" s="84"/>
-      <c r="E1" s="84"/>
-      <c r="F1" s="84"/>
-      <c r="G1" s="84"/>
-      <c r="H1" s="84"/>
-      <c r="I1" s="84"/>
+      <c r="A1" s="66" t="s">
+        <v>16</v>
+      </c>
+      <c r="B1" s="66"/>
+      <c r="C1" s="66"/>
+      <c r="D1" s="66"/>
+      <c r="E1" s="66"/>
+      <c r="F1" s="66"/>
+      <c r="G1" s="66"/>
+      <c r="H1" s="66"/>
+      <c r="I1" s="66"/>
       <c r="J1" s="8"/>
       <c r="K1" s="8"/>
       <c r="L1" s="8"/>
@@ -4913,15 +4950,15 @@
       <c r="AM1" s="8"/>
     </row>
     <row r="2" spans="1:40" s="1" customFormat="1" ht="7.5" customHeight="1">
-      <c r="A2" s="85"/>
-      <c r="B2" s="85"/>
-      <c r="C2" s="85"/>
-      <c r="D2" s="85"/>
-      <c r="E2" s="85"/>
-      <c r="F2" s="85"/>
-      <c r="G2" s="85"/>
-      <c r="H2" s="85"/>
-      <c r="I2" s="85"/>
+      <c r="A2" s="67"/>
+      <c r="B2" s="67"/>
+      <c r="C2" s="67"/>
+      <c r="D2" s="67"/>
+      <c r="E2" s="67"/>
+      <c r="F2" s="67"/>
+      <c r="G2" s="67"/>
+      <c r="H2" s="67"/>
+      <c r="I2" s="67"/>
       <c r="J2" s="9"/>
       <c r="K2" s="9"/>
       <c r="L2" s="9"/>
@@ -4954,16 +4991,16 @@
       <c r="AM2" s="9"/>
     </row>
     <row r="3" spans="1:40" s="11" customFormat="1" ht="13.5" customHeight="1">
-      <c r="A3" s="86" t="s">
-        <v>72</v>
-      </c>
-      <c r="B3" s="86"/>
-      <c r="C3" s="86"/>
-      <c r="D3" s="86"/>
-      <c r="E3" s="86"/>
-      <c r="F3" s="86"/>
-      <c r="G3" s="86"/>
-      <c r="H3" s="86"/>
+      <c r="A3" s="68" t="s">
+        <v>20</v>
+      </c>
+      <c r="B3" s="68"/>
+      <c r="C3" s="68"/>
+      <c r="D3" s="68"/>
+      <c r="E3" s="68"/>
+      <c r="F3" s="68"/>
+      <c r="G3" s="68"/>
+      <c r="H3" s="68"/>
       <c r="I3" s="23"/>
       <c r="J3" s="22"/>
       <c r="K3" s="22"/>
@@ -4998,112 +5035,112 @@
       <c r="AN3" s="10"/>
     </row>
     <row r="4" spans="1:40" s="6" customFormat="1" ht="9" customHeight="1">
-      <c r="A4" s="87"/>
-      <c r="B4" s="87"/>
-      <c r="C4" s="87"/>
-      <c r="D4" s="87"/>
-      <c r="E4" s="87"/>
-      <c r="F4" s="87"/>
-      <c r="G4" s="87"/>
-      <c r="H4" s="87"/>
-      <c r="I4" s="87"/>
+      <c r="A4" s="69"/>
+      <c r="B4" s="69"/>
+      <c r="C4" s="69"/>
+      <c r="D4" s="69"/>
+      <c r="E4" s="69"/>
+      <c r="F4" s="69"/>
+      <c r="G4" s="69"/>
+      <c r="H4" s="69"/>
+      <c r="I4" s="69"/>
     </row>
     <row r="5" spans="1:40" s="1" customFormat="1" ht="13.75" customHeight="1">
-      <c r="A5" s="94" t="str">
+      <c r="A5" s="62" t="str">
         <f>October!A5</f>
         <v>Firstname Lastname</v>
       </c>
-      <c r="B5" s="95"/>
-      <c r="C5" s="95"/>
-      <c r="D5" s="90" t="str">
+      <c r="B5" s="63"/>
+      <c r="C5" s="63"/>
+      <c r="D5" s="58" t="str">
         <f>October!D5</f>
         <v>Augustin Hannah</v>
       </c>
-      <c r="E5" s="91"/>
-      <c r="F5" s="91"/>
-      <c r="G5" s="91"/>
-      <c r="H5" s="92"/>
+      <c r="E5" s="59"/>
+      <c r="F5" s="59"/>
+      <c r="G5" s="59"/>
+      <c r="H5" s="60"/>
       <c r="I5" s="23"/>
       <c r="J5" s="9"/>
       <c r="K5" s="9"/>
       <c r="L5" s="9"/>
     </row>
     <row r="6" spans="1:40" s="1" customFormat="1" ht="7.5" customHeight="1">
-      <c r="A6" s="96"/>
-      <c r="B6" s="96"/>
-      <c r="C6" s="96"/>
-      <c r="D6" s="96"/>
-      <c r="E6" s="96"/>
-      <c r="F6" s="96"/>
-      <c r="G6" s="96"/>
-      <c r="H6" s="96"/>
-      <c r="I6" s="96"/>
+      <c r="A6" s="64"/>
+      <c r="B6" s="64"/>
+      <c r="C6" s="64"/>
+      <c r="D6" s="64"/>
+      <c r="E6" s="64"/>
+      <c r="F6" s="64"/>
+      <c r="G6" s="64"/>
+      <c r="H6" s="64"/>
+      <c r="I6" s="64"/>
     </row>
     <row r="7" spans="1:40" s="1" customFormat="1" ht="13.75" customHeight="1">
-      <c r="A7" s="89" t="str">
+      <c r="A7" s="57" t="str">
         <f>October!A7</f>
         <v>Project Acronym</v>
       </c>
-      <c r="B7" s="89"/>
-      <c r="C7" s="89"/>
-      <c r="D7" s="97" t="str">
+      <c r="B7" s="57"/>
+      <c r="C7" s="57"/>
+      <c r="D7" s="65" t="str">
         <f>October!D7</f>
         <v>AIQ</v>
       </c>
-      <c r="E7" s="97"/>
-      <c r="F7" s="97"/>
-      <c r="G7" s="97"/>
-      <c r="H7" s="97"/>
+      <c r="E7" s="65"/>
+      <c r="F7" s="65"/>
+      <c r="G7" s="65"/>
+      <c r="H7" s="65"/>
       <c r="I7" s="24"/>
     </row>
     <row r="8" spans="1:40" s="1" customFormat="1" ht="7.5" customHeight="1">
-      <c r="A8" s="88"/>
-      <c r="B8" s="88"/>
-      <c r="C8" s="88"/>
-      <c r="D8" s="88"/>
-      <c r="E8" s="88"/>
-      <c r="F8" s="88"/>
-      <c r="G8" s="88"/>
-      <c r="H8" s="88"/>
-      <c r="I8" s="88"/>
+      <c r="A8" s="70"/>
+      <c r="B8" s="70"/>
+      <c r="C8" s="70"/>
+      <c r="D8" s="70"/>
+      <c r="E8" s="70"/>
+      <c r="F8" s="70"/>
+      <c r="G8" s="70"/>
+      <c r="H8" s="70"/>
+      <c r="I8" s="70"/>
     </row>
     <row r="9" spans="1:40" s="1" customFormat="1" ht="13.75" customHeight="1">
-      <c r="A9" s="89" t="str">
+      <c r="A9" s="57" t="str">
         <f>October!A9</f>
         <v>Project Title</v>
       </c>
-      <c r="B9" s="89"/>
-      <c r="C9" s="89"/>
-      <c r="D9" s="90" t="str">
+      <c r="B9" s="57"/>
+      <c r="C9" s="57"/>
+      <c r="D9" s="58" t="str">
         <f>October!D9</f>
         <v>Automating change detection in ImageQuerying</v>
       </c>
-      <c r="E9" s="91"/>
-      <c r="F9" s="91"/>
-      <c r="G9" s="91"/>
-      <c r="H9" s="92"/>
+      <c r="E9" s="59"/>
+      <c r="F9" s="59"/>
+      <c r="G9" s="59"/>
+      <c r="H9" s="60"/>
       <c r="I9" s="24"/>
       <c r="J9" s="15"/>
     </row>
     <row r="10" spans="1:40" s="1" customFormat="1" ht="7.5" customHeight="1">
-      <c r="A10" s="93"/>
-      <c r="B10" s="93"/>
-      <c r="C10" s="93"/>
-      <c r="D10" s="93"/>
-      <c r="E10" s="93"/>
-      <c r="F10" s="93"/>
-      <c r="G10" s="93"/>
-      <c r="H10" s="93"/>
-      <c r="I10" s="93"/>
+      <c r="A10" s="61"/>
+      <c r="B10" s="61"/>
+      <c r="C10" s="61"/>
+      <c r="D10" s="61"/>
+      <c r="E10" s="61"/>
+      <c r="F10" s="61"/>
+      <c r="G10" s="61"/>
+      <c r="H10" s="61"/>
+      <c r="I10" s="61"/>
     </row>
     <row r="11" spans="1:40" s="1" customFormat="1" ht="12">
       <c r="A11" s="21" t="s">
-        <v>70</v>
+        <v>18</v>
       </c>
       <c r="B11" s="21"/>
       <c r="C11" s="21"/>
       <c r="D11" s="21" t="s">
-        <v>71</v>
+        <v>19</v>
       </c>
       <c r="E11" s="21"/>
       <c r="F11" s="21"/>
@@ -5123,55 +5160,55 @@
       <c r="I12" s="26"/>
     </row>
     <row r="13" spans="1:40" s="2" customFormat="1" ht="15.5" customHeight="1">
-      <c r="A13" s="68" t="s">
-        <v>30</v>
-      </c>
-      <c r="B13" s="71" t="s">
+      <c r="A13" s="78" t="s">
+        <v>62</v>
+      </c>
+      <c r="B13" s="81" t="s">
+        <v>14</v>
+      </c>
+      <c r="C13" s="82"/>
+      <c r="D13" s="82"/>
+      <c r="E13" s="82"/>
+      <c r="F13" s="82"/>
+      <c r="G13" s="82"/>
+      <c r="H13" s="82"/>
+      <c r="I13" s="83"/>
+    </row>
+    <row r="14" spans="1:40" s="2" customFormat="1" ht="13.75" customHeight="1">
+      <c r="A14" s="79"/>
+      <c r="B14" s="84" t="s">
+        <v>63</v>
+      </c>
+      <c r="C14" s="85"/>
+      <c r="D14" s="86" t="s">
+        <v>64</v>
+      </c>
+      <c r="E14" s="88" t="s">
+        <v>15</v>
+      </c>
+      <c r="F14" s="89"/>
+      <c r="G14" s="89"/>
+      <c r="H14" s="89"/>
+      <c r="I14" s="90"/>
+    </row>
+    <row r="15" spans="1:40" ht="12" customHeight="1">
+      <c r="A15" s="80"/>
+      <c r="B15" s="32" t="s">
+        <v>65</v>
+      </c>
+      <c r="C15" s="33" t="s">
         <v>66</v>
       </c>
-      <c r="C13" s="72"/>
-      <c r="D13" s="72"/>
-      <c r="E13" s="72"/>
-      <c r="F13" s="72"/>
-      <c r="G13" s="72"/>
-      <c r="H13" s="72"/>
-      <c r="I13" s="73"/>
-    </row>
-    <row r="14" spans="1:40" s="2" customFormat="1" ht="13.75" customHeight="1">
-      <c r="A14" s="69"/>
-      <c r="B14" s="74" t="s">
-        <v>31</v>
-      </c>
-      <c r="C14" s="75"/>
-      <c r="D14" s="76" t="s">
-        <v>32</v>
-      </c>
-      <c r="E14" s="78" t="s">
-        <v>67</v>
-      </c>
-      <c r="F14" s="79"/>
-      <c r="G14" s="79"/>
-      <c r="H14" s="79"/>
-      <c r="I14" s="80"/>
-    </row>
-    <row r="15" spans="1:40" ht="12" customHeight="1">
-      <c r="A15" s="70"/>
-      <c r="B15" s="32" t="s">
-        <v>33</v>
-      </c>
-      <c r="C15" s="33" t="s">
-        <v>34</v>
-      </c>
-      <c r="D15" s="77"/>
-      <c r="E15" s="81"/>
-      <c r="F15" s="82"/>
-      <c r="G15" s="82"/>
-      <c r="H15" s="82"/>
-      <c r="I15" s="83"/>
+      <c r="D15" s="87"/>
+      <c r="E15" s="91"/>
+      <c r="F15" s="92"/>
+      <c r="G15" s="92"/>
+      <c r="H15" s="92"/>
+      <c r="I15" s="93"/>
     </row>
     <row r="16" spans="1:40" s="51" customFormat="1" ht="12">
       <c r="A16" s="48" t="s">
-        <v>35</v>
+        <v>67</v>
       </c>
       <c r="B16" s="49"/>
       <c r="C16" s="50"/>
@@ -5179,15 +5216,15 @@
         <f>C16-B16</f>
         <v>0</v>
       </c>
-      <c r="E16" s="57"/>
-      <c r="F16" s="58"/>
-      <c r="G16" s="58"/>
-      <c r="H16" s="58"/>
-      <c r="I16" s="59"/>
+      <c r="E16" s="77"/>
+      <c r="F16" s="75"/>
+      <c r="G16" s="75"/>
+      <c r="H16" s="75"/>
+      <c r="I16" s="76"/>
     </row>
     <row r="17" spans="1:9" s="43" customFormat="1" ht="12">
       <c r="A17" s="40" t="s">
-        <v>36</v>
+        <v>68</v>
       </c>
       <c r="B17" s="41"/>
       <c r="C17" s="42"/>
@@ -5195,15 +5232,15 @@
         <f t="shared" ref="D17:D46" si="0">C17-B17</f>
         <v>0</v>
       </c>
-      <c r="E17" s="60"/>
-      <c r="F17" s="61"/>
-      <c r="G17" s="61"/>
-      <c r="H17" s="61"/>
-      <c r="I17" s="62"/>
+      <c r="E17" s="71"/>
+      <c r="F17" s="72"/>
+      <c r="G17" s="72"/>
+      <c r="H17" s="72"/>
+      <c r="I17" s="73"/>
     </row>
     <row r="18" spans="1:9" s="43" customFormat="1" ht="12">
       <c r="A18" s="40" t="s">
-        <v>37</v>
+        <v>69</v>
       </c>
       <c r="B18" s="41"/>
       <c r="C18" s="42"/>
@@ -5211,15 +5248,15 @@
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="E18" s="60"/>
-      <c r="F18" s="61"/>
-      <c r="G18" s="61"/>
-      <c r="H18" s="61"/>
-      <c r="I18" s="62"/>
+      <c r="E18" s="71"/>
+      <c r="F18" s="72"/>
+      <c r="G18" s="72"/>
+      <c r="H18" s="72"/>
+      <c r="I18" s="73"/>
     </row>
     <row r="19" spans="1:9" s="43" customFormat="1" ht="12">
       <c r="A19" s="40" t="s">
-        <v>38</v>
+        <v>70</v>
       </c>
       <c r="B19" s="41"/>
       <c r="C19" s="42"/>
@@ -5227,15 +5264,15 @@
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="E19" s="60"/>
-      <c r="F19" s="61"/>
-      <c r="G19" s="61"/>
-      <c r="H19" s="61"/>
-      <c r="I19" s="62"/>
+      <c r="E19" s="71"/>
+      <c r="F19" s="72"/>
+      <c r="G19" s="72"/>
+      <c r="H19" s="72"/>
+      <c r="I19" s="73"/>
     </row>
     <row r="20" spans="1:9" s="43" customFormat="1" ht="12">
       <c r="A20" s="40" t="s">
-        <v>39</v>
+        <v>71</v>
       </c>
       <c r="B20" s="41"/>
       <c r="C20" s="42"/>
@@ -5243,15 +5280,15 @@
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="E20" s="60"/>
-      <c r="F20" s="61"/>
-      <c r="G20" s="61"/>
-      <c r="H20" s="61"/>
-      <c r="I20" s="62"/>
+      <c r="E20" s="71"/>
+      <c r="F20" s="72"/>
+      <c r="G20" s="72"/>
+      <c r="H20" s="72"/>
+      <c r="I20" s="73"/>
     </row>
     <row r="21" spans="1:9" s="43" customFormat="1" ht="12">
       <c r="A21" s="40" t="s">
-        <v>40</v>
+        <v>72</v>
       </c>
       <c r="B21" s="41"/>
       <c r="C21" s="42"/>
@@ -5259,15 +5296,15 @@
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="E21" s="60"/>
-      <c r="F21" s="61"/>
-      <c r="G21" s="61"/>
-      <c r="H21" s="61"/>
-      <c r="I21" s="62"/>
+      <c r="E21" s="71"/>
+      <c r="F21" s="72"/>
+      <c r="G21" s="72"/>
+      <c r="H21" s="72"/>
+      <c r="I21" s="73"/>
     </row>
     <row r="22" spans="1:9" s="51" customFormat="1" ht="12">
       <c r="A22" s="48" t="s">
-        <v>41</v>
+        <v>73</v>
       </c>
       <c r="B22" s="49"/>
       <c r="C22" s="50"/>
@@ -5275,15 +5312,15 @@
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="E22" s="57"/>
-      <c r="F22" s="58"/>
-      <c r="G22" s="58"/>
-      <c r="H22" s="58"/>
-      <c r="I22" s="59"/>
+      <c r="E22" s="77"/>
+      <c r="F22" s="75"/>
+      <c r="G22" s="75"/>
+      <c r="H22" s="75"/>
+      <c r="I22" s="76"/>
     </row>
     <row r="23" spans="1:9" s="51" customFormat="1" ht="12">
       <c r="A23" s="48" t="s">
-        <v>42</v>
+        <v>74</v>
       </c>
       <c r="B23" s="49"/>
       <c r="C23" s="50"/>
@@ -5291,15 +5328,15 @@
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="E23" s="57"/>
-      <c r="F23" s="58"/>
-      <c r="G23" s="58"/>
-      <c r="H23" s="58"/>
-      <c r="I23" s="59"/>
+      <c r="E23" s="77"/>
+      <c r="F23" s="75"/>
+      <c r="G23" s="75"/>
+      <c r="H23" s="75"/>
+      <c r="I23" s="76"/>
     </row>
     <row r="24" spans="1:9" s="43" customFormat="1" ht="12">
       <c r="A24" s="40" t="s">
-        <v>43</v>
+        <v>75</v>
       </c>
       <c r="B24" s="41"/>
       <c r="C24" s="42"/>
@@ -5307,15 +5344,15 @@
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="E24" s="60"/>
-      <c r="F24" s="61"/>
-      <c r="G24" s="61"/>
-      <c r="H24" s="61"/>
-      <c r="I24" s="62"/>
+      <c r="E24" s="71"/>
+      <c r="F24" s="72"/>
+      <c r="G24" s="72"/>
+      <c r="H24" s="72"/>
+      <c r="I24" s="73"/>
     </row>
     <row r="25" spans="1:9" s="43" customFormat="1" ht="12">
       <c r="A25" s="40" t="s">
-        <v>44</v>
+        <v>76</v>
       </c>
       <c r="B25" s="41"/>
       <c r="C25" s="42"/>
@@ -5323,15 +5360,15 @@
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="E25" s="60"/>
-      <c r="F25" s="61"/>
-      <c r="G25" s="61"/>
-      <c r="H25" s="61"/>
-      <c r="I25" s="62"/>
+      <c r="E25" s="71"/>
+      <c r="F25" s="72"/>
+      <c r="G25" s="72"/>
+      <c r="H25" s="72"/>
+      <c r="I25" s="73"/>
     </row>
     <row r="26" spans="1:9" s="43" customFormat="1" ht="12">
       <c r="A26" s="40" t="s">
-        <v>45</v>
+        <v>77</v>
       </c>
       <c r="B26" s="41"/>
       <c r="C26" s="42"/>
@@ -5339,15 +5376,15 @@
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="E26" s="60"/>
-      <c r="F26" s="61"/>
-      <c r="G26" s="61"/>
-      <c r="H26" s="61"/>
-      <c r="I26" s="62"/>
+      <c r="E26" s="71"/>
+      <c r="F26" s="72"/>
+      <c r="G26" s="72"/>
+      <c r="H26" s="72"/>
+      <c r="I26" s="73"/>
     </row>
     <row r="27" spans="1:9" s="43" customFormat="1" ht="12">
       <c r="A27" s="40" t="s">
-        <v>46</v>
+        <v>78</v>
       </c>
       <c r="B27" s="41"/>
       <c r="C27" s="42"/>
@@ -5355,15 +5392,15 @@
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="E27" s="60"/>
-      <c r="F27" s="61"/>
-      <c r="G27" s="61"/>
-      <c r="H27" s="61"/>
-      <c r="I27" s="62"/>
+      <c r="E27" s="71"/>
+      <c r="F27" s="72"/>
+      <c r="G27" s="72"/>
+      <c r="H27" s="72"/>
+      <c r="I27" s="73"/>
     </row>
     <row r="28" spans="1:9" s="43" customFormat="1" ht="12">
       <c r="A28" s="40" t="s">
-        <v>47</v>
+        <v>79</v>
       </c>
       <c r="B28" s="41"/>
       <c r="C28" s="42"/>
@@ -5371,15 +5408,15 @@
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="E28" s="60"/>
-      <c r="F28" s="61"/>
-      <c r="G28" s="61"/>
-      <c r="H28" s="61"/>
-      <c r="I28" s="62"/>
+      <c r="E28" s="71"/>
+      <c r="F28" s="72"/>
+      <c r="G28" s="72"/>
+      <c r="H28" s="72"/>
+      <c r="I28" s="73"/>
     </row>
     <row r="29" spans="1:9" s="51" customFormat="1" ht="12">
       <c r="A29" s="48" t="s">
-        <v>48</v>
+        <v>80</v>
       </c>
       <c r="B29" s="49"/>
       <c r="C29" s="50"/>
@@ -5387,15 +5424,15 @@
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="E29" s="57"/>
-      <c r="F29" s="58"/>
-      <c r="G29" s="58"/>
-      <c r="H29" s="58"/>
-      <c r="I29" s="59"/>
+      <c r="E29" s="77"/>
+      <c r="F29" s="75"/>
+      <c r="G29" s="75"/>
+      <c r="H29" s="75"/>
+      <c r="I29" s="76"/>
     </row>
     <row r="30" spans="1:9" s="51" customFormat="1" ht="12">
       <c r="A30" s="48" t="s">
-        <v>49</v>
+        <v>81</v>
       </c>
       <c r="B30" s="49"/>
       <c r="C30" s="50"/>
@@ -5403,15 +5440,15 @@
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="E30" s="57"/>
-      <c r="F30" s="58"/>
-      <c r="G30" s="58"/>
-      <c r="H30" s="58"/>
-      <c r="I30" s="59"/>
+      <c r="E30" s="77"/>
+      <c r="F30" s="75"/>
+      <c r="G30" s="75"/>
+      <c r="H30" s="75"/>
+      <c r="I30" s="76"/>
     </row>
     <row r="31" spans="1:9" s="43" customFormat="1" ht="12">
       <c r="A31" s="40" t="s">
-        <v>50</v>
+        <v>82</v>
       </c>
       <c r="B31" s="41"/>
       <c r="C31" s="42"/>
@@ -5419,15 +5456,15 @@
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="E31" s="60"/>
-      <c r="F31" s="61"/>
-      <c r="G31" s="61"/>
-      <c r="H31" s="61"/>
-      <c r="I31" s="62"/>
+      <c r="E31" s="71"/>
+      <c r="F31" s="72"/>
+      <c r="G31" s="72"/>
+      <c r="H31" s="72"/>
+      <c r="I31" s="73"/>
     </row>
     <row r="32" spans="1:9" s="43" customFormat="1" ht="12">
       <c r="A32" s="40" t="s">
-        <v>51</v>
+        <v>83</v>
       </c>
       <c r="B32" s="41"/>
       <c r="C32" s="42"/>
@@ -5435,15 +5472,15 @@
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="E32" s="60"/>
-      <c r="F32" s="61"/>
-      <c r="G32" s="61"/>
-      <c r="H32" s="61"/>
-      <c r="I32" s="62"/>
+      <c r="E32" s="71"/>
+      <c r="F32" s="72"/>
+      <c r="G32" s="72"/>
+      <c r="H32" s="72"/>
+      <c r="I32" s="73"/>
     </row>
     <row r="33" spans="1:12" s="43" customFormat="1" ht="12">
       <c r="A33" s="40" t="s">
-        <v>52</v>
+        <v>0</v>
       </c>
       <c r="B33" s="41"/>
       <c r="C33" s="42"/>
@@ -5451,15 +5488,15 @@
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="E33" s="60"/>
-      <c r="F33" s="61"/>
-      <c r="G33" s="61"/>
-      <c r="H33" s="61"/>
-      <c r="I33" s="62"/>
+      <c r="E33" s="71"/>
+      <c r="F33" s="72"/>
+      <c r="G33" s="72"/>
+      <c r="H33" s="72"/>
+      <c r="I33" s="73"/>
     </row>
     <row r="34" spans="1:12" s="43" customFormat="1" ht="12">
       <c r="A34" s="40" t="s">
-        <v>53</v>
+        <v>1</v>
       </c>
       <c r="B34" s="41"/>
       <c r="C34" s="42"/>
@@ -5467,15 +5504,15 @@
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="E34" s="60"/>
-      <c r="F34" s="61"/>
-      <c r="G34" s="61"/>
-      <c r="H34" s="61"/>
-      <c r="I34" s="62"/>
+      <c r="E34" s="71"/>
+      <c r="F34" s="72"/>
+      <c r="G34" s="72"/>
+      <c r="H34" s="72"/>
+      <c r="I34" s="73"/>
     </row>
     <row r="35" spans="1:12" s="43" customFormat="1" ht="12">
       <c r="A35" s="40" t="s">
-        <v>54</v>
+        <v>2</v>
       </c>
       <c r="B35" s="41"/>
       <c r="C35" s="42"/>
@@ -5483,15 +5520,15 @@
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="E35" s="60"/>
-      <c r="F35" s="61"/>
-      <c r="G35" s="61"/>
-      <c r="H35" s="61"/>
-      <c r="I35" s="62"/>
+      <c r="E35" s="71"/>
+      <c r="F35" s="72"/>
+      <c r="G35" s="72"/>
+      <c r="H35" s="72"/>
+      <c r="I35" s="73"/>
     </row>
     <row r="36" spans="1:12" s="51" customFormat="1" ht="12">
       <c r="A36" s="48" t="s">
-        <v>55</v>
+        <v>3</v>
       </c>
       <c r="B36" s="49"/>
       <c r="C36" s="50"/>
@@ -5499,15 +5536,15 @@
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="E36" s="57"/>
-      <c r="F36" s="58"/>
-      <c r="G36" s="58"/>
-      <c r="H36" s="58"/>
-      <c r="I36" s="59"/>
+      <c r="E36" s="77"/>
+      <c r="F36" s="75"/>
+      <c r="G36" s="75"/>
+      <c r="H36" s="75"/>
+      <c r="I36" s="76"/>
     </row>
     <row r="37" spans="1:12" s="51" customFormat="1" ht="12">
       <c r="A37" s="48" t="s">
-        <v>56</v>
+        <v>4</v>
       </c>
       <c r="B37" s="49"/>
       <c r="C37" s="50"/>
@@ -5515,15 +5552,15 @@
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="E37" s="57"/>
-      <c r="F37" s="58"/>
-      <c r="G37" s="58"/>
-      <c r="H37" s="58"/>
-      <c r="I37" s="59"/>
+      <c r="E37" s="77"/>
+      <c r="F37" s="75"/>
+      <c r="G37" s="75"/>
+      <c r="H37" s="75"/>
+      <c r="I37" s="76"/>
     </row>
     <row r="38" spans="1:12" s="43" customFormat="1" ht="12">
       <c r="A38" s="40" t="s">
-        <v>57</v>
+        <v>5</v>
       </c>
       <c r="B38" s="41"/>
       <c r="C38" s="42"/>
@@ -5531,15 +5568,15 @@
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="E38" s="60"/>
-      <c r="F38" s="61"/>
-      <c r="G38" s="61"/>
-      <c r="H38" s="61"/>
-      <c r="I38" s="62"/>
+      <c r="E38" s="71"/>
+      <c r="F38" s="72"/>
+      <c r="G38" s="72"/>
+      <c r="H38" s="72"/>
+      <c r="I38" s="73"/>
     </row>
     <row r="39" spans="1:12" s="43" customFormat="1" ht="12">
       <c r="A39" s="40" t="s">
-        <v>58</v>
+        <v>6</v>
       </c>
       <c r="B39" s="41"/>
       <c r="C39" s="42"/>
@@ -5547,15 +5584,15 @@
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="E39" s="60"/>
-      <c r="F39" s="61"/>
-      <c r="G39" s="61"/>
-      <c r="H39" s="61"/>
-      <c r="I39" s="62"/>
+      <c r="E39" s="71"/>
+      <c r="F39" s="72"/>
+      <c r="G39" s="72"/>
+      <c r="H39" s="72"/>
+      <c r="I39" s="73"/>
     </row>
     <row r="40" spans="1:12" s="43" customFormat="1" ht="12">
       <c r="A40" s="40" t="s">
-        <v>59</v>
+        <v>7</v>
       </c>
       <c r="B40" s="41"/>
       <c r="C40" s="42"/>
@@ -5563,15 +5600,15 @@
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="E40" s="60"/>
-      <c r="F40" s="61"/>
-      <c r="G40" s="61"/>
-      <c r="H40" s="61"/>
-      <c r="I40" s="62"/>
+      <c r="E40" s="71"/>
+      <c r="F40" s="72"/>
+      <c r="G40" s="72"/>
+      <c r="H40" s="72"/>
+      <c r="I40" s="73"/>
     </row>
     <row r="41" spans="1:12" s="43" customFormat="1" ht="12">
       <c r="A41" s="40" t="s">
-        <v>60</v>
+        <v>8</v>
       </c>
       <c r="B41" s="41"/>
       <c r="C41" s="42"/>
@@ -5579,15 +5616,15 @@
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="E41" s="60"/>
-      <c r="F41" s="61"/>
-      <c r="G41" s="61"/>
-      <c r="H41" s="61"/>
-      <c r="I41" s="62"/>
+      <c r="E41" s="71"/>
+      <c r="F41" s="72"/>
+      <c r="G41" s="72"/>
+      <c r="H41" s="72"/>
+      <c r="I41" s="73"/>
     </row>
     <row r="42" spans="1:12" s="43" customFormat="1" ht="12">
       <c r="A42" s="40" t="s">
-        <v>61</v>
+        <v>9</v>
       </c>
       <c r="B42" s="41"/>
       <c r="C42" s="42"/>
@@ -5595,15 +5632,15 @@
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="E42" s="60"/>
-      <c r="F42" s="61"/>
-      <c r="G42" s="61"/>
-      <c r="H42" s="61"/>
-      <c r="I42" s="62"/>
+      <c r="E42" s="71"/>
+      <c r="F42" s="72"/>
+      <c r="G42" s="72"/>
+      <c r="H42" s="72"/>
+      <c r="I42" s="73"/>
     </row>
     <row r="43" spans="1:12" s="51" customFormat="1" ht="12">
       <c r="A43" s="48" t="s">
-        <v>62</v>
+        <v>10</v>
       </c>
       <c r="B43" s="49"/>
       <c r="C43" s="50"/>
@@ -5611,15 +5648,15 @@
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="E43" s="57"/>
-      <c r="F43" s="58"/>
-      <c r="G43" s="58"/>
-      <c r="H43" s="58"/>
-      <c r="I43" s="59"/>
+      <c r="E43" s="77"/>
+      <c r="F43" s="75"/>
+      <c r="G43" s="75"/>
+      <c r="H43" s="75"/>
+      <c r="I43" s="76"/>
     </row>
     <row r="44" spans="1:12" s="51" customFormat="1" ht="12">
       <c r="A44" s="48" t="s">
-        <v>63</v>
+        <v>11</v>
       </c>
       <c r="B44" s="49"/>
       <c r="C44" s="50"/>
@@ -5627,15 +5664,15 @@
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="E44" s="57"/>
-      <c r="F44" s="58"/>
-      <c r="G44" s="58"/>
-      <c r="H44" s="58"/>
-      <c r="I44" s="59"/>
+      <c r="E44" s="77"/>
+      <c r="F44" s="75"/>
+      <c r="G44" s="75"/>
+      <c r="H44" s="75"/>
+      <c r="I44" s="76"/>
     </row>
     <row r="45" spans="1:12" s="39" customFormat="1" ht="12">
       <c r="A45" s="36" t="s">
-        <v>64</v>
+        <v>12</v>
       </c>
       <c r="B45" s="37"/>
       <c r="C45" s="38"/>
@@ -5651,7 +5688,7 @@
     </row>
     <row r="46" spans="1:12" s="39" customFormat="1" ht="12">
       <c r="A46" s="36" t="s">
-        <v>80</v>
+        <v>28</v>
       </c>
       <c r="B46" s="37"/>
       <c r="C46" s="38"/>
@@ -5695,44 +5732,6 @@
     </row>
   </sheetData>
   <mergeCells count="51">
-    <mergeCell ref="A1:I1"/>
-    <mergeCell ref="A2:I2"/>
-    <mergeCell ref="A3:H3"/>
-    <mergeCell ref="A4:I4"/>
-    <mergeCell ref="A5:C5"/>
-    <mergeCell ref="D5:H5"/>
-    <mergeCell ref="A6:I6"/>
-    <mergeCell ref="A7:C7"/>
-    <mergeCell ref="D7:H7"/>
-    <mergeCell ref="A8:I8"/>
-    <mergeCell ref="A9:C9"/>
-    <mergeCell ref="D9:H9"/>
-    <mergeCell ref="A10:I10"/>
-    <mergeCell ref="A13:A15"/>
-    <mergeCell ref="B13:I13"/>
-    <mergeCell ref="B14:C14"/>
-    <mergeCell ref="D14:D15"/>
-    <mergeCell ref="E14:I15"/>
-    <mergeCell ref="E16:I16"/>
-    <mergeCell ref="E17:I17"/>
-    <mergeCell ref="E18:I18"/>
-    <mergeCell ref="E19:I19"/>
-    <mergeCell ref="E20:I20"/>
-    <mergeCell ref="E21:I21"/>
-    <mergeCell ref="E22:I22"/>
-    <mergeCell ref="E23:I23"/>
-    <mergeCell ref="E24:I24"/>
-    <mergeCell ref="E25:I25"/>
-    <mergeCell ref="E26:I26"/>
-    <mergeCell ref="E27:I27"/>
-    <mergeCell ref="E28:I28"/>
-    <mergeCell ref="E29:I29"/>
-    <mergeCell ref="E30:I30"/>
-    <mergeCell ref="E31:I31"/>
-    <mergeCell ref="E32:I32"/>
-    <mergeCell ref="E33:I33"/>
-    <mergeCell ref="E34:I34"/>
-    <mergeCell ref="E35:I35"/>
     <mergeCell ref="E36:I36"/>
     <mergeCell ref="E37:I37"/>
     <mergeCell ref="E38:I38"/>
@@ -5746,6 +5745,44 @@
     <mergeCell ref="E44:I44"/>
     <mergeCell ref="E46:I46"/>
     <mergeCell ref="E45:I45"/>
+    <mergeCell ref="E31:I31"/>
+    <mergeCell ref="E32:I32"/>
+    <mergeCell ref="E33:I33"/>
+    <mergeCell ref="E34:I34"/>
+    <mergeCell ref="E35:I35"/>
+    <mergeCell ref="E26:I26"/>
+    <mergeCell ref="E27:I27"/>
+    <mergeCell ref="E28:I28"/>
+    <mergeCell ref="E29:I29"/>
+    <mergeCell ref="E30:I30"/>
+    <mergeCell ref="E21:I21"/>
+    <mergeCell ref="E22:I22"/>
+    <mergeCell ref="E23:I23"/>
+    <mergeCell ref="E24:I24"/>
+    <mergeCell ref="E25:I25"/>
+    <mergeCell ref="E16:I16"/>
+    <mergeCell ref="E17:I17"/>
+    <mergeCell ref="E18:I18"/>
+    <mergeCell ref="E19:I19"/>
+    <mergeCell ref="E20:I20"/>
+    <mergeCell ref="A10:I10"/>
+    <mergeCell ref="A13:A15"/>
+    <mergeCell ref="B13:I13"/>
+    <mergeCell ref="B14:C14"/>
+    <mergeCell ref="D14:D15"/>
+    <mergeCell ref="E14:I15"/>
+    <mergeCell ref="A6:I6"/>
+    <mergeCell ref="A7:C7"/>
+    <mergeCell ref="D7:H7"/>
+    <mergeCell ref="A8:I8"/>
+    <mergeCell ref="A9:C9"/>
+    <mergeCell ref="D9:H9"/>
+    <mergeCell ref="A1:I1"/>
+    <mergeCell ref="A2:I2"/>
+    <mergeCell ref="A3:H3"/>
+    <mergeCell ref="A4:I4"/>
+    <mergeCell ref="A5:C5"/>
+    <mergeCell ref="D5:H5"/>
   </mergeCells>
   <phoneticPr fontId="32" type="noConversion"/>
   <printOptions horizontalCentered="1"/>

--- a/TimeSheetTemplate.xlsx
+++ b/TimeSheetTemplate.xlsx
@@ -36,7 +36,129 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="205" uniqueCount="84">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="209" uniqueCount="87">
+  <si>
+    <t>Learn Git, create GitHub repository, including excel documents</t>
+    <phoneticPr fontId="32" type="noConversion"/>
+  </si>
+  <si>
+    <t>ProjectLibre Tutorials and improving charts</t>
+    <phoneticPr fontId="32" type="noConversion"/>
+  </si>
+  <si>
+    <t>Sort out problem with Python on Mac (Canopy software deinstallation)</t>
+    <phoneticPr fontId="32" type="noConversion"/>
+  </si>
+  <si>
+    <t>Python Tutorial</t>
+    <phoneticPr fontId="32" type="noConversion"/>
+  </si>
+  <si>
+    <t>Python Tutorial</t>
+    <phoneticPr fontId="32" type="noConversion"/>
+  </si>
+  <si>
+    <t>Developing possible use-case during Hackathon, with Martin Sudmanns and team</t>
+    <phoneticPr fontId="32" type="noConversion"/>
+  </si>
+  <si>
+    <t>CLI CodeAcademy course; introduction to Git</t>
+    <phoneticPr fontId="32" type="noConversion"/>
+  </si>
+  <si>
+    <t>Read Processing scripts, brainstorm solutions</t>
+    <phoneticPr fontId="32" type="noConversion"/>
+  </si>
+  <si>
+    <t>Work on extended abstract -- mostly citations in Zotero</t>
+    <phoneticPr fontId="32" type="noConversion"/>
+  </si>
+  <si>
+    <t>Work on extended abstract</t>
+    <phoneticPr fontId="32" type="noConversion"/>
+  </si>
+  <si>
+    <t>Acquire preprocessing scripts from Tiede and briefly skim them for further questions</t>
+    <phoneticPr fontId="32" type="noConversion"/>
+  </si>
+  <si>
+    <t>Day</t>
+  </si>
+  <si>
+    <t>Time</t>
+  </si>
+  <si>
+    <t>Hours</t>
+  </si>
+  <si>
+    <t>(from)</t>
+  </si>
+  <si>
+    <t>(to)</t>
+  </si>
+  <si>
+    <t>1.</t>
+  </si>
+  <si>
+    <t>2.</t>
+  </si>
+  <si>
+    <t>3.</t>
+  </si>
+  <si>
+    <t>4.</t>
+  </si>
+  <si>
+    <t>5.</t>
+  </si>
+  <si>
+    <t>6.</t>
+  </si>
+  <si>
+    <t>7.</t>
+  </si>
+  <si>
+    <t>8.</t>
+  </si>
+  <si>
+    <t>9.</t>
+  </si>
+  <si>
+    <t>10.</t>
+  </si>
+  <si>
+    <t>11.</t>
+  </si>
+  <si>
+    <t>12.</t>
+  </si>
+  <si>
+    <t>13.</t>
+  </si>
+  <si>
+    <t>14.</t>
+  </si>
+  <si>
+    <t>15.</t>
+  </si>
+  <si>
+    <t>16.</t>
+  </si>
+  <si>
+    <t>17.</t>
+  </si>
+  <si>
+    <t>Kml Polygon Functionality</t>
+    <phoneticPr fontId="32" type="noConversion"/>
+  </si>
+  <si>
+    <t>Work on tile download functionality</t>
+    <phoneticPr fontId="32" type="noConversion"/>
+  </si>
+  <si>
+    <t>Tile functionality testing</t>
+    <phoneticPr fontId="32" type="noConversion"/>
+  </si>
   <si>
     <t>18.</t>
   </si>
@@ -226,116 +348,6 @@
   <si>
     <t>Work on first draft of Risk Matrix, Gantt and PERT Charts in ProjectLibre</t>
     <phoneticPr fontId="32" type="noConversion"/>
-  </si>
-  <si>
-    <t>Learn Git, create GitHub repository, including excel documents</t>
-    <phoneticPr fontId="32" type="noConversion"/>
-  </si>
-  <si>
-    <t>ProjectLibre Tutorials and improving charts</t>
-    <phoneticPr fontId="32" type="noConversion"/>
-  </si>
-  <si>
-    <t>Sort out problem with Python on Mac (Canopy software deinstallation)</t>
-    <phoneticPr fontId="32" type="noConversion"/>
-  </si>
-  <si>
-    <t>Python Tutorial</t>
-    <phoneticPr fontId="32" type="noConversion"/>
-  </si>
-  <si>
-    <t>Python Tutorial</t>
-    <phoneticPr fontId="32" type="noConversion"/>
-  </si>
-  <si>
-    <t>Developing possible use-case during Hackathon, with Martin Sudmanns and team</t>
-    <phoneticPr fontId="32" type="noConversion"/>
-  </si>
-  <si>
-    <t>CLI CodeAcademy course; introduction to Git</t>
-    <phoneticPr fontId="32" type="noConversion"/>
-  </si>
-  <si>
-    <t>Read Processing scripts, brainstorm solutions</t>
-    <phoneticPr fontId="32" type="noConversion"/>
-  </si>
-  <si>
-    <t>Work on extended abstract -- mostly citations in Zotero</t>
-    <phoneticPr fontId="32" type="noConversion"/>
-  </si>
-  <si>
-    <t>Work on extended abstract</t>
-    <phoneticPr fontId="32" type="noConversion"/>
-  </si>
-  <si>
-    <t>Acquire preprocessing scripts from Tiede and briefly skim them for further questions</t>
-    <phoneticPr fontId="32" type="noConversion"/>
-  </si>
-  <si>
-    <t>Day</t>
-  </si>
-  <si>
-    <t>Time</t>
-  </si>
-  <si>
-    <t>Hours</t>
-  </si>
-  <si>
-    <t>(from)</t>
-  </si>
-  <si>
-    <t>(to)</t>
-  </si>
-  <si>
-    <t>1.</t>
-  </si>
-  <si>
-    <t>2.</t>
-  </si>
-  <si>
-    <t>3.</t>
-  </si>
-  <si>
-    <t>4.</t>
-  </si>
-  <si>
-    <t>5.</t>
-  </si>
-  <si>
-    <t>6.</t>
-  </si>
-  <si>
-    <t>7.</t>
-  </si>
-  <si>
-    <t>8.</t>
-  </si>
-  <si>
-    <t>9.</t>
-  </si>
-  <si>
-    <t>10.</t>
-  </si>
-  <si>
-    <t>11.</t>
-  </si>
-  <si>
-    <t>12.</t>
-  </si>
-  <si>
-    <t>13.</t>
-  </si>
-  <si>
-    <t>14.</t>
-  </si>
-  <si>
-    <t>15.</t>
-  </si>
-  <si>
-    <t>16.</t>
-  </si>
-  <si>
-    <t>17.</t>
   </si>
 </sst>
 </file>
@@ -1246,47 +1258,14 @@
     <xf numFmtId="166" fontId="0" fillId="0" borderId="20" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="166" fontId="0" fillId="0" borderId="11" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="166" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="24" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="25" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="26" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="24" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" wrapText="1"/>
@@ -1297,16 +1276,17 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="26" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" wrapText="1"/>
     </xf>
+    <xf numFmtId="167" fontId="10" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="167" fontId="10" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="167" fontId="11" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="167" fontId="11" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="5" fillId="4" borderId="24" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="25" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="26" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="24" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="10" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -1355,16 +1335,48 @@
     <xf numFmtId="0" fontId="10" fillId="0" borderId="23" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="167" fontId="10" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="13" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="167" fontId="10" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="167" fontId="11" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="167" fontId="11" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
     <xf numFmtId="167" fontId="11" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -1848,17 +1860,17 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:50" s="7" customFormat="1" ht="18" thickBot="1">
-      <c r="A1" s="66" t="s">
-        <v>47</v>
-      </c>
-      <c r="B1" s="66"/>
-      <c r="C1" s="66"/>
-      <c r="D1" s="66"/>
-      <c r="E1" s="66"/>
-      <c r="F1" s="66"/>
-      <c r="G1" s="66"/>
-      <c r="H1" s="66"/>
-      <c r="I1" s="66"/>
+      <c r="A1" s="84" t="s">
+        <v>83</v>
+      </c>
+      <c r="B1" s="84"/>
+      <c r="C1" s="84"/>
+      <c r="D1" s="84"/>
+      <c r="E1" s="84"/>
+      <c r="F1" s="84"/>
+      <c r="G1" s="84"/>
+      <c r="H1" s="84"/>
+      <c r="I1" s="84"/>
       <c r="J1" s="8"/>
       <c r="K1" s="8"/>
       <c r="L1" s="8"/>
@@ -1901,15 +1913,15 @@
       <c r="AW1" s="8"/>
     </row>
     <row r="2" spans="1:50" s="1" customFormat="1" ht="7.5" customHeight="1">
-      <c r="A2" s="67"/>
-      <c r="B2" s="67"/>
-      <c r="C2" s="67"/>
-      <c r="D2" s="67"/>
-      <c r="E2" s="67"/>
-      <c r="F2" s="67"/>
-      <c r="G2" s="67"/>
-      <c r="H2" s="67"/>
-      <c r="I2" s="67"/>
+      <c r="A2" s="85"/>
+      <c r="B2" s="85"/>
+      <c r="C2" s="85"/>
+      <c r="D2" s="85"/>
+      <c r="E2" s="85"/>
+      <c r="F2" s="85"/>
+      <c r="G2" s="85"/>
+      <c r="H2" s="85"/>
+      <c r="I2" s="85"/>
       <c r="J2" s="9"/>
       <c r="K2" s="9"/>
       <c r="L2" s="9"/>
@@ -1952,16 +1964,16 @@
       <c r="AW2" s="9"/>
     </row>
     <row r="3" spans="1:50" s="11" customFormat="1" ht="13.5" customHeight="1">
-      <c r="A3" s="68" t="s">
-        <v>20</v>
-      </c>
-      <c r="B3" s="68"/>
-      <c r="C3" s="68"/>
-      <c r="D3" s="68"/>
-      <c r="E3" s="68"/>
-      <c r="F3" s="68"/>
-      <c r="G3" s="68"/>
-      <c r="H3" s="68"/>
+      <c r="A3" s="86" t="s">
+        <v>56</v>
+      </c>
+      <c r="B3" s="86"/>
+      <c r="C3" s="86"/>
+      <c r="D3" s="86"/>
+      <c r="E3" s="86"/>
+      <c r="F3" s="86"/>
+      <c r="G3" s="86"/>
+      <c r="H3" s="86"/>
       <c r="I3" s="23"/>
       <c r="J3" s="22"/>
       <c r="K3" s="22"/>
@@ -2006,29 +2018,29 @@
       <c r="AX3" s="10"/>
     </row>
     <row r="4" spans="1:50" s="6" customFormat="1" ht="9" customHeight="1">
-      <c r="A4" s="69"/>
-      <c r="B4" s="69"/>
-      <c r="C4" s="69"/>
-      <c r="D4" s="69"/>
-      <c r="E4" s="69"/>
-      <c r="F4" s="69"/>
-      <c r="G4" s="69"/>
-      <c r="H4" s="69"/>
-      <c r="I4" s="69"/>
+      <c r="A4" s="87"/>
+      <c r="B4" s="87"/>
+      <c r="C4" s="87"/>
+      <c r="D4" s="87"/>
+      <c r="E4" s="87"/>
+      <c r="F4" s="87"/>
+      <c r="G4" s="87"/>
+      <c r="H4" s="87"/>
+      <c r="I4" s="87"/>
     </row>
     <row r="5" spans="1:50" s="1" customFormat="1" ht="13.75" customHeight="1">
-      <c r="A5" s="62" t="s">
-        <v>17</v>
-      </c>
-      <c r="B5" s="63"/>
-      <c r="C5" s="63"/>
-      <c r="D5" s="58" t="s">
-        <v>23</v>
-      </c>
-      <c r="E5" s="59"/>
-      <c r="F5" s="59"/>
-      <c r="G5" s="59"/>
-      <c r="H5" s="60"/>
+      <c r="A5" s="94" t="s">
+        <v>53</v>
+      </c>
+      <c r="B5" s="95"/>
+      <c r="C5" s="95"/>
+      <c r="D5" s="90" t="s">
+        <v>59</v>
+      </c>
+      <c r="E5" s="91"/>
+      <c r="F5" s="91"/>
+      <c r="G5" s="91"/>
+      <c r="H5" s="92"/>
       <c r="I5" s="23"/>
       <c r="J5" s="9"/>
       <c r="K5" s="9"/>
@@ -2036,77 +2048,77 @@
       <c r="M5" s="9"/>
     </row>
     <row r="6" spans="1:50" s="1" customFormat="1" ht="7.5" customHeight="1">
-      <c r="A6" s="64"/>
-      <c r="B6" s="64"/>
-      <c r="C6" s="64"/>
-      <c r="D6" s="64"/>
-      <c r="E6" s="64"/>
-      <c r="F6" s="64"/>
-      <c r="G6" s="64"/>
-      <c r="H6" s="64"/>
-      <c r="I6" s="64"/>
+      <c r="A6" s="96"/>
+      <c r="B6" s="96"/>
+      <c r="C6" s="96"/>
+      <c r="D6" s="96"/>
+      <c r="E6" s="96"/>
+      <c r="F6" s="96"/>
+      <c r="G6" s="96"/>
+      <c r="H6" s="96"/>
+      <c r="I6" s="96"/>
     </row>
     <row r="7" spans="1:50" s="1" customFormat="1" ht="13.75" customHeight="1">
-      <c r="A7" s="57" t="s">
-        <v>21</v>
-      </c>
-      <c r="B7" s="57"/>
-      <c r="C7" s="57"/>
-      <c r="D7" s="65" t="s">
-        <v>24</v>
-      </c>
-      <c r="E7" s="65"/>
-      <c r="F7" s="65"/>
-      <c r="G7" s="65"/>
-      <c r="H7" s="65"/>
+      <c r="A7" s="89" t="s">
+        <v>57</v>
+      </c>
+      <c r="B7" s="89"/>
+      <c r="C7" s="89"/>
+      <c r="D7" s="97" t="s">
+        <v>60</v>
+      </c>
+      <c r="E7" s="97"/>
+      <c r="F7" s="97"/>
+      <c r="G7" s="97"/>
+      <c r="H7" s="97"/>
       <c r="I7" s="24"/>
     </row>
     <row r="8" spans="1:50" s="1" customFormat="1" ht="7.5" customHeight="1">
-      <c r="A8" s="70"/>
-      <c r="B8" s="70"/>
-      <c r="C8" s="70"/>
-      <c r="D8" s="70"/>
-      <c r="E8" s="70"/>
-      <c r="F8" s="70"/>
-      <c r="G8" s="70"/>
-      <c r="H8" s="70"/>
-      <c r="I8" s="70"/>
+      <c r="A8" s="88"/>
+      <c r="B8" s="88"/>
+      <c r="C8" s="88"/>
+      <c r="D8" s="88"/>
+      <c r="E8" s="88"/>
+      <c r="F8" s="88"/>
+      <c r="G8" s="88"/>
+      <c r="H8" s="88"/>
+      <c r="I8" s="88"/>
     </row>
     <row r="9" spans="1:50" s="1" customFormat="1" ht="13.75" customHeight="1">
-      <c r="A9" s="57" t="s">
-        <v>22</v>
-      </c>
-      <c r="B9" s="57"/>
-      <c r="C9" s="57"/>
-      <c r="D9" s="58" t="s">
-        <v>25</v>
-      </c>
-      <c r="E9" s="59"/>
-      <c r="F9" s="59"/>
-      <c r="G9" s="59"/>
-      <c r="H9" s="60"/>
+      <c r="A9" s="89" t="s">
+        <v>58</v>
+      </c>
+      <c r="B9" s="89"/>
+      <c r="C9" s="89"/>
+      <c r="D9" s="90" t="s">
+        <v>61</v>
+      </c>
+      <c r="E9" s="91"/>
+      <c r="F9" s="91"/>
+      <c r="G9" s="91"/>
+      <c r="H9" s="92"/>
       <c r="I9" s="24"/>
       <c r="J9" s="15"/>
     </row>
     <row r="10" spans="1:50" s="1" customFormat="1" ht="7.5" customHeight="1">
-      <c r="A10" s="61"/>
-      <c r="B10" s="61"/>
-      <c r="C10" s="61"/>
-      <c r="D10" s="61"/>
-      <c r="E10" s="61"/>
-      <c r="F10" s="61"/>
-      <c r="G10" s="61"/>
-      <c r="H10" s="61"/>
-      <c r="I10" s="61"/>
+      <c r="A10" s="93"/>
+      <c r="B10" s="93"/>
+      <c r="C10" s="93"/>
+      <c r="D10" s="93"/>
+      <c r="E10" s="93"/>
+      <c r="F10" s="93"/>
+      <c r="G10" s="93"/>
+      <c r="H10" s="93"/>
+      <c r="I10" s="93"/>
     </row>
     <row r="11" spans="1:50" s="1" customFormat="1" ht="12">
       <c r="A11" s="21" t="s">
-        <v>18</v>
+        <v>54</v>
       </c>
       <c r="B11" s="21"/>
       <c r="C11" s="21"/>
       <c r="D11" s="21" t="s">
-        <v>26</v>
+        <v>62</v>
       </c>
       <c r="E11" s="21"/>
       <c r="F11" s="21"/>
@@ -2126,55 +2138,55 @@
       <c r="I12" s="26"/>
     </row>
     <row r="13" spans="1:50" s="2" customFormat="1" ht="15.5" customHeight="1">
-      <c r="A13" s="78" t="s">
-        <v>62</v>
-      </c>
-      <c r="B13" s="81" t="s">
+      <c r="A13" s="68" t="s">
+        <v>11</v>
+      </c>
+      <c r="B13" s="71" t="s">
+        <v>50</v>
+      </c>
+      <c r="C13" s="72"/>
+      <c r="D13" s="72"/>
+      <c r="E13" s="72"/>
+      <c r="F13" s="72"/>
+      <c r="G13" s="72"/>
+      <c r="H13" s="72"/>
+      <c r="I13" s="73"/>
+    </row>
+    <row r="14" spans="1:50" s="2" customFormat="1" ht="13.75" customHeight="1">
+      <c r="A14" s="69"/>
+      <c r="B14" s="74" t="s">
+        <v>12</v>
+      </c>
+      <c r="C14" s="75"/>
+      <c r="D14" s="76" t="s">
+        <v>13</v>
+      </c>
+      <c r="E14" s="78" t="s">
+        <v>51</v>
+      </c>
+      <c r="F14" s="79"/>
+      <c r="G14" s="79"/>
+      <c r="H14" s="79"/>
+      <c r="I14" s="80"/>
+    </row>
+    <row r="15" spans="1:50" ht="13" customHeight="1">
+      <c r="A15" s="70"/>
+      <c r="B15" s="32" t="s">
         <v>14</v>
       </c>
-      <c r="C13" s="82"/>
-      <c r="D13" s="82"/>
-      <c r="E13" s="82"/>
-      <c r="F13" s="82"/>
-      <c r="G13" s="82"/>
-      <c r="H13" s="82"/>
-      <c r="I13" s="83"/>
-    </row>
-    <row r="14" spans="1:50" s="2" customFormat="1" ht="13.75" customHeight="1">
-      <c r="A14" s="79"/>
-      <c r="B14" s="84" t="s">
-        <v>63</v>
-      </c>
-      <c r="C14" s="85"/>
-      <c r="D14" s="86" t="s">
-        <v>64</v>
-      </c>
-      <c r="E14" s="88" t="s">
+      <c r="C15" s="33" t="s">
         <v>15</v>
       </c>
-      <c r="F14" s="89"/>
-      <c r="G14" s="89"/>
-      <c r="H14" s="89"/>
-      <c r="I14" s="90"/>
-    </row>
-    <row r="15" spans="1:50" ht="13" customHeight="1">
-      <c r="A15" s="80"/>
-      <c r="B15" s="32" t="s">
-        <v>65</v>
-      </c>
-      <c r="C15" s="33" t="s">
-        <v>66</v>
-      </c>
-      <c r="D15" s="87"/>
-      <c r="E15" s="91"/>
-      <c r="F15" s="92"/>
-      <c r="G15" s="92"/>
-      <c r="H15" s="92"/>
-      <c r="I15" s="93"/>
+      <c r="D15" s="77"/>
+      <c r="E15" s="81"/>
+      <c r="F15" s="82"/>
+      <c r="G15" s="82"/>
+      <c r="H15" s="82"/>
+      <c r="I15" s="83"/>
     </row>
     <row r="16" spans="1:50" s="51" customFormat="1" ht="12">
       <c r="A16" s="48" t="s">
-        <v>67</v>
+        <v>16</v>
       </c>
       <c r="B16" s="49">
         <v>0.33333333333333331</v>
@@ -2186,17 +2198,17 @@
         <f>C16-B16</f>
         <v>0.20833333333333331</v>
       </c>
-      <c r="E16" s="74" t="s">
-        <v>27</v>
-      </c>
-      <c r="F16" s="75"/>
-      <c r="G16" s="75"/>
-      <c r="H16" s="75"/>
-      <c r="I16" s="76"/>
+      <c r="E16" s="67" t="s">
+        <v>63</v>
+      </c>
+      <c r="F16" s="58"/>
+      <c r="G16" s="58"/>
+      <c r="H16" s="58"/>
+      <c r="I16" s="59"/>
     </row>
     <row r="17" spans="1:9" s="51" customFormat="1" ht="12">
       <c r="A17" s="48" t="s">
-        <v>68</v>
+        <v>17</v>
       </c>
       <c r="B17" s="49"/>
       <c r="C17" s="50"/>
@@ -2204,15 +2216,15 @@
         <f t="shared" ref="D17:D49" si="0">C17-B17</f>
         <v>0</v>
       </c>
-      <c r="E17" s="77"/>
-      <c r="F17" s="75"/>
-      <c r="G17" s="75"/>
-      <c r="H17" s="75"/>
-      <c r="I17" s="76"/>
+      <c r="E17" s="57"/>
+      <c r="F17" s="58"/>
+      <c r="G17" s="58"/>
+      <c r="H17" s="58"/>
+      <c r="I17" s="59"/>
     </row>
     <row r="18" spans="1:9" s="43" customFormat="1" ht="12">
       <c r="A18" s="40" t="s">
-        <v>69</v>
+        <v>18</v>
       </c>
       <c r="B18" s="41"/>
       <c r="C18" s="42"/>
@@ -2220,15 +2232,15 @@
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="E18" s="71"/>
-      <c r="F18" s="72"/>
-      <c r="G18" s="72"/>
-      <c r="H18" s="72"/>
-      <c r="I18" s="73"/>
+      <c r="E18" s="60"/>
+      <c r="F18" s="61"/>
+      <c r="G18" s="61"/>
+      <c r="H18" s="61"/>
+      <c r="I18" s="62"/>
     </row>
     <row r="19" spans="1:9" s="43" customFormat="1" ht="12">
       <c r="A19" s="40" t="s">
-        <v>70</v>
+        <v>19</v>
       </c>
       <c r="B19" s="41">
         <v>0.66666666666666663</v>
@@ -2240,17 +2252,17 @@
         <f t="shared" si="0"/>
         <v>4.1666666666666741E-2</v>
       </c>
-      <c r="E19" s="71" t="s">
-        <v>29</v>
-      </c>
-      <c r="F19" s="72"/>
-      <c r="G19" s="72"/>
-      <c r="H19" s="72"/>
-      <c r="I19" s="73"/>
+      <c r="E19" s="60" t="s">
+        <v>65</v>
+      </c>
+      <c r="F19" s="61"/>
+      <c r="G19" s="61"/>
+      <c r="H19" s="61"/>
+      <c r="I19" s="62"/>
     </row>
     <row r="20" spans="1:9" s="43" customFormat="1" ht="12">
       <c r="A20" s="40" t="s">
-        <v>71</v>
+        <v>20</v>
       </c>
       <c r="B20" s="41"/>
       <c r="C20" s="42"/>
@@ -2258,15 +2270,15 @@
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="E20" s="71"/>
-      <c r="F20" s="72"/>
-      <c r="G20" s="72"/>
-      <c r="H20" s="72"/>
-      <c r="I20" s="73"/>
+      <c r="E20" s="60"/>
+      <c r="F20" s="61"/>
+      <c r="G20" s="61"/>
+      <c r="H20" s="61"/>
+      <c r="I20" s="62"/>
     </row>
     <row r="21" spans="1:9" s="43" customFormat="1" ht="12">
       <c r="A21" s="40" t="s">
-        <v>72</v>
+        <v>21</v>
       </c>
       <c r="B21" s="41"/>
       <c r="C21" s="42"/>
@@ -2274,15 +2286,15 @@
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="E21" s="71"/>
-      <c r="F21" s="72"/>
-      <c r="G21" s="72"/>
-      <c r="H21" s="72"/>
-      <c r="I21" s="73"/>
+      <c r="E21" s="60"/>
+      <c r="F21" s="61"/>
+      <c r="G21" s="61"/>
+      <c r="H21" s="61"/>
+      <c r="I21" s="62"/>
     </row>
     <row r="22" spans="1:9" s="43" customFormat="1" ht="12">
       <c r="A22" s="40" t="s">
-        <v>73</v>
+        <v>22</v>
       </c>
       <c r="B22" s="41"/>
       <c r="C22" s="42"/>
@@ -2290,15 +2302,15 @@
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="E22" s="71"/>
-      <c r="F22" s="72"/>
-      <c r="G22" s="72"/>
-      <c r="H22" s="72"/>
-      <c r="I22" s="73"/>
+      <c r="E22" s="60"/>
+      <c r="F22" s="61"/>
+      <c r="G22" s="61"/>
+      <c r="H22" s="61"/>
+      <c r="I22" s="62"/>
     </row>
     <row r="23" spans="1:9" s="51" customFormat="1" ht="12">
       <c r="A23" s="48" t="s">
-        <v>74</v>
+        <v>23</v>
       </c>
       <c r="B23" s="49"/>
       <c r="C23" s="50"/>
@@ -2306,15 +2318,15 @@
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="E23" s="77"/>
-      <c r="F23" s="75"/>
-      <c r="G23" s="75"/>
-      <c r="H23" s="75"/>
-      <c r="I23" s="76"/>
+      <c r="E23" s="57"/>
+      <c r="F23" s="58"/>
+      <c r="G23" s="58"/>
+      <c r="H23" s="58"/>
+      <c r="I23" s="59"/>
     </row>
     <row r="24" spans="1:9" s="51" customFormat="1" ht="12">
       <c r="A24" s="48" t="s">
-        <v>75</v>
+        <v>24</v>
       </c>
       <c r="B24" s="49">
         <v>0.5</v>
@@ -2326,17 +2338,17 @@
         <f t="shared" si="0"/>
         <v>8.333333333333337E-2</v>
       </c>
-      <c r="E24" s="77" t="s">
-        <v>37</v>
-      </c>
-      <c r="F24" s="75"/>
-      <c r="G24" s="75"/>
-      <c r="H24" s="75"/>
-      <c r="I24" s="76"/>
+      <c r="E24" s="57" t="s">
+        <v>73</v>
+      </c>
+      <c r="F24" s="58"/>
+      <c r="G24" s="58"/>
+      <c r="H24" s="58"/>
+      <c r="I24" s="59"/>
     </row>
     <row r="25" spans="1:9" s="43" customFormat="1" ht="12">
       <c r="A25" s="40" t="s">
-        <v>76</v>
+        <v>25</v>
       </c>
       <c r="B25" s="41">
         <v>0.625</v>
@@ -2348,17 +2360,17 @@
         <f t="shared" si="0"/>
         <v>0.16666666666666663</v>
       </c>
-      <c r="E25" s="71" t="s">
-        <v>36</v>
-      </c>
-      <c r="F25" s="72"/>
-      <c r="G25" s="72"/>
-      <c r="H25" s="72"/>
-      <c r="I25" s="73"/>
+      <c r="E25" s="60" t="s">
+        <v>72</v>
+      </c>
+      <c r="F25" s="61"/>
+      <c r="G25" s="61"/>
+      <c r="H25" s="61"/>
+      <c r="I25" s="62"/>
     </row>
     <row r="26" spans="1:9" s="43" customFormat="1" ht="12">
       <c r="A26" s="40" t="s">
-        <v>77</v>
+        <v>26</v>
       </c>
       <c r="B26" s="41">
         <v>0.375</v>
@@ -2370,13 +2382,13 @@
         <f>C26-B26</f>
         <v>0.125</v>
       </c>
-      <c r="E26" s="71" t="s">
-        <v>48</v>
-      </c>
-      <c r="F26" s="72"/>
-      <c r="G26" s="72"/>
-      <c r="H26" s="72"/>
-      <c r="I26" s="73"/>
+      <c r="E26" s="60" t="s">
+        <v>84</v>
+      </c>
+      <c r="F26" s="61"/>
+      <c r="G26" s="61"/>
+      <c r="H26" s="61"/>
+      <c r="I26" s="62"/>
     </row>
     <row r="27" spans="1:9" s="43" customFormat="1" ht="12">
       <c r="A27" s="40"/>
@@ -2390,17 +2402,17 @@
         <f t="shared" si="0"/>
         <v>8.333333333333337E-2</v>
       </c>
-      <c r="E27" s="71" t="s">
-        <v>41</v>
-      </c>
-      <c r="F27" s="72"/>
-      <c r="G27" s="72"/>
-      <c r="H27" s="72"/>
-      <c r="I27" s="73"/>
+      <c r="E27" s="60" t="s">
+        <v>77</v>
+      </c>
+      <c r="F27" s="61"/>
+      <c r="G27" s="61"/>
+      <c r="H27" s="61"/>
+      <c r="I27" s="62"/>
     </row>
     <row r="28" spans="1:9" s="43" customFormat="1" ht="12">
       <c r="A28" s="40" t="s">
-        <v>78</v>
+        <v>27</v>
       </c>
       <c r="B28" s="41">
         <v>0.83333333333333337</v>
@@ -2412,17 +2424,17 @@
         <f t="shared" si="0"/>
         <v>0.125</v>
       </c>
-      <c r="E28" s="71" t="s">
-        <v>38</v>
-      </c>
-      <c r="F28" s="72"/>
-      <c r="G28" s="72"/>
-      <c r="H28" s="72"/>
-      <c r="I28" s="73"/>
+      <c r="E28" s="60" t="s">
+        <v>74</v>
+      </c>
+      <c r="F28" s="61"/>
+      <c r="G28" s="61"/>
+      <c r="H28" s="61"/>
+      <c r="I28" s="62"/>
     </row>
     <row r="29" spans="1:9" s="43" customFormat="1" ht="12">
       <c r="A29" s="40" t="s">
-        <v>79</v>
+        <v>28</v>
       </c>
       <c r="B29" s="41">
         <v>0.5</v>
@@ -2434,17 +2446,17 @@
         <f t="shared" si="0"/>
         <v>3.125E-2</v>
       </c>
-      <c r="E29" s="71" t="s">
-        <v>40</v>
-      </c>
-      <c r="F29" s="72"/>
-      <c r="G29" s="72"/>
-      <c r="H29" s="72"/>
-      <c r="I29" s="73"/>
+      <c r="E29" s="60" t="s">
+        <v>76</v>
+      </c>
+      <c r="F29" s="61"/>
+      <c r="G29" s="61"/>
+      <c r="H29" s="61"/>
+      <c r="I29" s="62"/>
     </row>
     <row r="30" spans="1:9" s="43" customFormat="1" ht="12">
       <c r="A30" s="40" t="s">
-        <v>80</v>
+        <v>29</v>
       </c>
       <c r="B30" s="41"/>
       <c r="C30" s="42"/>
@@ -2452,15 +2464,15 @@
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="E30" s="71"/>
-      <c r="F30" s="72"/>
-      <c r="G30" s="72"/>
-      <c r="H30" s="72"/>
-      <c r="I30" s="73"/>
+      <c r="E30" s="60"/>
+      <c r="F30" s="61"/>
+      <c r="G30" s="61"/>
+      <c r="H30" s="61"/>
+      <c r="I30" s="62"/>
     </row>
     <row r="31" spans="1:9" s="51" customFormat="1" ht="12">
       <c r="A31" s="48" t="s">
-        <v>81</v>
+        <v>30</v>
       </c>
       <c r="B31" s="49"/>
       <c r="C31" s="50"/>
@@ -2468,15 +2480,15 @@
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="E31" s="77"/>
-      <c r="F31" s="75"/>
-      <c r="G31" s="75"/>
-      <c r="H31" s="75"/>
-      <c r="I31" s="76"/>
+      <c r="E31" s="57"/>
+      <c r="F31" s="58"/>
+      <c r="G31" s="58"/>
+      <c r="H31" s="58"/>
+      <c r="I31" s="59"/>
     </row>
     <row r="32" spans="1:9" s="51" customFormat="1" ht="12">
       <c r="A32" s="48" t="s">
-        <v>82</v>
+        <v>31</v>
       </c>
       <c r="B32" s="49"/>
       <c r="C32" s="50"/>
@@ -2484,15 +2496,15 @@
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="E32" s="77"/>
-      <c r="F32" s="75"/>
-      <c r="G32" s="75"/>
-      <c r="H32" s="75"/>
-      <c r="I32" s="76"/>
+      <c r="E32" s="57"/>
+      <c r="F32" s="58"/>
+      <c r="G32" s="58"/>
+      <c r="H32" s="58"/>
+      <c r="I32" s="59"/>
     </row>
     <row r="33" spans="1:9" s="43" customFormat="1" ht="12">
       <c r="A33" s="40" t="s">
-        <v>83</v>
+        <v>32</v>
       </c>
       <c r="B33" s="41"/>
       <c r="C33" s="42"/>
@@ -2500,15 +2512,15 @@
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="E33" s="71"/>
-      <c r="F33" s="72"/>
-      <c r="G33" s="72"/>
-      <c r="H33" s="72"/>
-      <c r="I33" s="73"/>
+      <c r="E33" s="60"/>
+      <c r="F33" s="61"/>
+      <c r="G33" s="61"/>
+      <c r="H33" s="61"/>
+      <c r="I33" s="62"/>
     </row>
     <row r="34" spans="1:9" s="43" customFormat="1" ht="12">
       <c r="A34" s="40" t="s">
-        <v>0</v>
+        <v>36</v>
       </c>
       <c r="B34" s="41"/>
       <c r="C34" s="42"/>
@@ -2516,15 +2528,15 @@
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="E34" s="71"/>
-      <c r="F34" s="72"/>
-      <c r="G34" s="72"/>
-      <c r="H34" s="72"/>
-      <c r="I34" s="73"/>
+      <c r="E34" s="60"/>
+      <c r="F34" s="61"/>
+      <c r="G34" s="61"/>
+      <c r="H34" s="61"/>
+      <c r="I34" s="62"/>
     </row>
     <row r="35" spans="1:9" s="43" customFormat="1" ht="12">
       <c r="A35" s="40" t="s">
-        <v>1</v>
+        <v>37</v>
       </c>
       <c r="B35" s="41"/>
       <c r="C35" s="42"/>
@@ -2532,15 +2544,15 @@
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="E35" s="71"/>
-      <c r="F35" s="72"/>
-      <c r="G35" s="72"/>
-      <c r="H35" s="72"/>
-      <c r="I35" s="73"/>
+      <c r="E35" s="60"/>
+      <c r="F35" s="61"/>
+      <c r="G35" s="61"/>
+      <c r="H35" s="61"/>
+      <c r="I35" s="62"/>
     </row>
     <row r="36" spans="1:9" s="43" customFormat="1" ht="12">
       <c r="A36" s="40" t="s">
-        <v>2</v>
+        <v>38</v>
       </c>
       <c r="B36" s="41"/>
       <c r="C36" s="42"/>
@@ -2548,15 +2560,15 @@
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="E36" s="71"/>
-      <c r="F36" s="72"/>
-      <c r="G36" s="72"/>
-      <c r="H36" s="72"/>
-      <c r="I36" s="73"/>
+      <c r="E36" s="60"/>
+      <c r="F36" s="61"/>
+      <c r="G36" s="61"/>
+      <c r="H36" s="61"/>
+      <c r="I36" s="62"/>
     </row>
     <row r="37" spans="1:9" s="43" customFormat="1" ht="12">
       <c r="A37" s="40" t="s">
-        <v>3</v>
+        <v>39</v>
       </c>
       <c r="B37" s="41"/>
       <c r="C37" s="42"/>
@@ -2564,15 +2576,15 @@
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="E37" s="71"/>
-      <c r="F37" s="72"/>
-      <c r="G37" s="72"/>
-      <c r="H37" s="72"/>
-      <c r="I37" s="73"/>
+      <c r="E37" s="60"/>
+      <c r="F37" s="61"/>
+      <c r="G37" s="61"/>
+      <c r="H37" s="61"/>
+      <c r="I37" s="62"/>
     </row>
     <row r="38" spans="1:9" s="51" customFormat="1" ht="12">
       <c r="A38" s="48" t="s">
-        <v>4</v>
+        <v>40</v>
       </c>
       <c r="B38" s="49"/>
       <c r="C38" s="50"/>
@@ -2580,15 +2592,15 @@
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="E38" s="77"/>
-      <c r="F38" s="75"/>
-      <c r="G38" s="75"/>
-      <c r="H38" s="75"/>
-      <c r="I38" s="76"/>
+      <c r="E38" s="57"/>
+      <c r="F38" s="58"/>
+      <c r="G38" s="58"/>
+      <c r="H38" s="58"/>
+      <c r="I38" s="59"/>
     </row>
     <row r="39" spans="1:9" s="51" customFormat="1" ht="12">
       <c r="A39" s="48" t="s">
-        <v>5</v>
+        <v>41</v>
       </c>
       <c r="B39" s="49"/>
       <c r="C39" s="50"/>
@@ -2596,15 +2608,15 @@
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="E39" s="77"/>
-      <c r="F39" s="75"/>
-      <c r="G39" s="75"/>
-      <c r="H39" s="75"/>
-      <c r="I39" s="76"/>
+      <c r="E39" s="57"/>
+      <c r="F39" s="58"/>
+      <c r="G39" s="58"/>
+      <c r="H39" s="58"/>
+      <c r="I39" s="59"/>
     </row>
     <row r="40" spans="1:9" s="43" customFormat="1" ht="12">
       <c r="A40" s="40" t="s">
-        <v>6</v>
+        <v>42</v>
       </c>
       <c r="B40" s="41">
         <v>0.9375</v>
@@ -2616,17 +2628,17 @@
         <f t="shared" si="0"/>
         <v>4.166666666666663E-2</v>
       </c>
-      <c r="E40" s="71" t="s">
-        <v>39</v>
-      </c>
-      <c r="F40" s="72"/>
-      <c r="G40" s="72"/>
-      <c r="H40" s="72"/>
-      <c r="I40" s="73"/>
+      <c r="E40" s="60" t="s">
+        <v>75</v>
+      </c>
+      <c r="F40" s="61"/>
+      <c r="G40" s="61"/>
+      <c r="H40" s="61"/>
+      <c r="I40" s="62"/>
     </row>
     <row r="41" spans="1:9" s="43" customFormat="1" ht="12">
       <c r="A41" s="40" t="s">
-        <v>7</v>
+        <v>43</v>
       </c>
       <c r="B41" s="41">
         <v>0.41666666666666669</v>
@@ -2638,13 +2650,13 @@
         <f t="shared" si="0"/>
         <v>0.12499999999999994</v>
       </c>
-      <c r="E41" s="71" t="s">
-        <v>50</v>
-      </c>
-      <c r="F41" s="72"/>
-      <c r="G41" s="72"/>
-      <c r="H41" s="72"/>
-      <c r="I41" s="73"/>
+      <c r="E41" s="60" t="s">
+        <v>86</v>
+      </c>
+      <c r="F41" s="61"/>
+      <c r="G41" s="61"/>
+      <c r="H41" s="61"/>
+      <c r="I41" s="62"/>
     </row>
     <row r="42" spans="1:9" s="43" customFormat="1" ht="12">
       <c r="A42" s="40"/>
@@ -2658,13 +2670,13 @@
         <f t="shared" si="0"/>
         <v>0.16666666666666663</v>
       </c>
-      <c r="E42" s="71" t="s">
-        <v>49</v>
-      </c>
-      <c r="F42" s="72"/>
-      <c r="G42" s="72"/>
-      <c r="H42" s="72"/>
-      <c r="I42" s="73"/>
+      <c r="E42" s="60" t="s">
+        <v>85</v>
+      </c>
+      <c r="F42" s="61"/>
+      <c r="G42" s="61"/>
+      <c r="H42" s="61"/>
+      <c r="I42" s="62"/>
     </row>
     <row r="43" spans="1:9" s="43" customFormat="1" ht="12">
       <c r="A43" s="40"/>
@@ -2678,17 +2690,17 @@
         <f t="shared" si="0"/>
         <v>0.10416666666666663</v>
       </c>
-      <c r="E43" s="71" t="s">
-        <v>52</v>
-      </c>
-      <c r="F43" s="72"/>
-      <c r="G43" s="72"/>
-      <c r="H43" s="72"/>
-      <c r="I43" s="73"/>
+      <c r="E43" s="60" t="s">
+        <v>1</v>
+      </c>
+      <c r="F43" s="61"/>
+      <c r="G43" s="61"/>
+      <c r="H43" s="61"/>
+      <c r="I43" s="62"/>
     </row>
     <row r="44" spans="1:9" s="43" customFormat="1" ht="12">
       <c r="A44" s="40" t="s">
-        <v>8</v>
+        <v>44</v>
       </c>
       <c r="B44" s="41">
         <v>0.5</v>
@@ -2700,17 +2712,17 @@
         <f t="shared" si="0"/>
         <v>8.333333333333337E-2</v>
       </c>
-      <c r="E44" s="71" t="s">
-        <v>53</v>
-      </c>
-      <c r="F44" s="72"/>
-      <c r="G44" s="72"/>
-      <c r="H44" s="72"/>
-      <c r="I44" s="73"/>
+      <c r="E44" s="60" t="s">
+        <v>2</v>
+      </c>
+      <c r="F44" s="61"/>
+      <c r="G44" s="61"/>
+      <c r="H44" s="61"/>
+      <c r="I44" s="62"/>
     </row>
     <row r="45" spans="1:9" s="43" customFormat="1" ht="12">
       <c r="A45" s="40" t="s">
-        <v>9</v>
+        <v>45</v>
       </c>
       <c r="B45" s="41">
         <v>0.41666666666666669</v>
@@ -2722,17 +2734,17 @@
         <f t="shared" si="0"/>
         <v>2.0833333333333315E-2</v>
       </c>
-      <c r="E45" s="71" t="s">
-        <v>61</v>
-      </c>
-      <c r="F45" s="72"/>
-      <c r="G45" s="72"/>
-      <c r="H45" s="72"/>
-      <c r="I45" s="73"/>
+      <c r="E45" s="60" t="s">
+        <v>10</v>
+      </c>
+      <c r="F45" s="61"/>
+      <c r="G45" s="61"/>
+      <c r="H45" s="61"/>
+      <c r="I45" s="62"/>
     </row>
     <row r="46" spans="1:9" s="43" customFormat="1" ht="12">
       <c r="A46" s="40" t="s">
-        <v>10</v>
+        <v>46</v>
       </c>
       <c r="B46" s="41">
         <v>0.5</v>
@@ -2744,17 +2756,17 @@
         <f t="shared" si="0"/>
         <v>0.16666666666666663</v>
       </c>
-      <c r="E46" s="71" t="s">
-        <v>54</v>
-      </c>
-      <c r="F46" s="72"/>
-      <c r="G46" s="72"/>
-      <c r="H46" s="72"/>
-      <c r="I46" s="73"/>
+      <c r="E46" s="60" t="s">
+        <v>3</v>
+      </c>
+      <c r="F46" s="61"/>
+      <c r="G46" s="61"/>
+      <c r="H46" s="61"/>
+      <c r="I46" s="62"/>
     </row>
     <row r="47" spans="1:9" s="51" customFormat="1" ht="12">
       <c r="A47" s="48" t="s">
-        <v>11</v>
+        <v>47</v>
       </c>
       <c r="B47" s="49"/>
       <c r="C47" s="50"/>
@@ -2762,15 +2774,15 @@
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="E47" s="77"/>
-      <c r="F47" s="75"/>
-      <c r="G47" s="75"/>
-      <c r="H47" s="75"/>
-      <c r="I47" s="76"/>
+      <c r="E47" s="57"/>
+      <c r="F47" s="58"/>
+      <c r="G47" s="58"/>
+      <c r="H47" s="58"/>
+      <c r="I47" s="59"/>
     </row>
     <row r="48" spans="1:9" s="51" customFormat="1" ht="12">
       <c r="A48" s="48" t="s">
-        <v>12</v>
+        <v>48</v>
       </c>
       <c r="B48" s="49"/>
       <c r="C48" s="50"/>
@@ -2778,15 +2790,15 @@
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="E48" s="77"/>
-      <c r="F48" s="75"/>
-      <c r="G48" s="75"/>
-      <c r="H48" s="75"/>
-      <c r="I48" s="76"/>
+      <c r="E48" s="57"/>
+      <c r="F48" s="58"/>
+      <c r="G48" s="58"/>
+      <c r="H48" s="58"/>
+      <c r="I48" s="59"/>
     </row>
     <row r="49" spans="1:13" s="43" customFormat="1" ht="12">
       <c r="A49" s="44" t="s">
-        <v>13</v>
+        <v>49</v>
       </c>
       <c r="B49" s="41">
         <v>0.5</v>
@@ -2798,27 +2810,27 @@
         <f t="shared" si="0"/>
         <v>8.333333333333337E-2</v>
       </c>
-      <c r="E49" s="71" t="s">
-        <v>55</v>
-      </c>
-      <c r="F49" s="72"/>
-      <c r="G49" s="72"/>
-      <c r="H49" s="72"/>
-      <c r="I49" s="73"/>
+      <c r="E49" s="60" t="s">
+        <v>4</v>
+      </c>
+      <c r="F49" s="61"/>
+      <c r="G49" s="61"/>
+      <c r="H49" s="61"/>
+      <c r="I49" s="62"/>
     </row>
     <row r="50" spans="1:13" s="47" customFormat="1" ht="13">
-      <c r="A50" s="94"/>
-      <c r="B50" s="95"/>
-      <c r="C50" s="95"/>
+      <c r="A50" s="63"/>
+      <c r="B50" s="64"/>
+      <c r="C50" s="64"/>
       <c r="D50" s="46">
         <f>SUM(D16:D49)</f>
         <v>1.65625</v>
       </c>
-      <c r="E50" s="96"/>
-      <c r="F50" s="96"/>
-      <c r="G50" s="96"/>
-      <c r="H50" s="96"/>
-      <c r="I50" s="97"/>
+      <c r="E50" s="65"/>
+      <c r="F50" s="65"/>
+      <c r="G50" s="65"/>
+      <c r="H50" s="65"/>
+      <c r="I50" s="66"/>
     </row>
     <row r="51" spans="1:13" ht="7.5" customHeight="1">
       <c r="A51" s="28"/>
@@ -2851,13 +2863,42 @@
     </row>
   </sheetData>
   <mergeCells count="54">
-    <mergeCell ref="E48:I48"/>
-    <mergeCell ref="E49:I49"/>
-    <mergeCell ref="A50:C50"/>
-    <mergeCell ref="E50:I50"/>
-    <mergeCell ref="E45:I45"/>
-    <mergeCell ref="E46:I46"/>
-    <mergeCell ref="E47:I47"/>
+    <mergeCell ref="A9:C9"/>
+    <mergeCell ref="D9:H9"/>
+    <mergeCell ref="A10:I10"/>
+    <mergeCell ref="A5:C5"/>
+    <mergeCell ref="D5:H5"/>
+    <mergeCell ref="A6:I6"/>
+    <mergeCell ref="A7:C7"/>
+    <mergeCell ref="D7:H7"/>
+    <mergeCell ref="A1:I1"/>
+    <mergeCell ref="A2:I2"/>
+    <mergeCell ref="A3:H3"/>
+    <mergeCell ref="A4:I4"/>
+    <mergeCell ref="A8:I8"/>
+    <mergeCell ref="E20:I20"/>
+    <mergeCell ref="E16:I16"/>
+    <mergeCell ref="E17:I17"/>
+    <mergeCell ref="A13:A15"/>
+    <mergeCell ref="B13:I13"/>
+    <mergeCell ref="B14:C14"/>
+    <mergeCell ref="D14:D15"/>
+    <mergeCell ref="E14:I15"/>
+    <mergeCell ref="E18:I18"/>
+    <mergeCell ref="E19:I19"/>
+    <mergeCell ref="E24:I24"/>
+    <mergeCell ref="E25:I25"/>
+    <mergeCell ref="E27:I27"/>
+    <mergeCell ref="E21:I21"/>
+    <mergeCell ref="E22:I22"/>
+    <mergeCell ref="E23:I23"/>
+    <mergeCell ref="E26:I26"/>
+    <mergeCell ref="E31:I31"/>
+    <mergeCell ref="E32:I32"/>
+    <mergeCell ref="E33:I33"/>
+    <mergeCell ref="E28:I28"/>
+    <mergeCell ref="E29:I29"/>
+    <mergeCell ref="E30:I30"/>
     <mergeCell ref="E44:I44"/>
     <mergeCell ref="E37:I37"/>
     <mergeCell ref="E38:I38"/>
@@ -2869,42 +2910,13 @@
     <mergeCell ref="E41:I41"/>
     <mergeCell ref="E42:I42"/>
     <mergeCell ref="E43:I43"/>
-    <mergeCell ref="E31:I31"/>
-    <mergeCell ref="E32:I32"/>
-    <mergeCell ref="E33:I33"/>
-    <mergeCell ref="E28:I28"/>
-    <mergeCell ref="E29:I29"/>
-    <mergeCell ref="E30:I30"/>
-    <mergeCell ref="E24:I24"/>
-    <mergeCell ref="E25:I25"/>
-    <mergeCell ref="E27:I27"/>
-    <mergeCell ref="E21:I21"/>
-    <mergeCell ref="E22:I22"/>
-    <mergeCell ref="E23:I23"/>
-    <mergeCell ref="E26:I26"/>
-    <mergeCell ref="E20:I20"/>
-    <mergeCell ref="E16:I16"/>
-    <mergeCell ref="E17:I17"/>
-    <mergeCell ref="A13:A15"/>
-    <mergeCell ref="B13:I13"/>
-    <mergeCell ref="B14:C14"/>
-    <mergeCell ref="D14:D15"/>
-    <mergeCell ref="E14:I15"/>
-    <mergeCell ref="E18:I18"/>
-    <mergeCell ref="E19:I19"/>
-    <mergeCell ref="A1:I1"/>
-    <mergeCell ref="A2:I2"/>
-    <mergeCell ref="A3:H3"/>
-    <mergeCell ref="A4:I4"/>
-    <mergeCell ref="A8:I8"/>
-    <mergeCell ref="A9:C9"/>
-    <mergeCell ref="D9:H9"/>
-    <mergeCell ref="A10:I10"/>
-    <mergeCell ref="A5:C5"/>
-    <mergeCell ref="D5:H5"/>
-    <mergeCell ref="A6:I6"/>
-    <mergeCell ref="A7:C7"/>
-    <mergeCell ref="D7:H7"/>
+    <mergeCell ref="E48:I48"/>
+    <mergeCell ref="E49:I49"/>
+    <mergeCell ref="A50:C50"/>
+    <mergeCell ref="E50:I50"/>
+    <mergeCell ref="E45:I45"/>
+    <mergeCell ref="E46:I46"/>
+    <mergeCell ref="E47:I47"/>
   </mergeCells>
   <phoneticPr fontId="32" type="noConversion"/>
   <printOptions horizontalCentered="1"/>
@@ -2926,7 +2938,7 @@
   <dimension ref="A1:AS50"/>
   <sheetViews>
     <sheetView tabSelected="1" view="pageLayout" zoomScale="85" zoomScaleSheetLayoutView="85" workbookViewId="0">
-      <selection activeCell="E39" sqref="E39:I39"/>
+      <selection activeCell="B47" sqref="B47"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.1640625" defaultRowHeight="10"/>
@@ -2944,17 +2956,17 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:45" s="7" customFormat="1" ht="18" thickBot="1">
-      <c r="A1" s="66" t="s">
-        <v>30</v>
-      </c>
-      <c r="B1" s="66"/>
-      <c r="C1" s="66"/>
-      <c r="D1" s="66"/>
-      <c r="E1" s="66"/>
-      <c r="F1" s="66"/>
-      <c r="G1" s="66"/>
-      <c r="H1" s="66"/>
-      <c r="I1" s="66"/>
+      <c r="A1" s="84" t="s">
+        <v>66</v>
+      </c>
+      <c r="B1" s="84"/>
+      <c r="C1" s="84"/>
+      <c r="D1" s="84"/>
+      <c r="E1" s="84"/>
+      <c r="F1" s="84"/>
+      <c r="G1" s="84"/>
+      <c r="H1" s="84"/>
+      <c r="I1" s="84"/>
       <c r="J1" s="8"/>
       <c r="K1" s="8"/>
       <c r="L1" s="8"/>
@@ -2992,15 +3004,15 @@
       <c r="AR1" s="8"/>
     </row>
     <row r="2" spans="1:45" s="1" customFormat="1" ht="7.5" customHeight="1">
-      <c r="A2" s="67"/>
-      <c r="B2" s="67"/>
-      <c r="C2" s="67"/>
-      <c r="D2" s="67"/>
-      <c r="E2" s="67"/>
-      <c r="F2" s="67"/>
-      <c r="G2" s="67"/>
-      <c r="H2" s="67"/>
-      <c r="I2" s="67"/>
+      <c r="A2" s="85"/>
+      <c r="B2" s="85"/>
+      <c r="C2" s="85"/>
+      <c r="D2" s="85"/>
+      <c r="E2" s="85"/>
+      <c r="F2" s="85"/>
+      <c r="G2" s="85"/>
+      <c r="H2" s="85"/>
+      <c r="I2" s="85"/>
       <c r="J2" s="9"/>
       <c r="K2" s="9"/>
       <c r="L2" s="9"/>
@@ -3038,16 +3050,16 @@
       <c r="AR2" s="9"/>
     </row>
     <row r="3" spans="1:45" s="11" customFormat="1" ht="13.5" customHeight="1">
-      <c r="A3" s="68" t="s">
-        <v>20</v>
-      </c>
-      <c r="B3" s="68"/>
-      <c r="C3" s="68"/>
-      <c r="D3" s="68"/>
-      <c r="E3" s="68"/>
-      <c r="F3" s="68"/>
-      <c r="G3" s="68"/>
-      <c r="H3" s="68"/>
+      <c r="A3" s="86" t="s">
+        <v>56</v>
+      </c>
+      <c r="B3" s="86"/>
+      <c r="C3" s="86"/>
+      <c r="D3" s="86"/>
+      <c r="E3" s="86"/>
+      <c r="F3" s="86"/>
+      <c r="G3" s="86"/>
+      <c r="H3" s="86"/>
       <c r="I3" s="23"/>
       <c r="J3" s="22"/>
       <c r="K3" s="22"/>
@@ -3087,112 +3099,112 @@
       <c r="AS3" s="10"/>
     </row>
     <row r="4" spans="1:45" s="6" customFormat="1" ht="9" customHeight="1">
-      <c r="A4" s="69"/>
-      <c r="B4" s="69"/>
-      <c r="C4" s="69"/>
-      <c r="D4" s="69"/>
-      <c r="E4" s="69"/>
-      <c r="F4" s="69"/>
-      <c r="G4" s="69"/>
-      <c r="H4" s="69"/>
-      <c r="I4" s="69"/>
+      <c r="A4" s="87"/>
+      <c r="B4" s="87"/>
+      <c r="C4" s="87"/>
+      <c r="D4" s="87"/>
+      <c r="E4" s="87"/>
+      <c r="F4" s="87"/>
+      <c r="G4" s="87"/>
+      <c r="H4" s="87"/>
+      <c r="I4" s="87"/>
     </row>
     <row r="5" spans="1:45" s="1" customFormat="1" ht="13.75" customHeight="1">
-      <c r="A5" s="62" t="str">
+      <c r="A5" s="94" t="str">
         <f>October!A5</f>
         <v>Firstname Lastname</v>
       </c>
-      <c r="B5" s="63"/>
-      <c r="C5" s="63"/>
-      <c r="D5" s="58" t="str">
+      <c r="B5" s="95"/>
+      <c r="C5" s="95"/>
+      <c r="D5" s="90" t="str">
         <f>October!D5</f>
         <v>Augustin Hannah</v>
       </c>
-      <c r="E5" s="59"/>
-      <c r="F5" s="59"/>
-      <c r="G5" s="59"/>
-      <c r="H5" s="60"/>
+      <c r="E5" s="91"/>
+      <c r="F5" s="91"/>
+      <c r="G5" s="91"/>
+      <c r="H5" s="92"/>
       <c r="I5" s="23"/>
       <c r="J5" s="9"/>
       <c r="K5" s="9"/>
       <c r="L5" s="9"/>
     </row>
     <row r="6" spans="1:45" s="1" customFormat="1" ht="7.5" customHeight="1">
-      <c r="A6" s="64"/>
-      <c r="B6" s="64"/>
-      <c r="C6" s="64"/>
-      <c r="D6" s="64"/>
-      <c r="E6" s="64"/>
-      <c r="F6" s="64"/>
-      <c r="G6" s="64"/>
-      <c r="H6" s="64"/>
-      <c r="I6" s="64"/>
+      <c r="A6" s="96"/>
+      <c r="B6" s="96"/>
+      <c r="C6" s="96"/>
+      <c r="D6" s="96"/>
+      <c r="E6" s="96"/>
+      <c r="F6" s="96"/>
+      <c r="G6" s="96"/>
+      <c r="H6" s="96"/>
+      <c r="I6" s="96"/>
     </row>
     <row r="7" spans="1:45" s="1" customFormat="1" ht="13.75" customHeight="1">
-      <c r="A7" s="57" t="str">
+      <c r="A7" s="89" t="str">
         <f>October!A7</f>
         <v>Project Acronym</v>
       </c>
-      <c r="B7" s="57"/>
-      <c r="C7" s="57"/>
-      <c r="D7" s="65" t="str">
+      <c r="B7" s="89"/>
+      <c r="C7" s="89"/>
+      <c r="D7" s="97" t="str">
         <f>October!D7</f>
         <v>AIQ</v>
       </c>
-      <c r="E7" s="65"/>
-      <c r="F7" s="65"/>
-      <c r="G7" s="65"/>
-      <c r="H7" s="65"/>
+      <c r="E7" s="97"/>
+      <c r="F7" s="97"/>
+      <c r="G7" s="97"/>
+      <c r="H7" s="97"/>
       <c r="I7" s="24"/>
     </row>
     <row r="8" spans="1:45" s="1" customFormat="1" ht="7.5" customHeight="1">
-      <c r="A8" s="70"/>
-      <c r="B8" s="70"/>
-      <c r="C8" s="70"/>
-      <c r="D8" s="70"/>
-      <c r="E8" s="70"/>
-      <c r="F8" s="70"/>
-      <c r="G8" s="70"/>
-      <c r="H8" s="70"/>
-      <c r="I8" s="70"/>
+      <c r="A8" s="88"/>
+      <c r="B8" s="88"/>
+      <c r="C8" s="88"/>
+      <c r="D8" s="88"/>
+      <c r="E8" s="88"/>
+      <c r="F8" s="88"/>
+      <c r="G8" s="88"/>
+      <c r="H8" s="88"/>
+      <c r="I8" s="88"/>
     </row>
     <row r="9" spans="1:45" s="1" customFormat="1" ht="13.75" customHeight="1">
-      <c r="A9" s="57" t="str">
+      <c r="A9" s="89" t="str">
         <f>October!A9</f>
         <v>Project Title</v>
       </c>
-      <c r="B9" s="57"/>
-      <c r="C9" s="57"/>
-      <c r="D9" s="58" t="str">
+      <c r="B9" s="89"/>
+      <c r="C9" s="89"/>
+      <c r="D9" s="90" t="str">
         <f>October!D9</f>
         <v>Automating change detection in ImageQuerying</v>
       </c>
-      <c r="E9" s="59"/>
-      <c r="F9" s="59"/>
-      <c r="G9" s="59"/>
-      <c r="H9" s="60"/>
+      <c r="E9" s="91"/>
+      <c r="F9" s="91"/>
+      <c r="G9" s="91"/>
+      <c r="H9" s="92"/>
       <c r="I9" s="24"/>
       <c r="J9" s="15"/>
     </row>
     <row r="10" spans="1:45" s="1" customFormat="1" ht="7.5" customHeight="1">
-      <c r="A10" s="61"/>
-      <c r="B10" s="61"/>
-      <c r="C10" s="61"/>
-      <c r="D10" s="61"/>
-      <c r="E10" s="61"/>
-      <c r="F10" s="61"/>
-      <c r="G10" s="61"/>
-      <c r="H10" s="61"/>
-      <c r="I10" s="61"/>
+      <c r="A10" s="93"/>
+      <c r="B10" s="93"/>
+      <c r="C10" s="93"/>
+      <c r="D10" s="93"/>
+      <c r="E10" s="93"/>
+      <c r="F10" s="93"/>
+      <c r="G10" s="93"/>
+      <c r="H10" s="93"/>
+      <c r="I10" s="93"/>
     </row>
     <row r="11" spans="1:45" s="1" customFormat="1" ht="12">
       <c r="A11" s="21" t="s">
-        <v>18</v>
+        <v>54</v>
       </c>
       <c r="B11" s="21"/>
       <c r="C11" s="21"/>
       <c r="D11" s="21" t="s">
-        <v>19</v>
+        <v>55</v>
       </c>
       <c r="E11" s="21"/>
       <c r="F11" s="21"/>
@@ -3212,55 +3224,55 @@
       <c r="I12" s="26"/>
     </row>
     <row r="13" spans="1:45" s="2" customFormat="1" ht="15.5" customHeight="1">
-      <c r="A13" s="78" t="s">
-        <v>62</v>
-      </c>
-      <c r="B13" s="81" t="s">
+      <c r="A13" s="68" t="s">
+        <v>11</v>
+      </c>
+      <c r="B13" s="71" t="s">
+        <v>50</v>
+      </c>
+      <c r="C13" s="72"/>
+      <c r="D13" s="72"/>
+      <c r="E13" s="72"/>
+      <c r="F13" s="72"/>
+      <c r="G13" s="72"/>
+      <c r="H13" s="72"/>
+      <c r="I13" s="73"/>
+    </row>
+    <row r="14" spans="1:45" s="2" customFormat="1" ht="13.75" customHeight="1">
+      <c r="A14" s="69"/>
+      <c r="B14" s="74" t="s">
+        <v>12</v>
+      </c>
+      <c r="C14" s="75"/>
+      <c r="D14" s="76" t="s">
+        <v>13</v>
+      </c>
+      <c r="E14" s="78" t="s">
+        <v>51</v>
+      </c>
+      <c r="F14" s="79"/>
+      <c r="G14" s="79"/>
+      <c r="H14" s="79"/>
+      <c r="I14" s="80"/>
+    </row>
+    <row r="15" spans="1:45" ht="13" customHeight="1">
+      <c r="A15" s="70"/>
+      <c r="B15" s="32" t="s">
         <v>14</v>
       </c>
-      <c r="C13" s="82"/>
-      <c r="D13" s="82"/>
-      <c r="E13" s="82"/>
-      <c r="F13" s="82"/>
-      <c r="G13" s="82"/>
-      <c r="H13" s="82"/>
-      <c r="I13" s="83"/>
-    </row>
-    <row r="14" spans="1:45" s="2" customFormat="1" ht="13.75" customHeight="1">
-      <c r="A14" s="79"/>
-      <c r="B14" s="84" t="s">
-        <v>63</v>
-      </c>
-      <c r="C14" s="85"/>
-      <c r="D14" s="86" t="s">
-        <v>64</v>
-      </c>
-      <c r="E14" s="88" t="s">
+      <c r="C15" s="33" t="s">
         <v>15</v>
       </c>
-      <c r="F14" s="89"/>
-      <c r="G14" s="89"/>
-      <c r="H14" s="89"/>
-      <c r="I14" s="90"/>
-    </row>
-    <row r="15" spans="1:45" ht="13" customHeight="1">
-      <c r="A15" s="80"/>
-      <c r="B15" s="32" t="s">
-        <v>65</v>
-      </c>
-      <c r="C15" s="33" t="s">
-        <v>66</v>
-      </c>
-      <c r="D15" s="87"/>
-      <c r="E15" s="91"/>
-      <c r="F15" s="92"/>
-      <c r="G15" s="92"/>
-      <c r="H15" s="92"/>
-      <c r="I15" s="93"/>
+      <c r="D15" s="77"/>
+      <c r="E15" s="81"/>
+      <c r="F15" s="82"/>
+      <c r="G15" s="82"/>
+      <c r="H15" s="82"/>
+      <c r="I15" s="83"/>
     </row>
     <row r="16" spans="1:45" s="43" customFormat="1" ht="12">
       <c r="A16" s="40" t="s">
-        <v>67</v>
+        <v>16</v>
       </c>
       <c r="B16" s="41"/>
       <c r="C16" s="42"/>
@@ -3268,15 +3280,15 @@
         <f>C16-B16</f>
         <v>0</v>
       </c>
-      <c r="E16" s="71"/>
-      <c r="F16" s="72"/>
-      <c r="G16" s="72"/>
-      <c r="H16" s="72"/>
-      <c r="I16" s="73"/>
+      <c r="E16" s="60"/>
+      <c r="F16" s="61"/>
+      <c r="G16" s="61"/>
+      <c r="H16" s="61"/>
+      <c r="I16" s="62"/>
     </row>
     <row r="17" spans="1:9" s="43" customFormat="1" ht="12">
       <c r="A17" s="40" t="s">
-        <v>68</v>
+        <v>17</v>
       </c>
       <c r="B17" s="41"/>
       <c r="C17" s="42"/>
@@ -3284,15 +3296,15 @@
         <f t="shared" ref="D17:D48" si="0">C17-B17</f>
         <v>0</v>
       </c>
-      <c r="E17" s="71"/>
-      <c r="F17" s="72"/>
-      <c r="G17" s="72"/>
-      <c r="H17" s="72"/>
-      <c r="I17" s="73"/>
+      <c r="E17" s="60"/>
+      <c r="F17" s="61"/>
+      <c r="G17" s="61"/>
+      <c r="H17" s="61"/>
+      <c r="I17" s="62"/>
     </row>
     <row r="18" spans="1:9" s="43" customFormat="1" ht="12">
       <c r="A18" s="40" t="s">
-        <v>69</v>
+        <v>18</v>
       </c>
       <c r="B18" s="41"/>
       <c r="C18" s="42"/>
@@ -3300,15 +3312,15 @@
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="E18" s="71"/>
-      <c r="F18" s="72"/>
-      <c r="G18" s="72"/>
-      <c r="H18" s="72"/>
-      <c r="I18" s="73"/>
+      <c r="E18" s="60"/>
+      <c r="F18" s="61"/>
+      <c r="G18" s="61"/>
+      <c r="H18" s="61"/>
+      <c r="I18" s="62"/>
     </row>
     <row r="19" spans="1:9" s="43" customFormat="1" ht="12">
       <c r="A19" s="40" t="s">
-        <v>70</v>
+        <v>19</v>
       </c>
       <c r="B19" s="41">
         <v>0.58333333333333337</v>
@@ -3320,17 +3332,17 @@
         <f t="shared" si="0"/>
         <v>0.16666666666666663</v>
       </c>
-      <c r="E19" s="71" t="s">
-        <v>56</v>
-      </c>
-      <c r="F19" s="72"/>
-      <c r="G19" s="72"/>
-      <c r="H19" s="72"/>
-      <c r="I19" s="73"/>
+      <c r="E19" s="60" t="s">
+        <v>5</v>
+      </c>
+      <c r="F19" s="61"/>
+      <c r="G19" s="61"/>
+      <c r="H19" s="61"/>
+      <c r="I19" s="62"/>
     </row>
     <row r="20" spans="1:9" s="51" customFormat="1" ht="12">
       <c r="A20" s="48" t="s">
-        <v>71</v>
+        <v>20</v>
       </c>
       <c r="B20" s="49"/>
       <c r="C20" s="50"/>
@@ -3338,15 +3350,15 @@
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="E20" s="77"/>
-      <c r="F20" s="75"/>
-      <c r="G20" s="75"/>
-      <c r="H20" s="75"/>
-      <c r="I20" s="76"/>
+      <c r="E20" s="57"/>
+      <c r="F20" s="58"/>
+      <c r="G20" s="58"/>
+      <c r="H20" s="58"/>
+      <c r="I20" s="59"/>
     </row>
     <row r="21" spans="1:9" s="51" customFormat="1" ht="12">
       <c r="A21" s="48" t="s">
-        <v>72</v>
+        <v>21</v>
       </c>
       <c r="B21" s="49"/>
       <c r="C21" s="50"/>
@@ -3354,15 +3366,15 @@
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="E21" s="77"/>
-      <c r="F21" s="75"/>
-      <c r="G21" s="75"/>
-      <c r="H21" s="75"/>
-      <c r="I21" s="76"/>
+      <c r="E21" s="57"/>
+      <c r="F21" s="58"/>
+      <c r="G21" s="58"/>
+      <c r="H21" s="58"/>
+      <c r="I21" s="59"/>
     </row>
     <row r="22" spans="1:9" s="43" customFormat="1" ht="12">
       <c r="A22" s="40" t="s">
-        <v>73</v>
+        <v>22</v>
       </c>
       <c r="B22" s="41">
         <v>0.39583333333333331</v>
@@ -3374,17 +3386,17 @@
         <f t="shared" si="0"/>
         <v>0.16666666666666669</v>
       </c>
-      <c r="E22" s="71" t="s">
-        <v>60</v>
-      </c>
-      <c r="F22" s="72"/>
-      <c r="G22" s="72"/>
-      <c r="H22" s="72"/>
-      <c r="I22" s="73"/>
+      <c r="E22" s="60" t="s">
+        <v>9</v>
+      </c>
+      <c r="F22" s="61"/>
+      <c r="G22" s="61"/>
+      <c r="H22" s="61"/>
+      <c r="I22" s="62"/>
     </row>
     <row r="23" spans="1:9" s="43" customFormat="1" ht="12">
       <c r="A23" s="40" t="s">
-        <v>74</v>
+        <v>23</v>
       </c>
       <c r="B23" s="41">
         <v>0.41666666666666669</v>
@@ -3396,13 +3408,13 @@
         <f t="shared" si="0"/>
         <v>0.12499999999999994</v>
       </c>
-      <c r="E23" s="71" t="s">
-        <v>59</v>
-      </c>
-      <c r="F23" s="72"/>
-      <c r="G23" s="72"/>
-      <c r="H23" s="72"/>
-      <c r="I23" s="73"/>
+      <c r="E23" s="60" t="s">
+        <v>8</v>
+      </c>
+      <c r="F23" s="61"/>
+      <c r="G23" s="61"/>
+      <c r="H23" s="61"/>
+      <c r="I23" s="62"/>
     </row>
     <row r="24" spans="1:9" s="43" customFormat="1" ht="12">
       <c r="A24" s="40"/>
@@ -3416,17 +3428,17 @@
         <f t="shared" si="0"/>
         <v>8.333333333333337E-2</v>
       </c>
-      <c r="E24" s="71" t="s">
-        <v>45</v>
-      </c>
-      <c r="F24" s="72"/>
-      <c r="G24" s="72"/>
-      <c r="H24" s="72"/>
-      <c r="I24" s="73"/>
+      <c r="E24" s="60" t="s">
+        <v>81</v>
+      </c>
+      <c r="F24" s="61"/>
+      <c r="G24" s="61"/>
+      <c r="H24" s="61"/>
+      <c r="I24" s="62"/>
     </row>
     <row r="25" spans="1:9" s="43" customFormat="1" ht="12">
       <c r="A25" s="40" t="s">
-        <v>75</v>
+        <v>24</v>
       </c>
       <c r="B25" s="41"/>
       <c r="C25" s="42"/>
@@ -3434,15 +3446,15 @@
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="E25" s="71"/>
-      <c r="F25" s="72"/>
-      <c r="G25" s="72"/>
-      <c r="H25" s="72"/>
-      <c r="I25" s="73"/>
+      <c r="E25" s="60"/>
+      <c r="F25" s="61"/>
+      <c r="G25" s="61"/>
+      <c r="H25" s="61"/>
+      <c r="I25" s="62"/>
     </row>
     <row r="26" spans="1:9" s="43" customFormat="1" ht="12">
       <c r="A26" s="40" t="s">
-        <v>76</v>
+        <v>25</v>
       </c>
       <c r="B26" s="41">
         <v>0.75</v>
@@ -3454,17 +3466,17 @@
         <f t="shared" si="0"/>
         <v>0.16666666666666663</v>
       </c>
-      <c r="E26" s="71" t="s">
-        <v>58</v>
-      </c>
-      <c r="F26" s="72"/>
-      <c r="G26" s="72"/>
-      <c r="H26" s="72"/>
-      <c r="I26" s="73"/>
+      <c r="E26" s="60" t="s">
+        <v>7</v>
+      </c>
+      <c r="F26" s="61"/>
+      <c r="G26" s="61"/>
+      <c r="H26" s="61"/>
+      <c r="I26" s="62"/>
     </row>
     <row r="27" spans="1:9" s="43" customFormat="1" ht="12">
       <c r="A27" s="40" t="s">
-        <v>77</v>
+        <v>26</v>
       </c>
       <c r="B27" s="41"/>
       <c r="C27" s="42"/>
@@ -3472,15 +3484,15 @@
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="E27" s="71"/>
-      <c r="F27" s="72"/>
-      <c r="G27" s="72"/>
-      <c r="H27" s="72"/>
-      <c r="I27" s="73"/>
+      <c r="E27" s="60"/>
+      <c r="F27" s="61"/>
+      <c r="G27" s="61"/>
+      <c r="H27" s="61"/>
+      <c r="I27" s="62"/>
     </row>
     <row r="28" spans="1:9" s="51" customFormat="1" ht="12">
       <c r="A28" s="48" t="s">
-        <v>78</v>
+        <v>27</v>
       </c>
       <c r="B28" s="49"/>
       <c r="C28" s="50"/>
@@ -3488,15 +3500,15 @@
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="E28" s="77"/>
-      <c r="F28" s="75"/>
-      <c r="G28" s="75"/>
-      <c r="H28" s="75"/>
-      <c r="I28" s="76"/>
+      <c r="E28" s="57"/>
+      <c r="F28" s="58"/>
+      <c r="G28" s="58"/>
+      <c r="H28" s="58"/>
+      <c r="I28" s="59"/>
     </row>
     <row r="29" spans="1:9" s="51" customFormat="1" ht="12">
       <c r="A29" s="48" t="s">
-        <v>79</v>
+        <v>28</v>
       </c>
       <c r="B29" s="49">
         <v>0.45833333333333331</v>
@@ -3508,17 +3520,17 @@
         <f t="shared" si="0"/>
         <v>0.25000000000000006</v>
       </c>
-      <c r="E29" s="77" t="s">
-        <v>46</v>
-      </c>
-      <c r="F29" s="75"/>
-      <c r="G29" s="75"/>
-      <c r="H29" s="75"/>
-      <c r="I29" s="76"/>
+      <c r="E29" s="57" t="s">
+        <v>82</v>
+      </c>
+      <c r="F29" s="58"/>
+      <c r="G29" s="58"/>
+      <c r="H29" s="58"/>
+      <c r="I29" s="59"/>
     </row>
     <row r="30" spans="1:9" s="43" customFormat="1" ht="12">
       <c r="A30" s="40" t="s">
-        <v>80</v>
+        <v>29</v>
       </c>
       <c r="B30" s="41">
         <v>0.70833333333333337</v>
@@ -3530,17 +3542,17 @@
         <f t="shared" si="0"/>
         <v>0.20833333333333326</v>
       </c>
-      <c r="E30" s="71" t="s">
-        <v>57</v>
-      </c>
-      <c r="F30" s="72"/>
-      <c r="G30" s="72"/>
-      <c r="H30" s="72"/>
-      <c r="I30" s="73"/>
+      <c r="E30" s="60" t="s">
+        <v>6</v>
+      </c>
+      <c r="F30" s="61"/>
+      <c r="G30" s="61"/>
+      <c r="H30" s="61"/>
+      <c r="I30" s="62"/>
     </row>
     <row r="31" spans="1:9" s="43" customFormat="1" ht="12">
       <c r="A31" s="40" t="s">
-        <v>81</v>
+        <v>30</v>
       </c>
       <c r="B31" s="41">
         <v>0.66666666666666663</v>
@@ -3552,17 +3564,17 @@
         <f t="shared" si="0"/>
         <v>0.16666666666666674</v>
       </c>
-      <c r="E31" s="71" t="s">
-        <v>51</v>
-      </c>
-      <c r="F31" s="72"/>
-      <c r="G31" s="72"/>
-      <c r="H31" s="72"/>
-      <c r="I31" s="73"/>
+      <c r="E31" s="60" t="s">
+        <v>0</v>
+      </c>
+      <c r="F31" s="61"/>
+      <c r="G31" s="61"/>
+      <c r="H31" s="61"/>
+      <c r="I31" s="62"/>
     </row>
     <row r="32" spans="1:9" s="43" customFormat="1" ht="12">
       <c r="A32" s="40" t="s">
-        <v>82</v>
+        <v>31</v>
       </c>
       <c r="B32" s="41"/>
       <c r="C32" s="42"/>
@@ -3570,17 +3582,17 @@
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="E32" s="71" t="s">
-        <v>42</v>
-      </c>
-      <c r="F32" s="72"/>
-      <c r="G32" s="72"/>
-      <c r="H32" s="72"/>
-      <c r="I32" s="73"/>
+      <c r="E32" s="60" t="s">
+        <v>78</v>
+      </c>
+      <c r="F32" s="61"/>
+      <c r="G32" s="61"/>
+      <c r="H32" s="61"/>
+      <c r="I32" s="62"/>
     </row>
     <row r="33" spans="1:9" s="43" customFormat="1" ht="12">
       <c r="A33" s="40" t="s">
-        <v>83</v>
+        <v>32</v>
       </c>
       <c r="B33" s="41">
         <v>0.41666666666666669</v>
@@ -3592,13 +3604,13 @@
         <f t="shared" si="0"/>
         <v>4.166666666666663E-2</v>
       </c>
-      <c r="E33" s="71" t="s">
-        <v>43</v>
-      </c>
-      <c r="F33" s="72"/>
-      <c r="G33" s="72"/>
-      <c r="H33" s="72"/>
-      <c r="I33" s="73"/>
+      <c r="E33" s="60" t="s">
+        <v>79</v>
+      </c>
+      <c r="F33" s="61"/>
+      <c r="G33" s="61"/>
+      <c r="H33" s="61"/>
+      <c r="I33" s="62"/>
     </row>
     <row r="34" spans="1:9" s="43" customFormat="1" ht="12">
       <c r="A34" s="40"/>
@@ -3612,17 +3624,17 @@
         <f t="shared" si="0"/>
         <v>0.16666666666666663</v>
       </c>
-      <c r="E34" s="71" t="s">
-        <v>35</v>
-      </c>
-      <c r="F34" s="72"/>
-      <c r="G34" s="72"/>
-      <c r="H34" s="72"/>
-      <c r="I34" s="73"/>
+      <c r="E34" s="60" t="s">
+        <v>71</v>
+      </c>
+      <c r="F34" s="61"/>
+      <c r="G34" s="61"/>
+      <c r="H34" s="61"/>
+      <c r="I34" s="62"/>
     </row>
     <row r="35" spans="1:9" s="43" customFormat="1" ht="12">
       <c r="A35" s="40" t="s">
-        <v>0</v>
+        <v>36</v>
       </c>
       <c r="B35" s="41">
         <v>0.4375</v>
@@ -3634,17 +3646,17 @@
         <f t="shared" si="0"/>
         <v>0.10416666666666663</v>
       </c>
-      <c r="E35" s="71" t="s">
-        <v>44</v>
-      </c>
-      <c r="F35" s="72"/>
-      <c r="G35" s="72"/>
-      <c r="H35" s="72"/>
-      <c r="I35" s="73"/>
+      <c r="E35" s="60" t="s">
+        <v>80</v>
+      </c>
+      <c r="F35" s="61"/>
+      <c r="G35" s="61"/>
+      <c r="H35" s="61"/>
+      <c r="I35" s="62"/>
     </row>
     <row r="36" spans="1:9" s="51" customFormat="1" ht="12">
       <c r="A36" s="48" t="s">
-        <v>1</v>
+        <v>37</v>
       </c>
       <c r="B36" s="49">
         <v>0.33333333333333331</v>
@@ -3656,13 +3668,13 @@
         <f t="shared" si="0"/>
         <v>6.25E-2</v>
       </c>
-      <c r="E36" s="77" t="s">
-        <v>33</v>
-      </c>
-      <c r="F36" s="75"/>
-      <c r="G36" s="75"/>
-      <c r="H36" s="75"/>
-      <c r="I36" s="76"/>
+      <c r="E36" s="57" t="s">
+        <v>69</v>
+      </c>
+      <c r="F36" s="58"/>
+      <c r="G36" s="58"/>
+      <c r="H36" s="58"/>
+      <c r="I36" s="59"/>
     </row>
     <row r="37" spans="1:9" s="51" customFormat="1" ht="12">
       <c r="A37" s="48"/>
@@ -3676,17 +3688,17 @@
         <f t="shared" si="0"/>
         <v>0.125</v>
       </c>
-      <c r="E37" s="77" t="s">
-        <v>32</v>
-      </c>
-      <c r="F37" s="75"/>
-      <c r="G37" s="75"/>
-      <c r="H37" s="75"/>
-      <c r="I37" s="76"/>
+      <c r="E37" s="57" t="s">
+        <v>68</v>
+      </c>
+      <c r="F37" s="58"/>
+      <c r="G37" s="58"/>
+      <c r="H37" s="58"/>
+      <c r="I37" s="59"/>
     </row>
     <row r="38" spans="1:9" s="51" customFormat="1" ht="12">
       <c r="A38" s="48" t="s">
-        <v>2</v>
+        <v>38</v>
       </c>
       <c r="B38" s="49"/>
       <c r="C38" s="50"/>
@@ -3694,15 +3706,15 @@
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="E38" s="77"/>
-      <c r="F38" s="75"/>
-      <c r="G38" s="75"/>
-      <c r="H38" s="75"/>
-      <c r="I38" s="76"/>
+      <c r="E38" s="57"/>
+      <c r="F38" s="58"/>
+      <c r="G38" s="58"/>
+      <c r="H38" s="58"/>
+      <c r="I38" s="59"/>
     </row>
     <row r="39" spans="1:9" s="43" customFormat="1" ht="12">
       <c r="A39" s="40" t="s">
-        <v>3</v>
+        <v>39</v>
       </c>
       <c r="B39" s="41">
         <v>0.41666666666666669</v>
@@ -3714,17 +3726,17 @@
         <f t="shared" si="0"/>
         <v>0.41666666666666669</v>
       </c>
-      <c r="E39" s="71" t="s">
-        <v>34</v>
-      </c>
-      <c r="F39" s="72"/>
-      <c r="G39" s="72"/>
-      <c r="H39" s="72"/>
-      <c r="I39" s="73"/>
+      <c r="E39" s="60" t="s">
+        <v>70</v>
+      </c>
+      <c r="F39" s="61"/>
+      <c r="G39" s="61"/>
+      <c r="H39" s="61"/>
+      <c r="I39" s="62"/>
     </row>
     <row r="40" spans="1:9" s="43" customFormat="1" ht="12">
       <c r="A40" s="40" t="s">
-        <v>4</v>
+        <v>40</v>
       </c>
       <c r="B40" s="41">
         <v>0.375</v>
@@ -3736,17 +3748,17 @@
         <f t="shared" si="0"/>
         <v>0.29166666666666663</v>
       </c>
-      <c r="E40" s="71" t="s">
-        <v>31</v>
-      </c>
-      <c r="F40" s="72"/>
-      <c r="G40" s="72"/>
-      <c r="H40" s="72"/>
-      <c r="I40" s="73"/>
+      <c r="E40" s="60" t="s">
+        <v>67</v>
+      </c>
+      <c r="F40" s="61"/>
+      <c r="G40" s="61"/>
+      <c r="H40" s="61"/>
+      <c r="I40" s="62"/>
     </row>
     <row r="41" spans="1:9" s="43" customFormat="1" ht="12">
       <c r="A41" s="40" t="s">
-        <v>5</v>
+        <v>41</v>
       </c>
       <c r="B41" s="41"/>
       <c r="C41" s="42"/>
@@ -3754,15 +3766,15 @@
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="E41" s="71"/>
-      <c r="F41" s="72"/>
-      <c r="G41" s="72"/>
-      <c r="H41" s="72"/>
-      <c r="I41" s="73"/>
+      <c r="E41" s="60"/>
+      <c r="F41" s="61"/>
+      <c r="G41" s="61"/>
+      <c r="H41" s="61"/>
+      <c r="I41" s="62"/>
     </row>
     <row r="42" spans="1:9" s="43" customFormat="1" ht="12">
       <c r="A42" s="40" t="s">
-        <v>6</v>
+        <v>42</v>
       </c>
       <c r="B42" s="41"/>
       <c r="C42" s="42"/>
@@ -3770,79 +3782,103 @@
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="E42" s="71"/>
-      <c r="F42" s="72"/>
-      <c r="G42" s="72"/>
-      <c r="H42" s="72"/>
-      <c r="I42" s="73"/>
+      <c r="E42" s="60"/>
+      <c r="F42" s="61"/>
+      <c r="G42" s="61"/>
+      <c r="H42" s="61"/>
+      <c r="I42" s="62"/>
     </row>
     <row r="43" spans="1:9" s="43" customFormat="1" ht="12">
       <c r="A43" s="40" t="s">
-        <v>7</v>
-      </c>
-      <c r="B43" s="41"/>
-      <c r="C43" s="42"/>
+        <v>43</v>
+      </c>
+      <c r="B43" s="41">
+        <v>0.58333333333333337</v>
+      </c>
+      <c r="C43" s="42">
+        <v>0.75</v>
+      </c>
       <c r="D43" s="42">
         <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="E43" s="71"/>
-      <c r="F43" s="72"/>
-      <c r="G43" s="72"/>
-      <c r="H43" s="72"/>
-      <c r="I43" s="73"/>
+        <v>0.16666666666666663</v>
+      </c>
+      <c r="E43" s="60" t="s">
+        <v>34</v>
+      </c>
+      <c r="F43" s="61"/>
+      <c r="G43" s="61"/>
+      <c r="H43" s="61"/>
+      <c r="I43" s="62"/>
     </row>
     <row r="44" spans="1:9" s="51" customFormat="1" ht="12">
       <c r="A44" s="48" t="s">
-        <v>8</v>
-      </c>
-      <c r="B44" s="49"/>
-      <c r="C44" s="50"/>
+        <v>44</v>
+      </c>
+      <c r="B44" s="49">
+        <v>0.58333333333333337</v>
+      </c>
+      <c r="C44" s="50">
+        <v>0.75</v>
+      </c>
       <c r="D44" s="42">
         <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="E44" s="77"/>
-      <c r="F44" s="75"/>
-      <c r="G44" s="75"/>
-      <c r="H44" s="75"/>
-      <c r="I44" s="76"/>
+        <v>0.16666666666666663</v>
+      </c>
+      <c r="E44" s="57" t="s">
+        <v>34</v>
+      </c>
+      <c r="F44" s="58"/>
+      <c r="G44" s="58"/>
+      <c r="H44" s="58"/>
+      <c r="I44" s="59"/>
     </row>
     <row r="45" spans="1:9" s="51" customFormat="1" ht="12">
       <c r="A45" s="48" t="s">
-        <v>9</v>
-      </c>
-      <c r="B45" s="49"/>
-      <c r="C45" s="50"/>
+        <v>45</v>
+      </c>
+      <c r="B45" s="49">
+        <v>0.45833333333333331</v>
+      </c>
+      <c r="C45" s="50">
+        <v>0.625</v>
+      </c>
       <c r="D45" s="42">
         <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="E45" s="77"/>
-      <c r="F45" s="75"/>
-      <c r="G45" s="75"/>
-      <c r="H45" s="75"/>
-      <c r="I45" s="76"/>
+        <v>0.16666666666666669</v>
+      </c>
+      <c r="E45" s="57" t="s">
+        <v>35</v>
+      </c>
+      <c r="F45" s="58"/>
+      <c r="G45" s="58"/>
+      <c r="H45" s="58"/>
+      <c r="I45" s="59"/>
     </row>
     <row r="46" spans="1:9" s="43" customFormat="1" ht="12">
       <c r="A46" s="40" t="s">
-        <v>10</v>
-      </c>
-      <c r="B46" s="41"/>
-      <c r="C46" s="42"/>
+        <v>46</v>
+      </c>
+      <c r="B46" s="41">
+        <v>0.375</v>
+      </c>
+      <c r="C46" s="42">
+        <v>0.45833333333333331</v>
+      </c>
       <c r="D46" s="42">
         <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="E46" s="71"/>
-      <c r="F46" s="72"/>
-      <c r="G46" s="72"/>
-      <c r="H46" s="72"/>
-      <c r="I46" s="73"/>
+        <v>8.3333333333333315E-2</v>
+      </c>
+      <c r="E46" s="60" t="s">
+        <v>33</v>
+      </c>
+      <c r="F46" s="61"/>
+      <c r="G46" s="61"/>
+      <c r="H46" s="61"/>
+      <c r="I46" s="62"/>
     </row>
     <row r="47" spans="1:9" s="43" customFormat="1" ht="12">
       <c r="A47" s="40" t="s">
-        <v>11</v>
+        <v>47</v>
       </c>
       <c r="B47" s="41"/>
       <c r="C47" s="42"/>
@@ -3850,15 +3886,15 @@
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="E47" s="71"/>
-      <c r="F47" s="72"/>
-      <c r="G47" s="72"/>
-      <c r="H47" s="72"/>
-      <c r="I47" s="73"/>
+      <c r="E47" s="60"/>
+      <c r="F47" s="61"/>
+      <c r="G47" s="61"/>
+      <c r="H47" s="61"/>
+      <c r="I47" s="62"/>
     </row>
     <row r="48" spans="1:9" s="43" customFormat="1" ht="12">
       <c r="A48" s="40" t="s">
-        <v>12</v>
+        <v>48</v>
       </c>
       <c r="B48" s="41"/>
       <c r="C48" s="42"/>
@@ -3866,25 +3902,25 @@
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="E48" s="71"/>
-      <c r="F48" s="72"/>
-      <c r="G48" s="72"/>
-      <c r="H48" s="72"/>
-      <c r="I48" s="73"/>
+      <c r="E48" s="60"/>
+      <c r="F48" s="61"/>
+      <c r="G48" s="61"/>
+      <c r="H48" s="61"/>
+      <c r="I48" s="62"/>
     </row>
     <row r="49" spans="1:12" s="47" customFormat="1" ht="13">
-      <c r="A49" s="94"/>
-      <c r="B49" s="95"/>
-      <c r="C49" s="95"/>
+      <c r="A49" s="63"/>
+      <c r="B49" s="64"/>
+      <c r="C49" s="64"/>
       <c r="D49" s="46">
         <f>SUM(D16:D48)</f>
-        <v>2.5416666666666661</v>
-      </c>
-      <c r="E49" s="96"/>
-      <c r="F49" s="96"/>
-      <c r="G49" s="96"/>
-      <c r="H49" s="96"/>
-      <c r="I49" s="97"/>
+        <v>3.1249999999999991</v>
+      </c>
+      <c r="E49" s="65"/>
+      <c r="F49" s="65"/>
+      <c r="G49" s="65"/>
+      <c r="H49" s="65"/>
+      <c r="I49" s="66"/>
     </row>
     <row r="50" spans="1:12" ht="7" customHeight="1">
       <c r="A50" s="28"/>
@@ -3902,12 +3938,31 @@
     </row>
   </sheetData>
   <mergeCells count="53">
-    <mergeCell ref="E37:I37"/>
-    <mergeCell ref="A49:C49"/>
-    <mergeCell ref="E49:I49"/>
-    <mergeCell ref="E46:I46"/>
-    <mergeCell ref="E47:I47"/>
-    <mergeCell ref="E48:I48"/>
+    <mergeCell ref="E34:I34"/>
+    <mergeCell ref="E24:I24"/>
+    <mergeCell ref="A5:C5"/>
+    <mergeCell ref="D5:H5"/>
+    <mergeCell ref="A6:I6"/>
+    <mergeCell ref="E22:I22"/>
+    <mergeCell ref="E23:I23"/>
+    <mergeCell ref="E25:I25"/>
+    <mergeCell ref="E21:I21"/>
+    <mergeCell ref="E18:I18"/>
+    <mergeCell ref="E20:I20"/>
+    <mergeCell ref="E19:I19"/>
+    <mergeCell ref="A1:I1"/>
+    <mergeCell ref="A2:I2"/>
+    <mergeCell ref="A3:H3"/>
+    <mergeCell ref="A4:I4"/>
+    <mergeCell ref="E17:I17"/>
+    <mergeCell ref="A9:C9"/>
+    <mergeCell ref="D9:H9"/>
+    <mergeCell ref="A10:I10"/>
+    <mergeCell ref="E14:I15"/>
+    <mergeCell ref="E16:I16"/>
+    <mergeCell ref="A13:A15"/>
+    <mergeCell ref="B13:I13"/>
+    <mergeCell ref="B14:C14"/>
     <mergeCell ref="E36:I36"/>
     <mergeCell ref="E38:I38"/>
     <mergeCell ref="E39:I39"/>
@@ -3924,37 +3979,18 @@
     <mergeCell ref="E26:I26"/>
     <mergeCell ref="E27:I27"/>
     <mergeCell ref="E28:I28"/>
+    <mergeCell ref="E37:I37"/>
+    <mergeCell ref="A49:C49"/>
+    <mergeCell ref="E49:I49"/>
+    <mergeCell ref="E46:I46"/>
+    <mergeCell ref="E47:I47"/>
+    <mergeCell ref="E48:I48"/>
     <mergeCell ref="E44:I44"/>
     <mergeCell ref="E45:I45"/>
     <mergeCell ref="E40:I40"/>
     <mergeCell ref="E41:I41"/>
     <mergeCell ref="E42:I42"/>
     <mergeCell ref="E43:I43"/>
-    <mergeCell ref="A1:I1"/>
-    <mergeCell ref="A2:I2"/>
-    <mergeCell ref="A3:H3"/>
-    <mergeCell ref="A4:I4"/>
-    <mergeCell ref="E17:I17"/>
-    <mergeCell ref="A9:C9"/>
-    <mergeCell ref="D9:H9"/>
-    <mergeCell ref="A10:I10"/>
-    <mergeCell ref="E14:I15"/>
-    <mergeCell ref="E16:I16"/>
-    <mergeCell ref="A13:A15"/>
-    <mergeCell ref="B13:I13"/>
-    <mergeCell ref="B14:C14"/>
-    <mergeCell ref="E34:I34"/>
-    <mergeCell ref="E24:I24"/>
-    <mergeCell ref="A5:C5"/>
-    <mergeCell ref="D5:H5"/>
-    <mergeCell ref="A6:I6"/>
-    <mergeCell ref="E22:I22"/>
-    <mergeCell ref="E23:I23"/>
-    <mergeCell ref="E25:I25"/>
-    <mergeCell ref="E21:I21"/>
-    <mergeCell ref="E18:I18"/>
-    <mergeCell ref="E20:I20"/>
-    <mergeCell ref="E19:I19"/>
   </mergeCells>
   <phoneticPr fontId="32" type="noConversion"/>
   <printOptions horizontalCentered="1"/>
@@ -3993,17 +4029,17 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:40" s="7" customFormat="1" ht="18" thickBot="1">
-      <c r="A1" s="66" t="s">
-        <v>16</v>
-      </c>
-      <c r="B1" s="66"/>
-      <c r="C1" s="66"/>
-      <c r="D1" s="66"/>
-      <c r="E1" s="66"/>
-      <c r="F1" s="66"/>
-      <c r="G1" s="66"/>
-      <c r="H1" s="66"/>
-      <c r="I1" s="66"/>
+      <c r="A1" s="84" t="s">
+        <v>52</v>
+      </c>
+      <c r="B1" s="84"/>
+      <c r="C1" s="84"/>
+      <c r="D1" s="84"/>
+      <c r="E1" s="84"/>
+      <c r="F1" s="84"/>
+      <c r="G1" s="84"/>
+      <c r="H1" s="84"/>
+      <c r="I1" s="84"/>
       <c r="J1" s="8"/>
       <c r="K1" s="8"/>
       <c r="L1" s="8"/>
@@ -4036,15 +4072,15 @@
       <c r="AM1" s="8"/>
     </row>
     <row r="2" spans="1:40" s="1" customFormat="1" ht="7.5" customHeight="1">
-      <c r="A2" s="67"/>
-      <c r="B2" s="67"/>
-      <c r="C2" s="67"/>
-      <c r="D2" s="67"/>
-      <c r="E2" s="67"/>
-      <c r="F2" s="67"/>
-      <c r="G2" s="67"/>
-      <c r="H2" s="67"/>
-      <c r="I2" s="67"/>
+      <c r="A2" s="85"/>
+      <c r="B2" s="85"/>
+      <c r="C2" s="85"/>
+      <c r="D2" s="85"/>
+      <c r="E2" s="85"/>
+      <c r="F2" s="85"/>
+      <c r="G2" s="85"/>
+      <c r="H2" s="85"/>
+      <c r="I2" s="85"/>
       <c r="J2" s="9"/>
       <c r="K2" s="9"/>
       <c r="L2" s="9"/>
@@ -4077,16 +4113,16 @@
       <c r="AM2" s="9"/>
     </row>
     <row r="3" spans="1:40" s="11" customFormat="1" ht="13.5" customHeight="1">
-      <c r="A3" s="68" t="s">
-        <v>20</v>
-      </c>
-      <c r="B3" s="68"/>
-      <c r="C3" s="68"/>
-      <c r="D3" s="68"/>
-      <c r="E3" s="68"/>
-      <c r="F3" s="68"/>
-      <c r="G3" s="68"/>
-      <c r="H3" s="68"/>
+      <c r="A3" s="86" t="s">
+        <v>56</v>
+      </c>
+      <c r="B3" s="86"/>
+      <c r="C3" s="86"/>
+      <c r="D3" s="86"/>
+      <c r="E3" s="86"/>
+      <c r="F3" s="86"/>
+      <c r="G3" s="86"/>
+      <c r="H3" s="86"/>
       <c r="I3" s="23"/>
       <c r="J3" s="22"/>
       <c r="K3" s="22"/>
@@ -4121,112 +4157,112 @@
       <c r="AN3" s="10"/>
     </row>
     <row r="4" spans="1:40" s="6" customFormat="1" ht="9" customHeight="1">
-      <c r="A4" s="69"/>
-      <c r="B4" s="69"/>
-      <c r="C4" s="69"/>
-      <c r="D4" s="69"/>
-      <c r="E4" s="69"/>
-      <c r="F4" s="69"/>
-      <c r="G4" s="69"/>
-      <c r="H4" s="69"/>
-      <c r="I4" s="69"/>
+      <c r="A4" s="87"/>
+      <c r="B4" s="87"/>
+      <c r="C4" s="87"/>
+      <c r="D4" s="87"/>
+      <c r="E4" s="87"/>
+      <c r="F4" s="87"/>
+      <c r="G4" s="87"/>
+      <c r="H4" s="87"/>
+      <c r="I4" s="87"/>
     </row>
     <row r="5" spans="1:40" s="1" customFormat="1" ht="13.75" customHeight="1">
-      <c r="A5" s="62" t="str">
+      <c r="A5" s="94" t="str">
         <f>October!A5</f>
         <v>Firstname Lastname</v>
       </c>
-      <c r="B5" s="63"/>
-      <c r="C5" s="63"/>
-      <c r="D5" s="58" t="str">
+      <c r="B5" s="95"/>
+      <c r="C5" s="95"/>
+      <c r="D5" s="90" t="str">
         <f>October!D5</f>
         <v>Augustin Hannah</v>
       </c>
-      <c r="E5" s="59"/>
-      <c r="F5" s="59"/>
-      <c r="G5" s="59"/>
-      <c r="H5" s="60"/>
+      <c r="E5" s="91"/>
+      <c r="F5" s="91"/>
+      <c r="G5" s="91"/>
+      <c r="H5" s="92"/>
       <c r="I5" s="23"/>
       <c r="J5" s="9"/>
       <c r="K5" s="9"/>
       <c r="L5" s="9"/>
     </row>
     <row r="6" spans="1:40" s="1" customFormat="1" ht="7.5" customHeight="1">
-      <c r="A6" s="64"/>
-      <c r="B6" s="64"/>
-      <c r="C6" s="64"/>
-      <c r="D6" s="64"/>
-      <c r="E6" s="64"/>
-      <c r="F6" s="64"/>
-      <c r="G6" s="64"/>
-      <c r="H6" s="64"/>
-      <c r="I6" s="64"/>
+      <c r="A6" s="96"/>
+      <c r="B6" s="96"/>
+      <c r="C6" s="96"/>
+      <c r="D6" s="96"/>
+      <c r="E6" s="96"/>
+      <c r="F6" s="96"/>
+      <c r="G6" s="96"/>
+      <c r="H6" s="96"/>
+      <c r="I6" s="96"/>
     </row>
     <row r="7" spans="1:40" s="1" customFormat="1" ht="13.75" customHeight="1">
-      <c r="A7" s="57" t="str">
+      <c r="A7" s="89" t="str">
         <f>October!A7</f>
         <v>Project Acronym</v>
       </c>
-      <c r="B7" s="57"/>
-      <c r="C7" s="57"/>
-      <c r="D7" s="65" t="str">
+      <c r="B7" s="89"/>
+      <c r="C7" s="89"/>
+      <c r="D7" s="97" t="str">
         <f>October!D7</f>
         <v>AIQ</v>
       </c>
-      <c r="E7" s="65"/>
-      <c r="F7" s="65"/>
-      <c r="G7" s="65"/>
-      <c r="H7" s="65"/>
+      <c r="E7" s="97"/>
+      <c r="F7" s="97"/>
+      <c r="G7" s="97"/>
+      <c r="H7" s="97"/>
       <c r="I7" s="24"/>
     </row>
     <row r="8" spans="1:40" s="1" customFormat="1" ht="7.5" customHeight="1">
-      <c r="A8" s="70"/>
-      <c r="B8" s="70"/>
-      <c r="C8" s="70"/>
-      <c r="D8" s="70"/>
-      <c r="E8" s="70"/>
-      <c r="F8" s="70"/>
-      <c r="G8" s="70"/>
-      <c r="H8" s="70"/>
-      <c r="I8" s="70"/>
+      <c r="A8" s="88"/>
+      <c r="B8" s="88"/>
+      <c r="C8" s="88"/>
+      <c r="D8" s="88"/>
+      <c r="E8" s="88"/>
+      <c r="F8" s="88"/>
+      <c r="G8" s="88"/>
+      <c r="H8" s="88"/>
+      <c r="I8" s="88"/>
     </row>
     <row r="9" spans="1:40" s="1" customFormat="1" ht="13.75" customHeight="1">
-      <c r="A9" s="57" t="str">
+      <c r="A9" s="89" t="str">
         <f>October!A9</f>
         <v>Project Title</v>
       </c>
-      <c r="B9" s="57"/>
-      <c r="C9" s="57"/>
-      <c r="D9" s="58" t="str">
+      <c r="B9" s="89"/>
+      <c r="C9" s="89"/>
+      <c r="D9" s="90" t="str">
         <f>October!D9</f>
         <v>Automating change detection in ImageQuerying</v>
       </c>
-      <c r="E9" s="59"/>
-      <c r="F9" s="59"/>
-      <c r="G9" s="59"/>
-      <c r="H9" s="60"/>
+      <c r="E9" s="91"/>
+      <c r="F9" s="91"/>
+      <c r="G9" s="91"/>
+      <c r="H9" s="92"/>
       <c r="I9" s="24"/>
       <c r="J9" s="15"/>
     </row>
     <row r="10" spans="1:40" s="1" customFormat="1" ht="7.5" customHeight="1">
-      <c r="A10" s="61"/>
-      <c r="B10" s="61"/>
-      <c r="C10" s="61"/>
-      <c r="D10" s="61"/>
-      <c r="E10" s="61"/>
-      <c r="F10" s="61"/>
-      <c r="G10" s="61"/>
-      <c r="H10" s="61"/>
-      <c r="I10" s="61"/>
+      <c r="A10" s="93"/>
+      <c r="B10" s="93"/>
+      <c r="C10" s="93"/>
+      <c r="D10" s="93"/>
+      <c r="E10" s="93"/>
+      <c r="F10" s="93"/>
+      <c r="G10" s="93"/>
+      <c r="H10" s="93"/>
+      <c r="I10" s="93"/>
     </row>
     <row r="11" spans="1:40" s="1" customFormat="1" ht="12">
       <c r="A11" s="21" t="s">
-        <v>18</v>
+        <v>54</v>
       </c>
       <c r="B11" s="21"/>
       <c r="C11" s="21"/>
       <c r="D11" s="21" t="s">
-        <v>19</v>
+        <v>55</v>
       </c>
       <c r="E11" s="21"/>
       <c r="F11" s="21"/>
@@ -4246,55 +4282,55 @@
       <c r="I12" s="26"/>
     </row>
     <row r="13" spans="1:40" s="2" customFormat="1" ht="15.5" customHeight="1">
-      <c r="A13" s="78" t="s">
-        <v>62</v>
-      </c>
-      <c r="B13" s="81" t="s">
+      <c r="A13" s="68" t="s">
+        <v>11</v>
+      </c>
+      <c r="B13" s="71" t="s">
+        <v>50</v>
+      </c>
+      <c r="C13" s="72"/>
+      <c r="D13" s="72"/>
+      <c r="E13" s="72"/>
+      <c r="F13" s="72"/>
+      <c r="G13" s="72"/>
+      <c r="H13" s="72"/>
+      <c r="I13" s="73"/>
+    </row>
+    <row r="14" spans="1:40" s="2" customFormat="1" ht="13.75" customHeight="1">
+      <c r="A14" s="69"/>
+      <c r="B14" s="74" t="s">
+        <v>12</v>
+      </c>
+      <c r="C14" s="75"/>
+      <c r="D14" s="76" t="s">
+        <v>13</v>
+      </c>
+      <c r="E14" s="78" t="s">
+        <v>51</v>
+      </c>
+      <c r="F14" s="79"/>
+      <c r="G14" s="79"/>
+      <c r="H14" s="79"/>
+      <c r="I14" s="80"/>
+    </row>
+    <row r="15" spans="1:40" ht="13" customHeight="1">
+      <c r="A15" s="70"/>
+      <c r="B15" s="32" t="s">
         <v>14</v>
       </c>
-      <c r="C13" s="82"/>
-      <c r="D13" s="82"/>
-      <c r="E13" s="82"/>
-      <c r="F13" s="82"/>
-      <c r="G13" s="82"/>
-      <c r="H13" s="82"/>
-      <c r="I13" s="83"/>
-    </row>
-    <row r="14" spans="1:40" s="2" customFormat="1" ht="13.75" customHeight="1">
-      <c r="A14" s="79"/>
-      <c r="B14" s="84" t="s">
-        <v>63</v>
-      </c>
-      <c r="C14" s="85"/>
-      <c r="D14" s="86" t="s">
-        <v>64</v>
-      </c>
-      <c r="E14" s="88" t="s">
+      <c r="C15" s="33" t="s">
         <v>15</v>
       </c>
-      <c r="F14" s="89"/>
-      <c r="G14" s="89"/>
-      <c r="H14" s="89"/>
-      <c r="I14" s="90"/>
-    </row>
-    <row r="15" spans="1:40" ht="13" customHeight="1">
-      <c r="A15" s="80"/>
-      <c r="B15" s="32" t="s">
-        <v>65</v>
-      </c>
-      <c r="C15" s="33" t="s">
-        <v>66</v>
-      </c>
-      <c r="D15" s="87"/>
-      <c r="E15" s="91"/>
-      <c r="F15" s="92"/>
-      <c r="G15" s="92"/>
-      <c r="H15" s="92"/>
-      <c r="I15" s="93"/>
+      <c r="D15" s="77"/>
+      <c r="E15" s="81"/>
+      <c r="F15" s="82"/>
+      <c r="G15" s="82"/>
+      <c r="H15" s="82"/>
+      <c r="I15" s="83"/>
     </row>
     <row r="16" spans="1:40" s="43" customFormat="1" ht="12">
       <c r="A16" s="40" t="s">
-        <v>67</v>
+        <v>16</v>
       </c>
       <c r="B16" s="41"/>
       <c r="C16" s="42"/>
@@ -4302,15 +4338,15 @@
         <f>C16-B16</f>
         <v>0</v>
       </c>
-      <c r="E16" s="71"/>
-      <c r="F16" s="72"/>
-      <c r="G16" s="72"/>
-      <c r="H16" s="72"/>
-      <c r="I16" s="73"/>
+      <c r="E16" s="60"/>
+      <c r="F16" s="61"/>
+      <c r="G16" s="61"/>
+      <c r="H16" s="61"/>
+      <c r="I16" s="62"/>
     </row>
     <row r="17" spans="1:9" s="43" customFormat="1" ht="12">
       <c r="A17" s="40" t="s">
-        <v>68</v>
+        <v>17</v>
       </c>
       <c r="B17" s="41"/>
       <c r="C17" s="42"/>
@@ -4318,15 +4354,15 @@
         <f t="shared" ref="D17:D46" si="0">C17-B17</f>
         <v>0</v>
       </c>
-      <c r="E17" s="71"/>
-      <c r="F17" s="72"/>
-      <c r="G17" s="72"/>
-      <c r="H17" s="72"/>
-      <c r="I17" s="73"/>
+      <c r="E17" s="60"/>
+      <c r="F17" s="61"/>
+      <c r="G17" s="61"/>
+      <c r="H17" s="61"/>
+      <c r="I17" s="62"/>
     </row>
     <row r="18" spans="1:9" s="51" customFormat="1" ht="12">
       <c r="A18" s="48" t="s">
-        <v>69</v>
+        <v>18</v>
       </c>
       <c r="B18" s="49"/>
       <c r="C18" s="50"/>
@@ -4334,15 +4370,15 @@
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="E18" s="77"/>
-      <c r="F18" s="75"/>
-      <c r="G18" s="75"/>
-      <c r="H18" s="75"/>
-      <c r="I18" s="76"/>
+      <c r="E18" s="57"/>
+      <c r="F18" s="58"/>
+      <c r="G18" s="58"/>
+      <c r="H18" s="58"/>
+      <c r="I18" s="59"/>
     </row>
     <row r="19" spans="1:9" s="51" customFormat="1" ht="12">
       <c r="A19" s="48" t="s">
-        <v>70</v>
+        <v>19</v>
       </c>
       <c r="B19" s="49"/>
       <c r="C19" s="50"/>
@@ -4350,15 +4386,15 @@
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="E19" s="77"/>
-      <c r="F19" s="75"/>
-      <c r="G19" s="75"/>
-      <c r="H19" s="75"/>
-      <c r="I19" s="76"/>
+      <c r="E19" s="57"/>
+      <c r="F19" s="58"/>
+      <c r="G19" s="58"/>
+      <c r="H19" s="58"/>
+      <c r="I19" s="59"/>
     </row>
     <row r="20" spans="1:9" s="43" customFormat="1" ht="12">
       <c r="A20" s="40" t="s">
-        <v>71</v>
+        <v>20</v>
       </c>
       <c r="B20" s="41"/>
       <c r="C20" s="42"/>
@@ -4366,15 +4402,15 @@
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="E20" s="71"/>
-      <c r="F20" s="72"/>
-      <c r="G20" s="72"/>
-      <c r="H20" s="72"/>
-      <c r="I20" s="73"/>
+      <c r="E20" s="60"/>
+      <c r="F20" s="61"/>
+      <c r="G20" s="61"/>
+      <c r="H20" s="61"/>
+      <c r="I20" s="62"/>
     </row>
     <row r="21" spans="1:9" s="43" customFormat="1" ht="12">
       <c r="A21" s="40" t="s">
-        <v>72</v>
+        <v>21</v>
       </c>
       <c r="B21" s="41"/>
       <c r="C21" s="42"/>
@@ -4382,15 +4418,15 @@
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="E21" s="71"/>
-      <c r="F21" s="72"/>
-      <c r="G21" s="72"/>
-      <c r="H21" s="72"/>
-      <c r="I21" s="73"/>
+      <c r="E21" s="60"/>
+      <c r="F21" s="61"/>
+      <c r="G21" s="61"/>
+      <c r="H21" s="61"/>
+      <c r="I21" s="62"/>
     </row>
     <row r="22" spans="1:9" s="43" customFormat="1" ht="12">
       <c r="A22" s="40" t="s">
-        <v>73</v>
+        <v>22</v>
       </c>
       <c r="B22" s="41"/>
       <c r="C22" s="42"/>
@@ -4398,15 +4434,15 @@
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="E22" s="71"/>
-      <c r="F22" s="72"/>
-      <c r="G22" s="72"/>
-      <c r="H22" s="72"/>
-      <c r="I22" s="73"/>
+      <c r="E22" s="60"/>
+      <c r="F22" s="61"/>
+      <c r="G22" s="61"/>
+      <c r="H22" s="61"/>
+      <c r="I22" s="62"/>
     </row>
     <row r="23" spans="1:9" s="43" customFormat="1" ht="12">
       <c r="A23" s="40" t="s">
-        <v>74</v>
+        <v>23</v>
       </c>
       <c r="B23" s="41"/>
       <c r="C23" s="42"/>
@@ -4414,15 +4450,15 @@
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="E23" s="71"/>
-      <c r="F23" s="72"/>
-      <c r="G23" s="72"/>
-      <c r="H23" s="72"/>
-      <c r="I23" s="73"/>
+      <c r="E23" s="60"/>
+      <c r="F23" s="61"/>
+      <c r="G23" s="61"/>
+      <c r="H23" s="61"/>
+      <c r="I23" s="62"/>
     </row>
     <row r="24" spans="1:9" s="43" customFormat="1" ht="12">
       <c r="A24" s="40" t="s">
-        <v>75</v>
+        <v>24</v>
       </c>
       <c r="B24" s="41"/>
       <c r="C24" s="42"/>
@@ -4430,15 +4466,15 @@
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="E24" s="71"/>
-      <c r="F24" s="72"/>
-      <c r="G24" s="72"/>
-      <c r="H24" s="72"/>
-      <c r="I24" s="73"/>
+      <c r="E24" s="60"/>
+      <c r="F24" s="61"/>
+      <c r="G24" s="61"/>
+      <c r="H24" s="61"/>
+      <c r="I24" s="62"/>
     </row>
     <row r="25" spans="1:9" s="51" customFormat="1" ht="12">
       <c r="A25" s="48" t="s">
-        <v>76</v>
+        <v>25</v>
       </c>
       <c r="B25" s="49"/>
       <c r="C25" s="50"/>
@@ -4446,15 +4482,15 @@
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="E25" s="77"/>
-      <c r="F25" s="75"/>
-      <c r="G25" s="75"/>
-      <c r="H25" s="75"/>
-      <c r="I25" s="76"/>
+      <c r="E25" s="57"/>
+      <c r="F25" s="58"/>
+      <c r="G25" s="58"/>
+      <c r="H25" s="58"/>
+      <c r="I25" s="59"/>
     </row>
     <row r="26" spans="1:9" s="51" customFormat="1" ht="12">
       <c r="A26" s="48" t="s">
-        <v>77</v>
+        <v>26</v>
       </c>
       <c r="B26" s="49"/>
       <c r="C26" s="50"/>
@@ -4462,15 +4498,15 @@
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="E26" s="77"/>
-      <c r="F26" s="75"/>
-      <c r="G26" s="75"/>
-      <c r="H26" s="75"/>
-      <c r="I26" s="76"/>
+      <c r="E26" s="57"/>
+      <c r="F26" s="58"/>
+      <c r="G26" s="58"/>
+      <c r="H26" s="58"/>
+      <c r="I26" s="59"/>
     </row>
     <row r="27" spans="1:9" s="43" customFormat="1" ht="12">
       <c r="A27" s="40" t="s">
-        <v>78</v>
+        <v>27</v>
       </c>
       <c r="B27" s="41"/>
       <c r="C27" s="42"/>
@@ -4478,15 +4514,15 @@
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="E27" s="71"/>
-      <c r="F27" s="72"/>
-      <c r="G27" s="72"/>
-      <c r="H27" s="72"/>
-      <c r="I27" s="73"/>
+      <c r="E27" s="60"/>
+      <c r="F27" s="61"/>
+      <c r="G27" s="61"/>
+      <c r="H27" s="61"/>
+      <c r="I27" s="62"/>
     </row>
     <row r="28" spans="1:9" s="43" customFormat="1" ht="12">
       <c r="A28" s="40" t="s">
-        <v>79</v>
+        <v>28</v>
       </c>
       <c r="B28" s="41"/>
       <c r="C28" s="42"/>
@@ -4494,15 +4530,15 @@
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="E28" s="71"/>
-      <c r="F28" s="72"/>
-      <c r="G28" s="72"/>
-      <c r="H28" s="72"/>
-      <c r="I28" s="73"/>
+      <c r="E28" s="60"/>
+      <c r="F28" s="61"/>
+      <c r="G28" s="61"/>
+      <c r="H28" s="61"/>
+      <c r="I28" s="62"/>
     </row>
     <row r="29" spans="1:9" s="43" customFormat="1" ht="12">
       <c r="A29" s="40" t="s">
-        <v>80</v>
+        <v>29</v>
       </c>
       <c r="B29" s="41"/>
       <c r="C29" s="42"/>
@@ -4510,15 +4546,15 @@
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="E29" s="71"/>
-      <c r="F29" s="72"/>
-      <c r="G29" s="72"/>
-      <c r="H29" s="72"/>
-      <c r="I29" s="73"/>
+      <c r="E29" s="60"/>
+      <c r="F29" s="61"/>
+      <c r="G29" s="61"/>
+      <c r="H29" s="61"/>
+      <c r="I29" s="62"/>
     </row>
     <row r="30" spans="1:9" s="43" customFormat="1" ht="12">
       <c r="A30" s="40" t="s">
-        <v>81</v>
+        <v>30</v>
       </c>
       <c r="B30" s="41"/>
       <c r="C30" s="42"/>
@@ -4526,15 +4562,15 @@
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="E30" s="71"/>
-      <c r="F30" s="72"/>
-      <c r="G30" s="72"/>
-      <c r="H30" s="72"/>
-      <c r="I30" s="73"/>
+      <c r="E30" s="60"/>
+      <c r="F30" s="61"/>
+      <c r="G30" s="61"/>
+      <c r="H30" s="61"/>
+      <c r="I30" s="62"/>
     </row>
     <row r="31" spans="1:9" s="43" customFormat="1" ht="12">
       <c r="A31" s="40" t="s">
-        <v>82</v>
+        <v>31</v>
       </c>
       <c r="B31" s="41"/>
       <c r="C31" s="42"/>
@@ -4542,15 +4578,15 @@
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="E31" s="71"/>
-      <c r="F31" s="72"/>
-      <c r="G31" s="72"/>
-      <c r="H31" s="72"/>
-      <c r="I31" s="73"/>
+      <c r="E31" s="60"/>
+      <c r="F31" s="61"/>
+      <c r="G31" s="61"/>
+      <c r="H31" s="61"/>
+      <c r="I31" s="62"/>
     </row>
     <row r="32" spans="1:9" s="51" customFormat="1" ht="12">
       <c r="A32" s="48" t="s">
-        <v>83</v>
+        <v>32</v>
       </c>
       <c r="B32" s="49"/>
       <c r="C32" s="50"/>
@@ -4558,15 +4594,15 @@
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="E32" s="77"/>
-      <c r="F32" s="75"/>
-      <c r="G32" s="75"/>
-      <c r="H32" s="75"/>
-      <c r="I32" s="76"/>
+      <c r="E32" s="57"/>
+      <c r="F32" s="58"/>
+      <c r="G32" s="58"/>
+      <c r="H32" s="58"/>
+      <c r="I32" s="59"/>
     </row>
     <row r="33" spans="1:12" s="51" customFormat="1" ht="12">
       <c r="A33" s="48" t="s">
-        <v>0</v>
+        <v>36</v>
       </c>
       <c r="B33" s="49"/>
       <c r="C33" s="50"/>
@@ -4574,15 +4610,15 @@
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="E33" s="77"/>
-      <c r="F33" s="75"/>
-      <c r="G33" s="75"/>
-      <c r="H33" s="75"/>
-      <c r="I33" s="76"/>
+      <c r="E33" s="57"/>
+      <c r="F33" s="58"/>
+      <c r="G33" s="58"/>
+      <c r="H33" s="58"/>
+      <c r="I33" s="59"/>
     </row>
     <row r="34" spans="1:12" s="43" customFormat="1" ht="12">
       <c r="A34" s="40" t="s">
-        <v>1</v>
+        <v>37</v>
       </c>
       <c r="B34" s="41"/>
       <c r="C34" s="42"/>
@@ -4590,15 +4626,15 @@
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="E34" s="71"/>
-      <c r="F34" s="72"/>
-      <c r="G34" s="72"/>
-      <c r="H34" s="72"/>
-      <c r="I34" s="73"/>
+      <c r="E34" s="60"/>
+      <c r="F34" s="61"/>
+      <c r="G34" s="61"/>
+      <c r="H34" s="61"/>
+      <c r="I34" s="62"/>
     </row>
     <row r="35" spans="1:12" s="43" customFormat="1" ht="12">
       <c r="A35" s="40" t="s">
-        <v>2</v>
+        <v>38</v>
       </c>
       <c r="B35" s="41"/>
       <c r="C35" s="42"/>
@@ -4606,15 +4642,15 @@
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="E35" s="71"/>
-      <c r="F35" s="72"/>
-      <c r="G35" s="72"/>
-      <c r="H35" s="72"/>
-      <c r="I35" s="73"/>
+      <c r="E35" s="60"/>
+      <c r="F35" s="61"/>
+      <c r="G35" s="61"/>
+      <c r="H35" s="61"/>
+      <c r="I35" s="62"/>
     </row>
     <row r="36" spans="1:12" s="43" customFormat="1" ht="12">
       <c r="A36" s="40" t="s">
-        <v>3</v>
+        <v>39</v>
       </c>
       <c r="B36" s="41"/>
       <c r="C36" s="42"/>
@@ -4622,15 +4658,15 @@
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="E36" s="71"/>
-      <c r="F36" s="72"/>
-      <c r="G36" s="72"/>
-      <c r="H36" s="72"/>
-      <c r="I36" s="73"/>
+      <c r="E36" s="60"/>
+      <c r="F36" s="61"/>
+      <c r="G36" s="61"/>
+      <c r="H36" s="61"/>
+      <c r="I36" s="62"/>
     </row>
     <row r="37" spans="1:12" s="43" customFormat="1" ht="12">
       <c r="A37" s="40" t="s">
-        <v>4</v>
+        <v>40</v>
       </c>
       <c r="B37" s="41"/>
       <c r="C37" s="42"/>
@@ -4638,15 +4674,15 @@
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="E37" s="71"/>
-      <c r="F37" s="72"/>
-      <c r="G37" s="72"/>
-      <c r="H37" s="72"/>
-      <c r="I37" s="73"/>
+      <c r="E37" s="60"/>
+      <c r="F37" s="61"/>
+      <c r="G37" s="61"/>
+      <c r="H37" s="61"/>
+      <c r="I37" s="62"/>
     </row>
     <row r="38" spans="1:12" s="43" customFormat="1" ht="12">
       <c r="A38" s="40" t="s">
-        <v>5</v>
+        <v>41</v>
       </c>
       <c r="B38" s="41"/>
       <c r="C38" s="42"/>
@@ -4654,15 +4690,15 @@
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="E38" s="71"/>
-      <c r="F38" s="72"/>
-      <c r="G38" s="72"/>
-      <c r="H38" s="72"/>
-      <c r="I38" s="73"/>
+      <c r="E38" s="60"/>
+      <c r="F38" s="61"/>
+      <c r="G38" s="61"/>
+      <c r="H38" s="61"/>
+      <c r="I38" s="62"/>
     </row>
     <row r="39" spans="1:12" s="51" customFormat="1" ht="12">
       <c r="A39" s="48" t="s">
-        <v>6</v>
+        <v>42</v>
       </c>
       <c r="B39" s="49"/>
       <c r="C39" s="50"/>
@@ -4670,15 +4706,15 @@
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="E39" s="77"/>
-      <c r="F39" s="75"/>
-      <c r="G39" s="75"/>
-      <c r="H39" s="75"/>
-      <c r="I39" s="76"/>
+      <c r="E39" s="57"/>
+      <c r="F39" s="58"/>
+      <c r="G39" s="58"/>
+      <c r="H39" s="58"/>
+      <c r="I39" s="59"/>
     </row>
     <row r="40" spans="1:12" s="51" customFormat="1" ht="12">
       <c r="A40" s="48" t="s">
-        <v>7</v>
+        <v>43</v>
       </c>
       <c r="B40" s="49"/>
       <c r="C40" s="50"/>
@@ -4686,15 +4722,15 @@
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="E40" s="77"/>
-      <c r="F40" s="75"/>
-      <c r="G40" s="75"/>
-      <c r="H40" s="75"/>
-      <c r="I40" s="76"/>
+      <c r="E40" s="57"/>
+      <c r="F40" s="58"/>
+      <c r="G40" s="58"/>
+      <c r="H40" s="58"/>
+      <c r="I40" s="59"/>
     </row>
     <row r="41" spans="1:12" s="43" customFormat="1" ht="12">
       <c r="A41" s="40" t="s">
-        <v>8</v>
+        <v>44</v>
       </c>
       <c r="B41" s="41"/>
       <c r="C41" s="42"/>
@@ -4702,15 +4738,15 @@
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="E41" s="71"/>
-      <c r="F41" s="72"/>
-      <c r="G41" s="72"/>
-      <c r="H41" s="72"/>
-      <c r="I41" s="73"/>
+      <c r="E41" s="60"/>
+      <c r="F41" s="61"/>
+      <c r="G41" s="61"/>
+      <c r="H41" s="61"/>
+      <c r="I41" s="62"/>
     </row>
     <row r="42" spans="1:12" s="43" customFormat="1" ht="12">
       <c r="A42" s="40" t="s">
-        <v>9</v>
+        <v>45</v>
       </c>
       <c r="B42" s="41"/>
       <c r="C42" s="42"/>
@@ -4718,15 +4754,15 @@
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="E42" s="71"/>
-      <c r="F42" s="72"/>
-      <c r="G42" s="72"/>
-      <c r="H42" s="72"/>
-      <c r="I42" s="73"/>
+      <c r="E42" s="60"/>
+      <c r="F42" s="61"/>
+      <c r="G42" s="61"/>
+      <c r="H42" s="61"/>
+      <c r="I42" s="62"/>
     </row>
     <row r="43" spans="1:12" s="43" customFormat="1" ht="12">
       <c r="A43" s="40" t="s">
-        <v>10</v>
+        <v>46</v>
       </c>
       <c r="B43" s="41"/>
       <c r="C43" s="42"/>
@@ -4734,15 +4770,15 @@
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="E43" s="71"/>
-      <c r="F43" s="72"/>
-      <c r="G43" s="72"/>
-      <c r="H43" s="72"/>
-      <c r="I43" s="73"/>
+      <c r="E43" s="60"/>
+      <c r="F43" s="61"/>
+      <c r="G43" s="61"/>
+      <c r="H43" s="61"/>
+      <c r="I43" s="62"/>
     </row>
     <row r="44" spans="1:12" s="43" customFormat="1" ht="12">
       <c r="A44" s="40" t="s">
-        <v>11</v>
+        <v>47</v>
       </c>
       <c r="B44" s="41"/>
       <c r="C44" s="42"/>
@@ -4750,15 +4786,15 @@
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="E44" s="71"/>
-      <c r="F44" s="72"/>
-      <c r="G44" s="72"/>
-      <c r="H44" s="72"/>
-      <c r="I44" s="73"/>
+      <c r="E44" s="60"/>
+      <c r="F44" s="61"/>
+      <c r="G44" s="61"/>
+      <c r="H44" s="61"/>
+      <c r="I44" s="62"/>
     </row>
     <row r="45" spans="1:12" s="43" customFormat="1" ht="12">
       <c r="A45" s="40" t="s">
-        <v>12</v>
+        <v>48</v>
       </c>
       <c r="B45" s="41"/>
       <c r="C45" s="42"/>
@@ -4766,15 +4802,15 @@
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="E45" s="71"/>
-      <c r="F45" s="72"/>
-      <c r="G45" s="72"/>
-      <c r="H45" s="72"/>
-      <c r="I45" s="73"/>
+      <c r="E45" s="60"/>
+      <c r="F45" s="61"/>
+      <c r="G45" s="61"/>
+      <c r="H45" s="61"/>
+      <c r="I45" s="62"/>
     </row>
     <row r="46" spans="1:12" s="51" customFormat="1" ht="12">
       <c r="A46" s="48" t="s">
-        <v>13</v>
+        <v>49</v>
       </c>
       <c r="B46" s="49"/>
       <c r="C46" s="50"/>
@@ -4782,11 +4818,11 @@
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="E46" s="77"/>
-      <c r="F46" s="75"/>
-      <c r="G46" s="75"/>
-      <c r="H46" s="75"/>
-      <c r="I46" s="76"/>
+      <c r="E46" s="57"/>
+      <c r="F46" s="58"/>
+      <c r="G46" s="58"/>
+      <c r="H46" s="58"/>
+      <c r="I46" s="59"/>
     </row>
     <row r="47" spans="1:12" s="35" customFormat="1" ht="13">
       <c r="A47" s="100"/>
@@ -4818,6 +4854,41 @@
     </row>
   </sheetData>
   <mergeCells count="51">
+    <mergeCell ref="D9:H9"/>
+    <mergeCell ref="A10:I10"/>
+    <mergeCell ref="A1:I1"/>
+    <mergeCell ref="A2:I2"/>
+    <mergeCell ref="A3:H3"/>
+    <mergeCell ref="A4:I4"/>
+    <mergeCell ref="A5:C5"/>
+    <mergeCell ref="D5:H5"/>
+    <mergeCell ref="A6:I6"/>
+    <mergeCell ref="E29:I29"/>
+    <mergeCell ref="E30:I30"/>
+    <mergeCell ref="E31:I31"/>
+    <mergeCell ref="E17:I17"/>
+    <mergeCell ref="E26:I26"/>
+    <mergeCell ref="E27:I27"/>
+    <mergeCell ref="E28:I28"/>
+    <mergeCell ref="E23:I23"/>
+    <mergeCell ref="E24:I24"/>
+    <mergeCell ref="E25:I25"/>
+    <mergeCell ref="E20:I20"/>
+    <mergeCell ref="E21:I21"/>
+    <mergeCell ref="E22:I22"/>
+    <mergeCell ref="E18:I18"/>
+    <mergeCell ref="E19:I19"/>
+    <mergeCell ref="E35:I35"/>
+    <mergeCell ref="E36:I36"/>
+    <mergeCell ref="E37:I37"/>
+    <mergeCell ref="E32:I32"/>
+    <mergeCell ref="E33:I33"/>
+    <mergeCell ref="E34:I34"/>
+    <mergeCell ref="E47:I47"/>
+    <mergeCell ref="A47:C47"/>
+    <mergeCell ref="E44:I44"/>
+    <mergeCell ref="E45:I45"/>
+    <mergeCell ref="E46:I46"/>
     <mergeCell ref="E41:I41"/>
     <mergeCell ref="E42:I42"/>
     <mergeCell ref="E43:I43"/>
@@ -4834,41 +4905,6 @@
     <mergeCell ref="E38:I38"/>
     <mergeCell ref="E39:I39"/>
     <mergeCell ref="E40:I40"/>
-    <mergeCell ref="E47:I47"/>
-    <mergeCell ref="A47:C47"/>
-    <mergeCell ref="E44:I44"/>
-    <mergeCell ref="E45:I45"/>
-    <mergeCell ref="E46:I46"/>
-    <mergeCell ref="E35:I35"/>
-    <mergeCell ref="E36:I36"/>
-    <mergeCell ref="E37:I37"/>
-    <mergeCell ref="E32:I32"/>
-    <mergeCell ref="E33:I33"/>
-    <mergeCell ref="E34:I34"/>
-    <mergeCell ref="E29:I29"/>
-    <mergeCell ref="E30:I30"/>
-    <mergeCell ref="E31:I31"/>
-    <mergeCell ref="E17:I17"/>
-    <mergeCell ref="E26:I26"/>
-    <mergeCell ref="E27:I27"/>
-    <mergeCell ref="E28:I28"/>
-    <mergeCell ref="E23:I23"/>
-    <mergeCell ref="E24:I24"/>
-    <mergeCell ref="E25:I25"/>
-    <mergeCell ref="E20:I20"/>
-    <mergeCell ref="E21:I21"/>
-    <mergeCell ref="E22:I22"/>
-    <mergeCell ref="E18:I18"/>
-    <mergeCell ref="E19:I19"/>
-    <mergeCell ref="D9:H9"/>
-    <mergeCell ref="A10:I10"/>
-    <mergeCell ref="A1:I1"/>
-    <mergeCell ref="A2:I2"/>
-    <mergeCell ref="A3:H3"/>
-    <mergeCell ref="A4:I4"/>
-    <mergeCell ref="A5:C5"/>
-    <mergeCell ref="D5:H5"/>
-    <mergeCell ref="A6:I6"/>
   </mergeCells>
   <phoneticPr fontId="32" type="noConversion"/>
   <printOptions horizontalCentered="1"/>
@@ -4907,17 +4943,17 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:40" s="7" customFormat="1" ht="18" thickBot="1">
-      <c r="A1" s="66" t="s">
-        <v>16</v>
-      </c>
-      <c r="B1" s="66"/>
-      <c r="C1" s="66"/>
-      <c r="D1" s="66"/>
-      <c r="E1" s="66"/>
-      <c r="F1" s="66"/>
-      <c r="G1" s="66"/>
-      <c r="H1" s="66"/>
-      <c r="I1" s="66"/>
+      <c r="A1" s="84" t="s">
+        <v>52</v>
+      </c>
+      <c r="B1" s="84"/>
+      <c r="C1" s="84"/>
+      <c r="D1" s="84"/>
+      <c r="E1" s="84"/>
+      <c r="F1" s="84"/>
+      <c r="G1" s="84"/>
+      <c r="H1" s="84"/>
+      <c r="I1" s="84"/>
       <c r="J1" s="8"/>
       <c r="K1" s="8"/>
       <c r="L1" s="8"/>
@@ -4950,15 +4986,15 @@
       <c r="AM1" s="8"/>
     </row>
     <row r="2" spans="1:40" s="1" customFormat="1" ht="7.5" customHeight="1">
-      <c r="A2" s="67"/>
-      <c r="B2" s="67"/>
-      <c r="C2" s="67"/>
-      <c r="D2" s="67"/>
-      <c r="E2" s="67"/>
-      <c r="F2" s="67"/>
-      <c r="G2" s="67"/>
-      <c r="H2" s="67"/>
-      <c r="I2" s="67"/>
+      <c r="A2" s="85"/>
+      <c r="B2" s="85"/>
+      <c r="C2" s="85"/>
+      <c r="D2" s="85"/>
+      <c r="E2" s="85"/>
+      <c r="F2" s="85"/>
+      <c r="G2" s="85"/>
+      <c r="H2" s="85"/>
+      <c r="I2" s="85"/>
       <c r="J2" s="9"/>
       <c r="K2" s="9"/>
       <c r="L2" s="9"/>
@@ -4991,16 +5027,16 @@
       <c r="AM2" s="9"/>
     </row>
     <row r="3" spans="1:40" s="11" customFormat="1" ht="13.5" customHeight="1">
-      <c r="A3" s="68" t="s">
-        <v>20</v>
-      </c>
-      <c r="B3" s="68"/>
-      <c r="C3" s="68"/>
-      <c r="D3" s="68"/>
-      <c r="E3" s="68"/>
-      <c r="F3" s="68"/>
-      <c r="G3" s="68"/>
-      <c r="H3" s="68"/>
+      <c r="A3" s="86" t="s">
+        <v>56</v>
+      </c>
+      <c r="B3" s="86"/>
+      <c r="C3" s="86"/>
+      <c r="D3" s="86"/>
+      <c r="E3" s="86"/>
+      <c r="F3" s="86"/>
+      <c r="G3" s="86"/>
+      <c r="H3" s="86"/>
       <c r="I3" s="23"/>
       <c r="J3" s="22"/>
       <c r="K3" s="22"/>
@@ -5035,112 +5071,112 @@
       <c r="AN3" s="10"/>
     </row>
     <row r="4" spans="1:40" s="6" customFormat="1" ht="9" customHeight="1">
-      <c r="A4" s="69"/>
-      <c r="B4" s="69"/>
-      <c r="C4" s="69"/>
-      <c r="D4" s="69"/>
-      <c r="E4" s="69"/>
-      <c r="F4" s="69"/>
-      <c r="G4" s="69"/>
-      <c r="H4" s="69"/>
-      <c r="I4" s="69"/>
+      <c r="A4" s="87"/>
+      <c r="B4" s="87"/>
+      <c r="C4" s="87"/>
+      <c r="D4" s="87"/>
+      <c r="E4" s="87"/>
+      <c r="F4" s="87"/>
+      <c r="G4" s="87"/>
+      <c r="H4" s="87"/>
+      <c r="I4" s="87"/>
     </row>
     <row r="5" spans="1:40" s="1" customFormat="1" ht="13.75" customHeight="1">
-      <c r="A5" s="62" t="str">
+      <c r="A5" s="94" t="str">
         <f>October!A5</f>
         <v>Firstname Lastname</v>
       </c>
-      <c r="B5" s="63"/>
-      <c r="C5" s="63"/>
-      <c r="D5" s="58" t="str">
+      <c r="B5" s="95"/>
+      <c r="C5" s="95"/>
+      <c r="D5" s="90" t="str">
         <f>October!D5</f>
         <v>Augustin Hannah</v>
       </c>
-      <c r="E5" s="59"/>
-      <c r="F5" s="59"/>
-      <c r="G5" s="59"/>
-      <c r="H5" s="60"/>
+      <c r="E5" s="91"/>
+      <c r="F5" s="91"/>
+      <c r="G5" s="91"/>
+      <c r="H5" s="92"/>
       <c r="I5" s="23"/>
       <c r="J5" s="9"/>
       <c r="K5" s="9"/>
       <c r="L5" s="9"/>
     </row>
     <row r="6" spans="1:40" s="1" customFormat="1" ht="7.5" customHeight="1">
-      <c r="A6" s="64"/>
-      <c r="B6" s="64"/>
-      <c r="C6" s="64"/>
-      <c r="D6" s="64"/>
-      <c r="E6" s="64"/>
-      <c r="F6" s="64"/>
-      <c r="G6" s="64"/>
-      <c r="H6" s="64"/>
-      <c r="I6" s="64"/>
+      <c r="A6" s="96"/>
+      <c r="B6" s="96"/>
+      <c r="C6" s="96"/>
+      <c r="D6" s="96"/>
+      <c r="E6" s="96"/>
+      <c r="F6" s="96"/>
+      <c r="G6" s="96"/>
+      <c r="H6" s="96"/>
+      <c r="I6" s="96"/>
     </row>
     <row r="7" spans="1:40" s="1" customFormat="1" ht="13.75" customHeight="1">
-      <c r="A7" s="57" t="str">
+      <c r="A7" s="89" t="str">
         <f>October!A7</f>
         <v>Project Acronym</v>
       </c>
-      <c r="B7" s="57"/>
-      <c r="C7" s="57"/>
-      <c r="D7" s="65" t="str">
+      <c r="B7" s="89"/>
+      <c r="C7" s="89"/>
+      <c r="D7" s="97" t="str">
         <f>October!D7</f>
         <v>AIQ</v>
       </c>
-      <c r="E7" s="65"/>
-      <c r="F7" s="65"/>
-      <c r="G7" s="65"/>
-      <c r="H7" s="65"/>
+      <c r="E7" s="97"/>
+      <c r="F7" s="97"/>
+      <c r="G7" s="97"/>
+      <c r="H7" s="97"/>
       <c r="I7" s="24"/>
     </row>
     <row r="8" spans="1:40" s="1" customFormat="1" ht="7.5" customHeight="1">
-      <c r="A8" s="70"/>
-      <c r="B8" s="70"/>
-      <c r="C8" s="70"/>
-      <c r="D8" s="70"/>
-      <c r="E8" s="70"/>
-      <c r="F8" s="70"/>
-      <c r="G8" s="70"/>
-      <c r="H8" s="70"/>
-      <c r="I8" s="70"/>
+      <c r="A8" s="88"/>
+      <c r="B8" s="88"/>
+      <c r="C8" s="88"/>
+      <c r="D8" s="88"/>
+      <c r="E8" s="88"/>
+      <c r="F8" s="88"/>
+      <c r="G8" s="88"/>
+      <c r="H8" s="88"/>
+      <c r="I8" s="88"/>
     </row>
     <row r="9" spans="1:40" s="1" customFormat="1" ht="13.75" customHeight="1">
-      <c r="A9" s="57" t="str">
+      <c r="A9" s="89" t="str">
         <f>October!A9</f>
         <v>Project Title</v>
       </c>
-      <c r="B9" s="57"/>
-      <c r="C9" s="57"/>
-      <c r="D9" s="58" t="str">
+      <c r="B9" s="89"/>
+      <c r="C9" s="89"/>
+      <c r="D9" s="90" t="str">
         <f>October!D9</f>
         <v>Automating change detection in ImageQuerying</v>
       </c>
-      <c r="E9" s="59"/>
-      <c r="F9" s="59"/>
-      <c r="G9" s="59"/>
-      <c r="H9" s="60"/>
+      <c r="E9" s="91"/>
+      <c r="F9" s="91"/>
+      <c r="G9" s="91"/>
+      <c r="H9" s="92"/>
       <c r="I9" s="24"/>
       <c r="J9" s="15"/>
     </row>
     <row r="10" spans="1:40" s="1" customFormat="1" ht="7.5" customHeight="1">
-      <c r="A10" s="61"/>
-      <c r="B10" s="61"/>
-      <c r="C10" s="61"/>
-      <c r="D10" s="61"/>
-      <c r="E10" s="61"/>
-      <c r="F10" s="61"/>
-      <c r="G10" s="61"/>
-      <c r="H10" s="61"/>
-      <c r="I10" s="61"/>
+      <c r="A10" s="93"/>
+      <c r="B10" s="93"/>
+      <c r="C10" s="93"/>
+      <c r="D10" s="93"/>
+      <c r="E10" s="93"/>
+      <c r="F10" s="93"/>
+      <c r="G10" s="93"/>
+      <c r="H10" s="93"/>
+      <c r="I10" s="93"/>
     </row>
     <row r="11" spans="1:40" s="1" customFormat="1" ht="12">
       <c r="A11" s="21" t="s">
-        <v>18</v>
+        <v>54</v>
       </c>
       <c r="B11" s="21"/>
       <c r="C11" s="21"/>
       <c r="D11" s="21" t="s">
-        <v>19</v>
+        <v>55</v>
       </c>
       <c r="E11" s="21"/>
       <c r="F11" s="21"/>
@@ -5160,55 +5196,55 @@
       <c r="I12" s="26"/>
     </row>
     <row r="13" spans="1:40" s="2" customFormat="1" ht="15.5" customHeight="1">
-      <c r="A13" s="78" t="s">
-        <v>62</v>
-      </c>
-      <c r="B13" s="81" t="s">
+      <c r="A13" s="68" t="s">
+        <v>11</v>
+      </c>
+      <c r="B13" s="71" t="s">
+        <v>50</v>
+      </c>
+      <c r="C13" s="72"/>
+      <c r="D13" s="72"/>
+      <c r="E13" s="72"/>
+      <c r="F13" s="72"/>
+      <c r="G13" s="72"/>
+      <c r="H13" s="72"/>
+      <c r="I13" s="73"/>
+    </row>
+    <row r="14" spans="1:40" s="2" customFormat="1" ht="13.75" customHeight="1">
+      <c r="A14" s="69"/>
+      <c r="B14" s="74" t="s">
+        <v>12</v>
+      </c>
+      <c r="C14" s="75"/>
+      <c r="D14" s="76" t="s">
+        <v>13</v>
+      </c>
+      <c r="E14" s="78" t="s">
+        <v>51</v>
+      </c>
+      <c r="F14" s="79"/>
+      <c r="G14" s="79"/>
+      <c r="H14" s="79"/>
+      <c r="I14" s="80"/>
+    </row>
+    <row r="15" spans="1:40" ht="12" customHeight="1">
+      <c r="A15" s="70"/>
+      <c r="B15" s="32" t="s">
         <v>14</v>
       </c>
-      <c r="C13" s="82"/>
-      <c r="D13" s="82"/>
-      <c r="E13" s="82"/>
-      <c r="F13" s="82"/>
-      <c r="G13" s="82"/>
-      <c r="H13" s="82"/>
-      <c r="I13" s="83"/>
-    </row>
-    <row r="14" spans="1:40" s="2" customFormat="1" ht="13.75" customHeight="1">
-      <c r="A14" s="79"/>
-      <c r="B14" s="84" t="s">
-        <v>63</v>
-      </c>
-      <c r="C14" s="85"/>
-      <c r="D14" s="86" t="s">
-        <v>64</v>
-      </c>
-      <c r="E14" s="88" t="s">
+      <c r="C15" s="33" t="s">
         <v>15</v>
       </c>
-      <c r="F14" s="89"/>
-      <c r="G14" s="89"/>
-      <c r="H14" s="89"/>
-      <c r="I14" s="90"/>
-    </row>
-    <row r="15" spans="1:40" ht="12" customHeight="1">
-      <c r="A15" s="80"/>
-      <c r="B15" s="32" t="s">
-        <v>65</v>
-      </c>
-      <c r="C15" s="33" t="s">
-        <v>66</v>
-      </c>
-      <c r="D15" s="87"/>
-      <c r="E15" s="91"/>
-      <c r="F15" s="92"/>
-      <c r="G15" s="92"/>
-      <c r="H15" s="92"/>
-      <c r="I15" s="93"/>
+      <c r="D15" s="77"/>
+      <c r="E15" s="81"/>
+      <c r="F15" s="82"/>
+      <c r="G15" s="82"/>
+      <c r="H15" s="82"/>
+      <c r="I15" s="83"/>
     </row>
     <row r="16" spans="1:40" s="51" customFormat="1" ht="12">
       <c r="A16" s="48" t="s">
-        <v>67</v>
+        <v>16</v>
       </c>
       <c r="B16" s="49"/>
       <c r="C16" s="50"/>
@@ -5216,15 +5252,15 @@
         <f>C16-B16</f>
         <v>0</v>
       </c>
-      <c r="E16" s="77"/>
-      <c r="F16" s="75"/>
-      <c r="G16" s="75"/>
-      <c r="H16" s="75"/>
-      <c r="I16" s="76"/>
+      <c r="E16" s="57"/>
+      <c r="F16" s="58"/>
+      <c r="G16" s="58"/>
+      <c r="H16" s="58"/>
+      <c r="I16" s="59"/>
     </row>
     <row r="17" spans="1:9" s="43" customFormat="1" ht="12">
       <c r="A17" s="40" t="s">
-        <v>68</v>
+        <v>17</v>
       </c>
       <c r="B17" s="41"/>
       <c r="C17" s="42"/>
@@ -5232,15 +5268,15 @@
         <f t="shared" ref="D17:D46" si="0">C17-B17</f>
         <v>0</v>
       </c>
-      <c r="E17" s="71"/>
-      <c r="F17" s="72"/>
-      <c r="G17" s="72"/>
-      <c r="H17" s="72"/>
-      <c r="I17" s="73"/>
+      <c r="E17" s="60"/>
+      <c r="F17" s="61"/>
+      <c r="G17" s="61"/>
+      <c r="H17" s="61"/>
+      <c r="I17" s="62"/>
     </row>
     <row r="18" spans="1:9" s="43" customFormat="1" ht="12">
       <c r="A18" s="40" t="s">
-        <v>69</v>
+        <v>18</v>
       </c>
       <c r="B18" s="41"/>
       <c r="C18" s="42"/>
@@ -5248,15 +5284,15 @@
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="E18" s="71"/>
-      <c r="F18" s="72"/>
-      <c r="G18" s="72"/>
-      <c r="H18" s="72"/>
-      <c r="I18" s="73"/>
+      <c r="E18" s="60"/>
+      <c r="F18" s="61"/>
+      <c r="G18" s="61"/>
+      <c r="H18" s="61"/>
+      <c r="I18" s="62"/>
     </row>
     <row r="19" spans="1:9" s="43" customFormat="1" ht="12">
       <c r="A19" s="40" t="s">
-        <v>70</v>
+        <v>19</v>
       </c>
       <c r="B19" s="41"/>
       <c r="C19" s="42"/>
@@ -5264,15 +5300,15 @@
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="E19" s="71"/>
-      <c r="F19" s="72"/>
-      <c r="G19" s="72"/>
-      <c r="H19" s="72"/>
-      <c r="I19" s="73"/>
+      <c r="E19" s="60"/>
+      <c r="F19" s="61"/>
+      <c r="G19" s="61"/>
+      <c r="H19" s="61"/>
+      <c r="I19" s="62"/>
     </row>
     <row r="20" spans="1:9" s="43" customFormat="1" ht="12">
       <c r="A20" s="40" t="s">
-        <v>71</v>
+        <v>20</v>
       </c>
       <c r="B20" s="41"/>
       <c r="C20" s="42"/>
@@ -5280,15 +5316,15 @@
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="E20" s="71"/>
-      <c r="F20" s="72"/>
-      <c r="G20" s="72"/>
-      <c r="H20" s="72"/>
-      <c r="I20" s="73"/>
+      <c r="E20" s="60"/>
+      <c r="F20" s="61"/>
+      <c r="G20" s="61"/>
+      <c r="H20" s="61"/>
+      <c r="I20" s="62"/>
     </row>
     <row r="21" spans="1:9" s="43" customFormat="1" ht="12">
       <c r="A21" s="40" t="s">
-        <v>72</v>
+        <v>21</v>
       </c>
       <c r="B21" s="41"/>
       <c r="C21" s="42"/>
@@ -5296,15 +5332,15 @@
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="E21" s="71"/>
-      <c r="F21" s="72"/>
-      <c r="G21" s="72"/>
-      <c r="H21" s="72"/>
-      <c r="I21" s="73"/>
+      <c r="E21" s="60"/>
+      <c r="F21" s="61"/>
+      <c r="G21" s="61"/>
+      <c r="H21" s="61"/>
+      <c r="I21" s="62"/>
     </row>
     <row r="22" spans="1:9" s="51" customFormat="1" ht="12">
       <c r="A22" s="48" t="s">
-        <v>73</v>
+        <v>22</v>
       </c>
       <c r="B22" s="49"/>
       <c r="C22" s="50"/>
@@ -5312,15 +5348,15 @@
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="E22" s="77"/>
-      <c r="F22" s="75"/>
-      <c r="G22" s="75"/>
-      <c r="H22" s="75"/>
-      <c r="I22" s="76"/>
+      <c r="E22" s="57"/>
+      <c r="F22" s="58"/>
+      <c r="G22" s="58"/>
+      <c r="H22" s="58"/>
+      <c r="I22" s="59"/>
     </row>
     <row r="23" spans="1:9" s="51" customFormat="1" ht="12">
       <c r="A23" s="48" t="s">
-        <v>74</v>
+        <v>23</v>
       </c>
       <c r="B23" s="49"/>
       <c r="C23" s="50"/>
@@ -5328,15 +5364,15 @@
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="E23" s="77"/>
-      <c r="F23" s="75"/>
-      <c r="G23" s="75"/>
-      <c r="H23" s="75"/>
-      <c r="I23" s="76"/>
+      <c r="E23" s="57"/>
+      <c r="F23" s="58"/>
+      <c r="G23" s="58"/>
+      <c r="H23" s="58"/>
+      <c r="I23" s="59"/>
     </row>
     <row r="24" spans="1:9" s="43" customFormat="1" ht="12">
       <c r="A24" s="40" t="s">
-        <v>75</v>
+        <v>24</v>
       </c>
       <c r="B24" s="41"/>
       <c r="C24" s="42"/>
@@ -5344,15 +5380,15 @@
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="E24" s="71"/>
-      <c r="F24" s="72"/>
-      <c r="G24" s="72"/>
-      <c r="H24" s="72"/>
-      <c r="I24" s="73"/>
+      <c r="E24" s="60"/>
+      <c r="F24" s="61"/>
+      <c r="G24" s="61"/>
+      <c r="H24" s="61"/>
+      <c r="I24" s="62"/>
     </row>
     <row r="25" spans="1:9" s="43" customFormat="1" ht="12">
       <c r="A25" s="40" t="s">
-        <v>76</v>
+        <v>25</v>
       </c>
       <c r="B25" s="41"/>
       <c r="C25" s="42"/>
@@ -5360,15 +5396,15 @@
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="E25" s="71"/>
-      <c r="F25" s="72"/>
-      <c r="G25" s="72"/>
-      <c r="H25" s="72"/>
-      <c r="I25" s="73"/>
+      <c r="E25" s="60"/>
+      <c r="F25" s="61"/>
+      <c r="G25" s="61"/>
+      <c r="H25" s="61"/>
+      <c r="I25" s="62"/>
     </row>
     <row r="26" spans="1:9" s="43" customFormat="1" ht="12">
       <c r="A26" s="40" t="s">
-        <v>77</v>
+        <v>26</v>
       </c>
       <c r="B26" s="41"/>
       <c r="C26" s="42"/>
@@ -5376,15 +5412,15 @@
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="E26" s="71"/>
-      <c r="F26" s="72"/>
-      <c r="G26" s="72"/>
-      <c r="H26" s="72"/>
-      <c r="I26" s="73"/>
+      <c r="E26" s="60"/>
+      <c r="F26" s="61"/>
+      <c r="G26" s="61"/>
+      <c r="H26" s="61"/>
+      <c r="I26" s="62"/>
     </row>
     <row r="27" spans="1:9" s="43" customFormat="1" ht="12">
       <c r="A27" s="40" t="s">
-        <v>78</v>
+        <v>27</v>
       </c>
       <c r="B27" s="41"/>
       <c r="C27" s="42"/>
@@ -5392,15 +5428,15 @@
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="E27" s="71"/>
-      <c r="F27" s="72"/>
-      <c r="G27" s="72"/>
-      <c r="H27" s="72"/>
-      <c r="I27" s="73"/>
+      <c r="E27" s="60"/>
+      <c r="F27" s="61"/>
+      <c r="G27" s="61"/>
+      <c r="H27" s="61"/>
+      <c r="I27" s="62"/>
     </row>
     <row r="28" spans="1:9" s="43" customFormat="1" ht="12">
       <c r="A28" s="40" t="s">
-        <v>79</v>
+        <v>28</v>
       </c>
       <c r="B28" s="41"/>
       <c r="C28" s="42"/>
@@ -5408,15 +5444,15 @@
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="E28" s="71"/>
-      <c r="F28" s="72"/>
-      <c r="G28" s="72"/>
-      <c r="H28" s="72"/>
-      <c r="I28" s="73"/>
+      <c r="E28" s="60"/>
+      <c r="F28" s="61"/>
+      <c r="G28" s="61"/>
+      <c r="H28" s="61"/>
+      <c r="I28" s="62"/>
     </row>
     <row r="29" spans="1:9" s="51" customFormat="1" ht="12">
       <c r="A29" s="48" t="s">
-        <v>80</v>
+        <v>29</v>
       </c>
       <c r="B29" s="49"/>
       <c r="C29" s="50"/>
@@ -5424,15 +5460,15 @@
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="E29" s="77"/>
-      <c r="F29" s="75"/>
-      <c r="G29" s="75"/>
-      <c r="H29" s="75"/>
-      <c r="I29" s="76"/>
+      <c r="E29" s="57"/>
+      <c r="F29" s="58"/>
+      <c r="G29" s="58"/>
+      <c r="H29" s="58"/>
+      <c r="I29" s="59"/>
     </row>
     <row r="30" spans="1:9" s="51" customFormat="1" ht="12">
       <c r="A30" s="48" t="s">
-        <v>81</v>
+        <v>30</v>
       </c>
       <c r="B30" s="49"/>
       <c r="C30" s="50"/>
@@ -5440,15 +5476,15 @@
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="E30" s="77"/>
-      <c r="F30" s="75"/>
-      <c r="G30" s="75"/>
-      <c r="H30" s="75"/>
-      <c r="I30" s="76"/>
+      <c r="E30" s="57"/>
+      <c r="F30" s="58"/>
+      <c r="G30" s="58"/>
+      <c r="H30" s="58"/>
+      <c r="I30" s="59"/>
     </row>
     <row r="31" spans="1:9" s="43" customFormat="1" ht="12">
       <c r="A31" s="40" t="s">
-        <v>82</v>
+        <v>31</v>
       </c>
       <c r="B31" s="41"/>
       <c r="C31" s="42"/>
@@ -5456,15 +5492,15 @@
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="E31" s="71"/>
-      <c r="F31" s="72"/>
-      <c r="G31" s="72"/>
-      <c r="H31" s="72"/>
-      <c r="I31" s="73"/>
+      <c r="E31" s="60"/>
+      <c r="F31" s="61"/>
+      <c r="G31" s="61"/>
+      <c r="H31" s="61"/>
+      <c r="I31" s="62"/>
     </row>
     <row r="32" spans="1:9" s="43" customFormat="1" ht="12">
       <c r="A32" s="40" t="s">
-        <v>83</v>
+        <v>32</v>
       </c>
       <c r="B32" s="41"/>
       <c r="C32" s="42"/>
@@ -5472,15 +5508,15 @@
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="E32" s="71"/>
-      <c r="F32" s="72"/>
-      <c r="G32" s="72"/>
-      <c r="H32" s="72"/>
-      <c r="I32" s="73"/>
+      <c r="E32" s="60"/>
+      <c r="F32" s="61"/>
+      <c r="G32" s="61"/>
+      <c r="H32" s="61"/>
+      <c r="I32" s="62"/>
     </row>
     <row r="33" spans="1:12" s="43" customFormat="1" ht="12">
       <c r="A33" s="40" t="s">
-        <v>0</v>
+        <v>36</v>
       </c>
       <c r="B33" s="41"/>
       <c r="C33" s="42"/>
@@ -5488,15 +5524,15 @@
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="E33" s="71"/>
-      <c r="F33" s="72"/>
-      <c r="G33" s="72"/>
-      <c r="H33" s="72"/>
-      <c r="I33" s="73"/>
+      <c r="E33" s="60"/>
+      <c r="F33" s="61"/>
+      <c r="G33" s="61"/>
+      <c r="H33" s="61"/>
+      <c r="I33" s="62"/>
     </row>
     <row r="34" spans="1:12" s="43" customFormat="1" ht="12">
       <c r="A34" s="40" t="s">
-        <v>1</v>
+        <v>37</v>
       </c>
       <c r="B34" s="41"/>
       <c r="C34" s="42"/>
@@ -5504,15 +5540,15 @@
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="E34" s="71"/>
-      <c r="F34" s="72"/>
-      <c r="G34" s="72"/>
-      <c r="H34" s="72"/>
-      <c r="I34" s="73"/>
+      <c r="E34" s="60"/>
+      <c r="F34" s="61"/>
+      <c r="G34" s="61"/>
+      <c r="H34" s="61"/>
+      <c r="I34" s="62"/>
     </row>
     <row r="35" spans="1:12" s="43" customFormat="1" ht="12">
       <c r="A35" s="40" t="s">
-        <v>2</v>
+        <v>38</v>
       </c>
       <c r="B35" s="41"/>
       <c r="C35" s="42"/>
@@ -5520,15 +5556,15 @@
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="E35" s="71"/>
-      <c r="F35" s="72"/>
-      <c r="G35" s="72"/>
-      <c r="H35" s="72"/>
-      <c r="I35" s="73"/>
+      <c r="E35" s="60"/>
+      <c r="F35" s="61"/>
+      <c r="G35" s="61"/>
+      <c r="H35" s="61"/>
+      <c r="I35" s="62"/>
     </row>
     <row r="36" spans="1:12" s="51" customFormat="1" ht="12">
       <c r="A36" s="48" t="s">
-        <v>3</v>
+        <v>39</v>
       </c>
       <c r="B36" s="49"/>
       <c r="C36" s="50"/>
@@ -5536,15 +5572,15 @@
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="E36" s="77"/>
-      <c r="F36" s="75"/>
-      <c r="G36" s="75"/>
-      <c r="H36" s="75"/>
-      <c r="I36" s="76"/>
+      <c r="E36" s="57"/>
+      <c r="F36" s="58"/>
+      <c r="G36" s="58"/>
+      <c r="H36" s="58"/>
+      <c r="I36" s="59"/>
     </row>
     <row r="37" spans="1:12" s="51" customFormat="1" ht="12">
       <c r="A37" s="48" t="s">
-        <v>4</v>
+        <v>40</v>
       </c>
       <c r="B37" s="49"/>
       <c r="C37" s="50"/>
@@ -5552,15 +5588,15 @@
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="E37" s="77"/>
-      <c r="F37" s="75"/>
-      <c r="G37" s="75"/>
-      <c r="H37" s="75"/>
-      <c r="I37" s="76"/>
+      <c r="E37" s="57"/>
+      <c r="F37" s="58"/>
+      <c r="G37" s="58"/>
+      <c r="H37" s="58"/>
+      <c r="I37" s="59"/>
     </row>
     <row r="38" spans="1:12" s="43" customFormat="1" ht="12">
       <c r="A38" s="40" t="s">
-        <v>5</v>
+        <v>41</v>
       </c>
       <c r="B38" s="41"/>
       <c r="C38" s="42"/>
@@ -5568,15 +5604,15 @@
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="E38" s="71"/>
-      <c r="F38" s="72"/>
-      <c r="G38" s="72"/>
-      <c r="H38" s="72"/>
-      <c r="I38" s="73"/>
+      <c r="E38" s="60"/>
+      <c r="F38" s="61"/>
+      <c r="G38" s="61"/>
+      <c r="H38" s="61"/>
+      <c r="I38" s="62"/>
     </row>
     <row r="39" spans="1:12" s="43" customFormat="1" ht="12">
       <c r="A39" s="40" t="s">
-        <v>6</v>
+        <v>42</v>
       </c>
       <c r="B39" s="41"/>
       <c r="C39" s="42"/>
@@ -5584,15 +5620,15 @@
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="E39" s="71"/>
-      <c r="F39" s="72"/>
-      <c r="G39" s="72"/>
-      <c r="H39" s="72"/>
-      <c r="I39" s="73"/>
+      <c r="E39" s="60"/>
+      <c r="F39" s="61"/>
+      <c r="G39" s="61"/>
+      <c r="H39" s="61"/>
+      <c r="I39" s="62"/>
     </row>
     <row r="40" spans="1:12" s="43" customFormat="1" ht="12">
       <c r="A40" s="40" t="s">
-        <v>7</v>
+        <v>43</v>
       </c>
       <c r="B40" s="41"/>
       <c r="C40" s="42"/>
@@ -5600,15 +5636,15 @@
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="E40" s="71"/>
-      <c r="F40" s="72"/>
-      <c r="G40" s="72"/>
-      <c r="H40" s="72"/>
-      <c r="I40" s="73"/>
+      <c r="E40" s="60"/>
+      <c r="F40" s="61"/>
+      <c r="G40" s="61"/>
+      <c r="H40" s="61"/>
+      <c r="I40" s="62"/>
     </row>
     <row r="41" spans="1:12" s="43" customFormat="1" ht="12">
       <c r="A41" s="40" t="s">
-        <v>8</v>
+        <v>44</v>
       </c>
       <c r="B41" s="41"/>
       <c r="C41" s="42"/>
@@ -5616,15 +5652,15 @@
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="E41" s="71"/>
-      <c r="F41" s="72"/>
-      <c r="G41" s="72"/>
-      <c r="H41" s="72"/>
-      <c r="I41" s="73"/>
+      <c r="E41" s="60"/>
+      <c r="F41" s="61"/>
+      <c r="G41" s="61"/>
+      <c r="H41" s="61"/>
+      <c r="I41" s="62"/>
     </row>
     <row r="42" spans="1:12" s="43" customFormat="1" ht="12">
       <c r="A42" s="40" t="s">
-        <v>9</v>
+        <v>45</v>
       </c>
       <c r="B42" s="41"/>
       <c r="C42" s="42"/>
@@ -5632,15 +5668,15 @@
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="E42" s="71"/>
-      <c r="F42" s="72"/>
-      <c r="G42" s="72"/>
-      <c r="H42" s="72"/>
-      <c r="I42" s="73"/>
+      <c r="E42" s="60"/>
+      <c r="F42" s="61"/>
+      <c r="G42" s="61"/>
+      <c r="H42" s="61"/>
+      <c r="I42" s="62"/>
     </row>
     <row r="43" spans="1:12" s="51" customFormat="1" ht="12">
       <c r="A43" s="48" t="s">
-        <v>10</v>
+        <v>46</v>
       </c>
       <c r="B43" s="49"/>
       <c r="C43" s="50"/>
@@ -5648,15 +5684,15 @@
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="E43" s="77"/>
-      <c r="F43" s="75"/>
-      <c r="G43" s="75"/>
-      <c r="H43" s="75"/>
-      <c r="I43" s="76"/>
+      <c r="E43" s="57"/>
+      <c r="F43" s="58"/>
+      <c r="G43" s="58"/>
+      <c r="H43" s="58"/>
+      <c r="I43" s="59"/>
     </row>
     <row r="44" spans="1:12" s="51" customFormat="1" ht="12">
       <c r="A44" s="48" t="s">
-        <v>11</v>
+        <v>47</v>
       </c>
       <c r="B44" s="49"/>
       <c r="C44" s="50"/>
@@ -5664,15 +5700,15 @@
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="E44" s="77"/>
-      <c r="F44" s="75"/>
-      <c r="G44" s="75"/>
-      <c r="H44" s="75"/>
-      <c r="I44" s="76"/>
+      <c r="E44" s="57"/>
+      <c r="F44" s="58"/>
+      <c r="G44" s="58"/>
+      <c r="H44" s="58"/>
+      <c r="I44" s="59"/>
     </row>
     <row r="45" spans="1:12" s="39" customFormat="1" ht="12">
       <c r="A45" s="36" t="s">
-        <v>12</v>
+        <v>48</v>
       </c>
       <c r="B45" s="37"/>
       <c r="C45" s="38"/>
@@ -5688,7 +5724,7 @@
     </row>
     <row r="46" spans="1:12" s="39" customFormat="1" ht="12">
       <c r="A46" s="36" t="s">
-        <v>28</v>
+        <v>64</v>
       </c>
       <c r="B46" s="37"/>
       <c r="C46" s="38"/>
@@ -5732,6 +5768,44 @@
     </row>
   </sheetData>
   <mergeCells count="51">
+    <mergeCell ref="A1:I1"/>
+    <mergeCell ref="A2:I2"/>
+    <mergeCell ref="A3:H3"/>
+    <mergeCell ref="A4:I4"/>
+    <mergeCell ref="A5:C5"/>
+    <mergeCell ref="D5:H5"/>
+    <mergeCell ref="A6:I6"/>
+    <mergeCell ref="A7:C7"/>
+    <mergeCell ref="D7:H7"/>
+    <mergeCell ref="A8:I8"/>
+    <mergeCell ref="A9:C9"/>
+    <mergeCell ref="D9:H9"/>
+    <mergeCell ref="A10:I10"/>
+    <mergeCell ref="A13:A15"/>
+    <mergeCell ref="B13:I13"/>
+    <mergeCell ref="B14:C14"/>
+    <mergeCell ref="D14:D15"/>
+    <mergeCell ref="E14:I15"/>
+    <mergeCell ref="E16:I16"/>
+    <mergeCell ref="E17:I17"/>
+    <mergeCell ref="E18:I18"/>
+    <mergeCell ref="E19:I19"/>
+    <mergeCell ref="E20:I20"/>
+    <mergeCell ref="E21:I21"/>
+    <mergeCell ref="E22:I22"/>
+    <mergeCell ref="E23:I23"/>
+    <mergeCell ref="E24:I24"/>
+    <mergeCell ref="E25:I25"/>
+    <mergeCell ref="E26:I26"/>
+    <mergeCell ref="E27:I27"/>
+    <mergeCell ref="E28:I28"/>
+    <mergeCell ref="E29:I29"/>
+    <mergeCell ref="E30:I30"/>
+    <mergeCell ref="E31:I31"/>
+    <mergeCell ref="E32:I32"/>
+    <mergeCell ref="E33:I33"/>
+    <mergeCell ref="E34:I34"/>
+    <mergeCell ref="E35:I35"/>
     <mergeCell ref="E36:I36"/>
     <mergeCell ref="E37:I37"/>
     <mergeCell ref="E38:I38"/>
@@ -5745,44 +5819,6 @@
     <mergeCell ref="E44:I44"/>
     <mergeCell ref="E46:I46"/>
     <mergeCell ref="E45:I45"/>
-    <mergeCell ref="E31:I31"/>
-    <mergeCell ref="E32:I32"/>
-    <mergeCell ref="E33:I33"/>
-    <mergeCell ref="E34:I34"/>
-    <mergeCell ref="E35:I35"/>
-    <mergeCell ref="E26:I26"/>
-    <mergeCell ref="E27:I27"/>
-    <mergeCell ref="E28:I28"/>
-    <mergeCell ref="E29:I29"/>
-    <mergeCell ref="E30:I30"/>
-    <mergeCell ref="E21:I21"/>
-    <mergeCell ref="E22:I22"/>
-    <mergeCell ref="E23:I23"/>
-    <mergeCell ref="E24:I24"/>
-    <mergeCell ref="E25:I25"/>
-    <mergeCell ref="E16:I16"/>
-    <mergeCell ref="E17:I17"/>
-    <mergeCell ref="E18:I18"/>
-    <mergeCell ref="E19:I19"/>
-    <mergeCell ref="E20:I20"/>
-    <mergeCell ref="A10:I10"/>
-    <mergeCell ref="A13:A15"/>
-    <mergeCell ref="B13:I13"/>
-    <mergeCell ref="B14:C14"/>
-    <mergeCell ref="D14:D15"/>
-    <mergeCell ref="E14:I15"/>
-    <mergeCell ref="A6:I6"/>
-    <mergeCell ref="A7:C7"/>
-    <mergeCell ref="D7:H7"/>
-    <mergeCell ref="A8:I8"/>
-    <mergeCell ref="A9:C9"/>
-    <mergeCell ref="D9:H9"/>
-    <mergeCell ref="A1:I1"/>
-    <mergeCell ref="A2:I2"/>
-    <mergeCell ref="A3:H3"/>
-    <mergeCell ref="A4:I4"/>
-    <mergeCell ref="A5:C5"/>
-    <mergeCell ref="D5:H5"/>
   </mergeCells>
   <phoneticPr fontId="32" type="noConversion"/>
   <printOptions horizontalCentered="1"/>

--- a/TimeSheetTemplate.xlsx
+++ b/TimeSheetTemplate.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4505"/>
   <workbookPr showInkAnnotation="0" codeName="ThisWorkbook" autoCompressPictures="0"/>
   <bookViews>
-    <workbookView xWindow="-20" yWindow="-20" windowWidth="21520" windowHeight="14720" tabRatio="893" activeTab="1"/>
+    <workbookView xWindow="-20" yWindow="-20" windowWidth="21520" windowHeight="14720" tabRatio="893" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="October" sheetId="7" r:id="rId1"/>
@@ -36,7 +36,95 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="209" uniqueCount="87">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="214" uniqueCount="92">
+  <si>
+    <t>Query tile's XML files and ability to find a tile's center point from the ESA KML file</t>
+    <phoneticPr fontId="32" type="noConversion"/>
+  </si>
+  <si>
+    <t>Windows 10 (Solved!), complete clean install, upload to git, merge script versions</t>
+    <phoneticPr fontId="32" type="noConversion"/>
+  </si>
+  <si>
+    <t>Meeting with Dirk and Martin</t>
+    <phoneticPr fontId="32" type="noConversion"/>
+  </si>
+  <si>
+    <t>Read Articles from Dirk</t>
+    <phoneticPr fontId="32" type="noConversion"/>
+  </si>
+  <si>
+    <t>Adjust Download script to SciHub and new size structure</t>
+    <phoneticPr fontId="32" type="noConversion"/>
+  </si>
+  <si>
+    <t>Read slides from previous week</t>
+    <phoneticPr fontId="32" type="noConversion"/>
+  </si>
+  <si>
+    <t>Set up timesheet</t>
+    <phoneticPr fontId="32" type="noConversion"/>
+  </si>
+  <si>
+    <t>Meeting with I3 Professors and editing abstract, incl. travel time</t>
+    <phoneticPr fontId="32" type="noConversion"/>
+  </si>
+  <si>
+    <t>Troubleshoot Windows 10 crash (5 hours personal time)</t>
+    <phoneticPr fontId="32" type="noConversion"/>
+  </si>
+  <si>
+    <t>Plan out Pecha Kucha Slides</t>
+    <phoneticPr fontId="32" type="noConversion"/>
+  </si>
+  <si>
+    <t>Work on download script issues</t>
+    <phoneticPr fontId="32" type="noConversion"/>
+  </si>
+  <si>
+    <t>I3 class and update meeting</t>
+    <phoneticPr fontId="32" type="noConversion"/>
+  </si>
+  <si>
+    <t>Python docs -- brainstorming solutions for all scripts</t>
+    <phoneticPr fontId="32" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">Monthly timesheet for MSc Geoinformatics IP </t>
+    <phoneticPr fontId="32" type="noConversion"/>
+  </si>
+  <si>
+    <t>Set up Landsat image transfer (~70 images) for possible use case with Martin inc</t>
+    <phoneticPr fontId="32" type="noConversion"/>
+  </si>
+  <si>
+    <t>Project Management class, part II</t>
+    <phoneticPr fontId="32" type="noConversion"/>
+  </si>
+  <si>
+    <t>Work on first draft of Risk Matrix, Gantt and PERT Charts in ProjectLibre</t>
+    <phoneticPr fontId="32" type="noConversion"/>
+  </si>
+  <si>
+    <t>Deal with GDAL problem in Windows -- still unresolved; work on conversion script</t>
+    <phoneticPr fontId="32" type="noConversion"/>
+  </si>
+  <si>
+    <t>Finish first draft of conversion script -- send to Tiede and Sudmanns for review</t>
+    <phoneticPr fontId="32" type="noConversion"/>
+  </si>
+  <si>
+    <t>Fixed a few issues with the download script (cloud cover percentage, kml)</t>
+    <phoneticPr fontId="32" type="noConversion"/>
+  </si>
+  <si>
+    <t>Get familiar with numpy, gdal and scipy</t>
+    <phoneticPr fontId="32" type="noConversion"/>
+  </si>
+  <si>
+    <t>Learn to manipulate rasters as arrays with numpy, gdal and scipy.</t>
+    <phoneticPr fontId="32" type="noConversion"/>
+  </si>
   <si>
     <t>Learn Git, create GitHub repository, including excel documents</t>
     <phoneticPr fontId="32" type="noConversion"/>
@@ -279,74 +367,6 @@
   </si>
   <si>
     <t>Create Pecha Kucha Presentation Outline</t>
-    <phoneticPr fontId="32" type="noConversion"/>
-  </si>
-  <si>
-    <t>Query tile's XML files and ability to find a tile's center point from the ESA KML file</t>
-    <phoneticPr fontId="32" type="noConversion"/>
-  </si>
-  <si>
-    <t>Windows 10 (Solved!), complete clean install, upload to git, merge script versions</t>
-    <phoneticPr fontId="32" type="noConversion"/>
-  </si>
-  <si>
-    <t>Meeting with Dirk and Martin</t>
-    <phoneticPr fontId="32" type="noConversion"/>
-  </si>
-  <si>
-    <t>Read Articles from Dirk</t>
-    <phoneticPr fontId="32" type="noConversion"/>
-  </si>
-  <si>
-    <t>Adjust Download script to SciHub and new size structure</t>
-    <phoneticPr fontId="32" type="noConversion"/>
-  </si>
-  <si>
-    <t>Read slides from previous week</t>
-    <phoneticPr fontId="32" type="noConversion"/>
-  </si>
-  <si>
-    <t>Set up timesheet</t>
-    <phoneticPr fontId="32" type="noConversion"/>
-  </si>
-  <si>
-    <t>Meeting with I3 Professors and editing abstract, incl. travel time</t>
-    <phoneticPr fontId="32" type="noConversion"/>
-  </si>
-  <si>
-    <t>Troubleshoot Windows 10 crash (5 hours personal time)</t>
-    <phoneticPr fontId="32" type="noConversion"/>
-  </si>
-  <si>
-    <t>Plan out Pecha Kucha Slides</t>
-    <phoneticPr fontId="32" type="noConversion"/>
-  </si>
-  <si>
-    <t>Work on download script issues</t>
-    <phoneticPr fontId="32" type="noConversion"/>
-  </si>
-  <si>
-    <t>I3 class and update meeting</t>
-    <phoneticPr fontId="32" type="noConversion"/>
-  </si>
-  <si>
-    <t>Python docs -- brainstorming solutions for all scripts</t>
-    <phoneticPr fontId="32" type="noConversion"/>
-  </si>
-  <si>
-    <t xml:space="preserve">Monthly timesheet for MSc Geoinformatics IP </t>
-    <phoneticPr fontId="32" type="noConversion"/>
-  </si>
-  <si>
-    <t>Set up Landsat image transfer (~70 images) for possible use case with Martin inc</t>
-    <phoneticPr fontId="32" type="noConversion"/>
-  </si>
-  <si>
-    <t>Project Management class, part II</t>
-    <phoneticPr fontId="32" type="noConversion"/>
-  </si>
-  <si>
-    <t>Work on first draft of Risk Matrix, Gantt and PERT Charts in ProjectLibre</t>
     <phoneticPr fontId="32" type="noConversion"/>
   </si>
 </sst>
@@ -1258,7 +1278,58 @@
     <xf numFmtId="166" fontId="0" fillId="0" borderId="20" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="166" fontId="0" fillId="0" borderId="11" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="166" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="24" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="24" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="25" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="26" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="4" borderId="24" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="25" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -1267,26 +1338,7 @@
     <xf numFmtId="0" fontId="0" fillId="4" borderId="26" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="24" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="25" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="26" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1"/>
-    </xf>
-    <xf numFmtId="167" fontId="10" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="167" fontId="10" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="167" fontId="11" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="167" fontId="11" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="5" fillId="4" borderId="24" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="24" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="10" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -1335,48 +1387,16 @@
     <xf numFmtId="0" fontId="10" fillId="0" borderId="23" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="167" fontId="10" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1"/>
-    </xf>
+    <xf numFmtId="167" fontId="10" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="167" fontId="11" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="167" fontId="11" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="167" fontId="11" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -1860,17 +1880,17 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:50" s="7" customFormat="1" ht="18" thickBot="1">
-      <c r="A1" s="84" t="s">
-        <v>83</v>
-      </c>
-      <c r="B1" s="84"/>
-      <c r="C1" s="84"/>
-      <c r="D1" s="84"/>
-      <c r="E1" s="84"/>
-      <c r="F1" s="84"/>
-      <c r="G1" s="84"/>
-      <c r="H1" s="84"/>
-      <c r="I1" s="84"/>
+      <c r="A1" s="66" t="s">
+        <v>13</v>
+      </c>
+      <c r="B1" s="66"/>
+      <c r="C1" s="66"/>
+      <c r="D1" s="66"/>
+      <c r="E1" s="66"/>
+      <c r="F1" s="66"/>
+      <c r="G1" s="66"/>
+      <c r="H1" s="66"/>
+      <c r="I1" s="66"/>
       <c r="J1" s="8"/>
       <c r="K1" s="8"/>
       <c r="L1" s="8"/>
@@ -1913,15 +1933,15 @@
       <c r="AW1" s="8"/>
     </row>
     <row r="2" spans="1:50" s="1" customFormat="1" ht="7.5" customHeight="1">
-      <c r="A2" s="85"/>
-      <c r="B2" s="85"/>
-      <c r="C2" s="85"/>
-      <c r="D2" s="85"/>
-      <c r="E2" s="85"/>
-      <c r="F2" s="85"/>
-      <c r="G2" s="85"/>
-      <c r="H2" s="85"/>
-      <c r="I2" s="85"/>
+      <c r="A2" s="67"/>
+      <c r="B2" s="67"/>
+      <c r="C2" s="67"/>
+      <c r="D2" s="67"/>
+      <c r="E2" s="67"/>
+      <c r="F2" s="67"/>
+      <c r="G2" s="67"/>
+      <c r="H2" s="67"/>
+      <c r="I2" s="67"/>
       <c r="J2" s="9"/>
       <c r="K2" s="9"/>
       <c r="L2" s="9"/>
@@ -1964,16 +1984,16 @@
       <c r="AW2" s="9"/>
     </row>
     <row r="3" spans="1:50" s="11" customFormat="1" ht="13.5" customHeight="1">
-      <c r="A3" s="86" t="s">
-        <v>56</v>
-      </c>
-      <c r="B3" s="86"/>
-      <c r="C3" s="86"/>
-      <c r="D3" s="86"/>
-      <c r="E3" s="86"/>
-      <c r="F3" s="86"/>
-      <c r="G3" s="86"/>
-      <c r="H3" s="86"/>
+      <c r="A3" s="68" t="s">
+        <v>78</v>
+      </c>
+      <c r="B3" s="68"/>
+      <c r="C3" s="68"/>
+      <c r="D3" s="68"/>
+      <c r="E3" s="68"/>
+      <c r="F3" s="68"/>
+      <c r="G3" s="68"/>
+      <c r="H3" s="68"/>
       <c r="I3" s="23"/>
       <c r="J3" s="22"/>
       <c r="K3" s="22"/>
@@ -2018,29 +2038,29 @@
       <c r="AX3" s="10"/>
     </row>
     <row r="4" spans="1:50" s="6" customFormat="1" ht="9" customHeight="1">
-      <c r="A4" s="87"/>
-      <c r="B4" s="87"/>
-      <c r="C4" s="87"/>
-      <c r="D4" s="87"/>
-      <c r="E4" s="87"/>
-      <c r="F4" s="87"/>
-      <c r="G4" s="87"/>
-      <c r="H4" s="87"/>
-      <c r="I4" s="87"/>
+      <c r="A4" s="69"/>
+      <c r="B4" s="69"/>
+      <c r="C4" s="69"/>
+      <c r="D4" s="69"/>
+      <c r="E4" s="69"/>
+      <c r="F4" s="69"/>
+      <c r="G4" s="69"/>
+      <c r="H4" s="69"/>
+      <c r="I4" s="69"/>
     </row>
     <row r="5" spans="1:50" s="1" customFormat="1" ht="13.75" customHeight="1">
-      <c r="A5" s="94" t="s">
-        <v>53</v>
-      </c>
-      <c r="B5" s="95"/>
-      <c r="C5" s="95"/>
-      <c r="D5" s="90" t="s">
-        <v>59</v>
-      </c>
-      <c r="E5" s="91"/>
-      <c r="F5" s="91"/>
-      <c r="G5" s="91"/>
-      <c r="H5" s="92"/>
+      <c r="A5" s="62" t="s">
+        <v>75</v>
+      </c>
+      <c r="B5" s="63"/>
+      <c r="C5" s="63"/>
+      <c r="D5" s="58" t="s">
+        <v>81</v>
+      </c>
+      <c r="E5" s="59"/>
+      <c r="F5" s="59"/>
+      <c r="G5" s="59"/>
+      <c r="H5" s="60"/>
       <c r="I5" s="23"/>
       <c r="J5" s="9"/>
       <c r="K5" s="9"/>
@@ -2048,77 +2068,77 @@
       <c r="M5" s="9"/>
     </row>
     <row r="6" spans="1:50" s="1" customFormat="1" ht="7.5" customHeight="1">
-      <c r="A6" s="96"/>
-      <c r="B6" s="96"/>
-      <c r="C6" s="96"/>
-      <c r="D6" s="96"/>
-      <c r="E6" s="96"/>
-      <c r="F6" s="96"/>
-      <c r="G6" s="96"/>
-      <c r="H6" s="96"/>
-      <c r="I6" s="96"/>
+      <c r="A6" s="64"/>
+      <c r="B6" s="64"/>
+      <c r="C6" s="64"/>
+      <c r="D6" s="64"/>
+      <c r="E6" s="64"/>
+      <c r="F6" s="64"/>
+      <c r="G6" s="64"/>
+      <c r="H6" s="64"/>
+      <c r="I6" s="64"/>
     </row>
     <row r="7" spans="1:50" s="1" customFormat="1" ht="13.75" customHeight="1">
-      <c r="A7" s="89" t="s">
-        <v>57</v>
-      </c>
-      <c r="B7" s="89"/>
-      <c r="C7" s="89"/>
-      <c r="D7" s="97" t="s">
-        <v>60</v>
-      </c>
-      <c r="E7" s="97"/>
-      <c r="F7" s="97"/>
-      <c r="G7" s="97"/>
-      <c r="H7" s="97"/>
+      <c r="A7" s="57" t="s">
+        <v>79</v>
+      </c>
+      <c r="B7" s="57"/>
+      <c r="C7" s="57"/>
+      <c r="D7" s="65" t="s">
+        <v>82</v>
+      </c>
+      <c r="E7" s="65"/>
+      <c r="F7" s="65"/>
+      <c r="G7" s="65"/>
+      <c r="H7" s="65"/>
       <c r="I7" s="24"/>
     </row>
     <row r="8" spans="1:50" s="1" customFormat="1" ht="7.5" customHeight="1">
-      <c r="A8" s="88"/>
-      <c r="B8" s="88"/>
-      <c r="C8" s="88"/>
-      <c r="D8" s="88"/>
-      <c r="E8" s="88"/>
-      <c r="F8" s="88"/>
-      <c r="G8" s="88"/>
-      <c r="H8" s="88"/>
-      <c r="I8" s="88"/>
+      <c r="A8" s="70"/>
+      <c r="B8" s="70"/>
+      <c r="C8" s="70"/>
+      <c r="D8" s="70"/>
+      <c r="E8" s="70"/>
+      <c r="F8" s="70"/>
+      <c r="G8" s="70"/>
+      <c r="H8" s="70"/>
+      <c r="I8" s="70"/>
     </row>
     <row r="9" spans="1:50" s="1" customFormat="1" ht="13.75" customHeight="1">
-      <c r="A9" s="89" t="s">
-        <v>58</v>
-      </c>
-      <c r="B9" s="89"/>
-      <c r="C9" s="89"/>
-      <c r="D9" s="90" t="s">
-        <v>61</v>
-      </c>
-      <c r="E9" s="91"/>
-      <c r="F9" s="91"/>
-      <c r="G9" s="91"/>
-      <c r="H9" s="92"/>
+      <c r="A9" s="57" t="s">
+        <v>80</v>
+      </c>
+      <c r="B9" s="57"/>
+      <c r="C9" s="57"/>
+      <c r="D9" s="58" t="s">
+        <v>83</v>
+      </c>
+      <c r="E9" s="59"/>
+      <c r="F9" s="59"/>
+      <c r="G9" s="59"/>
+      <c r="H9" s="60"/>
       <c r="I9" s="24"/>
       <c r="J9" s="15"/>
     </row>
     <row r="10" spans="1:50" s="1" customFormat="1" ht="7.5" customHeight="1">
-      <c r="A10" s="93"/>
-      <c r="B10" s="93"/>
-      <c r="C10" s="93"/>
-      <c r="D10" s="93"/>
-      <c r="E10" s="93"/>
-      <c r="F10" s="93"/>
-      <c r="G10" s="93"/>
-      <c r="H10" s="93"/>
-      <c r="I10" s="93"/>
+      <c r="A10" s="61"/>
+      <c r="B10" s="61"/>
+      <c r="C10" s="61"/>
+      <c r="D10" s="61"/>
+      <c r="E10" s="61"/>
+      <c r="F10" s="61"/>
+      <c r="G10" s="61"/>
+      <c r="H10" s="61"/>
+      <c r="I10" s="61"/>
     </row>
     <row r="11" spans="1:50" s="1" customFormat="1" ht="12">
       <c r="A11" s="21" t="s">
-        <v>54</v>
+        <v>76</v>
       </c>
       <c r="B11" s="21"/>
       <c r="C11" s="21"/>
       <c r="D11" s="21" t="s">
-        <v>62</v>
+        <v>84</v>
       </c>
       <c r="E11" s="21"/>
       <c r="F11" s="21"/>
@@ -2138,55 +2158,55 @@
       <c r="I12" s="26"/>
     </row>
     <row r="13" spans="1:50" s="2" customFormat="1" ht="15.5" customHeight="1">
-      <c r="A13" s="68" t="s">
-        <v>11</v>
-      </c>
-      <c r="B13" s="71" t="s">
-        <v>50</v>
-      </c>
-      <c r="C13" s="72"/>
-      <c r="D13" s="72"/>
-      <c r="E13" s="72"/>
-      <c r="F13" s="72"/>
-      <c r="G13" s="72"/>
-      <c r="H13" s="72"/>
-      <c r="I13" s="73"/>
+      <c r="A13" s="78" t="s">
+        <v>33</v>
+      </c>
+      <c r="B13" s="81" t="s">
+        <v>72</v>
+      </c>
+      <c r="C13" s="82"/>
+      <c r="D13" s="82"/>
+      <c r="E13" s="82"/>
+      <c r="F13" s="82"/>
+      <c r="G13" s="82"/>
+      <c r="H13" s="82"/>
+      <c r="I13" s="83"/>
     </row>
     <row r="14" spans="1:50" s="2" customFormat="1" ht="13.75" customHeight="1">
-      <c r="A14" s="69"/>
-      <c r="B14" s="74" t="s">
-        <v>12</v>
-      </c>
-      <c r="C14" s="75"/>
-      <c r="D14" s="76" t="s">
-        <v>13</v>
-      </c>
-      <c r="E14" s="78" t="s">
-        <v>51</v>
-      </c>
-      <c r="F14" s="79"/>
-      <c r="G14" s="79"/>
-      <c r="H14" s="79"/>
-      <c r="I14" s="80"/>
+      <c r="A14" s="79"/>
+      <c r="B14" s="84" t="s">
+        <v>34</v>
+      </c>
+      <c r="C14" s="85"/>
+      <c r="D14" s="86" t="s">
+        <v>35</v>
+      </c>
+      <c r="E14" s="88" t="s">
+        <v>73</v>
+      </c>
+      <c r="F14" s="89"/>
+      <c r="G14" s="89"/>
+      <c r="H14" s="89"/>
+      <c r="I14" s="90"/>
     </row>
     <row r="15" spans="1:50" ht="13" customHeight="1">
-      <c r="A15" s="70"/>
+      <c r="A15" s="80"/>
       <c r="B15" s="32" t="s">
-        <v>14</v>
+        <v>36</v>
       </c>
       <c r="C15" s="33" t="s">
-        <v>15</v>
-      </c>
-      <c r="D15" s="77"/>
-      <c r="E15" s="81"/>
-      <c r="F15" s="82"/>
-      <c r="G15" s="82"/>
-      <c r="H15" s="82"/>
-      <c r="I15" s="83"/>
+        <v>37</v>
+      </c>
+      <c r="D15" s="87"/>
+      <c r="E15" s="91"/>
+      <c r="F15" s="92"/>
+      <c r="G15" s="92"/>
+      <c r="H15" s="92"/>
+      <c r="I15" s="93"/>
     </row>
     <row r="16" spans="1:50" s="51" customFormat="1" ht="12">
       <c r="A16" s="48" t="s">
-        <v>16</v>
+        <v>38</v>
       </c>
       <c r="B16" s="49">
         <v>0.33333333333333331</v>
@@ -2198,17 +2218,17 @@
         <f>C16-B16</f>
         <v>0.20833333333333331</v>
       </c>
-      <c r="E16" s="67" t="s">
-        <v>63</v>
-      </c>
-      <c r="F16" s="58"/>
-      <c r="G16" s="58"/>
-      <c r="H16" s="58"/>
-      <c r="I16" s="59"/>
+      <c r="E16" s="74" t="s">
+        <v>85</v>
+      </c>
+      <c r="F16" s="75"/>
+      <c r="G16" s="75"/>
+      <c r="H16" s="75"/>
+      <c r="I16" s="76"/>
     </row>
     <row r="17" spans="1:9" s="51" customFormat="1" ht="12">
       <c r="A17" s="48" t="s">
-        <v>17</v>
+        <v>39</v>
       </c>
       <c r="B17" s="49"/>
       <c r="C17" s="50"/>
@@ -2216,15 +2236,15 @@
         <f t="shared" ref="D17:D49" si="0">C17-B17</f>
         <v>0</v>
       </c>
-      <c r="E17" s="57"/>
-      <c r="F17" s="58"/>
-      <c r="G17" s="58"/>
-      <c r="H17" s="58"/>
-      <c r="I17" s="59"/>
+      <c r="E17" s="77"/>
+      <c r="F17" s="75"/>
+      <c r="G17" s="75"/>
+      <c r="H17" s="75"/>
+      <c r="I17" s="76"/>
     </row>
     <row r="18" spans="1:9" s="43" customFormat="1" ht="12">
       <c r="A18" s="40" t="s">
-        <v>18</v>
+        <v>40</v>
       </c>
       <c r="B18" s="41"/>
       <c r="C18" s="42"/>
@@ -2232,15 +2252,15 @@
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="E18" s="60"/>
-      <c r="F18" s="61"/>
-      <c r="G18" s="61"/>
-      <c r="H18" s="61"/>
-      <c r="I18" s="62"/>
+      <c r="E18" s="71"/>
+      <c r="F18" s="72"/>
+      <c r="G18" s="72"/>
+      <c r="H18" s="72"/>
+      <c r="I18" s="73"/>
     </row>
     <row r="19" spans="1:9" s="43" customFormat="1" ht="12">
       <c r="A19" s="40" t="s">
-        <v>19</v>
+        <v>41</v>
       </c>
       <c r="B19" s="41">
         <v>0.66666666666666663</v>
@@ -2252,17 +2272,17 @@
         <f t="shared" si="0"/>
         <v>4.1666666666666741E-2</v>
       </c>
-      <c r="E19" s="60" t="s">
-        <v>65</v>
-      </c>
-      <c r="F19" s="61"/>
-      <c r="G19" s="61"/>
-      <c r="H19" s="61"/>
-      <c r="I19" s="62"/>
+      <c r="E19" s="71" t="s">
+        <v>87</v>
+      </c>
+      <c r="F19" s="72"/>
+      <c r="G19" s="72"/>
+      <c r="H19" s="72"/>
+      <c r="I19" s="73"/>
     </row>
     <row r="20" spans="1:9" s="43" customFormat="1" ht="12">
       <c r="A20" s="40" t="s">
-        <v>20</v>
+        <v>42</v>
       </c>
       <c r="B20" s="41"/>
       <c r="C20" s="42"/>
@@ -2270,15 +2290,15 @@
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="E20" s="60"/>
-      <c r="F20" s="61"/>
-      <c r="G20" s="61"/>
-      <c r="H20" s="61"/>
-      <c r="I20" s="62"/>
+      <c r="E20" s="71"/>
+      <c r="F20" s="72"/>
+      <c r="G20" s="72"/>
+      <c r="H20" s="72"/>
+      <c r="I20" s="73"/>
     </row>
     <row r="21" spans="1:9" s="43" customFormat="1" ht="12">
       <c r="A21" s="40" t="s">
-        <v>21</v>
+        <v>43</v>
       </c>
       <c r="B21" s="41"/>
       <c r="C21" s="42"/>
@@ -2286,15 +2306,15 @@
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="E21" s="60"/>
-      <c r="F21" s="61"/>
-      <c r="G21" s="61"/>
-      <c r="H21" s="61"/>
-      <c r="I21" s="62"/>
+      <c r="E21" s="71"/>
+      <c r="F21" s="72"/>
+      <c r="G21" s="72"/>
+      <c r="H21" s="72"/>
+      <c r="I21" s="73"/>
     </row>
     <row r="22" spans="1:9" s="43" customFormat="1" ht="12">
       <c r="A22" s="40" t="s">
-        <v>22</v>
+        <v>44</v>
       </c>
       <c r="B22" s="41"/>
       <c r="C22" s="42"/>
@@ -2302,15 +2322,15 @@
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="E22" s="60"/>
-      <c r="F22" s="61"/>
-      <c r="G22" s="61"/>
-      <c r="H22" s="61"/>
-      <c r="I22" s="62"/>
+      <c r="E22" s="71"/>
+      <c r="F22" s="72"/>
+      <c r="G22" s="72"/>
+      <c r="H22" s="72"/>
+      <c r="I22" s="73"/>
     </row>
     <row r="23" spans="1:9" s="51" customFormat="1" ht="12">
       <c r="A23" s="48" t="s">
-        <v>23</v>
+        <v>45</v>
       </c>
       <c r="B23" s="49"/>
       <c r="C23" s="50"/>
@@ -2318,15 +2338,15 @@
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="E23" s="57"/>
-      <c r="F23" s="58"/>
-      <c r="G23" s="58"/>
-      <c r="H23" s="58"/>
-      <c r="I23" s="59"/>
+      <c r="E23" s="77"/>
+      <c r="F23" s="75"/>
+      <c r="G23" s="75"/>
+      <c r="H23" s="75"/>
+      <c r="I23" s="76"/>
     </row>
     <row r="24" spans="1:9" s="51" customFormat="1" ht="12">
       <c r="A24" s="48" t="s">
-        <v>24</v>
+        <v>46</v>
       </c>
       <c r="B24" s="49">
         <v>0.5</v>
@@ -2338,17 +2358,17 @@
         <f t="shared" si="0"/>
         <v>8.333333333333337E-2</v>
       </c>
-      <c r="E24" s="57" t="s">
-        <v>73</v>
-      </c>
-      <c r="F24" s="58"/>
-      <c r="G24" s="58"/>
-      <c r="H24" s="58"/>
-      <c r="I24" s="59"/>
+      <c r="E24" s="77" t="s">
+        <v>3</v>
+      </c>
+      <c r="F24" s="75"/>
+      <c r="G24" s="75"/>
+      <c r="H24" s="75"/>
+      <c r="I24" s="76"/>
     </row>
     <row r="25" spans="1:9" s="43" customFormat="1" ht="12">
       <c r="A25" s="40" t="s">
-        <v>25</v>
+        <v>47</v>
       </c>
       <c r="B25" s="41">
         <v>0.625</v>
@@ -2360,17 +2380,17 @@
         <f t="shared" si="0"/>
         <v>0.16666666666666663</v>
       </c>
-      <c r="E25" s="60" t="s">
-        <v>72</v>
-      </c>
-      <c r="F25" s="61"/>
-      <c r="G25" s="61"/>
-      <c r="H25" s="61"/>
-      <c r="I25" s="62"/>
+      <c r="E25" s="71" t="s">
+        <v>2</v>
+      </c>
+      <c r="F25" s="72"/>
+      <c r="G25" s="72"/>
+      <c r="H25" s="72"/>
+      <c r="I25" s="73"/>
     </row>
     <row r="26" spans="1:9" s="43" customFormat="1" ht="12">
       <c r="A26" s="40" t="s">
-        <v>26</v>
+        <v>48</v>
       </c>
       <c r="B26" s="41">
         <v>0.375</v>
@@ -2382,13 +2402,13 @@
         <f>C26-B26</f>
         <v>0.125</v>
       </c>
-      <c r="E26" s="60" t="s">
-        <v>84</v>
-      </c>
-      <c r="F26" s="61"/>
-      <c r="G26" s="61"/>
-      <c r="H26" s="61"/>
-      <c r="I26" s="62"/>
+      <c r="E26" s="71" t="s">
+        <v>14</v>
+      </c>
+      <c r="F26" s="72"/>
+      <c r="G26" s="72"/>
+      <c r="H26" s="72"/>
+      <c r="I26" s="73"/>
     </row>
     <row r="27" spans="1:9" s="43" customFormat="1" ht="12">
       <c r="A27" s="40"/>
@@ -2402,17 +2422,17 @@
         <f t="shared" si="0"/>
         <v>8.333333333333337E-2</v>
       </c>
-      <c r="E27" s="60" t="s">
-        <v>77</v>
-      </c>
-      <c r="F27" s="61"/>
-      <c r="G27" s="61"/>
-      <c r="H27" s="61"/>
-      <c r="I27" s="62"/>
+      <c r="E27" s="71" t="s">
+        <v>7</v>
+      </c>
+      <c r="F27" s="72"/>
+      <c r="G27" s="72"/>
+      <c r="H27" s="72"/>
+      <c r="I27" s="73"/>
     </row>
     <row r="28" spans="1:9" s="43" customFormat="1" ht="12">
       <c r="A28" s="40" t="s">
-        <v>27</v>
+        <v>49</v>
       </c>
       <c r="B28" s="41">
         <v>0.83333333333333337</v>
@@ -2424,17 +2444,17 @@
         <f t="shared" si="0"/>
         <v>0.125</v>
       </c>
-      <c r="E28" s="60" t="s">
-        <v>74</v>
-      </c>
-      <c r="F28" s="61"/>
-      <c r="G28" s="61"/>
-      <c r="H28" s="61"/>
-      <c r="I28" s="62"/>
+      <c r="E28" s="71" t="s">
+        <v>4</v>
+      </c>
+      <c r="F28" s="72"/>
+      <c r="G28" s="72"/>
+      <c r="H28" s="72"/>
+      <c r="I28" s="73"/>
     </row>
     <row r="29" spans="1:9" s="43" customFormat="1" ht="12">
       <c r="A29" s="40" t="s">
-        <v>28</v>
+        <v>50</v>
       </c>
       <c r="B29" s="41">
         <v>0.5</v>
@@ -2446,17 +2466,17 @@
         <f t="shared" si="0"/>
         <v>3.125E-2</v>
       </c>
-      <c r="E29" s="60" t="s">
-        <v>76</v>
-      </c>
-      <c r="F29" s="61"/>
-      <c r="G29" s="61"/>
-      <c r="H29" s="61"/>
-      <c r="I29" s="62"/>
+      <c r="E29" s="71" t="s">
+        <v>6</v>
+      </c>
+      <c r="F29" s="72"/>
+      <c r="G29" s="72"/>
+      <c r="H29" s="72"/>
+      <c r="I29" s="73"/>
     </row>
     <row r="30" spans="1:9" s="43" customFormat="1" ht="12">
       <c r="A30" s="40" t="s">
-        <v>29</v>
+        <v>51</v>
       </c>
       <c r="B30" s="41"/>
       <c r="C30" s="42"/>
@@ -2464,15 +2484,15 @@
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="E30" s="60"/>
-      <c r="F30" s="61"/>
-      <c r="G30" s="61"/>
-      <c r="H30" s="61"/>
-      <c r="I30" s="62"/>
+      <c r="E30" s="71"/>
+      <c r="F30" s="72"/>
+      <c r="G30" s="72"/>
+      <c r="H30" s="72"/>
+      <c r="I30" s="73"/>
     </row>
     <row r="31" spans="1:9" s="51" customFormat="1" ht="12">
       <c r="A31" s="48" t="s">
-        <v>30</v>
+        <v>52</v>
       </c>
       <c r="B31" s="49"/>
       <c r="C31" s="50"/>
@@ -2480,15 +2500,15 @@
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="E31" s="57"/>
-      <c r="F31" s="58"/>
-      <c r="G31" s="58"/>
-      <c r="H31" s="58"/>
-      <c r="I31" s="59"/>
+      <c r="E31" s="77"/>
+      <c r="F31" s="75"/>
+      <c r="G31" s="75"/>
+      <c r="H31" s="75"/>
+      <c r="I31" s="76"/>
     </row>
     <row r="32" spans="1:9" s="51" customFormat="1" ht="12">
       <c r="A32" s="48" t="s">
-        <v>31</v>
+        <v>53</v>
       </c>
       <c r="B32" s="49"/>
       <c r="C32" s="50"/>
@@ -2496,15 +2516,15 @@
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="E32" s="57"/>
-      <c r="F32" s="58"/>
-      <c r="G32" s="58"/>
-      <c r="H32" s="58"/>
-      <c r="I32" s="59"/>
+      <c r="E32" s="77"/>
+      <c r="F32" s="75"/>
+      <c r="G32" s="75"/>
+      <c r="H32" s="75"/>
+      <c r="I32" s="76"/>
     </row>
     <row r="33" spans="1:9" s="43" customFormat="1" ht="12">
       <c r="A33" s="40" t="s">
-        <v>32</v>
+        <v>54</v>
       </c>
       <c r="B33" s="41"/>
       <c r="C33" s="42"/>
@@ -2512,15 +2532,15 @@
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="E33" s="60"/>
-      <c r="F33" s="61"/>
-      <c r="G33" s="61"/>
-      <c r="H33" s="61"/>
-      <c r="I33" s="62"/>
+      <c r="E33" s="71"/>
+      <c r="F33" s="72"/>
+      <c r="G33" s="72"/>
+      <c r="H33" s="72"/>
+      <c r="I33" s="73"/>
     </row>
     <row r="34" spans="1:9" s="43" customFormat="1" ht="12">
       <c r="A34" s="40" t="s">
-        <v>36</v>
+        <v>58</v>
       </c>
       <c r="B34" s="41"/>
       <c r="C34" s="42"/>
@@ -2528,15 +2548,15 @@
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="E34" s="60"/>
-      <c r="F34" s="61"/>
-      <c r="G34" s="61"/>
-      <c r="H34" s="61"/>
-      <c r="I34" s="62"/>
+      <c r="E34" s="71"/>
+      <c r="F34" s="72"/>
+      <c r="G34" s="72"/>
+      <c r="H34" s="72"/>
+      <c r="I34" s="73"/>
     </row>
     <row r="35" spans="1:9" s="43" customFormat="1" ht="12">
       <c r="A35" s="40" t="s">
-        <v>37</v>
+        <v>59</v>
       </c>
       <c r="B35" s="41"/>
       <c r="C35" s="42"/>
@@ -2544,15 +2564,15 @@
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="E35" s="60"/>
-      <c r="F35" s="61"/>
-      <c r="G35" s="61"/>
-      <c r="H35" s="61"/>
-      <c r="I35" s="62"/>
+      <c r="E35" s="71"/>
+      <c r="F35" s="72"/>
+      <c r="G35" s="72"/>
+      <c r="H35" s="72"/>
+      <c r="I35" s="73"/>
     </row>
     <row r="36" spans="1:9" s="43" customFormat="1" ht="12">
       <c r="A36" s="40" t="s">
-        <v>38</v>
+        <v>60</v>
       </c>
       <c r="B36" s="41"/>
       <c r="C36" s="42"/>
@@ -2560,15 +2580,15 @@
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="E36" s="60"/>
-      <c r="F36" s="61"/>
-      <c r="G36" s="61"/>
-      <c r="H36" s="61"/>
-      <c r="I36" s="62"/>
+      <c r="E36" s="71"/>
+      <c r="F36" s="72"/>
+      <c r="G36" s="72"/>
+      <c r="H36" s="72"/>
+      <c r="I36" s="73"/>
     </row>
     <row r="37" spans="1:9" s="43" customFormat="1" ht="12">
       <c r="A37" s="40" t="s">
-        <v>39</v>
+        <v>61</v>
       </c>
       <c r="B37" s="41"/>
       <c r="C37" s="42"/>
@@ -2576,15 +2596,15 @@
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="E37" s="60"/>
-      <c r="F37" s="61"/>
-      <c r="G37" s="61"/>
-      <c r="H37" s="61"/>
-      <c r="I37" s="62"/>
+      <c r="E37" s="71"/>
+      <c r="F37" s="72"/>
+      <c r="G37" s="72"/>
+      <c r="H37" s="72"/>
+      <c r="I37" s="73"/>
     </row>
     <row r="38" spans="1:9" s="51" customFormat="1" ht="12">
       <c r="A38" s="48" t="s">
-        <v>40</v>
+        <v>62</v>
       </c>
       <c r="B38" s="49"/>
       <c r="C38" s="50"/>
@@ -2592,15 +2612,15 @@
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="E38" s="57"/>
-      <c r="F38" s="58"/>
-      <c r="G38" s="58"/>
-      <c r="H38" s="58"/>
-      <c r="I38" s="59"/>
+      <c r="E38" s="77"/>
+      <c r="F38" s="75"/>
+      <c r="G38" s="75"/>
+      <c r="H38" s="75"/>
+      <c r="I38" s="76"/>
     </row>
     <row r="39" spans="1:9" s="51" customFormat="1" ht="12">
       <c r="A39" s="48" t="s">
-        <v>41</v>
+        <v>63</v>
       </c>
       <c r="B39" s="49"/>
       <c r="C39" s="50"/>
@@ -2608,15 +2628,15 @@
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="E39" s="57"/>
-      <c r="F39" s="58"/>
-      <c r="G39" s="58"/>
-      <c r="H39" s="58"/>
-      <c r="I39" s="59"/>
+      <c r="E39" s="77"/>
+      <c r="F39" s="75"/>
+      <c r="G39" s="75"/>
+      <c r="H39" s="75"/>
+      <c r="I39" s="76"/>
     </row>
     <row r="40" spans="1:9" s="43" customFormat="1" ht="12">
       <c r="A40" s="40" t="s">
-        <v>42</v>
+        <v>64</v>
       </c>
       <c r="B40" s="41">
         <v>0.9375</v>
@@ -2628,17 +2648,17 @@
         <f t="shared" si="0"/>
         <v>4.166666666666663E-2</v>
       </c>
-      <c r="E40" s="60" t="s">
-        <v>75</v>
-      </c>
-      <c r="F40" s="61"/>
-      <c r="G40" s="61"/>
-      <c r="H40" s="61"/>
-      <c r="I40" s="62"/>
+      <c r="E40" s="71" t="s">
+        <v>5</v>
+      </c>
+      <c r="F40" s="72"/>
+      <c r="G40" s="72"/>
+      <c r="H40" s="72"/>
+      <c r="I40" s="73"/>
     </row>
     <row r="41" spans="1:9" s="43" customFormat="1" ht="12">
       <c r="A41" s="40" t="s">
-        <v>43</v>
+        <v>65</v>
       </c>
       <c r="B41" s="41">
         <v>0.41666666666666669</v>
@@ -2650,13 +2670,13 @@
         <f t="shared" si="0"/>
         <v>0.12499999999999994</v>
       </c>
-      <c r="E41" s="60" t="s">
-        <v>86</v>
-      </c>
-      <c r="F41" s="61"/>
-      <c r="G41" s="61"/>
-      <c r="H41" s="61"/>
-      <c r="I41" s="62"/>
+      <c r="E41" s="71" t="s">
+        <v>16</v>
+      </c>
+      <c r="F41" s="72"/>
+      <c r="G41" s="72"/>
+      <c r="H41" s="72"/>
+      <c r="I41" s="73"/>
     </row>
     <row r="42" spans="1:9" s="43" customFormat="1" ht="12">
       <c r="A42" s="40"/>
@@ -2670,13 +2690,13 @@
         <f t="shared" si="0"/>
         <v>0.16666666666666663</v>
       </c>
-      <c r="E42" s="60" t="s">
-        <v>85</v>
-      </c>
-      <c r="F42" s="61"/>
-      <c r="G42" s="61"/>
-      <c r="H42" s="61"/>
-      <c r="I42" s="62"/>
+      <c r="E42" s="71" t="s">
+        <v>15</v>
+      </c>
+      <c r="F42" s="72"/>
+      <c r="G42" s="72"/>
+      <c r="H42" s="72"/>
+      <c r="I42" s="73"/>
     </row>
     <row r="43" spans="1:9" s="43" customFormat="1" ht="12">
       <c r="A43" s="40"/>
@@ -2690,17 +2710,17 @@
         <f t="shared" si="0"/>
         <v>0.10416666666666663</v>
       </c>
-      <c r="E43" s="60" t="s">
-        <v>1</v>
-      </c>
-      <c r="F43" s="61"/>
-      <c r="G43" s="61"/>
-      <c r="H43" s="61"/>
-      <c r="I43" s="62"/>
+      <c r="E43" s="71" t="s">
+        <v>23</v>
+      </c>
+      <c r="F43" s="72"/>
+      <c r="G43" s="72"/>
+      <c r="H43" s="72"/>
+      <c r="I43" s="73"/>
     </row>
     <row r="44" spans="1:9" s="43" customFormat="1" ht="12">
       <c r="A44" s="40" t="s">
-        <v>44</v>
+        <v>66</v>
       </c>
       <c r="B44" s="41">
         <v>0.5</v>
@@ -2712,17 +2732,17 @@
         <f t="shared" si="0"/>
         <v>8.333333333333337E-2</v>
       </c>
-      <c r="E44" s="60" t="s">
-        <v>2</v>
-      </c>
-      <c r="F44" s="61"/>
-      <c r="G44" s="61"/>
-      <c r="H44" s="61"/>
-      <c r="I44" s="62"/>
+      <c r="E44" s="71" t="s">
+        <v>24</v>
+      </c>
+      <c r="F44" s="72"/>
+      <c r="G44" s="72"/>
+      <c r="H44" s="72"/>
+      <c r="I44" s="73"/>
     </row>
     <row r="45" spans="1:9" s="43" customFormat="1" ht="12">
       <c r="A45" s="40" t="s">
-        <v>45</v>
+        <v>67</v>
       </c>
       <c r="B45" s="41">
         <v>0.41666666666666669</v>
@@ -2734,17 +2754,17 @@
         <f t="shared" si="0"/>
         <v>2.0833333333333315E-2</v>
       </c>
-      <c r="E45" s="60" t="s">
-        <v>10</v>
-      </c>
-      <c r="F45" s="61"/>
-      <c r="G45" s="61"/>
-      <c r="H45" s="61"/>
-      <c r="I45" s="62"/>
+      <c r="E45" s="71" t="s">
+        <v>32</v>
+      </c>
+      <c r="F45" s="72"/>
+      <c r="G45" s="72"/>
+      <c r="H45" s="72"/>
+      <c r="I45" s="73"/>
     </row>
     <row r="46" spans="1:9" s="43" customFormat="1" ht="12">
       <c r="A46" s="40" t="s">
-        <v>46</v>
+        <v>68</v>
       </c>
       <c r="B46" s="41">
         <v>0.5</v>
@@ -2756,17 +2776,17 @@
         <f t="shared" si="0"/>
         <v>0.16666666666666663</v>
       </c>
-      <c r="E46" s="60" t="s">
-        <v>3</v>
-      </c>
-      <c r="F46" s="61"/>
-      <c r="G46" s="61"/>
-      <c r="H46" s="61"/>
-      <c r="I46" s="62"/>
+      <c r="E46" s="71" t="s">
+        <v>25</v>
+      </c>
+      <c r="F46" s="72"/>
+      <c r="G46" s="72"/>
+      <c r="H46" s="72"/>
+      <c r="I46" s="73"/>
     </row>
     <row r="47" spans="1:9" s="51" customFormat="1" ht="12">
       <c r="A47" s="48" t="s">
-        <v>47</v>
+        <v>69</v>
       </c>
       <c r="B47" s="49"/>
       <c r="C47" s="50"/>
@@ -2774,15 +2794,15 @@
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="E47" s="57"/>
-      <c r="F47" s="58"/>
-      <c r="G47" s="58"/>
-      <c r="H47" s="58"/>
-      <c r="I47" s="59"/>
+      <c r="E47" s="77"/>
+      <c r="F47" s="75"/>
+      <c r="G47" s="75"/>
+      <c r="H47" s="75"/>
+      <c r="I47" s="76"/>
     </row>
     <row r="48" spans="1:9" s="51" customFormat="1" ht="12">
       <c r="A48" s="48" t="s">
-        <v>48</v>
+        <v>70</v>
       </c>
       <c r="B48" s="49"/>
       <c r="C48" s="50"/>
@@ -2790,15 +2810,15 @@
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="E48" s="57"/>
-      <c r="F48" s="58"/>
-      <c r="G48" s="58"/>
-      <c r="H48" s="58"/>
-      <c r="I48" s="59"/>
+      <c r="E48" s="77"/>
+      <c r="F48" s="75"/>
+      <c r="G48" s="75"/>
+      <c r="H48" s="75"/>
+      <c r="I48" s="76"/>
     </row>
     <row r="49" spans="1:13" s="43" customFormat="1" ht="12">
       <c r="A49" s="44" t="s">
-        <v>49</v>
+        <v>71</v>
       </c>
       <c r="B49" s="41">
         <v>0.5</v>
@@ -2810,27 +2830,27 @@
         <f t="shared" si="0"/>
         <v>8.333333333333337E-2</v>
       </c>
-      <c r="E49" s="60" t="s">
-        <v>4</v>
-      </c>
-      <c r="F49" s="61"/>
-      <c r="G49" s="61"/>
-      <c r="H49" s="61"/>
-      <c r="I49" s="62"/>
+      <c r="E49" s="71" t="s">
+        <v>26</v>
+      </c>
+      <c r="F49" s="72"/>
+      <c r="G49" s="72"/>
+      <c r="H49" s="72"/>
+      <c r="I49" s="73"/>
     </row>
     <row r="50" spans="1:13" s="47" customFormat="1" ht="13">
-      <c r="A50" s="63"/>
-      <c r="B50" s="64"/>
-      <c r="C50" s="64"/>
+      <c r="A50" s="94"/>
+      <c r="B50" s="95"/>
+      <c r="C50" s="95"/>
       <c r="D50" s="46">
         <f>SUM(D16:D49)</f>
         <v>1.65625</v>
       </c>
-      <c r="E50" s="65"/>
-      <c r="F50" s="65"/>
-      <c r="G50" s="65"/>
-      <c r="H50" s="65"/>
-      <c r="I50" s="66"/>
+      <c r="E50" s="96"/>
+      <c r="F50" s="96"/>
+      <c r="G50" s="96"/>
+      <c r="H50" s="96"/>
+      <c r="I50" s="97"/>
     </row>
     <row r="51" spans="1:13" ht="7.5" customHeight="1">
       <c r="A51" s="28"/>
@@ -2863,42 +2883,13 @@
     </row>
   </sheetData>
   <mergeCells count="54">
-    <mergeCell ref="A9:C9"/>
-    <mergeCell ref="D9:H9"/>
-    <mergeCell ref="A10:I10"/>
-    <mergeCell ref="A5:C5"/>
-    <mergeCell ref="D5:H5"/>
-    <mergeCell ref="A6:I6"/>
-    <mergeCell ref="A7:C7"/>
-    <mergeCell ref="D7:H7"/>
-    <mergeCell ref="A1:I1"/>
-    <mergeCell ref="A2:I2"/>
-    <mergeCell ref="A3:H3"/>
-    <mergeCell ref="A4:I4"/>
-    <mergeCell ref="A8:I8"/>
-    <mergeCell ref="E20:I20"/>
-    <mergeCell ref="E16:I16"/>
-    <mergeCell ref="E17:I17"/>
-    <mergeCell ref="A13:A15"/>
-    <mergeCell ref="B13:I13"/>
-    <mergeCell ref="B14:C14"/>
-    <mergeCell ref="D14:D15"/>
-    <mergeCell ref="E14:I15"/>
-    <mergeCell ref="E18:I18"/>
-    <mergeCell ref="E19:I19"/>
-    <mergeCell ref="E24:I24"/>
-    <mergeCell ref="E25:I25"/>
-    <mergeCell ref="E27:I27"/>
-    <mergeCell ref="E21:I21"/>
-    <mergeCell ref="E22:I22"/>
-    <mergeCell ref="E23:I23"/>
-    <mergeCell ref="E26:I26"/>
-    <mergeCell ref="E31:I31"/>
-    <mergeCell ref="E32:I32"/>
-    <mergeCell ref="E33:I33"/>
-    <mergeCell ref="E28:I28"/>
-    <mergeCell ref="E29:I29"/>
-    <mergeCell ref="E30:I30"/>
+    <mergeCell ref="E48:I48"/>
+    <mergeCell ref="E49:I49"/>
+    <mergeCell ref="A50:C50"/>
+    <mergeCell ref="E50:I50"/>
+    <mergeCell ref="E45:I45"/>
+    <mergeCell ref="E46:I46"/>
+    <mergeCell ref="E47:I47"/>
     <mergeCell ref="E44:I44"/>
     <mergeCell ref="E37:I37"/>
     <mergeCell ref="E38:I38"/>
@@ -2910,13 +2901,42 @@
     <mergeCell ref="E41:I41"/>
     <mergeCell ref="E42:I42"/>
     <mergeCell ref="E43:I43"/>
-    <mergeCell ref="E48:I48"/>
-    <mergeCell ref="E49:I49"/>
-    <mergeCell ref="A50:C50"/>
-    <mergeCell ref="E50:I50"/>
-    <mergeCell ref="E45:I45"/>
-    <mergeCell ref="E46:I46"/>
-    <mergeCell ref="E47:I47"/>
+    <mergeCell ref="E31:I31"/>
+    <mergeCell ref="E32:I32"/>
+    <mergeCell ref="E33:I33"/>
+    <mergeCell ref="E28:I28"/>
+    <mergeCell ref="E29:I29"/>
+    <mergeCell ref="E30:I30"/>
+    <mergeCell ref="E24:I24"/>
+    <mergeCell ref="E25:I25"/>
+    <mergeCell ref="E27:I27"/>
+    <mergeCell ref="E21:I21"/>
+    <mergeCell ref="E22:I22"/>
+    <mergeCell ref="E23:I23"/>
+    <mergeCell ref="E26:I26"/>
+    <mergeCell ref="E20:I20"/>
+    <mergeCell ref="E16:I16"/>
+    <mergeCell ref="E17:I17"/>
+    <mergeCell ref="A13:A15"/>
+    <mergeCell ref="B13:I13"/>
+    <mergeCell ref="B14:C14"/>
+    <mergeCell ref="D14:D15"/>
+    <mergeCell ref="E14:I15"/>
+    <mergeCell ref="E18:I18"/>
+    <mergeCell ref="E19:I19"/>
+    <mergeCell ref="A1:I1"/>
+    <mergeCell ref="A2:I2"/>
+    <mergeCell ref="A3:H3"/>
+    <mergeCell ref="A4:I4"/>
+    <mergeCell ref="A8:I8"/>
+    <mergeCell ref="A9:C9"/>
+    <mergeCell ref="D9:H9"/>
+    <mergeCell ref="A10:I10"/>
+    <mergeCell ref="A5:C5"/>
+    <mergeCell ref="D5:H5"/>
+    <mergeCell ref="A6:I6"/>
+    <mergeCell ref="A7:C7"/>
+    <mergeCell ref="D7:H7"/>
   </mergeCells>
   <phoneticPr fontId="32" type="noConversion"/>
   <printOptions horizontalCentered="1"/>
@@ -2937,7 +2957,7 @@
   </sheetPr>
   <dimension ref="A1:AS50"/>
   <sheetViews>
-    <sheetView tabSelected="1" view="pageLayout" zoomScale="85" zoomScaleSheetLayoutView="85" workbookViewId="0">
+    <sheetView view="pageLayout" zoomScale="85" zoomScaleSheetLayoutView="85" workbookViewId="0">
       <selection activeCell="B47" sqref="B47"/>
     </sheetView>
   </sheetViews>
@@ -2956,17 +2976,17 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:45" s="7" customFormat="1" ht="18" thickBot="1">
-      <c r="A1" s="84" t="s">
-        <v>66</v>
-      </c>
-      <c r="B1" s="84"/>
-      <c r="C1" s="84"/>
-      <c r="D1" s="84"/>
-      <c r="E1" s="84"/>
-      <c r="F1" s="84"/>
-      <c r="G1" s="84"/>
-      <c r="H1" s="84"/>
-      <c r="I1" s="84"/>
+      <c r="A1" s="66" t="s">
+        <v>88</v>
+      </c>
+      <c r="B1" s="66"/>
+      <c r="C1" s="66"/>
+      <c r="D1" s="66"/>
+      <c r="E1" s="66"/>
+      <c r="F1" s="66"/>
+      <c r="G1" s="66"/>
+      <c r="H1" s="66"/>
+      <c r="I1" s="66"/>
       <c r="J1" s="8"/>
       <c r="K1" s="8"/>
       <c r="L1" s="8"/>
@@ -3004,15 +3024,15 @@
       <c r="AR1" s="8"/>
     </row>
     <row r="2" spans="1:45" s="1" customFormat="1" ht="7.5" customHeight="1">
-      <c r="A2" s="85"/>
-      <c r="B2" s="85"/>
-      <c r="C2" s="85"/>
-      <c r="D2" s="85"/>
-      <c r="E2" s="85"/>
-      <c r="F2" s="85"/>
-      <c r="G2" s="85"/>
-      <c r="H2" s="85"/>
-      <c r="I2" s="85"/>
+      <c r="A2" s="67"/>
+      <c r="B2" s="67"/>
+      <c r="C2" s="67"/>
+      <c r="D2" s="67"/>
+      <c r="E2" s="67"/>
+      <c r="F2" s="67"/>
+      <c r="G2" s="67"/>
+      <c r="H2" s="67"/>
+      <c r="I2" s="67"/>
       <c r="J2" s="9"/>
       <c r="K2" s="9"/>
       <c r="L2" s="9"/>
@@ -3050,16 +3070,16 @@
       <c r="AR2" s="9"/>
     </row>
     <row r="3" spans="1:45" s="11" customFormat="1" ht="13.5" customHeight="1">
-      <c r="A3" s="86" t="s">
-        <v>56</v>
-      </c>
-      <c r="B3" s="86"/>
-      <c r="C3" s="86"/>
-      <c r="D3" s="86"/>
-      <c r="E3" s="86"/>
-      <c r="F3" s="86"/>
-      <c r="G3" s="86"/>
-      <c r="H3" s="86"/>
+      <c r="A3" s="68" t="s">
+        <v>78</v>
+      </c>
+      <c r="B3" s="68"/>
+      <c r="C3" s="68"/>
+      <c r="D3" s="68"/>
+      <c r="E3" s="68"/>
+      <c r="F3" s="68"/>
+      <c r="G3" s="68"/>
+      <c r="H3" s="68"/>
       <c r="I3" s="23"/>
       <c r="J3" s="22"/>
       <c r="K3" s="22"/>
@@ -3099,112 +3119,112 @@
       <c r="AS3" s="10"/>
     </row>
     <row r="4" spans="1:45" s="6" customFormat="1" ht="9" customHeight="1">
-      <c r="A4" s="87"/>
-      <c r="B4" s="87"/>
-      <c r="C4" s="87"/>
-      <c r="D4" s="87"/>
-      <c r="E4" s="87"/>
-      <c r="F4" s="87"/>
-      <c r="G4" s="87"/>
-      <c r="H4" s="87"/>
-      <c r="I4" s="87"/>
+      <c r="A4" s="69"/>
+      <c r="B4" s="69"/>
+      <c r="C4" s="69"/>
+      <c r="D4" s="69"/>
+      <c r="E4" s="69"/>
+      <c r="F4" s="69"/>
+      <c r="G4" s="69"/>
+      <c r="H4" s="69"/>
+      <c r="I4" s="69"/>
     </row>
     <row r="5" spans="1:45" s="1" customFormat="1" ht="13.75" customHeight="1">
-      <c r="A5" s="94" t="str">
+      <c r="A5" s="62" t="str">
         <f>October!A5</f>
         <v>Firstname Lastname</v>
       </c>
-      <c r="B5" s="95"/>
-      <c r="C5" s="95"/>
-      <c r="D5" s="90" t="str">
+      <c r="B5" s="63"/>
+      <c r="C5" s="63"/>
+      <c r="D5" s="58" t="str">
         <f>October!D5</f>
         <v>Augustin Hannah</v>
       </c>
-      <c r="E5" s="91"/>
-      <c r="F5" s="91"/>
-      <c r="G5" s="91"/>
-      <c r="H5" s="92"/>
+      <c r="E5" s="59"/>
+      <c r="F5" s="59"/>
+      <c r="G5" s="59"/>
+      <c r="H5" s="60"/>
       <c r="I5" s="23"/>
       <c r="J5" s="9"/>
       <c r="K5" s="9"/>
       <c r="L5" s="9"/>
     </row>
     <row r="6" spans="1:45" s="1" customFormat="1" ht="7.5" customHeight="1">
-      <c r="A6" s="96"/>
-      <c r="B6" s="96"/>
-      <c r="C6" s="96"/>
-      <c r="D6" s="96"/>
-      <c r="E6" s="96"/>
-      <c r="F6" s="96"/>
-      <c r="G6" s="96"/>
-      <c r="H6" s="96"/>
-      <c r="I6" s="96"/>
+      <c r="A6" s="64"/>
+      <c r="B6" s="64"/>
+      <c r="C6" s="64"/>
+      <c r="D6" s="64"/>
+      <c r="E6" s="64"/>
+      <c r="F6" s="64"/>
+      <c r="G6" s="64"/>
+      <c r="H6" s="64"/>
+      <c r="I6" s="64"/>
     </row>
     <row r="7" spans="1:45" s="1" customFormat="1" ht="13.75" customHeight="1">
-      <c r="A7" s="89" t="str">
+      <c r="A7" s="57" t="str">
         <f>October!A7</f>
         <v>Project Acronym</v>
       </c>
-      <c r="B7" s="89"/>
-      <c r="C7" s="89"/>
-      <c r="D7" s="97" t="str">
+      <c r="B7" s="57"/>
+      <c r="C7" s="57"/>
+      <c r="D7" s="65" t="str">
         <f>October!D7</f>
         <v>AIQ</v>
       </c>
-      <c r="E7" s="97"/>
-      <c r="F7" s="97"/>
-      <c r="G7" s="97"/>
-      <c r="H7" s="97"/>
+      <c r="E7" s="65"/>
+      <c r="F7" s="65"/>
+      <c r="G7" s="65"/>
+      <c r="H7" s="65"/>
       <c r="I7" s="24"/>
     </row>
     <row r="8" spans="1:45" s="1" customFormat="1" ht="7.5" customHeight="1">
-      <c r="A8" s="88"/>
-      <c r="B8" s="88"/>
-      <c r="C8" s="88"/>
-      <c r="D8" s="88"/>
-      <c r="E8" s="88"/>
-      <c r="F8" s="88"/>
-      <c r="G8" s="88"/>
-      <c r="H8" s="88"/>
-      <c r="I8" s="88"/>
+      <c r="A8" s="70"/>
+      <c r="B8" s="70"/>
+      <c r="C8" s="70"/>
+      <c r="D8" s="70"/>
+      <c r="E8" s="70"/>
+      <c r="F8" s="70"/>
+      <c r="G8" s="70"/>
+      <c r="H8" s="70"/>
+      <c r="I8" s="70"/>
     </row>
     <row r="9" spans="1:45" s="1" customFormat="1" ht="13.75" customHeight="1">
-      <c r="A9" s="89" t="str">
+      <c r="A9" s="57" t="str">
         <f>October!A9</f>
         <v>Project Title</v>
       </c>
-      <c r="B9" s="89"/>
-      <c r="C9" s="89"/>
-      <c r="D9" s="90" t="str">
+      <c r="B9" s="57"/>
+      <c r="C9" s="57"/>
+      <c r="D9" s="58" t="str">
         <f>October!D9</f>
         <v>Automating change detection in ImageQuerying</v>
       </c>
-      <c r="E9" s="91"/>
-      <c r="F9" s="91"/>
-      <c r="G9" s="91"/>
-      <c r="H9" s="92"/>
+      <c r="E9" s="59"/>
+      <c r="F9" s="59"/>
+      <c r="G9" s="59"/>
+      <c r="H9" s="60"/>
       <c r="I9" s="24"/>
       <c r="J9" s="15"/>
     </row>
     <row r="10" spans="1:45" s="1" customFormat="1" ht="7.5" customHeight="1">
-      <c r="A10" s="93"/>
-      <c r="B10" s="93"/>
-      <c r="C10" s="93"/>
-      <c r="D10" s="93"/>
-      <c r="E10" s="93"/>
-      <c r="F10" s="93"/>
-      <c r="G10" s="93"/>
-      <c r="H10" s="93"/>
-      <c r="I10" s="93"/>
+      <c r="A10" s="61"/>
+      <c r="B10" s="61"/>
+      <c r="C10" s="61"/>
+      <c r="D10" s="61"/>
+      <c r="E10" s="61"/>
+      <c r="F10" s="61"/>
+      <c r="G10" s="61"/>
+      <c r="H10" s="61"/>
+      <c r="I10" s="61"/>
     </row>
     <row r="11" spans="1:45" s="1" customFormat="1" ht="12">
       <c r="A11" s="21" t="s">
-        <v>54</v>
+        <v>76</v>
       </c>
       <c r="B11" s="21"/>
       <c r="C11" s="21"/>
       <c r="D11" s="21" t="s">
-        <v>55</v>
+        <v>77</v>
       </c>
       <c r="E11" s="21"/>
       <c r="F11" s="21"/>
@@ -3224,55 +3244,55 @@
       <c r="I12" s="26"/>
     </row>
     <row r="13" spans="1:45" s="2" customFormat="1" ht="15.5" customHeight="1">
-      <c r="A13" s="68" t="s">
-        <v>11</v>
-      </c>
-      <c r="B13" s="71" t="s">
-        <v>50</v>
-      </c>
-      <c r="C13" s="72"/>
-      <c r="D13" s="72"/>
-      <c r="E13" s="72"/>
-      <c r="F13" s="72"/>
-      <c r="G13" s="72"/>
-      <c r="H13" s="72"/>
-      <c r="I13" s="73"/>
+      <c r="A13" s="78" t="s">
+        <v>33</v>
+      </c>
+      <c r="B13" s="81" t="s">
+        <v>72</v>
+      </c>
+      <c r="C13" s="82"/>
+      <c r="D13" s="82"/>
+      <c r="E13" s="82"/>
+      <c r="F13" s="82"/>
+      <c r="G13" s="82"/>
+      <c r="H13" s="82"/>
+      <c r="I13" s="83"/>
     </row>
     <row r="14" spans="1:45" s="2" customFormat="1" ht="13.75" customHeight="1">
-      <c r="A14" s="69"/>
-      <c r="B14" s="74" t="s">
-        <v>12</v>
-      </c>
-      <c r="C14" s="75"/>
-      <c r="D14" s="76" t="s">
-        <v>13</v>
-      </c>
-      <c r="E14" s="78" t="s">
-        <v>51</v>
-      </c>
-      <c r="F14" s="79"/>
-      <c r="G14" s="79"/>
-      <c r="H14" s="79"/>
-      <c r="I14" s="80"/>
+      <c r="A14" s="79"/>
+      <c r="B14" s="84" t="s">
+        <v>34</v>
+      </c>
+      <c r="C14" s="85"/>
+      <c r="D14" s="86" t="s">
+        <v>35</v>
+      </c>
+      <c r="E14" s="88" t="s">
+        <v>73</v>
+      </c>
+      <c r="F14" s="89"/>
+      <c r="G14" s="89"/>
+      <c r="H14" s="89"/>
+      <c r="I14" s="90"/>
     </row>
     <row r="15" spans="1:45" ht="13" customHeight="1">
-      <c r="A15" s="70"/>
+      <c r="A15" s="80"/>
       <c r="B15" s="32" t="s">
-        <v>14</v>
+        <v>36</v>
       </c>
       <c r="C15" s="33" t="s">
-        <v>15</v>
-      </c>
-      <c r="D15" s="77"/>
-      <c r="E15" s="81"/>
-      <c r="F15" s="82"/>
-      <c r="G15" s="82"/>
-      <c r="H15" s="82"/>
-      <c r="I15" s="83"/>
+        <v>37</v>
+      </c>
+      <c r="D15" s="87"/>
+      <c r="E15" s="91"/>
+      <c r="F15" s="92"/>
+      <c r="G15" s="92"/>
+      <c r="H15" s="92"/>
+      <c r="I15" s="93"/>
     </row>
     <row r="16" spans="1:45" s="43" customFormat="1" ht="12">
       <c r="A16" s="40" t="s">
-        <v>16</v>
+        <v>38</v>
       </c>
       <c r="B16" s="41"/>
       <c r="C16" s="42"/>
@@ -3280,15 +3300,15 @@
         <f>C16-B16</f>
         <v>0</v>
       </c>
-      <c r="E16" s="60"/>
-      <c r="F16" s="61"/>
-      <c r="G16" s="61"/>
-      <c r="H16" s="61"/>
-      <c r="I16" s="62"/>
+      <c r="E16" s="71"/>
+      <c r="F16" s="72"/>
+      <c r="G16" s="72"/>
+      <c r="H16" s="72"/>
+      <c r="I16" s="73"/>
     </row>
     <row r="17" spans="1:9" s="43" customFormat="1" ht="12">
       <c r="A17" s="40" t="s">
-        <v>17</v>
+        <v>39</v>
       </c>
       <c r="B17" s="41"/>
       <c r="C17" s="42"/>
@@ -3296,15 +3316,15 @@
         <f t="shared" ref="D17:D48" si="0">C17-B17</f>
         <v>0</v>
       </c>
-      <c r="E17" s="60"/>
-      <c r="F17" s="61"/>
-      <c r="G17" s="61"/>
-      <c r="H17" s="61"/>
-      <c r="I17" s="62"/>
+      <c r="E17" s="71"/>
+      <c r="F17" s="72"/>
+      <c r="G17" s="72"/>
+      <c r="H17" s="72"/>
+      <c r="I17" s="73"/>
     </row>
     <row r="18" spans="1:9" s="43" customFormat="1" ht="12">
       <c r="A18" s="40" t="s">
-        <v>18</v>
+        <v>40</v>
       </c>
       <c r="B18" s="41"/>
       <c r="C18" s="42"/>
@@ -3312,15 +3332,15 @@
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="E18" s="60"/>
-      <c r="F18" s="61"/>
-      <c r="G18" s="61"/>
-      <c r="H18" s="61"/>
-      <c r="I18" s="62"/>
+      <c r="E18" s="71"/>
+      <c r="F18" s="72"/>
+      <c r="G18" s="72"/>
+      <c r="H18" s="72"/>
+      <c r="I18" s="73"/>
     </row>
     <row r="19" spans="1:9" s="43" customFormat="1" ht="12">
       <c r="A19" s="40" t="s">
-        <v>19</v>
+        <v>41</v>
       </c>
       <c r="B19" s="41">
         <v>0.58333333333333337</v>
@@ -3332,17 +3352,17 @@
         <f t="shared" si="0"/>
         <v>0.16666666666666663</v>
       </c>
-      <c r="E19" s="60" t="s">
-        <v>5</v>
-      </c>
-      <c r="F19" s="61"/>
-      <c r="G19" s="61"/>
-      <c r="H19" s="61"/>
-      <c r="I19" s="62"/>
+      <c r="E19" s="71" t="s">
+        <v>27</v>
+      </c>
+      <c r="F19" s="72"/>
+      <c r="G19" s="72"/>
+      <c r="H19" s="72"/>
+      <c r="I19" s="73"/>
     </row>
     <row r="20" spans="1:9" s="51" customFormat="1" ht="12">
       <c r="A20" s="48" t="s">
-        <v>20</v>
+        <v>42</v>
       </c>
       <c r="B20" s="49"/>
       <c r="C20" s="50"/>
@@ -3350,15 +3370,15 @@
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="E20" s="57"/>
-      <c r="F20" s="58"/>
-      <c r="G20" s="58"/>
-      <c r="H20" s="58"/>
-      <c r="I20" s="59"/>
+      <c r="E20" s="77"/>
+      <c r="F20" s="75"/>
+      <c r="G20" s="75"/>
+      <c r="H20" s="75"/>
+      <c r="I20" s="76"/>
     </row>
     <row r="21" spans="1:9" s="51" customFormat="1" ht="12">
       <c r="A21" s="48" t="s">
-        <v>21</v>
+        <v>43</v>
       </c>
       <c r="B21" s="49"/>
       <c r="C21" s="50"/>
@@ -3366,15 +3386,15 @@
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="E21" s="57"/>
-      <c r="F21" s="58"/>
-      <c r="G21" s="58"/>
-      <c r="H21" s="58"/>
-      <c r="I21" s="59"/>
+      <c r="E21" s="77"/>
+      <c r="F21" s="75"/>
+      <c r="G21" s="75"/>
+      <c r="H21" s="75"/>
+      <c r="I21" s="76"/>
     </row>
     <row r="22" spans="1:9" s="43" customFormat="1" ht="12">
       <c r="A22" s="40" t="s">
-        <v>22</v>
+        <v>44</v>
       </c>
       <c r="B22" s="41">
         <v>0.39583333333333331</v>
@@ -3386,17 +3406,17 @@
         <f t="shared" si="0"/>
         <v>0.16666666666666669</v>
       </c>
-      <c r="E22" s="60" t="s">
-        <v>9</v>
-      </c>
-      <c r="F22" s="61"/>
-      <c r="G22" s="61"/>
-      <c r="H22" s="61"/>
-      <c r="I22" s="62"/>
+      <c r="E22" s="71" t="s">
+        <v>31</v>
+      </c>
+      <c r="F22" s="72"/>
+      <c r="G22" s="72"/>
+      <c r="H22" s="72"/>
+      <c r="I22" s="73"/>
     </row>
     <row r="23" spans="1:9" s="43" customFormat="1" ht="12">
       <c r="A23" s="40" t="s">
-        <v>23</v>
+        <v>45</v>
       </c>
       <c r="B23" s="41">
         <v>0.41666666666666669</v>
@@ -3408,13 +3428,13 @@
         <f t="shared" si="0"/>
         <v>0.12499999999999994</v>
       </c>
-      <c r="E23" s="60" t="s">
-        <v>8</v>
-      </c>
-      <c r="F23" s="61"/>
-      <c r="G23" s="61"/>
-      <c r="H23" s="61"/>
-      <c r="I23" s="62"/>
+      <c r="E23" s="71" t="s">
+        <v>30</v>
+      </c>
+      <c r="F23" s="72"/>
+      <c r="G23" s="72"/>
+      <c r="H23" s="72"/>
+      <c r="I23" s="73"/>
     </row>
     <row r="24" spans="1:9" s="43" customFormat="1" ht="12">
       <c r="A24" s="40"/>
@@ -3428,17 +3448,17 @@
         <f t="shared" si="0"/>
         <v>8.333333333333337E-2</v>
       </c>
-      <c r="E24" s="60" t="s">
-        <v>81</v>
-      </c>
-      <c r="F24" s="61"/>
-      <c r="G24" s="61"/>
-      <c r="H24" s="61"/>
-      <c r="I24" s="62"/>
+      <c r="E24" s="71" t="s">
+        <v>11</v>
+      </c>
+      <c r="F24" s="72"/>
+      <c r="G24" s="72"/>
+      <c r="H24" s="72"/>
+      <c r="I24" s="73"/>
     </row>
     <row r="25" spans="1:9" s="43" customFormat="1" ht="12">
       <c r="A25" s="40" t="s">
-        <v>24</v>
+        <v>46</v>
       </c>
       <c r="B25" s="41"/>
       <c r="C25" s="42"/>
@@ -3446,15 +3466,15 @@
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="E25" s="60"/>
-      <c r="F25" s="61"/>
-      <c r="G25" s="61"/>
-      <c r="H25" s="61"/>
-      <c r="I25" s="62"/>
+      <c r="E25" s="71"/>
+      <c r="F25" s="72"/>
+      <c r="G25" s="72"/>
+      <c r="H25" s="72"/>
+      <c r="I25" s="73"/>
     </row>
     <row r="26" spans="1:9" s="43" customFormat="1" ht="12">
       <c r="A26" s="40" t="s">
-        <v>25</v>
+        <v>47</v>
       </c>
       <c r="B26" s="41">
         <v>0.75</v>
@@ -3466,17 +3486,17 @@
         <f t="shared" si="0"/>
         <v>0.16666666666666663</v>
       </c>
-      <c r="E26" s="60" t="s">
-        <v>7</v>
-      </c>
-      <c r="F26" s="61"/>
-      <c r="G26" s="61"/>
-      <c r="H26" s="61"/>
-      <c r="I26" s="62"/>
+      <c r="E26" s="71" t="s">
+        <v>29</v>
+      </c>
+      <c r="F26" s="72"/>
+      <c r="G26" s="72"/>
+      <c r="H26" s="72"/>
+      <c r="I26" s="73"/>
     </row>
     <row r="27" spans="1:9" s="43" customFormat="1" ht="12">
       <c r="A27" s="40" t="s">
-        <v>26</v>
+        <v>48</v>
       </c>
       <c r="B27" s="41"/>
       <c r="C27" s="42"/>
@@ -3484,15 +3504,15 @@
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="E27" s="60"/>
-      <c r="F27" s="61"/>
-      <c r="G27" s="61"/>
-      <c r="H27" s="61"/>
-      <c r="I27" s="62"/>
+      <c r="E27" s="71"/>
+      <c r="F27" s="72"/>
+      <c r="G27" s="72"/>
+      <c r="H27" s="72"/>
+      <c r="I27" s="73"/>
     </row>
     <row r="28" spans="1:9" s="51" customFormat="1" ht="12">
       <c r="A28" s="48" t="s">
-        <v>27</v>
+        <v>49</v>
       </c>
       <c r="B28" s="49"/>
       <c r="C28" s="50"/>
@@ -3500,15 +3520,15 @@
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="E28" s="57"/>
-      <c r="F28" s="58"/>
-      <c r="G28" s="58"/>
-      <c r="H28" s="58"/>
-      <c r="I28" s="59"/>
+      <c r="E28" s="77"/>
+      <c r="F28" s="75"/>
+      <c r="G28" s="75"/>
+      <c r="H28" s="75"/>
+      <c r="I28" s="76"/>
     </row>
     <row r="29" spans="1:9" s="51" customFormat="1" ht="12">
       <c r="A29" s="48" t="s">
-        <v>28</v>
+        <v>50</v>
       </c>
       <c r="B29" s="49">
         <v>0.45833333333333331</v>
@@ -3520,17 +3540,17 @@
         <f t="shared" si="0"/>
         <v>0.25000000000000006</v>
       </c>
-      <c r="E29" s="57" t="s">
-        <v>82</v>
-      </c>
-      <c r="F29" s="58"/>
-      <c r="G29" s="58"/>
-      <c r="H29" s="58"/>
-      <c r="I29" s="59"/>
+      <c r="E29" s="77" t="s">
+        <v>12</v>
+      </c>
+      <c r="F29" s="75"/>
+      <c r="G29" s="75"/>
+      <c r="H29" s="75"/>
+      <c r="I29" s="76"/>
     </row>
     <row r="30" spans="1:9" s="43" customFormat="1" ht="12">
       <c r="A30" s="40" t="s">
-        <v>29</v>
+        <v>51</v>
       </c>
       <c r="B30" s="41">
         <v>0.70833333333333337</v>
@@ -3542,17 +3562,17 @@
         <f t="shared" si="0"/>
         <v>0.20833333333333326</v>
       </c>
-      <c r="E30" s="60" t="s">
-        <v>6</v>
-      </c>
-      <c r="F30" s="61"/>
-      <c r="G30" s="61"/>
-      <c r="H30" s="61"/>
-      <c r="I30" s="62"/>
+      <c r="E30" s="71" t="s">
+        <v>28</v>
+      </c>
+      <c r="F30" s="72"/>
+      <c r="G30" s="72"/>
+      <c r="H30" s="72"/>
+      <c r="I30" s="73"/>
     </row>
     <row r="31" spans="1:9" s="43" customFormat="1" ht="12">
       <c r="A31" s="40" t="s">
-        <v>30</v>
+        <v>52</v>
       </c>
       <c r="B31" s="41">
         <v>0.66666666666666663</v>
@@ -3564,17 +3584,17 @@
         <f t="shared" si="0"/>
         <v>0.16666666666666674</v>
       </c>
-      <c r="E31" s="60" t="s">
-        <v>0</v>
-      </c>
-      <c r="F31" s="61"/>
-      <c r="G31" s="61"/>
-      <c r="H31" s="61"/>
-      <c r="I31" s="62"/>
+      <c r="E31" s="71" t="s">
+        <v>22</v>
+      </c>
+      <c r="F31" s="72"/>
+      <c r="G31" s="72"/>
+      <c r="H31" s="72"/>
+      <c r="I31" s="73"/>
     </row>
     <row r="32" spans="1:9" s="43" customFormat="1" ht="12">
       <c r="A32" s="40" t="s">
-        <v>31</v>
+        <v>53</v>
       </c>
       <c r="B32" s="41"/>
       <c r="C32" s="42"/>
@@ -3582,17 +3602,17 @@
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="E32" s="60" t="s">
-        <v>78</v>
-      </c>
-      <c r="F32" s="61"/>
-      <c r="G32" s="61"/>
-      <c r="H32" s="61"/>
-      <c r="I32" s="62"/>
+      <c r="E32" s="71" t="s">
+        <v>8</v>
+      </c>
+      <c r="F32" s="72"/>
+      <c r="G32" s="72"/>
+      <c r="H32" s="72"/>
+      <c r="I32" s="73"/>
     </row>
     <row r="33" spans="1:9" s="43" customFormat="1" ht="12">
       <c r="A33" s="40" t="s">
-        <v>32</v>
+        <v>54</v>
       </c>
       <c r="B33" s="41">
         <v>0.41666666666666669</v>
@@ -3604,13 +3624,13 @@
         <f t="shared" si="0"/>
         <v>4.166666666666663E-2</v>
       </c>
-      <c r="E33" s="60" t="s">
-        <v>79</v>
-      </c>
-      <c r="F33" s="61"/>
-      <c r="G33" s="61"/>
-      <c r="H33" s="61"/>
-      <c r="I33" s="62"/>
+      <c r="E33" s="71" t="s">
+        <v>9</v>
+      </c>
+      <c r="F33" s="72"/>
+      <c r="G33" s="72"/>
+      <c r="H33" s="72"/>
+      <c r="I33" s="73"/>
     </row>
     <row r="34" spans="1:9" s="43" customFormat="1" ht="12">
       <c r="A34" s="40"/>
@@ -3624,17 +3644,17 @@
         <f t="shared" si="0"/>
         <v>0.16666666666666663</v>
       </c>
-      <c r="E34" s="60" t="s">
-        <v>71</v>
-      </c>
-      <c r="F34" s="61"/>
-      <c r="G34" s="61"/>
-      <c r="H34" s="61"/>
-      <c r="I34" s="62"/>
+      <c r="E34" s="71" t="s">
+        <v>1</v>
+      </c>
+      <c r="F34" s="72"/>
+      <c r="G34" s="72"/>
+      <c r="H34" s="72"/>
+      <c r="I34" s="73"/>
     </row>
     <row r="35" spans="1:9" s="43" customFormat="1" ht="12">
       <c r="A35" s="40" t="s">
-        <v>36</v>
+        <v>58</v>
       </c>
       <c r="B35" s="41">
         <v>0.4375</v>
@@ -3646,17 +3666,17 @@
         <f t="shared" si="0"/>
         <v>0.10416666666666663</v>
       </c>
-      <c r="E35" s="60" t="s">
-        <v>80</v>
-      </c>
-      <c r="F35" s="61"/>
-      <c r="G35" s="61"/>
-      <c r="H35" s="61"/>
-      <c r="I35" s="62"/>
+      <c r="E35" s="71" t="s">
+        <v>10</v>
+      </c>
+      <c r="F35" s="72"/>
+      <c r="G35" s="72"/>
+      <c r="H35" s="72"/>
+      <c r="I35" s="73"/>
     </row>
     <row r="36" spans="1:9" s="51" customFormat="1" ht="12">
       <c r="A36" s="48" t="s">
-        <v>37</v>
+        <v>59</v>
       </c>
       <c r="B36" s="49">
         <v>0.33333333333333331</v>
@@ -3668,13 +3688,13 @@
         <f t="shared" si="0"/>
         <v>6.25E-2</v>
       </c>
-      <c r="E36" s="57" t="s">
-        <v>69</v>
-      </c>
-      <c r="F36" s="58"/>
-      <c r="G36" s="58"/>
-      <c r="H36" s="58"/>
-      <c r="I36" s="59"/>
+      <c r="E36" s="77" t="s">
+        <v>91</v>
+      </c>
+      <c r="F36" s="75"/>
+      <c r="G36" s="75"/>
+      <c r="H36" s="75"/>
+      <c r="I36" s="76"/>
     </row>
     <row r="37" spans="1:9" s="51" customFormat="1" ht="12">
       <c r="A37" s="48"/>
@@ -3688,17 +3708,17 @@
         <f t="shared" si="0"/>
         <v>0.125</v>
       </c>
-      <c r="E37" s="57" t="s">
-        <v>68</v>
-      </c>
-      <c r="F37" s="58"/>
-      <c r="G37" s="58"/>
-      <c r="H37" s="58"/>
-      <c r="I37" s="59"/>
+      <c r="E37" s="77" t="s">
+        <v>90</v>
+      </c>
+      <c r="F37" s="75"/>
+      <c r="G37" s="75"/>
+      <c r="H37" s="75"/>
+      <c r="I37" s="76"/>
     </row>
     <row r="38" spans="1:9" s="51" customFormat="1" ht="12">
       <c r="A38" s="48" t="s">
-        <v>38</v>
+        <v>60</v>
       </c>
       <c r="B38" s="49"/>
       <c r="C38" s="50"/>
@@ -3706,15 +3726,15 @@
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="E38" s="57"/>
-      <c r="F38" s="58"/>
-      <c r="G38" s="58"/>
-      <c r="H38" s="58"/>
-      <c r="I38" s="59"/>
+      <c r="E38" s="77"/>
+      <c r="F38" s="75"/>
+      <c r="G38" s="75"/>
+      <c r="H38" s="75"/>
+      <c r="I38" s="76"/>
     </row>
     <row r="39" spans="1:9" s="43" customFormat="1" ht="12">
       <c r="A39" s="40" t="s">
-        <v>39</v>
+        <v>61</v>
       </c>
       <c r="B39" s="41">
         <v>0.41666666666666669</v>
@@ -3726,17 +3746,17 @@
         <f t="shared" si="0"/>
         <v>0.41666666666666669</v>
       </c>
-      <c r="E39" s="60" t="s">
-        <v>70</v>
-      </c>
-      <c r="F39" s="61"/>
-      <c r="G39" s="61"/>
-      <c r="H39" s="61"/>
-      <c r="I39" s="62"/>
+      <c r="E39" s="71" t="s">
+        <v>0</v>
+      </c>
+      <c r="F39" s="72"/>
+      <c r="G39" s="72"/>
+      <c r="H39" s="72"/>
+      <c r="I39" s="73"/>
     </row>
     <row r="40" spans="1:9" s="43" customFormat="1" ht="12">
       <c r="A40" s="40" t="s">
-        <v>40</v>
+        <v>62</v>
       </c>
       <c r="B40" s="41">
         <v>0.375</v>
@@ -3748,17 +3768,17 @@
         <f t="shared" si="0"/>
         <v>0.29166666666666663</v>
       </c>
-      <c r="E40" s="60" t="s">
-        <v>67</v>
-      </c>
-      <c r="F40" s="61"/>
-      <c r="G40" s="61"/>
-      <c r="H40" s="61"/>
-      <c r="I40" s="62"/>
+      <c r="E40" s="71" t="s">
+        <v>89</v>
+      </c>
+      <c r="F40" s="72"/>
+      <c r="G40" s="72"/>
+      <c r="H40" s="72"/>
+      <c r="I40" s="73"/>
     </row>
     <row r="41" spans="1:9" s="43" customFormat="1" ht="12">
       <c r="A41" s="40" t="s">
-        <v>41</v>
+        <v>63</v>
       </c>
       <c r="B41" s="41"/>
       <c r="C41" s="42"/>
@@ -3766,15 +3786,15 @@
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="E41" s="60"/>
-      <c r="F41" s="61"/>
-      <c r="G41" s="61"/>
-      <c r="H41" s="61"/>
-      <c r="I41" s="62"/>
+      <c r="E41" s="71"/>
+      <c r="F41" s="72"/>
+      <c r="G41" s="72"/>
+      <c r="H41" s="72"/>
+      <c r="I41" s="73"/>
     </row>
     <row r="42" spans="1:9" s="43" customFormat="1" ht="12">
       <c r="A42" s="40" t="s">
-        <v>42</v>
+        <v>64</v>
       </c>
       <c r="B42" s="41"/>
       <c r="C42" s="42"/>
@@ -3782,15 +3802,15 @@
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="E42" s="60"/>
-      <c r="F42" s="61"/>
-      <c r="G42" s="61"/>
-      <c r="H42" s="61"/>
-      <c r="I42" s="62"/>
+      <c r="E42" s="71"/>
+      <c r="F42" s="72"/>
+      <c r="G42" s="72"/>
+      <c r="H42" s="72"/>
+      <c r="I42" s="73"/>
     </row>
     <row r="43" spans="1:9" s="43" customFormat="1" ht="12">
       <c r="A43" s="40" t="s">
-        <v>43</v>
+        <v>65</v>
       </c>
       <c r="B43" s="41">
         <v>0.58333333333333337</v>
@@ -3802,17 +3822,17 @@
         <f t="shared" si="0"/>
         <v>0.16666666666666663</v>
       </c>
-      <c r="E43" s="60" t="s">
-        <v>34</v>
-      </c>
-      <c r="F43" s="61"/>
-      <c r="G43" s="61"/>
-      <c r="H43" s="61"/>
-      <c r="I43" s="62"/>
+      <c r="E43" s="71" t="s">
+        <v>56</v>
+      </c>
+      <c r="F43" s="72"/>
+      <c r="G43" s="72"/>
+      <c r="H43" s="72"/>
+      <c r="I43" s="73"/>
     </row>
     <row r="44" spans="1:9" s="51" customFormat="1" ht="12">
       <c r="A44" s="48" t="s">
-        <v>44</v>
+        <v>66</v>
       </c>
       <c r="B44" s="49">
         <v>0.58333333333333337</v>
@@ -3824,17 +3844,17 @@
         <f t="shared" si="0"/>
         <v>0.16666666666666663</v>
       </c>
-      <c r="E44" s="57" t="s">
-        <v>34</v>
-      </c>
-      <c r="F44" s="58"/>
-      <c r="G44" s="58"/>
-      <c r="H44" s="58"/>
-      <c r="I44" s="59"/>
+      <c r="E44" s="77" t="s">
+        <v>56</v>
+      </c>
+      <c r="F44" s="75"/>
+      <c r="G44" s="75"/>
+      <c r="H44" s="75"/>
+      <c r="I44" s="76"/>
     </row>
     <row r="45" spans="1:9" s="51" customFormat="1" ht="12">
       <c r="A45" s="48" t="s">
-        <v>45</v>
+        <v>67</v>
       </c>
       <c r="B45" s="49">
         <v>0.45833333333333331</v>
@@ -3846,17 +3866,17 @@
         <f t="shared" si="0"/>
         <v>0.16666666666666669</v>
       </c>
-      <c r="E45" s="57" t="s">
-        <v>35</v>
-      </c>
-      <c r="F45" s="58"/>
-      <c r="G45" s="58"/>
-      <c r="H45" s="58"/>
-      <c r="I45" s="59"/>
+      <c r="E45" s="77" t="s">
+        <v>57</v>
+      </c>
+      <c r="F45" s="75"/>
+      <c r="G45" s="75"/>
+      <c r="H45" s="75"/>
+      <c r="I45" s="76"/>
     </row>
     <row r="46" spans="1:9" s="43" customFormat="1" ht="12">
       <c r="A46" s="40" t="s">
-        <v>46</v>
+        <v>68</v>
       </c>
       <c r="B46" s="41">
         <v>0.375</v>
@@ -3868,17 +3888,17 @@
         <f t="shared" si="0"/>
         <v>8.3333333333333315E-2</v>
       </c>
-      <c r="E46" s="60" t="s">
-        <v>33</v>
-      </c>
-      <c r="F46" s="61"/>
-      <c r="G46" s="61"/>
-      <c r="H46" s="61"/>
-      <c r="I46" s="62"/>
+      <c r="E46" s="71" t="s">
+        <v>55</v>
+      </c>
+      <c r="F46" s="72"/>
+      <c r="G46" s="72"/>
+      <c r="H46" s="72"/>
+      <c r="I46" s="73"/>
     </row>
     <row r="47" spans="1:9" s="43" customFormat="1" ht="12">
       <c r="A47" s="40" t="s">
-        <v>47</v>
+        <v>69</v>
       </c>
       <c r="B47" s="41"/>
       <c r="C47" s="42"/>
@@ -3886,15 +3906,15 @@
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="E47" s="60"/>
-      <c r="F47" s="61"/>
-      <c r="G47" s="61"/>
-      <c r="H47" s="61"/>
-      <c r="I47" s="62"/>
+      <c r="E47" s="71"/>
+      <c r="F47" s="72"/>
+      <c r="G47" s="72"/>
+      <c r="H47" s="72"/>
+      <c r="I47" s="73"/>
     </row>
     <row r="48" spans="1:9" s="43" customFormat="1" ht="12">
       <c r="A48" s="40" t="s">
-        <v>48</v>
+        <v>70</v>
       </c>
       <c r="B48" s="41"/>
       <c r="C48" s="42"/>
@@ -3902,25 +3922,25 @@
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="E48" s="60"/>
-      <c r="F48" s="61"/>
-      <c r="G48" s="61"/>
-      <c r="H48" s="61"/>
-      <c r="I48" s="62"/>
+      <c r="E48" s="71"/>
+      <c r="F48" s="72"/>
+      <c r="G48" s="72"/>
+      <c r="H48" s="72"/>
+      <c r="I48" s="73"/>
     </row>
     <row r="49" spans="1:12" s="47" customFormat="1" ht="13">
-      <c r="A49" s="63"/>
-      <c r="B49" s="64"/>
-      <c r="C49" s="64"/>
+      <c r="A49" s="94"/>
+      <c r="B49" s="95"/>
+      <c r="C49" s="95"/>
       <c r="D49" s="46">
         <f>SUM(D16:D48)</f>
         <v>3.1249999999999991</v>
       </c>
-      <c r="E49" s="65"/>
-      <c r="F49" s="65"/>
-      <c r="G49" s="65"/>
-      <c r="H49" s="65"/>
-      <c r="I49" s="66"/>
+      <c r="E49" s="96"/>
+      <c r="F49" s="96"/>
+      <c r="G49" s="96"/>
+      <c r="H49" s="96"/>
+      <c r="I49" s="97"/>
     </row>
     <row r="50" spans="1:12" ht="7" customHeight="1">
       <c r="A50" s="28"/>
@@ -3938,31 +3958,18 @@
     </row>
   </sheetData>
   <mergeCells count="53">
-    <mergeCell ref="E34:I34"/>
-    <mergeCell ref="E24:I24"/>
-    <mergeCell ref="A5:C5"/>
-    <mergeCell ref="D5:H5"/>
-    <mergeCell ref="A6:I6"/>
-    <mergeCell ref="E22:I22"/>
-    <mergeCell ref="E23:I23"/>
-    <mergeCell ref="E25:I25"/>
-    <mergeCell ref="E21:I21"/>
-    <mergeCell ref="E18:I18"/>
-    <mergeCell ref="E20:I20"/>
-    <mergeCell ref="E19:I19"/>
-    <mergeCell ref="A1:I1"/>
-    <mergeCell ref="A2:I2"/>
-    <mergeCell ref="A3:H3"/>
-    <mergeCell ref="A4:I4"/>
-    <mergeCell ref="E17:I17"/>
-    <mergeCell ref="A9:C9"/>
-    <mergeCell ref="D9:H9"/>
-    <mergeCell ref="A10:I10"/>
-    <mergeCell ref="E14:I15"/>
-    <mergeCell ref="E16:I16"/>
-    <mergeCell ref="A13:A15"/>
-    <mergeCell ref="B13:I13"/>
-    <mergeCell ref="B14:C14"/>
+    <mergeCell ref="E37:I37"/>
+    <mergeCell ref="A49:C49"/>
+    <mergeCell ref="E49:I49"/>
+    <mergeCell ref="E46:I46"/>
+    <mergeCell ref="E47:I47"/>
+    <mergeCell ref="E48:I48"/>
+    <mergeCell ref="E44:I44"/>
+    <mergeCell ref="E45:I45"/>
+    <mergeCell ref="E40:I40"/>
+    <mergeCell ref="E41:I41"/>
+    <mergeCell ref="E42:I42"/>
+    <mergeCell ref="E43:I43"/>
     <mergeCell ref="E36:I36"/>
     <mergeCell ref="E38:I38"/>
     <mergeCell ref="E39:I39"/>
@@ -3979,18 +3986,31 @@
     <mergeCell ref="E26:I26"/>
     <mergeCell ref="E27:I27"/>
     <mergeCell ref="E28:I28"/>
-    <mergeCell ref="E37:I37"/>
-    <mergeCell ref="A49:C49"/>
-    <mergeCell ref="E49:I49"/>
-    <mergeCell ref="E46:I46"/>
-    <mergeCell ref="E47:I47"/>
-    <mergeCell ref="E48:I48"/>
-    <mergeCell ref="E44:I44"/>
-    <mergeCell ref="E45:I45"/>
-    <mergeCell ref="E40:I40"/>
-    <mergeCell ref="E41:I41"/>
-    <mergeCell ref="E42:I42"/>
-    <mergeCell ref="E43:I43"/>
+    <mergeCell ref="A1:I1"/>
+    <mergeCell ref="A2:I2"/>
+    <mergeCell ref="A3:H3"/>
+    <mergeCell ref="A4:I4"/>
+    <mergeCell ref="E17:I17"/>
+    <mergeCell ref="A9:C9"/>
+    <mergeCell ref="D9:H9"/>
+    <mergeCell ref="A10:I10"/>
+    <mergeCell ref="E14:I15"/>
+    <mergeCell ref="E16:I16"/>
+    <mergeCell ref="A13:A15"/>
+    <mergeCell ref="B13:I13"/>
+    <mergeCell ref="B14:C14"/>
+    <mergeCell ref="E34:I34"/>
+    <mergeCell ref="E24:I24"/>
+    <mergeCell ref="A5:C5"/>
+    <mergeCell ref="D5:H5"/>
+    <mergeCell ref="A6:I6"/>
+    <mergeCell ref="E22:I22"/>
+    <mergeCell ref="E23:I23"/>
+    <mergeCell ref="E25:I25"/>
+    <mergeCell ref="E21:I21"/>
+    <mergeCell ref="E18:I18"/>
+    <mergeCell ref="E20:I20"/>
+    <mergeCell ref="E19:I19"/>
   </mergeCells>
   <phoneticPr fontId="32" type="noConversion"/>
   <printOptions horizontalCentered="1"/>
@@ -4011,8 +4031,8 @@
   </sheetPr>
   <dimension ref="A1:AN48"/>
   <sheetViews>
-    <sheetView view="pageLayout" zoomScale="85" zoomScaleSheetLayoutView="85" workbookViewId="0">
-      <selection activeCell="B40" sqref="B40"/>
+    <sheetView tabSelected="1" view="pageLayout" zoomScale="85" zoomScaleSheetLayoutView="85" workbookViewId="0">
+      <selection activeCell="E20" sqref="E20:I20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.1640625" defaultRowHeight="10"/>
@@ -4029,17 +4049,17 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:40" s="7" customFormat="1" ht="18" thickBot="1">
-      <c r="A1" s="84" t="s">
-        <v>52</v>
-      </c>
-      <c r="B1" s="84"/>
-      <c r="C1" s="84"/>
-      <c r="D1" s="84"/>
-      <c r="E1" s="84"/>
-      <c r="F1" s="84"/>
-      <c r="G1" s="84"/>
-      <c r="H1" s="84"/>
-      <c r="I1" s="84"/>
+      <c r="A1" s="66" t="s">
+        <v>74</v>
+      </c>
+      <c r="B1" s="66"/>
+      <c r="C1" s="66"/>
+      <c r="D1" s="66"/>
+      <c r="E1" s="66"/>
+      <c r="F1" s="66"/>
+      <c r="G1" s="66"/>
+      <c r="H1" s="66"/>
+      <c r="I1" s="66"/>
       <c r="J1" s="8"/>
       <c r="K1" s="8"/>
       <c r="L1" s="8"/>
@@ -4072,15 +4092,15 @@
       <c r="AM1" s="8"/>
     </row>
     <row r="2" spans="1:40" s="1" customFormat="1" ht="7.5" customHeight="1">
-      <c r="A2" s="85"/>
-      <c r="B2" s="85"/>
-      <c r="C2" s="85"/>
-      <c r="D2" s="85"/>
-      <c r="E2" s="85"/>
-      <c r="F2" s="85"/>
-      <c r="G2" s="85"/>
-      <c r="H2" s="85"/>
-      <c r="I2" s="85"/>
+      <c r="A2" s="67"/>
+      <c r="B2" s="67"/>
+      <c r="C2" s="67"/>
+      <c r="D2" s="67"/>
+      <c r="E2" s="67"/>
+      <c r="F2" s="67"/>
+      <c r="G2" s="67"/>
+      <c r="H2" s="67"/>
+      <c r="I2" s="67"/>
       <c r="J2" s="9"/>
       <c r="K2" s="9"/>
       <c r="L2" s="9"/>
@@ -4113,16 +4133,16 @@
       <c r="AM2" s="9"/>
     </row>
     <row r="3" spans="1:40" s="11" customFormat="1" ht="13.5" customHeight="1">
-      <c r="A3" s="86" t="s">
-        <v>56</v>
-      </c>
-      <c r="B3" s="86"/>
-      <c r="C3" s="86"/>
-      <c r="D3" s="86"/>
-      <c r="E3" s="86"/>
-      <c r="F3" s="86"/>
-      <c r="G3" s="86"/>
-      <c r="H3" s="86"/>
+      <c r="A3" s="68" t="s">
+        <v>78</v>
+      </c>
+      <c r="B3" s="68"/>
+      <c r="C3" s="68"/>
+      <c r="D3" s="68"/>
+      <c r="E3" s="68"/>
+      <c r="F3" s="68"/>
+      <c r="G3" s="68"/>
+      <c r="H3" s="68"/>
       <c r="I3" s="23"/>
       <c r="J3" s="22"/>
       <c r="K3" s="22"/>
@@ -4157,112 +4177,112 @@
       <c r="AN3" s="10"/>
     </row>
     <row r="4" spans="1:40" s="6" customFormat="1" ht="9" customHeight="1">
-      <c r="A4" s="87"/>
-      <c r="B4" s="87"/>
-      <c r="C4" s="87"/>
-      <c r="D4" s="87"/>
-      <c r="E4" s="87"/>
-      <c r="F4" s="87"/>
-      <c r="G4" s="87"/>
-      <c r="H4" s="87"/>
-      <c r="I4" s="87"/>
+      <c r="A4" s="69"/>
+      <c r="B4" s="69"/>
+      <c r="C4" s="69"/>
+      <c r="D4" s="69"/>
+      <c r="E4" s="69"/>
+      <c r="F4" s="69"/>
+      <c r="G4" s="69"/>
+      <c r="H4" s="69"/>
+      <c r="I4" s="69"/>
     </row>
     <row r="5" spans="1:40" s="1" customFormat="1" ht="13.75" customHeight="1">
-      <c r="A5" s="94" t="str">
+      <c r="A5" s="62" t="str">
         <f>October!A5</f>
         <v>Firstname Lastname</v>
       </c>
-      <c r="B5" s="95"/>
-      <c r="C5" s="95"/>
-      <c r="D5" s="90" t="str">
+      <c r="B5" s="63"/>
+      <c r="C5" s="63"/>
+      <c r="D5" s="58" t="str">
         <f>October!D5</f>
         <v>Augustin Hannah</v>
       </c>
-      <c r="E5" s="91"/>
-      <c r="F5" s="91"/>
-      <c r="G5" s="91"/>
-      <c r="H5" s="92"/>
+      <c r="E5" s="59"/>
+      <c r="F5" s="59"/>
+      <c r="G5" s="59"/>
+      <c r="H5" s="60"/>
       <c r="I5" s="23"/>
       <c r="J5" s="9"/>
       <c r="K5" s="9"/>
       <c r="L5" s="9"/>
     </row>
     <row r="6" spans="1:40" s="1" customFormat="1" ht="7.5" customHeight="1">
-      <c r="A6" s="96"/>
-      <c r="B6" s="96"/>
-      <c r="C6" s="96"/>
-      <c r="D6" s="96"/>
-      <c r="E6" s="96"/>
-      <c r="F6" s="96"/>
-      <c r="G6" s="96"/>
-      <c r="H6" s="96"/>
-      <c r="I6" s="96"/>
+      <c r="A6" s="64"/>
+      <c r="B6" s="64"/>
+      <c r="C6" s="64"/>
+      <c r="D6" s="64"/>
+      <c r="E6" s="64"/>
+      <c r="F6" s="64"/>
+      <c r="G6" s="64"/>
+      <c r="H6" s="64"/>
+      <c r="I6" s="64"/>
     </row>
     <row r="7" spans="1:40" s="1" customFormat="1" ht="13.75" customHeight="1">
-      <c r="A7" s="89" t="str">
+      <c r="A7" s="57" t="str">
         <f>October!A7</f>
         <v>Project Acronym</v>
       </c>
-      <c r="B7" s="89"/>
-      <c r="C7" s="89"/>
-      <c r="D7" s="97" t="str">
+      <c r="B7" s="57"/>
+      <c r="C7" s="57"/>
+      <c r="D7" s="65" t="str">
         <f>October!D7</f>
         <v>AIQ</v>
       </c>
-      <c r="E7" s="97"/>
-      <c r="F7" s="97"/>
-      <c r="G7" s="97"/>
-      <c r="H7" s="97"/>
+      <c r="E7" s="65"/>
+      <c r="F7" s="65"/>
+      <c r="G7" s="65"/>
+      <c r="H7" s="65"/>
       <c r="I7" s="24"/>
     </row>
     <row r="8" spans="1:40" s="1" customFormat="1" ht="7.5" customHeight="1">
-      <c r="A8" s="88"/>
-      <c r="B8" s="88"/>
-      <c r="C8" s="88"/>
-      <c r="D8" s="88"/>
-      <c r="E8" s="88"/>
-      <c r="F8" s="88"/>
-      <c r="G8" s="88"/>
-      <c r="H8" s="88"/>
-      <c r="I8" s="88"/>
+      <c r="A8" s="70"/>
+      <c r="B8" s="70"/>
+      <c r="C8" s="70"/>
+      <c r="D8" s="70"/>
+      <c r="E8" s="70"/>
+      <c r="F8" s="70"/>
+      <c r="G8" s="70"/>
+      <c r="H8" s="70"/>
+      <c r="I8" s="70"/>
     </row>
     <row r="9" spans="1:40" s="1" customFormat="1" ht="13.75" customHeight="1">
-      <c r="A9" s="89" t="str">
+      <c r="A9" s="57" t="str">
         <f>October!A9</f>
         <v>Project Title</v>
       </c>
-      <c r="B9" s="89"/>
-      <c r="C9" s="89"/>
-      <c r="D9" s="90" t="str">
+      <c r="B9" s="57"/>
+      <c r="C9" s="57"/>
+      <c r="D9" s="58" t="str">
         <f>October!D9</f>
         <v>Automating change detection in ImageQuerying</v>
       </c>
-      <c r="E9" s="91"/>
-      <c r="F9" s="91"/>
-      <c r="G9" s="91"/>
-      <c r="H9" s="92"/>
+      <c r="E9" s="59"/>
+      <c r="F9" s="59"/>
+      <c r="G9" s="59"/>
+      <c r="H9" s="60"/>
       <c r="I9" s="24"/>
       <c r="J9" s="15"/>
     </row>
     <row r="10" spans="1:40" s="1" customFormat="1" ht="7.5" customHeight="1">
-      <c r="A10" s="93"/>
-      <c r="B10" s="93"/>
-      <c r="C10" s="93"/>
-      <c r="D10" s="93"/>
-      <c r="E10" s="93"/>
-      <c r="F10" s="93"/>
-      <c r="G10" s="93"/>
-      <c r="H10" s="93"/>
-      <c r="I10" s="93"/>
+      <c r="A10" s="61"/>
+      <c r="B10" s="61"/>
+      <c r="C10" s="61"/>
+      <c r="D10" s="61"/>
+      <c r="E10" s="61"/>
+      <c r="F10" s="61"/>
+      <c r="G10" s="61"/>
+      <c r="H10" s="61"/>
+      <c r="I10" s="61"/>
     </row>
     <row r="11" spans="1:40" s="1" customFormat="1" ht="12">
       <c r="A11" s="21" t="s">
-        <v>54</v>
+        <v>76</v>
       </c>
       <c r="B11" s="21"/>
       <c r="C11" s="21"/>
       <c r="D11" s="21" t="s">
-        <v>55</v>
+        <v>77</v>
       </c>
       <c r="E11" s="21"/>
       <c r="F11" s="21"/>
@@ -4282,55 +4302,55 @@
       <c r="I12" s="26"/>
     </row>
     <row r="13" spans="1:40" s="2" customFormat="1" ht="15.5" customHeight="1">
-      <c r="A13" s="68" t="s">
-        <v>11</v>
-      </c>
-      <c r="B13" s="71" t="s">
-        <v>50</v>
-      </c>
-      <c r="C13" s="72"/>
-      <c r="D13" s="72"/>
-      <c r="E13" s="72"/>
-      <c r="F13" s="72"/>
-      <c r="G13" s="72"/>
-      <c r="H13" s="72"/>
-      <c r="I13" s="73"/>
+      <c r="A13" s="78" t="s">
+        <v>33</v>
+      </c>
+      <c r="B13" s="81" t="s">
+        <v>72</v>
+      </c>
+      <c r="C13" s="82"/>
+      <c r="D13" s="82"/>
+      <c r="E13" s="82"/>
+      <c r="F13" s="82"/>
+      <c r="G13" s="82"/>
+      <c r="H13" s="82"/>
+      <c r="I13" s="83"/>
     </row>
     <row r="14" spans="1:40" s="2" customFormat="1" ht="13.75" customHeight="1">
-      <c r="A14" s="69"/>
-      <c r="B14" s="74" t="s">
-        <v>12</v>
-      </c>
-      <c r="C14" s="75"/>
-      <c r="D14" s="76" t="s">
-        <v>13</v>
-      </c>
-      <c r="E14" s="78" t="s">
-        <v>51</v>
-      </c>
-      <c r="F14" s="79"/>
-      <c r="G14" s="79"/>
-      <c r="H14" s="79"/>
-      <c r="I14" s="80"/>
+      <c r="A14" s="79"/>
+      <c r="B14" s="84" t="s">
+        <v>34</v>
+      </c>
+      <c r="C14" s="85"/>
+      <c r="D14" s="86" t="s">
+        <v>35</v>
+      </c>
+      <c r="E14" s="88" t="s">
+        <v>73</v>
+      </c>
+      <c r="F14" s="89"/>
+      <c r="G14" s="89"/>
+      <c r="H14" s="89"/>
+      <c r="I14" s="90"/>
     </row>
     <row r="15" spans="1:40" ht="13" customHeight="1">
-      <c r="A15" s="70"/>
+      <c r="A15" s="80"/>
       <c r="B15" s="32" t="s">
-        <v>14</v>
+        <v>36</v>
       </c>
       <c r="C15" s="33" t="s">
-        <v>15</v>
-      </c>
-      <c r="D15" s="77"/>
-      <c r="E15" s="81"/>
-      <c r="F15" s="82"/>
-      <c r="G15" s="82"/>
-      <c r="H15" s="82"/>
-      <c r="I15" s="83"/>
+        <v>37</v>
+      </c>
+      <c r="D15" s="87"/>
+      <c r="E15" s="91"/>
+      <c r="F15" s="92"/>
+      <c r="G15" s="92"/>
+      <c r="H15" s="92"/>
+      <c r="I15" s="93"/>
     </row>
     <row r="16" spans="1:40" s="43" customFormat="1" ht="12">
       <c r="A16" s="40" t="s">
-        <v>16</v>
+        <v>38</v>
       </c>
       <c r="B16" s="41"/>
       <c r="C16" s="42"/>
@@ -4338,15 +4358,15 @@
         <f>C16-B16</f>
         <v>0</v>
       </c>
-      <c r="E16" s="60"/>
-      <c r="F16" s="61"/>
-      <c r="G16" s="61"/>
-      <c r="H16" s="61"/>
-      <c r="I16" s="62"/>
+      <c r="E16" s="71"/>
+      <c r="F16" s="72"/>
+      <c r="G16" s="72"/>
+      <c r="H16" s="72"/>
+      <c r="I16" s="73"/>
     </row>
     <row r="17" spans="1:9" s="43" customFormat="1" ht="12">
       <c r="A17" s="40" t="s">
-        <v>17</v>
+        <v>39</v>
       </c>
       <c r="B17" s="41"/>
       <c r="C17" s="42"/>
@@ -4354,47 +4374,59 @@
         <f t="shared" ref="D17:D46" si="0">C17-B17</f>
         <v>0</v>
       </c>
-      <c r="E17" s="60"/>
-      <c r="F17" s="61"/>
-      <c r="G17" s="61"/>
-      <c r="H17" s="61"/>
-      <c r="I17" s="62"/>
+      <c r="E17" s="71"/>
+      <c r="F17" s="72"/>
+      <c r="G17" s="72"/>
+      <c r="H17" s="72"/>
+      <c r="I17" s="73"/>
     </row>
     <row r="18" spans="1:9" s="51" customFormat="1" ht="12">
       <c r="A18" s="48" t="s">
-        <v>18</v>
-      </c>
-      <c r="B18" s="49"/>
-      <c r="C18" s="50"/>
+        <v>40</v>
+      </c>
+      <c r="B18" s="49">
+        <v>0.41666666666666669</v>
+      </c>
+      <c r="C18" s="50">
+        <v>0.66666666666666663</v>
+      </c>
       <c r="D18" s="50">
         <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="E18" s="57"/>
-      <c r="F18" s="58"/>
-      <c r="G18" s="58"/>
-      <c r="H18" s="58"/>
-      <c r="I18" s="59"/>
+        <v>0.24999999999999994</v>
+      </c>
+      <c r="E18" s="77" t="s">
+        <v>20</v>
+      </c>
+      <c r="F18" s="75"/>
+      <c r="G18" s="75"/>
+      <c r="H18" s="75"/>
+      <c r="I18" s="76"/>
     </row>
     <row r="19" spans="1:9" s="51" customFormat="1" ht="12">
       <c r="A19" s="48" t="s">
-        <v>19</v>
-      </c>
-      <c r="B19" s="49"/>
-      <c r="C19" s="50"/>
+        <v>41</v>
+      </c>
+      <c r="B19" s="49">
+        <v>0.5</v>
+      </c>
+      <c r="C19" s="50">
+        <v>0.66666666666666663</v>
+      </c>
       <c r="D19" s="50">
         <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="E19" s="57"/>
-      <c r="F19" s="58"/>
-      <c r="G19" s="58"/>
-      <c r="H19" s="58"/>
-      <c r="I19" s="59"/>
+        <v>0.16666666666666663</v>
+      </c>
+      <c r="E19" s="77" t="s">
+        <v>21</v>
+      </c>
+      <c r="F19" s="75"/>
+      <c r="G19" s="75"/>
+      <c r="H19" s="75"/>
+      <c r="I19" s="76"/>
     </row>
     <row r="20" spans="1:9" s="43" customFormat="1" ht="12">
       <c r="A20" s="40" t="s">
-        <v>20</v>
+        <v>42</v>
       </c>
       <c r="B20" s="41"/>
       <c r="C20" s="42"/>
@@ -4402,15 +4434,15 @@
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="E20" s="60"/>
-      <c r="F20" s="61"/>
-      <c r="G20" s="61"/>
-      <c r="H20" s="61"/>
-      <c r="I20" s="62"/>
+      <c r="E20" s="71"/>
+      <c r="F20" s="72"/>
+      <c r="G20" s="72"/>
+      <c r="H20" s="72"/>
+      <c r="I20" s="73"/>
     </row>
     <row r="21" spans="1:9" s="43" customFormat="1" ht="12">
       <c r="A21" s="40" t="s">
-        <v>21</v>
+        <v>43</v>
       </c>
       <c r="B21" s="41"/>
       <c r="C21" s="42"/>
@@ -4418,15 +4450,15 @@
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="E21" s="60"/>
-      <c r="F21" s="61"/>
-      <c r="G21" s="61"/>
-      <c r="H21" s="61"/>
-      <c r="I21" s="62"/>
+      <c r="E21" s="71"/>
+      <c r="F21" s="72"/>
+      <c r="G21" s="72"/>
+      <c r="H21" s="72"/>
+      <c r="I21" s="73"/>
     </row>
     <row r="22" spans="1:9" s="43" customFormat="1" ht="12">
       <c r="A22" s="40" t="s">
-        <v>22</v>
+        <v>44</v>
       </c>
       <c r="B22" s="41"/>
       <c r="C22" s="42"/>
@@ -4434,15 +4466,15 @@
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="E22" s="60"/>
-      <c r="F22" s="61"/>
-      <c r="G22" s="61"/>
-      <c r="H22" s="61"/>
-      <c r="I22" s="62"/>
+      <c r="E22" s="71"/>
+      <c r="F22" s="72"/>
+      <c r="G22" s="72"/>
+      <c r="H22" s="72"/>
+      <c r="I22" s="73"/>
     </row>
     <row r="23" spans="1:9" s="43" customFormat="1" ht="12">
       <c r="A23" s="40" t="s">
-        <v>23</v>
+        <v>45</v>
       </c>
       <c r="B23" s="41"/>
       <c r="C23" s="42"/>
@@ -4450,15 +4482,15 @@
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="E23" s="60"/>
-      <c r="F23" s="61"/>
-      <c r="G23" s="61"/>
-      <c r="H23" s="61"/>
-      <c r="I23" s="62"/>
+      <c r="E23" s="71"/>
+      <c r="F23" s="72"/>
+      <c r="G23" s="72"/>
+      <c r="H23" s="72"/>
+      <c r="I23" s="73"/>
     </row>
     <row r="24" spans="1:9" s="43" customFormat="1" ht="12">
       <c r="A24" s="40" t="s">
-        <v>24</v>
+        <v>46</v>
       </c>
       <c r="B24" s="41"/>
       <c r="C24" s="42"/>
@@ -4466,15 +4498,15 @@
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="E24" s="60"/>
-      <c r="F24" s="61"/>
-      <c r="G24" s="61"/>
-      <c r="H24" s="61"/>
-      <c r="I24" s="62"/>
+      <c r="E24" s="71"/>
+      <c r="F24" s="72"/>
+      <c r="G24" s="72"/>
+      <c r="H24" s="72"/>
+      <c r="I24" s="73"/>
     </row>
     <row r="25" spans="1:9" s="51" customFormat="1" ht="12">
       <c r="A25" s="48" t="s">
-        <v>25</v>
+        <v>47</v>
       </c>
       <c r="B25" s="49"/>
       <c r="C25" s="50"/>
@@ -4482,15 +4514,15 @@
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="E25" s="57"/>
-      <c r="F25" s="58"/>
-      <c r="G25" s="58"/>
-      <c r="H25" s="58"/>
-      <c r="I25" s="59"/>
+      <c r="E25" s="77"/>
+      <c r="F25" s="75"/>
+      <c r="G25" s="75"/>
+      <c r="H25" s="75"/>
+      <c r="I25" s="76"/>
     </row>
     <row r="26" spans="1:9" s="51" customFormat="1" ht="12">
       <c r="A26" s="48" t="s">
-        <v>26</v>
+        <v>48</v>
       </c>
       <c r="B26" s="49"/>
       <c r="C26" s="50"/>
@@ -4498,63 +4530,81 @@
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="E26" s="57"/>
-      <c r="F26" s="58"/>
-      <c r="G26" s="58"/>
-      <c r="H26" s="58"/>
-      <c r="I26" s="59"/>
+      <c r="E26" s="77"/>
+      <c r="F26" s="75"/>
+      <c r="G26" s="75"/>
+      <c r="H26" s="75"/>
+      <c r="I26" s="76"/>
     </row>
     <row r="27" spans="1:9" s="43" customFormat="1" ht="12">
       <c r="A27" s="40" t="s">
-        <v>27</v>
-      </c>
-      <c r="B27" s="41"/>
-      <c r="C27" s="42"/>
+        <v>49</v>
+      </c>
+      <c r="B27" s="41">
+        <v>0.375</v>
+      </c>
+      <c r="C27" s="42">
+        <v>0.45833333333333331</v>
+      </c>
       <c r="D27" s="42">
         <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="E27" s="60"/>
-      <c r="F27" s="61"/>
-      <c r="G27" s="61"/>
-      <c r="H27" s="61"/>
-      <c r="I27" s="62"/>
+        <v>8.3333333333333315E-2</v>
+      </c>
+      <c r="E27" s="71" t="s">
+        <v>19</v>
+      </c>
+      <c r="F27" s="72"/>
+      <c r="G27" s="72"/>
+      <c r="H27" s="72"/>
+      <c r="I27" s="73"/>
     </row>
     <row r="28" spans="1:9" s="43" customFormat="1" ht="12">
       <c r="A28" s="40" t="s">
-        <v>28</v>
-      </c>
-      <c r="B28" s="41"/>
-      <c r="C28" s="42"/>
+        <v>50</v>
+      </c>
+      <c r="B28" s="41">
+        <v>0.5</v>
+      </c>
+      <c r="C28" s="42">
+        <v>0.83333333333333337</v>
+      </c>
       <c r="D28" s="42">
         <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="E28" s="60"/>
-      <c r="F28" s="61"/>
-      <c r="G28" s="61"/>
-      <c r="H28" s="61"/>
-      <c r="I28" s="62"/>
+        <v>0.33333333333333337</v>
+      </c>
+      <c r="E28" s="71" t="s">
+        <v>17</v>
+      </c>
+      <c r="F28" s="72"/>
+      <c r="G28" s="72"/>
+      <c r="H28" s="72"/>
+      <c r="I28" s="73"/>
     </row>
     <row r="29" spans="1:9" s="43" customFormat="1" ht="12">
       <c r="A29" s="40" t="s">
-        <v>29</v>
-      </c>
-      <c r="B29" s="41"/>
-      <c r="C29" s="42"/>
+        <v>51</v>
+      </c>
+      <c r="B29" s="41">
+        <v>0.375</v>
+      </c>
+      <c r="C29" s="42">
+        <v>0.54166666666666663</v>
+      </c>
       <c r="D29" s="42">
         <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="E29" s="60"/>
-      <c r="F29" s="61"/>
-      <c r="G29" s="61"/>
-      <c r="H29" s="61"/>
-      <c r="I29" s="62"/>
+        <v>0.16666666666666663</v>
+      </c>
+      <c r="E29" s="71" t="s">
+        <v>18</v>
+      </c>
+      <c r="F29" s="72"/>
+      <c r="G29" s="72"/>
+      <c r="H29" s="72"/>
+      <c r="I29" s="73"/>
     </row>
     <row r="30" spans="1:9" s="43" customFormat="1" ht="12">
       <c r="A30" s="40" t="s">
-        <v>30</v>
+        <v>52</v>
       </c>
       <c r="B30" s="41"/>
       <c r="C30" s="42"/>
@@ -4562,15 +4612,15 @@
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="E30" s="60"/>
-      <c r="F30" s="61"/>
-      <c r="G30" s="61"/>
-      <c r="H30" s="61"/>
-      <c r="I30" s="62"/>
+      <c r="E30" s="71"/>
+      <c r="F30" s="72"/>
+      <c r="G30" s="72"/>
+      <c r="H30" s="72"/>
+      <c r="I30" s="73"/>
     </row>
     <row r="31" spans="1:9" s="43" customFormat="1" ht="12">
       <c r="A31" s="40" t="s">
-        <v>31</v>
+        <v>53</v>
       </c>
       <c r="B31" s="41"/>
       <c r="C31" s="42"/>
@@ -4578,15 +4628,15 @@
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="E31" s="60"/>
-      <c r="F31" s="61"/>
-      <c r="G31" s="61"/>
-      <c r="H31" s="61"/>
-      <c r="I31" s="62"/>
+      <c r="E31" s="71"/>
+      <c r="F31" s="72"/>
+      <c r="G31" s="72"/>
+      <c r="H31" s="72"/>
+      <c r="I31" s="73"/>
     </row>
     <row r="32" spans="1:9" s="51" customFormat="1" ht="12">
       <c r="A32" s="48" t="s">
-        <v>32</v>
+        <v>54</v>
       </c>
       <c r="B32" s="49"/>
       <c r="C32" s="50"/>
@@ -4594,15 +4644,15 @@
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="E32" s="57"/>
-      <c r="F32" s="58"/>
-      <c r="G32" s="58"/>
-      <c r="H32" s="58"/>
-      <c r="I32" s="59"/>
+      <c r="E32" s="77"/>
+      <c r="F32" s="75"/>
+      <c r="G32" s="75"/>
+      <c r="H32" s="75"/>
+      <c r="I32" s="76"/>
     </row>
     <row r="33" spans="1:12" s="51" customFormat="1" ht="12">
       <c r="A33" s="48" t="s">
-        <v>36</v>
+        <v>58</v>
       </c>
       <c r="B33" s="49"/>
       <c r="C33" s="50"/>
@@ -4610,15 +4660,15 @@
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="E33" s="57"/>
-      <c r="F33" s="58"/>
-      <c r="G33" s="58"/>
-      <c r="H33" s="58"/>
-      <c r="I33" s="59"/>
+      <c r="E33" s="77"/>
+      <c r="F33" s="75"/>
+      <c r="G33" s="75"/>
+      <c r="H33" s="75"/>
+      <c r="I33" s="76"/>
     </row>
     <row r="34" spans="1:12" s="43" customFormat="1" ht="12">
       <c r="A34" s="40" t="s">
-        <v>37</v>
+        <v>59</v>
       </c>
       <c r="B34" s="41"/>
       <c r="C34" s="42"/>
@@ -4626,15 +4676,15 @@
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="E34" s="60"/>
-      <c r="F34" s="61"/>
-      <c r="G34" s="61"/>
-      <c r="H34" s="61"/>
-      <c r="I34" s="62"/>
+      <c r="E34" s="71"/>
+      <c r="F34" s="72"/>
+      <c r="G34" s="72"/>
+      <c r="H34" s="72"/>
+      <c r="I34" s="73"/>
     </row>
     <row r="35" spans="1:12" s="43" customFormat="1" ht="12">
       <c r="A35" s="40" t="s">
-        <v>38</v>
+        <v>60</v>
       </c>
       <c r="B35" s="41"/>
       <c r="C35" s="42"/>
@@ -4642,15 +4692,15 @@
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="E35" s="60"/>
-      <c r="F35" s="61"/>
-      <c r="G35" s="61"/>
-      <c r="H35" s="61"/>
-      <c r="I35" s="62"/>
+      <c r="E35" s="71"/>
+      <c r="F35" s="72"/>
+      <c r="G35" s="72"/>
+      <c r="H35" s="72"/>
+      <c r="I35" s="73"/>
     </row>
     <row r="36" spans="1:12" s="43" customFormat="1" ht="12">
       <c r="A36" s="40" t="s">
-        <v>39</v>
+        <v>61</v>
       </c>
       <c r="B36" s="41"/>
       <c r="C36" s="42"/>
@@ -4658,15 +4708,15 @@
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="E36" s="60"/>
-      <c r="F36" s="61"/>
-      <c r="G36" s="61"/>
-      <c r="H36" s="61"/>
-      <c r="I36" s="62"/>
+      <c r="E36" s="71"/>
+      <c r="F36" s="72"/>
+      <c r="G36" s="72"/>
+      <c r="H36" s="72"/>
+      <c r="I36" s="73"/>
     </row>
     <row r="37" spans="1:12" s="43" customFormat="1" ht="12">
       <c r="A37" s="40" t="s">
-        <v>40</v>
+        <v>62</v>
       </c>
       <c r="B37" s="41"/>
       <c r="C37" s="42"/>
@@ -4674,15 +4724,15 @@
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="E37" s="60"/>
-      <c r="F37" s="61"/>
-      <c r="G37" s="61"/>
-      <c r="H37" s="61"/>
-      <c r="I37" s="62"/>
+      <c r="E37" s="71"/>
+      <c r="F37" s="72"/>
+      <c r="G37" s="72"/>
+      <c r="H37" s="72"/>
+      <c r="I37" s="73"/>
     </row>
     <row r="38" spans="1:12" s="43" customFormat="1" ht="12">
       <c r="A38" s="40" t="s">
-        <v>41</v>
+        <v>63</v>
       </c>
       <c r="B38" s="41"/>
       <c r="C38" s="42"/>
@@ -4690,15 +4740,15 @@
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="E38" s="60"/>
-      <c r="F38" s="61"/>
-      <c r="G38" s="61"/>
-      <c r="H38" s="61"/>
-      <c r="I38" s="62"/>
+      <c r="E38" s="71"/>
+      <c r="F38" s="72"/>
+      <c r="G38" s="72"/>
+      <c r="H38" s="72"/>
+      <c r="I38" s="73"/>
     </row>
     <row r="39" spans="1:12" s="51" customFormat="1" ht="12">
       <c r="A39" s="48" t="s">
-        <v>42</v>
+        <v>64</v>
       </c>
       <c r="B39" s="49"/>
       <c r="C39" s="50"/>
@@ -4706,15 +4756,15 @@
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="E39" s="57"/>
-      <c r="F39" s="58"/>
-      <c r="G39" s="58"/>
-      <c r="H39" s="58"/>
-      <c r="I39" s="59"/>
+      <c r="E39" s="77"/>
+      <c r="F39" s="75"/>
+      <c r="G39" s="75"/>
+      <c r="H39" s="75"/>
+      <c r="I39" s="76"/>
     </row>
     <row r="40" spans="1:12" s="51" customFormat="1" ht="12">
       <c r="A40" s="48" t="s">
-        <v>43</v>
+        <v>65</v>
       </c>
       <c r="B40" s="49"/>
       <c r="C40" s="50"/>
@@ -4722,15 +4772,15 @@
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="E40" s="57"/>
-      <c r="F40" s="58"/>
-      <c r="G40" s="58"/>
-      <c r="H40" s="58"/>
-      <c r="I40" s="59"/>
+      <c r="E40" s="77"/>
+      <c r="F40" s="75"/>
+      <c r="G40" s="75"/>
+      <c r="H40" s="75"/>
+      <c r="I40" s="76"/>
     </row>
     <row r="41" spans="1:12" s="43" customFormat="1" ht="12">
       <c r="A41" s="40" t="s">
-        <v>44</v>
+        <v>66</v>
       </c>
       <c r="B41" s="41"/>
       <c r="C41" s="42"/>
@@ -4738,15 +4788,15 @@
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="E41" s="60"/>
-      <c r="F41" s="61"/>
-      <c r="G41" s="61"/>
-      <c r="H41" s="61"/>
-      <c r="I41" s="62"/>
+      <c r="E41" s="71"/>
+      <c r="F41" s="72"/>
+      <c r="G41" s="72"/>
+      <c r="H41" s="72"/>
+      <c r="I41" s="73"/>
     </row>
     <row r="42" spans="1:12" s="43" customFormat="1" ht="12">
       <c r="A42" s="40" t="s">
-        <v>45</v>
+        <v>67</v>
       </c>
       <c r="B42" s="41"/>
       <c r="C42" s="42"/>
@@ -4754,15 +4804,15 @@
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="E42" s="60"/>
-      <c r="F42" s="61"/>
-      <c r="G42" s="61"/>
-      <c r="H42" s="61"/>
-      <c r="I42" s="62"/>
+      <c r="E42" s="71"/>
+      <c r="F42" s="72"/>
+      <c r="G42" s="72"/>
+      <c r="H42" s="72"/>
+      <c r="I42" s="73"/>
     </row>
     <row r="43" spans="1:12" s="43" customFormat="1" ht="12">
       <c r="A43" s="40" t="s">
-        <v>46</v>
+        <v>68</v>
       </c>
       <c r="B43" s="41"/>
       <c r="C43" s="42"/>
@@ -4770,15 +4820,15 @@
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="E43" s="60"/>
-      <c r="F43" s="61"/>
-      <c r="G43" s="61"/>
-      <c r="H43" s="61"/>
-      <c r="I43" s="62"/>
+      <c r="E43" s="71"/>
+      <c r="F43" s="72"/>
+      <c r="G43" s="72"/>
+      <c r="H43" s="72"/>
+      <c r="I43" s="73"/>
     </row>
     <row r="44" spans="1:12" s="43" customFormat="1" ht="12">
       <c r="A44" s="40" t="s">
-        <v>47</v>
+        <v>69</v>
       </c>
       <c r="B44" s="41"/>
       <c r="C44" s="42"/>
@@ -4786,15 +4836,15 @@
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="E44" s="60"/>
-      <c r="F44" s="61"/>
-      <c r="G44" s="61"/>
-      <c r="H44" s="61"/>
-      <c r="I44" s="62"/>
+      <c r="E44" s="71"/>
+      <c r="F44" s="72"/>
+      <c r="G44" s="72"/>
+      <c r="H44" s="72"/>
+      <c r="I44" s="73"/>
     </row>
     <row r="45" spans="1:12" s="43" customFormat="1" ht="12">
       <c r="A45" s="40" t="s">
-        <v>48</v>
+        <v>70</v>
       </c>
       <c r="B45" s="41"/>
       <c r="C45" s="42"/>
@@ -4802,15 +4852,15 @@
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="E45" s="60"/>
-      <c r="F45" s="61"/>
-      <c r="G45" s="61"/>
-      <c r="H45" s="61"/>
-      <c r="I45" s="62"/>
+      <c r="E45" s="71"/>
+      <c r="F45" s="72"/>
+      <c r="G45" s="72"/>
+      <c r="H45" s="72"/>
+      <c r="I45" s="73"/>
     </row>
     <row r="46" spans="1:12" s="51" customFormat="1" ht="12">
       <c r="A46" s="48" t="s">
-        <v>49</v>
+        <v>71</v>
       </c>
       <c r="B46" s="49"/>
       <c r="C46" s="50"/>
@@ -4818,11 +4868,11 @@
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="E46" s="57"/>
-      <c r="F46" s="58"/>
-      <c r="G46" s="58"/>
-      <c r="H46" s="58"/>
-      <c r="I46" s="59"/>
+      <c r="E46" s="77"/>
+      <c r="F46" s="75"/>
+      <c r="G46" s="75"/>
+      <c r="H46" s="75"/>
+      <c r="I46" s="76"/>
     </row>
     <row r="47" spans="1:12" s="35" customFormat="1" ht="13">
       <c r="A47" s="100"/>
@@ -4830,7 +4880,7 @@
       <c r="C47" s="101"/>
       <c r="D47" s="34">
         <f>SUM(D16:D46)</f>
-        <v>0</v>
+        <v>0.99999999999999989</v>
       </c>
       <c r="E47" s="98"/>
       <c r="F47" s="98"/>
@@ -4854,41 +4904,6 @@
     </row>
   </sheetData>
   <mergeCells count="51">
-    <mergeCell ref="D9:H9"/>
-    <mergeCell ref="A10:I10"/>
-    <mergeCell ref="A1:I1"/>
-    <mergeCell ref="A2:I2"/>
-    <mergeCell ref="A3:H3"/>
-    <mergeCell ref="A4:I4"/>
-    <mergeCell ref="A5:C5"/>
-    <mergeCell ref="D5:H5"/>
-    <mergeCell ref="A6:I6"/>
-    <mergeCell ref="E29:I29"/>
-    <mergeCell ref="E30:I30"/>
-    <mergeCell ref="E31:I31"/>
-    <mergeCell ref="E17:I17"/>
-    <mergeCell ref="E26:I26"/>
-    <mergeCell ref="E27:I27"/>
-    <mergeCell ref="E28:I28"/>
-    <mergeCell ref="E23:I23"/>
-    <mergeCell ref="E24:I24"/>
-    <mergeCell ref="E25:I25"/>
-    <mergeCell ref="E20:I20"/>
-    <mergeCell ref="E21:I21"/>
-    <mergeCell ref="E22:I22"/>
-    <mergeCell ref="E18:I18"/>
-    <mergeCell ref="E19:I19"/>
-    <mergeCell ref="E35:I35"/>
-    <mergeCell ref="E36:I36"/>
-    <mergeCell ref="E37:I37"/>
-    <mergeCell ref="E32:I32"/>
-    <mergeCell ref="E33:I33"/>
-    <mergeCell ref="E34:I34"/>
-    <mergeCell ref="E47:I47"/>
-    <mergeCell ref="A47:C47"/>
-    <mergeCell ref="E44:I44"/>
-    <mergeCell ref="E45:I45"/>
-    <mergeCell ref="E46:I46"/>
     <mergeCell ref="E41:I41"/>
     <mergeCell ref="E42:I42"/>
     <mergeCell ref="E43:I43"/>
@@ -4905,6 +4920,41 @@
     <mergeCell ref="E38:I38"/>
     <mergeCell ref="E39:I39"/>
     <mergeCell ref="E40:I40"/>
+    <mergeCell ref="E47:I47"/>
+    <mergeCell ref="A47:C47"/>
+    <mergeCell ref="E44:I44"/>
+    <mergeCell ref="E45:I45"/>
+    <mergeCell ref="E46:I46"/>
+    <mergeCell ref="E35:I35"/>
+    <mergeCell ref="E36:I36"/>
+    <mergeCell ref="E37:I37"/>
+    <mergeCell ref="E32:I32"/>
+    <mergeCell ref="E33:I33"/>
+    <mergeCell ref="E34:I34"/>
+    <mergeCell ref="E29:I29"/>
+    <mergeCell ref="E30:I30"/>
+    <mergeCell ref="E31:I31"/>
+    <mergeCell ref="E17:I17"/>
+    <mergeCell ref="E26:I26"/>
+    <mergeCell ref="E27:I27"/>
+    <mergeCell ref="E28:I28"/>
+    <mergeCell ref="E23:I23"/>
+    <mergeCell ref="E24:I24"/>
+    <mergeCell ref="E25:I25"/>
+    <mergeCell ref="E20:I20"/>
+    <mergeCell ref="E21:I21"/>
+    <mergeCell ref="E22:I22"/>
+    <mergeCell ref="E18:I18"/>
+    <mergeCell ref="E19:I19"/>
+    <mergeCell ref="D9:H9"/>
+    <mergeCell ref="A10:I10"/>
+    <mergeCell ref="A1:I1"/>
+    <mergeCell ref="A2:I2"/>
+    <mergeCell ref="A3:H3"/>
+    <mergeCell ref="A4:I4"/>
+    <mergeCell ref="A5:C5"/>
+    <mergeCell ref="D5:H5"/>
+    <mergeCell ref="A6:I6"/>
   </mergeCells>
   <phoneticPr fontId="32" type="noConversion"/>
   <printOptions horizontalCentered="1"/>
@@ -4943,17 +4993,17 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:40" s="7" customFormat="1" ht="18" thickBot="1">
-      <c r="A1" s="84" t="s">
-        <v>52</v>
-      </c>
-      <c r="B1" s="84"/>
-      <c r="C1" s="84"/>
-      <c r="D1" s="84"/>
-      <c r="E1" s="84"/>
-      <c r="F1" s="84"/>
-      <c r="G1" s="84"/>
-      <c r="H1" s="84"/>
-      <c r="I1" s="84"/>
+      <c r="A1" s="66" t="s">
+        <v>74</v>
+      </c>
+      <c r="B1" s="66"/>
+      <c r="C1" s="66"/>
+      <c r="D1" s="66"/>
+      <c r="E1" s="66"/>
+      <c r="F1" s="66"/>
+      <c r="G1" s="66"/>
+      <c r="H1" s="66"/>
+      <c r="I1" s="66"/>
       <c r="J1" s="8"/>
       <c r="K1" s="8"/>
       <c r="L1" s="8"/>
@@ -4986,15 +5036,15 @@
       <c r="AM1" s="8"/>
     </row>
     <row r="2" spans="1:40" s="1" customFormat="1" ht="7.5" customHeight="1">
-      <c r="A2" s="85"/>
-      <c r="B2" s="85"/>
-      <c r="C2" s="85"/>
-      <c r="D2" s="85"/>
-      <c r="E2" s="85"/>
-      <c r="F2" s="85"/>
-      <c r="G2" s="85"/>
-      <c r="H2" s="85"/>
-      <c r="I2" s="85"/>
+      <c r="A2" s="67"/>
+      <c r="B2" s="67"/>
+      <c r="C2" s="67"/>
+      <c r="D2" s="67"/>
+      <c r="E2" s="67"/>
+      <c r="F2" s="67"/>
+      <c r="G2" s="67"/>
+      <c r="H2" s="67"/>
+      <c r="I2" s="67"/>
       <c r="J2" s="9"/>
       <c r="K2" s="9"/>
       <c r="L2" s="9"/>
@@ -5027,16 +5077,16 @@
       <c r="AM2" s="9"/>
     </row>
     <row r="3" spans="1:40" s="11" customFormat="1" ht="13.5" customHeight="1">
-      <c r="A3" s="86" t="s">
-        <v>56</v>
-      </c>
-      <c r="B3" s="86"/>
-      <c r="C3" s="86"/>
-      <c r="D3" s="86"/>
-      <c r="E3" s="86"/>
-      <c r="F3" s="86"/>
-      <c r="G3" s="86"/>
-      <c r="H3" s="86"/>
+      <c r="A3" s="68" t="s">
+        <v>78</v>
+      </c>
+      <c r="B3" s="68"/>
+      <c r="C3" s="68"/>
+      <c r="D3" s="68"/>
+      <c r="E3" s="68"/>
+      <c r="F3" s="68"/>
+      <c r="G3" s="68"/>
+      <c r="H3" s="68"/>
       <c r="I3" s="23"/>
       <c r="J3" s="22"/>
       <c r="K3" s="22"/>
@@ -5071,112 +5121,112 @@
       <c r="AN3" s="10"/>
     </row>
     <row r="4" spans="1:40" s="6" customFormat="1" ht="9" customHeight="1">
-      <c r="A4" s="87"/>
-      <c r="B4" s="87"/>
-      <c r="C4" s="87"/>
-      <c r="D4" s="87"/>
-      <c r="E4" s="87"/>
-      <c r="F4" s="87"/>
-      <c r="G4" s="87"/>
-      <c r="H4" s="87"/>
-      <c r="I4" s="87"/>
+      <c r="A4" s="69"/>
+      <c r="B4" s="69"/>
+      <c r="C4" s="69"/>
+      <c r="D4" s="69"/>
+      <c r="E4" s="69"/>
+      <c r="F4" s="69"/>
+      <c r="G4" s="69"/>
+      <c r="H4" s="69"/>
+      <c r="I4" s="69"/>
     </row>
     <row r="5" spans="1:40" s="1" customFormat="1" ht="13.75" customHeight="1">
-      <c r="A5" s="94" t="str">
+      <c r="A5" s="62" t="str">
         <f>October!A5</f>
         <v>Firstname Lastname</v>
       </c>
-      <c r="B5" s="95"/>
-      <c r="C5" s="95"/>
-      <c r="D5" s="90" t="str">
+      <c r="B5" s="63"/>
+      <c r="C5" s="63"/>
+      <c r="D5" s="58" t="str">
         <f>October!D5</f>
         <v>Augustin Hannah</v>
       </c>
-      <c r="E5" s="91"/>
-      <c r="F5" s="91"/>
-      <c r="G5" s="91"/>
-      <c r="H5" s="92"/>
+      <c r="E5" s="59"/>
+      <c r="F5" s="59"/>
+      <c r="G5" s="59"/>
+      <c r="H5" s="60"/>
       <c r="I5" s="23"/>
       <c r="J5" s="9"/>
       <c r="K5" s="9"/>
       <c r="L5" s="9"/>
     </row>
     <row r="6" spans="1:40" s="1" customFormat="1" ht="7.5" customHeight="1">
-      <c r="A6" s="96"/>
-      <c r="B6" s="96"/>
-      <c r="C6" s="96"/>
-      <c r="D6" s="96"/>
-      <c r="E6" s="96"/>
-      <c r="F6" s="96"/>
-      <c r="G6" s="96"/>
-      <c r="H6" s="96"/>
-      <c r="I6" s="96"/>
+      <c r="A6" s="64"/>
+      <c r="B6" s="64"/>
+      <c r="C6" s="64"/>
+      <c r="D6" s="64"/>
+      <c r="E6" s="64"/>
+      <c r="F6" s="64"/>
+      <c r="G6" s="64"/>
+      <c r="H6" s="64"/>
+      <c r="I6" s="64"/>
     </row>
     <row r="7" spans="1:40" s="1" customFormat="1" ht="13.75" customHeight="1">
-      <c r="A7" s="89" t="str">
+      <c r="A7" s="57" t="str">
         <f>October!A7</f>
         <v>Project Acronym</v>
       </c>
-      <c r="B7" s="89"/>
-      <c r="C7" s="89"/>
-      <c r="D7" s="97" t="str">
+      <c r="B7" s="57"/>
+      <c r="C7" s="57"/>
+      <c r="D7" s="65" t="str">
         <f>October!D7</f>
         <v>AIQ</v>
       </c>
-      <c r="E7" s="97"/>
-      <c r="F7" s="97"/>
-      <c r="G7" s="97"/>
-      <c r="H7" s="97"/>
+      <c r="E7" s="65"/>
+      <c r="F7" s="65"/>
+      <c r="G7" s="65"/>
+      <c r="H7" s="65"/>
       <c r="I7" s="24"/>
     </row>
     <row r="8" spans="1:40" s="1" customFormat="1" ht="7.5" customHeight="1">
-      <c r="A8" s="88"/>
-      <c r="B8" s="88"/>
-      <c r="C8" s="88"/>
-      <c r="D8" s="88"/>
-      <c r="E8" s="88"/>
-      <c r="F8" s="88"/>
-      <c r="G8" s="88"/>
-      <c r="H8" s="88"/>
-      <c r="I8" s="88"/>
+      <c r="A8" s="70"/>
+      <c r="B8" s="70"/>
+      <c r="C8" s="70"/>
+      <c r="D8" s="70"/>
+      <c r="E8" s="70"/>
+      <c r="F8" s="70"/>
+      <c r="G8" s="70"/>
+      <c r="H8" s="70"/>
+      <c r="I8" s="70"/>
     </row>
     <row r="9" spans="1:40" s="1" customFormat="1" ht="13.75" customHeight="1">
-      <c r="A9" s="89" t="str">
+      <c r="A9" s="57" t="str">
         <f>October!A9</f>
         <v>Project Title</v>
       </c>
-      <c r="B9" s="89"/>
-      <c r="C9" s="89"/>
-      <c r="D9" s="90" t="str">
+      <c r="B9" s="57"/>
+      <c r="C9" s="57"/>
+      <c r="D9" s="58" t="str">
         <f>October!D9</f>
         <v>Automating change detection in ImageQuerying</v>
       </c>
-      <c r="E9" s="91"/>
-      <c r="F9" s="91"/>
-      <c r="G9" s="91"/>
-      <c r="H9" s="92"/>
+      <c r="E9" s="59"/>
+      <c r="F9" s="59"/>
+      <c r="G9" s="59"/>
+      <c r="H9" s="60"/>
       <c r="I9" s="24"/>
       <c r="J9" s="15"/>
     </row>
     <row r="10" spans="1:40" s="1" customFormat="1" ht="7.5" customHeight="1">
-      <c r="A10" s="93"/>
-      <c r="B10" s="93"/>
-      <c r="C10" s="93"/>
-      <c r="D10" s="93"/>
-      <c r="E10" s="93"/>
-      <c r="F10" s="93"/>
-      <c r="G10" s="93"/>
-      <c r="H10" s="93"/>
-      <c r="I10" s="93"/>
+      <c r="A10" s="61"/>
+      <c r="B10" s="61"/>
+      <c r="C10" s="61"/>
+      <c r="D10" s="61"/>
+      <c r="E10" s="61"/>
+      <c r="F10" s="61"/>
+      <c r="G10" s="61"/>
+      <c r="H10" s="61"/>
+      <c r="I10" s="61"/>
     </row>
     <row r="11" spans="1:40" s="1" customFormat="1" ht="12">
       <c r="A11" s="21" t="s">
-        <v>54</v>
+        <v>76</v>
       </c>
       <c r="B11" s="21"/>
       <c r="C11" s="21"/>
       <c r="D11" s="21" t="s">
-        <v>55</v>
+        <v>77</v>
       </c>
       <c r="E11" s="21"/>
       <c r="F11" s="21"/>
@@ -5196,55 +5246,55 @@
       <c r="I12" s="26"/>
     </row>
     <row r="13" spans="1:40" s="2" customFormat="1" ht="15.5" customHeight="1">
-      <c r="A13" s="68" t="s">
-        <v>11</v>
-      </c>
-      <c r="B13" s="71" t="s">
-        <v>50</v>
-      </c>
-      <c r="C13" s="72"/>
-      <c r="D13" s="72"/>
-      <c r="E13" s="72"/>
-      <c r="F13" s="72"/>
-      <c r="G13" s="72"/>
-      <c r="H13" s="72"/>
-      <c r="I13" s="73"/>
+      <c r="A13" s="78" t="s">
+        <v>33</v>
+      </c>
+      <c r="B13" s="81" t="s">
+        <v>72</v>
+      </c>
+      <c r="C13" s="82"/>
+      <c r="D13" s="82"/>
+      <c r="E13" s="82"/>
+      <c r="F13" s="82"/>
+      <c r="G13" s="82"/>
+      <c r="H13" s="82"/>
+      <c r="I13" s="83"/>
     </row>
     <row r="14" spans="1:40" s="2" customFormat="1" ht="13.75" customHeight="1">
-      <c r="A14" s="69"/>
-      <c r="B14" s="74" t="s">
-        <v>12</v>
-      </c>
-      <c r="C14" s="75"/>
-      <c r="D14" s="76" t="s">
-        <v>13</v>
-      </c>
-      <c r="E14" s="78" t="s">
-        <v>51</v>
-      </c>
-      <c r="F14" s="79"/>
-      <c r="G14" s="79"/>
-      <c r="H14" s="79"/>
-      <c r="I14" s="80"/>
+      <c r="A14" s="79"/>
+      <c r="B14" s="84" t="s">
+        <v>34</v>
+      </c>
+      <c r="C14" s="85"/>
+      <c r="D14" s="86" t="s">
+        <v>35</v>
+      </c>
+      <c r="E14" s="88" t="s">
+        <v>73</v>
+      </c>
+      <c r="F14" s="89"/>
+      <c r="G14" s="89"/>
+      <c r="H14" s="89"/>
+      <c r="I14" s="90"/>
     </row>
     <row r="15" spans="1:40" ht="12" customHeight="1">
-      <c r="A15" s="70"/>
+      <c r="A15" s="80"/>
       <c r="B15" s="32" t="s">
-        <v>14</v>
+        <v>36</v>
       </c>
       <c r="C15" s="33" t="s">
-        <v>15</v>
-      </c>
-      <c r="D15" s="77"/>
-      <c r="E15" s="81"/>
-      <c r="F15" s="82"/>
-      <c r="G15" s="82"/>
-      <c r="H15" s="82"/>
-      <c r="I15" s="83"/>
+        <v>37</v>
+      </c>
+      <c r="D15" s="87"/>
+      <c r="E15" s="91"/>
+      <c r="F15" s="92"/>
+      <c r="G15" s="92"/>
+      <c r="H15" s="92"/>
+      <c r="I15" s="93"/>
     </row>
     <row r="16" spans="1:40" s="51" customFormat="1" ht="12">
       <c r="A16" s="48" t="s">
-        <v>16</v>
+        <v>38</v>
       </c>
       <c r="B16" s="49"/>
       <c r="C16" s="50"/>
@@ -5252,15 +5302,15 @@
         <f>C16-B16</f>
         <v>0</v>
       </c>
-      <c r="E16" s="57"/>
-      <c r="F16" s="58"/>
-      <c r="G16" s="58"/>
-      <c r="H16" s="58"/>
-      <c r="I16" s="59"/>
+      <c r="E16" s="77"/>
+      <c r="F16" s="75"/>
+      <c r="G16" s="75"/>
+      <c r="H16" s="75"/>
+      <c r="I16" s="76"/>
     </row>
     <row r="17" spans="1:9" s="43" customFormat="1" ht="12">
       <c r="A17" s="40" t="s">
-        <v>17</v>
+        <v>39</v>
       </c>
       <c r="B17" s="41"/>
       <c r="C17" s="42"/>
@@ -5268,15 +5318,15 @@
         <f t="shared" ref="D17:D46" si="0">C17-B17</f>
         <v>0</v>
       </c>
-      <c r="E17" s="60"/>
-      <c r="F17" s="61"/>
-      <c r="G17" s="61"/>
-      <c r="H17" s="61"/>
-      <c r="I17" s="62"/>
+      <c r="E17" s="71"/>
+      <c r="F17" s="72"/>
+      <c r="G17" s="72"/>
+      <c r="H17" s="72"/>
+      <c r="I17" s="73"/>
     </row>
     <row r="18" spans="1:9" s="43" customFormat="1" ht="12">
       <c r="A18" s="40" t="s">
-        <v>18</v>
+        <v>40</v>
       </c>
       <c r="B18" s="41"/>
       <c r="C18" s="42"/>
@@ -5284,15 +5334,15 @@
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="E18" s="60"/>
-      <c r="F18" s="61"/>
-      <c r="G18" s="61"/>
-      <c r="H18" s="61"/>
-      <c r="I18" s="62"/>
+      <c r="E18" s="71"/>
+      <c r="F18" s="72"/>
+      <c r="G18" s="72"/>
+      <c r="H18" s="72"/>
+      <c r="I18" s="73"/>
     </row>
     <row r="19" spans="1:9" s="43" customFormat="1" ht="12">
       <c r="A19" s="40" t="s">
-        <v>19</v>
+        <v>41</v>
       </c>
       <c r="B19" s="41"/>
       <c r="C19" s="42"/>
@@ -5300,15 +5350,15 @@
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="E19" s="60"/>
-      <c r="F19" s="61"/>
-      <c r="G19" s="61"/>
-      <c r="H19" s="61"/>
-      <c r="I19" s="62"/>
+      <c r="E19" s="71"/>
+      <c r="F19" s="72"/>
+      <c r="G19" s="72"/>
+      <c r="H19" s="72"/>
+      <c r="I19" s="73"/>
     </row>
     <row r="20" spans="1:9" s="43" customFormat="1" ht="12">
       <c r="A20" s="40" t="s">
-        <v>20</v>
+        <v>42</v>
       </c>
       <c r="B20" s="41"/>
       <c r="C20" s="42"/>
@@ -5316,15 +5366,15 @@
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="E20" s="60"/>
-      <c r="F20" s="61"/>
-      <c r="G20" s="61"/>
-      <c r="H20" s="61"/>
-      <c r="I20" s="62"/>
+      <c r="E20" s="71"/>
+      <c r="F20" s="72"/>
+      <c r="G20" s="72"/>
+      <c r="H20" s="72"/>
+      <c r="I20" s="73"/>
     </row>
     <row r="21" spans="1:9" s="43" customFormat="1" ht="12">
       <c r="A21" s="40" t="s">
-        <v>21</v>
+        <v>43</v>
       </c>
       <c r="B21" s="41"/>
       <c r="C21" s="42"/>
@@ -5332,15 +5382,15 @@
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="E21" s="60"/>
-      <c r="F21" s="61"/>
-      <c r="G21" s="61"/>
-      <c r="H21" s="61"/>
-      <c r="I21" s="62"/>
+      <c r="E21" s="71"/>
+      <c r="F21" s="72"/>
+      <c r="G21" s="72"/>
+      <c r="H21" s="72"/>
+      <c r="I21" s="73"/>
     </row>
     <row r="22" spans="1:9" s="51" customFormat="1" ht="12">
       <c r="A22" s="48" t="s">
-        <v>22</v>
+        <v>44</v>
       </c>
       <c r="B22" s="49"/>
       <c r="C22" s="50"/>
@@ -5348,15 +5398,15 @@
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="E22" s="57"/>
-      <c r="F22" s="58"/>
-      <c r="G22" s="58"/>
-      <c r="H22" s="58"/>
-      <c r="I22" s="59"/>
+      <c r="E22" s="77"/>
+      <c r="F22" s="75"/>
+      <c r="G22" s="75"/>
+      <c r="H22" s="75"/>
+      <c r="I22" s="76"/>
     </row>
     <row r="23" spans="1:9" s="51" customFormat="1" ht="12">
       <c r="A23" s="48" t="s">
-        <v>23</v>
+        <v>45</v>
       </c>
       <c r="B23" s="49"/>
       <c r="C23" s="50"/>
@@ -5364,15 +5414,15 @@
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="E23" s="57"/>
-      <c r="F23" s="58"/>
-      <c r="G23" s="58"/>
-      <c r="H23" s="58"/>
-      <c r="I23" s="59"/>
+      <c r="E23" s="77"/>
+      <c r="F23" s="75"/>
+      <c r="G23" s="75"/>
+      <c r="H23" s="75"/>
+      <c r="I23" s="76"/>
     </row>
     <row r="24" spans="1:9" s="43" customFormat="1" ht="12">
       <c r="A24" s="40" t="s">
-        <v>24</v>
+        <v>46</v>
       </c>
       <c r="B24" s="41"/>
       <c r="C24" s="42"/>
@@ -5380,15 +5430,15 @@
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="E24" s="60"/>
-      <c r="F24" s="61"/>
-      <c r="G24" s="61"/>
-      <c r="H24" s="61"/>
-      <c r="I24" s="62"/>
+      <c r="E24" s="71"/>
+      <c r="F24" s="72"/>
+      <c r="G24" s="72"/>
+      <c r="H24" s="72"/>
+      <c r="I24" s="73"/>
     </row>
     <row r="25" spans="1:9" s="43" customFormat="1" ht="12">
       <c r="A25" s="40" t="s">
-        <v>25</v>
+        <v>47</v>
       </c>
       <c r="B25" s="41"/>
       <c r="C25" s="42"/>
@@ -5396,15 +5446,15 @@
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="E25" s="60"/>
-      <c r="F25" s="61"/>
-      <c r="G25" s="61"/>
-      <c r="H25" s="61"/>
-      <c r="I25" s="62"/>
+      <c r="E25" s="71"/>
+      <c r="F25" s="72"/>
+      <c r="G25" s="72"/>
+      <c r="H25" s="72"/>
+      <c r="I25" s="73"/>
     </row>
     <row r="26" spans="1:9" s="43" customFormat="1" ht="12">
       <c r="A26" s="40" t="s">
-        <v>26</v>
+        <v>48</v>
       </c>
       <c r="B26" s="41"/>
       <c r="C26" s="42"/>
@@ -5412,15 +5462,15 @@
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="E26" s="60"/>
-      <c r="F26" s="61"/>
-      <c r="G26" s="61"/>
-      <c r="H26" s="61"/>
-      <c r="I26" s="62"/>
+      <c r="E26" s="71"/>
+      <c r="F26" s="72"/>
+      <c r="G26" s="72"/>
+      <c r="H26" s="72"/>
+      <c r="I26" s="73"/>
     </row>
     <row r="27" spans="1:9" s="43" customFormat="1" ht="12">
       <c r="A27" s="40" t="s">
-        <v>27</v>
+        <v>49</v>
       </c>
       <c r="B27" s="41"/>
       <c r="C27" s="42"/>
@@ -5428,15 +5478,15 @@
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="E27" s="60"/>
-      <c r="F27" s="61"/>
-      <c r="G27" s="61"/>
-      <c r="H27" s="61"/>
-      <c r="I27" s="62"/>
+      <c r="E27" s="71"/>
+      <c r="F27" s="72"/>
+      <c r="G27" s="72"/>
+      <c r="H27" s="72"/>
+      <c r="I27" s="73"/>
     </row>
     <row r="28" spans="1:9" s="43" customFormat="1" ht="12">
       <c r="A28" s="40" t="s">
-        <v>28</v>
+        <v>50</v>
       </c>
       <c r="B28" s="41"/>
       <c r="C28" s="42"/>
@@ -5444,15 +5494,15 @@
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="E28" s="60"/>
-      <c r="F28" s="61"/>
-      <c r="G28" s="61"/>
-      <c r="H28" s="61"/>
-      <c r="I28" s="62"/>
+      <c r="E28" s="71"/>
+      <c r="F28" s="72"/>
+      <c r="G28" s="72"/>
+      <c r="H28" s="72"/>
+      <c r="I28" s="73"/>
     </row>
     <row r="29" spans="1:9" s="51" customFormat="1" ht="12">
       <c r="A29" s="48" t="s">
-        <v>29</v>
+        <v>51</v>
       </c>
       <c r="B29" s="49"/>
       <c r="C29" s="50"/>
@@ -5460,15 +5510,15 @@
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="E29" s="57"/>
-      <c r="F29" s="58"/>
-      <c r="G29" s="58"/>
-      <c r="H29" s="58"/>
-      <c r="I29" s="59"/>
+      <c r="E29" s="77"/>
+      <c r="F29" s="75"/>
+      <c r="G29" s="75"/>
+      <c r="H29" s="75"/>
+      <c r="I29" s="76"/>
     </row>
     <row r="30" spans="1:9" s="51" customFormat="1" ht="12">
       <c r="A30" s="48" t="s">
-        <v>30</v>
+        <v>52</v>
       </c>
       <c r="B30" s="49"/>
       <c r="C30" s="50"/>
@@ -5476,15 +5526,15 @@
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="E30" s="57"/>
-      <c r="F30" s="58"/>
-      <c r="G30" s="58"/>
-      <c r="H30" s="58"/>
-      <c r="I30" s="59"/>
+      <c r="E30" s="77"/>
+      <c r="F30" s="75"/>
+      <c r="G30" s="75"/>
+      <c r="H30" s="75"/>
+      <c r="I30" s="76"/>
     </row>
     <row r="31" spans="1:9" s="43" customFormat="1" ht="12">
       <c r="A31" s="40" t="s">
-        <v>31</v>
+        <v>53</v>
       </c>
       <c r="B31" s="41"/>
       <c r="C31" s="42"/>
@@ -5492,15 +5542,15 @@
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="E31" s="60"/>
-      <c r="F31" s="61"/>
-      <c r="G31" s="61"/>
-      <c r="H31" s="61"/>
-      <c r="I31" s="62"/>
+      <c r="E31" s="71"/>
+      <c r="F31" s="72"/>
+      <c r="G31" s="72"/>
+      <c r="H31" s="72"/>
+      <c r="I31" s="73"/>
     </row>
     <row r="32" spans="1:9" s="43" customFormat="1" ht="12">
       <c r="A32" s="40" t="s">
-        <v>32</v>
+        <v>54</v>
       </c>
       <c r="B32" s="41"/>
       <c r="C32" s="42"/>
@@ -5508,15 +5558,15 @@
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="E32" s="60"/>
-      <c r="F32" s="61"/>
-      <c r="G32" s="61"/>
-      <c r="H32" s="61"/>
-      <c r="I32" s="62"/>
+      <c r="E32" s="71"/>
+      <c r="F32" s="72"/>
+      <c r="G32" s="72"/>
+      <c r="H32" s="72"/>
+      <c r="I32" s="73"/>
     </row>
     <row r="33" spans="1:12" s="43" customFormat="1" ht="12">
       <c r="A33" s="40" t="s">
-        <v>36</v>
+        <v>58</v>
       </c>
       <c r="B33" s="41"/>
       <c r="C33" s="42"/>
@@ -5524,15 +5574,15 @@
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="E33" s="60"/>
-      <c r="F33" s="61"/>
-      <c r="G33" s="61"/>
-      <c r="H33" s="61"/>
-      <c r="I33" s="62"/>
+      <c r="E33" s="71"/>
+      <c r="F33" s="72"/>
+      <c r="G33" s="72"/>
+      <c r="H33" s="72"/>
+      <c r="I33" s="73"/>
     </row>
     <row r="34" spans="1:12" s="43" customFormat="1" ht="12">
       <c r="A34" s="40" t="s">
-        <v>37</v>
+        <v>59</v>
       </c>
       <c r="B34" s="41"/>
       <c r="C34" s="42"/>
@@ -5540,15 +5590,15 @@
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="E34" s="60"/>
-      <c r="F34" s="61"/>
-      <c r="G34" s="61"/>
-      <c r="H34" s="61"/>
-      <c r="I34" s="62"/>
+      <c r="E34" s="71"/>
+      <c r="F34" s="72"/>
+      <c r="G34" s="72"/>
+      <c r="H34" s="72"/>
+      <c r="I34" s="73"/>
     </row>
     <row r="35" spans="1:12" s="43" customFormat="1" ht="12">
       <c r="A35" s="40" t="s">
-        <v>38</v>
+        <v>60</v>
       </c>
       <c r="B35" s="41"/>
       <c r="C35" s="42"/>
@@ -5556,15 +5606,15 @@
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="E35" s="60"/>
-      <c r="F35" s="61"/>
-      <c r="G35" s="61"/>
-      <c r="H35" s="61"/>
-      <c r="I35" s="62"/>
+      <c r="E35" s="71"/>
+      <c r="F35" s="72"/>
+      <c r="G35" s="72"/>
+      <c r="H35" s="72"/>
+      <c r="I35" s="73"/>
     </row>
     <row r="36" spans="1:12" s="51" customFormat="1" ht="12">
       <c r="A36" s="48" t="s">
-        <v>39</v>
+        <v>61</v>
       </c>
       <c r="B36" s="49"/>
       <c r="C36" s="50"/>
@@ -5572,15 +5622,15 @@
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="E36" s="57"/>
-      <c r="F36" s="58"/>
-      <c r="G36" s="58"/>
-      <c r="H36" s="58"/>
-      <c r="I36" s="59"/>
+      <c r="E36" s="77"/>
+      <c r="F36" s="75"/>
+      <c r="G36" s="75"/>
+      <c r="H36" s="75"/>
+      <c r="I36" s="76"/>
     </row>
     <row r="37" spans="1:12" s="51" customFormat="1" ht="12">
       <c r="A37" s="48" t="s">
-        <v>40</v>
+        <v>62</v>
       </c>
       <c r="B37" s="49"/>
       <c r="C37" s="50"/>
@@ -5588,15 +5638,15 @@
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="E37" s="57"/>
-      <c r="F37" s="58"/>
-      <c r="G37" s="58"/>
-      <c r="H37" s="58"/>
-      <c r="I37" s="59"/>
+      <c r="E37" s="77"/>
+      <c r="F37" s="75"/>
+      <c r="G37" s="75"/>
+      <c r="H37" s="75"/>
+      <c r="I37" s="76"/>
     </row>
     <row r="38" spans="1:12" s="43" customFormat="1" ht="12">
       <c r="A38" s="40" t="s">
-        <v>41</v>
+        <v>63</v>
       </c>
       <c r="B38" s="41"/>
       <c r="C38" s="42"/>
@@ -5604,15 +5654,15 @@
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="E38" s="60"/>
-      <c r="F38" s="61"/>
-      <c r="G38" s="61"/>
-      <c r="H38" s="61"/>
-      <c r="I38" s="62"/>
+      <c r="E38" s="71"/>
+      <c r="F38" s="72"/>
+      <c r="G38" s="72"/>
+      <c r="H38" s="72"/>
+      <c r="I38" s="73"/>
     </row>
     <row r="39" spans="1:12" s="43" customFormat="1" ht="12">
       <c r="A39" s="40" t="s">
-        <v>42</v>
+        <v>64</v>
       </c>
       <c r="B39" s="41"/>
       <c r="C39" s="42"/>
@@ -5620,15 +5670,15 @@
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="E39" s="60"/>
-      <c r="F39" s="61"/>
-      <c r="G39" s="61"/>
-      <c r="H39" s="61"/>
-      <c r="I39" s="62"/>
+      <c r="E39" s="71"/>
+      <c r="F39" s="72"/>
+      <c r="G39" s="72"/>
+      <c r="H39" s="72"/>
+      <c r="I39" s="73"/>
     </row>
     <row r="40" spans="1:12" s="43" customFormat="1" ht="12">
       <c r="A40" s="40" t="s">
-        <v>43</v>
+        <v>65</v>
       </c>
       <c r="B40" s="41"/>
       <c r="C40" s="42"/>
@@ -5636,15 +5686,15 @@
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="E40" s="60"/>
-      <c r="F40" s="61"/>
-      <c r="G40" s="61"/>
-      <c r="H40" s="61"/>
-      <c r="I40" s="62"/>
+      <c r="E40" s="71"/>
+      <c r="F40" s="72"/>
+      <c r="G40" s="72"/>
+      <c r="H40" s="72"/>
+      <c r="I40" s="73"/>
     </row>
     <row r="41" spans="1:12" s="43" customFormat="1" ht="12">
       <c r="A41" s="40" t="s">
-        <v>44</v>
+        <v>66</v>
       </c>
       <c r="B41" s="41"/>
       <c r="C41" s="42"/>
@@ -5652,15 +5702,15 @@
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="E41" s="60"/>
-      <c r="F41" s="61"/>
-      <c r="G41" s="61"/>
-      <c r="H41" s="61"/>
-      <c r="I41" s="62"/>
+      <c r="E41" s="71"/>
+      <c r="F41" s="72"/>
+      <c r="G41" s="72"/>
+      <c r="H41" s="72"/>
+      <c r="I41" s="73"/>
     </row>
     <row r="42" spans="1:12" s="43" customFormat="1" ht="12">
       <c r="A42" s="40" t="s">
-        <v>45</v>
+        <v>67</v>
       </c>
       <c r="B42" s="41"/>
       <c r="C42" s="42"/>
@@ -5668,15 +5718,15 @@
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="E42" s="60"/>
-      <c r="F42" s="61"/>
-      <c r="G42" s="61"/>
-      <c r="H42" s="61"/>
-      <c r="I42" s="62"/>
+      <c r="E42" s="71"/>
+      <c r="F42" s="72"/>
+      <c r="G42" s="72"/>
+      <c r="H42" s="72"/>
+      <c r="I42" s="73"/>
     </row>
     <row r="43" spans="1:12" s="51" customFormat="1" ht="12">
       <c r="A43" s="48" t="s">
-        <v>46</v>
+        <v>68</v>
       </c>
       <c r="B43" s="49"/>
       <c r="C43" s="50"/>
@@ -5684,15 +5734,15 @@
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="E43" s="57"/>
-      <c r="F43" s="58"/>
-      <c r="G43" s="58"/>
-      <c r="H43" s="58"/>
-      <c r="I43" s="59"/>
+      <c r="E43" s="77"/>
+      <c r="F43" s="75"/>
+      <c r="G43" s="75"/>
+      <c r="H43" s="75"/>
+      <c r="I43" s="76"/>
     </row>
     <row r="44" spans="1:12" s="51" customFormat="1" ht="12">
       <c r="A44" s="48" t="s">
-        <v>47</v>
+        <v>69</v>
       </c>
       <c r="B44" s="49"/>
       <c r="C44" s="50"/>
@@ -5700,15 +5750,15 @@
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="E44" s="57"/>
-      <c r="F44" s="58"/>
-      <c r="G44" s="58"/>
-      <c r="H44" s="58"/>
-      <c r="I44" s="59"/>
+      <c r="E44" s="77"/>
+      <c r="F44" s="75"/>
+      <c r="G44" s="75"/>
+      <c r="H44" s="75"/>
+      <c r="I44" s="76"/>
     </row>
     <row r="45" spans="1:12" s="39" customFormat="1" ht="12">
       <c r="A45" s="36" t="s">
-        <v>48</v>
+        <v>70</v>
       </c>
       <c r="B45" s="37"/>
       <c r="C45" s="38"/>
@@ -5724,7 +5774,7 @@
     </row>
     <row r="46" spans="1:12" s="39" customFormat="1" ht="12">
       <c r="A46" s="36" t="s">
-        <v>64</v>
+        <v>86</v>
       </c>
       <c r="B46" s="37"/>
       <c r="C46" s="38"/>
@@ -5768,44 +5818,6 @@
     </row>
   </sheetData>
   <mergeCells count="51">
-    <mergeCell ref="A1:I1"/>
-    <mergeCell ref="A2:I2"/>
-    <mergeCell ref="A3:H3"/>
-    <mergeCell ref="A4:I4"/>
-    <mergeCell ref="A5:C5"/>
-    <mergeCell ref="D5:H5"/>
-    <mergeCell ref="A6:I6"/>
-    <mergeCell ref="A7:C7"/>
-    <mergeCell ref="D7:H7"/>
-    <mergeCell ref="A8:I8"/>
-    <mergeCell ref="A9:C9"/>
-    <mergeCell ref="D9:H9"/>
-    <mergeCell ref="A10:I10"/>
-    <mergeCell ref="A13:A15"/>
-    <mergeCell ref="B13:I13"/>
-    <mergeCell ref="B14:C14"/>
-    <mergeCell ref="D14:D15"/>
-    <mergeCell ref="E14:I15"/>
-    <mergeCell ref="E16:I16"/>
-    <mergeCell ref="E17:I17"/>
-    <mergeCell ref="E18:I18"/>
-    <mergeCell ref="E19:I19"/>
-    <mergeCell ref="E20:I20"/>
-    <mergeCell ref="E21:I21"/>
-    <mergeCell ref="E22:I22"/>
-    <mergeCell ref="E23:I23"/>
-    <mergeCell ref="E24:I24"/>
-    <mergeCell ref="E25:I25"/>
-    <mergeCell ref="E26:I26"/>
-    <mergeCell ref="E27:I27"/>
-    <mergeCell ref="E28:I28"/>
-    <mergeCell ref="E29:I29"/>
-    <mergeCell ref="E30:I30"/>
-    <mergeCell ref="E31:I31"/>
-    <mergeCell ref="E32:I32"/>
-    <mergeCell ref="E33:I33"/>
-    <mergeCell ref="E34:I34"/>
-    <mergeCell ref="E35:I35"/>
     <mergeCell ref="E36:I36"/>
     <mergeCell ref="E37:I37"/>
     <mergeCell ref="E38:I38"/>
@@ -5819,6 +5831,44 @@
     <mergeCell ref="E44:I44"/>
     <mergeCell ref="E46:I46"/>
     <mergeCell ref="E45:I45"/>
+    <mergeCell ref="E31:I31"/>
+    <mergeCell ref="E32:I32"/>
+    <mergeCell ref="E33:I33"/>
+    <mergeCell ref="E34:I34"/>
+    <mergeCell ref="E35:I35"/>
+    <mergeCell ref="E26:I26"/>
+    <mergeCell ref="E27:I27"/>
+    <mergeCell ref="E28:I28"/>
+    <mergeCell ref="E29:I29"/>
+    <mergeCell ref="E30:I30"/>
+    <mergeCell ref="E21:I21"/>
+    <mergeCell ref="E22:I22"/>
+    <mergeCell ref="E23:I23"/>
+    <mergeCell ref="E24:I24"/>
+    <mergeCell ref="E25:I25"/>
+    <mergeCell ref="E16:I16"/>
+    <mergeCell ref="E17:I17"/>
+    <mergeCell ref="E18:I18"/>
+    <mergeCell ref="E19:I19"/>
+    <mergeCell ref="E20:I20"/>
+    <mergeCell ref="A10:I10"/>
+    <mergeCell ref="A13:A15"/>
+    <mergeCell ref="B13:I13"/>
+    <mergeCell ref="B14:C14"/>
+    <mergeCell ref="D14:D15"/>
+    <mergeCell ref="E14:I15"/>
+    <mergeCell ref="A6:I6"/>
+    <mergeCell ref="A7:C7"/>
+    <mergeCell ref="D7:H7"/>
+    <mergeCell ref="A8:I8"/>
+    <mergeCell ref="A9:C9"/>
+    <mergeCell ref="D9:H9"/>
+    <mergeCell ref="A1:I1"/>
+    <mergeCell ref="A2:I2"/>
+    <mergeCell ref="A3:H3"/>
+    <mergeCell ref="A4:I4"/>
+    <mergeCell ref="A5:C5"/>
+    <mergeCell ref="D5:H5"/>
   </mergeCells>
   <phoneticPr fontId="32" type="noConversion"/>
   <printOptions horizontalCentered="1"/>

--- a/TimeSheetTemplate.xlsx
+++ b/TimeSheetTemplate.xlsx
@@ -36,131 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="214" uniqueCount="92">
-  <si>
-    <t>Query tile's XML files and ability to find a tile's center point from the ESA KML file</t>
-    <phoneticPr fontId="32" type="noConversion"/>
-  </si>
-  <si>
-    <t>Windows 10 (Solved!), complete clean install, upload to git, merge script versions</t>
-    <phoneticPr fontId="32" type="noConversion"/>
-  </si>
-  <si>
-    <t>Meeting with Dirk and Martin</t>
-    <phoneticPr fontId="32" type="noConversion"/>
-  </si>
-  <si>
-    <t>Read Articles from Dirk</t>
-    <phoneticPr fontId="32" type="noConversion"/>
-  </si>
-  <si>
-    <t>Adjust Download script to SciHub and new size structure</t>
-    <phoneticPr fontId="32" type="noConversion"/>
-  </si>
-  <si>
-    <t>Read slides from previous week</t>
-    <phoneticPr fontId="32" type="noConversion"/>
-  </si>
-  <si>
-    <t>Set up timesheet</t>
-    <phoneticPr fontId="32" type="noConversion"/>
-  </si>
-  <si>
-    <t>Meeting with I3 Professors and editing abstract, incl. travel time</t>
-    <phoneticPr fontId="32" type="noConversion"/>
-  </si>
-  <si>
-    <t>Troubleshoot Windows 10 crash (5 hours personal time)</t>
-    <phoneticPr fontId="32" type="noConversion"/>
-  </si>
-  <si>
-    <t>Plan out Pecha Kucha Slides</t>
-    <phoneticPr fontId="32" type="noConversion"/>
-  </si>
-  <si>
-    <t>Work on download script issues</t>
-    <phoneticPr fontId="32" type="noConversion"/>
-  </si>
-  <si>
-    <t>I3 class and update meeting</t>
-    <phoneticPr fontId="32" type="noConversion"/>
-  </si>
-  <si>
-    <t>Python docs -- brainstorming solutions for all scripts</t>
-    <phoneticPr fontId="32" type="noConversion"/>
-  </si>
-  <si>
-    <t xml:space="preserve">Monthly timesheet for MSc Geoinformatics IP </t>
-    <phoneticPr fontId="32" type="noConversion"/>
-  </si>
-  <si>
-    <t>Set up Landsat image transfer (~70 images) for possible use case with Martin inc</t>
-    <phoneticPr fontId="32" type="noConversion"/>
-  </si>
-  <si>
-    <t>Project Management class, part II</t>
-    <phoneticPr fontId="32" type="noConversion"/>
-  </si>
-  <si>
-    <t>Work on first draft of Risk Matrix, Gantt and PERT Charts in ProjectLibre</t>
-    <phoneticPr fontId="32" type="noConversion"/>
-  </si>
-  <si>
-    <t>Deal with GDAL problem in Windows -- still unresolved; work on conversion script</t>
-    <phoneticPr fontId="32" type="noConversion"/>
-  </si>
-  <si>
-    <t>Finish first draft of conversion script -- send to Tiede and Sudmanns for review</t>
-    <phoneticPr fontId="32" type="noConversion"/>
-  </si>
-  <si>
-    <t>Fixed a few issues with the download script (cloud cover percentage, kml)</t>
-    <phoneticPr fontId="32" type="noConversion"/>
-  </si>
-  <si>
-    <t>Get familiar with numpy, gdal and scipy</t>
-    <phoneticPr fontId="32" type="noConversion"/>
-  </si>
-  <si>
-    <t>Learn to manipulate rasters as arrays with numpy, gdal and scipy.</t>
-    <phoneticPr fontId="32" type="noConversion"/>
-  </si>
-  <si>
-    <t>Learn Git, create GitHub repository, including excel documents</t>
-    <phoneticPr fontId="32" type="noConversion"/>
-  </si>
-  <si>
-    <t>ProjectLibre Tutorials and improving charts</t>
-    <phoneticPr fontId="32" type="noConversion"/>
-  </si>
-  <si>
-    <t>Sort out problem with Python on Mac (Canopy software deinstallation)</t>
-    <phoneticPr fontId="32" type="noConversion"/>
-  </si>
-  <si>
-    <t>Python Tutorial</t>
-    <phoneticPr fontId="32" type="noConversion"/>
-  </si>
-  <si>
-    <t>Python Tutorial</t>
-    <phoneticPr fontId="32" type="noConversion"/>
-  </si>
-  <si>
-    <t>Developing possible use-case during Hackathon, with Martin Sudmanns and team</t>
-    <phoneticPr fontId="32" type="noConversion"/>
-  </si>
-  <si>
-    <t>CLI CodeAcademy course; introduction to Git</t>
-    <phoneticPr fontId="32" type="noConversion"/>
-  </si>
-  <si>
-    <t>Read Processing scripts, brainstorm solutions</t>
-    <phoneticPr fontId="32" type="noConversion"/>
-  </si>
-  <si>
-    <t>Work on extended abstract -- mostly citations in Zotero</t>
-    <phoneticPr fontId="32" type="noConversion"/>
-  </si>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="215" uniqueCount="93">
   <si>
     <t>Work on extended abstract</t>
     <phoneticPr fontId="32" type="noConversion"/>
@@ -367,6 +243,134 @@
   </si>
   <si>
     <t>Create Pecha Kucha Presentation Outline</t>
+    <phoneticPr fontId="32" type="noConversion"/>
+  </si>
+  <si>
+    <t>Update comments and print statements.</t>
+    <phoneticPr fontId="32" type="noConversion"/>
+  </si>
+  <si>
+    <t>Query tile's XML files and ability to find a tile's center point from the ESA KML file</t>
+    <phoneticPr fontId="32" type="noConversion"/>
+  </si>
+  <si>
+    <t>Windows 10 (Solved!), complete clean install, upload to git, merge script versions</t>
+    <phoneticPr fontId="32" type="noConversion"/>
+  </si>
+  <si>
+    <t>Meeting with Dirk and Martin</t>
+    <phoneticPr fontId="32" type="noConversion"/>
+  </si>
+  <si>
+    <t>Read Articles from Dirk</t>
+    <phoneticPr fontId="32" type="noConversion"/>
+  </si>
+  <si>
+    <t>Adjust Download script to SciHub and new size structure</t>
+    <phoneticPr fontId="32" type="noConversion"/>
+  </si>
+  <si>
+    <t>Read slides from previous week</t>
+    <phoneticPr fontId="32" type="noConversion"/>
+  </si>
+  <si>
+    <t>Set up timesheet</t>
+    <phoneticPr fontId="32" type="noConversion"/>
+  </si>
+  <si>
+    <t>Meeting with I3 Professors and editing abstract, incl. travel time</t>
+    <phoneticPr fontId="32" type="noConversion"/>
+  </si>
+  <si>
+    <t>Troubleshoot Windows 10 crash (5 hours personal time)</t>
+    <phoneticPr fontId="32" type="noConversion"/>
+  </si>
+  <si>
+    <t>Plan out Pecha Kucha Slides</t>
+    <phoneticPr fontId="32" type="noConversion"/>
+  </si>
+  <si>
+    <t>Work on download script issues</t>
+    <phoneticPr fontId="32" type="noConversion"/>
+  </si>
+  <si>
+    <t>I3 class and update meeting</t>
+    <phoneticPr fontId="32" type="noConversion"/>
+  </si>
+  <si>
+    <t>Python docs -- brainstorming solutions for all scripts</t>
+    <phoneticPr fontId="32" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">Monthly timesheet for MSc Geoinformatics IP </t>
+    <phoneticPr fontId="32" type="noConversion"/>
+  </si>
+  <si>
+    <t>Set up Landsat image transfer (~70 images) for possible use case with Martin inc</t>
+    <phoneticPr fontId="32" type="noConversion"/>
+  </si>
+  <si>
+    <t>Project Management class, part II</t>
+    <phoneticPr fontId="32" type="noConversion"/>
+  </si>
+  <si>
+    <t>Work on first draft of Risk Matrix, Gantt and PERT Charts in ProjectLibre</t>
+    <phoneticPr fontId="32" type="noConversion"/>
+  </si>
+  <si>
+    <t>Deal with GDAL problem in Windows -- still unresolved; work on conversion script</t>
+    <phoneticPr fontId="32" type="noConversion"/>
+  </si>
+  <si>
+    <t>Finish first draft of conversion script -- send to Tiede and Sudmanns for review</t>
+    <phoneticPr fontId="32" type="noConversion"/>
+  </si>
+  <si>
+    <t>Fixed a few issues with the download script (cloud cover percentage, kml)</t>
+    <phoneticPr fontId="32" type="noConversion"/>
+  </si>
+  <si>
+    <t>Get familiar with numpy, gdal and scipy</t>
+    <phoneticPr fontId="32" type="noConversion"/>
+  </si>
+  <si>
+    <t>Learn to manipulate rasters as arrays with numpy, gdal and scipy.</t>
+    <phoneticPr fontId="32" type="noConversion"/>
+  </si>
+  <si>
+    <t>Learn Git, create GitHub repository, including excel documents</t>
+    <phoneticPr fontId="32" type="noConversion"/>
+  </si>
+  <si>
+    <t>ProjectLibre Tutorials and improving charts</t>
+    <phoneticPr fontId="32" type="noConversion"/>
+  </si>
+  <si>
+    <t>Sort out problem with Python on Mac (Canopy software deinstallation)</t>
+    <phoneticPr fontId="32" type="noConversion"/>
+  </si>
+  <si>
+    <t>Python Tutorial</t>
+    <phoneticPr fontId="32" type="noConversion"/>
+  </si>
+  <si>
+    <t>Python Tutorial</t>
+    <phoneticPr fontId="32" type="noConversion"/>
+  </si>
+  <si>
+    <t>Developing possible use-case during Hackathon, with Martin Sudmanns and team</t>
+    <phoneticPr fontId="32" type="noConversion"/>
+  </si>
+  <si>
+    <t>CLI CodeAcademy course; introduction to Git</t>
+    <phoneticPr fontId="32" type="noConversion"/>
+  </si>
+  <si>
+    <t>Read Processing scripts, brainstorm solutions</t>
+    <phoneticPr fontId="32" type="noConversion"/>
+  </si>
+  <si>
+    <t>Work on extended abstract -- mostly citations in Zotero</t>
     <phoneticPr fontId="32" type="noConversion"/>
   </si>
 </sst>
@@ -1278,47 +1282,14 @@
     <xf numFmtId="166" fontId="0" fillId="0" borderId="20" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="166" fontId="0" fillId="0" borderId="11" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="166" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="24" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="25" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="26" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="24" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" wrapText="1"/>
@@ -1329,16 +1300,17 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="26" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" wrapText="1"/>
     </xf>
+    <xf numFmtId="167" fontId="10" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="167" fontId="10" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="167" fontId="11" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="167" fontId="11" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="5" fillId="4" borderId="24" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="25" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="26" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="24" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="10" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -1387,16 +1359,48 @@
     <xf numFmtId="0" fontId="10" fillId="0" borderId="23" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="167" fontId="10" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="13" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="167" fontId="10" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="167" fontId="11" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="167" fontId="11" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
     <xf numFmtId="167" fontId="11" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -1880,17 +1884,17 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:50" s="7" customFormat="1" ht="18" thickBot="1">
-      <c r="A1" s="66" t="s">
-        <v>13</v>
-      </c>
-      <c r="B1" s="66"/>
-      <c r="C1" s="66"/>
-      <c r="D1" s="66"/>
-      <c r="E1" s="66"/>
-      <c r="F1" s="66"/>
-      <c r="G1" s="66"/>
-      <c r="H1" s="66"/>
-      <c r="I1" s="66"/>
+      <c r="A1" s="84" t="s">
+        <v>75</v>
+      </c>
+      <c r="B1" s="84"/>
+      <c r="C1" s="84"/>
+      <c r="D1" s="84"/>
+      <c r="E1" s="84"/>
+      <c r="F1" s="84"/>
+      <c r="G1" s="84"/>
+      <c r="H1" s="84"/>
+      <c r="I1" s="84"/>
       <c r="J1" s="8"/>
       <c r="K1" s="8"/>
       <c r="L1" s="8"/>
@@ -1933,15 +1937,15 @@
       <c r="AW1" s="8"/>
     </row>
     <row r="2" spans="1:50" s="1" customFormat="1" ht="7.5" customHeight="1">
-      <c r="A2" s="67"/>
-      <c r="B2" s="67"/>
-      <c r="C2" s="67"/>
-      <c r="D2" s="67"/>
-      <c r="E2" s="67"/>
-      <c r="F2" s="67"/>
-      <c r="G2" s="67"/>
-      <c r="H2" s="67"/>
-      <c r="I2" s="67"/>
+      <c r="A2" s="85"/>
+      <c r="B2" s="85"/>
+      <c r="C2" s="85"/>
+      <c r="D2" s="85"/>
+      <c r="E2" s="85"/>
+      <c r="F2" s="85"/>
+      <c r="G2" s="85"/>
+      <c r="H2" s="85"/>
+      <c r="I2" s="85"/>
       <c r="J2" s="9"/>
       <c r="K2" s="9"/>
       <c r="L2" s="9"/>
@@ -1984,16 +1988,16 @@
       <c r="AW2" s="9"/>
     </row>
     <row r="3" spans="1:50" s="11" customFormat="1" ht="13.5" customHeight="1">
-      <c r="A3" s="68" t="s">
-        <v>78</v>
-      </c>
-      <c r="B3" s="68"/>
-      <c r="C3" s="68"/>
-      <c r="D3" s="68"/>
-      <c r="E3" s="68"/>
-      <c r="F3" s="68"/>
-      <c r="G3" s="68"/>
-      <c r="H3" s="68"/>
+      <c r="A3" s="86" t="s">
+        <v>47</v>
+      </c>
+      <c r="B3" s="86"/>
+      <c r="C3" s="86"/>
+      <c r="D3" s="86"/>
+      <c r="E3" s="86"/>
+      <c r="F3" s="86"/>
+      <c r="G3" s="86"/>
+      <c r="H3" s="86"/>
       <c r="I3" s="23"/>
       <c r="J3" s="22"/>
       <c r="K3" s="22"/>
@@ -2038,29 +2042,29 @@
       <c r="AX3" s="10"/>
     </row>
     <row r="4" spans="1:50" s="6" customFormat="1" ht="9" customHeight="1">
-      <c r="A4" s="69"/>
-      <c r="B4" s="69"/>
-      <c r="C4" s="69"/>
-      <c r="D4" s="69"/>
-      <c r="E4" s="69"/>
-      <c r="F4" s="69"/>
-      <c r="G4" s="69"/>
-      <c r="H4" s="69"/>
-      <c r="I4" s="69"/>
+      <c r="A4" s="87"/>
+      <c r="B4" s="87"/>
+      <c r="C4" s="87"/>
+      <c r="D4" s="87"/>
+      <c r="E4" s="87"/>
+      <c r="F4" s="87"/>
+      <c r="G4" s="87"/>
+      <c r="H4" s="87"/>
+      <c r="I4" s="87"/>
     </row>
     <row r="5" spans="1:50" s="1" customFormat="1" ht="13.75" customHeight="1">
-      <c r="A5" s="62" t="s">
-        <v>75</v>
-      </c>
-      <c r="B5" s="63"/>
-      <c r="C5" s="63"/>
-      <c r="D5" s="58" t="s">
-        <v>81</v>
-      </c>
-      <c r="E5" s="59"/>
-      <c r="F5" s="59"/>
-      <c r="G5" s="59"/>
-      <c r="H5" s="60"/>
+      <c r="A5" s="94" t="s">
+        <v>44</v>
+      </c>
+      <c r="B5" s="95"/>
+      <c r="C5" s="95"/>
+      <c r="D5" s="90" t="s">
+        <v>50</v>
+      </c>
+      <c r="E5" s="91"/>
+      <c r="F5" s="91"/>
+      <c r="G5" s="91"/>
+      <c r="H5" s="92"/>
       <c r="I5" s="23"/>
       <c r="J5" s="9"/>
       <c r="K5" s="9"/>
@@ -2068,77 +2072,77 @@
       <c r="M5" s="9"/>
     </row>
     <row r="6" spans="1:50" s="1" customFormat="1" ht="7.5" customHeight="1">
-      <c r="A6" s="64"/>
-      <c r="B6" s="64"/>
-      <c r="C6" s="64"/>
-      <c r="D6" s="64"/>
-      <c r="E6" s="64"/>
-      <c r="F6" s="64"/>
-      <c r="G6" s="64"/>
-      <c r="H6" s="64"/>
-      <c r="I6" s="64"/>
+      <c r="A6" s="96"/>
+      <c r="B6" s="96"/>
+      <c r="C6" s="96"/>
+      <c r="D6" s="96"/>
+      <c r="E6" s="96"/>
+      <c r="F6" s="96"/>
+      <c r="G6" s="96"/>
+      <c r="H6" s="96"/>
+      <c r="I6" s="96"/>
     </row>
     <row r="7" spans="1:50" s="1" customFormat="1" ht="13.75" customHeight="1">
-      <c r="A7" s="57" t="s">
-        <v>79</v>
-      </c>
-      <c r="B7" s="57"/>
-      <c r="C7" s="57"/>
-      <c r="D7" s="65" t="s">
-        <v>82</v>
-      </c>
-      <c r="E7" s="65"/>
-      <c r="F7" s="65"/>
-      <c r="G7" s="65"/>
-      <c r="H7" s="65"/>
+      <c r="A7" s="89" t="s">
+        <v>48</v>
+      </c>
+      <c r="B7" s="89"/>
+      <c r="C7" s="89"/>
+      <c r="D7" s="97" t="s">
+        <v>51</v>
+      </c>
+      <c r="E7" s="97"/>
+      <c r="F7" s="97"/>
+      <c r="G7" s="97"/>
+      <c r="H7" s="97"/>
       <c r="I7" s="24"/>
     </row>
     <row r="8" spans="1:50" s="1" customFormat="1" ht="7.5" customHeight="1">
-      <c r="A8" s="70"/>
-      <c r="B8" s="70"/>
-      <c r="C8" s="70"/>
-      <c r="D8" s="70"/>
-      <c r="E8" s="70"/>
-      <c r="F8" s="70"/>
-      <c r="G8" s="70"/>
-      <c r="H8" s="70"/>
-      <c r="I8" s="70"/>
+      <c r="A8" s="88"/>
+      <c r="B8" s="88"/>
+      <c r="C8" s="88"/>
+      <c r="D8" s="88"/>
+      <c r="E8" s="88"/>
+      <c r="F8" s="88"/>
+      <c r="G8" s="88"/>
+      <c r="H8" s="88"/>
+      <c r="I8" s="88"/>
     </row>
     <row r="9" spans="1:50" s="1" customFormat="1" ht="13.75" customHeight="1">
-      <c r="A9" s="57" t="s">
-        <v>80</v>
-      </c>
-      <c r="B9" s="57"/>
-      <c r="C9" s="57"/>
-      <c r="D9" s="58" t="s">
-        <v>83</v>
-      </c>
-      <c r="E9" s="59"/>
-      <c r="F9" s="59"/>
-      <c r="G9" s="59"/>
-      <c r="H9" s="60"/>
+      <c r="A9" s="89" t="s">
+        <v>49</v>
+      </c>
+      <c r="B9" s="89"/>
+      <c r="C9" s="89"/>
+      <c r="D9" s="90" t="s">
+        <v>52</v>
+      </c>
+      <c r="E9" s="91"/>
+      <c r="F9" s="91"/>
+      <c r="G9" s="91"/>
+      <c r="H9" s="92"/>
       <c r="I9" s="24"/>
       <c r="J9" s="15"/>
     </row>
     <row r="10" spans="1:50" s="1" customFormat="1" ht="7.5" customHeight="1">
-      <c r="A10" s="61"/>
-      <c r="B10" s="61"/>
-      <c r="C10" s="61"/>
-      <c r="D10" s="61"/>
-      <c r="E10" s="61"/>
-      <c r="F10" s="61"/>
-      <c r="G10" s="61"/>
-      <c r="H10" s="61"/>
-      <c r="I10" s="61"/>
+      <c r="A10" s="93"/>
+      <c r="B10" s="93"/>
+      <c r="C10" s="93"/>
+      <c r="D10" s="93"/>
+      <c r="E10" s="93"/>
+      <c r="F10" s="93"/>
+      <c r="G10" s="93"/>
+      <c r="H10" s="93"/>
+      <c r="I10" s="93"/>
     </row>
     <row r="11" spans="1:50" s="1" customFormat="1" ht="12">
       <c r="A11" s="21" t="s">
-        <v>76</v>
+        <v>45</v>
       </c>
       <c r="B11" s="21"/>
       <c r="C11" s="21"/>
       <c r="D11" s="21" t="s">
-        <v>84</v>
+        <v>53</v>
       </c>
       <c r="E11" s="21"/>
       <c r="F11" s="21"/>
@@ -2158,55 +2162,55 @@
       <c r="I12" s="26"/>
     </row>
     <row r="13" spans="1:50" s="2" customFormat="1" ht="15.5" customHeight="1">
-      <c r="A13" s="78" t="s">
-        <v>33</v>
-      </c>
-      <c r="B13" s="81" t="s">
-        <v>72</v>
-      </c>
-      <c r="C13" s="82"/>
-      <c r="D13" s="82"/>
-      <c r="E13" s="82"/>
-      <c r="F13" s="82"/>
-      <c r="G13" s="82"/>
-      <c r="H13" s="82"/>
-      <c r="I13" s="83"/>
+      <c r="A13" s="68" t="s">
+        <v>2</v>
+      </c>
+      <c r="B13" s="71" t="s">
+        <v>41</v>
+      </c>
+      <c r="C13" s="72"/>
+      <c r="D13" s="72"/>
+      <c r="E13" s="72"/>
+      <c r="F13" s="72"/>
+      <c r="G13" s="72"/>
+      <c r="H13" s="72"/>
+      <c r="I13" s="73"/>
     </row>
     <row r="14" spans="1:50" s="2" customFormat="1" ht="13.75" customHeight="1">
-      <c r="A14" s="79"/>
-      <c r="B14" s="84" t="s">
-        <v>34</v>
-      </c>
-      <c r="C14" s="85"/>
-      <c r="D14" s="86" t="s">
-        <v>35</v>
-      </c>
-      <c r="E14" s="88" t="s">
-        <v>73</v>
-      </c>
-      <c r="F14" s="89"/>
-      <c r="G14" s="89"/>
-      <c r="H14" s="89"/>
-      <c r="I14" s="90"/>
+      <c r="A14" s="69"/>
+      <c r="B14" s="74" t="s">
+        <v>3</v>
+      </c>
+      <c r="C14" s="75"/>
+      <c r="D14" s="76" t="s">
+        <v>4</v>
+      </c>
+      <c r="E14" s="78" t="s">
+        <v>42</v>
+      </c>
+      <c r="F14" s="79"/>
+      <c r="G14" s="79"/>
+      <c r="H14" s="79"/>
+      <c r="I14" s="80"/>
     </row>
     <row r="15" spans="1:50" ht="13" customHeight="1">
-      <c r="A15" s="80"/>
+      <c r="A15" s="70"/>
       <c r="B15" s="32" t="s">
-        <v>36</v>
+        <v>5</v>
       </c>
       <c r="C15" s="33" t="s">
-        <v>37</v>
-      </c>
-      <c r="D15" s="87"/>
-      <c r="E15" s="91"/>
-      <c r="F15" s="92"/>
-      <c r="G15" s="92"/>
-      <c r="H15" s="92"/>
-      <c r="I15" s="93"/>
+        <v>6</v>
+      </c>
+      <c r="D15" s="77"/>
+      <c r="E15" s="81"/>
+      <c r="F15" s="82"/>
+      <c r="G15" s="82"/>
+      <c r="H15" s="82"/>
+      <c r="I15" s="83"/>
     </row>
     <row r="16" spans="1:50" s="51" customFormat="1" ht="12">
       <c r="A16" s="48" t="s">
-        <v>38</v>
+        <v>7</v>
       </c>
       <c r="B16" s="49">
         <v>0.33333333333333331</v>
@@ -2218,17 +2222,17 @@
         <f>C16-B16</f>
         <v>0.20833333333333331</v>
       </c>
-      <c r="E16" s="74" t="s">
-        <v>85</v>
-      </c>
-      <c r="F16" s="75"/>
-      <c r="G16" s="75"/>
-      <c r="H16" s="75"/>
-      <c r="I16" s="76"/>
+      <c r="E16" s="67" t="s">
+        <v>54</v>
+      </c>
+      <c r="F16" s="58"/>
+      <c r="G16" s="58"/>
+      <c r="H16" s="58"/>
+      <c r="I16" s="59"/>
     </row>
     <row r="17" spans="1:9" s="51" customFormat="1" ht="12">
       <c r="A17" s="48" t="s">
-        <v>39</v>
+        <v>8</v>
       </c>
       <c r="B17" s="49"/>
       <c r="C17" s="50"/>
@@ -2236,15 +2240,15 @@
         <f t="shared" ref="D17:D49" si="0">C17-B17</f>
         <v>0</v>
       </c>
-      <c r="E17" s="77"/>
-      <c r="F17" s="75"/>
-      <c r="G17" s="75"/>
-      <c r="H17" s="75"/>
-      <c r="I17" s="76"/>
+      <c r="E17" s="57"/>
+      <c r="F17" s="58"/>
+      <c r="G17" s="58"/>
+      <c r="H17" s="58"/>
+      <c r="I17" s="59"/>
     </row>
     <row r="18" spans="1:9" s="43" customFormat="1" ht="12">
       <c r="A18" s="40" t="s">
-        <v>40</v>
+        <v>9</v>
       </c>
       <c r="B18" s="41"/>
       <c r="C18" s="42"/>
@@ -2252,15 +2256,15 @@
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="E18" s="71"/>
-      <c r="F18" s="72"/>
-      <c r="G18" s="72"/>
-      <c r="H18" s="72"/>
-      <c r="I18" s="73"/>
+      <c r="E18" s="60"/>
+      <c r="F18" s="61"/>
+      <c r="G18" s="61"/>
+      <c r="H18" s="61"/>
+      <c r="I18" s="62"/>
     </row>
     <row r="19" spans="1:9" s="43" customFormat="1" ht="12">
       <c r="A19" s="40" t="s">
-        <v>41</v>
+        <v>10</v>
       </c>
       <c r="B19" s="41">
         <v>0.66666666666666663</v>
@@ -2272,17 +2276,17 @@
         <f t="shared" si="0"/>
         <v>4.1666666666666741E-2</v>
       </c>
-      <c r="E19" s="71" t="s">
-        <v>87</v>
-      </c>
-      <c r="F19" s="72"/>
-      <c r="G19" s="72"/>
-      <c r="H19" s="72"/>
-      <c r="I19" s="73"/>
+      <c r="E19" s="60" t="s">
+        <v>56</v>
+      </c>
+      <c r="F19" s="61"/>
+      <c r="G19" s="61"/>
+      <c r="H19" s="61"/>
+      <c r="I19" s="62"/>
     </row>
     <row r="20" spans="1:9" s="43" customFormat="1" ht="12">
       <c r="A20" s="40" t="s">
-        <v>42</v>
+        <v>11</v>
       </c>
       <c r="B20" s="41"/>
       <c r="C20" s="42"/>
@@ -2290,15 +2294,15 @@
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="E20" s="71"/>
-      <c r="F20" s="72"/>
-      <c r="G20" s="72"/>
-      <c r="H20" s="72"/>
-      <c r="I20" s="73"/>
+      <c r="E20" s="60"/>
+      <c r="F20" s="61"/>
+      <c r="G20" s="61"/>
+      <c r="H20" s="61"/>
+      <c r="I20" s="62"/>
     </row>
     <row r="21" spans="1:9" s="43" customFormat="1" ht="12">
       <c r="A21" s="40" t="s">
-        <v>43</v>
+        <v>12</v>
       </c>
       <c r="B21" s="41"/>
       <c r="C21" s="42"/>
@@ -2306,15 +2310,15 @@
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="E21" s="71"/>
-      <c r="F21" s="72"/>
-      <c r="G21" s="72"/>
-      <c r="H21" s="72"/>
-      <c r="I21" s="73"/>
+      <c r="E21" s="60"/>
+      <c r="F21" s="61"/>
+      <c r="G21" s="61"/>
+      <c r="H21" s="61"/>
+      <c r="I21" s="62"/>
     </row>
     <row r="22" spans="1:9" s="43" customFormat="1" ht="12">
       <c r="A22" s="40" t="s">
-        <v>44</v>
+        <v>13</v>
       </c>
       <c r="B22" s="41"/>
       <c r="C22" s="42"/>
@@ -2322,15 +2326,15 @@
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="E22" s="71"/>
-      <c r="F22" s="72"/>
-      <c r="G22" s="72"/>
-      <c r="H22" s="72"/>
-      <c r="I22" s="73"/>
+      <c r="E22" s="60"/>
+      <c r="F22" s="61"/>
+      <c r="G22" s="61"/>
+      <c r="H22" s="61"/>
+      <c r="I22" s="62"/>
     </row>
     <row r="23" spans="1:9" s="51" customFormat="1" ht="12">
       <c r="A23" s="48" t="s">
-        <v>45</v>
+        <v>14</v>
       </c>
       <c r="B23" s="49"/>
       <c r="C23" s="50"/>
@@ -2338,15 +2342,15 @@
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="E23" s="77"/>
-      <c r="F23" s="75"/>
-      <c r="G23" s="75"/>
-      <c r="H23" s="75"/>
-      <c r="I23" s="76"/>
+      <c r="E23" s="57"/>
+      <c r="F23" s="58"/>
+      <c r="G23" s="58"/>
+      <c r="H23" s="58"/>
+      <c r="I23" s="59"/>
     </row>
     <row r="24" spans="1:9" s="51" customFormat="1" ht="12">
       <c r="A24" s="48" t="s">
-        <v>46</v>
+        <v>15</v>
       </c>
       <c r="B24" s="49">
         <v>0.5</v>
@@ -2358,17 +2362,17 @@
         <f t="shared" si="0"/>
         <v>8.333333333333337E-2</v>
       </c>
-      <c r="E24" s="77" t="s">
-        <v>3</v>
-      </c>
-      <c r="F24" s="75"/>
-      <c r="G24" s="75"/>
-      <c r="H24" s="75"/>
-      <c r="I24" s="76"/>
+      <c r="E24" s="57" t="s">
+        <v>65</v>
+      </c>
+      <c r="F24" s="58"/>
+      <c r="G24" s="58"/>
+      <c r="H24" s="58"/>
+      <c r="I24" s="59"/>
     </row>
     <row r="25" spans="1:9" s="43" customFormat="1" ht="12">
       <c r="A25" s="40" t="s">
-        <v>47</v>
+        <v>16</v>
       </c>
       <c r="B25" s="41">
         <v>0.625</v>
@@ -2380,17 +2384,17 @@
         <f t="shared" si="0"/>
         <v>0.16666666666666663</v>
       </c>
-      <c r="E25" s="71" t="s">
-        <v>2</v>
-      </c>
-      <c r="F25" s="72"/>
-      <c r="G25" s="72"/>
-      <c r="H25" s="72"/>
-      <c r="I25" s="73"/>
+      <c r="E25" s="60" t="s">
+        <v>64</v>
+      </c>
+      <c r="F25" s="61"/>
+      <c r="G25" s="61"/>
+      <c r="H25" s="61"/>
+      <c r="I25" s="62"/>
     </row>
     <row r="26" spans="1:9" s="43" customFormat="1" ht="12">
       <c r="A26" s="40" t="s">
-        <v>48</v>
+        <v>17</v>
       </c>
       <c r="B26" s="41">
         <v>0.375</v>
@@ -2402,13 +2406,13 @@
         <f>C26-B26</f>
         <v>0.125</v>
       </c>
-      <c r="E26" s="71" t="s">
-        <v>14</v>
-      </c>
-      <c r="F26" s="72"/>
-      <c r="G26" s="72"/>
-      <c r="H26" s="72"/>
-      <c r="I26" s="73"/>
+      <c r="E26" s="60" t="s">
+        <v>76</v>
+      </c>
+      <c r="F26" s="61"/>
+      <c r="G26" s="61"/>
+      <c r="H26" s="61"/>
+      <c r="I26" s="62"/>
     </row>
     <row r="27" spans="1:9" s="43" customFormat="1" ht="12">
       <c r="A27" s="40"/>
@@ -2422,17 +2426,17 @@
         <f t="shared" si="0"/>
         <v>8.333333333333337E-2</v>
       </c>
-      <c r="E27" s="71" t="s">
-        <v>7</v>
-      </c>
-      <c r="F27" s="72"/>
-      <c r="G27" s="72"/>
-      <c r="H27" s="72"/>
-      <c r="I27" s="73"/>
+      <c r="E27" s="60" t="s">
+        <v>69</v>
+      </c>
+      <c r="F27" s="61"/>
+      <c r="G27" s="61"/>
+      <c r="H27" s="61"/>
+      <c r="I27" s="62"/>
     </row>
     <row r="28" spans="1:9" s="43" customFormat="1" ht="12">
       <c r="A28" s="40" t="s">
-        <v>49</v>
+        <v>18</v>
       </c>
       <c r="B28" s="41">
         <v>0.83333333333333337</v>
@@ -2444,17 +2448,17 @@
         <f t="shared" si="0"/>
         <v>0.125</v>
       </c>
-      <c r="E28" s="71" t="s">
-        <v>4</v>
-      </c>
-      <c r="F28" s="72"/>
-      <c r="G28" s="72"/>
-      <c r="H28" s="72"/>
-      <c r="I28" s="73"/>
+      <c r="E28" s="60" t="s">
+        <v>66</v>
+      </c>
+      <c r="F28" s="61"/>
+      <c r="G28" s="61"/>
+      <c r="H28" s="61"/>
+      <c r="I28" s="62"/>
     </row>
     <row r="29" spans="1:9" s="43" customFormat="1" ht="12">
       <c r="A29" s="40" t="s">
-        <v>50</v>
+        <v>19</v>
       </c>
       <c r="B29" s="41">
         <v>0.5</v>
@@ -2466,17 +2470,17 @@
         <f t="shared" si="0"/>
         <v>3.125E-2</v>
       </c>
-      <c r="E29" s="71" t="s">
-        <v>6</v>
-      </c>
-      <c r="F29" s="72"/>
-      <c r="G29" s="72"/>
-      <c r="H29" s="72"/>
-      <c r="I29" s="73"/>
+      <c r="E29" s="60" t="s">
+        <v>68</v>
+      </c>
+      <c r="F29" s="61"/>
+      <c r="G29" s="61"/>
+      <c r="H29" s="61"/>
+      <c r="I29" s="62"/>
     </row>
     <row r="30" spans="1:9" s="43" customFormat="1" ht="12">
       <c r="A30" s="40" t="s">
-        <v>51</v>
+        <v>20</v>
       </c>
       <c r="B30" s="41"/>
       <c r="C30" s="42"/>
@@ -2484,15 +2488,15 @@
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="E30" s="71"/>
-      <c r="F30" s="72"/>
-      <c r="G30" s="72"/>
-      <c r="H30" s="72"/>
-      <c r="I30" s="73"/>
+      <c r="E30" s="60"/>
+      <c r="F30" s="61"/>
+      <c r="G30" s="61"/>
+      <c r="H30" s="61"/>
+      <c r="I30" s="62"/>
     </row>
     <row r="31" spans="1:9" s="51" customFormat="1" ht="12">
       <c r="A31" s="48" t="s">
-        <v>52</v>
+        <v>21</v>
       </c>
       <c r="B31" s="49"/>
       <c r="C31" s="50"/>
@@ -2500,15 +2504,15 @@
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="E31" s="77"/>
-      <c r="F31" s="75"/>
-      <c r="G31" s="75"/>
-      <c r="H31" s="75"/>
-      <c r="I31" s="76"/>
+      <c r="E31" s="57"/>
+      <c r="F31" s="58"/>
+      <c r="G31" s="58"/>
+      <c r="H31" s="58"/>
+      <c r="I31" s="59"/>
     </row>
     <row r="32" spans="1:9" s="51" customFormat="1" ht="12">
       <c r="A32" s="48" t="s">
-        <v>53</v>
+        <v>22</v>
       </c>
       <c r="B32" s="49"/>
       <c r="C32" s="50"/>
@@ -2516,15 +2520,15 @@
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="E32" s="77"/>
-      <c r="F32" s="75"/>
-      <c r="G32" s="75"/>
-      <c r="H32" s="75"/>
-      <c r="I32" s="76"/>
+      <c r="E32" s="57"/>
+      <c r="F32" s="58"/>
+      <c r="G32" s="58"/>
+      <c r="H32" s="58"/>
+      <c r="I32" s="59"/>
     </row>
     <row r="33" spans="1:9" s="43" customFormat="1" ht="12">
       <c r="A33" s="40" t="s">
-        <v>54</v>
+        <v>23</v>
       </c>
       <c r="B33" s="41"/>
       <c r="C33" s="42"/>
@@ -2532,15 +2536,15 @@
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="E33" s="71"/>
-      <c r="F33" s="72"/>
-      <c r="G33" s="72"/>
-      <c r="H33" s="72"/>
-      <c r="I33" s="73"/>
+      <c r="E33" s="60"/>
+      <c r="F33" s="61"/>
+      <c r="G33" s="61"/>
+      <c r="H33" s="61"/>
+      <c r="I33" s="62"/>
     </row>
     <row r="34" spans="1:9" s="43" customFormat="1" ht="12">
       <c r="A34" s="40" t="s">
-        <v>58</v>
+        <v>27</v>
       </c>
       <c r="B34" s="41"/>
       <c r="C34" s="42"/>
@@ -2548,15 +2552,15 @@
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="E34" s="71"/>
-      <c r="F34" s="72"/>
-      <c r="G34" s="72"/>
-      <c r="H34" s="72"/>
-      <c r="I34" s="73"/>
+      <c r="E34" s="60"/>
+      <c r="F34" s="61"/>
+      <c r="G34" s="61"/>
+      <c r="H34" s="61"/>
+      <c r="I34" s="62"/>
     </row>
     <row r="35" spans="1:9" s="43" customFormat="1" ht="12">
       <c r="A35" s="40" t="s">
-        <v>59</v>
+        <v>28</v>
       </c>
       <c r="B35" s="41"/>
       <c r="C35" s="42"/>
@@ -2564,15 +2568,15 @@
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="E35" s="71"/>
-      <c r="F35" s="72"/>
-      <c r="G35" s="72"/>
-      <c r="H35" s="72"/>
-      <c r="I35" s="73"/>
+      <c r="E35" s="60"/>
+      <c r="F35" s="61"/>
+      <c r="G35" s="61"/>
+      <c r="H35" s="61"/>
+      <c r="I35" s="62"/>
     </row>
     <row r="36" spans="1:9" s="43" customFormat="1" ht="12">
       <c r="A36" s="40" t="s">
-        <v>60</v>
+        <v>29</v>
       </c>
       <c r="B36" s="41"/>
       <c r="C36" s="42"/>
@@ -2580,15 +2584,15 @@
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="E36" s="71"/>
-      <c r="F36" s="72"/>
-      <c r="G36" s="72"/>
-      <c r="H36" s="72"/>
-      <c r="I36" s="73"/>
+      <c r="E36" s="60"/>
+      <c r="F36" s="61"/>
+      <c r="G36" s="61"/>
+      <c r="H36" s="61"/>
+      <c r="I36" s="62"/>
     </row>
     <row r="37" spans="1:9" s="43" customFormat="1" ht="12">
       <c r="A37" s="40" t="s">
-        <v>61</v>
+        <v>30</v>
       </c>
       <c r="B37" s="41"/>
       <c r="C37" s="42"/>
@@ -2596,15 +2600,15 @@
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="E37" s="71"/>
-      <c r="F37" s="72"/>
-      <c r="G37" s="72"/>
-      <c r="H37" s="72"/>
-      <c r="I37" s="73"/>
+      <c r="E37" s="60"/>
+      <c r="F37" s="61"/>
+      <c r="G37" s="61"/>
+      <c r="H37" s="61"/>
+      <c r="I37" s="62"/>
     </row>
     <row r="38" spans="1:9" s="51" customFormat="1" ht="12">
       <c r="A38" s="48" t="s">
-        <v>62</v>
+        <v>31</v>
       </c>
       <c r="B38" s="49"/>
       <c r="C38" s="50"/>
@@ -2612,15 +2616,15 @@
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="E38" s="77"/>
-      <c r="F38" s="75"/>
-      <c r="G38" s="75"/>
-      <c r="H38" s="75"/>
-      <c r="I38" s="76"/>
+      <c r="E38" s="57"/>
+      <c r="F38" s="58"/>
+      <c r="G38" s="58"/>
+      <c r="H38" s="58"/>
+      <c r="I38" s="59"/>
     </row>
     <row r="39" spans="1:9" s="51" customFormat="1" ht="12">
       <c r="A39" s="48" t="s">
-        <v>63</v>
+        <v>32</v>
       </c>
       <c r="B39" s="49"/>
       <c r="C39" s="50"/>
@@ -2628,15 +2632,15 @@
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="E39" s="77"/>
-      <c r="F39" s="75"/>
-      <c r="G39" s="75"/>
-      <c r="H39" s="75"/>
-      <c r="I39" s="76"/>
+      <c r="E39" s="57"/>
+      <c r="F39" s="58"/>
+      <c r="G39" s="58"/>
+      <c r="H39" s="58"/>
+      <c r="I39" s="59"/>
     </row>
     <row r="40" spans="1:9" s="43" customFormat="1" ht="12">
       <c r="A40" s="40" t="s">
-        <v>64</v>
+        <v>33</v>
       </c>
       <c r="B40" s="41">
         <v>0.9375</v>
@@ -2648,17 +2652,17 @@
         <f t="shared" si="0"/>
         <v>4.166666666666663E-2</v>
       </c>
-      <c r="E40" s="71" t="s">
-        <v>5</v>
-      </c>
-      <c r="F40" s="72"/>
-      <c r="G40" s="72"/>
-      <c r="H40" s="72"/>
-      <c r="I40" s="73"/>
+      <c r="E40" s="60" t="s">
+        <v>67</v>
+      </c>
+      <c r="F40" s="61"/>
+      <c r="G40" s="61"/>
+      <c r="H40" s="61"/>
+      <c r="I40" s="62"/>
     </row>
     <row r="41" spans="1:9" s="43" customFormat="1" ht="12">
       <c r="A41" s="40" t="s">
-        <v>65</v>
+        <v>34</v>
       </c>
       <c r="B41" s="41">
         <v>0.41666666666666669</v>
@@ -2670,13 +2674,13 @@
         <f t="shared" si="0"/>
         <v>0.12499999999999994</v>
       </c>
-      <c r="E41" s="71" t="s">
-        <v>16</v>
-      </c>
-      <c r="F41" s="72"/>
-      <c r="G41" s="72"/>
-      <c r="H41" s="72"/>
-      <c r="I41" s="73"/>
+      <c r="E41" s="60" t="s">
+        <v>78</v>
+      </c>
+      <c r="F41" s="61"/>
+      <c r="G41" s="61"/>
+      <c r="H41" s="61"/>
+      <c r="I41" s="62"/>
     </row>
     <row r="42" spans="1:9" s="43" customFormat="1" ht="12">
       <c r="A42" s="40"/>
@@ -2690,13 +2694,13 @@
         <f t="shared" si="0"/>
         <v>0.16666666666666663</v>
       </c>
-      <c r="E42" s="71" t="s">
-        <v>15</v>
-      </c>
-      <c r="F42" s="72"/>
-      <c r="G42" s="72"/>
-      <c r="H42" s="72"/>
-      <c r="I42" s="73"/>
+      <c r="E42" s="60" t="s">
+        <v>77</v>
+      </c>
+      <c r="F42" s="61"/>
+      <c r="G42" s="61"/>
+      <c r="H42" s="61"/>
+      <c r="I42" s="62"/>
     </row>
     <row r="43" spans="1:9" s="43" customFormat="1" ht="12">
       <c r="A43" s="40"/>
@@ -2710,17 +2714,17 @@
         <f t="shared" si="0"/>
         <v>0.10416666666666663</v>
       </c>
-      <c r="E43" s="71" t="s">
-        <v>23</v>
-      </c>
-      <c r="F43" s="72"/>
-      <c r="G43" s="72"/>
-      <c r="H43" s="72"/>
-      <c r="I43" s="73"/>
+      <c r="E43" s="60" t="s">
+        <v>85</v>
+      </c>
+      <c r="F43" s="61"/>
+      <c r="G43" s="61"/>
+      <c r="H43" s="61"/>
+      <c r="I43" s="62"/>
     </row>
     <row r="44" spans="1:9" s="43" customFormat="1" ht="12">
       <c r="A44" s="40" t="s">
-        <v>66</v>
+        <v>35</v>
       </c>
       <c r="B44" s="41">
         <v>0.5</v>
@@ -2732,17 +2736,17 @@
         <f t="shared" si="0"/>
         <v>8.333333333333337E-2</v>
       </c>
-      <c r="E44" s="71" t="s">
-        <v>24</v>
-      </c>
-      <c r="F44" s="72"/>
-      <c r="G44" s="72"/>
-      <c r="H44" s="72"/>
-      <c r="I44" s="73"/>
+      <c r="E44" s="60" t="s">
+        <v>86</v>
+      </c>
+      <c r="F44" s="61"/>
+      <c r="G44" s="61"/>
+      <c r="H44" s="61"/>
+      <c r="I44" s="62"/>
     </row>
     <row r="45" spans="1:9" s="43" customFormat="1" ht="12">
       <c r="A45" s="40" t="s">
-        <v>67</v>
+        <v>36</v>
       </c>
       <c r="B45" s="41">
         <v>0.41666666666666669</v>
@@ -2754,17 +2758,17 @@
         <f t="shared" si="0"/>
         <v>2.0833333333333315E-2</v>
       </c>
-      <c r="E45" s="71" t="s">
-        <v>32</v>
-      </c>
-      <c r="F45" s="72"/>
-      <c r="G45" s="72"/>
-      <c r="H45" s="72"/>
-      <c r="I45" s="73"/>
+      <c r="E45" s="60" t="s">
+        <v>1</v>
+      </c>
+      <c r="F45" s="61"/>
+      <c r="G45" s="61"/>
+      <c r="H45" s="61"/>
+      <c r="I45" s="62"/>
     </row>
     <row r="46" spans="1:9" s="43" customFormat="1" ht="12">
       <c r="A46" s="40" t="s">
-        <v>68</v>
+        <v>37</v>
       </c>
       <c r="B46" s="41">
         <v>0.5</v>
@@ -2776,17 +2780,17 @@
         <f t="shared" si="0"/>
         <v>0.16666666666666663</v>
       </c>
-      <c r="E46" s="71" t="s">
-        <v>25</v>
-      </c>
-      <c r="F46" s="72"/>
-      <c r="G46" s="72"/>
-      <c r="H46" s="72"/>
-      <c r="I46" s="73"/>
+      <c r="E46" s="60" t="s">
+        <v>87</v>
+      </c>
+      <c r="F46" s="61"/>
+      <c r="G46" s="61"/>
+      <c r="H46" s="61"/>
+      <c r="I46" s="62"/>
     </row>
     <row r="47" spans="1:9" s="51" customFormat="1" ht="12">
       <c r="A47" s="48" t="s">
-        <v>69</v>
+        <v>38</v>
       </c>
       <c r="B47" s="49"/>
       <c r="C47" s="50"/>
@@ -2794,15 +2798,15 @@
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="E47" s="77"/>
-      <c r="F47" s="75"/>
-      <c r="G47" s="75"/>
-      <c r="H47" s="75"/>
-      <c r="I47" s="76"/>
+      <c r="E47" s="57"/>
+      <c r="F47" s="58"/>
+      <c r="G47" s="58"/>
+      <c r="H47" s="58"/>
+      <c r="I47" s="59"/>
     </row>
     <row r="48" spans="1:9" s="51" customFormat="1" ht="12">
       <c r="A48" s="48" t="s">
-        <v>70</v>
+        <v>39</v>
       </c>
       <c r="B48" s="49"/>
       <c r="C48" s="50"/>
@@ -2810,15 +2814,15 @@
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="E48" s="77"/>
-      <c r="F48" s="75"/>
-      <c r="G48" s="75"/>
-      <c r="H48" s="75"/>
-      <c r="I48" s="76"/>
+      <c r="E48" s="57"/>
+      <c r="F48" s="58"/>
+      <c r="G48" s="58"/>
+      <c r="H48" s="58"/>
+      <c r="I48" s="59"/>
     </row>
     <row r="49" spans="1:13" s="43" customFormat="1" ht="12">
       <c r="A49" s="44" t="s">
-        <v>71</v>
+        <v>40</v>
       </c>
       <c r="B49" s="41">
         <v>0.5</v>
@@ -2830,27 +2834,27 @@
         <f t="shared" si="0"/>
         <v>8.333333333333337E-2</v>
       </c>
-      <c r="E49" s="71" t="s">
-        <v>26</v>
-      </c>
-      <c r="F49" s="72"/>
-      <c r="G49" s="72"/>
-      <c r="H49" s="72"/>
-      <c r="I49" s="73"/>
+      <c r="E49" s="60" t="s">
+        <v>88</v>
+      </c>
+      <c r="F49" s="61"/>
+      <c r="G49" s="61"/>
+      <c r="H49" s="61"/>
+      <c r="I49" s="62"/>
     </row>
     <row r="50" spans="1:13" s="47" customFormat="1" ht="13">
-      <c r="A50" s="94"/>
-      <c r="B50" s="95"/>
-      <c r="C50" s="95"/>
+      <c r="A50" s="63"/>
+      <c r="B50" s="64"/>
+      <c r="C50" s="64"/>
       <c r="D50" s="46">
         <f>SUM(D16:D49)</f>
         <v>1.65625</v>
       </c>
-      <c r="E50" s="96"/>
-      <c r="F50" s="96"/>
-      <c r="G50" s="96"/>
-      <c r="H50" s="96"/>
-      <c r="I50" s="97"/>
+      <c r="E50" s="65"/>
+      <c r="F50" s="65"/>
+      <c r="G50" s="65"/>
+      <c r="H50" s="65"/>
+      <c r="I50" s="66"/>
     </row>
     <row r="51" spans="1:13" ht="7.5" customHeight="1">
       <c r="A51" s="28"/>
@@ -2883,13 +2887,42 @@
     </row>
   </sheetData>
   <mergeCells count="54">
-    <mergeCell ref="E48:I48"/>
-    <mergeCell ref="E49:I49"/>
-    <mergeCell ref="A50:C50"/>
-    <mergeCell ref="E50:I50"/>
-    <mergeCell ref="E45:I45"/>
-    <mergeCell ref="E46:I46"/>
-    <mergeCell ref="E47:I47"/>
+    <mergeCell ref="A9:C9"/>
+    <mergeCell ref="D9:H9"/>
+    <mergeCell ref="A10:I10"/>
+    <mergeCell ref="A5:C5"/>
+    <mergeCell ref="D5:H5"/>
+    <mergeCell ref="A6:I6"/>
+    <mergeCell ref="A7:C7"/>
+    <mergeCell ref="D7:H7"/>
+    <mergeCell ref="A1:I1"/>
+    <mergeCell ref="A2:I2"/>
+    <mergeCell ref="A3:H3"/>
+    <mergeCell ref="A4:I4"/>
+    <mergeCell ref="A8:I8"/>
+    <mergeCell ref="E20:I20"/>
+    <mergeCell ref="E16:I16"/>
+    <mergeCell ref="E17:I17"/>
+    <mergeCell ref="A13:A15"/>
+    <mergeCell ref="B13:I13"/>
+    <mergeCell ref="B14:C14"/>
+    <mergeCell ref="D14:D15"/>
+    <mergeCell ref="E14:I15"/>
+    <mergeCell ref="E18:I18"/>
+    <mergeCell ref="E19:I19"/>
+    <mergeCell ref="E24:I24"/>
+    <mergeCell ref="E25:I25"/>
+    <mergeCell ref="E27:I27"/>
+    <mergeCell ref="E21:I21"/>
+    <mergeCell ref="E22:I22"/>
+    <mergeCell ref="E23:I23"/>
+    <mergeCell ref="E26:I26"/>
+    <mergeCell ref="E31:I31"/>
+    <mergeCell ref="E32:I32"/>
+    <mergeCell ref="E33:I33"/>
+    <mergeCell ref="E28:I28"/>
+    <mergeCell ref="E29:I29"/>
+    <mergeCell ref="E30:I30"/>
     <mergeCell ref="E44:I44"/>
     <mergeCell ref="E37:I37"/>
     <mergeCell ref="E38:I38"/>
@@ -2901,42 +2934,13 @@
     <mergeCell ref="E41:I41"/>
     <mergeCell ref="E42:I42"/>
     <mergeCell ref="E43:I43"/>
-    <mergeCell ref="E31:I31"/>
-    <mergeCell ref="E32:I32"/>
-    <mergeCell ref="E33:I33"/>
-    <mergeCell ref="E28:I28"/>
-    <mergeCell ref="E29:I29"/>
-    <mergeCell ref="E30:I30"/>
-    <mergeCell ref="E24:I24"/>
-    <mergeCell ref="E25:I25"/>
-    <mergeCell ref="E27:I27"/>
-    <mergeCell ref="E21:I21"/>
-    <mergeCell ref="E22:I22"/>
-    <mergeCell ref="E23:I23"/>
-    <mergeCell ref="E26:I26"/>
-    <mergeCell ref="E20:I20"/>
-    <mergeCell ref="E16:I16"/>
-    <mergeCell ref="E17:I17"/>
-    <mergeCell ref="A13:A15"/>
-    <mergeCell ref="B13:I13"/>
-    <mergeCell ref="B14:C14"/>
-    <mergeCell ref="D14:D15"/>
-    <mergeCell ref="E14:I15"/>
-    <mergeCell ref="E18:I18"/>
-    <mergeCell ref="E19:I19"/>
-    <mergeCell ref="A1:I1"/>
-    <mergeCell ref="A2:I2"/>
-    <mergeCell ref="A3:H3"/>
-    <mergeCell ref="A4:I4"/>
-    <mergeCell ref="A8:I8"/>
-    <mergeCell ref="A9:C9"/>
-    <mergeCell ref="D9:H9"/>
-    <mergeCell ref="A10:I10"/>
-    <mergeCell ref="A5:C5"/>
-    <mergeCell ref="D5:H5"/>
-    <mergeCell ref="A6:I6"/>
-    <mergeCell ref="A7:C7"/>
-    <mergeCell ref="D7:H7"/>
+    <mergeCell ref="E48:I48"/>
+    <mergeCell ref="E49:I49"/>
+    <mergeCell ref="A50:C50"/>
+    <mergeCell ref="E50:I50"/>
+    <mergeCell ref="E45:I45"/>
+    <mergeCell ref="E46:I46"/>
+    <mergeCell ref="E47:I47"/>
   </mergeCells>
   <phoneticPr fontId="32" type="noConversion"/>
   <printOptions horizontalCentered="1"/>
@@ -2976,17 +2980,17 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:45" s="7" customFormat="1" ht="18" thickBot="1">
-      <c r="A1" s="66" t="s">
-        <v>88</v>
-      </c>
-      <c r="B1" s="66"/>
-      <c r="C1" s="66"/>
-      <c r="D1" s="66"/>
-      <c r="E1" s="66"/>
-      <c r="F1" s="66"/>
-      <c r="G1" s="66"/>
-      <c r="H1" s="66"/>
-      <c r="I1" s="66"/>
+      <c r="A1" s="84" t="s">
+        <v>57</v>
+      </c>
+      <c r="B1" s="84"/>
+      <c r="C1" s="84"/>
+      <c r="D1" s="84"/>
+      <c r="E1" s="84"/>
+      <c r="F1" s="84"/>
+      <c r="G1" s="84"/>
+      <c r="H1" s="84"/>
+      <c r="I1" s="84"/>
       <c r="J1" s="8"/>
       <c r="K1" s="8"/>
       <c r="L1" s="8"/>
@@ -3024,15 +3028,15 @@
       <c r="AR1" s="8"/>
     </row>
     <row r="2" spans="1:45" s="1" customFormat="1" ht="7.5" customHeight="1">
-      <c r="A2" s="67"/>
-      <c r="B2" s="67"/>
-      <c r="C2" s="67"/>
-      <c r="D2" s="67"/>
-      <c r="E2" s="67"/>
-      <c r="F2" s="67"/>
-      <c r="G2" s="67"/>
-      <c r="H2" s="67"/>
-      <c r="I2" s="67"/>
+      <c r="A2" s="85"/>
+      <c r="B2" s="85"/>
+      <c r="C2" s="85"/>
+      <c r="D2" s="85"/>
+      <c r="E2" s="85"/>
+      <c r="F2" s="85"/>
+      <c r="G2" s="85"/>
+      <c r="H2" s="85"/>
+      <c r="I2" s="85"/>
       <c r="J2" s="9"/>
       <c r="K2" s="9"/>
       <c r="L2" s="9"/>
@@ -3070,16 +3074,16 @@
       <c r="AR2" s="9"/>
     </row>
     <row r="3" spans="1:45" s="11" customFormat="1" ht="13.5" customHeight="1">
-      <c r="A3" s="68" t="s">
-        <v>78</v>
-      </c>
-      <c r="B3" s="68"/>
-      <c r="C3" s="68"/>
-      <c r="D3" s="68"/>
-      <c r="E3" s="68"/>
-      <c r="F3" s="68"/>
-      <c r="G3" s="68"/>
-      <c r="H3" s="68"/>
+      <c r="A3" s="86" t="s">
+        <v>47</v>
+      </c>
+      <c r="B3" s="86"/>
+      <c r="C3" s="86"/>
+      <c r="D3" s="86"/>
+      <c r="E3" s="86"/>
+      <c r="F3" s="86"/>
+      <c r="G3" s="86"/>
+      <c r="H3" s="86"/>
       <c r="I3" s="23"/>
       <c r="J3" s="22"/>
       <c r="K3" s="22"/>
@@ -3119,112 +3123,112 @@
       <c r="AS3" s="10"/>
     </row>
     <row r="4" spans="1:45" s="6" customFormat="1" ht="9" customHeight="1">
-      <c r="A4" s="69"/>
-      <c r="B4" s="69"/>
-      <c r="C4" s="69"/>
-      <c r="D4" s="69"/>
-      <c r="E4" s="69"/>
-      <c r="F4" s="69"/>
-      <c r="G4" s="69"/>
-      <c r="H4" s="69"/>
-      <c r="I4" s="69"/>
+      <c r="A4" s="87"/>
+      <c r="B4" s="87"/>
+      <c r="C4" s="87"/>
+      <c r="D4" s="87"/>
+      <c r="E4" s="87"/>
+      <c r="F4" s="87"/>
+      <c r="G4" s="87"/>
+      <c r="H4" s="87"/>
+      <c r="I4" s="87"/>
     </row>
     <row r="5" spans="1:45" s="1" customFormat="1" ht="13.75" customHeight="1">
-      <c r="A5" s="62" t="str">
+      <c r="A5" s="94" t="str">
         <f>October!A5</f>
         <v>Firstname Lastname</v>
       </c>
-      <c r="B5" s="63"/>
-      <c r="C5" s="63"/>
-      <c r="D5" s="58" t="str">
+      <c r="B5" s="95"/>
+      <c r="C5" s="95"/>
+      <c r="D5" s="90" t="str">
         <f>October!D5</f>
         <v>Augustin Hannah</v>
       </c>
-      <c r="E5" s="59"/>
-      <c r="F5" s="59"/>
-      <c r="G5" s="59"/>
-      <c r="H5" s="60"/>
+      <c r="E5" s="91"/>
+      <c r="F5" s="91"/>
+      <c r="G5" s="91"/>
+      <c r="H5" s="92"/>
       <c r="I5" s="23"/>
       <c r="J5" s="9"/>
       <c r="K5" s="9"/>
       <c r="L5" s="9"/>
     </row>
     <row r="6" spans="1:45" s="1" customFormat="1" ht="7.5" customHeight="1">
-      <c r="A6" s="64"/>
-      <c r="B6" s="64"/>
-      <c r="C6" s="64"/>
-      <c r="D6" s="64"/>
-      <c r="E6" s="64"/>
-      <c r="F6" s="64"/>
-      <c r="G6" s="64"/>
-      <c r="H6" s="64"/>
-      <c r="I6" s="64"/>
+      <c r="A6" s="96"/>
+      <c r="B6" s="96"/>
+      <c r="C6" s="96"/>
+      <c r="D6" s="96"/>
+      <c r="E6" s="96"/>
+      <c r="F6" s="96"/>
+      <c r="G6" s="96"/>
+      <c r="H6" s="96"/>
+      <c r="I6" s="96"/>
     </row>
     <row r="7" spans="1:45" s="1" customFormat="1" ht="13.75" customHeight="1">
-      <c r="A7" s="57" t="str">
+      <c r="A7" s="89" t="str">
         <f>October!A7</f>
         <v>Project Acronym</v>
       </c>
-      <c r="B7" s="57"/>
-      <c r="C7" s="57"/>
-      <c r="D7" s="65" t="str">
+      <c r="B7" s="89"/>
+      <c r="C7" s="89"/>
+      <c r="D7" s="97" t="str">
         <f>October!D7</f>
         <v>AIQ</v>
       </c>
-      <c r="E7" s="65"/>
-      <c r="F7" s="65"/>
-      <c r="G7" s="65"/>
-      <c r="H7" s="65"/>
+      <c r="E7" s="97"/>
+      <c r="F7" s="97"/>
+      <c r="G7" s="97"/>
+      <c r="H7" s="97"/>
       <c r="I7" s="24"/>
     </row>
     <row r="8" spans="1:45" s="1" customFormat="1" ht="7.5" customHeight="1">
-      <c r="A8" s="70"/>
-      <c r="B8" s="70"/>
-      <c r="C8" s="70"/>
-      <c r="D8" s="70"/>
-      <c r="E8" s="70"/>
-      <c r="F8" s="70"/>
-      <c r="G8" s="70"/>
-      <c r="H8" s="70"/>
-      <c r="I8" s="70"/>
+      <c r="A8" s="88"/>
+      <c r="B8" s="88"/>
+      <c r="C8" s="88"/>
+      <c r="D8" s="88"/>
+      <c r="E8" s="88"/>
+      <c r="F8" s="88"/>
+      <c r="G8" s="88"/>
+      <c r="H8" s="88"/>
+      <c r="I8" s="88"/>
     </row>
     <row r="9" spans="1:45" s="1" customFormat="1" ht="13.75" customHeight="1">
-      <c r="A9" s="57" t="str">
+      <c r="A9" s="89" t="str">
         <f>October!A9</f>
         <v>Project Title</v>
       </c>
-      <c r="B9" s="57"/>
-      <c r="C9" s="57"/>
-      <c r="D9" s="58" t="str">
+      <c r="B9" s="89"/>
+      <c r="C9" s="89"/>
+      <c r="D9" s="90" t="str">
         <f>October!D9</f>
         <v>Automating change detection in ImageQuerying</v>
       </c>
-      <c r="E9" s="59"/>
-      <c r="F9" s="59"/>
-      <c r="G9" s="59"/>
-      <c r="H9" s="60"/>
+      <c r="E9" s="91"/>
+      <c r="F9" s="91"/>
+      <c r="G9" s="91"/>
+      <c r="H9" s="92"/>
       <c r="I9" s="24"/>
       <c r="J9" s="15"/>
     </row>
     <row r="10" spans="1:45" s="1" customFormat="1" ht="7.5" customHeight="1">
-      <c r="A10" s="61"/>
-      <c r="B10" s="61"/>
-      <c r="C10" s="61"/>
-      <c r="D10" s="61"/>
-      <c r="E10" s="61"/>
-      <c r="F10" s="61"/>
-      <c r="G10" s="61"/>
-      <c r="H10" s="61"/>
-      <c r="I10" s="61"/>
+      <c r="A10" s="93"/>
+      <c r="B10" s="93"/>
+      <c r="C10" s="93"/>
+      <c r="D10" s="93"/>
+      <c r="E10" s="93"/>
+      <c r="F10" s="93"/>
+      <c r="G10" s="93"/>
+      <c r="H10" s="93"/>
+      <c r="I10" s="93"/>
     </row>
     <row r="11" spans="1:45" s="1" customFormat="1" ht="12">
       <c r="A11" s="21" t="s">
-        <v>76</v>
+        <v>45</v>
       </c>
       <c r="B11" s="21"/>
       <c r="C11" s="21"/>
       <c r="D11" s="21" t="s">
-        <v>77</v>
+        <v>46</v>
       </c>
       <c r="E11" s="21"/>
       <c r="F11" s="21"/>
@@ -3244,55 +3248,55 @@
       <c r="I12" s="26"/>
     </row>
     <row r="13" spans="1:45" s="2" customFormat="1" ht="15.5" customHeight="1">
-      <c r="A13" s="78" t="s">
-        <v>33</v>
-      </c>
-      <c r="B13" s="81" t="s">
-        <v>72</v>
-      </c>
-      <c r="C13" s="82"/>
-      <c r="D13" s="82"/>
-      <c r="E13" s="82"/>
-      <c r="F13" s="82"/>
-      <c r="G13" s="82"/>
-      <c r="H13" s="82"/>
-      <c r="I13" s="83"/>
+      <c r="A13" s="68" t="s">
+        <v>2</v>
+      </c>
+      <c r="B13" s="71" t="s">
+        <v>41</v>
+      </c>
+      <c r="C13" s="72"/>
+      <c r="D13" s="72"/>
+      <c r="E13" s="72"/>
+      <c r="F13" s="72"/>
+      <c r="G13" s="72"/>
+      <c r="H13" s="72"/>
+      <c r="I13" s="73"/>
     </row>
     <row r="14" spans="1:45" s="2" customFormat="1" ht="13.75" customHeight="1">
-      <c r="A14" s="79"/>
-      <c r="B14" s="84" t="s">
-        <v>34</v>
-      </c>
-      <c r="C14" s="85"/>
-      <c r="D14" s="86" t="s">
-        <v>35</v>
-      </c>
-      <c r="E14" s="88" t="s">
-        <v>73</v>
-      </c>
-      <c r="F14" s="89"/>
-      <c r="G14" s="89"/>
-      <c r="H14" s="89"/>
-      <c r="I14" s="90"/>
+      <c r="A14" s="69"/>
+      <c r="B14" s="74" t="s">
+        <v>3</v>
+      </c>
+      <c r="C14" s="75"/>
+      <c r="D14" s="76" t="s">
+        <v>4</v>
+      </c>
+      <c r="E14" s="78" t="s">
+        <v>42</v>
+      </c>
+      <c r="F14" s="79"/>
+      <c r="G14" s="79"/>
+      <c r="H14" s="79"/>
+      <c r="I14" s="80"/>
     </row>
     <row r="15" spans="1:45" ht="13" customHeight="1">
-      <c r="A15" s="80"/>
+      <c r="A15" s="70"/>
       <c r="B15" s="32" t="s">
-        <v>36</v>
+        <v>5</v>
       </c>
       <c r="C15" s="33" t="s">
-        <v>37</v>
-      </c>
-      <c r="D15" s="87"/>
-      <c r="E15" s="91"/>
-      <c r="F15" s="92"/>
-      <c r="G15" s="92"/>
-      <c r="H15" s="92"/>
-      <c r="I15" s="93"/>
+        <v>6</v>
+      </c>
+      <c r="D15" s="77"/>
+      <c r="E15" s="81"/>
+      <c r="F15" s="82"/>
+      <c r="G15" s="82"/>
+      <c r="H15" s="82"/>
+      <c r="I15" s="83"/>
     </row>
     <row r="16" spans="1:45" s="43" customFormat="1" ht="12">
       <c r="A16" s="40" t="s">
-        <v>38</v>
+        <v>7</v>
       </c>
       <c r="B16" s="41"/>
       <c r="C16" s="42"/>
@@ -3300,15 +3304,15 @@
         <f>C16-B16</f>
         <v>0</v>
       </c>
-      <c r="E16" s="71"/>
-      <c r="F16" s="72"/>
-      <c r="G16" s="72"/>
-      <c r="H16" s="72"/>
-      <c r="I16" s="73"/>
+      <c r="E16" s="60"/>
+      <c r="F16" s="61"/>
+      <c r="G16" s="61"/>
+      <c r="H16" s="61"/>
+      <c r="I16" s="62"/>
     </row>
     <row r="17" spans="1:9" s="43" customFormat="1" ht="12">
       <c r="A17" s="40" t="s">
-        <v>39</v>
+        <v>8</v>
       </c>
       <c r="B17" s="41"/>
       <c r="C17" s="42"/>
@@ -3316,15 +3320,15 @@
         <f t="shared" ref="D17:D48" si="0">C17-B17</f>
         <v>0</v>
       </c>
-      <c r="E17" s="71"/>
-      <c r="F17" s="72"/>
-      <c r="G17" s="72"/>
-      <c r="H17" s="72"/>
-      <c r="I17" s="73"/>
+      <c r="E17" s="60"/>
+      <c r="F17" s="61"/>
+      <c r="G17" s="61"/>
+      <c r="H17" s="61"/>
+      <c r="I17" s="62"/>
     </row>
     <row r="18" spans="1:9" s="43" customFormat="1" ht="12">
       <c r="A18" s="40" t="s">
-        <v>40</v>
+        <v>9</v>
       </c>
       <c r="B18" s="41"/>
       <c r="C18" s="42"/>
@@ -3332,15 +3336,15 @@
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="E18" s="71"/>
-      <c r="F18" s="72"/>
-      <c r="G18" s="72"/>
-      <c r="H18" s="72"/>
-      <c r="I18" s="73"/>
+      <c r="E18" s="60"/>
+      <c r="F18" s="61"/>
+      <c r="G18" s="61"/>
+      <c r="H18" s="61"/>
+      <c r="I18" s="62"/>
     </row>
     <row r="19" spans="1:9" s="43" customFormat="1" ht="12">
       <c r="A19" s="40" t="s">
-        <v>41</v>
+        <v>10</v>
       </c>
       <c r="B19" s="41">
         <v>0.58333333333333337</v>
@@ -3352,17 +3356,17 @@
         <f t="shared" si="0"/>
         <v>0.16666666666666663</v>
       </c>
-      <c r="E19" s="71" t="s">
-        <v>27</v>
-      </c>
-      <c r="F19" s="72"/>
-      <c r="G19" s="72"/>
-      <c r="H19" s="72"/>
-      <c r="I19" s="73"/>
+      <c r="E19" s="60" t="s">
+        <v>89</v>
+      </c>
+      <c r="F19" s="61"/>
+      <c r="G19" s="61"/>
+      <c r="H19" s="61"/>
+      <c r="I19" s="62"/>
     </row>
     <row r="20" spans="1:9" s="51" customFormat="1" ht="12">
       <c r="A20" s="48" t="s">
-        <v>42</v>
+        <v>11</v>
       </c>
       <c r="B20" s="49"/>
       <c r="C20" s="50"/>
@@ -3370,15 +3374,15 @@
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="E20" s="77"/>
-      <c r="F20" s="75"/>
-      <c r="G20" s="75"/>
-      <c r="H20" s="75"/>
-      <c r="I20" s="76"/>
+      <c r="E20" s="57"/>
+      <c r="F20" s="58"/>
+      <c r="G20" s="58"/>
+      <c r="H20" s="58"/>
+      <c r="I20" s="59"/>
     </row>
     <row r="21" spans="1:9" s="51" customFormat="1" ht="12">
       <c r="A21" s="48" t="s">
-        <v>43</v>
+        <v>12</v>
       </c>
       <c r="B21" s="49"/>
       <c r="C21" s="50"/>
@@ -3386,15 +3390,15 @@
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="E21" s="77"/>
-      <c r="F21" s="75"/>
-      <c r="G21" s="75"/>
-      <c r="H21" s="75"/>
-      <c r="I21" s="76"/>
+      <c r="E21" s="57"/>
+      <c r="F21" s="58"/>
+      <c r="G21" s="58"/>
+      <c r="H21" s="58"/>
+      <c r="I21" s="59"/>
     </row>
     <row r="22" spans="1:9" s="43" customFormat="1" ht="12">
       <c r="A22" s="40" t="s">
-        <v>44</v>
+        <v>13</v>
       </c>
       <c r="B22" s="41">
         <v>0.39583333333333331</v>
@@ -3406,17 +3410,17 @@
         <f t="shared" si="0"/>
         <v>0.16666666666666669</v>
       </c>
-      <c r="E22" s="71" t="s">
-        <v>31</v>
-      </c>
-      <c r="F22" s="72"/>
-      <c r="G22" s="72"/>
-      <c r="H22" s="72"/>
-      <c r="I22" s="73"/>
+      <c r="E22" s="60" t="s">
+        <v>0</v>
+      </c>
+      <c r="F22" s="61"/>
+      <c r="G22" s="61"/>
+      <c r="H22" s="61"/>
+      <c r="I22" s="62"/>
     </row>
     <row r="23" spans="1:9" s="43" customFormat="1" ht="12">
       <c r="A23" s="40" t="s">
-        <v>45</v>
+        <v>14</v>
       </c>
       <c r="B23" s="41">
         <v>0.41666666666666669</v>
@@ -3428,13 +3432,13 @@
         <f t="shared" si="0"/>
         <v>0.12499999999999994</v>
       </c>
-      <c r="E23" s="71" t="s">
-        <v>30</v>
-      </c>
-      <c r="F23" s="72"/>
-      <c r="G23" s="72"/>
-      <c r="H23" s="72"/>
-      <c r="I23" s="73"/>
+      <c r="E23" s="60" t="s">
+        <v>92</v>
+      </c>
+      <c r="F23" s="61"/>
+      <c r="G23" s="61"/>
+      <c r="H23" s="61"/>
+      <c r="I23" s="62"/>
     </row>
     <row r="24" spans="1:9" s="43" customFormat="1" ht="12">
       <c r="A24" s="40"/>
@@ -3448,17 +3452,17 @@
         <f t="shared" si="0"/>
         <v>8.333333333333337E-2</v>
       </c>
-      <c r="E24" s="71" t="s">
-        <v>11</v>
-      </c>
-      <c r="F24" s="72"/>
-      <c r="G24" s="72"/>
-      <c r="H24" s="72"/>
-      <c r="I24" s="73"/>
+      <c r="E24" s="60" t="s">
+        <v>73</v>
+      </c>
+      <c r="F24" s="61"/>
+      <c r="G24" s="61"/>
+      <c r="H24" s="61"/>
+      <c r="I24" s="62"/>
     </row>
     <row r="25" spans="1:9" s="43" customFormat="1" ht="12">
       <c r="A25" s="40" t="s">
-        <v>46</v>
+        <v>15</v>
       </c>
       <c r="B25" s="41"/>
       <c r="C25" s="42"/>
@@ -3466,15 +3470,15 @@
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="E25" s="71"/>
-      <c r="F25" s="72"/>
-      <c r="G25" s="72"/>
-      <c r="H25" s="72"/>
-      <c r="I25" s="73"/>
+      <c r="E25" s="60"/>
+      <c r="F25" s="61"/>
+      <c r="G25" s="61"/>
+      <c r="H25" s="61"/>
+      <c r="I25" s="62"/>
     </row>
     <row r="26" spans="1:9" s="43" customFormat="1" ht="12">
       <c r="A26" s="40" t="s">
-        <v>47</v>
+        <v>16</v>
       </c>
       <c r="B26" s="41">
         <v>0.75</v>
@@ -3486,17 +3490,17 @@
         <f t="shared" si="0"/>
         <v>0.16666666666666663</v>
       </c>
-      <c r="E26" s="71" t="s">
-        <v>29</v>
-      </c>
-      <c r="F26" s="72"/>
-      <c r="G26" s="72"/>
-      <c r="H26" s="72"/>
-      <c r="I26" s="73"/>
+      <c r="E26" s="60" t="s">
+        <v>91</v>
+      </c>
+      <c r="F26" s="61"/>
+      <c r="G26" s="61"/>
+      <c r="H26" s="61"/>
+      <c r="I26" s="62"/>
     </row>
     <row r="27" spans="1:9" s="43" customFormat="1" ht="12">
       <c r="A27" s="40" t="s">
-        <v>48</v>
+        <v>17</v>
       </c>
       <c r="B27" s="41"/>
       <c r="C27" s="42"/>
@@ -3504,15 +3508,15 @@
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="E27" s="71"/>
-      <c r="F27" s="72"/>
-      <c r="G27" s="72"/>
-      <c r="H27" s="72"/>
-      <c r="I27" s="73"/>
+      <c r="E27" s="60"/>
+      <c r="F27" s="61"/>
+      <c r="G27" s="61"/>
+      <c r="H27" s="61"/>
+      <c r="I27" s="62"/>
     </row>
     <row r="28" spans="1:9" s="51" customFormat="1" ht="12">
       <c r="A28" s="48" t="s">
-        <v>49</v>
+        <v>18</v>
       </c>
       <c r="B28" s="49"/>
       <c r="C28" s="50"/>
@@ -3520,15 +3524,15 @@
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="E28" s="77"/>
-      <c r="F28" s="75"/>
-      <c r="G28" s="75"/>
-      <c r="H28" s="75"/>
-      <c r="I28" s="76"/>
+      <c r="E28" s="57"/>
+      <c r="F28" s="58"/>
+      <c r="G28" s="58"/>
+      <c r="H28" s="58"/>
+      <c r="I28" s="59"/>
     </row>
     <row r="29" spans="1:9" s="51" customFormat="1" ht="12">
       <c r="A29" s="48" t="s">
-        <v>50</v>
+        <v>19</v>
       </c>
       <c r="B29" s="49">
         <v>0.45833333333333331</v>
@@ -3540,17 +3544,17 @@
         <f t="shared" si="0"/>
         <v>0.25000000000000006</v>
       </c>
-      <c r="E29" s="77" t="s">
-        <v>12</v>
-      </c>
-      <c r="F29" s="75"/>
-      <c r="G29" s="75"/>
-      <c r="H29" s="75"/>
-      <c r="I29" s="76"/>
+      <c r="E29" s="57" t="s">
+        <v>74</v>
+      </c>
+      <c r="F29" s="58"/>
+      <c r="G29" s="58"/>
+      <c r="H29" s="58"/>
+      <c r="I29" s="59"/>
     </row>
     <row r="30" spans="1:9" s="43" customFormat="1" ht="12">
       <c r="A30" s="40" t="s">
-        <v>51</v>
+        <v>20</v>
       </c>
       <c r="B30" s="41">
         <v>0.70833333333333337</v>
@@ -3562,17 +3566,17 @@
         <f t="shared" si="0"/>
         <v>0.20833333333333326</v>
       </c>
-      <c r="E30" s="71" t="s">
-        <v>28</v>
-      </c>
-      <c r="F30" s="72"/>
-      <c r="G30" s="72"/>
-      <c r="H30" s="72"/>
-      <c r="I30" s="73"/>
+      <c r="E30" s="60" t="s">
+        <v>90</v>
+      </c>
+      <c r="F30" s="61"/>
+      <c r="G30" s="61"/>
+      <c r="H30" s="61"/>
+      <c r="I30" s="62"/>
     </row>
     <row r="31" spans="1:9" s="43" customFormat="1" ht="12">
       <c r="A31" s="40" t="s">
-        <v>52</v>
+        <v>21</v>
       </c>
       <c r="B31" s="41">
         <v>0.66666666666666663</v>
@@ -3584,17 +3588,17 @@
         <f t="shared" si="0"/>
         <v>0.16666666666666674</v>
       </c>
-      <c r="E31" s="71" t="s">
-        <v>22</v>
-      </c>
-      <c r="F31" s="72"/>
-      <c r="G31" s="72"/>
-      <c r="H31" s="72"/>
-      <c r="I31" s="73"/>
+      <c r="E31" s="60" t="s">
+        <v>84</v>
+      </c>
+      <c r="F31" s="61"/>
+      <c r="G31" s="61"/>
+      <c r="H31" s="61"/>
+      <c r="I31" s="62"/>
     </row>
     <row r="32" spans="1:9" s="43" customFormat="1" ht="12">
       <c r="A32" s="40" t="s">
-        <v>53</v>
+        <v>22</v>
       </c>
       <c r="B32" s="41"/>
       <c r="C32" s="42"/>
@@ -3602,17 +3606,17 @@
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="E32" s="71" t="s">
-        <v>8</v>
-      </c>
-      <c r="F32" s="72"/>
-      <c r="G32" s="72"/>
-      <c r="H32" s="72"/>
-      <c r="I32" s="73"/>
+      <c r="E32" s="60" t="s">
+        <v>70</v>
+      </c>
+      <c r="F32" s="61"/>
+      <c r="G32" s="61"/>
+      <c r="H32" s="61"/>
+      <c r="I32" s="62"/>
     </row>
     <row r="33" spans="1:9" s="43" customFormat="1" ht="12">
       <c r="A33" s="40" t="s">
-        <v>54</v>
+        <v>23</v>
       </c>
       <c r="B33" s="41">
         <v>0.41666666666666669</v>
@@ -3624,13 +3628,13 @@
         <f t="shared" si="0"/>
         <v>4.166666666666663E-2</v>
       </c>
-      <c r="E33" s="71" t="s">
-        <v>9</v>
-      </c>
-      <c r="F33" s="72"/>
-      <c r="G33" s="72"/>
-      <c r="H33" s="72"/>
-      <c r="I33" s="73"/>
+      <c r="E33" s="60" t="s">
+        <v>71</v>
+      </c>
+      <c r="F33" s="61"/>
+      <c r="G33" s="61"/>
+      <c r="H33" s="61"/>
+      <c r="I33" s="62"/>
     </row>
     <row r="34" spans="1:9" s="43" customFormat="1" ht="12">
       <c r="A34" s="40"/>
@@ -3644,17 +3648,17 @@
         <f t="shared" si="0"/>
         <v>0.16666666666666663</v>
       </c>
-      <c r="E34" s="71" t="s">
-        <v>1</v>
-      </c>
-      <c r="F34" s="72"/>
-      <c r="G34" s="72"/>
-      <c r="H34" s="72"/>
-      <c r="I34" s="73"/>
+      <c r="E34" s="60" t="s">
+        <v>63</v>
+      </c>
+      <c r="F34" s="61"/>
+      <c r="G34" s="61"/>
+      <c r="H34" s="61"/>
+      <c r="I34" s="62"/>
     </row>
     <row r="35" spans="1:9" s="43" customFormat="1" ht="12">
       <c r="A35" s="40" t="s">
-        <v>58</v>
+        <v>27</v>
       </c>
       <c r="B35" s="41">
         <v>0.4375</v>
@@ -3666,17 +3670,17 @@
         <f t="shared" si="0"/>
         <v>0.10416666666666663</v>
       </c>
-      <c r="E35" s="71" t="s">
-        <v>10</v>
-      </c>
-      <c r="F35" s="72"/>
-      <c r="G35" s="72"/>
-      <c r="H35" s="72"/>
-      <c r="I35" s="73"/>
+      <c r="E35" s="60" t="s">
+        <v>72</v>
+      </c>
+      <c r="F35" s="61"/>
+      <c r="G35" s="61"/>
+      <c r="H35" s="61"/>
+      <c r="I35" s="62"/>
     </row>
     <row r="36" spans="1:9" s="51" customFormat="1" ht="12">
       <c r="A36" s="48" t="s">
-        <v>59</v>
+        <v>28</v>
       </c>
       <c r="B36" s="49">
         <v>0.33333333333333331</v>
@@ -3688,13 +3692,13 @@
         <f t="shared" si="0"/>
         <v>6.25E-2</v>
       </c>
-      <c r="E36" s="77" t="s">
-        <v>91</v>
-      </c>
-      <c r="F36" s="75"/>
-      <c r="G36" s="75"/>
-      <c r="H36" s="75"/>
-      <c r="I36" s="76"/>
+      <c r="E36" s="57" t="s">
+        <v>60</v>
+      </c>
+      <c r="F36" s="58"/>
+      <c r="G36" s="58"/>
+      <c r="H36" s="58"/>
+      <c r="I36" s="59"/>
     </row>
     <row r="37" spans="1:9" s="51" customFormat="1" ht="12">
       <c r="A37" s="48"/>
@@ -3708,17 +3712,17 @@
         <f t="shared" si="0"/>
         <v>0.125</v>
       </c>
-      <c r="E37" s="77" t="s">
-        <v>90</v>
-      </c>
-      <c r="F37" s="75"/>
-      <c r="G37" s="75"/>
-      <c r="H37" s="75"/>
-      <c r="I37" s="76"/>
+      <c r="E37" s="57" t="s">
+        <v>59</v>
+      </c>
+      <c r="F37" s="58"/>
+      <c r="G37" s="58"/>
+      <c r="H37" s="58"/>
+      <c r="I37" s="59"/>
     </row>
     <row r="38" spans="1:9" s="51" customFormat="1" ht="12">
       <c r="A38" s="48" t="s">
-        <v>60</v>
+        <v>29</v>
       </c>
       <c r="B38" s="49"/>
       <c r="C38" s="50"/>
@@ -3726,15 +3730,15 @@
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="E38" s="77"/>
-      <c r="F38" s="75"/>
-      <c r="G38" s="75"/>
-      <c r="H38" s="75"/>
-      <c r="I38" s="76"/>
+      <c r="E38" s="57"/>
+      <c r="F38" s="58"/>
+      <c r="G38" s="58"/>
+      <c r="H38" s="58"/>
+      <c r="I38" s="59"/>
     </row>
     <row r="39" spans="1:9" s="43" customFormat="1" ht="12">
       <c r="A39" s="40" t="s">
-        <v>61</v>
+        <v>30</v>
       </c>
       <c r="B39" s="41">
         <v>0.41666666666666669</v>
@@ -3746,17 +3750,17 @@
         <f t="shared" si="0"/>
         <v>0.41666666666666669</v>
       </c>
-      <c r="E39" s="71" t="s">
-        <v>0</v>
-      </c>
-      <c r="F39" s="72"/>
-      <c r="G39" s="72"/>
-      <c r="H39" s="72"/>
-      <c r="I39" s="73"/>
+      <c r="E39" s="60" t="s">
+        <v>62</v>
+      </c>
+      <c r="F39" s="61"/>
+      <c r="G39" s="61"/>
+      <c r="H39" s="61"/>
+      <c r="I39" s="62"/>
     </row>
     <row r="40" spans="1:9" s="43" customFormat="1" ht="12">
       <c r="A40" s="40" t="s">
-        <v>62</v>
+        <v>31</v>
       </c>
       <c r="B40" s="41">
         <v>0.375</v>
@@ -3768,17 +3772,17 @@
         <f t="shared" si="0"/>
         <v>0.29166666666666663</v>
       </c>
-      <c r="E40" s="71" t="s">
-        <v>89</v>
-      </c>
-      <c r="F40" s="72"/>
-      <c r="G40" s="72"/>
-      <c r="H40" s="72"/>
-      <c r="I40" s="73"/>
+      <c r="E40" s="60" t="s">
+        <v>58</v>
+      </c>
+      <c r="F40" s="61"/>
+      <c r="G40" s="61"/>
+      <c r="H40" s="61"/>
+      <c r="I40" s="62"/>
     </row>
     <row r="41" spans="1:9" s="43" customFormat="1" ht="12">
       <c r="A41" s="40" t="s">
-        <v>63</v>
+        <v>32</v>
       </c>
       <c r="B41" s="41"/>
       <c r="C41" s="42"/>
@@ -3786,15 +3790,15 @@
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="E41" s="71"/>
-      <c r="F41" s="72"/>
-      <c r="G41" s="72"/>
-      <c r="H41" s="72"/>
-      <c r="I41" s="73"/>
+      <c r="E41" s="60"/>
+      <c r="F41" s="61"/>
+      <c r="G41" s="61"/>
+      <c r="H41" s="61"/>
+      <c r="I41" s="62"/>
     </row>
     <row r="42" spans="1:9" s="43" customFormat="1" ht="12">
       <c r="A42" s="40" t="s">
-        <v>64</v>
+        <v>33</v>
       </c>
       <c r="B42" s="41"/>
       <c r="C42" s="42"/>
@@ -3802,15 +3806,15 @@
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="E42" s="71"/>
-      <c r="F42" s="72"/>
-      <c r="G42" s="72"/>
-      <c r="H42" s="72"/>
-      <c r="I42" s="73"/>
+      <c r="E42" s="60"/>
+      <c r="F42" s="61"/>
+      <c r="G42" s="61"/>
+      <c r="H42" s="61"/>
+      <c r="I42" s="62"/>
     </row>
     <row r="43" spans="1:9" s="43" customFormat="1" ht="12">
       <c r="A43" s="40" t="s">
-        <v>65</v>
+        <v>34</v>
       </c>
       <c r="B43" s="41">
         <v>0.58333333333333337</v>
@@ -3822,17 +3826,17 @@
         <f t="shared" si="0"/>
         <v>0.16666666666666663</v>
       </c>
-      <c r="E43" s="71" t="s">
-        <v>56</v>
-      </c>
-      <c r="F43" s="72"/>
-      <c r="G43" s="72"/>
-      <c r="H43" s="72"/>
-      <c r="I43" s="73"/>
+      <c r="E43" s="60" t="s">
+        <v>25</v>
+      </c>
+      <c r="F43" s="61"/>
+      <c r="G43" s="61"/>
+      <c r="H43" s="61"/>
+      <c r="I43" s="62"/>
     </row>
     <row r="44" spans="1:9" s="51" customFormat="1" ht="12">
       <c r="A44" s="48" t="s">
-        <v>66</v>
+        <v>35</v>
       </c>
       <c r="B44" s="49">
         <v>0.58333333333333337</v>
@@ -3844,17 +3848,17 @@
         <f t="shared" si="0"/>
         <v>0.16666666666666663</v>
       </c>
-      <c r="E44" s="77" t="s">
-        <v>56</v>
-      </c>
-      <c r="F44" s="75"/>
-      <c r="G44" s="75"/>
-      <c r="H44" s="75"/>
-      <c r="I44" s="76"/>
+      <c r="E44" s="57" t="s">
+        <v>25</v>
+      </c>
+      <c r="F44" s="58"/>
+      <c r="G44" s="58"/>
+      <c r="H44" s="58"/>
+      <c r="I44" s="59"/>
     </row>
     <row r="45" spans="1:9" s="51" customFormat="1" ht="12">
       <c r="A45" s="48" t="s">
-        <v>67</v>
+        <v>36</v>
       </c>
       <c r="B45" s="49">
         <v>0.45833333333333331</v>
@@ -3866,17 +3870,17 @@
         <f t="shared" si="0"/>
         <v>0.16666666666666669</v>
       </c>
-      <c r="E45" s="77" t="s">
-        <v>57</v>
-      </c>
-      <c r="F45" s="75"/>
-      <c r="G45" s="75"/>
-      <c r="H45" s="75"/>
-      <c r="I45" s="76"/>
+      <c r="E45" s="57" t="s">
+        <v>26</v>
+      </c>
+      <c r="F45" s="58"/>
+      <c r="G45" s="58"/>
+      <c r="H45" s="58"/>
+      <c r="I45" s="59"/>
     </row>
     <row r="46" spans="1:9" s="43" customFormat="1" ht="12">
       <c r="A46" s="40" t="s">
-        <v>68</v>
+        <v>37</v>
       </c>
       <c r="B46" s="41">
         <v>0.375</v>
@@ -3888,17 +3892,17 @@
         <f t="shared" si="0"/>
         <v>8.3333333333333315E-2</v>
       </c>
-      <c r="E46" s="71" t="s">
-        <v>55</v>
-      </c>
-      <c r="F46" s="72"/>
-      <c r="G46" s="72"/>
-      <c r="H46" s="72"/>
-      <c r="I46" s="73"/>
+      <c r="E46" s="60" t="s">
+        <v>24</v>
+      </c>
+      <c r="F46" s="61"/>
+      <c r="G46" s="61"/>
+      <c r="H46" s="61"/>
+      <c r="I46" s="62"/>
     </row>
     <row r="47" spans="1:9" s="43" customFormat="1" ht="12">
       <c r="A47" s="40" t="s">
-        <v>69</v>
+        <v>38</v>
       </c>
       <c r="B47" s="41"/>
       <c r="C47" s="42"/>
@@ -3906,15 +3910,15 @@
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="E47" s="71"/>
-      <c r="F47" s="72"/>
-      <c r="G47" s="72"/>
-      <c r="H47" s="72"/>
-      <c r="I47" s="73"/>
+      <c r="E47" s="60"/>
+      <c r="F47" s="61"/>
+      <c r="G47" s="61"/>
+      <c r="H47" s="61"/>
+      <c r="I47" s="62"/>
     </row>
     <row r="48" spans="1:9" s="43" customFormat="1" ht="12">
       <c r="A48" s="40" t="s">
-        <v>70</v>
+        <v>39</v>
       </c>
       <c r="B48" s="41"/>
       <c r="C48" s="42"/>
@@ -3922,25 +3926,25 @@
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="E48" s="71"/>
-      <c r="F48" s="72"/>
-      <c r="G48" s="72"/>
-      <c r="H48" s="72"/>
-      <c r="I48" s="73"/>
+      <c r="E48" s="60"/>
+      <c r="F48" s="61"/>
+      <c r="G48" s="61"/>
+      <c r="H48" s="61"/>
+      <c r="I48" s="62"/>
     </row>
     <row r="49" spans="1:12" s="47" customFormat="1" ht="13">
-      <c r="A49" s="94"/>
-      <c r="B49" s="95"/>
-      <c r="C49" s="95"/>
+      <c r="A49" s="63"/>
+      <c r="B49" s="64"/>
+      <c r="C49" s="64"/>
       <c r="D49" s="46">
         <f>SUM(D16:D48)</f>
         <v>3.1249999999999991</v>
       </c>
-      <c r="E49" s="96"/>
-      <c r="F49" s="96"/>
-      <c r="G49" s="96"/>
-      <c r="H49" s="96"/>
-      <c r="I49" s="97"/>
+      <c r="E49" s="65"/>
+      <c r="F49" s="65"/>
+      <c r="G49" s="65"/>
+      <c r="H49" s="65"/>
+      <c r="I49" s="66"/>
     </row>
     <row r="50" spans="1:12" ht="7" customHeight="1">
       <c r="A50" s="28"/>
@@ -3958,18 +3962,31 @@
     </row>
   </sheetData>
   <mergeCells count="53">
-    <mergeCell ref="E37:I37"/>
-    <mergeCell ref="A49:C49"/>
-    <mergeCell ref="E49:I49"/>
-    <mergeCell ref="E46:I46"/>
-    <mergeCell ref="E47:I47"/>
-    <mergeCell ref="E48:I48"/>
-    <mergeCell ref="E44:I44"/>
-    <mergeCell ref="E45:I45"/>
-    <mergeCell ref="E40:I40"/>
-    <mergeCell ref="E41:I41"/>
-    <mergeCell ref="E42:I42"/>
-    <mergeCell ref="E43:I43"/>
+    <mergeCell ref="E34:I34"/>
+    <mergeCell ref="E24:I24"/>
+    <mergeCell ref="A5:C5"/>
+    <mergeCell ref="D5:H5"/>
+    <mergeCell ref="A6:I6"/>
+    <mergeCell ref="E22:I22"/>
+    <mergeCell ref="E23:I23"/>
+    <mergeCell ref="E25:I25"/>
+    <mergeCell ref="E21:I21"/>
+    <mergeCell ref="E18:I18"/>
+    <mergeCell ref="E20:I20"/>
+    <mergeCell ref="E19:I19"/>
+    <mergeCell ref="A1:I1"/>
+    <mergeCell ref="A2:I2"/>
+    <mergeCell ref="A3:H3"/>
+    <mergeCell ref="A4:I4"/>
+    <mergeCell ref="E17:I17"/>
+    <mergeCell ref="A9:C9"/>
+    <mergeCell ref="D9:H9"/>
+    <mergeCell ref="A10:I10"/>
+    <mergeCell ref="E14:I15"/>
+    <mergeCell ref="E16:I16"/>
+    <mergeCell ref="A13:A15"/>
+    <mergeCell ref="B13:I13"/>
+    <mergeCell ref="B14:C14"/>
     <mergeCell ref="E36:I36"/>
     <mergeCell ref="E38:I38"/>
     <mergeCell ref="E39:I39"/>
@@ -3986,31 +4003,18 @@
     <mergeCell ref="E26:I26"/>
     <mergeCell ref="E27:I27"/>
     <mergeCell ref="E28:I28"/>
-    <mergeCell ref="A1:I1"/>
-    <mergeCell ref="A2:I2"/>
-    <mergeCell ref="A3:H3"/>
-    <mergeCell ref="A4:I4"/>
-    <mergeCell ref="E17:I17"/>
-    <mergeCell ref="A9:C9"/>
-    <mergeCell ref="D9:H9"/>
-    <mergeCell ref="A10:I10"/>
-    <mergeCell ref="E14:I15"/>
-    <mergeCell ref="E16:I16"/>
-    <mergeCell ref="A13:A15"/>
-    <mergeCell ref="B13:I13"/>
-    <mergeCell ref="B14:C14"/>
-    <mergeCell ref="E34:I34"/>
-    <mergeCell ref="E24:I24"/>
-    <mergeCell ref="A5:C5"/>
-    <mergeCell ref="D5:H5"/>
-    <mergeCell ref="A6:I6"/>
-    <mergeCell ref="E22:I22"/>
-    <mergeCell ref="E23:I23"/>
-    <mergeCell ref="E25:I25"/>
-    <mergeCell ref="E21:I21"/>
-    <mergeCell ref="E18:I18"/>
-    <mergeCell ref="E20:I20"/>
-    <mergeCell ref="E19:I19"/>
+    <mergeCell ref="E37:I37"/>
+    <mergeCell ref="A49:C49"/>
+    <mergeCell ref="E49:I49"/>
+    <mergeCell ref="E46:I46"/>
+    <mergeCell ref="E47:I47"/>
+    <mergeCell ref="E48:I48"/>
+    <mergeCell ref="E44:I44"/>
+    <mergeCell ref="E45:I45"/>
+    <mergeCell ref="E40:I40"/>
+    <mergeCell ref="E41:I41"/>
+    <mergeCell ref="E42:I42"/>
+    <mergeCell ref="E43:I43"/>
   </mergeCells>
   <phoneticPr fontId="32" type="noConversion"/>
   <printOptions horizontalCentered="1"/>
@@ -4031,8 +4035,8 @@
   </sheetPr>
   <dimension ref="A1:AN48"/>
   <sheetViews>
-    <sheetView tabSelected="1" view="pageLayout" zoomScale="85" zoomScaleSheetLayoutView="85" workbookViewId="0">
-      <selection activeCell="E20" sqref="E20:I20"/>
+    <sheetView tabSelected="1" view="pageLayout" topLeftCell="A4" zoomScale="85" zoomScaleSheetLayoutView="85" workbookViewId="0">
+      <selection activeCell="B33" sqref="B33"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.1640625" defaultRowHeight="10"/>
@@ -4049,17 +4053,17 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:40" s="7" customFormat="1" ht="18" thickBot="1">
-      <c r="A1" s="66" t="s">
-        <v>74</v>
-      </c>
-      <c r="B1" s="66"/>
-      <c r="C1" s="66"/>
-      <c r="D1" s="66"/>
-      <c r="E1" s="66"/>
-      <c r="F1" s="66"/>
-      <c r="G1" s="66"/>
-      <c r="H1" s="66"/>
-      <c r="I1" s="66"/>
+      <c r="A1" s="84" t="s">
+        <v>43</v>
+      </c>
+      <c r="B1" s="84"/>
+      <c r="C1" s="84"/>
+      <c r="D1" s="84"/>
+      <c r="E1" s="84"/>
+      <c r="F1" s="84"/>
+      <c r="G1" s="84"/>
+      <c r="H1" s="84"/>
+      <c r="I1" s="84"/>
       <c r="J1" s="8"/>
       <c r="K1" s="8"/>
       <c r="L1" s="8"/>
@@ -4092,15 +4096,15 @@
       <c r="AM1" s="8"/>
     </row>
     <row r="2" spans="1:40" s="1" customFormat="1" ht="7.5" customHeight="1">
-      <c r="A2" s="67"/>
-      <c r="B2" s="67"/>
-      <c r="C2" s="67"/>
-      <c r="D2" s="67"/>
-      <c r="E2" s="67"/>
-      <c r="F2" s="67"/>
-      <c r="G2" s="67"/>
-      <c r="H2" s="67"/>
-      <c r="I2" s="67"/>
+      <c r="A2" s="85"/>
+      <c r="B2" s="85"/>
+      <c r="C2" s="85"/>
+      <c r="D2" s="85"/>
+      <c r="E2" s="85"/>
+      <c r="F2" s="85"/>
+      <c r="G2" s="85"/>
+      <c r="H2" s="85"/>
+      <c r="I2" s="85"/>
       <c r="J2" s="9"/>
       <c r="K2" s="9"/>
       <c r="L2" s="9"/>
@@ -4133,16 +4137,16 @@
       <c r="AM2" s="9"/>
     </row>
     <row r="3" spans="1:40" s="11" customFormat="1" ht="13.5" customHeight="1">
-      <c r="A3" s="68" t="s">
-        <v>78</v>
-      </c>
-      <c r="B3" s="68"/>
-      <c r="C3" s="68"/>
-      <c r="D3" s="68"/>
-      <c r="E3" s="68"/>
-      <c r="F3" s="68"/>
-      <c r="G3" s="68"/>
-      <c r="H3" s="68"/>
+      <c r="A3" s="86" t="s">
+        <v>47</v>
+      </c>
+      <c r="B3" s="86"/>
+      <c r="C3" s="86"/>
+      <c r="D3" s="86"/>
+      <c r="E3" s="86"/>
+      <c r="F3" s="86"/>
+      <c r="G3" s="86"/>
+      <c r="H3" s="86"/>
       <c r="I3" s="23"/>
       <c r="J3" s="22"/>
       <c r="K3" s="22"/>
@@ -4177,112 +4181,112 @@
       <c r="AN3" s="10"/>
     </row>
     <row r="4" spans="1:40" s="6" customFormat="1" ht="9" customHeight="1">
-      <c r="A4" s="69"/>
-      <c r="B4" s="69"/>
-      <c r="C4" s="69"/>
-      <c r="D4" s="69"/>
-      <c r="E4" s="69"/>
-      <c r="F4" s="69"/>
-      <c r="G4" s="69"/>
-      <c r="H4" s="69"/>
-      <c r="I4" s="69"/>
+      <c r="A4" s="87"/>
+      <c r="B4" s="87"/>
+      <c r="C4" s="87"/>
+      <c r="D4" s="87"/>
+      <c r="E4" s="87"/>
+      <c r="F4" s="87"/>
+      <c r="G4" s="87"/>
+      <c r="H4" s="87"/>
+      <c r="I4" s="87"/>
     </row>
     <row r="5" spans="1:40" s="1" customFormat="1" ht="13.75" customHeight="1">
-      <c r="A5" s="62" t="str">
+      <c r="A5" s="94" t="str">
         <f>October!A5</f>
         <v>Firstname Lastname</v>
       </c>
-      <c r="B5" s="63"/>
-      <c r="C5" s="63"/>
-      <c r="D5" s="58" t="str">
+      <c r="B5" s="95"/>
+      <c r="C5" s="95"/>
+      <c r="D5" s="90" t="str">
         <f>October!D5</f>
         <v>Augustin Hannah</v>
       </c>
-      <c r="E5" s="59"/>
-      <c r="F5" s="59"/>
-      <c r="G5" s="59"/>
-      <c r="H5" s="60"/>
+      <c r="E5" s="91"/>
+      <c r="F5" s="91"/>
+      <c r="G5" s="91"/>
+      <c r="H5" s="92"/>
       <c r="I5" s="23"/>
       <c r="J5" s="9"/>
       <c r="K5" s="9"/>
       <c r="L5" s="9"/>
     </row>
     <row r="6" spans="1:40" s="1" customFormat="1" ht="7.5" customHeight="1">
-      <c r="A6" s="64"/>
-      <c r="B6" s="64"/>
-      <c r="C6" s="64"/>
-      <c r="D6" s="64"/>
-      <c r="E6" s="64"/>
-      <c r="F6" s="64"/>
-      <c r="G6" s="64"/>
-      <c r="H6" s="64"/>
-      <c r="I6" s="64"/>
+      <c r="A6" s="96"/>
+      <c r="B6" s="96"/>
+      <c r="C6" s="96"/>
+      <c r="D6" s="96"/>
+      <c r="E6" s="96"/>
+      <c r="F6" s="96"/>
+      <c r="G6" s="96"/>
+      <c r="H6" s="96"/>
+      <c r="I6" s="96"/>
     </row>
     <row r="7" spans="1:40" s="1" customFormat="1" ht="13.75" customHeight="1">
-      <c r="A7" s="57" t="str">
+      <c r="A7" s="89" t="str">
         <f>October!A7</f>
         <v>Project Acronym</v>
       </c>
-      <c r="B7" s="57"/>
-      <c r="C7" s="57"/>
-      <c r="D7" s="65" t="str">
+      <c r="B7" s="89"/>
+      <c r="C7" s="89"/>
+      <c r="D7" s="97" t="str">
         <f>October!D7</f>
         <v>AIQ</v>
       </c>
-      <c r="E7" s="65"/>
-      <c r="F7" s="65"/>
-      <c r="G7" s="65"/>
-      <c r="H7" s="65"/>
+      <c r="E7" s="97"/>
+      <c r="F7" s="97"/>
+      <c r="G7" s="97"/>
+      <c r="H7" s="97"/>
       <c r="I7" s="24"/>
     </row>
     <row r="8" spans="1:40" s="1" customFormat="1" ht="7.5" customHeight="1">
-      <c r="A8" s="70"/>
-      <c r="B8" s="70"/>
-      <c r="C8" s="70"/>
-      <c r="D8" s="70"/>
-      <c r="E8" s="70"/>
-      <c r="F8" s="70"/>
-      <c r="G8" s="70"/>
-      <c r="H8" s="70"/>
-      <c r="I8" s="70"/>
+      <c r="A8" s="88"/>
+      <c r="B8" s="88"/>
+      <c r="C8" s="88"/>
+      <c r="D8" s="88"/>
+      <c r="E8" s="88"/>
+      <c r="F8" s="88"/>
+      <c r="G8" s="88"/>
+      <c r="H8" s="88"/>
+      <c r="I8" s="88"/>
     </row>
     <row r="9" spans="1:40" s="1" customFormat="1" ht="13.75" customHeight="1">
-      <c r="A9" s="57" t="str">
+      <c r="A9" s="89" t="str">
         <f>October!A9</f>
         <v>Project Title</v>
       </c>
-      <c r="B9" s="57"/>
-      <c r="C9" s="57"/>
-      <c r="D9" s="58" t="str">
+      <c r="B9" s="89"/>
+      <c r="C9" s="89"/>
+      <c r="D9" s="90" t="str">
         <f>October!D9</f>
         <v>Automating change detection in ImageQuerying</v>
       </c>
-      <c r="E9" s="59"/>
-      <c r="F9" s="59"/>
-      <c r="G9" s="59"/>
-      <c r="H9" s="60"/>
+      <c r="E9" s="91"/>
+      <c r="F9" s="91"/>
+      <c r="G9" s="91"/>
+      <c r="H9" s="92"/>
       <c r="I9" s="24"/>
       <c r="J9" s="15"/>
     </row>
     <row r="10" spans="1:40" s="1" customFormat="1" ht="7.5" customHeight="1">
-      <c r="A10" s="61"/>
-      <c r="B10" s="61"/>
-      <c r="C10" s="61"/>
-      <c r="D10" s="61"/>
-      <c r="E10" s="61"/>
-      <c r="F10" s="61"/>
-      <c r="G10" s="61"/>
-      <c r="H10" s="61"/>
-      <c r="I10" s="61"/>
+      <c r="A10" s="93"/>
+      <c r="B10" s="93"/>
+      <c r="C10" s="93"/>
+      <c r="D10" s="93"/>
+      <c r="E10" s="93"/>
+      <c r="F10" s="93"/>
+      <c r="G10" s="93"/>
+      <c r="H10" s="93"/>
+      <c r="I10" s="93"/>
     </row>
     <row r="11" spans="1:40" s="1" customFormat="1" ht="12">
       <c r="A11" s="21" t="s">
-        <v>76</v>
+        <v>45</v>
       </c>
       <c r="B11" s="21"/>
       <c r="C11" s="21"/>
       <c r="D11" s="21" t="s">
-        <v>77</v>
+        <v>46</v>
       </c>
       <c r="E11" s="21"/>
       <c r="F11" s="21"/>
@@ -4302,55 +4306,55 @@
       <c r="I12" s="26"/>
     </row>
     <row r="13" spans="1:40" s="2" customFormat="1" ht="15.5" customHeight="1">
-      <c r="A13" s="78" t="s">
-        <v>33</v>
-      </c>
-      <c r="B13" s="81" t="s">
-        <v>72</v>
-      </c>
-      <c r="C13" s="82"/>
-      <c r="D13" s="82"/>
-      <c r="E13" s="82"/>
-      <c r="F13" s="82"/>
-      <c r="G13" s="82"/>
-      <c r="H13" s="82"/>
-      <c r="I13" s="83"/>
+      <c r="A13" s="68" t="s">
+        <v>2</v>
+      </c>
+      <c r="B13" s="71" t="s">
+        <v>41</v>
+      </c>
+      <c r="C13" s="72"/>
+      <c r="D13" s="72"/>
+      <c r="E13" s="72"/>
+      <c r="F13" s="72"/>
+      <c r="G13" s="72"/>
+      <c r="H13" s="72"/>
+      <c r="I13" s="73"/>
     </row>
     <row r="14" spans="1:40" s="2" customFormat="1" ht="13.75" customHeight="1">
-      <c r="A14" s="79"/>
-      <c r="B14" s="84" t="s">
-        <v>34</v>
-      </c>
-      <c r="C14" s="85"/>
-      <c r="D14" s="86" t="s">
-        <v>35</v>
-      </c>
-      <c r="E14" s="88" t="s">
-        <v>73</v>
-      </c>
-      <c r="F14" s="89"/>
-      <c r="G14" s="89"/>
-      <c r="H14" s="89"/>
-      <c r="I14" s="90"/>
+      <c r="A14" s="69"/>
+      <c r="B14" s="74" t="s">
+        <v>3</v>
+      </c>
+      <c r="C14" s="75"/>
+      <c r="D14" s="76" t="s">
+        <v>4</v>
+      </c>
+      <c r="E14" s="78" t="s">
+        <v>42</v>
+      </c>
+      <c r="F14" s="79"/>
+      <c r="G14" s="79"/>
+      <c r="H14" s="79"/>
+      <c r="I14" s="80"/>
     </row>
     <row r="15" spans="1:40" ht="13" customHeight="1">
-      <c r="A15" s="80"/>
+      <c r="A15" s="70"/>
       <c r="B15" s="32" t="s">
-        <v>36</v>
+        <v>5</v>
       </c>
       <c r="C15" s="33" t="s">
-        <v>37</v>
-      </c>
-      <c r="D15" s="87"/>
-      <c r="E15" s="91"/>
-      <c r="F15" s="92"/>
-      <c r="G15" s="92"/>
-      <c r="H15" s="92"/>
-      <c r="I15" s="93"/>
+        <v>6</v>
+      </c>
+      <c r="D15" s="77"/>
+      <c r="E15" s="81"/>
+      <c r="F15" s="82"/>
+      <c r="G15" s="82"/>
+      <c r="H15" s="82"/>
+      <c r="I15" s="83"/>
     </row>
     <row r="16" spans="1:40" s="43" customFormat="1" ht="12">
       <c r="A16" s="40" t="s">
-        <v>38</v>
+        <v>7</v>
       </c>
       <c r="B16" s="41"/>
       <c r="C16" s="42"/>
@@ -4358,15 +4362,15 @@
         <f>C16-B16</f>
         <v>0</v>
       </c>
-      <c r="E16" s="71"/>
-      <c r="F16" s="72"/>
-      <c r="G16" s="72"/>
-      <c r="H16" s="72"/>
-      <c r="I16" s="73"/>
+      <c r="E16" s="60"/>
+      <c r="F16" s="61"/>
+      <c r="G16" s="61"/>
+      <c r="H16" s="61"/>
+      <c r="I16" s="62"/>
     </row>
     <row r="17" spans="1:9" s="43" customFormat="1" ht="12">
       <c r="A17" s="40" t="s">
-        <v>39</v>
+        <v>8</v>
       </c>
       <c r="B17" s="41"/>
       <c r="C17" s="42"/>
@@ -4374,15 +4378,15 @@
         <f t="shared" ref="D17:D46" si="0">C17-B17</f>
         <v>0</v>
       </c>
-      <c r="E17" s="71"/>
-      <c r="F17" s="72"/>
-      <c r="G17" s="72"/>
-      <c r="H17" s="72"/>
-      <c r="I17" s="73"/>
+      <c r="E17" s="60"/>
+      <c r="F17" s="61"/>
+      <c r="G17" s="61"/>
+      <c r="H17" s="61"/>
+      <c r="I17" s="62"/>
     </row>
     <row r="18" spans="1:9" s="51" customFormat="1" ht="12">
       <c r="A18" s="48" t="s">
-        <v>40</v>
+        <v>9</v>
       </c>
       <c r="B18" s="49">
         <v>0.41666666666666669</v>
@@ -4394,17 +4398,17 @@
         <f t="shared" si="0"/>
         <v>0.24999999999999994</v>
       </c>
-      <c r="E18" s="77" t="s">
-        <v>20</v>
-      </c>
-      <c r="F18" s="75"/>
-      <c r="G18" s="75"/>
-      <c r="H18" s="75"/>
-      <c r="I18" s="76"/>
+      <c r="E18" s="57" t="s">
+        <v>82</v>
+      </c>
+      <c r="F18" s="58"/>
+      <c r="G18" s="58"/>
+      <c r="H18" s="58"/>
+      <c r="I18" s="59"/>
     </row>
     <row r="19" spans="1:9" s="51" customFormat="1" ht="12">
       <c r="A19" s="48" t="s">
-        <v>41</v>
+        <v>10</v>
       </c>
       <c r="B19" s="49">
         <v>0.5</v>
@@ -4416,17 +4420,17 @@
         <f t="shared" si="0"/>
         <v>0.16666666666666663</v>
       </c>
-      <c r="E19" s="77" t="s">
-        <v>21</v>
-      </c>
-      <c r="F19" s="75"/>
-      <c r="G19" s="75"/>
-      <c r="H19" s="75"/>
-      <c r="I19" s="76"/>
+      <c r="E19" s="57" t="s">
+        <v>83</v>
+      </c>
+      <c r="F19" s="58"/>
+      <c r="G19" s="58"/>
+      <c r="H19" s="58"/>
+      <c r="I19" s="59"/>
     </row>
     <row r="20" spans="1:9" s="43" customFormat="1" ht="12">
       <c r="A20" s="40" t="s">
-        <v>42</v>
+        <v>11</v>
       </c>
       <c r="B20" s="41"/>
       <c r="C20" s="42"/>
@@ -4434,15 +4438,15 @@
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="E20" s="71"/>
-      <c r="F20" s="72"/>
-      <c r="G20" s="72"/>
-      <c r="H20" s="72"/>
-      <c r="I20" s="73"/>
+      <c r="E20" s="60"/>
+      <c r="F20" s="61"/>
+      <c r="G20" s="61"/>
+      <c r="H20" s="61"/>
+      <c r="I20" s="62"/>
     </row>
     <row r="21" spans="1:9" s="43" customFormat="1" ht="12">
       <c r="A21" s="40" t="s">
-        <v>43</v>
+        <v>12</v>
       </c>
       <c r="B21" s="41"/>
       <c r="C21" s="42"/>
@@ -4450,15 +4454,15 @@
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="E21" s="71"/>
-      <c r="F21" s="72"/>
-      <c r="G21" s="72"/>
-      <c r="H21" s="72"/>
-      <c r="I21" s="73"/>
+      <c r="E21" s="60"/>
+      <c r="F21" s="61"/>
+      <c r="G21" s="61"/>
+      <c r="H21" s="61"/>
+      <c r="I21" s="62"/>
     </row>
     <row r="22" spans="1:9" s="43" customFormat="1" ht="12">
       <c r="A22" s="40" t="s">
-        <v>44</v>
+        <v>13</v>
       </c>
       <c r="B22" s="41"/>
       <c r="C22" s="42"/>
@@ -4466,15 +4470,15 @@
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="E22" s="71"/>
-      <c r="F22" s="72"/>
-      <c r="G22" s="72"/>
-      <c r="H22" s="72"/>
-      <c r="I22" s="73"/>
+      <c r="E22" s="60"/>
+      <c r="F22" s="61"/>
+      <c r="G22" s="61"/>
+      <c r="H22" s="61"/>
+      <c r="I22" s="62"/>
     </row>
     <row r="23" spans="1:9" s="43" customFormat="1" ht="12">
       <c r="A23" s="40" t="s">
-        <v>45</v>
+        <v>14</v>
       </c>
       <c r="B23" s="41"/>
       <c r="C23" s="42"/>
@@ -4482,15 +4486,15 @@
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="E23" s="71"/>
-      <c r="F23" s="72"/>
-      <c r="G23" s="72"/>
-      <c r="H23" s="72"/>
-      <c r="I23" s="73"/>
+      <c r="E23" s="60"/>
+      <c r="F23" s="61"/>
+      <c r="G23" s="61"/>
+      <c r="H23" s="61"/>
+      <c r="I23" s="62"/>
     </row>
     <row r="24" spans="1:9" s="43" customFormat="1" ht="12">
       <c r="A24" s="40" t="s">
-        <v>46</v>
+        <v>15</v>
       </c>
       <c r="B24" s="41"/>
       <c r="C24" s="42"/>
@@ -4498,15 +4502,15 @@
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="E24" s="71"/>
-      <c r="F24" s="72"/>
-      <c r="G24" s="72"/>
-      <c r="H24" s="72"/>
-      <c r="I24" s="73"/>
+      <c r="E24" s="60"/>
+      <c r="F24" s="61"/>
+      <c r="G24" s="61"/>
+      <c r="H24" s="61"/>
+      <c r="I24" s="62"/>
     </row>
     <row r="25" spans="1:9" s="51" customFormat="1" ht="12">
       <c r="A25" s="48" t="s">
-        <v>47</v>
+        <v>16</v>
       </c>
       <c r="B25" s="49"/>
       <c r="C25" s="50"/>
@@ -4514,15 +4518,15 @@
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="E25" s="77"/>
-      <c r="F25" s="75"/>
-      <c r="G25" s="75"/>
-      <c r="H25" s="75"/>
-      <c r="I25" s="76"/>
+      <c r="E25" s="57"/>
+      <c r="F25" s="58"/>
+      <c r="G25" s="58"/>
+      <c r="H25" s="58"/>
+      <c r="I25" s="59"/>
     </row>
     <row r="26" spans="1:9" s="51" customFormat="1" ht="12">
       <c r="A26" s="48" t="s">
-        <v>48</v>
+        <v>17</v>
       </c>
       <c r="B26" s="49"/>
       <c r="C26" s="50"/>
@@ -4530,15 +4534,15 @@
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="E26" s="77"/>
-      <c r="F26" s="75"/>
-      <c r="G26" s="75"/>
-      <c r="H26" s="75"/>
-      <c r="I26" s="76"/>
+      <c r="E26" s="57"/>
+      <c r="F26" s="58"/>
+      <c r="G26" s="58"/>
+      <c r="H26" s="58"/>
+      <c r="I26" s="59"/>
     </row>
     <row r="27" spans="1:9" s="43" customFormat="1" ht="12">
       <c r="A27" s="40" t="s">
-        <v>49</v>
+        <v>18</v>
       </c>
       <c r="B27" s="41">
         <v>0.375</v>
@@ -4550,17 +4554,17 @@
         <f t="shared" si="0"/>
         <v>8.3333333333333315E-2</v>
       </c>
-      <c r="E27" s="71" t="s">
-        <v>19</v>
-      </c>
-      <c r="F27" s="72"/>
-      <c r="G27" s="72"/>
-      <c r="H27" s="72"/>
-      <c r="I27" s="73"/>
+      <c r="E27" s="60" t="s">
+        <v>81</v>
+      </c>
+      <c r="F27" s="61"/>
+      <c r="G27" s="61"/>
+      <c r="H27" s="61"/>
+      <c r="I27" s="62"/>
     </row>
     <row r="28" spans="1:9" s="43" customFormat="1" ht="12">
       <c r="A28" s="40" t="s">
-        <v>50</v>
+        <v>19</v>
       </c>
       <c r="B28" s="41">
         <v>0.5</v>
@@ -4572,17 +4576,17 @@
         <f t="shared" si="0"/>
         <v>0.33333333333333337</v>
       </c>
-      <c r="E28" s="71" t="s">
-        <v>17</v>
-      </c>
-      <c r="F28" s="72"/>
-      <c r="G28" s="72"/>
-      <c r="H28" s="72"/>
-      <c r="I28" s="73"/>
+      <c r="E28" s="60" t="s">
+        <v>79</v>
+      </c>
+      <c r="F28" s="61"/>
+      <c r="G28" s="61"/>
+      <c r="H28" s="61"/>
+      <c r="I28" s="62"/>
     </row>
     <row r="29" spans="1:9" s="43" customFormat="1" ht="12">
       <c r="A29" s="40" t="s">
-        <v>51</v>
+        <v>20</v>
       </c>
       <c r="B29" s="41">
         <v>0.375</v>
@@ -4594,33 +4598,39 @@
         <f t="shared" si="0"/>
         <v>0.16666666666666663</v>
       </c>
-      <c r="E29" s="71" t="s">
-        <v>18</v>
-      </c>
-      <c r="F29" s="72"/>
-      <c r="G29" s="72"/>
-      <c r="H29" s="72"/>
-      <c r="I29" s="73"/>
+      <c r="E29" s="60" t="s">
+        <v>80</v>
+      </c>
+      <c r="F29" s="61"/>
+      <c r="G29" s="61"/>
+      <c r="H29" s="61"/>
+      <c r="I29" s="62"/>
     </row>
     <row r="30" spans="1:9" s="43" customFormat="1" ht="12">
       <c r="A30" s="40" t="s">
-        <v>52</v>
-      </c>
-      <c r="B30" s="41"/>
-      <c r="C30" s="42"/>
+        <v>21</v>
+      </c>
+      <c r="B30" s="41">
+        <v>0.70833333333333337</v>
+      </c>
+      <c r="C30" s="42">
+        <v>0.83333333333333337</v>
+      </c>
       <c r="D30" s="42">
         <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="E30" s="71"/>
-      <c r="F30" s="72"/>
-      <c r="G30" s="72"/>
-      <c r="H30" s="72"/>
-      <c r="I30" s="73"/>
+        <v>0.125</v>
+      </c>
+      <c r="E30" s="60" t="s">
+        <v>61</v>
+      </c>
+      <c r="F30" s="61"/>
+      <c r="G30" s="61"/>
+      <c r="H30" s="61"/>
+      <c r="I30" s="62"/>
     </row>
     <row r="31" spans="1:9" s="43" customFormat="1" ht="12">
       <c r="A31" s="40" t="s">
-        <v>53</v>
+        <v>22</v>
       </c>
       <c r="B31" s="41"/>
       <c r="C31" s="42"/>
@@ -4628,15 +4638,15 @@
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="E31" s="71"/>
-      <c r="F31" s="72"/>
-      <c r="G31" s="72"/>
-      <c r="H31" s="72"/>
-      <c r="I31" s="73"/>
+      <c r="E31" s="60"/>
+      <c r="F31" s="61"/>
+      <c r="G31" s="61"/>
+      <c r="H31" s="61"/>
+      <c r="I31" s="62"/>
     </row>
     <row r="32" spans="1:9" s="51" customFormat="1" ht="12">
       <c r="A32" s="48" t="s">
-        <v>54</v>
+        <v>23</v>
       </c>
       <c r="B32" s="49"/>
       <c r="C32" s="50"/>
@@ -4644,15 +4654,15 @@
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="E32" s="77"/>
-      <c r="F32" s="75"/>
-      <c r="G32" s="75"/>
-      <c r="H32" s="75"/>
-      <c r="I32" s="76"/>
+      <c r="E32" s="57"/>
+      <c r="F32" s="58"/>
+      <c r="G32" s="58"/>
+      <c r="H32" s="58"/>
+      <c r="I32" s="59"/>
     </row>
     <row r="33" spans="1:12" s="51" customFormat="1" ht="12">
       <c r="A33" s="48" t="s">
-        <v>58</v>
+        <v>27</v>
       </c>
       <c r="B33" s="49"/>
       <c r="C33" s="50"/>
@@ -4660,15 +4670,15 @@
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="E33" s="77"/>
-      <c r="F33" s="75"/>
-      <c r="G33" s="75"/>
-      <c r="H33" s="75"/>
-      <c r="I33" s="76"/>
+      <c r="E33" s="57"/>
+      <c r="F33" s="58"/>
+      <c r="G33" s="58"/>
+      <c r="H33" s="58"/>
+      <c r="I33" s="59"/>
     </row>
     <row r="34" spans="1:12" s="43" customFormat="1" ht="12">
       <c r="A34" s="40" t="s">
-        <v>59</v>
+        <v>28</v>
       </c>
       <c r="B34" s="41"/>
       <c r="C34" s="42"/>
@@ -4676,15 +4686,15 @@
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="E34" s="71"/>
-      <c r="F34" s="72"/>
-      <c r="G34" s="72"/>
-      <c r="H34" s="72"/>
-      <c r="I34" s="73"/>
+      <c r="E34" s="60"/>
+      <c r="F34" s="61"/>
+      <c r="G34" s="61"/>
+      <c r="H34" s="61"/>
+      <c r="I34" s="62"/>
     </row>
     <row r="35" spans="1:12" s="43" customFormat="1" ht="12">
       <c r="A35" s="40" t="s">
-        <v>60</v>
+        <v>29</v>
       </c>
       <c r="B35" s="41"/>
       <c r="C35" s="42"/>
@@ -4692,15 +4702,15 @@
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="E35" s="71"/>
-      <c r="F35" s="72"/>
-      <c r="G35" s="72"/>
-      <c r="H35" s="72"/>
-      <c r="I35" s="73"/>
+      <c r="E35" s="60"/>
+      <c r="F35" s="61"/>
+      <c r="G35" s="61"/>
+      <c r="H35" s="61"/>
+      <c r="I35" s="62"/>
     </row>
     <row r="36" spans="1:12" s="43" customFormat="1" ht="12">
       <c r="A36" s="40" t="s">
-        <v>61</v>
+        <v>30</v>
       </c>
       <c r="B36" s="41"/>
       <c r="C36" s="42"/>
@@ -4708,15 +4718,15 @@
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="E36" s="71"/>
-      <c r="F36" s="72"/>
-      <c r="G36" s="72"/>
-      <c r="H36" s="72"/>
-      <c r="I36" s="73"/>
+      <c r="E36" s="60"/>
+      <c r="F36" s="61"/>
+      <c r="G36" s="61"/>
+      <c r="H36" s="61"/>
+      <c r="I36" s="62"/>
     </row>
     <row r="37" spans="1:12" s="43" customFormat="1" ht="12">
       <c r="A37" s="40" t="s">
-        <v>62</v>
+        <v>31</v>
       </c>
       <c r="B37" s="41"/>
       <c r="C37" s="42"/>
@@ -4724,15 +4734,15 @@
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="E37" s="71"/>
-      <c r="F37" s="72"/>
-      <c r="G37" s="72"/>
-      <c r="H37" s="72"/>
-      <c r="I37" s="73"/>
+      <c r="E37" s="60"/>
+      <c r="F37" s="61"/>
+      <c r="G37" s="61"/>
+      <c r="H37" s="61"/>
+      <c r="I37" s="62"/>
     </row>
     <row r="38" spans="1:12" s="43" customFormat="1" ht="12">
       <c r="A38" s="40" t="s">
-        <v>63</v>
+        <v>32</v>
       </c>
       <c r="B38" s="41"/>
       <c r="C38" s="42"/>
@@ -4740,15 +4750,15 @@
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="E38" s="71"/>
-      <c r="F38" s="72"/>
-      <c r="G38" s="72"/>
-      <c r="H38" s="72"/>
-      <c r="I38" s="73"/>
+      <c r="E38" s="60"/>
+      <c r="F38" s="61"/>
+      <c r="G38" s="61"/>
+      <c r="H38" s="61"/>
+      <c r="I38" s="62"/>
     </row>
     <row r="39" spans="1:12" s="51" customFormat="1" ht="12">
       <c r="A39" s="48" t="s">
-        <v>64</v>
+        <v>33</v>
       </c>
       <c r="B39" s="49"/>
       <c r="C39" s="50"/>
@@ -4756,15 +4766,15 @@
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="E39" s="77"/>
-      <c r="F39" s="75"/>
-      <c r="G39" s="75"/>
-      <c r="H39" s="75"/>
-      <c r="I39" s="76"/>
+      <c r="E39" s="57"/>
+      <c r="F39" s="58"/>
+      <c r="G39" s="58"/>
+      <c r="H39" s="58"/>
+      <c r="I39" s="59"/>
     </row>
     <row r="40" spans="1:12" s="51" customFormat="1" ht="12">
       <c r="A40" s="48" t="s">
-        <v>65</v>
+        <v>34</v>
       </c>
       <c r="B40" s="49"/>
       <c r="C40" s="50"/>
@@ -4772,15 +4782,15 @@
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="E40" s="77"/>
-      <c r="F40" s="75"/>
-      <c r="G40" s="75"/>
-      <c r="H40" s="75"/>
-      <c r="I40" s="76"/>
+      <c r="E40" s="57"/>
+      <c r="F40" s="58"/>
+      <c r="G40" s="58"/>
+      <c r="H40" s="58"/>
+      <c r="I40" s="59"/>
     </row>
     <row r="41" spans="1:12" s="43" customFormat="1" ht="12">
       <c r="A41" s="40" t="s">
-        <v>66</v>
+        <v>35</v>
       </c>
       <c r="B41" s="41"/>
       <c r="C41" s="42"/>
@@ -4788,15 +4798,15 @@
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="E41" s="71"/>
-      <c r="F41" s="72"/>
-      <c r="G41" s="72"/>
-      <c r="H41" s="72"/>
-      <c r="I41" s="73"/>
+      <c r="E41" s="60"/>
+      <c r="F41" s="61"/>
+      <c r="G41" s="61"/>
+      <c r="H41" s="61"/>
+      <c r="I41" s="62"/>
     </row>
     <row r="42" spans="1:12" s="43" customFormat="1" ht="12">
       <c r="A42" s="40" t="s">
-        <v>67</v>
+        <v>36</v>
       </c>
       <c r="B42" s="41"/>
       <c r="C42" s="42"/>
@@ -4804,15 +4814,15 @@
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="E42" s="71"/>
-      <c r="F42" s="72"/>
-      <c r="G42" s="72"/>
-      <c r="H42" s="72"/>
-      <c r="I42" s="73"/>
+      <c r="E42" s="60"/>
+      <c r="F42" s="61"/>
+      <c r="G42" s="61"/>
+      <c r="H42" s="61"/>
+      <c r="I42" s="62"/>
     </row>
     <row r="43" spans="1:12" s="43" customFormat="1" ht="12">
       <c r="A43" s="40" t="s">
-        <v>68</v>
+        <v>37</v>
       </c>
       <c r="B43" s="41"/>
       <c r="C43" s="42"/>
@@ -4820,15 +4830,15 @@
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="E43" s="71"/>
-      <c r="F43" s="72"/>
-      <c r="G43" s="72"/>
-      <c r="H43" s="72"/>
-      <c r="I43" s="73"/>
+      <c r="E43" s="60"/>
+      <c r="F43" s="61"/>
+      <c r="G43" s="61"/>
+      <c r="H43" s="61"/>
+      <c r="I43" s="62"/>
     </row>
     <row r="44" spans="1:12" s="43" customFormat="1" ht="12">
       <c r="A44" s="40" t="s">
-        <v>69</v>
+        <v>38</v>
       </c>
       <c r="B44" s="41"/>
       <c r="C44" s="42"/>
@@ -4836,15 +4846,15 @@
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="E44" s="71"/>
-      <c r="F44" s="72"/>
-      <c r="G44" s="72"/>
-      <c r="H44" s="72"/>
-      <c r="I44" s="73"/>
+      <c r="E44" s="60"/>
+      <c r="F44" s="61"/>
+      <c r="G44" s="61"/>
+      <c r="H44" s="61"/>
+      <c r="I44" s="62"/>
     </row>
     <row r="45" spans="1:12" s="43" customFormat="1" ht="12">
       <c r="A45" s="40" t="s">
-        <v>70</v>
+        <v>39</v>
       </c>
       <c r="B45" s="41"/>
       <c r="C45" s="42"/>
@@ -4852,15 +4862,15 @@
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="E45" s="71"/>
-      <c r="F45" s="72"/>
-      <c r="G45" s="72"/>
-      <c r="H45" s="72"/>
-      <c r="I45" s="73"/>
+      <c r="E45" s="60"/>
+      <c r="F45" s="61"/>
+      <c r="G45" s="61"/>
+      <c r="H45" s="61"/>
+      <c r="I45" s="62"/>
     </row>
     <row r="46" spans="1:12" s="51" customFormat="1" ht="12">
       <c r="A46" s="48" t="s">
-        <v>71</v>
+        <v>40</v>
       </c>
       <c r="B46" s="49"/>
       <c r="C46" s="50"/>
@@ -4868,11 +4878,11 @@
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="E46" s="77"/>
-      <c r="F46" s="75"/>
-      <c r="G46" s="75"/>
-      <c r="H46" s="75"/>
-      <c r="I46" s="76"/>
+      <c r="E46" s="57"/>
+      <c r="F46" s="58"/>
+      <c r="G46" s="58"/>
+      <c r="H46" s="58"/>
+      <c r="I46" s="59"/>
     </row>
     <row r="47" spans="1:12" s="35" customFormat="1" ht="13">
       <c r="A47" s="100"/>
@@ -4880,7 +4890,7 @@
       <c r="C47" s="101"/>
       <c r="D47" s="34">
         <f>SUM(D16:D46)</f>
-        <v>0.99999999999999989</v>
+        <v>1.125</v>
       </c>
       <c r="E47" s="98"/>
       <c r="F47" s="98"/>
@@ -4904,6 +4914,41 @@
     </row>
   </sheetData>
   <mergeCells count="51">
+    <mergeCell ref="D9:H9"/>
+    <mergeCell ref="A10:I10"/>
+    <mergeCell ref="A1:I1"/>
+    <mergeCell ref="A2:I2"/>
+    <mergeCell ref="A3:H3"/>
+    <mergeCell ref="A4:I4"/>
+    <mergeCell ref="A5:C5"/>
+    <mergeCell ref="D5:H5"/>
+    <mergeCell ref="A6:I6"/>
+    <mergeCell ref="E29:I29"/>
+    <mergeCell ref="E30:I30"/>
+    <mergeCell ref="E31:I31"/>
+    <mergeCell ref="E17:I17"/>
+    <mergeCell ref="E26:I26"/>
+    <mergeCell ref="E27:I27"/>
+    <mergeCell ref="E28:I28"/>
+    <mergeCell ref="E23:I23"/>
+    <mergeCell ref="E24:I24"/>
+    <mergeCell ref="E25:I25"/>
+    <mergeCell ref="E20:I20"/>
+    <mergeCell ref="E21:I21"/>
+    <mergeCell ref="E22:I22"/>
+    <mergeCell ref="E18:I18"/>
+    <mergeCell ref="E19:I19"/>
+    <mergeCell ref="E35:I35"/>
+    <mergeCell ref="E36:I36"/>
+    <mergeCell ref="E37:I37"/>
+    <mergeCell ref="E32:I32"/>
+    <mergeCell ref="E33:I33"/>
+    <mergeCell ref="E34:I34"/>
+    <mergeCell ref="E47:I47"/>
+    <mergeCell ref="A47:C47"/>
+    <mergeCell ref="E44:I44"/>
+    <mergeCell ref="E45:I45"/>
+    <mergeCell ref="E46:I46"/>
     <mergeCell ref="E41:I41"/>
     <mergeCell ref="E42:I42"/>
     <mergeCell ref="E43:I43"/>
@@ -4920,41 +4965,6 @@
     <mergeCell ref="E38:I38"/>
     <mergeCell ref="E39:I39"/>
     <mergeCell ref="E40:I40"/>
-    <mergeCell ref="E47:I47"/>
-    <mergeCell ref="A47:C47"/>
-    <mergeCell ref="E44:I44"/>
-    <mergeCell ref="E45:I45"/>
-    <mergeCell ref="E46:I46"/>
-    <mergeCell ref="E35:I35"/>
-    <mergeCell ref="E36:I36"/>
-    <mergeCell ref="E37:I37"/>
-    <mergeCell ref="E32:I32"/>
-    <mergeCell ref="E33:I33"/>
-    <mergeCell ref="E34:I34"/>
-    <mergeCell ref="E29:I29"/>
-    <mergeCell ref="E30:I30"/>
-    <mergeCell ref="E31:I31"/>
-    <mergeCell ref="E17:I17"/>
-    <mergeCell ref="E26:I26"/>
-    <mergeCell ref="E27:I27"/>
-    <mergeCell ref="E28:I28"/>
-    <mergeCell ref="E23:I23"/>
-    <mergeCell ref="E24:I24"/>
-    <mergeCell ref="E25:I25"/>
-    <mergeCell ref="E20:I20"/>
-    <mergeCell ref="E21:I21"/>
-    <mergeCell ref="E22:I22"/>
-    <mergeCell ref="E18:I18"/>
-    <mergeCell ref="E19:I19"/>
-    <mergeCell ref="D9:H9"/>
-    <mergeCell ref="A10:I10"/>
-    <mergeCell ref="A1:I1"/>
-    <mergeCell ref="A2:I2"/>
-    <mergeCell ref="A3:H3"/>
-    <mergeCell ref="A4:I4"/>
-    <mergeCell ref="A5:C5"/>
-    <mergeCell ref="D5:H5"/>
-    <mergeCell ref="A6:I6"/>
   </mergeCells>
   <phoneticPr fontId="32" type="noConversion"/>
   <printOptions horizontalCentered="1"/>
@@ -4993,17 +5003,17 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:40" s="7" customFormat="1" ht="18" thickBot="1">
-      <c r="A1" s="66" t="s">
-        <v>74</v>
-      </c>
-      <c r="B1" s="66"/>
-      <c r="C1" s="66"/>
-      <c r="D1" s="66"/>
-      <c r="E1" s="66"/>
-      <c r="F1" s="66"/>
-      <c r="G1" s="66"/>
-      <c r="H1" s="66"/>
-      <c r="I1" s="66"/>
+      <c r="A1" s="84" t="s">
+        <v>43</v>
+      </c>
+      <c r="B1" s="84"/>
+      <c r="C1" s="84"/>
+      <c r="D1" s="84"/>
+      <c r="E1" s="84"/>
+      <c r="F1" s="84"/>
+      <c r="G1" s="84"/>
+      <c r="H1" s="84"/>
+      <c r="I1" s="84"/>
       <c r="J1" s="8"/>
       <c r="K1" s="8"/>
       <c r="L1" s="8"/>
@@ -5036,15 +5046,15 @@
       <c r="AM1" s="8"/>
     </row>
     <row r="2" spans="1:40" s="1" customFormat="1" ht="7.5" customHeight="1">
-      <c r="A2" s="67"/>
-      <c r="B2" s="67"/>
-      <c r="C2" s="67"/>
-      <c r="D2" s="67"/>
-      <c r="E2" s="67"/>
-      <c r="F2" s="67"/>
-      <c r="G2" s="67"/>
-      <c r="H2" s="67"/>
-      <c r="I2" s="67"/>
+      <c r="A2" s="85"/>
+      <c r="B2" s="85"/>
+      <c r="C2" s="85"/>
+      <c r="D2" s="85"/>
+      <c r="E2" s="85"/>
+      <c r="F2" s="85"/>
+      <c r="G2" s="85"/>
+      <c r="H2" s="85"/>
+      <c r="I2" s="85"/>
       <c r="J2" s="9"/>
       <c r="K2" s="9"/>
       <c r="L2" s="9"/>
@@ -5077,16 +5087,16 @@
       <c r="AM2" s="9"/>
     </row>
     <row r="3" spans="1:40" s="11" customFormat="1" ht="13.5" customHeight="1">
-      <c r="A3" s="68" t="s">
-        <v>78</v>
-      </c>
-      <c r="B3" s="68"/>
-      <c r="C3" s="68"/>
-      <c r="D3" s="68"/>
-      <c r="E3" s="68"/>
-      <c r="F3" s="68"/>
-      <c r="G3" s="68"/>
-      <c r="H3" s="68"/>
+      <c r="A3" s="86" t="s">
+        <v>47</v>
+      </c>
+      <c r="B3" s="86"/>
+      <c r="C3" s="86"/>
+      <c r="D3" s="86"/>
+      <c r="E3" s="86"/>
+      <c r="F3" s="86"/>
+      <c r="G3" s="86"/>
+      <c r="H3" s="86"/>
       <c r="I3" s="23"/>
       <c r="J3" s="22"/>
       <c r="K3" s="22"/>
@@ -5121,112 +5131,112 @@
       <c r="AN3" s="10"/>
     </row>
     <row r="4" spans="1:40" s="6" customFormat="1" ht="9" customHeight="1">
-      <c r="A4" s="69"/>
-      <c r="B4" s="69"/>
-      <c r="C4" s="69"/>
-      <c r="D4" s="69"/>
-      <c r="E4" s="69"/>
-      <c r="F4" s="69"/>
-      <c r="G4" s="69"/>
-      <c r="H4" s="69"/>
-      <c r="I4" s="69"/>
+      <c r="A4" s="87"/>
+      <c r="B4" s="87"/>
+      <c r="C4" s="87"/>
+      <c r="D4" s="87"/>
+      <c r="E4" s="87"/>
+      <c r="F4" s="87"/>
+      <c r="G4" s="87"/>
+      <c r="H4" s="87"/>
+      <c r="I4" s="87"/>
     </row>
     <row r="5" spans="1:40" s="1" customFormat="1" ht="13.75" customHeight="1">
-      <c r="A5" s="62" t="str">
+      <c r="A5" s="94" t="str">
         <f>October!A5</f>
         <v>Firstname Lastname</v>
       </c>
-      <c r="B5" s="63"/>
-      <c r="C5" s="63"/>
-      <c r="D5" s="58" t="str">
+      <c r="B5" s="95"/>
+      <c r="C5" s="95"/>
+      <c r="D5" s="90" t="str">
         <f>October!D5</f>
         <v>Augustin Hannah</v>
       </c>
-      <c r="E5" s="59"/>
-      <c r="F5" s="59"/>
-      <c r="G5" s="59"/>
-      <c r="H5" s="60"/>
+      <c r="E5" s="91"/>
+      <c r="F5" s="91"/>
+      <c r="G5" s="91"/>
+      <c r="H5" s="92"/>
       <c r="I5" s="23"/>
       <c r="J5" s="9"/>
       <c r="K5" s="9"/>
       <c r="L5" s="9"/>
     </row>
     <row r="6" spans="1:40" s="1" customFormat="1" ht="7.5" customHeight="1">
-      <c r="A6" s="64"/>
-      <c r="B6" s="64"/>
-      <c r="C6" s="64"/>
-      <c r="D6" s="64"/>
-      <c r="E6" s="64"/>
-      <c r="F6" s="64"/>
-      <c r="G6" s="64"/>
-      <c r="H6" s="64"/>
-      <c r="I6" s="64"/>
+      <c r="A6" s="96"/>
+      <c r="B6" s="96"/>
+      <c r="C6" s="96"/>
+      <c r="D6" s="96"/>
+      <c r="E6" s="96"/>
+      <c r="F6" s="96"/>
+      <c r="G6" s="96"/>
+      <c r="H6" s="96"/>
+      <c r="I6" s="96"/>
     </row>
     <row r="7" spans="1:40" s="1" customFormat="1" ht="13.75" customHeight="1">
-      <c r="A7" s="57" t="str">
+      <c r="A7" s="89" t="str">
         <f>October!A7</f>
         <v>Project Acronym</v>
       </c>
-      <c r="B7" s="57"/>
-      <c r="C7" s="57"/>
-      <c r="D7" s="65" t="str">
+      <c r="B7" s="89"/>
+      <c r="C7" s="89"/>
+      <c r="D7" s="97" t="str">
         <f>October!D7</f>
         <v>AIQ</v>
       </c>
-      <c r="E7" s="65"/>
-      <c r="F7" s="65"/>
-      <c r="G7" s="65"/>
-      <c r="H7" s="65"/>
+      <c r="E7" s="97"/>
+      <c r="F7" s="97"/>
+      <c r="G7" s="97"/>
+      <c r="H7" s="97"/>
       <c r="I7" s="24"/>
     </row>
     <row r="8" spans="1:40" s="1" customFormat="1" ht="7.5" customHeight="1">
-      <c r="A8" s="70"/>
-      <c r="B8" s="70"/>
-      <c r="C8" s="70"/>
-      <c r="D8" s="70"/>
-      <c r="E8" s="70"/>
-      <c r="F8" s="70"/>
-      <c r="G8" s="70"/>
-      <c r="H8" s="70"/>
-      <c r="I8" s="70"/>
+      <c r="A8" s="88"/>
+      <c r="B8" s="88"/>
+      <c r="C8" s="88"/>
+      <c r="D8" s="88"/>
+      <c r="E8" s="88"/>
+      <c r="F8" s="88"/>
+      <c r="G8" s="88"/>
+      <c r="H8" s="88"/>
+      <c r="I8" s="88"/>
     </row>
     <row r="9" spans="1:40" s="1" customFormat="1" ht="13.75" customHeight="1">
-      <c r="A9" s="57" t="str">
+      <c r="A9" s="89" t="str">
         <f>October!A9</f>
         <v>Project Title</v>
       </c>
-      <c r="B9" s="57"/>
-      <c r="C9" s="57"/>
-      <c r="D9" s="58" t="str">
+      <c r="B9" s="89"/>
+      <c r="C9" s="89"/>
+      <c r="D9" s="90" t="str">
         <f>October!D9</f>
         <v>Automating change detection in ImageQuerying</v>
       </c>
-      <c r="E9" s="59"/>
-      <c r="F9" s="59"/>
-      <c r="G9" s="59"/>
-      <c r="H9" s="60"/>
+      <c r="E9" s="91"/>
+      <c r="F9" s="91"/>
+      <c r="G9" s="91"/>
+      <c r="H9" s="92"/>
       <c r="I9" s="24"/>
       <c r="J9" s="15"/>
     </row>
     <row r="10" spans="1:40" s="1" customFormat="1" ht="7.5" customHeight="1">
-      <c r="A10" s="61"/>
-      <c r="B10" s="61"/>
-      <c r="C10" s="61"/>
-      <c r="D10" s="61"/>
-      <c r="E10" s="61"/>
-      <c r="F10" s="61"/>
-      <c r="G10" s="61"/>
-      <c r="H10" s="61"/>
-      <c r="I10" s="61"/>
+      <c r="A10" s="93"/>
+      <c r="B10" s="93"/>
+      <c r="C10" s="93"/>
+      <c r="D10" s="93"/>
+      <c r="E10" s="93"/>
+      <c r="F10" s="93"/>
+      <c r="G10" s="93"/>
+      <c r="H10" s="93"/>
+      <c r="I10" s="93"/>
     </row>
     <row r="11" spans="1:40" s="1" customFormat="1" ht="12">
       <c r="A11" s="21" t="s">
-        <v>76</v>
+        <v>45</v>
       </c>
       <c r="B11" s="21"/>
       <c r="C11" s="21"/>
       <c r="D11" s="21" t="s">
-        <v>77</v>
+        <v>46</v>
       </c>
       <c r="E11" s="21"/>
       <c r="F11" s="21"/>
@@ -5246,55 +5256,55 @@
       <c r="I12" s="26"/>
     </row>
     <row r="13" spans="1:40" s="2" customFormat="1" ht="15.5" customHeight="1">
-      <c r="A13" s="78" t="s">
-        <v>33</v>
-      </c>
-      <c r="B13" s="81" t="s">
-        <v>72</v>
-      </c>
-      <c r="C13" s="82"/>
-      <c r="D13" s="82"/>
-      <c r="E13" s="82"/>
-      <c r="F13" s="82"/>
-      <c r="G13" s="82"/>
-      <c r="H13" s="82"/>
-      <c r="I13" s="83"/>
+      <c r="A13" s="68" t="s">
+        <v>2</v>
+      </c>
+      <c r="B13" s="71" t="s">
+        <v>41</v>
+      </c>
+      <c r="C13" s="72"/>
+      <c r="D13" s="72"/>
+      <c r="E13" s="72"/>
+      <c r="F13" s="72"/>
+      <c r="G13" s="72"/>
+      <c r="H13" s="72"/>
+      <c r="I13" s="73"/>
     </row>
     <row r="14" spans="1:40" s="2" customFormat="1" ht="13.75" customHeight="1">
-      <c r="A14" s="79"/>
-      <c r="B14" s="84" t="s">
-        <v>34</v>
-      </c>
-      <c r="C14" s="85"/>
-      <c r="D14" s="86" t="s">
-        <v>35</v>
-      </c>
-      <c r="E14" s="88" t="s">
-        <v>73</v>
-      </c>
-      <c r="F14" s="89"/>
-      <c r="G14" s="89"/>
-      <c r="H14" s="89"/>
-      <c r="I14" s="90"/>
+      <c r="A14" s="69"/>
+      <c r="B14" s="74" t="s">
+        <v>3</v>
+      </c>
+      <c r="C14" s="75"/>
+      <c r="D14" s="76" t="s">
+        <v>4</v>
+      </c>
+      <c r="E14" s="78" t="s">
+        <v>42</v>
+      </c>
+      <c r="F14" s="79"/>
+      <c r="G14" s="79"/>
+      <c r="H14" s="79"/>
+      <c r="I14" s="80"/>
     </row>
     <row r="15" spans="1:40" ht="12" customHeight="1">
-      <c r="A15" s="80"/>
+      <c r="A15" s="70"/>
       <c r="B15" s="32" t="s">
-        <v>36</v>
+        <v>5</v>
       </c>
       <c r="C15" s="33" t="s">
-        <v>37</v>
-      </c>
-      <c r="D15" s="87"/>
-      <c r="E15" s="91"/>
-      <c r="F15" s="92"/>
-      <c r="G15" s="92"/>
-      <c r="H15" s="92"/>
-      <c r="I15" s="93"/>
+        <v>6</v>
+      </c>
+      <c r="D15" s="77"/>
+      <c r="E15" s="81"/>
+      <c r="F15" s="82"/>
+      <c r="G15" s="82"/>
+      <c r="H15" s="82"/>
+      <c r="I15" s="83"/>
     </row>
     <row r="16" spans="1:40" s="51" customFormat="1" ht="12">
       <c r="A16" s="48" t="s">
-        <v>38</v>
+        <v>7</v>
       </c>
       <c r="B16" s="49"/>
       <c r="C16" s="50"/>
@@ -5302,15 +5312,15 @@
         <f>C16-B16</f>
         <v>0</v>
       </c>
-      <c r="E16" s="77"/>
-      <c r="F16" s="75"/>
-      <c r="G16" s="75"/>
-      <c r="H16" s="75"/>
-      <c r="I16" s="76"/>
+      <c r="E16" s="57"/>
+      <c r="F16" s="58"/>
+      <c r="G16" s="58"/>
+      <c r="H16" s="58"/>
+      <c r="I16" s="59"/>
     </row>
     <row r="17" spans="1:9" s="43" customFormat="1" ht="12">
       <c r="A17" s="40" t="s">
-        <v>39</v>
+        <v>8</v>
       </c>
       <c r="B17" s="41"/>
       <c r="C17" s="42"/>
@@ -5318,15 +5328,15 @@
         <f t="shared" ref="D17:D46" si="0">C17-B17</f>
         <v>0</v>
       </c>
-      <c r="E17" s="71"/>
-      <c r="F17" s="72"/>
-      <c r="G17" s="72"/>
-      <c r="H17" s="72"/>
-      <c r="I17" s="73"/>
+      <c r="E17" s="60"/>
+      <c r="F17" s="61"/>
+      <c r="G17" s="61"/>
+      <c r="H17" s="61"/>
+      <c r="I17" s="62"/>
     </row>
     <row r="18" spans="1:9" s="43" customFormat="1" ht="12">
       <c r="A18" s="40" t="s">
-        <v>40</v>
+        <v>9</v>
       </c>
       <c r="B18" s="41"/>
       <c r="C18" s="42"/>
@@ -5334,15 +5344,15 @@
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="E18" s="71"/>
-      <c r="F18" s="72"/>
-      <c r="G18" s="72"/>
-      <c r="H18" s="72"/>
-      <c r="I18" s="73"/>
+      <c r="E18" s="60"/>
+      <c r="F18" s="61"/>
+      <c r="G18" s="61"/>
+      <c r="H18" s="61"/>
+      <c r="I18" s="62"/>
     </row>
     <row r="19" spans="1:9" s="43" customFormat="1" ht="12">
       <c r="A19" s="40" t="s">
-        <v>41</v>
+        <v>10</v>
       </c>
       <c r="B19" s="41"/>
       <c r="C19" s="42"/>
@@ -5350,15 +5360,15 @@
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="E19" s="71"/>
-      <c r="F19" s="72"/>
-      <c r="G19" s="72"/>
-      <c r="H19" s="72"/>
-      <c r="I19" s="73"/>
+      <c r="E19" s="60"/>
+      <c r="F19" s="61"/>
+      <c r="G19" s="61"/>
+      <c r="H19" s="61"/>
+      <c r="I19" s="62"/>
     </row>
     <row r="20" spans="1:9" s="43" customFormat="1" ht="12">
       <c r="A20" s="40" t="s">
-        <v>42</v>
+        <v>11</v>
       </c>
       <c r="B20" s="41"/>
       <c r="C20" s="42"/>
@@ -5366,15 +5376,15 @@
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="E20" s="71"/>
-      <c r="F20" s="72"/>
-      <c r="G20" s="72"/>
-      <c r="H20" s="72"/>
-      <c r="I20" s="73"/>
+      <c r="E20" s="60"/>
+      <c r="F20" s="61"/>
+      <c r="G20" s="61"/>
+      <c r="H20" s="61"/>
+      <c r="I20" s="62"/>
     </row>
     <row r="21" spans="1:9" s="43" customFormat="1" ht="12">
       <c r="A21" s="40" t="s">
-        <v>43</v>
+        <v>12</v>
       </c>
       <c r="B21" s="41"/>
       <c r="C21" s="42"/>
@@ -5382,15 +5392,15 @@
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="E21" s="71"/>
-      <c r="F21" s="72"/>
-      <c r="G21" s="72"/>
-      <c r="H21" s="72"/>
-      <c r="I21" s="73"/>
+      <c r="E21" s="60"/>
+      <c r="F21" s="61"/>
+      <c r="G21" s="61"/>
+      <c r="H21" s="61"/>
+      <c r="I21" s="62"/>
     </row>
     <row r="22" spans="1:9" s="51" customFormat="1" ht="12">
       <c r="A22" s="48" t="s">
-        <v>44</v>
+        <v>13</v>
       </c>
       <c r="B22" s="49"/>
       <c r="C22" s="50"/>
@@ -5398,15 +5408,15 @@
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="E22" s="77"/>
-      <c r="F22" s="75"/>
-      <c r="G22" s="75"/>
-      <c r="H22" s="75"/>
-      <c r="I22" s="76"/>
+      <c r="E22" s="57"/>
+      <c r="F22" s="58"/>
+      <c r="G22" s="58"/>
+      <c r="H22" s="58"/>
+      <c r="I22" s="59"/>
     </row>
     <row r="23" spans="1:9" s="51" customFormat="1" ht="12">
       <c r="A23" s="48" t="s">
-        <v>45</v>
+        <v>14</v>
       </c>
       <c r="B23" s="49"/>
       <c r="C23" s="50"/>
@@ -5414,15 +5424,15 @@
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="E23" s="77"/>
-      <c r="F23" s="75"/>
-      <c r="G23" s="75"/>
-      <c r="H23" s="75"/>
-      <c r="I23" s="76"/>
+      <c r="E23" s="57"/>
+      <c r="F23" s="58"/>
+      <c r="G23" s="58"/>
+      <c r="H23" s="58"/>
+      <c r="I23" s="59"/>
     </row>
     <row r="24" spans="1:9" s="43" customFormat="1" ht="12">
       <c r="A24" s="40" t="s">
-        <v>46</v>
+        <v>15</v>
       </c>
       <c r="B24" s="41"/>
       <c r="C24" s="42"/>
@@ -5430,15 +5440,15 @@
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="E24" s="71"/>
-      <c r="F24" s="72"/>
-      <c r="G24" s="72"/>
-      <c r="H24" s="72"/>
-      <c r="I24" s="73"/>
+      <c r="E24" s="60"/>
+      <c r="F24" s="61"/>
+      <c r="G24" s="61"/>
+      <c r="H24" s="61"/>
+      <c r="I24" s="62"/>
     </row>
     <row r="25" spans="1:9" s="43" customFormat="1" ht="12">
       <c r="A25" s="40" t="s">
-        <v>47</v>
+        <v>16</v>
       </c>
       <c r="B25" s="41"/>
       <c r="C25" s="42"/>
@@ -5446,15 +5456,15 @@
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="E25" s="71"/>
-      <c r="F25" s="72"/>
-      <c r="G25" s="72"/>
-      <c r="H25" s="72"/>
-      <c r="I25" s="73"/>
+      <c r="E25" s="60"/>
+      <c r="F25" s="61"/>
+      <c r="G25" s="61"/>
+      <c r="H25" s="61"/>
+      <c r="I25" s="62"/>
     </row>
     <row r="26" spans="1:9" s="43" customFormat="1" ht="12">
       <c r="A26" s="40" t="s">
-        <v>48</v>
+        <v>17</v>
       </c>
       <c r="B26" s="41"/>
       <c r="C26" s="42"/>
@@ -5462,15 +5472,15 @@
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="E26" s="71"/>
-      <c r="F26" s="72"/>
-      <c r="G26" s="72"/>
-      <c r="H26" s="72"/>
-      <c r="I26" s="73"/>
+      <c r="E26" s="60"/>
+      <c r="F26" s="61"/>
+      <c r="G26" s="61"/>
+      <c r="H26" s="61"/>
+      <c r="I26" s="62"/>
     </row>
     <row r="27" spans="1:9" s="43" customFormat="1" ht="12">
       <c r="A27" s="40" t="s">
-        <v>49</v>
+        <v>18</v>
       </c>
       <c r="B27" s="41"/>
       <c r="C27" s="42"/>
@@ -5478,15 +5488,15 @@
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="E27" s="71"/>
-      <c r="F27" s="72"/>
-      <c r="G27" s="72"/>
-      <c r="H27" s="72"/>
-      <c r="I27" s="73"/>
+      <c r="E27" s="60"/>
+      <c r="F27" s="61"/>
+      <c r="G27" s="61"/>
+      <c r="H27" s="61"/>
+      <c r="I27" s="62"/>
     </row>
     <row r="28" spans="1:9" s="43" customFormat="1" ht="12">
       <c r="A28" s="40" t="s">
-        <v>50</v>
+        <v>19</v>
       </c>
       <c r="B28" s="41"/>
       <c r="C28" s="42"/>
@@ -5494,15 +5504,15 @@
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="E28" s="71"/>
-      <c r="F28" s="72"/>
-      <c r="G28" s="72"/>
-      <c r="H28" s="72"/>
-      <c r="I28" s="73"/>
+      <c r="E28" s="60"/>
+      <c r="F28" s="61"/>
+      <c r="G28" s="61"/>
+      <c r="H28" s="61"/>
+      <c r="I28" s="62"/>
     </row>
     <row r="29" spans="1:9" s="51" customFormat="1" ht="12">
       <c r="A29" s="48" t="s">
-        <v>51</v>
+        <v>20</v>
       </c>
       <c r="B29" s="49"/>
       <c r="C29" s="50"/>
@@ -5510,15 +5520,15 @@
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="E29" s="77"/>
-      <c r="F29" s="75"/>
-      <c r="G29" s="75"/>
-      <c r="H29" s="75"/>
-      <c r="I29" s="76"/>
+      <c r="E29" s="57"/>
+      <c r="F29" s="58"/>
+      <c r="G29" s="58"/>
+      <c r="H29" s="58"/>
+      <c r="I29" s="59"/>
     </row>
     <row r="30" spans="1:9" s="51" customFormat="1" ht="12">
       <c r="A30" s="48" t="s">
-        <v>52</v>
+        <v>21</v>
       </c>
       <c r="B30" s="49"/>
       <c r="C30" s="50"/>
@@ -5526,15 +5536,15 @@
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="E30" s="77"/>
-      <c r="F30" s="75"/>
-      <c r="G30" s="75"/>
-      <c r="H30" s="75"/>
-      <c r="I30" s="76"/>
+      <c r="E30" s="57"/>
+      <c r="F30" s="58"/>
+      <c r="G30" s="58"/>
+      <c r="H30" s="58"/>
+      <c r="I30" s="59"/>
     </row>
     <row r="31" spans="1:9" s="43" customFormat="1" ht="12">
       <c r="A31" s="40" t="s">
-        <v>53</v>
+        <v>22</v>
       </c>
       <c r="B31" s="41"/>
       <c r="C31" s="42"/>
@@ -5542,15 +5552,15 @@
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="E31" s="71"/>
-      <c r="F31" s="72"/>
-      <c r="G31" s="72"/>
-      <c r="H31" s="72"/>
-      <c r="I31" s="73"/>
+      <c r="E31" s="60"/>
+      <c r="F31" s="61"/>
+      <c r="G31" s="61"/>
+      <c r="H31" s="61"/>
+      <c r="I31" s="62"/>
     </row>
     <row r="32" spans="1:9" s="43" customFormat="1" ht="12">
       <c r="A32" s="40" t="s">
-        <v>54</v>
+        <v>23</v>
       </c>
       <c r="B32" s="41"/>
       <c r="C32" s="42"/>
@@ -5558,15 +5568,15 @@
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="E32" s="71"/>
-      <c r="F32" s="72"/>
-      <c r="G32" s="72"/>
-      <c r="H32" s="72"/>
-      <c r="I32" s="73"/>
+      <c r="E32" s="60"/>
+      <c r="F32" s="61"/>
+      <c r="G32" s="61"/>
+      <c r="H32" s="61"/>
+      <c r="I32" s="62"/>
     </row>
     <row r="33" spans="1:12" s="43" customFormat="1" ht="12">
       <c r="A33" s="40" t="s">
-        <v>58</v>
+        <v>27</v>
       </c>
       <c r="B33" s="41"/>
       <c r="C33" s="42"/>
@@ -5574,15 +5584,15 @@
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="E33" s="71"/>
-      <c r="F33" s="72"/>
-      <c r="G33" s="72"/>
-      <c r="H33" s="72"/>
-      <c r="I33" s="73"/>
+      <c r="E33" s="60"/>
+      <c r="F33" s="61"/>
+      <c r="G33" s="61"/>
+      <c r="H33" s="61"/>
+      <c r="I33" s="62"/>
     </row>
     <row r="34" spans="1:12" s="43" customFormat="1" ht="12">
       <c r="A34" s="40" t="s">
-        <v>59</v>
+        <v>28</v>
       </c>
       <c r="B34" s="41"/>
       <c r="C34" s="42"/>
@@ -5590,15 +5600,15 @@
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="E34" s="71"/>
-      <c r="F34" s="72"/>
-      <c r="G34" s="72"/>
-      <c r="H34" s="72"/>
-      <c r="I34" s="73"/>
+      <c r="E34" s="60"/>
+      <c r="F34" s="61"/>
+      <c r="G34" s="61"/>
+      <c r="H34" s="61"/>
+      <c r="I34" s="62"/>
     </row>
     <row r="35" spans="1:12" s="43" customFormat="1" ht="12">
       <c r="A35" s="40" t="s">
-        <v>60</v>
+        <v>29</v>
       </c>
       <c r="B35" s="41"/>
       <c r="C35" s="42"/>
@@ -5606,15 +5616,15 @@
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="E35" s="71"/>
-      <c r="F35" s="72"/>
-      <c r="G35" s="72"/>
-      <c r="H35" s="72"/>
-      <c r="I35" s="73"/>
+      <c r="E35" s="60"/>
+      <c r="F35" s="61"/>
+      <c r="G35" s="61"/>
+      <c r="H35" s="61"/>
+      <c r="I35" s="62"/>
     </row>
     <row r="36" spans="1:12" s="51" customFormat="1" ht="12">
       <c r="A36" s="48" t="s">
-        <v>61</v>
+        <v>30</v>
       </c>
       <c r="B36" s="49"/>
       <c r="C36" s="50"/>
@@ -5622,15 +5632,15 @@
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="E36" s="77"/>
-      <c r="F36" s="75"/>
-      <c r="G36" s="75"/>
-      <c r="H36" s="75"/>
-      <c r="I36" s="76"/>
+      <c r="E36" s="57"/>
+      <c r="F36" s="58"/>
+      <c r="G36" s="58"/>
+      <c r="H36" s="58"/>
+      <c r="I36" s="59"/>
     </row>
     <row r="37" spans="1:12" s="51" customFormat="1" ht="12">
       <c r="A37" s="48" t="s">
-        <v>62</v>
+        <v>31</v>
       </c>
       <c r="B37" s="49"/>
       <c r="C37" s="50"/>
@@ -5638,15 +5648,15 @@
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="E37" s="77"/>
-      <c r="F37" s="75"/>
-      <c r="G37" s="75"/>
-      <c r="H37" s="75"/>
-      <c r="I37" s="76"/>
+      <c r="E37" s="57"/>
+      <c r="F37" s="58"/>
+      <c r="G37" s="58"/>
+      <c r="H37" s="58"/>
+      <c r="I37" s="59"/>
     </row>
     <row r="38" spans="1:12" s="43" customFormat="1" ht="12">
       <c r="A38" s="40" t="s">
-        <v>63</v>
+        <v>32</v>
       </c>
       <c r="B38" s="41"/>
       <c r="C38" s="42"/>
@@ -5654,15 +5664,15 @@
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="E38" s="71"/>
-      <c r="F38" s="72"/>
-      <c r="G38" s="72"/>
-      <c r="H38" s="72"/>
-      <c r="I38" s="73"/>
+      <c r="E38" s="60"/>
+      <c r="F38" s="61"/>
+      <c r="G38" s="61"/>
+      <c r="H38" s="61"/>
+      <c r="I38" s="62"/>
     </row>
     <row r="39" spans="1:12" s="43" customFormat="1" ht="12">
       <c r="A39" s="40" t="s">
-        <v>64</v>
+        <v>33</v>
       </c>
       <c r="B39" s="41"/>
       <c r="C39" s="42"/>
@@ -5670,15 +5680,15 @@
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="E39" s="71"/>
-      <c r="F39" s="72"/>
-      <c r="G39" s="72"/>
-      <c r="H39" s="72"/>
-      <c r="I39" s="73"/>
+      <c r="E39" s="60"/>
+      <c r="F39" s="61"/>
+      <c r="G39" s="61"/>
+      <c r="H39" s="61"/>
+      <c r="I39" s="62"/>
     </row>
     <row r="40" spans="1:12" s="43" customFormat="1" ht="12">
       <c r="A40" s="40" t="s">
-        <v>65</v>
+        <v>34</v>
       </c>
       <c r="B40" s="41"/>
       <c r="C40" s="42"/>
@@ -5686,15 +5696,15 @@
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="E40" s="71"/>
-      <c r="F40" s="72"/>
-      <c r="G40" s="72"/>
-      <c r="H40" s="72"/>
-      <c r="I40" s="73"/>
+      <c r="E40" s="60"/>
+      <c r="F40" s="61"/>
+      <c r="G40" s="61"/>
+      <c r="H40" s="61"/>
+      <c r="I40" s="62"/>
     </row>
     <row r="41" spans="1:12" s="43" customFormat="1" ht="12">
       <c r="A41" s="40" t="s">
-        <v>66</v>
+        <v>35</v>
       </c>
       <c r="B41" s="41"/>
       <c r="C41" s="42"/>
@@ -5702,15 +5712,15 @@
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="E41" s="71"/>
-      <c r="F41" s="72"/>
-      <c r="G41" s="72"/>
-      <c r="H41" s="72"/>
-      <c r="I41" s="73"/>
+      <c r="E41" s="60"/>
+      <c r="F41" s="61"/>
+      <c r="G41" s="61"/>
+      <c r="H41" s="61"/>
+      <c r="I41" s="62"/>
     </row>
     <row r="42" spans="1:12" s="43" customFormat="1" ht="12">
       <c r="A42" s="40" t="s">
-        <v>67</v>
+        <v>36</v>
       </c>
       <c r="B42" s="41"/>
       <c r="C42" s="42"/>
@@ -5718,15 +5728,15 @@
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="E42" s="71"/>
-      <c r="F42" s="72"/>
-      <c r="G42" s="72"/>
-      <c r="H42" s="72"/>
-      <c r="I42" s="73"/>
+      <c r="E42" s="60"/>
+      <c r="F42" s="61"/>
+      <c r="G42" s="61"/>
+      <c r="H42" s="61"/>
+      <c r="I42" s="62"/>
     </row>
     <row r="43" spans="1:12" s="51" customFormat="1" ht="12">
       <c r="A43" s="48" t="s">
-        <v>68</v>
+        <v>37</v>
       </c>
       <c r="B43" s="49"/>
       <c r="C43" s="50"/>
@@ -5734,15 +5744,15 @@
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="E43" s="77"/>
-      <c r="F43" s="75"/>
-      <c r="G43" s="75"/>
-      <c r="H43" s="75"/>
-      <c r="I43" s="76"/>
+      <c r="E43" s="57"/>
+      <c r="F43" s="58"/>
+      <c r="G43" s="58"/>
+      <c r="H43" s="58"/>
+      <c r="I43" s="59"/>
     </row>
     <row r="44" spans="1:12" s="51" customFormat="1" ht="12">
       <c r="A44" s="48" t="s">
-        <v>69</v>
+        <v>38</v>
       </c>
       <c r="B44" s="49"/>
       <c r="C44" s="50"/>
@@ -5750,15 +5760,15 @@
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="E44" s="77"/>
-      <c r="F44" s="75"/>
-      <c r="G44" s="75"/>
-      <c r="H44" s="75"/>
-      <c r="I44" s="76"/>
+      <c r="E44" s="57"/>
+      <c r="F44" s="58"/>
+      <c r="G44" s="58"/>
+      <c r="H44" s="58"/>
+      <c r="I44" s="59"/>
     </row>
     <row r="45" spans="1:12" s="39" customFormat="1" ht="12">
       <c r="A45" s="36" t="s">
-        <v>70</v>
+        <v>39</v>
       </c>
       <c r="B45" s="37"/>
       <c r="C45" s="38"/>
@@ -5774,7 +5784,7 @@
     </row>
     <row r="46" spans="1:12" s="39" customFormat="1" ht="12">
       <c r="A46" s="36" t="s">
-        <v>86</v>
+        <v>55</v>
       </c>
       <c r="B46" s="37"/>
       <c r="C46" s="38"/>
@@ -5818,6 +5828,44 @@
     </row>
   </sheetData>
   <mergeCells count="51">
+    <mergeCell ref="A1:I1"/>
+    <mergeCell ref="A2:I2"/>
+    <mergeCell ref="A3:H3"/>
+    <mergeCell ref="A4:I4"/>
+    <mergeCell ref="A5:C5"/>
+    <mergeCell ref="D5:H5"/>
+    <mergeCell ref="A6:I6"/>
+    <mergeCell ref="A7:C7"/>
+    <mergeCell ref="D7:H7"/>
+    <mergeCell ref="A8:I8"/>
+    <mergeCell ref="A9:C9"/>
+    <mergeCell ref="D9:H9"/>
+    <mergeCell ref="A10:I10"/>
+    <mergeCell ref="A13:A15"/>
+    <mergeCell ref="B13:I13"/>
+    <mergeCell ref="B14:C14"/>
+    <mergeCell ref="D14:D15"/>
+    <mergeCell ref="E14:I15"/>
+    <mergeCell ref="E16:I16"/>
+    <mergeCell ref="E17:I17"/>
+    <mergeCell ref="E18:I18"/>
+    <mergeCell ref="E19:I19"/>
+    <mergeCell ref="E20:I20"/>
+    <mergeCell ref="E21:I21"/>
+    <mergeCell ref="E22:I22"/>
+    <mergeCell ref="E23:I23"/>
+    <mergeCell ref="E24:I24"/>
+    <mergeCell ref="E25:I25"/>
+    <mergeCell ref="E26:I26"/>
+    <mergeCell ref="E27:I27"/>
+    <mergeCell ref="E28:I28"/>
+    <mergeCell ref="E29:I29"/>
+    <mergeCell ref="E30:I30"/>
+    <mergeCell ref="E31:I31"/>
+    <mergeCell ref="E32:I32"/>
+    <mergeCell ref="E33:I33"/>
+    <mergeCell ref="E34:I34"/>
+    <mergeCell ref="E35:I35"/>
     <mergeCell ref="E36:I36"/>
     <mergeCell ref="E37:I37"/>
     <mergeCell ref="E38:I38"/>
@@ -5831,44 +5879,6 @@
     <mergeCell ref="E44:I44"/>
     <mergeCell ref="E46:I46"/>
     <mergeCell ref="E45:I45"/>
-    <mergeCell ref="E31:I31"/>
-    <mergeCell ref="E32:I32"/>
-    <mergeCell ref="E33:I33"/>
-    <mergeCell ref="E34:I34"/>
-    <mergeCell ref="E35:I35"/>
-    <mergeCell ref="E26:I26"/>
-    <mergeCell ref="E27:I27"/>
-    <mergeCell ref="E28:I28"/>
-    <mergeCell ref="E29:I29"/>
-    <mergeCell ref="E30:I30"/>
-    <mergeCell ref="E21:I21"/>
-    <mergeCell ref="E22:I22"/>
-    <mergeCell ref="E23:I23"/>
-    <mergeCell ref="E24:I24"/>
-    <mergeCell ref="E25:I25"/>
-    <mergeCell ref="E16:I16"/>
-    <mergeCell ref="E17:I17"/>
-    <mergeCell ref="E18:I18"/>
-    <mergeCell ref="E19:I19"/>
-    <mergeCell ref="E20:I20"/>
-    <mergeCell ref="A10:I10"/>
-    <mergeCell ref="A13:A15"/>
-    <mergeCell ref="B13:I13"/>
-    <mergeCell ref="B14:C14"/>
-    <mergeCell ref="D14:D15"/>
-    <mergeCell ref="E14:I15"/>
-    <mergeCell ref="A6:I6"/>
-    <mergeCell ref="A7:C7"/>
-    <mergeCell ref="D7:H7"/>
-    <mergeCell ref="A8:I8"/>
-    <mergeCell ref="A9:C9"/>
-    <mergeCell ref="D9:H9"/>
-    <mergeCell ref="A1:I1"/>
-    <mergeCell ref="A2:I2"/>
-    <mergeCell ref="A3:H3"/>
-    <mergeCell ref="A4:I4"/>
-    <mergeCell ref="A5:C5"/>
-    <mergeCell ref="D5:H5"/>
   </mergeCells>
   <phoneticPr fontId="32" type="noConversion"/>
   <printOptions horizontalCentered="1"/>

--- a/TimeSheetTemplate.xlsx
+++ b/TimeSheetTemplate.xlsx
@@ -36,7 +36,103 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="215" uniqueCount="93">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="216" uniqueCount="94">
+  <si>
+    <t>Troubleshoot Windows 10 crash (5 hours personal time)</t>
+    <phoneticPr fontId="32" type="noConversion"/>
+  </si>
+  <si>
+    <t>Plan out Pecha Kucha Slides</t>
+    <phoneticPr fontId="32" type="noConversion"/>
+  </si>
+  <si>
+    <t>Work on download script issues</t>
+    <phoneticPr fontId="32" type="noConversion"/>
+  </si>
+  <si>
+    <t>I3 class and update meeting</t>
+    <phoneticPr fontId="32" type="noConversion"/>
+  </si>
+  <si>
+    <t>Python docs -- brainstorming solutions for all scripts</t>
+    <phoneticPr fontId="32" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">Monthly timesheet for MSc Geoinformatics IP </t>
+    <phoneticPr fontId="32" type="noConversion"/>
+  </si>
+  <si>
+    <t>Set up Landsat image transfer (~70 images) for possible use case with Martin inc</t>
+    <phoneticPr fontId="32" type="noConversion"/>
+  </si>
+  <si>
+    <t>Project Management class, part II</t>
+    <phoneticPr fontId="32" type="noConversion"/>
+  </si>
+  <si>
+    <t>Work on first draft of Risk Matrix, Gantt and PERT Charts in ProjectLibre</t>
+    <phoneticPr fontId="32" type="noConversion"/>
+  </si>
+  <si>
+    <t>Deal with GDAL problem in Windows -- still unresolved; work on conversion script</t>
+    <phoneticPr fontId="32" type="noConversion"/>
+  </si>
+  <si>
+    <t>Finish first draft of conversion script -- send to Tiede and Sudmanns for review</t>
+    <phoneticPr fontId="32" type="noConversion"/>
+  </si>
+  <si>
+    <t>Fixed a few issues with the download script (cloud cover percentage, kml)</t>
+    <phoneticPr fontId="32" type="noConversion"/>
+  </si>
+  <si>
+    <t>Get familiar with numpy, gdal and scipy</t>
+    <phoneticPr fontId="32" type="noConversion"/>
+  </si>
+  <si>
+    <t>Learn to manipulate rasters as arrays with numpy, gdal and scipy.</t>
+    <phoneticPr fontId="32" type="noConversion"/>
+  </si>
+  <si>
+    <t>Learn Git, create GitHub repository, including excel documents</t>
+    <phoneticPr fontId="32" type="noConversion"/>
+  </si>
+  <si>
+    <t>ProjectLibre Tutorials and improving charts</t>
+    <phoneticPr fontId="32" type="noConversion"/>
+  </si>
+  <si>
+    <t>Sort out problem with Python on Mac (Canopy software deinstallation)</t>
+    <phoneticPr fontId="32" type="noConversion"/>
+  </si>
+  <si>
+    <t>Python Tutorial</t>
+    <phoneticPr fontId="32" type="noConversion"/>
+  </si>
+  <si>
+    <t>Python Tutorial</t>
+    <phoneticPr fontId="32" type="noConversion"/>
+  </si>
+  <si>
+    <t>Developing possible use-case during Hackathon, with Martin Sudmanns and team</t>
+    <phoneticPr fontId="32" type="noConversion"/>
+  </si>
+  <si>
+    <t>CLI CodeAcademy course; introduction to Git</t>
+    <phoneticPr fontId="32" type="noConversion"/>
+  </si>
+  <si>
+    <t>Read Processing scripts, brainstorm solutions</t>
+    <phoneticPr fontId="32" type="noConversion"/>
+  </si>
+  <si>
+    <t>Work on extended abstract -- mostly citations in Zotero</t>
+    <phoneticPr fontId="32" type="noConversion"/>
+  </si>
+  <si>
+    <t>Comput statistics (needs testing)</t>
+    <phoneticPr fontId="32" type="noConversion"/>
+  </si>
   <si>
     <t>Work on extended abstract</t>
     <phoneticPr fontId="32" type="noConversion"/>
@@ -279,98 +375,6 @@
   </si>
   <si>
     <t>Meeting with I3 Professors and editing abstract, incl. travel time</t>
-    <phoneticPr fontId="32" type="noConversion"/>
-  </si>
-  <si>
-    <t>Troubleshoot Windows 10 crash (5 hours personal time)</t>
-    <phoneticPr fontId="32" type="noConversion"/>
-  </si>
-  <si>
-    <t>Plan out Pecha Kucha Slides</t>
-    <phoneticPr fontId="32" type="noConversion"/>
-  </si>
-  <si>
-    <t>Work on download script issues</t>
-    <phoneticPr fontId="32" type="noConversion"/>
-  </si>
-  <si>
-    <t>I3 class and update meeting</t>
-    <phoneticPr fontId="32" type="noConversion"/>
-  </si>
-  <si>
-    <t>Python docs -- brainstorming solutions for all scripts</t>
-    <phoneticPr fontId="32" type="noConversion"/>
-  </si>
-  <si>
-    <t xml:space="preserve">Monthly timesheet for MSc Geoinformatics IP </t>
-    <phoneticPr fontId="32" type="noConversion"/>
-  </si>
-  <si>
-    <t>Set up Landsat image transfer (~70 images) for possible use case with Martin inc</t>
-    <phoneticPr fontId="32" type="noConversion"/>
-  </si>
-  <si>
-    <t>Project Management class, part II</t>
-    <phoneticPr fontId="32" type="noConversion"/>
-  </si>
-  <si>
-    <t>Work on first draft of Risk Matrix, Gantt and PERT Charts in ProjectLibre</t>
-    <phoneticPr fontId="32" type="noConversion"/>
-  </si>
-  <si>
-    <t>Deal with GDAL problem in Windows -- still unresolved; work on conversion script</t>
-    <phoneticPr fontId="32" type="noConversion"/>
-  </si>
-  <si>
-    <t>Finish first draft of conversion script -- send to Tiede and Sudmanns for review</t>
-    <phoneticPr fontId="32" type="noConversion"/>
-  </si>
-  <si>
-    <t>Fixed a few issues with the download script (cloud cover percentage, kml)</t>
-    <phoneticPr fontId="32" type="noConversion"/>
-  </si>
-  <si>
-    <t>Get familiar with numpy, gdal and scipy</t>
-    <phoneticPr fontId="32" type="noConversion"/>
-  </si>
-  <si>
-    <t>Learn to manipulate rasters as arrays with numpy, gdal and scipy.</t>
-    <phoneticPr fontId="32" type="noConversion"/>
-  </si>
-  <si>
-    <t>Learn Git, create GitHub repository, including excel documents</t>
-    <phoneticPr fontId="32" type="noConversion"/>
-  </si>
-  <si>
-    <t>ProjectLibre Tutorials and improving charts</t>
-    <phoneticPr fontId="32" type="noConversion"/>
-  </si>
-  <si>
-    <t>Sort out problem with Python on Mac (Canopy software deinstallation)</t>
-    <phoneticPr fontId="32" type="noConversion"/>
-  </si>
-  <si>
-    <t>Python Tutorial</t>
-    <phoneticPr fontId="32" type="noConversion"/>
-  </si>
-  <si>
-    <t>Python Tutorial</t>
-    <phoneticPr fontId="32" type="noConversion"/>
-  </si>
-  <si>
-    <t>Developing possible use-case during Hackathon, with Martin Sudmanns and team</t>
-    <phoneticPr fontId="32" type="noConversion"/>
-  </si>
-  <si>
-    <t>CLI CodeAcademy course; introduction to Git</t>
-    <phoneticPr fontId="32" type="noConversion"/>
-  </si>
-  <si>
-    <t>Read Processing scripts, brainstorm solutions</t>
-    <phoneticPr fontId="32" type="noConversion"/>
-  </si>
-  <si>
-    <t>Work on extended abstract -- mostly citations in Zotero</t>
     <phoneticPr fontId="32" type="noConversion"/>
   </si>
 </sst>
@@ -1282,7 +1286,58 @@
     <xf numFmtId="166" fontId="0" fillId="0" borderId="20" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="166" fontId="0" fillId="0" borderId="11" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="166" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="24" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="24" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="25" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="26" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="4" borderId="24" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="25" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -1291,26 +1346,7 @@
     <xf numFmtId="0" fontId="0" fillId="4" borderId="26" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="24" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="25" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="26" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1"/>
-    </xf>
-    <xf numFmtId="167" fontId="10" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="167" fontId="10" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="167" fontId="11" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="167" fontId="11" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="5" fillId="4" borderId="24" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="24" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="10" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -1359,48 +1395,16 @@
     <xf numFmtId="0" fontId="10" fillId="0" borderId="23" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="167" fontId="10" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1"/>
-    </xf>
+    <xf numFmtId="167" fontId="10" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="167" fontId="11" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="167" fontId="11" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="167" fontId="11" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -1884,17 +1888,17 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:50" s="7" customFormat="1" ht="18" thickBot="1">
-      <c r="A1" s="84" t="s">
-        <v>75</v>
-      </c>
-      <c r="B1" s="84"/>
-      <c r="C1" s="84"/>
-      <c r="D1" s="84"/>
-      <c r="E1" s="84"/>
-      <c r="F1" s="84"/>
-      <c r="G1" s="84"/>
-      <c r="H1" s="84"/>
-      <c r="I1" s="84"/>
+      <c r="A1" s="66" t="s">
+        <v>5</v>
+      </c>
+      <c r="B1" s="66"/>
+      <c r="C1" s="66"/>
+      <c r="D1" s="66"/>
+      <c r="E1" s="66"/>
+      <c r="F1" s="66"/>
+      <c r="G1" s="66"/>
+      <c r="H1" s="66"/>
+      <c r="I1" s="66"/>
       <c r="J1" s="8"/>
       <c r="K1" s="8"/>
       <c r="L1" s="8"/>
@@ -1937,15 +1941,15 @@
       <c r="AW1" s="8"/>
     </row>
     <row r="2" spans="1:50" s="1" customFormat="1" ht="7.5" customHeight="1">
-      <c r="A2" s="85"/>
-      <c r="B2" s="85"/>
-      <c r="C2" s="85"/>
-      <c r="D2" s="85"/>
-      <c r="E2" s="85"/>
-      <c r="F2" s="85"/>
-      <c r="G2" s="85"/>
-      <c r="H2" s="85"/>
-      <c r="I2" s="85"/>
+      <c r="A2" s="67"/>
+      <c r="B2" s="67"/>
+      <c r="C2" s="67"/>
+      <c r="D2" s="67"/>
+      <c r="E2" s="67"/>
+      <c r="F2" s="67"/>
+      <c r="G2" s="67"/>
+      <c r="H2" s="67"/>
+      <c r="I2" s="67"/>
       <c r="J2" s="9"/>
       <c r="K2" s="9"/>
       <c r="L2" s="9"/>
@@ -1988,16 +1992,16 @@
       <c r="AW2" s="9"/>
     </row>
     <row r="3" spans="1:50" s="11" customFormat="1" ht="13.5" customHeight="1">
-      <c r="A3" s="86" t="s">
-        <v>47</v>
-      </c>
-      <c r="B3" s="86"/>
-      <c r="C3" s="86"/>
-      <c r="D3" s="86"/>
-      <c r="E3" s="86"/>
-      <c r="F3" s="86"/>
-      <c r="G3" s="86"/>
-      <c r="H3" s="86"/>
+      <c r="A3" s="68" t="s">
+        <v>71</v>
+      </c>
+      <c r="B3" s="68"/>
+      <c r="C3" s="68"/>
+      <c r="D3" s="68"/>
+      <c r="E3" s="68"/>
+      <c r="F3" s="68"/>
+      <c r="G3" s="68"/>
+      <c r="H3" s="68"/>
       <c r="I3" s="23"/>
       <c r="J3" s="22"/>
       <c r="K3" s="22"/>
@@ -2042,29 +2046,29 @@
       <c r="AX3" s="10"/>
     </row>
     <row r="4" spans="1:50" s="6" customFormat="1" ht="9" customHeight="1">
-      <c r="A4" s="87"/>
-      <c r="B4" s="87"/>
-      <c r="C4" s="87"/>
-      <c r="D4" s="87"/>
-      <c r="E4" s="87"/>
-      <c r="F4" s="87"/>
-      <c r="G4" s="87"/>
-      <c r="H4" s="87"/>
-      <c r="I4" s="87"/>
+      <c r="A4" s="69"/>
+      <c r="B4" s="69"/>
+      <c r="C4" s="69"/>
+      <c r="D4" s="69"/>
+      <c r="E4" s="69"/>
+      <c r="F4" s="69"/>
+      <c r="G4" s="69"/>
+      <c r="H4" s="69"/>
+      <c r="I4" s="69"/>
     </row>
     <row r="5" spans="1:50" s="1" customFormat="1" ht="13.75" customHeight="1">
-      <c r="A5" s="94" t="s">
-        <v>44</v>
-      </c>
-      <c r="B5" s="95"/>
-      <c r="C5" s="95"/>
-      <c r="D5" s="90" t="s">
-        <v>50</v>
-      </c>
-      <c r="E5" s="91"/>
-      <c r="F5" s="91"/>
-      <c r="G5" s="91"/>
-      <c r="H5" s="92"/>
+      <c r="A5" s="62" t="s">
+        <v>68</v>
+      </c>
+      <c r="B5" s="63"/>
+      <c r="C5" s="63"/>
+      <c r="D5" s="58" t="s">
+        <v>74</v>
+      </c>
+      <c r="E5" s="59"/>
+      <c r="F5" s="59"/>
+      <c r="G5" s="59"/>
+      <c r="H5" s="60"/>
       <c r="I5" s="23"/>
       <c r="J5" s="9"/>
       <c r="K5" s="9"/>
@@ -2072,77 +2076,77 @@
       <c r="M5" s="9"/>
     </row>
     <row r="6" spans="1:50" s="1" customFormat="1" ht="7.5" customHeight="1">
-      <c r="A6" s="96"/>
-      <c r="B6" s="96"/>
-      <c r="C6" s="96"/>
-      <c r="D6" s="96"/>
-      <c r="E6" s="96"/>
-      <c r="F6" s="96"/>
-      <c r="G6" s="96"/>
-      <c r="H6" s="96"/>
-      <c r="I6" s="96"/>
+      <c r="A6" s="64"/>
+      <c r="B6" s="64"/>
+      <c r="C6" s="64"/>
+      <c r="D6" s="64"/>
+      <c r="E6" s="64"/>
+      <c r="F6" s="64"/>
+      <c r="G6" s="64"/>
+      <c r="H6" s="64"/>
+      <c r="I6" s="64"/>
     </row>
     <row r="7" spans="1:50" s="1" customFormat="1" ht="13.75" customHeight="1">
-      <c r="A7" s="89" t="s">
-        <v>48</v>
-      </c>
-      <c r="B7" s="89"/>
-      <c r="C7" s="89"/>
-      <c r="D7" s="97" t="s">
-        <v>51</v>
-      </c>
-      <c r="E7" s="97"/>
-      <c r="F7" s="97"/>
-      <c r="G7" s="97"/>
-      <c r="H7" s="97"/>
+      <c r="A7" s="57" t="s">
+        <v>72</v>
+      </c>
+      <c r="B7" s="57"/>
+      <c r="C7" s="57"/>
+      <c r="D7" s="65" t="s">
+        <v>75</v>
+      </c>
+      <c r="E7" s="65"/>
+      <c r="F7" s="65"/>
+      <c r="G7" s="65"/>
+      <c r="H7" s="65"/>
       <c r="I7" s="24"/>
     </row>
     <row r="8" spans="1:50" s="1" customFormat="1" ht="7.5" customHeight="1">
-      <c r="A8" s="88"/>
-      <c r="B8" s="88"/>
-      <c r="C8" s="88"/>
-      <c r="D8" s="88"/>
-      <c r="E8" s="88"/>
-      <c r="F8" s="88"/>
-      <c r="G8" s="88"/>
-      <c r="H8" s="88"/>
-      <c r="I8" s="88"/>
+      <c r="A8" s="70"/>
+      <c r="B8" s="70"/>
+      <c r="C8" s="70"/>
+      <c r="D8" s="70"/>
+      <c r="E8" s="70"/>
+      <c r="F8" s="70"/>
+      <c r="G8" s="70"/>
+      <c r="H8" s="70"/>
+      <c r="I8" s="70"/>
     </row>
     <row r="9" spans="1:50" s="1" customFormat="1" ht="13.75" customHeight="1">
-      <c r="A9" s="89" t="s">
-        <v>49</v>
-      </c>
-      <c r="B9" s="89"/>
-      <c r="C9" s="89"/>
-      <c r="D9" s="90" t="s">
-        <v>52</v>
-      </c>
-      <c r="E9" s="91"/>
-      <c r="F9" s="91"/>
-      <c r="G9" s="91"/>
-      <c r="H9" s="92"/>
+      <c r="A9" s="57" t="s">
+        <v>73</v>
+      </c>
+      <c r="B9" s="57"/>
+      <c r="C9" s="57"/>
+      <c r="D9" s="58" t="s">
+        <v>76</v>
+      </c>
+      <c r="E9" s="59"/>
+      <c r="F9" s="59"/>
+      <c r="G9" s="59"/>
+      <c r="H9" s="60"/>
       <c r="I9" s="24"/>
       <c r="J9" s="15"/>
     </row>
     <row r="10" spans="1:50" s="1" customFormat="1" ht="7.5" customHeight="1">
-      <c r="A10" s="93"/>
-      <c r="B10" s="93"/>
-      <c r="C10" s="93"/>
-      <c r="D10" s="93"/>
-      <c r="E10" s="93"/>
-      <c r="F10" s="93"/>
-      <c r="G10" s="93"/>
-      <c r="H10" s="93"/>
-      <c r="I10" s="93"/>
+      <c r="A10" s="61"/>
+      <c r="B10" s="61"/>
+      <c r="C10" s="61"/>
+      <c r="D10" s="61"/>
+      <c r="E10" s="61"/>
+      <c r="F10" s="61"/>
+      <c r="G10" s="61"/>
+      <c r="H10" s="61"/>
+      <c r="I10" s="61"/>
     </row>
     <row r="11" spans="1:50" s="1" customFormat="1" ht="12">
       <c r="A11" s="21" t="s">
-        <v>45</v>
+        <v>69</v>
       </c>
       <c r="B11" s="21"/>
       <c r="C11" s="21"/>
       <c r="D11" s="21" t="s">
-        <v>53</v>
+        <v>77</v>
       </c>
       <c r="E11" s="21"/>
       <c r="F11" s="21"/>
@@ -2162,55 +2166,55 @@
       <c r="I12" s="26"/>
     </row>
     <row r="13" spans="1:50" s="2" customFormat="1" ht="15.5" customHeight="1">
-      <c r="A13" s="68" t="s">
-        <v>2</v>
-      </c>
-      <c r="B13" s="71" t="s">
-        <v>41</v>
-      </c>
-      <c r="C13" s="72"/>
-      <c r="D13" s="72"/>
-      <c r="E13" s="72"/>
-      <c r="F13" s="72"/>
-      <c r="G13" s="72"/>
-      <c r="H13" s="72"/>
-      <c r="I13" s="73"/>
+      <c r="A13" s="78" t="s">
+        <v>26</v>
+      </c>
+      <c r="B13" s="81" t="s">
+        <v>65</v>
+      </c>
+      <c r="C13" s="82"/>
+      <c r="D13" s="82"/>
+      <c r="E13" s="82"/>
+      <c r="F13" s="82"/>
+      <c r="G13" s="82"/>
+      <c r="H13" s="82"/>
+      <c r="I13" s="83"/>
     </row>
     <row r="14" spans="1:50" s="2" customFormat="1" ht="13.75" customHeight="1">
-      <c r="A14" s="69"/>
-      <c r="B14" s="74" t="s">
-        <v>3</v>
-      </c>
-      <c r="C14" s="75"/>
-      <c r="D14" s="76" t="s">
-        <v>4</v>
-      </c>
-      <c r="E14" s="78" t="s">
-        <v>42</v>
-      </c>
-      <c r="F14" s="79"/>
-      <c r="G14" s="79"/>
-      <c r="H14" s="79"/>
-      <c r="I14" s="80"/>
+      <c r="A14" s="79"/>
+      <c r="B14" s="84" t="s">
+        <v>27</v>
+      </c>
+      <c r="C14" s="85"/>
+      <c r="D14" s="86" t="s">
+        <v>28</v>
+      </c>
+      <c r="E14" s="88" t="s">
+        <v>66</v>
+      </c>
+      <c r="F14" s="89"/>
+      <c r="G14" s="89"/>
+      <c r="H14" s="89"/>
+      <c r="I14" s="90"/>
     </row>
     <row r="15" spans="1:50" ht="13" customHeight="1">
-      <c r="A15" s="70"/>
+      <c r="A15" s="80"/>
       <c r="B15" s="32" t="s">
-        <v>5</v>
+        <v>29</v>
       </c>
       <c r="C15" s="33" t="s">
-        <v>6</v>
-      </c>
-      <c r="D15" s="77"/>
-      <c r="E15" s="81"/>
-      <c r="F15" s="82"/>
-      <c r="G15" s="82"/>
-      <c r="H15" s="82"/>
-      <c r="I15" s="83"/>
+        <v>30</v>
+      </c>
+      <c r="D15" s="87"/>
+      <c r="E15" s="91"/>
+      <c r="F15" s="92"/>
+      <c r="G15" s="92"/>
+      <c r="H15" s="92"/>
+      <c r="I15" s="93"/>
     </row>
     <row r="16" spans="1:50" s="51" customFormat="1" ht="12">
       <c r="A16" s="48" t="s">
-        <v>7</v>
+        <v>31</v>
       </c>
       <c r="B16" s="49">
         <v>0.33333333333333331</v>
@@ -2222,17 +2226,17 @@
         <f>C16-B16</f>
         <v>0.20833333333333331</v>
       </c>
-      <c r="E16" s="67" t="s">
-        <v>54</v>
-      </c>
-      <c r="F16" s="58"/>
-      <c r="G16" s="58"/>
-      <c r="H16" s="58"/>
-      <c r="I16" s="59"/>
+      <c r="E16" s="74" t="s">
+        <v>78</v>
+      </c>
+      <c r="F16" s="75"/>
+      <c r="G16" s="75"/>
+      <c r="H16" s="75"/>
+      <c r="I16" s="76"/>
     </row>
     <row r="17" spans="1:9" s="51" customFormat="1" ht="12">
       <c r="A17" s="48" t="s">
-        <v>8</v>
+        <v>32</v>
       </c>
       <c r="B17" s="49"/>
       <c r="C17" s="50"/>
@@ -2240,15 +2244,15 @@
         <f t="shared" ref="D17:D49" si="0">C17-B17</f>
         <v>0</v>
       </c>
-      <c r="E17" s="57"/>
-      <c r="F17" s="58"/>
-      <c r="G17" s="58"/>
-      <c r="H17" s="58"/>
-      <c r="I17" s="59"/>
+      <c r="E17" s="77"/>
+      <c r="F17" s="75"/>
+      <c r="G17" s="75"/>
+      <c r="H17" s="75"/>
+      <c r="I17" s="76"/>
     </row>
     <row r="18" spans="1:9" s="43" customFormat="1" ht="12">
       <c r="A18" s="40" t="s">
-        <v>9</v>
+        <v>33</v>
       </c>
       <c r="B18" s="41"/>
       <c r="C18" s="42"/>
@@ -2256,15 +2260,15 @@
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="E18" s="60"/>
-      <c r="F18" s="61"/>
-      <c r="G18" s="61"/>
-      <c r="H18" s="61"/>
-      <c r="I18" s="62"/>
+      <c r="E18" s="71"/>
+      <c r="F18" s="72"/>
+      <c r="G18" s="72"/>
+      <c r="H18" s="72"/>
+      <c r="I18" s="73"/>
     </row>
     <row r="19" spans="1:9" s="43" customFormat="1" ht="12">
       <c r="A19" s="40" t="s">
-        <v>10</v>
+        <v>34</v>
       </c>
       <c r="B19" s="41">
         <v>0.66666666666666663</v>
@@ -2276,17 +2280,17 @@
         <f t="shared" si="0"/>
         <v>4.1666666666666741E-2</v>
       </c>
-      <c r="E19" s="60" t="s">
-        <v>56</v>
-      </c>
-      <c r="F19" s="61"/>
-      <c r="G19" s="61"/>
-      <c r="H19" s="61"/>
-      <c r="I19" s="62"/>
+      <c r="E19" s="71" t="s">
+        <v>80</v>
+      </c>
+      <c r="F19" s="72"/>
+      <c r="G19" s="72"/>
+      <c r="H19" s="72"/>
+      <c r="I19" s="73"/>
     </row>
     <row r="20" spans="1:9" s="43" customFormat="1" ht="12">
       <c r="A20" s="40" t="s">
-        <v>11</v>
+        <v>35</v>
       </c>
       <c r="B20" s="41"/>
       <c r="C20" s="42"/>
@@ -2294,15 +2298,15 @@
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="E20" s="60"/>
-      <c r="F20" s="61"/>
-      <c r="G20" s="61"/>
-      <c r="H20" s="61"/>
-      <c r="I20" s="62"/>
+      <c r="E20" s="71"/>
+      <c r="F20" s="72"/>
+      <c r="G20" s="72"/>
+      <c r="H20" s="72"/>
+      <c r="I20" s="73"/>
     </row>
     <row r="21" spans="1:9" s="43" customFormat="1" ht="12">
       <c r="A21" s="40" t="s">
-        <v>12</v>
+        <v>36</v>
       </c>
       <c r="B21" s="41"/>
       <c r="C21" s="42"/>
@@ -2310,15 +2314,15 @@
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="E21" s="60"/>
-      <c r="F21" s="61"/>
-      <c r="G21" s="61"/>
-      <c r="H21" s="61"/>
-      <c r="I21" s="62"/>
+      <c r="E21" s="71"/>
+      <c r="F21" s="72"/>
+      <c r="G21" s="72"/>
+      <c r="H21" s="72"/>
+      <c r="I21" s="73"/>
     </row>
     <row r="22" spans="1:9" s="43" customFormat="1" ht="12">
       <c r="A22" s="40" t="s">
-        <v>13</v>
+        <v>37</v>
       </c>
       <c r="B22" s="41"/>
       <c r="C22" s="42"/>
@@ -2326,15 +2330,15 @@
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="E22" s="60"/>
-      <c r="F22" s="61"/>
-      <c r="G22" s="61"/>
-      <c r="H22" s="61"/>
-      <c r="I22" s="62"/>
+      <c r="E22" s="71"/>
+      <c r="F22" s="72"/>
+      <c r="G22" s="72"/>
+      <c r="H22" s="72"/>
+      <c r="I22" s="73"/>
     </row>
     <row r="23" spans="1:9" s="51" customFormat="1" ht="12">
       <c r="A23" s="48" t="s">
-        <v>14</v>
+        <v>38</v>
       </c>
       <c r="B23" s="49"/>
       <c r="C23" s="50"/>
@@ -2342,15 +2346,15 @@
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="E23" s="57"/>
-      <c r="F23" s="58"/>
-      <c r="G23" s="58"/>
-      <c r="H23" s="58"/>
-      <c r="I23" s="59"/>
+      <c r="E23" s="77"/>
+      <c r="F23" s="75"/>
+      <c r="G23" s="75"/>
+      <c r="H23" s="75"/>
+      <c r="I23" s="76"/>
     </row>
     <row r="24" spans="1:9" s="51" customFormat="1" ht="12">
       <c r="A24" s="48" t="s">
-        <v>15</v>
+        <v>39</v>
       </c>
       <c r="B24" s="49">
         <v>0.5</v>
@@ -2362,17 +2366,17 @@
         <f t="shared" si="0"/>
         <v>8.333333333333337E-2</v>
       </c>
-      <c r="E24" s="57" t="s">
-        <v>65</v>
-      </c>
-      <c r="F24" s="58"/>
-      <c r="G24" s="58"/>
-      <c r="H24" s="58"/>
-      <c r="I24" s="59"/>
+      <c r="E24" s="77" t="s">
+        <v>89</v>
+      </c>
+      <c r="F24" s="75"/>
+      <c r="G24" s="75"/>
+      <c r="H24" s="75"/>
+      <c r="I24" s="76"/>
     </row>
     <row r="25" spans="1:9" s="43" customFormat="1" ht="12">
       <c r="A25" s="40" t="s">
-        <v>16</v>
+        <v>40</v>
       </c>
       <c r="B25" s="41">
         <v>0.625</v>
@@ -2384,17 +2388,17 @@
         <f t="shared" si="0"/>
         <v>0.16666666666666663</v>
       </c>
-      <c r="E25" s="60" t="s">
-        <v>64</v>
-      </c>
-      <c r="F25" s="61"/>
-      <c r="G25" s="61"/>
-      <c r="H25" s="61"/>
-      <c r="I25" s="62"/>
+      <c r="E25" s="71" t="s">
+        <v>88</v>
+      </c>
+      <c r="F25" s="72"/>
+      <c r="G25" s="72"/>
+      <c r="H25" s="72"/>
+      <c r="I25" s="73"/>
     </row>
     <row r="26" spans="1:9" s="43" customFormat="1" ht="12">
       <c r="A26" s="40" t="s">
-        <v>17</v>
+        <v>41</v>
       </c>
       <c r="B26" s="41">
         <v>0.375</v>
@@ -2406,13 +2410,13 @@
         <f>C26-B26</f>
         <v>0.125</v>
       </c>
-      <c r="E26" s="60" t="s">
-        <v>76</v>
-      </c>
-      <c r="F26" s="61"/>
-      <c r="G26" s="61"/>
-      <c r="H26" s="61"/>
-      <c r="I26" s="62"/>
+      <c r="E26" s="71" t="s">
+        <v>6</v>
+      </c>
+      <c r="F26" s="72"/>
+      <c r="G26" s="72"/>
+      <c r="H26" s="72"/>
+      <c r="I26" s="73"/>
     </row>
     <row r="27" spans="1:9" s="43" customFormat="1" ht="12">
       <c r="A27" s="40"/>
@@ -2426,17 +2430,17 @@
         <f t="shared" si="0"/>
         <v>8.333333333333337E-2</v>
       </c>
-      <c r="E27" s="60" t="s">
-        <v>69</v>
-      </c>
-      <c r="F27" s="61"/>
-      <c r="G27" s="61"/>
-      <c r="H27" s="61"/>
-      <c r="I27" s="62"/>
+      <c r="E27" s="71" t="s">
+        <v>93</v>
+      </c>
+      <c r="F27" s="72"/>
+      <c r="G27" s="72"/>
+      <c r="H27" s="72"/>
+      <c r="I27" s="73"/>
     </row>
     <row r="28" spans="1:9" s="43" customFormat="1" ht="12">
       <c r="A28" s="40" t="s">
-        <v>18</v>
+        <v>42</v>
       </c>
       <c r="B28" s="41">
         <v>0.83333333333333337</v>
@@ -2448,17 +2452,17 @@
         <f t="shared" si="0"/>
         <v>0.125</v>
       </c>
-      <c r="E28" s="60" t="s">
-        <v>66</v>
-      </c>
-      <c r="F28" s="61"/>
-      <c r="G28" s="61"/>
-      <c r="H28" s="61"/>
-      <c r="I28" s="62"/>
+      <c r="E28" s="71" t="s">
+        <v>90</v>
+      </c>
+      <c r="F28" s="72"/>
+      <c r="G28" s="72"/>
+      <c r="H28" s="72"/>
+      <c r="I28" s="73"/>
     </row>
     <row r="29" spans="1:9" s="43" customFormat="1" ht="12">
       <c r="A29" s="40" t="s">
-        <v>19</v>
+        <v>43</v>
       </c>
       <c r="B29" s="41">
         <v>0.5</v>
@@ -2470,17 +2474,17 @@
         <f t="shared" si="0"/>
         <v>3.125E-2</v>
       </c>
-      <c r="E29" s="60" t="s">
-        <v>68</v>
-      </c>
-      <c r="F29" s="61"/>
-      <c r="G29" s="61"/>
-      <c r="H29" s="61"/>
-      <c r="I29" s="62"/>
+      <c r="E29" s="71" t="s">
+        <v>92</v>
+      </c>
+      <c r="F29" s="72"/>
+      <c r="G29" s="72"/>
+      <c r="H29" s="72"/>
+      <c r="I29" s="73"/>
     </row>
     <row r="30" spans="1:9" s="43" customFormat="1" ht="12">
       <c r="A30" s="40" t="s">
-        <v>20</v>
+        <v>44</v>
       </c>
       <c r="B30" s="41"/>
       <c r="C30" s="42"/>
@@ -2488,15 +2492,15 @@
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="E30" s="60"/>
-      <c r="F30" s="61"/>
-      <c r="G30" s="61"/>
-      <c r="H30" s="61"/>
-      <c r="I30" s="62"/>
+      <c r="E30" s="71"/>
+      <c r="F30" s="72"/>
+      <c r="G30" s="72"/>
+      <c r="H30" s="72"/>
+      <c r="I30" s="73"/>
     </row>
     <row r="31" spans="1:9" s="51" customFormat="1" ht="12">
       <c r="A31" s="48" t="s">
-        <v>21</v>
+        <v>45</v>
       </c>
       <c r="B31" s="49"/>
       <c r="C31" s="50"/>
@@ -2504,15 +2508,15 @@
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="E31" s="57"/>
-      <c r="F31" s="58"/>
-      <c r="G31" s="58"/>
-      <c r="H31" s="58"/>
-      <c r="I31" s="59"/>
+      <c r="E31" s="77"/>
+      <c r="F31" s="75"/>
+      <c r="G31" s="75"/>
+      <c r="H31" s="75"/>
+      <c r="I31" s="76"/>
     </row>
     <row r="32" spans="1:9" s="51" customFormat="1" ht="12">
       <c r="A32" s="48" t="s">
-        <v>22</v>
+        <v>46</v>
       </c>
       <c r="B32" s="49"/>
       <c r="C32" s="50"/>
@@ -2520,15 +2524,15 @@
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="E32" s="57"/>
-      <c r="F32" s="58"/>
-      <c r="G32" s="58"/>
-      <c r="H32" s="58"/>
-      <c r="I32" s="59"/>
+      <c r="E32" s="77"/>
+      <c r="F32" s="75"/>
+      <c r="G32" s="75"/>
+      <c r="H32" s="75"/>
+      <c r="I32" s="76"/>
     </row>
     <row r="33" spans="1:9" s="43" customFormat="1" ht="12">
       <c r="A33" s="40" t="s">
-        <v>23</v>
+        <v>47</v>
       </c>
       <c r="B33" s="41"/>
       <c r="C33" s="42"/>
@@ -2536,15 +2540,15 @@
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="E33" s="60"/>
-      <c r="F33" s="61"/>
-      <c r="G33" s="61"/>
-      <c r="H33" s="61"/>
-      <c r="I33" s="62"/>
+      <c r="E33" s="71"/>
+      <c r="F33" s="72"/>
+      <c r="G33" s="72"/>
+      <c r="H33" s="72"/>
+      <c r="I33" s="73"/>
     </row>
     <row r="34" spans="1:9" s="43" customFormat="1" ht="12">
       <c r="A34" s="40" t="s">
-        <v>27</v>
+        <v>51</v>
       </c>
       <c r="B34" s="41"/>
       <c r="C34" s="42"/>
@@ -2552,15 +2556,15 @@
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="E34" s="60"/>
-      <c r="F34" s="61"/>
-      <c r="G34" s="61"/>
-      <c r="H34" s="61"/>
-      <c r="I34" s="62"/>
+      <c r="E34" s="71"/>
+      <c r="F34" s="72"/>
+      <c r="G34" s="72"/>
+      <c r="H34" s="72"/>
+      <c r="I34" s="73"/>
     </row>
     <row r="35" spans="1:9" s="43" customFormat="1" ht="12">
       <c r="A35" s="40" t="s">
-        <v>28</v>
+        <v>52</v>
       </c>
       <c r="B35" s="41"/>
       <c r="C35" s="42"/>
@@ -2568,15 +2572,15 @@
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="E35" s="60"/>
-      <c r="F35" s="61"/>
-      <c r="G35" s="61"/>
-      <c r="H35" s="61"/>
-      <c r="I35" s="62"/>
+      <c r="E35" s="71"/>
+      <c r="F35" s="72"/>
+      <c r="G35" s="72"/>
+      <c r="H35" s="72"/>
+      <c r="I35" s="73"/>
     </row>
     <row r="36" spans="1:9" s="43" customFormat="1" ht="12">
       <c r="A36" s="40" t="s">
-        <v>29</v>
+        <v>53</v>
       </c>
       <c r="B36" s="41"/>
       <c r="C36" s="42"/>
@@ -2584,15 +2588,15 @@
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="E36" s="60"/>
-      <c r="F36" s="61"/>
-      <c r="G36" s="61"/>
-      <c r="H36" s="61"/>
-      <c r="I36" s="62"/>
+      <c r="E36" s="71"/>
+      <c r="F36" s="72"/>
+      <c r="G36" s="72"/>
+      <c r="H36" s="72"/>
+      <c r="I36" s="73"/>
     </row>
     <row r="37" spans="1:9" s="43" customFormat="1" ht="12">
       <c r="A37" s="40" t="s">
-        <v>30</v>
+        <v>54</v>
       </c>
       <c r="B37" s="41"/>
       <c r="C37" s="42"/>
@@ -2600,15 +2604,15 @@
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="E37" s="60"/>
-      <c r="F37" s="61"/>
-      <c r="G37" s="61"/>
-      <c r="H37" s="61"/>
-      <c r="I37" s="62"/>
+      <c r="E37" s="71"/>
+      <c r="F37" s="72"/>
+      <c r="G37" s="72"/>
+      <c r="H37" s="72"/>
+      <c r="I37" s="73"/>
     </row>
     <row r="38" spans="1:9" s="51" customFormat="1" ht="12">
       <c r="A38" s="48" t="s">
-        <v>31</v>
+        <v>55</v>
       </c>
       <c r="B38" s="49"/>
       <c r="C38" s="50"/>
@@ -2616,15 +2620,15 @@
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="E38" s="57"/>
-      <c r="F38" s="58"/>
-      <c r="G38" s="58"/>
-      <c r="H38" s="58"/>
-      <c r="I38" s="59"/>
+      <c r="E38" s="77"/>
+      <c r="F38" s="75"/>
+      <c r="G38" s="75"/>
+      <c r="H38" s="75"/>
+      <c r="I38" s="76"/>
     </row>
     <row r="39" spans="1:9" s="51" customFormat="1" ht="12">
       <c r="A39" s="48" t="s">
-        <v>32</v>
+        <v>56</v>
       </c>
       <c r="B39" s="49"/>
       <c r="C39" s="50"/>
@@ -2632,15 +2636,15 @@
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="E39" s="57"/>
-      <c r="F39" s="58"/>
-      <c r="G39" s="58"/>
-      <c r="H39" s="58"/>
-      <c r="I39" s="59"/>
+      <c r="E39" s="77"/>
+      <c r="F39" s="75"/>
+      <c r="G39" s="75"/>
+      <c r="H39" s="75"/>
+      <c r="I39" s="76"/>
     </row>
     <row r="40" spans="1:9" s="43" customFormat="1" ht="12">
       <c r="A40" s="40" t="s">
-        <v>33</v>
+        <v>57</v>
       </c>
       <c r="B40" s="41">
         <v>0.9375</v>
@@ -2652,17 +2656,17 @@
         <f t="shared" si="0"/>
         <v>4.166666666666663E-2</v>
       </c>
-      <c r="E40" s="60" t="s">
-        <v>67</v>
-      </c>
-      <c r="F40" s="61"/>
-      <c r="G40" s="61"/>
-      <c r="H40" s="61"/>
-      <c r="I40" s="62"/>
+      <c r="E40" s="71" t="s">
+        <v>91</v>
+      </c>
+      <c r="F40" s="72"/>
+      <c r="G40" s="72"/>
+      <c r="H40" s="72"/>
+      <c r="I40" s="73"/>
     </row>
     <row r="41" spans="1:9" s="43" customFormat="1" ht="12">
       <c r="A41" s="40" t="s">
-        <v>34</v>
+        <v>58</v>
       </c>
       <c r="B41" s="41">
         <v>0.41666666666666669</v>
@@ -2674,13 +2678,13 @@
         <f t="shared" si="0"/>
         <v>0.12499999999999994</v>
       </c>
-      <c r="E41" s="60" t="s">
-        <v>78</v>
-      </c>
-      <c r="F41" s="61"/>
-      <c r="G41" s="61"/>
-      <c r="H41" s="61"/>
-      <c r="I41" s="62"/>
+      <c r="E41" s="71" t="s">
+        <v>8</v>
+      </c>
+      <c r="F41" s="72"/>
+      <c r="G41" s="72"/>
+      <c r="H41" s="72"/>
+      <c r="I41" s="73"/>
     </row>
     <row r="42" spans="1:9" s="43" customFormat="1" ht="12">
       <c r="A42" s="40"/>
@@ -2694,13 +2698,13 @@
         <f t="shared" si="0"/>
         <v>0.16666666666666663</v>
       </c>
-      <c r="E42" s="60" t="s">
-        <v>77</v>
-      </c>
-      <c r="F42" s="61"/>
-      <c r="G42" s="61"/>
-      <c r="H42" s="61"/>
-      <c r="I42" s="62"/>
+      <c r="E42" s="71" t="s">
+        <v>7</v>
+      </c>
+      <c r="F42" s="72"/>
+      <c r="G42" s="72"/>
+      <c r="H42" s="72"/>
+      <c r="I42" s="73"/>
     </row>
     <row r="43" spans="1:9" s="43" customFormat="1" ht="12">
       <c r="A43" s="40"/>
@@ -2714,17 +2718,17 @@
         <f t="shared" si="0"/>
         <v>0.10416666666666663</v>
       </c>
-      <c r="E43" s="60" t="s">
-        <v>85</v>
-      </c>
-      <c r="F43" s="61"/>
-      <c r="G43" s="61"/>
-      <c r="H43" s="61"/>
-      <c r="I43" s="62"/>
+      <c r="E43" s="71" t="s">
+        <v>15</v>
+      </c>
+      <c r="F43" s="72"/>
+      <c r="G43" s="72"/>
+      <c r="H43" s="72"/>
+      <c r="I43" s="73"/>
     </row>
     <row r="44" spans="1:9" s="43" customFormat="1" ht="12">
       <c r="A44" s="40" t="s">
-        <v>35</v>
+        <v>59</v>
       </c>
       <c r="B44" s="41">
         <v>0.5</v>
@@ -2736,17 +2740,17 @@
         <f t="shared" si="0"/>
         <v>8.333333333333337E-2</v>
       </c>
-      <c r="E44" s="60" t="s">
-        <v>86</v>
-      </c>
-      <c r="F44" s="61"/>
-      <c r="G44" s="61"/>
-      <c r="H44" s="61"/>
-      <c r="I44" s="62"/>
+      <c r="E44" s="71" t="s">
+        <v>16</v>
+      </c>
+      <c r="F44" s="72"/>
+      <c r="G44" s="72"/>
+      <c r="H44" s="72"/>
+      <c r="I44" s="73"/>
     </row>
     <row r="45" spans="1:9" s="43" customFormat="1" ht="12">
       <c r="A45" s="40" t="s">
-        <v>36</v>
+        <v>60</v>
       </c>
       <c r="B45" s="41">
         <v>0.41666666666666669</v>
@@ -2758,17 +2762,17 @@
         <f t="shared" si="0"/>
         <v>2.0833333333333315E-2</v>
       </c>
-      <c r="E45" s="60" t="s">
-        <v>1</v>
-      </c>
-      <c r="F45" s="61"/>
-      <c r="G45" s="61"/>
-      <c r="H45" s="61"/>
-      <c r="I45" s="62"/>
+      <c r="E45" s="71" t="s">
+        <v>25</v>
+      </c>
+      <c r="F45" s="72"/>
+      <c r="G45" s="72"/>
+      <c r="H45" s="72"/>
+      <c r="I45" s="73"/>
     </row>
     <row r="46" spans="1:9" s="43" customFormat="1" ht="12">
       <c r="A46" s="40" t="s">
-        <v>37</v>
+        <v>61</v>
       </c>
       <c r="B46" s="41">
         <v>0.5</v>
@@ -2780,17 +2784,17 @@
         <f t="shared" si="0"/>
         <v>0.16666666666666663</v>
       </c>
-      <c r="E46" s="60" t="s">
-        <v>87</v>
-      </c>
-      <c r="F46" s="61"/>
-      <c r="G46" s="61"/>
-      <c r="H46" s="61"/>
-      <c r="I46" s="62"/>
+      <c r="E46" s="71" t="s">
+        <v>17</v>
+      </c>
+      <c r="F46" s="72"/>
+      <c r="G46" s="72"/>
+      <c r="H46" s="72"/>
+      <c r="I46" s="73"/>
     </row>
     <row r="47" spans="1:9" s="51" customFormat="1" ht="12">
       <c r="A47" s="48" t="s">
-        <v>38</v>
+        <v>62</v>
       </c>
       <c r="B47" s="49"/>
       <c r="C47" s="50"/>
@@ -2798,15 +2802,15 @@
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="E47" s="57"/>
-      <c r="F47" s="58"/>
-      <c r="G47" s="58"/>
-      <c r="H47" s="58"/>
-      <c r="I47" s="59"/>
+      <c r="E47" s="77"/>
+      <c r="F47" s="75"/>
+      <c r="G47" s="75"/>
+      <c r="H47" s="75"/>
+      <c r="I47" s="76"/>
     </row>
     <row r="48" spans="1:9" s="51" customFormat="1" ht="12">
       <c r="A48" s="48" t="s">
-        <v>39</v>
+        <v>63</v>
       </c>
       <c r="B48" s="49"/>
       <c r="C48" s="50"/>
@@ -2814,15 +2818,15 @@
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="E48" s="57"/>
-      <c r="F48" s="58"/>
-      <c r="G48" s="58"/>
-      <c r="H48" s="58"/>
-      <c r="I48" s="59"/>
+      <c r="E48" s="77"/>
+      <c r="F48" s="75"/>
+      <c r="G48" s="75"/>
+      <c r="H48" s="75"/>
+      <c r="I48" s="76"/>
     </row>
     <row r="49" spans="1:13" s="43" customFormat="1" ht="12">
       <c r="A49" s="44" t="s">
-        <v>40</v>
+        <v>64</v>
       </c>
       <c r="B49" s="41">
         <v>0.5</v>
@@ -2834,27 +2838,27 @@
         <f t="shared" si="0"/>
         <v>8.333333333333337E-2</v>
       </c>
-      <c r="E49" s="60" t="s">
-        <v>88</v>
-      </c>
-      <c r="F49" s="61"/>
-      <c r="G49" s="61"/>
-      <c r="H49" s="61"/>
-      <c r="I49" s="62"/>
+      <c r="E49" s="71" t="s">
+        <v>18</v>
+      </c>
+      <c r="F49" s="72"/>
+      <c r="G49" s="72"/>
+      <c r="H49" s="72"/>
+      <c r="I49" s="73"/>
     </row>
     <row r="50" spans="1:13" s="47" customFormat="1" ht="13">
-      <c r="A50" s="63"/>
-      <c r="B50" s="64"/>
-      <c r="C50" s="64"/>
+      <c r="A50" s="94"/>
+      <c r="B50" s="95"/>
+      <c r="C50" s="95"/>
       <c r="D50" s="46">
         <f>SUM(D16:D49)</f>
         <v>1.65625</v>
       </c>
-      <c r="E50" s="65"/>
-      <c r="F50" s="65"/>
-      <c r="G50" s="65"/>
-      <c r="H50" s="65"/>
-      <c r="I50" s="66"/>
+      <c r="E50" s="96"/>
+      <c r="F50" s="96"/>
+      <c r="G50" s="96"/>
+      <c r="H50" s="96"/>
+      <c r="I50" s="97"/>
     </row>
     <row r="51" spans="1:13" ht="7.5" customHeight="1">
       <c r="A51" s="28"/>
@@ -2887,42 +2891,13 @@
     </row>
   </sheetData>
   <mergeCells count="54">
-    <mergeCell ref="A9:C9"/>
-    <mergeCell ref="D9:H9"/>
-    <mergeCell ref="A10:I10"/>
-    <mergeCell ref="A5:C5"/>
-    <mergeCell ref="D5:H5"/>
-    <mergeCell ref="A6:I6"/>
-    <mergeCell ref="A7:C7"/>
-    <mergeCell ref="D7:H7"/>
-    <mergeCell ref="A1:I1"/>
-    <mergeCell ref="A2:I2"/>
-    <mergeCell ref="A3:H3"/>
-    <mergeCell ref="A4:I4"/>
-    <mergeCell ref="A8:I8"/>
-    <mergeCell ref="E20:I20"/>
-    <mergeCell ref="E16:I16"/>
-    <mergeCell ref="E17:I17"/>
-    <mergeCell ref="A13:A15"/>
-    <mergeCell ref="B13:I13"/>
-    <mergeCell ref="B14:C14"/>
-    <mergeCell ref="D14:D15"/>
-    <mergeCell ref="E14:I15"/>
-    <mergeCell ref="E18:I18"/>
-    <mergeCell ref="E19:I19"/>
-    <mergeCell ref="E24:I24"/>
-    <mergeCell ref="E25:I25"/>
-    <mergeCell ref="E27:I27"/>
-    <mergeCell ref="E21:I21"/>
-    <mergeCell ref="E22:I22"/>
-    <mergeCell ref="E23:I23"/>
-    <mergeCell ref="E26:I26"/>
-    <mergeCell ref="E31:I31"/>
-    <mergeCell ref="E32:I32"/>
-    <mergeCell ref="E33:I33"/>
-    <mergeCell ref="E28:I28"/>
-    <mergeCell ref="E29:I29"/>
-    <mergeCell ref="E30:I30"/>
+    <mergeCell ref="E48:I48"/>
+    <mergeCell ref="E49:I49"/>
+    <mergeCell ref="A50:C50"/>
+    <mergeCell ref="E50:I50"/>
+    <mergeCell ref="E45:I45"/>
+    <mergeCell ref="E46:I46"/>
+    <mergeCell ref="E47:I47"/>
     <mergeCell ref="E44:I44"/>
     <mergeCell ref="E37:I37"/>
     <mergeCell ref="E38:I38"/>
@@ -2934,13 +2909,42 @@
     <mergeCell ref="E41:I41"/>
     <mergeCell ref="E42:I42"/>
     <mergeCell ref="E43:I43"/>
-    <mergeCell ref="E48:I48"/>
-    <mergeCell ref="E49:I49"/>
-    <mergeCell ref="A50:C50"/>
-    <mergeCell ref="E50:I50"/>
-    <mergeCell ref="E45:I45"/>
-    <mergeCell ref="E46:I46"/>
-    <mergeCell ref="E47:I47"/>
+    <mergeCell ref="E31:I31"/>
+    <mergeCell ref="E32:I32"/>
+    <mergeCell ref="E33:I33"/>
+    <mergeCell ref="E28:I28"/>
+    <mergeCell ref="E29:I29"/>
+    <mergeCell ref="E30:I30"/>
+    <mergeCell ref="E24:I24"/>
+    <mergeCell ref="E25:I25"/>
+    <mergeCell ref="E27:I27"/>
+    <mergeCell ref="E21:I21"/>
+    <mergeCell ref="E22:I22"/>
+    <mergeCell ref="E23:I23"/>
+    <mergeCell ref="E26:I26"/>
+    <mergeCell ref="E20:I20"/>
+    <mergeCell ref="E16:I16"/>
+    <mergeCell ref="E17:I17"/>
+    <mergeCell ref="A13:A15"/>
+    <mergeCell ref="B13:I13"/>
+    <mergeCell ref="B14:C14"/>
+    <mergeCell ref="D14:D15"/>
+    <mergeCell ref="E14:I15"/>
+    <mergeCell ref="E18:I18"/>
+    <mergeCell ref="E19:I19"/>
+    <mergeCell ref="A1:I1"/>
+    <mergeCell ref="A2:I2"/>
+    <mergeCell ref="A3:H3"/>
+    <mergeCell ref="A4:I4"/>
+    <mergeCell ref="A8:I8"/>
+    <mergeCell ref="A9:C9"/>
+    <mergeCell ref="D9:H9"/>
+    <mergeCell ref="A10:I10"/>
+    <mergeCell ref="A5:C5"/>
+    <mergeCell ref="D5:H5"/>
+    <mergeCell ref="A6:I6"/>
+    <mergeCell ref="A7:C7"/>
+    <mergeCell ref="D7:H7"/>
   </mergeCells>
   <phoneticPr fontId="32" type="noConversion"/>
   <printOptions horizontalCentered="1"/>
@@ -2980,17 +2984,17 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:45" s="7" customFormat="1" ht="18" thickBot="1">
-      <c r="A1" s="84" t="s">
-        <v>57</v>
-      </c>
-      <c r="B1" s="84"/>
-      <c r="C1" s="84"/>
-      <c r="D1" s="84"/>
-      <c r="E1" s="84"/>
-      <c r="F1" s="84"/>
-      <c r="G1" s="84"/>
-      <c r="H1" s="84"/>
-      <c r="I1" s="84"/>
+      <c r="A1" s="66" t="s">
+        <v>81</v>
+      </c>
+      <c r="B1" s="66"/>
+      <c r="C1" s="66"/>
+      <c r="D1" s="66"/>
+      <c r="E1" s="66"/>
+      <c r="F1" s="66"/>
+      <c r="G1" s="66"/>
+      <c r="H1" s="66"/>
+      <c r="I1" s="66"/>
       <c r="J1" s="8"/>
       <c r="K1" s="8"/>
       <c r="L1" s="8"/>
@@ -3028,15 +3032,15 @@
       <c r="AR1" s="8"/>
     </row>
     <row r="2" spans="1:45" s="1" customFormat="1" ht="7.5" customHeight="1">
-      <c r="A2" s="85"/>
-      <c r="B2" s="85"/>
-      <c r="C2" s="85"/>
-      <c r="D2" s="85"/>
-      <c r="E2" s="85"/>
-      <c r="F2" s="85"/>
-      <c r="G2" s="85"/>
-      <c r="H2" s="85"/>
-      <c r="I2" s="85"/>
+      <c r="A2" s="67"/>
+      <c r="B2" s="67"/>
+      <c r="C2" s="67"/>
+      <c r="D2" s="67"/>
+      <c r="E2" s="67"/>
+      <c r="F2" s="67"/>
+      <c r="G2" s="67"/>
+      <c r="H2" s="67"/>
+      <c r="I2" s="67"/>
       <c r="J2" s="9"/>
       <c r="K2" s="9"/>
       <c r="L2" s="9"/>
@@ -3074,16 +3078,16 @@
       <c r="AR2" s="9"/>
     </row>
     <row r="3" spans="1:45" s="11" customFormat="1" ht="13.5" customHeight="1">
-      <c r="A3" s="86" t="s">
-        <v>47</v>
-      </c>
-      <c r="B3" s="86"/>
-      <c r="C3" s="86"/>
-      <c r="D3" s="86"/>
-      <c r="E3" s="86"/>
-      <c r="F3" s="86"/>
-      <c r="G3" s="86"/>
-      <c r="H3" s="86"/>
+      <c r="A3" s="68" t="s">
+        <v>71</v>
+      </c>
+      <c r="B3" s="68"/>
+      <c r="C3" s="68"/>
+      <c r="D3" s="68"/>
+      <c r="E3" s="68"/>
+      <c r="F3" s="68"/>
+      <c r="G3" s="68"/>
+      <c r="H3" s="68"/>
       <c r="I3" s="23"/>
       <c r="J3" s="22"/>
       <c r="K3" s="22"/>
@@ -3123,112 +3127,112 @@
       <c r="AS3" s="10"/>
     </row>
     <row r="4" spans="1:45" s="6" customFormat="1" ht="9" customHeight="1">
-      <c r="A4" s="87"/>
-      <c r="B4" s="87"/>
-      <c r="C4" s="87"/>
-      <c r="D4" s="87"/>
-      <c r="E4" s="87"/>
-      <c r="F4" s="87"/>
-      <c r="G4" s="87"/>
-      <c r="H4" s="87"/>
-      <c r="I4" s="87"/>
+      <c r="A4" s="69"/>
+      <c r="B4" s="69"/>
+      <c r="C4" s="69"/>
+      <c r="D4" s="69"/>
+      <c r="E4" s="69"/>
+      <c r="F4" s="69"/>
+      <c r="G4" s="69"/>
+      <c r="H4" s="69"/>
+      <c r="I4" s="69"/>
     </row>
     <row r="5" spans="1:45" s="1" customFormat="1" ht="13.75" customHeight="1">
-      <c r="A5" s="94" t="str">
+      <c r="A5" s="62" t="str">
         <f>October!A5</f>
         <v>Firstname Lastname</v>
       </c>
-      <c r="B5" s="95"/>
-      <c r="C5" s="95"/>
-      <c r="D5" s="90" t="str">
+      <c r="B5" s="63"/>
+      <c r="C5" s="63"/>
+      <c r="D5" s="58" t="str">
         <f>October!D5</f>
         <v>Augustin Hannah</v>
       </c>
-      <c r="E5" s="91"/>
-      <c r="F5" s="91"/>
-      <c r="G5" s="91"/>
-      <c r="H5" s="92"/>
+      <c r="E5" s="59"/>
+      <c r="F5" s="59"/>
+      <c r="G5" s="59"/>
+      <c r="H5" s="60"/>
       <c r="I5" s="23"/>
       <c r="J5" s="9"/>
       <c r="K5" s="9"/>
       <c r="L5" s="9"/>
     </row>
     <row r="6" spans="1:45" s="1" customFormat="1" ht="7.5" customHeight="1">
-      <c r="A6" s="96"/>
-      <c r="B6" s="96"/>
-      <c r="C6" s="96"/>
-      <c r="D6" s="96"/>
-      <c r="E6" s="96"/>
-      <c r="F6" s="96"/>
-      <c r="G6" s="96"/>
-      <c r="H6" s="96"/>
-      <c r="I6" s="96"/>
+      <c r="A6" s="64"/>
+      <c r="B6" s="64"/>
+      <c r="C6" s="64"/>
+      <c r="D6" s="64"/>
+      <c r="E6" s="64"/>
+      <c r="F6" s="64"/>
+      <c r="G6" s="64"/>
+      <c r="H6" s="64"/>
+      <c r="I6" s="64"/>
     </row>
     <row r="7" spans="1:45" s="1" customFormat="1" ht="13.75" customHeight="1">
-      <c r="A7" s="89" t="str">
+      <c r="A7" s="57" t="str">
         <f>October!A7</f>
         <v>Project Acronym</v>
       </c>
-      <c r="B7" s="89"/>
-      <c r="C7" s="89"/>
-      <c r="D7" s="97" t="str">
+      <c r="B7" s="57"/>
+      <c r="C7" s="57"/>
+      <c r="D7" s="65" t="str">
         <f>October!D7</f>
         <v>AIQ</v>
       </c>
-      <c r="E7" s="97"/>
-      <c r="F7" s="97"/>
-      <c r="G7" s="97"/>
-      <c r="H7" s="97"/>
+      <c r="E7" s="65"/>
+      <c r="F7" s="65"/>
+      <c r="G7" s="65"/>
+      <c r="H7" s="65"/>
       <c r="I7" s="24"/>
     </row>
     <row r="8" spans="1:45" s="1" customFormat="1" ht="7.5" customHeight="1">
-      <c r="A8" s="88"/>
-      <c r="B8" s="88"/>
-      <c r="C8" s="88"/>
-      <c r="D8" s="88"/>
-      <c r="E8" s="88"/>
-      <c r="F8" s="88"/>
-      <c r="G8" s="88"/>
-      <c r="H8" s="88"/>
-      <c r="I8" s="88"/>
+      <c r="A8" s="70"/>
+      <c r="B8" s="70"/>
+      <c r="C8" s="70"/>
+      <c r="D8" s="70"/>
+      <c r="E8" s="70"/>
+      <c r="F8" s="70"/>
+      <c r="G8" s="70"/>
+      <c r="H8" s="70"/>
+      <c r="I8" s="70"/>
     </row>
     <row r="9" spans="1:45" s="1" customFormat="1" ht="13.75" customHeight="1">
-      <c r="A9" s="89" t="str">
+      <c r="A9" s="57" t="str">
         <f>October!A9</f>
         <v>Project Title</v>
       </c>
-      <c r="B9" s="89"/>
-      <c r="C9" s="89"/>
-      <c r="D9" s="90" t="str">
+      <c r="B9" s="57"/>
+      <c r="C9" s="57"/>
+      <c r="D9" s="58" t="str">
         <f>October!D9</f>
         <v>Automating change detection in ImageQuerying</v>
       </c>
-      <c r="E9" s="91"/>
-      <c r="F9" s="91"/>
-      <c r="G9" s="91"/>
-      <c r="H9" s="92"/>
+      <c r="E9" s="59"/>
+      <c r="F9" s="59"/>
+      <c r="G9" s="59"/>
+      <c r="H9" s="60"/>
       <c r="I9" s="24"/>
       <c r="J9" s="15"/>
     </row>
     <row r="10" spans="1:45" s="1" customFormat="1" ht="7.5" customHeight="1">
-      <c r="A10" s="93"/>
-      <c r="B10" s="93"/>
-      <c r="C10" s="93"/>
-      <c r="D10" s="93"/>
-      <c r="E10" s="93"/>
-      <c r="F10" s="93"/>
-      <c r="G10" s="93"/>
-      <c r="H10" s="93"/>
-      <c r="I10" s="93"/>
+      <c r="A10" s="61"/>
+      <c r="B10" s="61"/>
+      <c r="C10" s="61"/>
+      <c r="D10" s="61"/>
+      <c r="E10" s="61"/>
+      <c r="F10" s="61"/>
+      <c r="G10" s="61"/>
+      <c r="H10" s="61"/>
+      <c r="I10" s="61"/>
     </row>
     <row r="11" spans="1:45" s="1" customFormat="1" ht="12">
       <c r="A11" s="21" t="s">
-        <v>45</v>
+        <v>69</v>
       </c>
       <c r="B11" s="21"/>
       <c r="C11" s="21"/>
       <c r="D11" s="21" t="s">
-        <v>46</v>
+        <v>70</v>
       </c>
       <c r="E11" s="21"/>
       <c r="F11" s="21"/>
@@ -3248,55 +3252,55 @@
       <c r="I12" s="26"/>
     </row>
     <row r="13" spans="1:45" s="2" customFormat="1" ht="15.5" customHeight="1">
-      <c r="A13" s="68" t="s">
-        <v>2</v>
-      </c>
-      <c r="B13" s="71" t="s">
-        <v>41</v>
-      </c>
-      <c r="C13" s="72"/>
-      <c r="D13" s="72"/>
-      <c r="E13" s="72"/>
-      <c r="F13" s="72"/>
-      <c r="G13" s="72"/>
-      <c r="H13" s="72"/>
-      <c r="I13" s="73"/>
+      <c r="A13" s="78" t="s">
+        <v>26</v>
+      </c>
+      <c r="B13" s="81" t="s">
+        <v>65</v>
+      </c>
+      <c r="C13" s="82"/>
+      <c r="D13" s="82"/>
+      <c r="E13" s="82"/>
+      <c r="F13" s="82"/>
+      <c r="G13" s="82"/>
+      <c r="H13" s="82"/>
+      <c r="I13" s="83"/>
     </row>
     <row r="14" spans="1:45" s="2" customFormat="1" ht="13.75" customHeight="1">
-      <c r="A14" s="69"/>
-      <c r="B14" s="74" t="s">
-        <v>3</v>
-      </c>
-      <c r="C14" s="75"/>
-      <c r="D14" s="76" t="s">
-        <v>4</v>
-      </c>
-      <c r="E14" s="78" t="s">
-        <v>42</v>
-      </c>
-      <c r="F14" s="79"/>
-      <c r="G14" s="79"/>
-      <c r="H14" s="79"/>
-      <c r="I14" s="80"/>
+      <c r="A14" s="79"/>
+      <c r="B14" s="84" t="s">
+        <v>27</v>
+      </c>
+      <c r="C14" s="85"/>
+      <c r="D14" s="86" t="s">
+        <v>28</v>
+      </c>
+      <c r="E14" s="88" t="s">
+        <v>66</v>
+      </c>
+      <c r="F14" s="89"/>
+      <c r="G14" s="89"/>
+      <c r="H14" s="89"/>
+      <c r="I14" s="90"/>
     </row>
     <row r="15" spans="1:45" ht="13" customHeight="1">
-      <c r="A15" s="70"/>
+      <c r="A15" s="80"/>
       <c r="B15" s="32" t="s">
-        <v>5</v>
+        <v>29</v>
       </c>
       <c r="C15" s="33" t="s">
-        <v>6</v>
-      </c>
-      <c r="D15" s="77"/>
-      <c r="E15" s="81"/>
-      <c r="F15" s="82"/>
-      <c r="G15" s="82"/>
-      <c r="H15" s="82"/>
-      <c r="I15" s="83"/>
+        <v>30</v>
+      </c>
+      <c r="D15" s="87"/>
+      <c r="E15" s="91"/>
+      <c r="F15" s="92"/>
+      <c r="G15" s="92"/>
+      <c r="H15" s="92"/>
+      <c r="I15" s="93"/>
     </row>
     <row r="16" spans="1:45" s="43" customFormat="1" ht="12">
       <c r="A16" s="40" t="s">
-        <v>7</v>
+        <v>31</v>
       </c>
       <c r="B16" s="41"/>
       <c r="C16" s="42"/>
@@ -3304,15 +3308,15 @@
         <f>C16-B16</f>
         <v>0</v>
       </c>
-      <c r="E16" s="60"/>
-      <c r="F16" s="61"/>
-      <c r="G16" s="61"/>
-      <c r="H16" s="61"/>
-      <c r="I16" s="62"/>
+      <c r="E16" s="71"/>
+      <c r="F16" s="72"/>
+      <c r="G16" s="72"/>
+      <c r="H16" s="72"/>
+      <c r="I16" s="73"/>
     </row>
     <row r="17" spans="1:9" s="43" customFormat="1" ht="12">
       <c r="A17" s="40" t="s">
-        <v>8</v>
+        <v>32</v>
       </c>
       <c r="B17" s="41"/>
       <c r="C17" s="42"/>
@@ -3320,15 +3324,15 @@
         <f t="shared" ref="D17:D48" si="0">C17-B17</f>
         <v>0</v>
       </c>
-      <c r="E17" s="60"/>
-      <c r="F17" s="61"/>
-      <c r="G17" s="61"/>
-      <c r="H17" s="61"/>
-      <c r="I17" s="62"/>
+      <c r="E17" s="71"/>
+      <c r="F17" s="72"/>
+      <c r="G17" s="72"/>
+      <c r="H17" s="72"/>
+      <c r="I17" s="73"/>
     </row>
     <row r="18" spans="1:9" s="43" customFormat="1" ht="12">
       <c r="A18" s="40" t="s">
-        <v>9</v>
+        <v>33</v>
       </c>
       <c r="B18" s="41"/>
       <c r="C18" s="42"/>
@@ -3336,15 +3340,15 @@
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="E18" s="60"/>
-      <c r="F18" s="61"/>
-      <c r="G18" s="61"/>
-      <c r="H18" s="61"/>
-      <c r="I18" s="62"/>
+      <c r="E18" s="71"/>
+      <c r="F18" s="72"/>
+      <c r="G18" s="72"/>
+      <c r="H18" s="72"/>
+      <c r="I18" s="73"/>
     </row>
     <row r="19" spans="1:9" s="43" customFormat="1" ht="12">
       <c r="A19" s="40" t="s">
-        <v>10</v>
+        <v>34</v>
       </c>
       <c r="B19" s="41">
         <v>0.58333333333333337</v>
@@ -3356,17 +3360,17 @@
         <f t="shared" si="0"/>
         <v>0.16666666666666663</v>
       </c>
-      <c r="E19" s="60" t="s">
-        <v>89</v>
-      </c>
-      <c r="F19" s="61"/>
-      <c r="G19" s="61"/>
-      <c r="H19" s="61"/>
-      <c r="I19" s="62"/>
+      <c r="E19" s="71" t="s">
+        <v>19</v>
+      </c>
+      <c r="F19" s="72"/>
+      <c r="G19" s="72"/>
+      <c r="H19" s="72"/>
+      <c r="I19" s="73"/>
     </row>
     <row r="20" spans="1:9" s="51" customFormat="1" ht="12">
       <c r="A20" s="48" t="s">
-        <v>11</v>
+        <v>35</v>
       </c>
       <c r="B20" s="49"/>
       <c r="C20" s="50"/>
@@ -3374,15 +3378,15 @@
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="E20" s="57"/>
-      <c r="F20" s="58"/>
-      <c r="G20" s="58"/>
-      <c r="H20" s="58"/>
-      <c r="I20" s="59"/>
+      <c r="E20" s="77"/>
+      <c r="F20" s="75"/>
+      <c r="G20" s="75"/>
+      <c r="H20" s="75"/>
+      <c r="I20" s="76"/>
     </row>
     <row r="21" spans="1:9" s="51" customFormat="1" ht="12">
       <c r="A21" s="48" t="s">
-        <v>12</v>
+        <v>36</v>
       </c>
       <c r="B21" s="49"/>
       <c r="C21" s="50"/>
@@ -3390,15 +3394,15 @@
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="E21" s="57"/>
-      <c r="F21" s="58"/>
-      <c r="G21" s="58"/>
-      <c r="H21" s="58"/>
-      <c r="I21" s="59"/>
+      <c r="E21" s="77"/>
+      <c r="F21" s="75"/>
+      <c r="G21" s="75"/>
+      <c r="H21" s="75"/>
+      <c r="I21" s="76"/>
     </row>
     <row r="22" spans="1:9" s="43" customFormat="1" ht="12">
       <c r="A22" s="40" t="s">
-        <v>13</v>
+        <v>37</v>
       </c>
       <c r="B22" s="41">
         <v>0.39583333333333331</v>
@@ -3410,17 +3414,17 @@
         <f t="shared" si="0"/>
         <v>0.16666666666666669</v>
       </c>
-      <c r="E22" s="60" t="s">
-        <v>0</v>
-      </c>
-      <c r="F22" s="61"/>
-      <c r="G22" s="61"/>
-      <c r="H22" s="61"/>
-      <c r="I22" s="62"/>
+      <c r="E22" s="71" t="s">
+        <v>24</v>
+      </c>
+      <c r="F22" s="72"/>
+      <c r="G22" s="72"/>
+      <c r="H22" s="72"/>
+      <c r="I22" s="73"/>
     </row>
     <row r="23" spans="1:9" s="43" customFormat="1" ht="12">
       <c r="A23" s="40" t="s">
-        <v>14</v>
+        <v>38</v>
       </c>
       <c r="B23" s="41">
         <v>0.41666666666666669</v>
@@ -3432,13 +3436,13 @@
         <f t="shared" si="0"/>
         <v>0.12499999999999994</v>
       </c>
-      <c r="E23" s="60" t="s">
-        <v>92</v>
-      </c>
-      <c r="F23" s="61"/>
-      <c r="G23" s="61"/>
-      <c r="H23" s="61"/>
-      <c r="I23" s="62"/>
+      <c r="E23" s="71" t="s">
+        <v>22</v>
+      </c>
+      <c r="F23" s="72"/>
+      <c r="G23" s="72"/>
+      <c r="H23" s="72"/>
+      <c r="I23" s="73"/>
     </row>
     <row r="24" spans="1:9" s="43" customFormat="1" ht="12">
       <c r="A24" s="40"/>
@@ -3452,17 +3456,17 @@
         <f t="shared" si="0"/>
         <v>8.333333333333337E-2</v>
       </c>
-      <c r="E24" s="60" t="s">
-        <v>73</v>
-      </c>
-      <c r="F24" s="61"/>
-      <c r="G24" s="61"/>
-      <c r="H24" s="61"/>
-      <c r="I24" s="62"/>
+      <c r="E24" s="71" t="s">
+        <v>3</v>
+      </c>
+      <c r="F24" s="72"/>
+      <c r="G24" s="72"/>
+      <c r="H24" s="72"/>
+      <c r="I24" s="73"/>
     </row>
     <row r="25" spans="1:9" s="43" customFormat="1" ht="12">
       <c r="A25" s="40" t="s">
-        <v>15</v>
+        <v>39</v>
       </c>
       <c r="B25" s="41"/>
       <c r="C25" s="42"/>
@@ -3470,15 +3474,15 @@
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="E25" s="60"/>
-      <c r="F25" s="61"/>
-      <c r="G25" s="61"/>
-      <c r="H25" s="61"/>
-      <c r="I25" s="62"/>
+      <c r="E25" s="71"/>
+      <c r="F25" s="72"/>
+      <c r="G25" s="72"/>
+      <c r="H25" s="72"/>
+      <c r="I25" s="73"/>
     </row>
     <row r="26" spans="1:9" s="43" customFormat="1" ht="12">
       <c r="A26" s="40" t="s">
-        <v>16</v>
+        <v>40</v>
       </c>
       <c r="B26" s="41">
         <v>0.75</v>
@@ -3490,17 +3494,17 @@
         <f t="shared" si="0"/>
         <v>0.16666666666666663</v>
       </c>
-      <c r="E26" s="60" t="s">
-        <v>91</v>
-      </c>
-      <c r="F26" s="61"/>
-      <c r="G26" s="61"/>
-      <c r="H26" s="61"/>
-      <c r="I26" s="62"/>
+      <c r="E26" s="71" t="s">
+        <v>21</v>
+      </c>
+      <c r="F26" s="72"/>
+      <c r="G26" s="72"/>
+      <c r="H26" s="72"/>
+      <c r="I26" s="73"/>
     </row>
     <row r="27" spans="1:9" s="43" customFormat="1" ht="12">
       <c r="A27" s="40" t="s">
-        <v>17</v>
+        <v>41</v>
       </c>
       <c r="B27" s="41"/>
       <c r="C27" s="42"/>
@@ -3508,15 +3512,15 @@
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="E27" s="60"/>
-      <c r="F27" s="61"/>
-      <c r="G27" s="61"/>
-      <c r="H27" s="61"/>
-      <c r="I27" s="62"/>
+      <c r="E27" s="71"/>
+      <c r="F27" s="72"/>
+      <c r="G27" s="72"/>
+      <c r="H27" s="72"/>
+      <c r="I27" s="73"/>
     </row>
     <row r="28" spans="1:9" s="51" customFormat="1" ht="12">
       <c r="A28" s="48" t="s">
-        <v>18</v>
+        <v>42</v>
       </c>
       <c r="B28" s="49"/>
       <c r="C28" s="50"/>
@@ -3524,15 +3528,15 @@
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="E28" s="57"/>
-      <c r="F28" s="58"/>
-      <c r="G28" s="58"/>
-      <c r="H28" s="58"/>
-      <c r="I28" s="59"/>
+      <c r="E28" s="77"/>
+      <c r="F28" s="75"/>
+      <c r="G28" s="75"/>
+      <c r="H28" s="75"/>
+      <c r="I28" s="76"/>
     </row>
     <row r="29" spans="1:9" s="51" customFormat="1" ht="12">
       <c r="A29" s="48" t="s">
-        <v>19</v>
+        <v>43</v>
       </c>
       <c r="B29" s="49">
         <v>0.45833333333333331</v>
@@ -3544,17 +3548,17 @@
         <f t="shared" si="0"/>
         <v>0.25000000000000006</v>
       </c>
-      <c r="E29" s="57" t="s">
-        <v>74</v>
-      </c>
-      <c r="F29" s="58"/>
-      <c r="G29" s="58"/>
-      <c r="H29" s="58"/>
-      <c r="I29" s="59"/>
+      <c r="E29" s="77" t="s">
+        <v>4</v>
+      </c>
+      <c r="F29" s="75"/>
+      <c r="G29" s="75"/>
+      <c r="H29" s="75"/>
+      <c r="I29" s="76"/>
     </row>
     <row r="30" spans="1:9" s="43" customFormat="1" ht="12">
       <c r="A30" s="40" t="s">
-        <v>20</v>
+        <v>44</v>
       </c>
       <c r="B30" s="41">
         <v>0.70833333333333337</v>
@@ -3566,17 +3570,17 @@
         <f t="shared" si="0"/>
         <v>0.20833333333333326</v>
       </c>
-      <c r="E30" s="60" t="s">
-        <v>90</v>
-      </c>
-      <c r="F30" s="61"/>
-      <c r="G30" s="61"/>
-      <c r="H30" s="61"/>
-      <c r="I30" s="62"/>
+      <c r="E30" s="71" t="s">
+        <v>20</v>
+      </c>
+      <c r="F30" s="72"/>
+      <c r="G30" s="72"/>
+      <c r="H30" s="72"/>
+      <c r="I30" s="73"/>
     </row>
     <row r="31" spans="1:9" s="43" customFormat="1" ht="12">
       <c r="A31" s="40" t="s">
-        <v>21</v>
+        <v>45</v>
       </c>
       <c r="B31" s="41">
         <v>0.66666666666666663</v>
@@ -3588,17 +3592,17 @@
         <f t="shared" si="0"/>
         <v>0.16666666666666674</v>
       </c>
-      <c r="E31" s="60" t="s">
-        <v>84</v>
-      </c>
-      <c r="F31" s="61"/>
-      <c r="G31" s="61"/>
-      <c r="H31" s="61"/>
-      <c r="I31" s="62"/>
+      <c r="E31" s="71" t="s">
+        <v>14</v>
+      </c>
+      <c r="F31" s="72"/>
+      <c r="G31" s="72"/>
+      <c r="H31" s="72"/>
+      <c r="I31" s="73"/>
     </row>
     <row r="32" spans="1:9" s="43" customFormat="1" ht="12">
       <c r="A32" s="40" t="s">
-        <v>22</v>
+        <v>46</v>
       </c>
       <c r="B32" s="41"/>
       <c r="C32" s="42"/>
@@ -3606,17 +3610,17 @@
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="E32" s="60" t="s">
-        <v>70</v>
-      </c>
-      <c r="F32" s="61"/>
-      <c r="G32" s="61"/>
-      <c r="H32" s="61"/>
-      <c r="I32" s="62"/>
+      <c r="E32" s="71" t="s">
+        <v>0</v>
+      </c>
+      <c r="F32" s="72"/>
+      <c r="G32" s="72"/>
+      <c r="H32" s="72"/>
+      <c r="I32" s="73"/>
     </row>
     <row r="33" spans="1:9" s="43" customFormat="1" ht="12">
       <c r="A33" s="40" t="s">
-        <v>23</v>
+        <v>47</v>
       </c>
       <c r="B33" s="41">
         <v>0.41666666666666669</v>
@@ -3628,13 +3632,13 @@
         <f t="shared" si="0"/>
         <v>4.166666666666663E-2</v>
       </c>
-      <c r="E33" s="60" t="s">
-        <v>71</v>
-      </c>
-      <c r="F33" s="61"/>
-      <c r="G33" s="61"/>
-      <c r="H33" s="61"/>
-      <c r="I33" s="62"/>
+      <c r="E33" s="71" t="s">
+        <v>1</v>
+      </c>
+      <c r="F33" s="72"/>
+      <c r="G33" s="72"/>
+      <c r="H33" s="72"/>
+      <c r="I33" s="73"/>
     </row>
     <row r="34" spans="1:9" s="43" customFormat="1" ht="12">
       <c r="A34" s="40"/>
@@ -3648,17 +3652,17 @@
         <f t="shared" si="0"/>
         <v>0.16666666666666663</v>
       </c>
-      <c r="E34" s="60" t="s">
-        <v>63</v>
-      </c>
-      <c r="F34" s="61"/>
-      <c r="G34" s="61"/>
-      <c r="H34" s="61"/>
-      <c r="I34" s="62"/>
+      <c r="E34" s="71" t="s">
+        <v>87</v>
+      </c>
+      <c r="F34" s="72"/>
+      <c r="G34" s="72"/>
+      <c r="H34" s="72"/>
+      <c r="I34" s="73"/>
     </row>
     <row r="35" spans="1:9" s="43" customFormat="1" ht="12">
       <c r="A35" s="40" t="s">
-        <v>27</v>
+        <v>51</v>
       </c>
       <c r="B35" s="41">
         <v>0.4375</v>
@@ -3670,17 +3674,17 @@
         <f t="shared" si="0"/>
         <v>0.10416666666666663</v>
       </c>
-      <c r="E35" s="60" t="s">
-        <v>72</v>
-      </c>
-      <c r="F35" s="61"/>
-      <c r="G35" s="61"/>
-      <c r="H35" s="61"/>
-      <c r="I35" s="62"/>
+      <c r="E35" s="71" t="s">
+        <v>2</v>
+      </c>
+      <c r="F35" s="72"/>
+      <c r="G35" s="72"/>
+      <c r="H35" s="72"/>
+      <c r="I35" s="73"/>
     </row>
     <row r="36" spans="1:9" s="51" customFormat="1" ht="12">
       <c r="A36" s="48" t="s">
-        <v>28</v>
+        <v>52</v>
       </c>
       <c r="B36" s="49">
         <v>0.33333333333333331</v>
@@ -3692,13 +3696,13 @@
         <f t="shared" si="0"/>
         <v>6.25E-2</v>
       </c>
-      <c r="E36" s="57" t="s">
-        <v>60</v>
-      </c>
-      <c r="F36" s="58"/>
-      <c r="G36" s="58"/>
-      <c r="H36" s="58"/>
-      <c r="I36" s="59"/>
+      <c r="E36" s="77" t="s">
+        <v>84</v>
+      </c>
+      <c r="F36" s="75"/>
+      <c r="G36" s="75"/>
+      <c r="H36" s="75"/>
+      <c r="I36" s="76"/>
     </row>
     <row r="37" spans="1:9" s="51" customFormat="1" ht="12">
       <c r="A37" s="48"/>
@@ -3712,17 +3716,17 @@
         <f t="shared" si="0"/>
         <v>0.125</v>
       </c>
-      <c r="E37" s="57" t="s">
-        <v>59</v>
-      </c>
-      <c r="F37" s="58"/>
-      <c r="G37" s="58"/>
-      <c r="H37" s="58"/>
-      <c r="I37" s="59"/>
+      <c r="E37" s="77" t="s">
+        <v>83</v>
+      </c>
+      <c r="F37" s="75"/>
+      <c r="G37" s="75"/>
+      <c r="H37" s="75"/>
+      <c r="I37" s="76"/>
     </row>
     <row r="38" spans="1:9" s="51" customFormat="1" ht="12">
       <c r="A38" s="48" t="s">
-        <v>29</v>
+        <v>53</v>
       </c>
       <c r="B38" s="49"/>
       <c r="C38" s="50"/>
@@ -3730,15 +3734,15 @@
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="E38" s="57"/>
-      <c r="F38" s="58"/>
-      <c r="G38" s="58"/>
-      <c r="H38" s="58"/>
-      <c r="I38" s="59"/>
+      <c r="E38" s="77"/>
+      <c r="F38" s="75"/>
+      <c r="G38" s="75"/>
+      <c r="H38" s="75"/>
+      <c r="I38" s="76"/>
     </row>
     <row r="39" spans="1:9" s="43" customFormat="1" ht="12">
       <c r="A39" s="40" t="s">
-        <v>30</v>
+        <v>54</v>
       </c>
       <c r="B39" s="41">
         <v>0.41666666666666669</v>
@@ -3750,17 +3754,17 @@
         <f t="shared" si="0"/>
         <v>0.41666666666666669</v>
       </c>
-      <c r="E39" s="60" t="s">
-        <v>62</v>
-      </c>
-      <c r="F39" s="61"/>
-      <c r="G39" s="61"/>
-      <c r="H39" s="61"/>
-      <c r="I39" s="62"/>
+      <c r="E39" s="71" t="s">
+        <v>86</v>
+      </c>
+      <c r="F39" s="72"/>
+      <c r="G39" s="72"/>
+      <c r="H39" s="72"/>
+      <c r="I39" s="73"/>
     </row>
     <row r="40" spans="1:9" s="43" customFormat="1" ht="12">
       <c r="A40" s="40" t="s">
-        <v>31</v>
+        <v>55</v>
       </c>
       <c r="B40" s="41">
         <v>0.375</v>
@@ -3772,17 +3776,17 @@
         <f t="shared" si="0"/>
         <v>0.29166666666666663</v>
       </c>
-      <c r="E40" s="60" t="s">
-        <v>58</v>
-      </c>
-      <c r="F40" s="61"/>
-      <c r="G40" s="61"/>
-      <c r="H40" s="61"/>
-      <c r="I40" s="62"/>
+      <c r="E40" s="71" t="s">
+        <v>82</v>
+      </c>
+      <c r="F40" s="72"/>
+      <c r="G40" s="72"/>
+      <c r="H40" s="72"/>
+      <c r="I40" s="73"/>
     </row>
     <row r="41" spans="1:9" s="43" customFormat="1" ht="12">
       <c r="A41" s="40" t="s">
-        <v>32</v>
+        <v>56</v>
       </c>
       <c r="B41" s="41"/>
       <c r="C41" s="42"/>
@@ -3790,15 +3794,15 @@
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="E41" s="60"/>
-      <c r="F41" s="61"/>
-      <c r="G41" s="61"/>
-      <c r="H41" s="61"/>
-      <c r="I41" s="62"/>
+      <c r="E41" s="71"/>
+      <c r="F41" s="72"/>
+      <c r="G41" s="72"/>
+      <c r="H41" s="72"/>
+      <c r="I41" s="73"/>
     </row>
     <row r="42" spans="1:9" s="43" customFormat="1" ht="12">
       <c r="A42" s="40" t="s">
-        <v>33</v>
+        <v>57</v>
       </c>
       <c r="B42" s="41"/>
       <c r="C42" s="42"/>
@@ -3806,15 +3810,15 @@
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="E42" s="60"/>
-      <c r="F42" s="61"/>
-      <c r="G42" s="61"/>
-      <c r="H42" s="61"/>
-      <c r="I42" s="62"/>
+      <c r="E42" s="71"/>
+      <c r="F42" s="72"/>
+      <c r="G42" s="72"/>
+      <c r="H42" s="72"/>
+      <c r="I42" s="73"/>
     </row>
     <row r="43" spans="1:9" s="43" customFormat="1" ht="12">
       <c r="A43" s="40" t="s">
-        <v>34</v>
+        <v>58</v>
       </c>
       <c r="B43" s="41">
         <v>0.58333333333333337</v>
@@ -3826,17 +3830,17 @@
         <f t="shared" si="0"/>
         <v>0.16666666666666663</v>
       </c>
-      <c r="E43" s="60" t="s">
-        <v>25</v>
-      </c>
-      <c r="F43" s="61"/>
-      <c r="G43" s="61"/>
-      <c r="H43" s="61"/>
-      <c r="I43" s="62"/>
+      <c r="E43" s="71" t="s">
+        <v>49</v>
+      </c>
+      <c r="F43" s="72"/>
+      <c r="G43" s="72"/>
+      <c r="H43" s="72"/>
+      <c r="I43" s="73"/>
     </row>
     <row r="44" spans="1:9" s="51" customFormat="1" ht="12">
       <c r="A44" s="48" t="s">
-        <v>35</v>
+        <v>59</v>
       </c>
       <c r="B44" s="49">
         <v>0.58333333333333337</v>
@@ -3848,17 +3852,17 @@
         <f t="shared" si="0"/>
         <v>0.16666666666666663</v>
       </c>
-      <c r="E44" s="57" t="s">
-        <v>25</v>
-      </c>
-      <c r="F44" s="58"/>
-      <c r="G44" s="58"/>
-      <c r="H44" s="58"/>
-      <c r="I44" s="59"/>
+      <c r="E44" s="77" t="s">
+        <v>49</v>
+      </c>
+      <c r="F44" s="75"/>
+      <c r="G44" s="75"/>
+      <c r="H44" s="75"/>
+      <c r="I44" s="76"/>
     </row>
     <row r="45" spans="1:9" s="51" customFormat="1" ht="12">
       <c r="A45" s="48" t="s">
-        <v>36</v>
+        <v>60</v>
       </c>
       <c r="B45" s="49">
         <v>0.45833333333333331</v>
@@ -3870,17 +3874,17 @@
         <f t="shared" si="0"/>
         <v>0.16666666666666669</v>
       </c>
-      <c r="E45" s="57" t="s">
-        <v>26</v>
-      </c>
-      <c r="F45" s="58"/>
-      <c r="G45" s="58"/>
-      <c r="H45" s="58"/>
-      <c r="I45" s="59"/>
+      <c r="E45" s="77" t="s">
+        <v>50</v>
+      </c>
+      <c r="F45" s="75"/>
+      <c r="G45" s="75"/>
+      <c r="H45" s="75"/>
+      <c r="I45" s="76"/>
     </row>
     <row r="46" spans="1:9" s="43" customFormat="1" ht="12">
       <c r="A46" s="40" t="s">
-        <v>37</v>
+        <v>61</v>
       </c>
       <c r="B46" s="41">
         <v>0.375</v>
@@ -3892,17 +3896,17 @@
         <f t="shared" si="0"/>
         <v>8.3333333333333315E-2</v>
       </c>
-      <c r="E46" s="60" t="s">
-        <v>24</v>
-      </c>
-      <c r="F46" s="61"/>
-      <c r="G46" s="61"/>
-      <c r="H46" s="61"/>
-      <c r="I46" s="62"/>
+      <c r="E46" s="71" t="s">
+        <v>48</v>
+      </c>
+      <c r="F46" s="72"/>
+      <c r="G46" s="72"/>
+      <c r="H46" s="72"/>
+      <c r="I46" s="73"/>
     </row>
     <row r="47" spans="1:9" s="43" customFormat="1" ht="12">
       <c r="A47" s="40" t="s">
-        <v>38</v>
+        <v>62</v>
       </c>
       <c r="B47" s="41"/>
       <c r="C47" s="42"/>
@@ -3910,15 +3914,15 @@
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="E47" s="60"/>
-      <c r="F47" s="61"/>
-      <c r="G47" s="61"/>
-      <c r="H47" s="61"/>
-      <c r="I47" s="62"/>
+      <c r="E47" s="71"/>
+      <c r="F47" s="72"/>
+      <c r="G47" s="72"/>
+      <c r="H47" s="72"/>
+      <c r="I47" s="73"/>
     </row>
     <row r="48" spans="1:9" s="43" customFormat="1" ht="12">
       <c r="A48" s="40" t="s">
-        <v>39</v>
+        <v>63</v>
       </c>
       <c r="B48" s="41"/>
       <c r="C48" s="42"/>
@@ -3926,25 +3930,25 @@
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="E48" s="60"/>
-      <c r="F48" s="61"/>
-      <c r="G48" s="61"/>
-      <c r="H48" s="61"/>
-      <c r="I48" s="62"/>
+      <c r="E48" s="71"/>
+      <c r="F48" s="72"/>
+      <c r="G48" s="72"/>
+      <c r="H48" s="72"/>
+      <c r="I48" s="73"/>
     </row>
     <row r="49" spans="1:12" s="47" customFormat="1" ht="13">
-      <c r="A49" s="63"/>
-      <c r="B49" s="64"/>
-      <c r="C49" s="64"/>
+      <c r="A49" s="94"/>
+      <c r="B49" s="95"/>
+      <c r="C49" s="95"/>
       <c r="D49" s="46">
         <f>SUM(D16:D48)</f>
         <v>3.1249999999999991</v>
       </c>
-      <c r="E49" s="65"/>
-      <c r="F49" s="65"/>
-      <c r="G49" s="65"/>
-      <c r="H49" s="65"/>
-      <c r="I49" s="66"/>
+      <c r="E49" s="96"/>
+      <c r="F49" s="96"/>
+      <c r="G49" s="96"/>
+      <c r="H49" s="96"/>
+      <c r="I49" s="97"/>
     </row>
     <row r="50" spans="1:12" ht="7" customHeight="1">
       <c r="A50" s="28"/>
@@ -3962,31 +3966,18 @@
     </row>
   </sheetData>
   <mergeCells count="53">
-    <mergeCell ref="E34:I34"/>
-    <mergeCell ref="E24:I24"/>
-    <mergeCell ref="A5:C5"/>
-    <mergeCell ref="D5:H5"/>
-    <mergeCell ref="A6:I6"/>
-    <mergeCell ref="E22:I22"/>
-    <mergeCell ref="E23:I23"/>
-    <mergeCell ref="E25:I25"/>
-    <mergeCell ref="E21:I21"/>
-    <mergeCell ref="E18:I18"/>
-    <mergeCell ref="E20:I20"/>
-    <mergeCell ref="E19:I19"/>
-    <mergeCell ref="A1:I1"/>
-    <mergeCell ref="A2:I2"/>
-    <mergeCell ref="A3:H3"/>
-    <mergeCell ref="A4:I4"/>
-    <mergeCell ref="E17:I17"/>
-    <mergeCell ref="A9:C9"/>
-    <mergeCell ref="D9:H9"/>
-    <mergeCell ref="A10:I10"/>
-    <mergeCell ref="E14:I15"/>
-    <mergeCell ref="E16:I16"/>
-    <mergeCell ref="A13:A15"/>
-    <mergeCell ref="B13:I13"/>
-    <mergeCell ref="B14:C14"/>
+    <mergeCell ref="E37:I37"/>
+    <mergeCell ref="A49:C49"/>
+    <mergeCell ref="E49:I49"/>
+    <mergeCell ref="E46:I46"/>
+    <mergeCell ref="E47:I47"/>
+    <mergeCell ref="E48:I48"/>
+    <mergeCell ref="E44:I44"/>
+    <mergeCell ref="E45:I45"/>
+    <mergeCell ref="E40:I40"/>
+    <mergeCell ref="E41:I41"/>
+    <mergeCell ref="E42:I42"/>
+    <mergeCell ref="E43:I43"/>
     <mergeCell ref="E36:I36"/>
     <mergeCell ref="E38:I38"/>
     <mergeCell ref="E39:I39"/>
@@ -4003,18 +3994,31 @@
     <mergeCell ref="E26:I26"/>
     <mergeCell ref="E27:I27"/>
     <mergeCell ref="E28:I28"/>
-    <mergeCell ref="E37:I37"/>
-    <mergeCell ref="A49:C49"/>
-    <mergeCell ref="E49:I49"/>
-    <mergeCell ref="E46:I46"/>
-    <mergeCell ref="E47:I47"/>
-    <mergeCell ref="E48:I48"/>
-    <mergeCell ref="E44:I44"/>
-    <mergeCell ref="E45:I45"/>
-    <mergeCell ref="E40:I40"/>
-    <mergeCell ref="E41:I41"/>
-    <mergeCell ref="E42:I42"/>
-    <mergeCell ref="E43:I43"/>
+    <mergeCell ref="A1:I1"/>
+    <mergeCell ref="A2:I2"/>
+    <mergeCell ref="A3:H3"/>
+    <mergeCell ref="A4:I4"/>
+    <mergeCell ref="E17:I17"/>
+    <mergeCell ref="A9:C9"/>
+    <mergeCell ref="D9:H9"/>
+    <mergeCell ref="A10:I10"/>
+    <mergeCell ref="E14:I15"/>
+    <mergeCell ref="E16:I16"/>
+    <mergeCell ref="A13:A15"/>
+    <mergeCell ref="B13:I13"/>
+    <mergeCell ref="B14:C14"/>
+    <mergeCell ref="E34:I34"/>
+    <mergeCell ref="E24:I24"/>
+    <mergeCell ref="A5:C5"/>
+    <mergeCell ref="D5:H5"/>
+    <mergeCell ref="A6:I6"/>
+    <mergeCell ref="E22:I22"/>
+    <mergeCell ref="E23:I23"/>
+    <mergeCell ref="E25:I25"/>
+    <mergeCell ref="E21:I21"/>
+    <mergeCell ref="E18:I18"/>
+    <mergeCell ref="E20:I20"/>
+    <mergeCell ref="E19:I19"/>
   </mergeCells>
   <phoneticPr fontId="32" type="noConversion"/>
   <printOptions horizontalCentered="1"/>
@@ -4036,7 +4040,7 @@
   <dimension ref="A1:AN48"/>
   <sheetViews>
     <sheetView tabSelected="1" view="pageLayout" topLeftCell="A4" zoomScale="85" zoomScaleSheetLayoutView="85" workbookViewId="0">
-      <selection activeCell="B33" sqref="B33"/>
+      <selection activeCell="E33" sqref="E33:I33"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.1640625" defaultRowHeight="10"/>
@@ -4053,17 +4057,17 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:40" s="7" customFormat="1" ht="18" thickBot="1">
-      <c r="A1" s="84" t="s">
-        <v>43</v>
-      </c>
-      <c r="B1" s="84"/>
-      <c r="C1" s="84"/>
-      <c r="D1" s="84"/>
-      <c r="E1" s="84"/>
-      <c r="F1" s="84"/>
-      <c r="G1" s="84"/>
-      <c r="H1" s="84"/>
-      <c r="I1" s="84"/>
+      <c r="A1" s="66" t="s">
+        <v>67</v>
+      </c>
+      <c r="B1" s="66"/>
+      <c r="C1" s="66"/>
+      <c r="D1" s="66"/>
+      <c r="E1" s="66"/>
+      <c r="F1" s="66"/>
+      <c r="G1" s="66"/>
+      <c r="H1" s="66"/>
+      <c r="I1" s="66"/>
       <c r="J1" s="8"/>
       <c r="K1" s="8"/>
       <c r="L1" s="8"/>
@@ -4096,15 +4100,15 @@
       <c r="AM1" s="8"/>
     </row>
     <row r="2" spans="1:40" s="1" customFormat="1" ht="7.5" customHeight="1">
-      <c r="A2" s="85"/>
-      <c r="B2" s="85"/>
-      <c r="C2" s="85"/>
-      <c r="D2" s="85"/>
-      <c r="E2" s="85"/>
-      <c r="F2" s="85"/>
-      <c r="G2" s="85"/>
-      <c r="H2" s="85"/>
-      <c r="I2" s="85"/>
+      <c r="A2" s="67"/>
+      <c r="B2" s="67"/>
+      <c r="C2" s="67"/>
+      <c r="D2" s="67"/>
+      <c r="E2" s="67"/>
+      <c r="F2" s="67"/>
+      <c r="G2" s="67"/>
+      <c r="H2" s="67"/>
+      <c r="I2" s="67"/>
       <c r="J2" s="9"/>
       <c r="K2" s="9"/>
       <c r="L2" s="9"/>
@@ -4137,16 +4141,16 @@
       <c r="AM2" s="9"/>
     </row>
     <row r="3" spans="1:40" s="11" customFormat="1" ht="13.5" customHeight="1">
-      <c r="A3" s="86" t="s">
-        <v>47</v>
-      </c>
-      <c r="B3" s="86"/>
-      <c r="C3" s="86"/>
-      <c r="D3" s="86"/>
-      <c r="E3" s="86"/>
-      <c r="F3" s="86"/>
-      <c r="G3" s="86"/>
-      <c r="H3" s="86"/>
+      <c r="A3" s="68" t="s">
+        <v>71</v>
+      </c>
+      <c r="B3" s="68"/>
+      <c r="C3" s="68"/>
+      <c r="D3" s="68"/>
+      <c r="E3" s="68"/>
+      <c r="F3" s="68"/>
+      <c r="G3" s="68"/>
+      <c r="H3" s="68"/>
       <c r="I3" s="23"/>
       <c r="J3" s="22"/>
       <c r="K3" s="22"/>
@@ -4181,112 +4185,112 @@
       <c r="AN3" s="10"/>
     </row>
     <row r="4" spans="1:40" s="6" customFormat="1" ht="9" customHeight="1">
-      <c r="A4" s="87"/>
-      <c r="B4" s="87"/>
-      <c r="C4" s="87"/>
-      <c r="D4" s="87"/>
-      <c r="E4" s="87"/>
-      <c r="F4" s="87"/>
-      <c r="G4" s="87"/>
-      <c r="H4" s="87"/>
-      <c r="I4" s="87"/>
+      <c r="A4" s="69"/>
+      <c r="B4" s="69"/>
+      <c r="C4" s="69"/>
+      <c r="D4" s="69"/>
+      <c r="E4" s="69"/>
+      <c r="F4" s="69"/>
+      <c r="G4" s="69"/>
+      <c r="H4" s="69"/>
+      <c r="I4" s="69"/>
     </row>
     <row r="5" spans="1:40" s="1" customFormat="1" ht="13.75" customHeight="1">
-      <c r="A5" s="94" t="str">
+      <c r="A5" s="62" t="str">
         <f>October!A5</f>
         <v>Firstname Lastname</v>
       </c>
-      <c r="B5" s="95"/>
-      <c r="C5" s="95"/>
-      <c r="D5" s="90" t="str">
+      <c r="B5" s="63"/>
+      <c r="C5" s="63"/>
+      <c r="D5" s="58" t="str">
         <f>October!D5</f>
         <v>Augustin Hannah</v>
       </c>
-      <c r="E5" s="91"/>
-      <c r="F5" s="91"/>
-      <c r="G5" s="91"/>
-      <c r="H5" s="92"/>
+      <c r="E5" s="59"/>
+      <c r="F5" s="59"/>
+      <c r="G5" s="59"/>
+      <c r="H5" s="60"/>
       <c r="I5" s="23"/>
       <c r="J5" s="9"/>
       <c r="K5" s="9"/>
       <c r="L5" s="9"/>
     </row>
     <row r="6" spans="1:40" s="1" customFormat="1" ht="7.5" customHeight="1">
-      <c r="A6" s="96"/>
-      <c r="B6" s="96"/>
-      <c r="C6" s="96"/>
-      <c r="D6" s="96"/>
-      <c r="E6" s="96"/>
-      <c r="F6" s="96"/>
-      <c r="G6" s="96"/>
-      <c r="H6" s="96"/>
-      <c r="I6" s="96"/>
+      <c r="A6" s="64"/>
+      <c r="B6" s="64"/>
+      <c r="C6" s="64"/>
+      <c r="D6" s="64"/>
+      <c r="E6" s="64"/>
+      <c r="F6" s="64"/>
+      <c r="G6" s="64"/>
+      <c r="H6" s="64"/>
+      <c r="I6" s="64"/>
     </row>
     <row r="7" spans="1:40" s="1" customFormat="1" ht="13.75" customHeight="1">
-      <c r="A7" s="89" t="str">
+      <c r="A7" s="57" t="str">
         <f>October!A7</f>
         <v>Project Acronym</v>
       </c>
-      <c r="B7" s="89"/>
-      <c r="C7" s="89"/>
-      <c r="D7" s="97" t="str">
+      <c r="B7" s="57"/>
+      <c r="C7" s="57"/>
+      <c r="D7" s="65" t="str">
         <f>October!D7</f>
         <v>AIQ</v>
       </c>
-      <c r="E7" s="97"/>
-      <c r="F7" s="97"/>
-      <c r="G7" s="97"/>
-      <c r="H7" s="97"/>
+      <c r="E7" s="65"/>
+      <c r="F7" s="65"/>
+      <c r="G7" s="65"/>
+      <c r="H7" s="65"/>
       <c r="I7" s="24"/>
     </row>
     <row r="8" spans="1:40" s="1" customFormat="1" ht="7.5" customHeight="1">
-      <c r="A8" s="88"/>
-      <c r="B8" s="88"/>
-      <c r="C8" s="88"/>
-      <c r="D8" s="88"/>
-      <c r="E8" s="88"/>
-      <c r="F8" s="88"/>
-      <c r="G8" s="88"/>
-      <c r="H8" s="88"/>
-      <c r="I8" s="88"/>
+      <c r="A8" s="70"/>
+      <c r="B8" s="70"/>
+      <c r="C8" s="70"/>
+      <c r="D8" s="70"/>
+      <c r="E8" s="70"/>
+      <c r="F8" s="70"/>
+      <c r="G8" s="70"/>
+      <c r="H8" s="70"/>
+      <c r="I8" s="70"/>
     </row>
     <row r="9" spans="1:40" s="1" customFormat="1" ht="13.75" customHeight="1">
-      <c r="A9" s="89" t="str">
+      <c r="A9" s="57" t="str">
         <f>October!A9</f>
         <v>Project Title</v>
       </c>
-      <c r="B9" s="89"/>
-      <c r="C9" s="89"/>
-      <c r="D9" s="90" t="str">
+      <c r="B9" s="57"/>
+      <c r="C9" s="57"/>
+      <c r="D9" s="58" t="str">
         <f>October!D9</f>
         <v>Automating change detection in ImageQuerying</v>
       </c>
-      <c r="E9" s="91"/>
-      <c r="F9" s="91"/>
-      <c r="G9" s="91"/>
-      <c r="H9" s="92"/>
+      <c r="E9" s="59"/>
+      <c r="F9" s="59"/>
+      <c r="G9" s="59"/>
+      <c r="H9" s="60"/>
       <c r="I9" s="24"/>
       <c r="J9" s="15"/>
     </row>
     <row r="10" spans="1:40" s="1" customFormat="1" ht="7.5" customHeight="1">
-      <c r="A10" s="93"/>
-      <c r="B10" s="93"/>
-      <c r="C10" s="93"/>
-      <c r="D10" s="93"/>
-      <c r="E10" s="93"/>
-      <c r="F10" s="93"/>
-      <c r="G10" s="93"/>
-      <c r="H10" s="93"/>
-      <c r="I10" s="93"/>
+      <c r="A10" s="61"/>
+      <c r="B10" s="61"/>
+      <c r="C10" s="61"/>
+      <c r="D10" s="61"/>
+      <c r="E10" s="61"/>
+      <c r="F10" s="61"/>
+      <c r="G10" s="61"/>
+      <c r="H10" s="61"/>
+      <c r="I10" s="61"/>
     </row>
     <row r="11" spans="1:40" s="1" customFormat="1" ht="12">
       <c r="A11" s="21" t="s">
-        <v>45</v>
+        <v>69</v>
       </c>
       <c r="B11" s="21"/>
       <c r="C11" s="21"/>
       <c r="D11" s="21" t="s">
-        <v>46</v>
+        <v>70</v>
       </c>
       <c r="E11" s="21"/>
       <c r="F11" s="21"/>
@@ -4306,55 +4310,55 @@
       <c r="I12" s="26"/>
     </row>
     <row r="13" spans="1:40" s="2" customFormat="1" ht="15.5" customHeight="1">
-      <c r="A13" s="68" t="s">
-        <v>2</v>
-      </c>
-      <c r="B13" s="71" t="s">
-        <v>41</v>
-      </c>
-      <c r="C13" s="72"/>
-      <c r="D13" s="72"/>
-      <c r="E13" s="72"/>
-      <c r="F13" s="72"/>
-      <c r="G13" s="72"/>
-      <c r="H13" s="72"/>
-      <c r="I13" s="73"/>
+      <c r="A13" s="78" t="s">
+        <v>26</v>
+      </c>
+      <c r="B13" s="81" t="s">
+        <v>65</v>
+      </c>
+      <c r="C13" s="82"/>
+      <c r="D13" s="82"/>
+      <c r="E13" s="82"/>
+      <c r="F13" s="82"/>
+      <c r="G13" s="82"/>
+      <c r="H13" s="82"/>
+      <c r="I13" s="83"/>
     </row>
     <row r="14" spans="1:40" s="2" customFormat="1" ht="13.75" customHeight="1">
-      <c r="A14" s="69"/>
-      <c r="B14" s="74" t="s">
-        <v>3</v>
-      </c>
-      <c r="C14" s="75"/>
-      <c r="D14" s="76" t="s">
-        <v>4</v>
-      </c>
-      <c r="E14" s="78" t="s">
-        <v>42</v>
-      </c>
-      <c r="F14" s="79"/>
-      <c r="G14" s="79"/>
-      <c r="H14" s="79"/>
-      <c r="I14" s="80"/>
+      <c r="A14" s="79"/>
+      <c r="B14" s="84" t="s">
+        <v>27</v>
+      </c>
+      <c r="C14" s="85"/>
+      <c r="D14" s="86" t="s">
+        <v>28</v>
+      </c>
+      <c r="E14" s="88" t="s">
+        <v>66</v>
+      </c>
+      <c r="F14" s="89"/>
+      <c r="G14" s="89"/>
+      <c r="H14" s="89"/>
+      <c r="I14" s="90"/>
     </row>
     <row r="15" spans="1:40" ht="13" customHeight="1">
-      <c r="A15" s="70"/>
+      <c r="A15" s="80"/>
       <c r="B15" s="32" t="s">
-        <v>5</v>
+        <v>29</v>
       </c>
       <c r="C15" s="33" t="s">
-        <v>6</v>
-      </c>
-      <c r="D15" s="77"/>
-      <c r="E15" s="81"/>
-      <c r="F15" s="82"/>
-      <c r="G15" s="82"/>
-      <c r="H15" s="82"/>
-      <c r="I15" s="83"/>
+        <v>30</v>
+      </c>
+      <c r="D15" s="87"/>
+      <c r="E15" s="91"/>
+      <c r="F15" s="92"/>
+      <c r="G15" s="92"/>
+      <c r="H15" s="92"/>
+      <c r="I15" s="93"/>
     </row>
     <row r="16" spans="1:40" s="43" customFormat="1" ht="12">
       <c r="A16" s="40" t="s">
-        <v>7</v>
+        <v>31</v>
       </c>
       <c r="B16" s="41"/>
       <c r="C16" s="42"/>
@@ -4362,15 +4366,15 @@
         <f>C16-B16</f>
         <v>0</v>
       </c>
-      <c r="E16" s="60"/>
-      <c r="F16" s="61"/>
-      <c r="G16" s="61"/>
-      <c r="H16" s="61"/>
-      <c r="I16" s="62"/>
+      <c r="E16" s="71"/>
+      <c r="F16" s="72"/>
+      <c r="G16" s="72"/>
+      <c r="H16" s="72"/>
+      <c r="I16" s="73"/>
     </row>
     <row r="17" spans="1:9" s="43" customFormat="1" ht="12">
       <c r="A17" s="40" t="s">
-        <v>8</v>
+        <v>32</v>
       </c>
       <c r="B17" s="41"/>
       <c r="C17" s="42"/>
@@ -4378,15 +4382,15 @@
         <f t="shared" ref="D17:D46" si="0">C17-B17</f>
         <v>0</v>
       </c>
-      <c r="E17" s="60"/>
-      <c r="F17" s="61"/>
-      <c r="G17" s="61"/>
-      <c r="H17" s="61"/>
-      <c r="I17" s="62"/>
+      <c r="E17" s="71"/>
+      <c r="F17" s="72"/>
+      <c r="G17" s="72"/>
+      <c r="H17" s="72"/>
+      <c r="I17" s="73"/>
     </row>
     <row r="18" spans="1:9" s="51" customFormat="1" ht="12">
       <c r="A18" s="48" t="s">
-        <v>9</v>
+        <v>33</v>
       </c>
       <c r="B18" s="49">
         <v>0.41666666666666669</v>
@@ -4398,17 +4402,17 @@
         <f t="shared" si="0"/>
         <v>0.24999999999999994</v>
       </c>
-      <c r="E18" s="57" t="s">
-        <v>82</v>
-      </c>
-      <c r="F18" s="58"/>
-      <c r="G18" s="58"/>
-      <c r="H18" s="58"/>
-      <c r="I18" s="59"/>
+      <c r="E18" s="77" t="s">
+        <v>12</v>
+      </c>
+      <c r="F18" s="75"/>
+      <c r="G18" s="75"/>
+      <c r="H18" s="75"/>
+      <c r="I18" s="76"/>
     </row>
     <row r="19" spans="1:9" s="51" customFormat="1" ht="12">
       <c r="A19" s="48" t="s">
-        <v>10</v>
+        <v>34</v>
       </c>
       <c r="B19" s="49">
         <v>0.5</v>
@@ -4420,17 +4424,17 @@
         <f t="shared" si="0"/>
         <v>0.16666666666666663</v>
       </c>
-      <c r="E19" s="57" t="s">
-        <v>83</v>
-      </c>
-      <c r="F19" s="58"/>
-      <c r="G19" s="58"/>
-      <c r="H19" s="58"/>
-      <c r="I19" s="59"/>
+      <c r="E19" s="77" t="s">
+        <v>13</v>
+      </c>
+      <c r="F19" s="75"/>
+      <c r="G19" s="75"/>
+      <c r="H19" s="75"/>
+      <c r="I19" s="76"/>
     </row>
     <row r="20" spans="1:9" s="43" customFormat="1" ht="12">
       <c r="A20" s="40" t="s">
-        <v>11</v>
+        <v>35</v>
       </c>
       <c r="B20" s="41"/>
       <c r="C20" s="42"/>
@@ -4438,15 +4442,15 @@
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="E20" s="60"/>
-      <c r="F20" s="61"/>
-      <c r="G20" s="61"/>
-      <c r="H20" s="61"/>
-      <c r="I20" s="62"/>
+      <c r="E20" s="71"/>
+      <c r="F20" s="72"/>
+      <c r="G20" s="72"/>
+      <c r="H20" s="72"/>
+      <c r="I20" s="73"/>
     </row>
     <row r="21" spans="1:9" s="43" customFormat="1" ht="12">
       <c r="A21" s="40" t="s">
-        <v>12</v>
+        <v>36</v>
       </c>
       <c r="B21" s="41"/>
       <c r="C21" s="42"/>
@@ -4454,15 +4458,15 @@
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="E21" s="60"/>
-      <c r="F21" s="61"/>
-      <c r="G21" s="61"/>
-      <c r="H21" s="61"/>
-      <c r="I21" s="62"/>
+      <c r="E21" s="71"/>
+      <c r="F21" s="72"/>
+      <c r="G21" s="72"/>
+      <c r="H21" s="72"/>
+      <c r="I21" s="73"/>
     </row>
     <row r="22" spans="1:9" s="43" customFormat="1" ht="12">
       <c r="A22" s="40" t="s">
-        <v>13</v>
+        <v>37</v>
       </c>
       <c r="B22" s="41"/>
       <c r="C22" s="42"/>
@@ -4470,15 +4474,15 @@
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="E22" s="60"/>
-      <c r="F22" s="61"/>
-      <c r="G22" s="61"/>
-      <c r="H22" s="61"/>
-      <c r="I22" s="62"/>
+      <c r="E22" s="71"/>
+      <c r="F22" s="72"/>
+      <c r="G22" s="72"/>
+      <c r="H22" s="72"/>
+      <c r="I22" s="73"/>
     </row>
     <row r="23" spans="1:9" s="43" customFormat="1" ht="12">
       <c r="A23" s="40" t="s">
-        <v>14</v>
+        <v>38</v>
       </c>
       <c r="B23" s="41"/>
       <c r="C23" s="42"/>
@@ -4486,15 +4490,15 @@
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="E23" s="60"/>
-      <c r="F23" s="61"/>
-      <c r="G23" s="61"/>
-      <c r="H23" s="61"/>
-      <c r="I23" s="62"/>
+      <c r="E23" s="71"/>
+      <c r="F23" s="72"/>
+      <c r="G23" s="72"/>
+      <c r="H23" s="72"/>
+      <c r="I23" s="73"/>
     </row>
     <row r="24" spans="1:9" s="43" customFormat="1" ht="12">
       <c r="A24" s="40" t="s">
-        <v>15</v>
+        <v>39</v>
       </c>
       <c r="B24" s="41"/>
       <c r="C24" s="42"/>
@@ -4502,15 +4506,15 @@
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="E24" s="60"/>
-      <c r="F24" s="61"/>
-      <c r="G24" s="61"/>
-      <c r="H24" s="61"/>
-      <c r="I24" s="62"/>
+      <c r="E24" s="71"/>
+      <c r="F24" s="72"/>
+      <c r="G24" s="72"/>
+      <c r="H24" s="72"/>
+      <c r="I24" s="73"/>
     </row>
     <row r="25" spans="1:9" s="51" customFormat="1" ht="12">
       <c r="A25" s="48" t="s">
-        <v>16</v>
+        <v>40</v>
       </c>
       <c r="B25" s="49"/>
       <c r="C25" s="50"/>
@@ -4518,15 +4522,15 @@
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="E25" s="57"/>
-      <c r="F25" s="58"/>
-      <c r="G25" s="58"/>
-      <c r="H25" s="58"/>
-      <c r="I25" s="59"/>
+      <c r="E25" s="77"/>
+      <c r="F25" s="75"/>
+      <c r="G25" s="75"/>
+      <c r="H25" s="75"/>
+      <c r="I25" s="76"/>
     </row>
     <row r="26" spans="1:9" s="51" customFormat="1" ht="12">
       <c r="A26" s="48" t="s">
-        <v>17</v>
+        <v>41</v>
       </c>
       <c r="B26" s="49"/>
       <c r="C26" s="50"/>
@@ -4534,15 +4538,15 @@
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="E26" s="57"/>
-      <c r="F26" s="58"/>
-      <c r="G26" s="58"/>
-      <c r="H26" s="58"/>
-      <c r="I26" s="59"/>
+      <c r="E26" s="77"/>
+      <c r="F26" s="75"/>
+      <c r="G26" s="75"/>
+      <c r="H26" s="75"/>
+      <c r="I26" s="76"/>
     </row>
     <row r="27" spans="1:9" s="43" customFormat="1" ht="12">
       <c r="A27" s="40" t="s">
-        <v>18</v>
+        <v>42</v>
       </c>
       <c r="B27" s="41">
         <v>0.375</v>
@@ -4554,17 +4558,17 @@
         <f t="shared" si="0"/>
         <v>8.3333333333333315E-2</v>
       </c>
-      <c r="E27" s="60" t="s">
-        <v>81</v>
-      </c>
-      <c r="F27" s="61"/>
-      <c r="G27" s="61"/>
-      <c r="H27" s="61"/>
-      <c r="I27" s="62"/>
+      <c r="E27" s="71" t="s">
+        <v>11</v>
+      </c>
+      <c r="F27" s="72"/>
+      <c r="G27" s="72"/>
+      <c r="H27" s="72"/>
+      <c r="I27" s="73"/>
     </row>
     <row r="28" spans="1:9" s="43" customFormat="1" ht="12">
       <c r="A28" s="40" t="s">
-        <v>19</v>
+        <v>43</v>
       </c>
       <c r="B28" s="41">
         <v>0.5</v>
@@ -4576,17 +4580,17 @@
         <f t="shared" si="0"/>
         <v>0.33333333333333337</v>
       </c>
-      <c r="E28" s="60" t="s">
-        <v>79</v>
-      </c>
-      <c r="F28" s="61"/>
-      <c r="G28" s="61"/>
-      <c r="H28" s="61"/>
-      <c r="I28" s="62"/>
+      <c r="E28" s="71" t="s">
+        <v>9</v>
+      </c>
+      <c r="F28" s="72"/>
+      <c r="G28" s="72"/>
+      <c r="H28" s="72"/>
+      <c r="I28" s="73"/>
     </row>
     <row r="29" spans="1:9" s="43" customFormat="1" ht="12">
       <c r="A29" s="40" t="s">
-        <v>20</v>
+        <v>44</v>
       </c>
       <c r="B29" s="41">
         <v>0.375</v>
@@ -4598,17 +4602,17 @@
         <f t="shared" si="0"/>
         <v>0.16666666666666663</v>
       </c>
-      <c r="E29" s="60" t="s">
-        <v>80</v>
-      </c>
-      <c r="F29" s="61"/>
-      <c r="G29" s="61"/>
-      <c r="H29" s="61"/>
-      <c r="I29" s="62"/>
+      <c r="E29" s="71" t="s">
+        <v>10</v>
+      </c>
+      <c r="F29" s="72"/>
+      <c r="G29" s="72"/>
+      <c r="H29" s="72"/>
+      <c r="I29" s="73"/>
     </row>
     <row r="30" spans="1:9" s="43" customFormat="1" ht="12">
       <c r="A30" s="40" t="s">
-        <v>21</v>
+        <v>45</v>
       </c>
       <c r="B30" s="41">
         <v>0.70833333333333337</v>
@@ -4620,17 +4624,17 @@
         <f t="shared" si="0"/>
         <v>0.125</v>
       </c>
-      <c r="E30" s="60" t="s">
-        <v>61</v>
-      </c>
-      <c r="F30" s="61"/>
-      <c r="G30" s="61"/>
-      <c r="H30" s="61"/>
-      <c r="I30" s="62"/>
+      <c r="E30" s="71" t="s">
+        <v>85</v>
+      </c>
+      <c r="F30" s="72"/>
+      <c r="G30" s="72"/>
+      <c r="H30" s="72"/>
+      <c r="I30" s="73"/>
     </row>
     <row r="31" spans="1:9" s="43" customFormat="1" ht="12">
       <c r="A31" s="40" t="s">
-        <v>22</v>
+        <v>46</v>
       </c>
       <c r="B31" s="41"/>
       <c r="C31" s="42"/>
@@ -4638,15 +4642,15 @@
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="E31" s="60"/>
-      <c r="F31" s="61"/>
-      <c r="G31" s="61"/>
-      <c r="H31" s="61"/>
-      <c r="I31" s="62"/>
+      <c r="E31" s="71"/>
+      <c r="F31" s="72"/>
+      <c r="G31" s="72"/>
+      <c r="H31" s="72"/>
+      <c r="I31" s="73"/>
     </row>
     <row r="32" spans="1:9" s="51" customFormat="1" ht="12">
       <c r="A32" s="48" t="s">
-        <v>23</v>
+        <v>47</v>
       </c>
       <c r="B32" s="49"/>
       <c r="C32" s="50"/>
@@ -4654,31 +4658,37 @@
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="E32" s="57"/>
-      <c r="F32" s="58"/>
-      <c r="G32" s="58"/>
-      <c r="H32" s="58"/>
-      <c r="I32" s="59"/>
+      <c r="E32" s="77"/>
+      <c r="F32" s="75"/>
+      <c r="G32" s="75"/>
+      <c r="H32" s="75"/>
+      <c r="I32" s="76"/>
     </row>
     <row r="33" spans="1:12" s="51" customFormat="1" ht="12">
       <c r="A33" s="48" t="s">
-        <v>27</v>
-      </c>
-      <c r="B33" s="49"/>
-      <c r="C33" s="50"/>
+        <v>51</v>
+      </c>
+      <c r="B33" s="49">
+        <v>0.83333333333333337</v>
+      </c>
+      <c r="C33" s="50">
+        <v>0.875</v>
+      </c>
       <c r="D33" s="50">
         <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="E33" s="57"/>
-      <c r="F33" s="58"/>
-      <c r="G33" s="58"/>
-      <c r="H33" s="58"/>
-      <c r="I33" s="59"/>
+        <v>4.166666666666663E-2</v>
+      </c>
+      <c r="E33" s="77" t="s">
+        <v>23</v>
+      </c>
+      <c r="F33" s="75"/>
+      <c r="G33" s="75"/>
+      <c r="H33" s="75"/>
+      <c r="I33" s="76"/>
     </row>
     <row r="34" spans="1:12" s="43" customFormat="1" ht="12">
       <c r="A34" s="40" t="s">
-        <v>28</v>
+        <v>52</v>
       </c>
       <c r="B34" s="41"/>
       <c r="C34" s="42"/>
@@ -4686,15 +4696,15 @@
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="E34" s="60"/>
-      <c r="F34" s="61"/>
-      <c r="G34" s="61"/>
-      <c r="H34" s="61"/>
-      <c r="I34" s="62"/>
+      <c r="E34" s="71"/>
+      <c r="F34" s="72"/>
+      <c r="G34" s="72"/>
+      <c r="H34" s="72"/>
+      <c r="I34" s="73"/>
     </row>
     <row r="35" spans="1:12" s="43" customFormat="1" ht="12">
       <c r="A35" s="40" t="s">
-        <v>29</v>
+        <v>53</v>
       </c>
       <c r="B35" s="41"/>
       <c r="C35" s="42"/>
@@ -4702,15 +4712,15 @@
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="E35" s="60"/>
-      <c r="F35" s="61"/>
-      <c r="G35" s="61"/>
-      <c r="H35" s="61"/>
-      <c r="I35" s="62"/>
+      <c r="E35" s="71"/>
+      <c r="F35" s="72"/>
+      <c r="G35" s="72"/>
+      <c r="H35" s="72"/>
+      <c r="I35" s="73"/>
     </row>
     <row r="36" spans="1:12" s="43" customFormat="1" ht="12">
       <c r="A36" s="40" t="s">
-        <v>30</v>
+        <v>54</v>
       </c>
       <c r="B36" s="41"/>
       <c r="C36" s="42"/>
@@ -4718,15 +4728,15 @@
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="E36" s="60"/>
-      <c r="F36" s="61"/>
-      <c r="G36" s="61"/>
-      <c r="H36" s="61"/>
-      <c r="I36" s="62"/>
+      <c r="E36" s="71"/>
+      <c r="F36" s="72"/>
+      <c r="G36" s="72"/>
+      <c r="H36" s="72"/>
+      <c r="I36" s="73"/>
     </row>
     <row r="37" spans="1:12" s="43" customFormat="1" ht="12">
       <c r="A37" s="40" t="s">
-        <v>31</v>
+        <v>55</v>
       </c>
       <c r="B37" s="41"/>
       <c r="C37" s="42"/>
@@ -4734,15 +4744,15 @@
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="E37" s="60"/>
-      <c r="F37" s="61"/>
-      <c r="G37" s="61"/>
-      <c r="H37" s="61"/>
-      <c r="I37" s="62"/>
+      <c r="E37" s="71"/>
+      <c r="F37" s="72"/>
+      <c r="G37" s="72"/>
+      <c r="H37" s="72"/>
+      <c r="I37" s="73"/>
     </row>
     <row r="38" spans="1:12" s="43" customFormat="1" ht="12">
       <c r="A38" s="40" t="s">
-        <v>32</v>
+        <v>56</v>
       </c>
       <c r="B38" s="41"/>
       <c r="C38" s="42"/>
@@ -4750,15 +4760,15 @@
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="E38" s="60"/>
-      <c r="F38" s="61"/>
-      <c r="G38" s="61"/>
-      <c r="H38" s="61"/>
-      <c r="I38" s="62"/>
+      <c r="E38" s="71"/>
+      <c r="F38" s="72"/>
+      <c r="G38" s="72"/>
+      <c r="H38" s="72"/>
+      <c r="I38" s="73"/>
     </row>
     <row r="39" spans="1:12" s="51" customFormat="1" ht="12">
       <c r="A39" s="48" t="s">
-        <v>33</v>
+        <v>57</v>
       </c>
       <c r="B39" s="49"/>
       <c r="C39" s="50"/>
@@ -4766,15 +4776,15 @@
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="E39" s="57"/>
-      <c r="F39" s="58"/>
-      <c r="G39" s="58"/>
-      <c r="H39" s="58"/>
-      <c r="I39" s="59"/>
+      <c r="E39" s="77"/>
+      <c r="F39" s="75"/>
+      <c r="G39" s="75"/>
+      <c r="H39" s="75"/>
+      <c r="I39" s="76"/>
     </row>
     <row r="40" spans="1:12" s="51" customFormat="1" ht="12">
       <c r="A40" s="48" t="s">
-        <v>34</v>
+        <v>58</v>
       </c>
       <c r="B40" s="49"/>
       <c r="C40" s="50"/>
@@ -4782,15 +4792,15 @@
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="E40" s="57"/>
-      <c r="F40" s="58"/>
-      <c r="G40" s="58"/>
-      <c r="H40" s="58"/>
-      <c r="I40" s="59"/>
+      <c r="E40" s="77"/>
+      <c r="F40" s="75"/>
+      <c r="G40" s="75"/>
+      <c r="H40" s="75"/>
+      <c r="I40" s="76"/>
     </row>
     <row r="41" spans="1:12" s="43" customFormat="1" ht="12">
       <c r="A41" s="40" t="s">
-        <v>35</v>
+        <v>59</v>
       </c>
       <c r="B41" s="41"/>
       <c r="C41" s="42"/>
@@ -4798,15 +4808,15 @@
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="E41" s="60"/>
-      <c r="F41" s="61"/>
-      <c r="G41" s="61"/>
-      <c r="H41" s="61"/>
-      <c r="I41" s="62"/>
+      <c r="E41" s="71"/>
+      <c r="F41" s="72"/>
+      <c r="G41" s="72"/>
+      <c r="H41" s="72"/>
+      <c r="I41" s="73"/>
     </row>
     <row r="42" spans="1:12" s="43" customFormat="1" ht="12">
       <c r="A42" s="40" t="s">
-        <v>36</v>
+        <v>60</v>
       </c>
       <c r="B42" s="41"/>
       <c r="C42" s="42"/>
@@ -4814,15 +4824,15 @@
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="E42" s="60"/>
-      <c r="F42" s="61"/>
-      <c r="G42" s="61"/>
-      <c r="H42" s="61"/>
-      <c r="I42" s="62"/>
+      <c r="E42" s="71"/>
+      <c r="F42" s="72"/>
+      <c r="G42" s="72"/>
+      <c r="H42" s="72"/>
+      <c r="I42" s="73"/>
     </row>
     <row r="43" spans="1:12" s="43" customFormat="1" ht="12">
       <c r="A43" s="40" t="s">
-        <v>37</v>
+        <v>61</v>
       </c>
       <c r="B43" s="41"/>
       <c r="C43" s="42"/>
@@ -4830,15 +4840,15 @@
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="E43" s="60"/>
-      <c r="F43" s="61"/>
-      <c r="G43" s="61"/>
-      <c r="H43" s="61"/>
-      <c r="I43" s="62"/>
+      <c r="E43" s="71"/>
+      <c r="F43" s="72"/>
+      <c r="G43" s="72"/>
+      <c r="H43" s="72"/>
+      <c r="I43" s="73"/>
     </row>
     <row r="44" spans="1:12" s="43" customFormat="1" ht="12">
       <c r="A44" s="40" t="s">
-        <v>38</v>
+        <v>62</v>
       </c>
       <c r="B44" s="41"/>
       <c r="C44" s="42"/>
@@ -4846,15 +4856,15 @@
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="E44" s="60"/>
-      <c r="F44" s="61"/>
-      <c r="G44" s="61"/>
-      <c r="H44" s="61"/>
-      <c r="I44" s="62"/>
+      <c r="E44" s="71"/>
+      <c r="F44" s="72"/>
+      <c r="G44" s="72"/>
+      <c r="H44" s="72"/>
+      <c r="I44" s="73"/>
     </row>
     <row r="45" spans="1:12" s="43" customFormat="1" ht="12">
       <c r="A45" s="40" t="s">
-        <v>39</v>
+        <v>63</v>
       </c>
       <c r="B45" s="41"/>
       <c r="C45" s="42"/>
@@ -4862,15 +4872,15 @@
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="E45" s="60"/>
-      <c r="F45" s="61"/>
-      <c r="G45" s="61"/>
-      <c r="H45" s="61"/>
-      <c r="I45" s="62"/>
+      <c r="E45" s="71"/>
+      <c r="F45" s="72"/>
+      <c r="G45" s="72"/>
+      <c r="H45" s="72"/>
+      <c r="I45" s="73"/>
     </row>
     <row r="46" spans="1:12" s="51" customFormat="1" ht="12">
       <c r="A46" s="48" t="s">
-        <v>40</v>
+        <v>64</v>
       </c>
       <c r="B46" s="49"/>
       <c r="C46" s="50"/>
@@ -4878,11 +4888,11 @@
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="E46" s="57"/>
-      <c r="F46" s="58"/>
-      <c r="G46" s="58"/>
-      <c r="H46" s="58"/>
-      <c r="I46" s="59"/>
+      <c r="E46" s="77"/>
+      <c r="F46" s="75"/>
+      <c r="G46" s="75"/>
+      <c r="H46" s="75"/>
+      <c r="I46" s="76"/>
     </row>
     <row r="47" spans="1:12" s="35" customFormat="1" ht="13">
       <c r="A47" s="100"/>
@@ -4890,7 +4900,7 @@
       <c r="C47" s="101"/>
       <c r="D47" s="34">
         <f>SUM(D16:D46)</f>
-        <v>1.125</v>
+        <v>1.1666666666666665</v>
       </c>
       <c r="E47" s="98"/>
       <c r="F47" s="98"/>
@@ -4914,41 +4924,6 @@
     </row>
   </sheetData>
   <mergeCells count="51">
-    <mergeCell ref="D9:H9"/>
-    <mergeCell ref="A10:I10"/>
-    <mergeCell ref="A1:I1"/>
-    <mergeCell ref="A2:I2"/>
-    <mergeCell ref="A3:H3"/>
-    <mergeCell ref="A4:I4"/>
-    <mergeCell ref="A5:C5"/>
-    <mergeCell ref="D5:H5"/>
-    <mergeCell ref="A6:I6"/>
-    <mergeCell ref="E29:I29"/>
-    <mergeCell ref="E30:I30"/>
-    <mergeCell ref="E31:I31"/>
-    <mergeCell ref="E17:I17"/>
-    <mergeCell ref="E26:I26"/>
-    <mergeCell ref="E27:I27"/>
-    <mergeCell ref="E28:I28"/>
-    <mergeCell ref="E23:I23"/>
-    <mergeCell ref="E24:I24"/>
-    <mergeCell ref="E25:I25"/>
-    <mergeCell ref="E20:I20"/>
-    <mergeCell ref="E21:I21"/>
-    <mergeCell ref="E22:I22"/>
-    <mergeCell ref="E18:I18"/>
-    <mergeCell ref="E19:I19"/>
-    <mergeCell ref="E35:I35"/>
-    <mergeCell ref="E36:I36"/>
-    <mergeCell ref="E37:I37"/>
-    <mergeCell ref="E32:I32"/>
-    <mergeCell ref="E33:I33"/>
-    <mergeCell ref="E34:I34"/>
-    <mergeCell ref="E47:I47"/>
-    <mergeCell ref="A47:C47"/>
-    <mergeCell ref="E44:I44"/>
-    <mergeCell ref="E45:I45"/>
-    <mergeCell ref="E46:I46"/>
     <mergeCell ref="E41:I41"/>
     <mergeCell ref="E42:I42"/>
     <mergeCell ref="E43:I43"/>
@@ -4965,6 +4940,41 @@
     <mergeCell ref="E38:I38"/>
     <mergeCell ref="E39:I39"/>
     <mergeCell ref="E40:I40"/>
+    <mergeCell ref="E47:I47"/>
+    <mergeCell ref="A47:C47"/>
+    <mergeCell ref="E44:I44"/>
+    <mergeCell ref="E45:I45"/>
+    <mergeCell ref="E46:I46"/>
+    <mergeCell ref="E35:I35"/>
+    <mergeCell ref="E36:I36"/>
+    <mergeCell ref="E37:I37"/>
+    <mergeCell ref="E32:I32"/>
+    <mergeCell ref="E33:I33"/>
+    <mergeCell ref="E34:I34"/>
+    <mergeCell ref="E29:I29"/>
+    <mergeCell ref="E30:I30"/>
+    <mergeCell ref="E31:I31"/>
+    <mergeCell ref="E17:I17"/>
+    <mergeCell ref="E26:I26"/>
+    <mergeCell ref="E27:I27"/>
+    <mergeCell ref="E28:I28"/>
+    <mergeCell ref="E23:I23"/>
+    <mergeCell ref="E24:I24"/>
+    <mergeCell ref="E25:I25"/>
+    <mergeCell ref="E20:I20"/>
+    <mergeCell ref="E21:I21"/>
+    <mergeCell ref="E22:I22"/>
+    <mergeCell ref="E18:I18"/>
+    <mergeCell ref="E19:I19"/>
+    <mergeCell ref="D9:H9"/>
+    <mergeCell ref="A10:I10"/>
+    <mergeCell ref="A1:I1"/>
+    <mergeCell ref="A2:I2"/>
+    <mergeCell ref="A3:H3"/>
+    <mergeCell ref="A4:I4"/>
+    <mergeCell ref="A5:C5"/>
+    <mergeCell ref="D5:H5"/>
+    <mergeCell ref="A6:I6"/>
   </mergeCells>
   <phoneticPr fontId="32" type="noConversion"/>
   <printOptions horizontalCentered="1"/>
@@ -5003,17 +5013,17 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:40" s="7" customFormat="1" ht="18" thickBot="1">
-      <c r="A1" s="84" t="s">
-        <v>43</v>
-      </c>
-      <c r="B1" s="84"/>
-      <c r="C1" s="84"/>
-      <c r="D1" s="84"/>
-      <c r="E1" s="84"/>
-      <c r="F1" s="84"/>
-      <c r="G1" s="84"/>
-      <c r="H1" s="84"/>
-      <c r="I1" s="84"/>
+      <c r="A1" s="66" t="s">
+        <v>67</v>
+      </c>
+      <c r="B1" s="66"/>
+      <c r="C1" s="66"/>
+      <c r="D1" s="66"/>
+      <c r="E1" s="66"/>
+      <c r="F1" s="66"/>
+      <c r="G1" s="66"/>
+      <c r="H1" s="66"/>
+      <c r="I1" s="66"/>
       <c r="J1" s="8"/>
       <c r="K1" s="8"/>
       <c r="L1" s="8"/>
@@ -5046,15 +5056,15 @@
       <c r="AM1" s="8"/>
     </row>
     <row r="2" spans="1:40" s="1" customFormat="1" ht="7.5" customHeight="1">
-      <c r="A2" s="85"/>
-      <c r="B2" s="85"/>
-      <c r="C2" s="85"/>
-      <c r="D2" s="85"/>
-      <c r="E2" s="85"/>
-      <c r="F2" s="85"/>
-      <c r="G2" s="85"/>
-      <c r="H2" s="85"/>
-      <c r="I2" s="85"/>
+      <c r="A2" s="67"/>
+      <c r="B2" s="67"/>
+      <c r="C2" s="67"/>
+      <c r="D2" s="67"/>
+      <c r="E2" s="67"/>
+      <c r="F2" s="67"/>
+      <c r="G2" s="67"/>
+      <c r="H2" s="67"/>
+      <c r="I2" s="67"/>
       <c r="J2" s="9"/>
       <c r="K2" s="9"/>
       <c r="L2" s="9"/>
@@ -5087,16 +5097,16 @@
       <c r="AM2" s="9"/>
     </row>
     <row r="3" spans="1:40" s="11" customFormat="1" ht="13.5" customHeight="1">
-      <c r="A3" s="86" t="s">
-        <v>47</v>
-      </c>
-      <c r="B3" s="86"/>
-      <c r="C3" s="86"/>
-      <c r="D3" s="86"/>
-      <c r="E3" s="86"/>
-      <c r="F3" s="86"/>
-      <c r="G3" s="86"/>
-      <c r="H3" s="86"/>
+      <c r="A3" s="68" t="s">
+        <v>71</v>
+      </c>
+      <c r="B3" s="68"/>
+      <c r="C3" s="68"/>
+      <c r="D3" s="68"/>
+      <c r="E3" s="68"/>
+      <c r="F3" s="68"/>
+      <c r="G3" s="68"/>
+      <c r="H3" s="68"/>
       <c r="I3" s="23"/>
       <c r="J3" s="22"/>
       <c r="K3" s="22"/>
@@ -5131,112 +5141,112 @@
       <c r="AN3" s="10"/>
     </row>
     <row r="4" spans="1:40" s="6" customFormat="1" ht="9" customHeight="1">
-      <c r="A4" s="87"/>
-      <c r="B4" s="87"/>
-      <c r="C4" s="87"/>
-      <c r="D4" s="87"/>
-      <c r="E4" s="87"/>
-      <c r="F4" s="87"/>
-      <c r="G4" s="87"/>
-      <c r="H4" s="87"/>
-      <c r="I4" s="87"/>
+      <c r="A4" s="69"/>
+      <c r="B4" s="69"/>
+      <c r="C4" s="69"/>
+      <c r="D4" s="69"/>
+      <c r="E4" s="69"/>
+      <c r="F4" s="69"/>
+      <c r="G4" s="69"/>
+      <c r="H4" s="69"/>
+      <c r="I4" s="69"/>
     </row>
     <row r="5" spans="1:40" s="1" customFormat="1" ht="13.75" customHeight="1">
-      <c r="A5" s="94" t="str">
+      <c r="A5" s="62" t="str">
         <f>October!A5</f>
         <v>Firstname Lastname</v>
       </c>
-      <c r="B5" s="95"/>
-      <c r="C5" s="95"/>
-      <c r="D5" s="90" t="str">
+      <c r="B5" s="63"/>
+      <c r="C5" s="63"/>
+      <c r="D5" s="58" t="str">
         <f>October!D5</f>
         <v>Augustin Hannah</v>
       </c>
-      <c r="E5" s="91"/>
-      <c r="F5" s="91"/>
-      <c r="G5" s="91"/>
-      <c r="H5" s="92"/>
+      <c r="E5" s="59"/>
+      <c r="F5" s="59"/>
+      <c r="G5" s="59"/>
+      <c r="H5" s="60"/>
       <c r="I5" s="23"/>
       <c r="J5" s="9"/>
       <c r="K5" s="9"/>
       <c r="L5" s="9"/>
     </row>
     <row r="6" spans="1:40" s="1" customFormat="1" ht="7.5" customHeight="1">
-      <c r="A6" s="96"/>
-      <c r="B6" s="96"/>
-      <c r="C6" s="96"/>
-      <c r="D6" s="96"/>
-      <c r="E6" s="96"/>
-      <c r="F6" s="96"/>
-      <c r="G6" s="96"/>
-      <c r="H6" s="96"/>
-      <c r="I6" s="96"/>
+      <c r="A6" s="64"/>
+      <c r="B6" s="64"/>
+      <c r="C6" s="64"/>
+      <c r="D6" s="64"/>
+      <c r="E6" s="64"/>
+      <c r="F6" s="64"/>
+      <c r="G6" s="64"/>
+      <c r="H6" s="64"/>
+      <c r="I6" s="64"/>
     </row>
     <row r="7" spans="1:40" s="1" customFormat="1" ht="13.75" customHeight="1">
-      <c r="A7" s="89" t="str">
+      <c r="A7" s="57" t="str">
         <f>October!A7</f>
         <v>Project Acronym</v>
       </c>
-      <c r="B7" s="89"/>
-      <c r="C7" s="89"/>
-      <c r="D7" s="97" t="str">
+      <c r="B7" s="57"/>
+      <c r="C7" s="57"/>
+      <c r="D7" s="65" t="str">
         <f>October!D7</f>
         <v>AIQ</v>
       </c>
-      <c r="E7" s="97"/>
-      <c r="F7" s="97"/>
-      <c r="G7" s="97"/>
-      <c r="H7" s="97"/>
+      <c r="E7" s="65"/>
+      <c r="F7" s="65"/>
+      <c r="G7" s="65"/>
+      <c r="H7" s="65"/>
       <c r="I7" s="24"/>
     </row>
     <row r="8" spans="1:40" s="1" customFormat="1" ht="7.5" customHeight="1">
-      <c r="A8" s="88"/>
-      <c r="B8" s="88"/>
-      <c r="C8" s="88"/>
-      <c r="D8" s="88"/>
-      <c r="E8" s="88"/>
-      <c r="F8" s="88"/>
-      <c r="G8" s="88"/>
-      <c r="H8" s="88"/>
-      <c r="I8" s="88"/>
+      <c r="A8" s="70"/>
+      <c r="B8" s="70"/>
+      <c r="C8" s="70"/>
+      <c r="D8" s="70"/>
+      <c r="E8" s="70"/>
+      <c r="F8" s="70"/>
+      <c r="G8" s="70"/>
+      <c r="H8" s="70"/>
+      <c r="I8" s="70"/>
     </row>
     <row r="9" spans="1:40" s="1" customFormat="1" ht="13.75" customHeight="1">
-      <c r="A9" s="89" t="str">
+      <c r="A9" s="57" t="str">
         <f>October!A9</f>
         <v>Project Title</v>
       </c>
-      <c r="B9" s="89"/>
-      <c r="C9" s="89"/>
-      <c r="D9" s="90" t="str">
+      <c r="B9" s="57"/>
+      <c r="C9" s="57"/>
+      <c r="D9" s="58" t="str">
         <f>October!D9</f>
         <v>Automating change detection in ImageQuerying</v>
       </c>
-      <c r="E9" s="91"/>
-      <c r="F9" s="91"/>
-      <c r="G9" s="91"/>
-      <c r="H9" s="92"/>
+      <c r="E9" s="59"/>
+      <c r="F9" s="59"/>
+      <c r="G9" s="59"/>
+      <c r="H9" s="60"/>
       <c r="I9" s="24"/>
       <c r="J9" s="15"/>
     </row>
     <row r="10" spans="1:40" s="1" customFormat="1" ht="7.5" customHeight="1">
-      <c r="A10" s="93"/>
-      <c r="B10" s="93"/>
-      <c r="C10" s="93"/>
-      <c r="D10" s="93"/>
-      <c r="E10" s="93"/>
-      <c r="F10" s="93"/>
-      <c r="G10" s="93"/>
-      <c r="H10" s="93"/>
-      <c r="I10" s="93"/>
+      <c r="A10" s="61"/>
+      <c r="B10" s="61"/>
+      <c r="C10" s="61"/>
+      <c r="D10" s="61"/>
+      <c r="E10" s="61"/>
+      <c r="F10" s="61"/>
+      <c r="G10" s="61"/>
+      <c r="H10" s="61"/>
+      <c r="I10" s="61"/>
     </row>
     <row r="11" spans="1:40" s="1" customFormat="1" ht="12">
       <c r="A11" s="21" t="s">
-        <v>45</v>
+        <v>69</v>
       </c>
       <c r="B11" s="21"/>
       <c r="C11" s="21"/>
       <c r="D11" s="21" t="s">
-        <v>46</v>
+        <v>70</v>
       </c>
       <c r="E11" s="21"/>
       <c r="F11" s="21"/>
@@ -5256,55 +5266,55 @@
       <c r="I12" s="26"/>
     </row>
     <row r="13" spans="1:40" s="2" customFormat="1" ht="15.5" customHeight="1">
-      <c r="A13" s="68" t="s">
-        <v>2</v>
-      </c>
-      <c r="B13" s="71" t="s">
-        <v>41</v>
-      </c>
-      <c r="C13" s="72"/>
-      <c r="D13" s="72"/>
-      <c r="E13" s="72"/>
-      <c r="F13" s="72"/>
-      <c r="G13" s="72"/>
-      <c r="H13" s="72"/>
-      <c r="I13" s="73"/>
+      <c r="A13" s="78" t="s">
+        <v>26</v>
+      </c>
+      <c r="B13" s="81" t="s">
+        <v>65</v>
+      </c>
+      <c r="C13" s="82"/>
+      <c r="D13" s="82"/>
+      <c r="E13" s="82"/>
+      <c r="F13" s="82"/>
+      <c r="G13" s="82"/>
+      <c r="H13" s="82"/>
+      <c r="I13" s="83"/>
     </row>
     <row r="14" spans="1:40" s="2" customFormat="1" ht="13.75" customHeight="1">
-      <c r="A14" s="69"/>
-      <c r="B14" s="74" t="s">
-        <v>3</v>
-      </c>
-      <c r="C14" s="75"/>
-      <c r="D14" s="76" t="s">
-        <v>4</v>
-      </c>
-      <c r="E14" s="78" t="s">
-        <v>42</v>
-      </c>
-      <c r="F14" s="79"/>
-      <c r="G14" s="79"/>
-      <c r="H14" s="79"/>
-      <c r="I14" s="80"/>
+      <c r="A14" s="79"/>
+      <c r="B14" s="84" t="s">
+        <v>27</v>
+      </c>
+      <c r="C14" s="85"/>
+      <c r="D14" s="86" t="s">
+        <v>28</v>
+      </c>
+      <c r="E14" s="88" t="s">
+        <v>66</v>
+      </c>
+      <c r="F14" s="89"/>
+      <c r="G14" s="89"/>
+      <c r="H14" s="89"/>
+      <c r="I14" s="90"/>
     </row>
     <row r="15" spans="1:40" ht="12" customHeight="1">
-      <c r="A15" s="70"/>
+      <c r="A15" s="80"/>
       <c r="B15" s="32" t="s">
-        <v>5</v>
+        <v>29</v>
       </c>
       <c r="C15" s="33" t="s">
-        <v>6</v>
-      </c>
-      <c r="D15" s="77"/>
-      <c r="E15" s="81"/>
-      <c r="F15" s="82"/>
-      <c r="G15" s="82"/>
-      <c r="H15" s="82"/>
-      <c r="I15" s="83"/>
+        <v>30</v>
+      </c>
+      <c r="D15" s="87"/>
+      <c r="E15" s="91"/>
+      <c r="F15" s="92"/>
+      <c r="G15" s="92"/>
+      <c r="H15" s="92"/>
+      <c r="I15" s="93"/>
     </row>
     <row r="16" spans="1:40" s="51" customFormat="1" ht="12">
       <c r="A16" s="48" t="s">
-        <v>7</v>
+        <v>31</v>
       </c>
       <c r="B16" s="49"/>
       <c r="C16" s="50"/>
@@ -5312,15 +5322,15 @@
         <f>C16-B16</f>
         <v>0</v>
       </c>
-      <c r="E16" s="57"/>
-      <c r="F16" s="58"/>
-      <c r="G16" s="58"/>
-      <c r="H16" s="58"/>
-      <c r="I16" s="59"/>
+      <c r="E16" s="77"/>
+      <c r="F16" s="75"/>
+      <c r="G16" s="75"/>
+      <c r="H16" s="75"/>
+      <c r="I16" s="76"/>
     </row>
     <row r="17" spans="1:9" s="43" customFormat="1" ht="12">
       <c r="A17" s="40" t="s">
-        <v>8</v>
+        <v>32</v>
       </c>
       <c r="B17" s="41"/>
       <c r="C17" s="42"/>
@@ -5328,15 +5338,15 @@
         <f t="shared" ref="D17:D46" si="0">C17-B17</f>
         <v>0</v>
       </c>
-      <c r="E17" s="60"/>
-      <c r="F17" s="61"/>
-      <c r="G17" s="61"/>
-      <c r="H17" s="61"/>
-      <c r="I17" s="62"/>
+      <c r="E17" s="71"/>
+      <c r="F17" s="72"/>
+      <c r="G17" s="72"/>
+      <c r="H17" s="72"/>
+      <c r="I17" s="73"/>
     </row>
     <row r="18" spans="1:9" s="43" customFormat="1" ht="12">
       <c r="A18" s="40" t="s">
-        <v>9</v>
+        <v>33</v>
       </c>
       <c r="B18" s="41"/>
       <c r="C18" s="42"/>
@@ -5344,15 +5354,15 @@
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="E18" s="60"/>
-      <c r="F18" s="61"/>
-      <c r="G18" s="61"/>
-      <c r="H18" s="61"/>
-      <c r="I18" s="62"/>
+      <c r="E18" s="71"/>
+      <c r="F18" s="72"/>
+      <c r="G18" s="72"/>
+      <c r="H18" s="72"/>
+      <c r="I18" s="73"/>
     </row>
     <row r="19" spans="1:9" s="43" customFormat="1" ht="12">
       <c r="A19" s="40" t="s">
-        <v>10</v>
+        <v>34</v>
       </c>
       <c r="B19" s="41"/>
       <c r="C19" s="42"/>
@@ -5360,15 +5370,15 @@
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="E19" s="60"/>
-      <c r="F19" s="61"/>
-      <c r="G19" s="61"/>
-      <c r="H19" s="61"/>
-      <c r="I19" s="62"/>
+      <c r="E19" s="71"/>
+      <c r="F19" s="72"/>
+      <c r="G19" s="72"/>
+      <c r="H19" s="72"/>
+      <c r="I19" s="73"/>
     </row>
     <row r="20" spans="1:9" s="43" customFormat="1" ht="12">
       <c r="A20" s="40" t="s">
-        <v>11</v>
+        <v>35</v>
       </c>
       <c r="B20" s="41"/>
       <c r="C20" s="42"/>
@@ -5376,15 +5386,15 @@
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="E20" s="60"/>
-      <c r="F20" s="61"/>
-      <c r="G20" s="61"/>
-      <c r="H20" s="61"/>
-      <c r="I20" s="62"/>
+      <c r="E20" s="71"/>
+      <c r="F20" s="72"/>
+      <c r="G20" s="72"/>
+      <c r="H20" s="72"/>
+      <c r="I20" s="73"/>
     </row>
     <row r="21" spans="1:9" s="43" customFormat="1" ht="12">
       <c r="A21" s="40" t="s">
-        <v>12</v>
+        <v>36</v>
       </c>
       <c r="B21" s="41"/>
       <c r="C21" s="42"/>
@@ -5392,15 +5402,15 @@
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="E21" s="60"/>
-      <c r="F21" s="61"/>
-      <c r="G21" s="61"/>
-      <c r="H21" s="61"/>
-      <c r="I21" s="62"/>
+      <c r="E21" s="71"/>
+      <c r="F21" s="72"/>
+      <c r="G21" s="72"/>
+      <c r="H21" s="72"/>
+      <c r="I21" s="73"/>
     </row>
     <row r="22" spans="1:9" s="51" customFormat="1" ht="12">
       <c r="A22" s="48" t="s">
-        <v>13</v>
+        <v>37</v>
       </c>
       <c r="B22" s="49"/>
       <c r="C22" s="50"/>
@@ -5408,15 +5418,15 @@
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="E22" s="57"/>
-      <c r="F22" s="58"/>
-      <c r="G22" s="58"/>
-      <c r="H22" s="58"/>
-      <c r="I22" s="59"/>
+      <c r="E22" s="77"/>
+      <c r="F22" s="75"/>
+      <c r="G22" s="75"/>
+      <c r="H22" s="75"/>
+      <c r="I22" s="76"/>
     </row>
     <row r="23" spans="1:9" s="51" customFormat="1" ht="12">
       <c r="A23" s="48" t="s">
-        <v>14</v>
+        <v>38</v>
       </c>
       <c r="B23" s="49"/>
       <c r="C23" s="50"/>
@@ -5424,15 +5434,15 @@
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="E23" s="57"/>
-      <c r="F23" s="58"/>
-      <c r="G23" s="58"/>
-      <c r="H23" s="58"/>
-      <c r="I23" s="59"/>
+      <c r="E23" s="77"/>
+      <c r="F23" s="75"/>
+      <c r="G23" s="75"/>
+      <c r="H23" s="75"/>
+      <c r="I23" s="76"/>
     </row>
     <row r="24" spans="1:9" s="43" customFormat="1" ht="12">
       <c r="A24" s="40" t="s">
-        <v>15</v>
+        <v>39</v>
       </c>
       <c r="B24" s="41"/>
       <c r="C24" s="42"/>
@@ -5440,15 +5450,15 @@
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="E24" s="60"/>
-      <c r="F24" s="61"/>
-      <c r="G24" s="61"/>
-      <c r="H24" s="61"/>
-      <c r="I24" s="62"/>
+      <c r="E24" s="71"/>
+      <c r="F24" s="72"/>
+      <c r="G24" s="72"/>
+      <c r="H24" s="72"/>
+      <c r="I24" s="73"/>
     </row>
     <row r="25" spans="1:9" s="43" customFormat="1" ht="12">
       <c r="A25" s="40" t="s">
-        <v>16</v>
+        <v>40</v>
       </c>
       <c r="B25" s="41"/>
       <c r="C25" s="42"/>
@@ -5456,15 +5466,15 @@
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="E25" s="60"/>
-      <c r="F25" s="61"/>
-      <c r="G25" s="61"/>
-      <c r="H25" s="61"/>
-      <c r="I25" s="62"/>
+      <c r="E25" s="71"/>
+      <c r="F25" s="72"/>
+      <c r="G25" s="72"/>
+      <c r="H25" s="72"/>
+      <c r="I25" s="73"/>
     </row>
     <row r="26" spans="1:9" s="43" customFormat="1" ht="12">
       <c r="A26" s="40" t="s">
-        <v>17</v>
+        <v>41</v>
       </c>
       <c r="B26" s="41"/>
       <c r="C26" s="42"/>
@@ -5472,15 +5482,15 @@
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="E26" s="60"/>
-      <c r="F26" s="61"/>
-      <c r="G26" s="61"/>
-      <c r="H26" s="61"/>
-      <c r="I26" s="62"/>
+      <c r="E26" s="71"/>
+      <c r="F26" s="72"/>
+      <c r="G26" s="72"/>
+      <c r="H26" s="72"/>
+      <c r="I26" s="73"/>
     </row>
     <row r="27" spans="1:9" s="43" customFormat="1" ht="12">
       <c r="A27" s="40" t="s">
-        <v>18</v>
+        <v>42</v>
       </c>
       <c r="B27" s="41"/>
       <c r="C27" s="42"/>
@@ -5488,15 +5498,15 @@
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="E27" s="60"/>
-      <c r="F27" s="61"/>
-      <c r="G27" s="61"/>
-      <c r="H27" s="61"/>
-      <c r="I27" s="62"/>
+      <c r="E27" s="71"/>
+      <c r="F27" s="72"/>
+      <c r="G27" s="72"/>
+      <c r="H27" s="72"/>
+      <c r="I27" s="73"/>
     </row>
     <row r="28" spans="1:9" s="43" customFormat="1" ht="12">
       <c r="A28" s="40" t="s">
-        <v>19</v>
+        <v>43</v>
       </c>
       <c r="B28" s="41"/>
       <c r="C28" s="42"/>
@@ -5504,15 +5514,15 @@
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="E28" s="60"/>
-      <c r="F28" s="61"/>
-      <c r="G28" s="61"/>
-      <c r="H28" s="61"/>
-      <c r="I28" s="62"/>
+      <c r="E28" s="71"/>
+      <c r="F28" s="72"/>
+      <c r="G28" s="72"/>
+      <c r="H28" s="72"/>
+      <c r="I28" s="73"/>
     </row>
     <row r="29" spans="1:9" s="51" customFormat="1" ht="12">
       <c r="A29" s="48" t="s">
-        <v>20</v>
+        <v>44</v>
       </c>
       <c r="B29" s="49"/>
       <c r="C29" s="50"/>
@@ -5520,15 +5530,15 @@
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="E29" s="57"/>
-      <c r="F29" s="58"/>
-      <c r="G29" s="58"/>
-      <c r="H29" s="58"/>
-      <c r="I29" s="59"/>
+      <c r="E29" s="77"/>
+      <c r="F29" s="75"/>
+      <c r="G29" s="75"/>
+      <c r="H29" s="75"/>
+      <c r="I29" s="76"/>
     </row>
     <row r="30" spans="1:9" s="51" customFormat="1" ht="12">
       <c r="A30" s="48" t="s">
-        <v>21</v>
+        <v>45</v>
       </c>
       <c r="B30" s="49"/>
       <c r="C30" s="50"/>
@@ -5536,15 +5546,15 @@
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="E30" s="57"/>
-      <c r="F30" s="58"/>
-      <c r="G30" s="58"/>
-      <c r="H30" s="58"/>
-      <c r="I30" s="59"/>
+      <c r="E30" s="77"/>
+      <c r="F30" s="75"/>
+      <c r="G30" s="75"/>
+      <c r="H30" s="75"/>
+      <c r="I30" s="76"/>
     </row>
     <row r="31" spans="1:9" s="43" customFormat="1" ht="12">
       <c r="A31" s="40" t="s">
-        <v>22</v>
+        <v>46</v>
       </c>
       <c r="B31" s="41"/>
       <c r="C31" s="42"/>
@@ -5552,15 +5562,15 @@
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="E31" s="60"/>
-      <c r="F31" s="61"/>
-      <c r="G31" s="61"/>
-      <c r="H31" s="61"/>
-      <c r="I31" s="62"/>
+      <c r="E31" s="71"/>
+      <c r="F31" s="72"/>
+      <c r="G31" s="72"/>
+      <c r="H31" s="72"/>
+      <c r="I31" s="73"/>
     </row>
     <row r="32" spans="1:9" s="43" customFormat="1" ht="12">
       <c r="A32" s="40" t="s">
-        <v>23</v>
+        <v>47</v>
       </c>
       <c r="B32" s="41"/>
       <c r="C32" s="42"/>
@@ -5568,15 +5578,15 @@
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="E32" s="60"/>
-      <c r="F32" s="61"/>
-      <c r="G32" s="61"/>
-      <c r="H32" s="61"/>
-      <c r="I32" s="62"/>
+      <c r="E32" s="71"/>
+      <c r="F32" s="72"/>
+      <c r="G32" s="72"/>
+      <c r="H32" s="72"/>
+      <c r="I32" s="73"/>
     </row>
     <row r="33" spans="1:12" s="43" customFormat="1" ht="12">
       <c r="A33" s="40" t="s">
-        <v>27</v>
+        <v>51</v>
       </c>
       <c r="B33" s="41"/>
       <c r="C33" s="42"/>
@@ -5584,15 +5594,15 @@
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="E33" s="60"/>
-      <c r="F33" s="61"/>
-      <c r="G33" s="61"/>
-      <c r="H33" s="61"/>
-      <c r="I33" s="62"/>
+      <c r="E33" s="71"/>
+      <c r="F33" s="72"/>
+      <c r="G33" s="72"/>
+      <c r="H33" s="72"/>
+      <c r="I33" s="73"/>
     </row>
     <row r="34" spans="1:12" s="43" customFormat="1" ht="12">
       <c r="A34" s="40" t="s">
-        <v>28</v>
+        <v>52</v>
       </c>
       <c r="B34" s="41"/>
       <c r="C34" s="42"/>
@@ -5600,15 +5610,15 @@
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="E34" s="60"/>
-      <c r="F34" s="61"/>
-      <c r="G34" s="61"/>
-      <c r="H34" s="61"/>
-      <c r="I34" s="62"/>
+      <c r="E34" s="71"/>
+      <c r="F34" s="72"/>
+      <c r="G34" s="72"/>
+      <c r="H34" s="72"/>
+      <c r="I34" s="73"/>
     </row>
     <row r="35" spans="1:12" s="43" customFormat="1" ht="12">
       <c r="A35" s="40" t="s">
-        <v>29</v>
+        <v>53</v>
       </c>
       <c r="B35" s="41"/>
       <c r="C35" s="42"/>
@@ -5616,15 +5626,15 @@
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="E35" s="60"/>
-      <c r="F35" s="61"/>
-      <c r="G35" s="61"/>
-      <c r="H35" s="61"/>
-      <c r="I35" s="62"/>
+      <c r="E35" s="71"/>
+      <c r="F35" s="72"/>
+      <c r="G35" s="72"/>
+      <c r="H35" s="72"/>
+      <c r="I35" s="73"/>
     </row>
     <row r="36" spans="1:12" s="51" customFormat="1" ht="12">
       <c r="A36" s="48" t="s">
-        <v>30</v>
+        <v>54</v>
       </c>
       <c r="B36" s="49"/>
       <c r="C36" s="50"/>
@@ -5632,15 +5642,15 @@
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="E36" s="57"/>
-      <c r="F36" s="58"/>
-      <c r="G36" s="58"/>
-      <c r="H36" s="58"/>
-      <c r="I36" s="59"/>
+      <c r="E36" s="77"/>
+      <c r="F36" s="75"/>
+      <c r="G36" s="75"/>
+      <c r="H36" s="75"/>
+      <c r="I36" s="76"/>
     </row>
     <row r="37" spans="1:12" s="51" customFormat="1" ht="12">
       <c r="A37" s="48" t="s">
-        <v>31</v>
+        <v>55</v>
       </c>
       <c r="B37" s="49"/>
       <c r="C37" s="50"/>
@@ -5648,15 +5658,15 @@
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="E37" s="57"/>
-      <c r="F37" s="58"/>
-      <c r="G37" s="58"/>
-      <c r="H37" s="58"/>
-      <c r="I37" s="59"/>
+      <c r="E37" s="77"/>
+      <c r="F37" s="75"/>
+      <c r="G37" s="75"/>
+      <c r="H37" s="75"/>
+      <c r="I37" s="76"/>
     </row>
     <row r="38" spans="1:12" s="43" customFormat="1" ht="12">
       <c r="A38" s="40" t="s">
-        <v>32</v>
+        <v>56</v>
       </c>
       <c r="B38" s="41"/>
       <c r="C38" s="42"/>
@@ -5664,15 +5674,15 @@
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="E38" s="60"/>
-      <c r="F38" s="61"/>
-      <c r="G38" s="61"/>
-      <c r="H38" s="61"/>
-      <c r="I38" s="62"/>
+      <c r="E38" s="71"/>
+      <c r="F38" s="72"/>
+      <c r="G38" s="72"/>
+      <c r="H38" s="72"/>
+      <c r="I38" s="73"/>
     </row>
     <row r="39" spans="1:12" s="43" customFormat="1" ht="12">
       <c r="A39" s="40" t="s">
-        <v>33</v>
+        <v>57</v>
       </c>
       <c r="B39" s="41"/>
       <c r="C39" s="42"/>
@@ -5680,15 +5690,15 @@
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="E39" s="60"/>
-      <c r="F39" s="61"/>
-      <c r="G39" s="61"/>
-      <c r="H39" s="61"/>
-      <c r="I39" s="62"/>
+      <c r="E39" s="71"/>
+      <c r="F39" s="72"/>
+      <c r="G39" s="72"/>
+      <c r="H39" s="72"/>
+      <c r="I39" s="73"/>
     </row>
     <row r="40" spans="1:12" s="43" customFormat="1" ht="12">
       <c r="A40" s="40" t="s">
-        <v>34</v>
+        <v>58</v>
       </c>
       <c r="B40" s="41"/>
       <c r="C40" s="42"/>
@@ -5696,15 +5706,15 @@
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="E40" s="60"/>
-      <c r="F40" s="61"/>
-      <c r="G40" s="61"/>
-      <c r="H40" s="61"/>
-      <c r="I40" s="62"/>
+      <c r="E40" s="71"/>
+      <c r="F40" s="72"/>
+      <c r="G40" s="72"/>
+      <c r="H40" s="72"/>
+      <c r="I40" s="73"/>
     </row>
     <row r="41" spans="1:12" s="43" customFormat="1" ht="12">
       <c r="A41" s="40" t="s">
-        <v>35</v>
+        <v>59</v>
       </c>
       <c r="B41" s="41"/>
       <c r="C41" s="42"/>
@@ -5712,15 +5722,15 @@
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="E41" s="60"/>
-      <c r="F41" s="61"/>
-      <c r="G41" s="61"/>
-      <c r="H41" s="61"/>
-      <c r="I41" s="62"/>
+      <c r="E41" s="71"/>
+      <c r="F41" s="72"/>
+      <c r="G41" s="72"/>
+      <c r="H41" s="72"/>
+      <c r="I41" s="73"/>
     </row>
     <row r="42" spans="1:12" s="43" customFormat="1" ht="12">
       <c r="A42" s="40" t="s">
-        <v>36</v>
+        <v>60</v>
       </c>
       <c r="B42" s="41"/>
       <c r="C42" s="42"/>
@@ -5728,15 +5738,15 @@
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="E42" s="60"/>
-      <c r="F42" s="61"/>
-      <c r="G42" s="61"/>
-      <c r="H42" s="61"/>
-      <c r="I42" s="62"/>
+      <c r="E42" s="71"/>
+      <c r="F42" s="72"/>
+      <c r="G42" s="72"/>
+      <c r="H42" s="72"/>
+      <c r="I42" s="73"/>
     </row>
     <row r="43" spans="1:12" s="51" customFormat="1" ht="12">
       <c r="A43" s="48" t="s">
-        <v>37</v>
+        <v>61</v>
       </c>
       <c r="B43" s="49"/>
       <c r="C43" s="50"/>
@@ -5744,15 +5754,15 @@
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="E43" s="57"/>
-      <c r="F43" s="58"/>
-      <c r="G43" s="58"/>
-      <c r="H43" s="58"/>
-      <c r="I43" s="59"/>
+      <c r="E43" s="77"/>
+      <c r="F43" s="75"/>
+      <c r="G43" s="75"/>
+      <c r="H43" s="75"/>
+      <c r="I43" s="76"/>
     </row>
     <row r="44" spans="1:12" s="51" customFormat="1" ht="12">
       <c r="A44" s="48" t="s">
-        <v>38</v>
+        <v>62</v>
       </c>
       <c r="B44" s="49"/>
       <c r="C44" s="50"/>
@@ -5760,15 +5770,15 @@
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="E44" s="57"/>
-      <c r="F44" s="58"/>
-      <c r="G44" s="58"/>
-      <c r="H44" s="58"/>
-      <c r="I44" s="59"/>
+      <c r="E44" s="77"/>
+      <c r="F44" s="75"/>
+      <c r="G44" s="75"/>
+      <c r="H44" s="75"/>
+      <c r="I44" s="76"/>
     </row>
     <row r="45" spans="1:12" s="39" customFormat="1" ht="12">
       <c r="A45" s="36" t="s">
-        <v>39</v>
+        <v>63</v>
       </c>
       <c r="B45" s="37"/>
       <c r="C45" s="38"/>
@@ -5784,7 +5794,7 @@
     </row>
     <row r="46" spans="1:12" s="39" customFormat="1" ht="12">
       <c r="A46" s="36" t="s">
-        <v>55</v>
+        <v>79</v>
       </c>
       <c r="B46" s="37"/>
       <c r="C46" s="38"/>
@@ -5828,44 +5838,6 @@
     </row>
   </sheetData>
   <mergeCells count="51">
-    <mergeCell ref="A1:I1"/>
-    <mergeCell ref="A2:I2"/>
-    <mergeCell ref="A3:H3"/>
-    <mergeCell ref="A4:I4"/>
-    <mergeCell ref="A5:C5"/>
-    <mergeCell ref="D5:H5"/>
-    <mergeCell ref="A6:I6"/>
-    <mergeCell ref="A7:C7"/>
-    <mergeCell ref="D7:H7"/>
-    <mergeCell ref="A8:I8"/>
-    <mergeCell ref="A9:C9"/>
-    <mergeCell ref="D9:H9"/>
-    <mergeCell ref="A10:I10"/>
-    <mergeCell ref="A13:A15"/>
-    <mergeCell ref="B13:I13"/>
-    <mergeCell ref="B14:C14"/>
-    <mergeCell ref="D14:D15"/>
-    <mergeCell ref="E14:I15"/>
-    <mergeCell ref="E16:I16"/>
-    <mergeCell ref="E17:I17"/>
-    <mergeCell ref="E18:I18"/>
-    <mergeCell ref="E19:I19"/>
-    <mergeCell ref="E20:I20"/>
-    <mergeCell ref="E21:I21"/>
-    <mergeCell ref="E22:I22"/>
-    <mergeCell ref="E23:I23"/>
-    <mergeCell ref="E24:I24"/>
-    <mergeCell ref="E25:I25"/>
-    <mergeCell ref="E26:I26"/>
-    <mergeCell ref="E27:I27"/>
-    <mergeCell ref="E28:I28"/>
-    <mergeCell ref="E29:I29"/>
-    <mergeCell ref="E30:I30"/>
-    <mergeCell ref="E31:I31"/>
-    <mergeCell ref="E32:I32"/>
-    <mergeCell ref="E33:I33"/>
-    <mergeCell ref="E34:I34"/>
-    <mergeCell ref="E35:I35"/>
     <mergeCell ref="E36:I36"/>
     <mergeCell ref="E37:I37"/>
     <mergeCell ref="E38:I38"/>
@@ -5879,6 +5851,44 @@
     <mergeCell ref="E44:I44"/>
     <mergeCell ref="E46:I46"/>
     <mergeCell ref="E45:I45"/>
+    <mergeCell ref="E31:I31"/>
+    <mergeCell ref="E32:I32"/>
+    <mergeCell ref="E33:I33"/>
+    <mergeCell ref="E34:I34"/>
+    <mergeCell ref="E35:I35"/>
+    <mergeCell ref="E26:I26"/>
+    <mergeCell ref="E27:I27"/>
+    <mergeCell ref="E28:I28"/>
+    <mergeCell ref="E29:I29"/>
+    <mergeCell ref="E30:I30"/>
+    <mergeCell ref="E21:I21"/>
+    <mergeCell ref="E22:I22"/>
+    <mergeCell ref="E23:I23"/>
+    <mergeCell ref="E24:I24"/>
+    <mergeCell ref="E25:I25"/>
+    <mergeCell ref="E16:I16"/>
+    <mergeCell ref="E17:I17"/>
+    <mergeCell ref="E18:I18"/>
+    <mergeCell ref="E19:I19"/>
+    <mergeCell ref="E20:I20"/>
+    <mergeCell ref="A10:I10"/>
+    <mergeCell ref="A13:A15"/>
+    <mergeCell ref="B13:I13"/>
+    <mergeCell ref="B14:C14"/>
+    <mergeCell ref="D14:D15"/>
+    <mergeCell ref="E14:I15"/>
+    <mergeCell ref="A6:I6"/>
+    <mergeCell ref="A7:C7"/>
+    <mergeCell ref="D7:H7"/>
+    <mergeCell ref="A8:I8"/>
+    <mergeCell ref="A9:C9"/>
+    <mergeCell ref="D9:H9"/>
+    <mergeCell ref="A1:I1"/>
+    <mergeCell ref="A2:I2"/>
+    <mergeCell ref="A3:H3"/>
+    <mergeCell ref="A4:I4"/>
+    <mergeCell ref="A5:C5"/>
+    <mergeCell ref="D5:H5"/>
   </mergeCells>
   <phoneticPr fontId="32" type="noConversion"/>
   <printOptions horizontalCentered="1"/>

--- a/TimeSheetTemplate.xlsx
+++ b/TimeSheetTemplate.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4505"/>
   <workbookPr showInkAnnotation="0" codeName="ThisWorkbook" autoCompressPictures="0"/>
   <bookViews>
-    <workbookView xWindow="-20" yWindow="-20" windowWidth="21520" windowHeight="14720" tabRatio="893" activeTab="2"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="25360" windowHeight="14640" tabRatio="893" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="October" sheetId="7" r:id="rId1"/>
@@ -15,7 +15,7 @@
   <definedNames>
     <definedName name="E_satz">#REF!</definedName>
     <definedName name="M_satz">#REF!</definedName>
-    <definedName name="_xlnm.Print_Area" localSheetId="2">December!$A$1:$L$48</definedName>
+    <definedName name="_xlnm.Print_Area" localSheetId="2">December!$A$1:$L$52</definedName>
     <definedName name="_xlnm.Print_Area" localSheetId="3">January!$A$1:$L$48</definedName>
     <definedName name="_xlnm.Print_Area" localSheetId="1">November!$A$1:$L$50</definedName>
     <definedName name="_xlnm.Print_Area" localSheetId="0">October!$A$1:$I$51</definedName>
@@ -36,183 +36,9 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="216" uniqueCount="94">
-  <si>
-    <t>Troubleshoot Windows 10 crash (5 hours personal time)</t>
-    <phoneticPr fontId="32" type="noConversion"/>
-  </si>
-  <si>
-    <t>Plan out Pecha Kucha Slides</t>
-    <phoneticPr fontId="32" type="noConversion"/>
-  </si>
-  <si>
-    <t>Work on download script issues</t>
-    <phoneticPr fontId="32" type="noConversion"/>
-  </si>
-  <si>
-    <t>I3 class and update meeting</t>
-    <phoneticPr fontId="32" type="noConversion"/>
-  </si>
-  <si>
-    <t>Python docs -- brainstorming solutions for all scripts</t>
-    <phoneticPr fontId="32" type="noConversion"/>
-  </si>
-  <si>
-    <t xml:space="preserve">Monthly timesheet for MSc Geoinformatics IP </t>
-    <phoneticPr fontId="32" type="noConversion"/>
-  </si>
-  <si>
-    <t>Set up Landsat image transfer (~70 images) for possible use case with Martin inc</t>
-    <phoneticPr fontId="32" type="noConversion"/>
-  </si>
-  <si>
-    <t>Project Management class, part II</t>
-    <phoneticPr fontId="32" type="noConversion"/>
-  </si>
-  <si>
-    <t>Work on first draft of Risk Matrix, Gantt and PERT Charts in ProjectLibre</t>
-    <phoneticPr fontId="32" type="noConversion"/>
-  </si>
-  <si>
-    <t>Deal with GDAL problem in Windows -- still unresolved; work on conversion script</t>
-    <phoneticPr fontId="32" type="noConversion"/>
-  </si>
-  <si>
-    <t>Finish first draft of conversion script -- send to Tiede and Sudmanns for review</t>
-    <phoneticPr fontId="32" type="noConversion"/>
-  </si>
-  <si>
-    <t>Fixed a few issues with the download script (cloud cover percentage, kml)</t>
-    <phoneticPr fontId="32" type="noConversion"/>
-  </si>
-  <si>
-    <t>Get familiar with numpy, gdal and scipy</t>
-    <phoneticPr fontId="32" type="noConversion"/>
-  </si>
-  <si>
-    <t>Learn to manipulate rasters as arrays with numpy, gdal and scipy.</t>
-    <phoneticPr fontId="32" type="noConversion"/>
-  </si>
-  <si>
-    <t>Learn Git, create GitHub repository, including excel documents</t>
-    <phoneticPr fontId="32" type="noConversion"/>
-  </si>
-  <si>
-    <t>ProjectLibre Tutorials and improving charts</t>
-    <phoneticPr fontId="32" type="noConversion"/>
-  </si>
-  <si>
-    <t>Sort out problem with Python on Mac (Canopy software deinstallation)</t>
-    <phoneticPr fontId="32" type="noConversion"/>
-  </si>
-  <si>
-    <t>Python Tutorial</t>
-    <phoneticPr fontId="32" type="noConversion"/>
-  </si>
-  <si>
-    <t>Python Tutorial</t>
-    <phoneticPr fontId="32" type="noConversion"/>
-  </si>
-  <si>
-    <t>Developing possible use-case during Hackathon, with Martin Sudmanns and team</t>
-    <phoneticPr fontId="32" type="noConversion"/>
-  </si>
-  <si>
-    <t>CLI CodeAcademy course; introduction to Git</t>
-    <phoneticPr fontId="32" type="noConversion"/>
-  </si>
-  <si>
-    <t>Read Processing scripts, brainstorm solutions</t>
-    <phoneticPr fontId="32" type="noConversion"/>
-  </si>
-  <si>
-    <t>Work on extended abstract -- mostly citations in Zotero</t>
-    <phoneticPr fontId="32" type="noConversion"/>
-  </si>
-  <si>
-    <t>Comput statistics (needs testing)</t>
-    <phoneticPr fontId="32" type="noConversion"/>
-  </si>
-  <si>
-    <t>Work on extended abstract</t>
-    <phoneticPr fontId="32" type="noConversion"/>
-  </si>
-  <si>
-    <t>Acquire preprocessing scripts from Tiede and briefly skim them for further questions</t>
-    <phoneticPr fontId="32" type="noConversion"/>
-  </si>
-  <si>
-    <t>Day</t>
-  </si>
-  <si>
-    <t>Time</t>
-  </si>
-  <si>
-    <t>Hours</t>
-  </si>
-  <si>
-    <t>(from)</t>
-  </si>
-  <si>
-    <t>(to)</t>
-  </si>
-  <si>
-    <t>1.</t>
-  </si>
-  <si>
-    <t>2.</t>
-  </si>
-  <si>
-    <t>3.</t>
-  </si>
-  <si>
-    <t>4.</t>
-  </si>
-  <si>
-    <t>5.</t>
-  </si>
-  <si>
-    <t>6.</t>
-  </si>
-  <si>
-    <t>7.</t>
-  </si>
-  <si>
-    <t>8.</t>
-  </si>
-  <si>
-    <t>9.</t>
-  </si>
-  <si>
-    <t>10.</t>
-  </si>
-  <si>
-    <t>11.</t>
-  </si>
-  <si>
-    <t>12.</t>
-  </si>
-  <si>
-    <t>13.</t>
-  </si>
-  <si>
-    <t>14.</t>
-  </si>
-  <si>
-    <t>15.</t>
-  </si>
-  <si>
-    <t>16.</t>
-  </si>
-  <si>
-    <t>17.</t>
-  </si>
-  <si>
-    <t>Kml Polygon Functionality</t>
-    <phoneticPr fontId="32" type="noConversion"/>
-  </si>
-  <si>
-    <t>Work on tile download functionality</t>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="221" uniqueCount="99">
+  <si>
+    <t>Finish first draft of batch.py and load to GitHub for testing on Windows</t>
     <phoneticPr fontId="32" type="noConversion"/>
   </si>
   <si>
@@ -375,6 +201,200 @@
   </si>
   <si>
     <t>Meeting with I3 Professors and editing abstract, incl. travel time</t>
+    <phoneticPr fontId="32" type="noConversion"/>
+  </si>
+  <si>
+    <t>Compute statistics (needs testing)</t>
+    <phoneticPr fontId="32" type="noConversion"/>
+  </si>
+  <si>
+    <t>Learn about Tkinter, develop basic GUI</t>
+    <phoneticPr fontId="32" type="noConversion"/>
+  </si>
+  <si>
+    <t>I3: Posters and Presentation Skills</t>
+    <phoneticPr fontId="32" type="noConversion"/>
+  </si>
+  <si>
+    <t>Refine GUI</t>
+    <phoneticPr fontId="32" type="noConversion"/>
+  </si>
+  <si>
+    <t>Begin adding batch script creation from GUI input</t>
+    <phoneticPr fontId="32" type="noConversion"/>
+  </si>
+  <si>
+    <t>Troubleshoot Windows 10 crash (5 hours personal time)</t>
+    <phoneticPr fontId="32" type="noConversion"/>
+  </si>
+  <si>
+    <t>Plan out Pecha Kucha Slides</t>
+    <phoneticPr fontId="32" type="noConversion"/>
+  </si>
+  <si>
+    <t>Work on download script issues</t>
+    <phoneticPr fontId="32" type="noConversion"/>
+  </si>
+  <si>
+    <t>I3 class and update meeting</t>
+    <phoneticPr fontId="32" type="noConversion"/>
+  </si>
+  <si>
+    <t>Python docs -- brainstorming solutions for all scripts</t>
+    <phoneticPr fontId="32" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">Monthly timesheet for MSc Geoinformatics IP </t>
+    <phoneticPr fontId="32" type="noConversion"/>
+  </si>
+  <si>
+    <t>Set up Landsat image transfer (~70 images) for possible use case with Martin inc</t>
+    <phoneticPr fontId="32" type="noConversion"/>
+  </si>
+  <si>
+    <t>Project Management class, part II</t>
+    <phoneticPr fontId="32" type="noConversion"/>
+  </si>
+  <si>
+    <t>Work on first draft of Risk Matrix, Gantt and PERT Charts in ProjectLibre</t>
+    <phoneticPr fontId="32" type="noConversion"/>
+  </si>
+  <si>
+    <t>Deal with GDAL problem in Windows -- still unresolved; work on conversion script</t>
+    <phoneticPr fontId="32" type="noConversion"/>
+  </si>
+  <si>
+    <t>Finish first draft of conversion script -- send to Tiede and Sudmanns for review</t>
+    <phoneticPr fontId="32" type="noConversion"/>
+  </si>
+  <si>
+    <t>Fixed a few issues with the download script (cloud cover percentage, kml)</t>
+    <phoneticPr fontId="32" type="noConversion"/>
+  </si>
+  <si>
+    <t>Get familiar with numpy, gdal and scipy</t>
+    <phoneticPr fontId="32" type="noConversion"/>
+  </si>
+  <si>
+    <t>Learn to manipulate rasters as arrays with numpy, gdal and scipy.</t>
+    <phoneticPr fontId="32" type="noConversion"/>
+  </si>
+  <si>
+    <t>Learn Git, create GitHub repository, including excel documents</t>
+    <phoneticPr fontId="32" type="noConversion"/>
+  </si>
+  <si>
+    <t>ProjectLibre Tutorials and improving charts</t>
+    <phoneticPr fontId="32" type="noConversion"/>
+  </si>
+  <si>
+    <t>Sort out problem with Python on Mac (Canopy software deinstallation)</t>
+    <phoneticPr fontId="32" type="noConversion"/>
+  </si>
+  <si>
+    <t>Python Tutorial</t>
+    <phoneticPr fontId="32" type="noConversion"/>
+  </si>
+  <si>
+    <t>Python Tutorial</t>
+    <phoneticPr fontId="32" type="noConversion"/>
+  </si>
+  <si>
+    <t>Developing possible use-case during Hackathon, with Martin Sudmanns and team</t>
+    <phoneticPr fontId="32" type="noConversion"/>
+  </si>
+  <si>
+    <t>CLI CodeAcademy course; introduction to Git</t>
+    <phoneticPr fontId="32" type="noConversion"/>
+  </si>
+  <si>
+    <t>Read Processing scripts, brainstorm solutions</t>
+    <phoneticPr fontId="32" type="noConversion"/>
+  </si>
+  <si>
+    <t>Work on extended abstract -- mostly citations in Zotero</t>
+    <phoneticPr fontId="32" type="noConversion"/>
+  </si>
+  <si>
+    <t>Work on extended abstract</t>
+    <phoneticPr fontId="32" type="noConversion"/>
+  </si>
+  <si>
+    <t>Acquire preprocessing scripts from Tiede and briefly skim them for further questions</t>
+    <phoneticPr fontId="32" type="noConversion"/>
+  </si>
+  <si>
+    <t>Day</t>
+  </si>
+  <si>
+    <t>Time</t>
+  </si>
+  <si>
+    <t>Hours</t>
+  </si>
+  <si>
+    <t>(from)</t>
+  </si>
+  <si>
+    <t>(to)</t>
+  </si>
+  <si>
+    <t>1.</t>
+  </si>
+  <si>
+    <t>2.</t>
+  </si>
+  <si>
+    <t>3.</t>
+  </si>
+  <si>
+    <t>4.</t>
+  </si>
+  <si>
+    <t>5.</t>
+  </si>
+  <si>
+    <t>6.</t>
+  </si>
+  <si>
+    <t>7.</t>
+  </si>
+  <si>
+    <t>8.</t>
+  </si>
+  <si>
+    <t>9.</t>
+  </si>
+  <si>
+    <t>10.</t>
+  </si>
+  <si>
+    <t>11.</t>
+  </si>
+  <si>
+    <t>12.</t>
+  </si>
+  <si>
+    <t>13.</t>
+  </si>
+  <si>
+    <t>14.</t>
+  </si>
+  <si>
+    <t>15.</t>
+  </si>
+  <si>
+    <t>16.</t>
+  </si>
+  <si>
+    <t>17.</t>
+  </si>
+  <si>
+    <t>Kml Polygon Functionality</t>
+    <phoneticPr fontId="32" type="noConversion"/>
+  </si>
+  <si>
+    <t>Work on tile download functionality</t>
     <phoneticPr fontId="32" type="noConversion"/>
   </si>
 </sst>
@@ -1286,47 +1306,14 @@
     <xf numFmtId="166" fontId="0" fillId="0" borderId="20" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="166" fontId="0" fillId="0" borderId="11" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="166" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="24" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="25" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="26" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="24" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" wrapText="1"/>
@@ -1337,16 +1324,17 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="26" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" wrapText="1"/>
     </xf>
+    <xf numFmtId="167" fontId="10" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="167" fontId="10" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="167" fontId="11" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="167" fontId="11" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="5" fillId="4" borderId="24" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="25" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="26" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="24" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="10" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -1395,16 +1383,48 @@
     <xf numFmtId="0" fontId="10" fillId="0" borderId="23" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="167" fontId="10" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="13" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="167" fontId="10" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="167" fontId="11" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="167" fontId="11" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
     <xf numFmtId="167" fontId="11" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -1888,17 +1908,17 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:50" s="7" customFormat="1" ht="18" thickBot="1">
-      <c r="A1" s="66" t="s">
-        <v>5</v>
-      </c>
-      <c r="B1" s="66"/>
-      <c r="C1" s="66"/>
-      <c r="D1" s="66"/>
-      <c r="E1" s="66"/>
-      <c r="F1" s="66"/>
-      <c r="G1" s="66"/>
-      <c r="H1" s="66"/>
-      <c r="I1" s="66"/>
+      <c r="A1" s="84" t="s">
+        <v>55</v>
+      </c>
+      <c r="B1" s="84"/>
+      <c r="C1" s="84"/>
+      <c r="D1" s="84"/>
+      <c r="E1" s="84"/>
+      <c r="F1" s="84"/>
+      <c r="G1" s="84"/>
+      <c r="H1" s="84"/>
+      <c r="I1" s="84"/>
       <c r="J1" s="8"/>
       <c r="K1" s="8"/>
       <c r="L1" s="8"/>
@@ -1941,15 +1961,15 @@
       <c r="AW1" s="8"/>
     </row>
     <row r="2" spans="1:50" s="1" customFormat="1" ht="7.5" customHeight="1">
-      <c r="A2" s="67"/>
-      <c r="B2" s="67"/>
-      <c r="C2" s="67"/>
-      <c r="D2" s="67"/>
-      <c r="E2" s="67"/>
-      <c r="F2" s="67"/>
-      <c r="G2" s="67"/>
-      <c r="H2" s="67"/>
-      <c r="I2" s="67"/>
+      <c r="A2" s="85"/>
+      <c r="B2" s="85"/>
+      <c r="C2" s="85"/>
+      <c r="D2" s="85"/>
+      <c r="E2" s="85"/>
+      <c r="F2" s="85"/>
+      <c r="G2" s="85"/>
+      <c r="H2" s="85"/>
+      <c r="I2" s="85"/>
       <c r="J2" s="9"/>
       <c r="K2" s="9"/>
       <c r="L2" s="9"/>
@@ -1992,16 +2012,16 @@
       <c r="AW2" s="9"/>
     </row>
     <row r="3" spans="1:50" s="11" customFormat="1" ht="13.5" customHeight="1">
-      <c r="A3" s="68" t="s">
-        <v>71</v>
-      </c>
-      <c r="B3" s="68"/>
-      <c r="C3" s="68"/>
-      <c r="D3" s="68"/>
-      <c r="E3" s="68"/>
-      <c r="F3" s="68"/>
-      <c r="G3" s="68"/>
-      <c r="H3" s="68"/>
+      <c r="A3" s="86" t="s">
+        <v>22</v>
+      </c>
+      <c r="B3" s="86"/>
+      <c r="C3" s="86"/>
+      <c r="D3" s="86"/>
+      <c r="E3" s="86"/>
+      <c r="F3" s="86"/>
+      <c r="G3" s="86"/>
+      <c r="H3" s="86"/>
       <c r="I3" s="23"/>
       <c r="J3" s="22"/>
       <c r="K3" s="22"/>
@@ -2046,29 +2066,29 @@
       <c r="AX3" s="10"/>
     </row>
     <row r="4" spans="1:50" s="6" customFormat="1" ht="9" customHeight="1">
-      <c r="A4" s="69"/>
-      <c r="B4" s="69"/>
-      <c r="C4" s="69"/>
-      <c r="D4" s="69"/>
-      <c r="E4" s="69"/>
-      <c r="F4" s="69"/>
-      <c r="G4" s="69"/>
-      <c r="H4" s="69"/>
-      <c r="I4" s="69"/>
+      <c r="A4" s="87"/>
+      <c r="B4" s="87"/>
+      <c r="C4" s="87"/>
+      <c r="D4" s="87"/>
+      <c r="E4" s="87"/>
+      <c r="F4" s="87"/>
+      <c r="G4" s="87"/>
+      <c r="H4" s="87"/>
+      <c r="I4" s="87"/>
     </row>
     <row r="5" spans="1:50" s="1" customFormat="1" ht="13.75" customHeight="1">
-      <c r="A5" s="62" t="s">
-        <v>68</v>
-      </c>
-      <c r="B5" s="63"/>
-      <c r="C5" s="63"/>
-      <c r="D5" s="58" t="s">
-        <v>74</v>
-      </c>
-      <c r="E5" s="59"/>
-      <c r="F5" s="59"/>
-      <c r="G5" s="59"/>
-      <c r="H5" s="60"/>
+      <c r="A5" s="94" t="s">
+        <v>19</v>
+      </c>
+      <c r="B5" s="95"/>
+      <c r="C5" s="95"/>
+      <c r="D5" s="90" t="s">
+        <v>25</v>
+      </c>
+      <c r="E5" s="91"/>
+      <c r="F5" s="91"/>
+      <c r="G5" s="91"/>
+      <c r="H5" s="92"/>
       <c r="I5" s="23"/>
       <c r="J5" s="9"/>
       <c r="K5" s="9"/>
@@ -2076,77 +2096,77 @@
       <c r="M5" s="9"/>
     </row>
     <row r="6" spans="1:50" s="1" customFormat="1" ht="7.5" customHeight="1">
-      <c r="A6" s="64"/>
-      <c r="B6" s="64"/>
-      <c r="C6" s="64"/>
-      <c r="D6" s="64"/>
-      <c r="E6" s="64"/>
-      <c r="F6" s="64"/>
-      <c r="G6" s="64"/>
-      <c r="H6" s="64"/>
-      <c r="I6" s="64"/>
+      <c r="A6" s="96"/>
+      <c r="B6" s="96"/>
+      <c r="C6" s="96"/>
+      <c r="D6" s="96"/>
+      <c r="E6" s="96"/>
+      <c r="F6" s="96"/>
+      <c r="G6" s="96"/>
+      <c r="H6" s="96"/>
+      <c r="I6" s="96"/>
     </row>
     <row r="7" spans="1:50" s="1" customFormat="1" ht="13.75" customHeight="1">
-      <c r="A7" s="57" t="s">
-        <v>72</v>
-      </c>
-      <c r="B7" s="57"/>
-      <c r="C7" s="57"/>
-      <c r="D7" s="65" t="s">
-        <v>75</v>
-      </c>
-      <c r="E7" s="65"/>
-      <c r="F7" s="65"/>
-      <c r="G7" s="65"/>
-      <c r="H7" s="65"/>
+      <c r="A7" s="89" t="s">
+        <v>23</v>
+      </c>
+      <c r="B7" s="89"/>
+      <c r="C7" s="89"/>
+      <c r="D7" s="97" t="s">
+        <v>26</v>
+      </c>
+      <c r="E7" s="97"/>
+      <c r="F7" s="97"/>
+      <c r="G7" s="97"/>
+      <c r="H7" s="97"/>
       <c r="I7" s="24"/>
     </row>
     <row r="8" spans="1:50" s="1" customFormat="1" ht="7.5" customHeight="1">
-      <c r="A8" s="70"/>
-      <c r="B8" s="70"/>
-      <c r="C8" s="70"/>
-      <c r="D8" s="70"/>
-      <c r="E8" s="70"/>
-      <c r="F8" s="70"/>
-      <c r="G8" s="70"/>
-      <c r="H8" s="70"/>
-      <c r="I8" s="70"/>
+      <c r="A8" s="88"/>
+      <c r="B8" s="88"/>
+      <c r="C8" s="88"/>
+      <c r="D8" s="88"/>
+      <c r="E8" s="88"/>
+      <c r="F8" s="88"/>
+      <c r="G8" s="88"/>
+      <c r="H8" s="88"/>
+      <c r="I8" s="88"/>
     </row>
     <row r="9" spans="1:50" s="1" customFormat="1" ht="13.75" customHeight="1">
-      <c r="A9" s="57" t="s">
-        <v>73</v>
-      </c>
-      <c r="B9" s="57"/>
-      <c r="C9" s="57"/>
-      <c r="D9" s="58" t="s">
-        <v>76</v>
-      </c>
-      <c r="E9" s="59"/>
-      <c r="F9" s="59"/>
-      <c r="G9" s="59"/>
-      <c r="H9" s="60"/>
+      <c r="A9" s="89" t="s">
+        <v>24</v>
+      </c>
+      <c r="B9" s="89"/>
+      <c r="C9" s="89"/>
+      <c r="D9" s="90" t="s">
+        <v>27</v>
+      </c>
+      <c r="E9" s="91"/>
+      <c r="F9" s="91"/>
+      <c r="G9" s="91"/>
+      <c r="H9" s="92"/>
       <c r="I9" s="24"/>
       <c r="J9" s="15"/>
     </row>
     <row r="10" spans="1:50" s="1" customFormat="1" ht="7.5" customHeight="1">
-      <c r="A10" s="61"/>
-      <c r="B10" s="61"/>
-      <c r="C10" s="61"/>
-      <c r="D10" s="61"/>
-      <c r="E10" s="61"/>
-      <c r="F10" s="61"/>
-      <c r="G10" s="61"/>
-      <c r="H10" s="61"/>
-      <c r="I10" s="61"/>
+      <c r="A10" s="93"/>
+      <c r="B10" s="93"/>
+      <c r="C10" s="93"/>
+      <c r="D10" s="93"/>
+      <c r="E10" s="93"/>
+      <c r="F10" s="93"/>
+      <c r="G10" s="93"/>
+      <c r="H10" s="93"/>
+      <c r="I10" s="93"/>
     </row>
     <row r="11" spans="1:50" s="1" customFormat="1" ht="12">
       <c r="A11" s="21" t="s">
-        <v>69</v>
+        <v>20</v>
       </c>
       <c r="B11" s="21"/>
       <c r="C11" s="21"/>
       <c r="D11" s="21" t="s">
-        <v>77</v>
+        <v>28</v>
       </c>
       <c r="E11" s="21"/>
       <c r="F11" s="21"/>
@@ -2166,55 +2186,55 @@
       <c r="I12" s="26"/>
     </row>
     <row r="13" spans="1:50" s="2" customFormat="1" ht="15.5" customHeight="1">
-      <c r="A13" s="78" t="s">
-        <v>26</v>
-      </c>
-      <c r="B13" s="81" t="s">
-        <v>65</v>
-      </c>
-      <c r="C13" s="82"/>
-      <c r="D13" s="82"/>
-      <c r="E13" s="82"/>
-      <c r="F13" s="82"/>
-      <c r="G13" s="82"/>
-      <c r="H13" s="82"/>
-      <c r="I13" s="83"/>
+      <c r="A13" s="68" t="s">
+        <v>75</v>
+      </c>
+      <c r="B13" s="71" t="s">
+        <v>16</v>
+      </c>
+      <c r="C13" s="72"/>
+      <c r="D13" s="72"/>
+      <c r="E13" s="72"/>
+      <c r="F13" s="72"/>
+      <c r="G13" s="72"/>
+      <c r="H13" s="72"/>
+      <c r="I13" s="73"/>
     </row>
     <row r="14" spans="1:50" s="2" customFormat="1" ht="13.75" customHeight="1">
-      <c r="A14" s="79"/>
-      <c r="B14" s="84" t="s">
-        <v>27</v>
-      </c>
-      <c r="C14" s="85"/>
-      <c r="D14" s="86" t="s">
-        <v>28</v>
-      </c>
-      <c r="E14" s="88" t="s">
-        <v>66</v>
-      </c>
-      <c r="F14" s="89"/>
-      <c r="G14" s="89"/>
-      <c r="H14" s="89"/>
-      <c r="I14" s="90"/>
+      <c r="A14" s="69"/>
+      <c r="B14" s="74" t="s">
+        <v>76</v>
+      </c>
+      <c r="C14" s="75"/>
+      <c r="D14" s="76" t="s">
+        <v>77</v>
+      </c>
+      <c r="E14" s="78" t="s">
+        <v>17</v>
+      </c>
+      <c r="F14" s="79"/>
+      <c r="G14" s="79"/>
+      <c r="H14" s="79"/>
+      <c r="I14" s="80"/>
     </row>
     <row r="15" spans="1:50" ht="13" customHeight="1">
-      <c r="A15" s="80"/>
+      <c r="A15" s="70"/>
       <c r="B15" s="32" t="s">
-        <v>29</v>
+        <v>78</v>
       </c>
       <c r="C15" s="33" t="s">
-        <v>30</v>
-      </c>
-      <c r="D15" s="87"/>
-      <c r="E15" s="91"/>
-      <c r="F15" s="92"/>
-      <c r="G15" s="92"/>
-      <c r="H15" s="92"/>
-      <c r="I15" s="93"/>
+        <v>79</v>
+      </c>
+      <c r="D15" s="77"/>
+      <c r="E15" s="81"/>
+      <c r="F15" s="82"/>
+      <c r="G15" s="82"/>
+      <c r="H15" s="82"/>
+      <c r="I15" s="83"/>
     </row>
     <row r="16" spans="1:50" s="51" customFormat="1" ht="12">
       <c r="A16" s="48" t="s">
-        <v>31</v>
+        <v>80</v>
       </c>
       <c r="B16" s="49">
         <v>0.33333333333333331</v>
@@ -2226,17 +2246,17 @@
         <f>C16-B16</f>
         <v>0.20833333333333331</v>
       </c>
-      <c r="E16" s="74" t="s">
-        <v>78</v>
-      </c>
-      <c r="F16" s="75"/>
-      <c r="G16" s="75"/>
-      <c r="H16" s="75"/>
-      <c r="I16" s="76"/>
+      <c r="E16" s="67" t="s">
+        <v>29</v>
+      </c>
+      <c r="F16" s="58"/>
+      <c r="G16" s="58"/>
+      <c r="H16" s="58"/>
+      <c r="I16" s="59"/>
     </row>
     <row r="17" spans="1:9" s="51" customFormat="1" ht="12">
       <c r="A17" s="48" t="s">
-        <v>32</v>
+        <v>81</v>
       </c>
       <c r="B17" s="49"/>
       <c r="C17" s="50"/>
@@ -2244,15 +2264,15 @@
         <f t="shared" ref="D17:D49" si="0">C17-B17</f>
         <v>0</v>
       </c>
-      <c r="E17" s="77"/>
-      <c r="F17" s="75"/>
-      <c r="G17" s="75"/>
-      <c r="H17" s="75"/>
-      <c r="I17" s="76"/>
+      <c r="E17" s="57"/>
+      <c r="F17" s="58"/>
+      <c r="G17" s="58"/>
+      <c r="H17" s="58"/>
+      <c r="I17" s="59"/>
     </row>
     <row r="18" spans="1:9" s="43" customFormat="1" ht="12">
       <c r="A18" s="40" t="s">
-        <v>33</v>
+        <v>82</v>
       </c>
       <c r="B18" s="41"/>
       <c r="C18" s="42"/>
@@ -2260,15 +2280,15 @@
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="E18" s="71"/>
-      <c r="F18" s="72"/>
-      <c r="G18" s="72"/>
-      <c r="H18" s="72"/>
-      <c r="I18" s="73"/>
+      <c r="E18" s="60"/>
+      <c r="F18" s="61"/>
+      <c r="G18" s="61"/>
+      <c r="H18" s="61"/>
+      <c r="I18" s="62"/>
     </row>
     <row r="19" spans="1:9" s="43" customFormat="1" ht="12">
       <c r="A19" s="40" t="s">
-        <v>34</v>
+        <v>83</v>
       </c>
       <c r="B19" s="41">
         <v>0.66666666666666663</v>
@@ -2280,17 +2300,17 @@
         <f t="shared" si="0"/>
         <v>4.1666666666666741E-2</v>
       </c>
-      <c r="E19" s="71" t="s">
-        <v>80</v>
-      </c>
-      <c r="F19" s="72"/>
-      <c r="G19" s="72"/>
-      <c r="H19" s="72"/>
-      <c r="I19" s="73"/>
+      <c r="E19" s="60" t="s">
+        <v>31</v>
+      </c>
+      <c r="F19" s="61"/>
+      <c r="G19" s="61"/>
+      <c r="H19" s="61"/>
+      <c r="I19" s="62"/>
     </row>
     <row r="20" spans="1:9" s="43" customFormat="1" ht="12">
       <c r="A20" s="40" t="s">
-        <v>35</v>
+        <v>84</v>
       </c>
       <c r="B20" s="41"/>
       <c r="C20" s="42"/>
@@ -2298,15 +2318,15 @@
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="E20" s="71"/>
-      <c r="F20" s="72"/>
-      <c r="G20" s="72"/>
-      <c r="H20" s="72"/>
-      <c r="I20" s="73"/>
+      <c r="E20" s="60"/>
+      <c r="F20" s="61"/>
+      <c r="G20" s="61"/>
+      <c r="H20" s="61"/>
+      <c r="I20" s="62"/>
     </row>
     <row r="21" spans="1:9" s="43" customFormat="1" ht="12">
       <c r="A21" s="40" t="s">
-        <v>36</v>
+        <v>85</v>
       </c>
       <c r="B21" s="41"/>
       <c r="C21" s="42"/>
@@ -2314,15 +2334,15 @@
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="E21" s="71"/>
-      <c r="F21" s="72"/>
-      <c r="G21" s="72"/>
-      <c r="H21" s="72"/>
-      <c r="I21" s="73"/>
+      <c r="E21" s="60"/>
+      <c r="F21" s="61"/>
+      <c r="G21" s="61"/>
+      <c r="H21" s="61"/>
+      <c r="I21" s="62"/>
     </row>
     <row r="22" spans="1:9" s="43" customFormat="1" ht="12">
       <c r="A22" s="40" t="s">
-        <v>37</v>
+        <v>86</v>
       </c>
       <c r="B22" s="41"/>
       <c r="C22" s="42"/>
@@ -2330,15 +2350,15 @@
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="E22" s="71"/>
-      <c r="F22" s="72"/>
-      <c r="G22" s="72"/>
-      <c r="H22" s="72"/>
-      <c r="I22" s="73"/>
+      <c r="E22" s="60"/>
+      <c r="F22" s="61"/>
+      <c r="G22" s="61"/>
+      <c r="H22" s="61"/>
+      <c r="I22" s="62"/>
     </row>
     <row r="23" spans="1:9" s="51" customFormat="1" ht="12">
       <c r="A23" s="48" t="s">
-        <v>38</v>
+        <v>87</v>
       </c>
       <c r="B23" s="49"/>
       <c r="C23" s="50"/>
@@ -2346,15 +2366,15 @@
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="E23" s="77"/>
-      <c r="F23" s="75"/>
-      <c r="G23" s="75"/>
-      <c r="H23" s="75"/>
-      <c r="I23" s="76"/>
+      <c r="E23" s="57"/>
+      <c r="F23" s="58"/>
+      <c r="G23" s="58"/>
+      <c r="H23" s="58"/>
+      <c r="I23" s="59"/>
     </row>
     <row r="24" spans="1:9" s="51" customFormat="1" ht="12">
       <c r="A24" s="48" t="s">
-        <v>39</v>
+        <v>88</v>
       </c>
       <c r="B24" s="49">
         <v>0.5</v>
@@ -2366,17 +2386,17 @@
         <f t="shared" si="0"/>
         <v>8.333333333333337E-2</v>
       </c>
-      <c r="E24" s="77" t="s">
-        <v>89</v>
-      </c>
-      <c r="F24" s="75"/>
-      <c r="G24" s="75"/>
-      <c r="H24" s="75"/>
-      <c r="I24" s="76"/>
+      <c r="E24" s="57" t="s">
+        <v>40</v>
+      </c>
+      <c r="F24" s="58"/>
+      <c r="G24" s="58"/>
+      <c r="H24" s="58"/>
+      <c r="I24" s="59"/>
     </row>
     <row r="25" spans="1:9" s="43" customFormat="1" ht="12">
       <c r="A25" s="40" t="s">
-        <v>40</v>
+        <v>89</v>
       </c>
       <c r="B25" s="41">
         <v>0.625</v>
@@ -2388,17 +2408,17 @@
         <f t="shared" si="0"/>
         <v>0.16666666666666663</v>
       </c>
-      <c r="E25" s="71" t="s">
-        <v>88</v>
-      </c>
-      <c r="F25" s="72"/>
-      <c r="G25" s="72"/>
-      <c r="H25" s="72"/>
-      <c r="I25" s="73"/>
+      <c r="E25" s="60" t="s">
+        <v>39</v>
+      </c>
+      <c r="F25" s="61"/>
+      <c r="G25" s="61"/>
+      <c r="H25" s="61"/>
+      <c r="I25" s="62"/>
     </row>
     <row r="26" spans="1:9" s="43" customFormat="1" ht="12">
       <c r="A26" s="40" t="s">
-        <v>41</v>
+        <v>90</v>
       </c>
       <c r="B26" s="41">
         <v>0.375</v>
@@ -2410,13 +2430,13 @@
         <f>C26-B26</f>
         <v>0.125</v>
       </c>
-      <c r="E26" s="71" t="s">
-        <v>6</v>
-      </c>
-      <c r="F26" s="72"/>
-      <c r="G26" s="72"/>
-      <c r="H26" s="72"/>
-      <c r="I26" s="73"/>
+      <c r="E26" s="60" t="s">
+        <v>56</v>
+      </c>
+      <c r="F26" s="61"/>
+      <c r="G26" s="61"/>
+      <c r="H26" s="61"/>
+      <c r="I26" s="62"/>
     </row>
     <row r="27" spans="1:9" s="43" customFormat="1" ht="12">
       <c r="A27" s="40"/>
@@ -2430,17 +2450,17 @@
         <f t="shared" si="0"/>
         <v>8.333333333333337E-2</v>
       </c>
-      <c r="E27" s="71" t="s">
-        <v>93</v>
-      </c>
-      <c r="F27" s="72"/>
-      <c r="G27" s="72"/>
-      <c r="H27" s="72"/>
-      <c r="I27" s="73"/>
+      <c r="E27" s="60" t="s">
+        <v>44</v>
+      </c>
+      <c r="F27" s="61"/>
+      <c r="G27" s="61"/>
+      <c r="H27" s="61"/>
+      <c r="I27" s="62"/>
     </row>
     <row r="28" spans="1:9" s="43" customFormat="1" ht="12">
       <c r="A28" s="40" t="s">
-        <v>42</v>
+        <v>91</v>
       </c>
       <c r="B28" s="41">
         <v>0.83333333333333337</v>
@@ -2452,17 +2472,17 @@
         <f t="shared" si="0"/>
         <v>0.125</v>
       </c>
-      <c r="E28" s="71" t="s">
-        <v>90</v>
-      </c>
-      <c r="F28" s="72"/>
-      <c r="G28" s="72"/>
-      <c r="H28" s="72"/>
-      <c r="I28" s="73"/>
+      <c r="E28" s="60" t="s">
+        <v>41</v>
+      </c>
+      <c r="F28" s="61"/>
+      <c r="G28" s="61"/>
+      <c r="H28" s="61"/>
+      <c r="I28" s="62"/>
     </row>
     <row r="29" spans="1:9" s="43" customFormat="1" ht="12">
       <c r="A29" s="40" t="s">
-        <v>43</v>
+        <v>92</v>
       </c>
       <c r="B29" s="41">
         <v>0.5</v>
@@ -2474,17 +2494,17 @@
         <f t="shared" si="0"/>
         <v>3.125E-2</v>
       </c>
-      <c r="E29" s="71" t="s">
-        <v>92</v>
-      </c>
-      <c r="F29" s="72"/>
-      <c r="G29" s="72"/>
-      <c r="H29" s="72"/>
-      <c r="I29" s="73"/>
+      <c r="E29" s="60" t="s">
+        <v>43</v>
+      </c>
+      <c r="F29" s="61"/>
+      <c r="G29" s="61"/>
+      <c r="H29" s="61"/>
+      <c r="I29" s="62"/>
     </row>
     <row r="30" spans="1:9" s="43" customFormat="1" ht="12">
       <c r="A30" s="40" t="s">
-        <v>44</v>
+        <v>93</v>
       </c>
       <c r="B30" s="41"/>
       <c r="C30" s="42"/>
@@ -2492,15 +2512,15 @@
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="E30" s="71"/>
-      <c r="F30" s="72"/>
-      <c r="G30" s="72"/>
-      <c r="H30" s="72"/>
-      <c r="I30" s="73"/>
+      <c r="E30" s="60"/>
+      <c r="F30" s="61"/>
+      <c r="G30" s="61"/>
+      <c r="H30" s="61"/>
+      <c r="I30" s="62"/>
     </row>
     <row r="31" spans="1:9" s="51" customFormat="1" ht="12">
       <c r="A31" s="48" t="s">
-        <v>45</v>
+        <v>94</v>
       </c>
       <c r="B31" s="49"/>
       <c r="C31" s="50"/>
@@ -2508,15 +2528,15 @@
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="E31" s="77"/>
-      <c r="F31" s="75"/>
-      <c r="G31" s="75"/>
-      <c r="H31" s="75"/>
-      <c r="I31" s="76"/>
+      <c r="E31" s="57"/>
+      <c r="F31" s="58"/>
+      <c r="G31" s="58"/>
+      <c r="H31" s="58"/>
+      <c r="I31" s="59"/>
     </row>
     <row r="32" spans="1:9" s="51" customFormat="1" ht="12">
       <c r="A32" s="48" t="s">
-        <v>46</v>
+        <v>95</v>
       </c>
       <c r="B32" s="49"/>
       <c r="C32" s="50"/>
@@ -2524,15 +2544,15 @@
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="E32" s="77"/>
-      <c r="F32" s="75"/>
-      <c r="G32" s="75"/>
-      <c r="H32" s="75"/>
-      <c r="I32" s="76"/>
+      <c r="E32" s="57"/>
+      <c r="F32" s="58"/>
+      <c r="G32" s="58"/>
+      <c r="H32" s="58"/>
+      <c r="I32" s="59"/>
     </row>
     <row r="33" spans="1:9" s="43" customFormat="1" ht="12">
       <c r="A33" s="40" t="s">
-        <v>47</v>
+        <v>96</v>
       </c>
       <c r="B33" s="41"/>
       <c r="C33" s="42"/>
@@ -2540,15 +2560,15 @@
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="E33" s="71"/>
-      <c r="F33" s="72"/>
-      <c r="G33" s="72"/>
-      <c r="H33" s="72"/>
-      <c r="I33" s="73"/>
+      <c r="E33" s="60"/>
+      <c r="F33" s="61"/>
+      <c r="G33" s="61"/>
+      <c r="H33" s="61"/>
+      <c r="I33" s="62"/>
     </row>
     <row r="34" spans="1:9" s="43" customFormat="1" ht="12">
       <c r="A34" s="40" t="s">
-        <v>51</v>
+        <v>2</v>
       </c>
       <c r="B34" s="41"/>
       <c r="C34" s="42"/>
@@ -2556,15 +2576,15 @@
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="E34" s="71"/>
-      <c r="F34" s="72"/>
-      <c r="G34" s="72"/>
-      <c r="H34" s="72"/>
-      <c r="I34" s="73"/>
+      <c r="E34" s="60"/>
+      <c r="F34" s="61"/>
+      <c r="G34" s="61"/>
+      <c r="H34" s="61"/>
+      <c r="I34" s="62"/>
     </row>
     <row r="35" spans="1:9" s="43" customFormat="1" ht="12">
       <c r="A35" s="40" t="s">
-        <v>52</v>
+        <v>3</v>
       </c>
       <c r="B35" s="41"/>
       <c r="C35" s="42"/>
@@ -2572,15 +2592,15 @@
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="E35" s="71"/>
-      <c r="F35" s="72"/>
-      <c r="G35" s="72"/>
-      <c r="H35" s="72"/>
-      <c r="I35" s="73"/>
+      <c r="E35" s="60"/>
+      <c r="F35" s="61"/>
+      <c r="G35" s="61"/>
+      <c r="H35" s="61"/>
+      <c r="I35" s="62"/>
     </row>
     <row r="36" spans="1:9" s="43" customFormat="1" ht="12">
       <c r="A36" s="40" t="s">
-        <v>53</v>
+        <v>4</v>
       </c>
       <c r="B36" s="41"/>
       <c r="C36" s="42"/>
@@ -2588,15 +2608,15 @@
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="E36" s="71"/>
-      <c r="F36" s="72"/>
-      <c r="G36" s="72"/>
-      <c r="H36" s="72"/>
-      <c r="I36" s="73"/>
+      <c r="E36" s="60"/>
+      <c r="F36" s="61"/>
+      <c r="G36" s="61"/>
+      <c r="H36" s="61"/>
+      <c r="I36" s="62"/>
     </row>
     <row r="37" spans="1:9" s="43" customFormat="1" ht="12">
       <c r="A37" s="40" t="s">
-        <v>54</v>
+        <v>5</v>
       </c>
       <c r="B37" s="41"/>
       <c r="C37" s="42"/>
@@ -2604,15 +2624,15 @@
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="E37" s="71"/>
-      <c r="F37" s="72"/>
-      <c r="G37" s="72"/>
-      <c r="H37" s="72"/>
-      <c r="I37" s="73"/>
+      <c r="E37" s="60"/>
+      <c r="F37" s="61"/>
+      <c r="G37" s="61"/>
+      <c r="H37" s="61"/>
+      <c r="I37" s="62"/>
     </row>
     <row r="38" spans="1:9" s="51" customFormat="1" ht="12">
       <c r="A38" s="48" t="s">
-        <v>55</v>
+        <v>6</v>
       </c>
       <c r="B38" s="49"/>
       <c r="C38" s="50"/>
@@ -2620,15 +2640,15 @@
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="E38" s="77"/>
-      <c r="F38" s="75"/>
-      <c r="G38" s="75"/>
-      <c r="H38" s="75"/>
-      <c r="I38" s="76"/>
+      <c r="E38" s="57"/>
+      <c r="F38" s="58"/>
+      <c r="G38" s="58"/>
+      <c r="H38" s="58"/>
+      <c r="I38" s="59"/>
     </row>
     <row r="39" spans="1:9" s="51" customFormat="1" ht="12">
       <c r="A39" s="48" t="s">
-        <v>56</v>
+        <v>7</v>
       </c>
       <c r="B39" s="49"/>
       <c r="C39" s="50"/>
@@ -2636,15 +2656,15 @@
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="E39" s="77"/>
-      <c r="F39" s="75"/>
-      <c r="G39" s="75"/>
-      <c r="H39" s="75"/>
-      <c r="I39" s="76"/>
+      <c r="E39" s="57"/>
+      <c r="F39" s="58"/>
+      <c r="G39" s="58"/>
+      <c r="H39" s="58"/>
+      <c r="I39" s="59"/>
     </row>
     <row r="40" spans="1:9" s="43" customFormat="1" ht="12">
       <c r="A40" s="40" t="s">
-        <v>57</v>
+        <v>8</v>
       </c>
       <c r="B40" s="41">
         <v>0.9375</v>
@@ -2656,17 +2676,17 @@
         <f t="shared" si="0"/>
         <v>4.166666666666663E-2</v>
       </c>
-      <c r="E40" s="71" t="s">
-        <v>91</v>
-      </c>
-      <c r="F40" s="72"/>
-      <c r="G40" s="72"/>
-      <c r="H40" s="72"/>
-      <c r="I40" s="73"/>
+      <c r="E40" s="60" t="s">
+        <v>42</v>
+      </c>
+      <c r="F40" s="61"/>
+      <c r="G40" s="61"/>
+      <c r="H40" s="61"/>
+      <c r="I40" s="62"/>
     </row>
     <row r="41" spans="1:9" s="43" customFormat="1" ht="12">
       <c r="A41" s="40" t="s">
-        <v>58</v>
+        <v>9</v>
       </c>
       <c r="B41" s="41">
         <v>0.41666666666666669</v>
@@ -2678,13 +2698,13 @@
         <f t="shared" si="0"/>
         <v>0.12499999999999994</v>
       </c>
-      <c r="E41" s="71" t="s">
-        <v>8</v>
-      </c>
-      <c r="F41" s="72"/>
-      <c r="G41" s="72"/>
-      <c r="H41" s="72"/>
-      <c r="I41" s="73"/>
+      <c r="E41" s="60" t="s">
+        <v>58</v>
+      </c>
+      <c r="F41" s="61"/>
+      <c r="G41" s="61"/>
+      <c r="H41" s="61"/>
+      <c r="I41" s="62"/>
     </row>
     <row r="42" spans="1:9" s="43" customFormat="1" ht="12">
       <c r="A42" s="40"/>
@@ -2698,13 +2718,13 @@
         <f t="shared" si="0"/>
         <v>0.16666666666666663</v>
       </c>
-      <c r="E42" s="71" t="s">
-        <v>7</v>
-      </c>
-      <c r="F42" s="72"/>
-      <c r="G42" s="72"/>
-      <c r="H42" s="72"/>
-      <c r="I42" s="73"/>
+      <c r="E42" s="60" t="s">
+        <v>57</v>
+      </c>
+      <c r="F42" s="61"/>
+      <c r="G42" s="61"/>
+      <c r="H42" s="61"/>
+      <c r="I42" s="62"/>
     </row>
     <row r="43" spans="1:9" s="43" customFormat="1" ht="12">
       <c r="A43" s="40"/>
@@ -2718,17 +2738,17 @@
         <f t="shared" si="0"/>
         <v>0.10416666666666663</v>
       </c>
-      <c r="E43" s="71" t="s">
-        <v>15</v>
-      </c>
-      <c r="F43" s="72"/>
-      <c r="G43" s="72"/>
-      <c r="H43" s="72"/>
-      <c r="I43" s="73"/>
+      <c r="E43" s="60" t="s">
+        <v>65</v>
+      </c>
+      <c r="F43" s="61"/>
+      <c r="G43" s="61"/>
+      <c r="H43" s="61"/>
+      <c r="I43" s="62"/>
     </row>
     <row r="44" spans="1:9" s="43" customFormat="1" ht="12">
       <c r="A44" s="40" t="s">
-        <v>59</v>
+        <v>10</v>
       </c>
       <c r="B44" s="41">
         <v>0.5</v>
@@ -2740,17 +2760,17 @@
         <f t="shared" si="0"/>
         <v>8.333333333333337E-2</v>
       </c>
-      <c r="E44" s="71" t="s">
-        <v>16</v>
-      </c>
-      <c r="F44" s="72"/>
-      <c r="G44" s="72"/>
-      <c r="H44" s="72"/>
-      <c r="I44" s="73"/>
+      <c r="E44" s="60" t="s">
+        <v>66</v>
+      </c>
+      <c r="F44" s="61"/>
+      <c r="G44" s="61"/>
+      <c r="H44" s="61"/>
+      <c r="I44" s="62"/>
     </row>
     <row r="45" spans="1:9" s="43" customFormat="1" ht="12">
       <c r="A45" s="40" t="s">
-        <v>60</v>
+        <v>11</v>
       </c>
       <c r="B45" s="41">
         <v>0.41666666666666669</v>
@@ -2762,17 +2782,17 @@
         <f t="shared" si="0"/>
         <v>2.0833333333333315E-2</v>
       </c>
-      <c r="E45" s="71" t="s">
-        <v>25</v>
-      </c>
-      <c r="F45" s="72"/>
-      <c r="G45" s="72"/>
-      <c r="H45" s="72"/>
-      <c r="I45" s="73"/>
+      <c r="E45" s="60" t="s">
+        <v>74</v>
+      </c>
+      <c r="F45" s="61"/>
+      <c r="G45" s="61"/>
+      <c r="H45" s="61"/>
+      <c r="I45" s="62"/>
     </row>
     <row r="46" spans="1:9" s="43" customFormat="1" ht="12">
       <c r="A46" s="40" t="s">
-        <v>61</v>
+        <v>12</v>
       </c>
       <c r="B46" s="41">
         <v>0.5</v>
@@ -2784,17 +2804,17 @@
         <f t="shared" si="0"/>
         <v>0.16666666666666663</v>
       </c>
-      <c r="E46" s="71" t="s">
-        <v>17</v>
-      </c>
-      <c r="F46" s="72"/>
-      <c r="G46" s="72"/>
-      <c r="H46" s="72"/>
-      <c r="I46" s="73"/>
+      <c r="E46" s="60" t="s">
+        <v>67</v>
+      </c>
+      <c r="F46" s="61"/>
+      <c r="G46" s="61"/>
+      <c r="H46" s="61"/>
+      <c r="I46" s="62"/>
     </row>
     <row r="47" spans="1:9" s="51" customFormat="1" ht="12">
       <c r="A47" s="48" t="s">
-        <v>62</v>
+        <v>13</v>
       </c>
       <c r="B47" s="49"/>
       <c r="C47" s="50"/>
@@ -2802,15 +2822,15 @@
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="E47" s="77"/>
-      <c r="F47" s="75"/>
-      <c r="G47" s="75"/>
-      <c r="H47" s="75"/>
-      <c r="I47" s="76"/>
+      <c r="E47" s="57"/>
+      <c r="F47" s="58"/>
+      <c r="G47" s="58"/>
+      <c r="H47" s="58"/>
+      <c r="I47" s="59"/>
     </row>
     <row r="48" spans="1:9" s="51" customFormat="1" ht="12">
       <c r="A48" s="48" t="s">
-        <v>63</v>
+        <v>14</v>
       </c>
       <c r="B48" s="49"/>
       <c r="C48" s="50"/>
@@ -2818,15 +2838,15 @@
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="E48" s="77"/>
-      <c r="F48" s="75"/>
-      <c r="G48" s="75"/>
-      <c r="H48" s="75"/>
-      <c r="I48" s="76"/>
+      <c r="E48" s="57"/>
+      <c r="F48" s="58"/>
+      <c r="G48" s="58"/>
+      <c r="H48" s="58"/>
+      <c r="I48" s="59"/>
     </row>
     <row r="49" spans="1:13" s="43" customFormat="1" ht="12">
       <c r="A49" s="44" t="s">
-        <v>64</v>
+        <v>15</v>
       </c>
       <c r="B49" s="41">
         <v>0.5</v>
@@ -2838,27 +2858,27 @@
         <f t="shared" si="0"/>
         <v>8.333333333333337E-2</v>
       </c>
-      <c r="E49" s="71" t="s">
-        <v>18</v>
-      </c>
-      <c r="F49" s="72"/>
-      <c r="G49" s="72"/>
-      <c r="H49" s="72"/>
-      <c r="I49" s="73"/>
+      <c r="E49" s="60" t="s">
+        <v>68</v>
+      </c>
+      <c r="F49" s="61"/>
+      <c r="G49" s="61"/>
+      <c r="H49" s="61"/>
+      <c r="I49" s="62"/>
     </row>
     <row r="50" spans="1:13" s="47" customFormat="1" ht="13">
-      <c r="A50" s="94"/>
-      <c r="B50" s="95"/>
-      <c r="C50" s="95"/>
+      <c r="A50" s="63"/>
+      <c r="B50" s="64"/>
+      <c r="C50" s="64"/>
       <c r="D50" s="46">
         <f>SUM(D16:D49)</f>
         <v>1.65625</v>
       </c>
-      <c r="E50" s="96"/>
-      <c r="F50" s="96"/>
-      <c r="G50" s="96"/>
-      <c r="H50" s="96"/>
-      <c r="I50" s="97"/>
+      <c r="E50" s="65"/>
+      <c r="F50" s="65"/>
+      <c r="G50" s="65"/>
+      <c r="H50" s="65"/>
+      <c r="I50" s="66"/>
     </row>
     <row r="51" spans="1:13" ht="7.5" customHeight="1">
       <c r="A51" s="28"/>
@@ -2891,13 +2911,42 @@
     </row>
   </sheetData>
   <mergeCells count="54">
-    <mergeCell ref="E48:I48"/>
-    <mergeCell ref="E49:I49"/>
-    <mergeCell ref="A50:C50"/>
-    <mergeCell ref="E50:I50"/>
-    <mergeCell ref="E45:I45"/>
-    <mergeCell ref="E46:I46"/>
-    <mergeCell ref="E47:I47"/>
+    <mergeCell ref="A9:C9"/>
+    <mergeCell ref="D9:H9"/>
+    <mergeCell ref="A10:I10"/>
+    <mergeCell ref="A5:C5"/>
+    <mergeCell ref="D5:H5"/>
+    <mergeCell ref="A6:I6"/>
+    <mergeCell ref="A7:C7"/>
+    <mergeCell ref="D7:H7"/>
+    <mergeCell ref="A1:I1"/>
+    <mergeCell ref="A2:I2"/>
+    <mergeCell ref="A3:H3"/>
+    <mergeCell ref="A4:I4"/>
+    <mergeCell ref="A8:I8"/>
+    <mergeCell ref="E20:I20"/>
+    <mergeCell ref="E16:I16"/>
+    <mergeCell ref="E17:I17"/>
+    <mergeCell ref="A13:A15"/>
+    <mergeCell ref="B13:I13"/>
+    <mergeCell ref="B14:C14"/>
+    <mergeCell ref="D14:D15"/>
+    <mergeCell ref="E14:I15"/>
+    <mergeCell ref="E18:I18"/>
+    <mergeCell ref="E19:I19"/>
+    <mergeCell ref="E24:I24"/>
+    <mergeCell ref="E25:I25"/>
+    <mergeCell ref="E27:I27"/>
+    <mergeCell ref="E21:I21"/>
+    <mergeCell ref="E22:I22"/>
+    <mergeCell ref="E23:I23"/>
+    <mergeCell ref="E26:I26"/>
+    <mergeCell ref="E31:I31"/>
+    <mergeCell ref="E32:I32"/>
+    <mergeCell ref="E33:I33"/>
+    <mergeCell ref="E28:I28"/>
+    <mergeCell ref="E29:I29"/>
+    <mergeCell ref="E30:I30"/>
     <mergeCell ref="E44:I44"/>
     <mergeCell ref="E37:I37"/>
     <mergeCell ref="E38:I38"/>
@@ -2909,42 +2958,13 @@
     <mergeCell ref="E41:I41"/>
     <mergeCell ref="E42:I42"/>
     <mergeCell ref="E43:I43"/>
-    <mergeCell ref="E31:I31"/>
-    <mergeCell ref="E32:I32"/>
-    <mergeCell ref="E33:I33"/>
-    <mergeCell ref="E28:I28"/>
-    <mergeCell ref="E29:I29"/>
-    <mergeCell ref="E30:I30"/>
-    <mergeCell ref="E24:I24"/>
-    <mergeCell ref="E25:I25"/>
-    <mergeCell ref="E27:I27"/>
-    <mergeCell ref="E21:I21"/>
-    <mergeCell ref="E22:I22"/>
-    <mergeCell ref="E23:I23"/>
-    <mergeCell ref="E26:I26"/>
-    <mergeCell ref="E20:I20"/>
-    <mergeCell ref="E16:I16"/>
-    <mergeCell ref="E17:I17"/>
-    <mergeCell ref="A13:A15"/>
-    <mergeCell ref="B13:I13"/>
-    <mergeCell ref="B14:C14"/>
-    <mergeCell ref="D14:D15"/>
-    <mergeCell ref="E14:I15"/>
-    <mergeCell ref="E18:I18"/>
-    <mergeCell ref="E19:I19"/>
-    <mergeCell ref="A1:I1"/>
-    <mergeCell ref="A2:I2"/>
-    <mergeCell ref="A3:H3"/>
-    <mergeCell ref="A4:I4"/>
-    <mergeCell ref="A8:I8"/>
-    <mergeCell ref="A9:C9"/>
-    <mergeCell ref="D9:H9"/>
-    <mergeCell ref="A10:I10"/>
-    <mergeCell ref="A5:C5"/>
-    <mergeCell ref="D5:H5"/>
-    <mergeCell ref="A6:I6"/>
-    <mergeCell ref="A7:C7"/>
-    <mergeCell ref="D7:H7"/>
+    <mergeCell ref="E48:I48"/>
+    <mergeCell ref="E49:I49"/>
+    <mergeCell ref="A50:C50"/>
+    <mergeCell ref="E50:I50"/>
+    <mergeCell ref="E45:I45"/>
+    <mergeCell ref="E46:I46"/>
+    <mergeCell ref="E47:I47"/>
   </mergeCells>
   <phoneticPr fontId="32" type="noConversion"/>
   <printOptions horizontalCentered="1"/>
@@ -2984,17 +3004,17 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:45" s="7" customFormat="1" ht="18" thickBot="1">
-      <c r="A1" s="66" t="s">
-        <v>81</v>
-      </c>
-      <c r="B1" s="66"/>
-      <c r="C1" s="66"/>
-      <c r="D1" s="66"/>
-      <c r="E1" s="66"/>
-      <c r="F1" s="66"/>
-      <c r="G1" s="66"/>
-      <c r="H1" s="66"/>
-      <c r="I1" s="66"/>
+      <c r="A1" s="84" t="s">
+        <v>32</v>
+      </c>
+      <c r="B1" s="84"/>
+      <c r="C1" s="84"/>
+      <c r="D1" s="84"/>
+      <c r="E1" s="84"/>
+      <c r="F1" s="84"/>
+      <c r="G1" s="84"/>
+      <c r="H1" s="84"/>
+      <c r="I1" s="84"/>
       <c r="J1" s="8"/>
       <c r="K1" s="8"/>
       <c r="L1" s="8"/>
@@ -3032,15 +3052,15 @@
       <c r="AR1" s="8"/>
     </row>
     <row r="2" spans="1:45" s="1" customFormat="1" ht="7.5" customHeight="1">
-      <c r="A2" s="67"/>
-      <c r="B2" s="67"/>
-      <c r="C2" s="67"/>
-      <c r="D2" s="67"/>
-      <c r="E2" s="67"/>
-      <c r="F2" s="67"/>
-      <c r="G2" s="67"/>
-      <c r="H2" s="67"/>
-      <c r="I2" s="67"/>
+      <c r="A2" s="85"/>
+      <c r="B2" s="85"/>
+      <c r="C2" s="85"/>
+      <c r="D2" s="85"/>
+      <c r="E2" s="85"/>
+      <c r="F2" s="85"/>
+      <c r="G2" s="85"/>
+      <c r="H2" s="85"/>
+      <c r="I2" s="85"/>
       <c r="J2" s="9"/>
       <c r="K2" s="9"/>
       <c r="L2" s="9"/>
@@ -3078,16 +3098,16 @@
       <c r="AR2" s="9"/>
     </row>
     <row r="3" spans="1:45" s="11" customFormat="1" ht="13.5" customHeight="1">
-      <c r="A3" s="68" t="s">
-        <v>71</v>
-      </c>
-      <c r="B3" s="68"/>
-      <c r="C3" s="68"/>
-      <c r="D3" s="68"/>
-      <c r="E3" s="68"/>
-      <c r="F3" s="68"/>
-      <c r="G3" s="68"/>
-      <c r="H3" s="68"/>
+      <c r="A3" s="86" t="s">
+        <v>22</v>
+      </c>
+      <c r="B3" s="86"/>
+      <c r="C3" s="86"/>
+      <c r="D3" s="86"/>
+      <c r="E3" s="86"/>
+      <c r="F3" s="86"/>
+      <c r="G3" s="86"/>
+      <c r="H3" s="86"/>
       <c r="I3" s="23"/>
       <c r="J3" s="22"/>
       <c r="K3" s="22"/>
@@ -3127,112 +3147,112 @@
       <c r="AS3" s="10"/>
     </row>
     <row r="4" spans="1:45" s="6" customFormat="1" ht="9" customHeight="1">
-      <c r="A4" s="69"/>
-      <c r="B4" s="69"/>
-      <c r="C4" s="69"/>
-      <c r="D4" s="69"/>
-      <c r="E4" s="69"/>
-      <c r="F4" s="69"/>
-      <c r="G4" s="69"/>
-      <c r="H4" s="69"/>
-      <c r="I4" s="69"/>
+      <c r="A4" s="87"/>
+      <c r="B4" s="87"/>
+      <c r="C4" s="87"/>
+      <c r="D4" s="87"/>
+      <c r="E4" s="87"/>
+      <c r="F4" s="87"/>
+      <c r="G4" s="87"/>
+      <c r="H4" s="87"/>
+      <c r="I4" s="87"/>
     </row>
     <row r="5" spans="1:45" s="1" customFormat="1" ht="13.75" customHeight="1">
-      <c r="A5" s="62" t="str">
+      <c r="A5" s="94" t="str">
         <f>October!A5</f>
         <v>Firstname Lastname</v>
       </c>
-      <c r="B5" s="63"/>
-      <c r="C5" s="63"/>
-      <c r="D5" s="58" t="str">
+      <c r="B5" s="95"/>
+      <c r="C5" s="95"/>
+      <c r="D5" s="90" t="str">
         <f>October!D5</f>
         <v>Augustin Hannah</v>
       </c>
-      <c r="E5" s="59"/>
-      <c r="F5" s="59"/>
-      <c r="G5" s="59"/>
-      <c r="H5" s="60"/>
+      <c r="E5" s="91"/>
+      <c r="F5" s="91"/>
+      <c r="G5" s="91"/>
+      <c r="H5" s="92"/>
       <c r="I5" s="23"/>
       <c r="J5" s="9"/>
       <c r="K5" s="9"/>
       <c r="L5" s="9"/>
     </row>
     <row r="6" spans="1:45" s="1" customFormat="1" ht="7.5" customHeight="1">
-      <c r="A6" s="64"/>
-      <c r="B6" s="64"/>
-      <c r="C6" s="64"/>
-      <c r="D6" s="64"/>
-      <c r="E6" s="64"/>
-      <c r="F6" s="64"/>
-      <c r="G6" s="64"/>
-      <c r="H6" s="64"/>
-      <c r="I6" s="64"/>
+      <c r="A6" s="96"/>
+      <c r="B6" s="96"/>
+      <c r="C6" s="96"/>
+      <c r="D6" s="96"/>
+      <c r="E6" s="96"/>
+      <c r="F6" s="96"/>
+      <c r="G6" s="96"/>
+      <c r="H6" s="96"/>
+      <c r="I6" s="96"/>
     </row>
     <row r="7" spans="1:45" s="1" customFormat="1" ht="13.75" customHeight="1">
-      <c r="A7" s="57" t="str">
+      <c r="A7" s="89" t="str">
         <f>October!A7</f>
         <v>Project Acronym</v>
       </c>
-      <c r="B7" s="57"/>
-      <c r="C7" s="57"/>
-      <c r="D7" s="65" t="str">
+      <c r="B7" s="89"/>
+      <c r="C7" s="89"/>
+      <c r="D7" s="97" t="str">
         <f>October!D7</f>
         <v>AIQ</v>
       </c>
-      <c r="E7" s="65"/>
-      <c r="F7" s="65"/>
-      <c r="G7" s="65"/>
-      <c r="H7" s="65"/>
+      <c r="E7" s="97"/>
+      <c r="F7" s="97"/>
+      <c r="G7" s="97"/>
+      <c r="H7" s="97"/>
       <c r="I7" s="24"/>
     </row>
     <row r="8" spans="1:45" s="1" customFormat="1" ht="7.5" customHeight="1">
-      <c r="A8" s="70"/>
-      <c r="B8" s="70"/>
-      <c r="C8" s="70"/>
-      <c r="D8" s="70"/>
-      <c r="E8" s="70"/>
-      <c r="F8" s="70"/>
-      <c r="G8" s="70"/>
-      <c r="H8" s="70"/>
-      <c r="I8" s="70"/>
+      <c r="A8" s="88"/>
+      <c r="B8" s="88"/>
+      <c r="C8" s="88"/>
+      <c r="D8" s="88"/>
+      <c r="E8" s="88"/>
+      <c r="F8" s="88"/>
+      <c r="G8" s="88"/>
+      <c r="H8" s="88"/>
+      <c r="I8" s="88"/>
     </row>
     <row r="9" spans="1:45" s="1" customFormat="1" ht="13.75" customHeight="1">
-      <c r="A9" s="57" t="str">
+      <c r="A9" s="89" t="str">
         <f>October!A9</f>
         <v>Project Title</v>
       </c>
-      <c r="B9" s="57"/>
-      <c r="C9" s="57"/>
-      <c r="D9" s="58" t="str">
+      <c r="B9" s="89"/>
+      <c r="C9" s="89"/>
+      <c r="D9" s="90" t="str">
         <f>October!D9</f>
         <v>Automating change detection in ImageQuerying</v>
       </c>
-      <c r="E9" s="59"/>
-      <c r="F9" s="59"/>
-      <c r="G9" s="59"/>
-      <c r="H9" s="60"/>
+      <c r="E9" s="91"/>
+      <c r="F9" s="91"/>
+      <c r="G9" s="91"/>
+      <c r="H9" s="92"/>
       <c r="I9" s="24"/>
       <c r="J9" s="15"/>
     </row>
     <row r="10" spans="1:45" s="1" customFormat="1" ht="7.5" customHeight="1">
-      <c r="A10" s="61"/>
-      <c r="B10" s="61"/>
-      <c r="C10" s="61"/>
-      <c r="D10" s="61"/>
-      <c r="E10" s="61"/>
-      <c r="F10" s="61"/>
-      <c r="G10" s="61"/>
-      <c r="H10" s="61"/>
-      <c r="I10" s="61"/>
+      <c r="A10" s="93"/>
+      <c r="B10" s="93"/>
+      <c r="C10" s="93"/>
+      <c r="D10" s="93"/>
+      <c r="E10" s="93"/>
+      <c r="F10" s="93"/>
+      <c r="G10" s="93"/>
+      <c r="H10" s="93"/>
+      <c r="I10" s="93"/>
     </row>
     <row r="11" spans="1:45" s="1" customFormat="1" ht="12">
       <c r="A11" s="21" t="s">
-        <v>69</v>
+        <v>20</v>
       </c>
       <c r="B11" s="21"/>
       <c r="C11" s="21"/>
       <c r="D11" s="21" t="s">
-        <v>70</v>
+        <v>21</v>
       </c>
       <c r="E11" s="21"/>
       <c r="F11" s="21"/>
@@ -3252,55 +3272,55 @@
       <c r="I12" s="26"/>
     </row>
     <row r="13" spans="1:45" s="2" customFormat="1" ht="15.5" customHeight="1">
-      <c r="A13" s="78" t="s">
-        <v>26</v>
-      </c>
-      <c r="B13" s="81" t="s">
-        <v>65</v>
-      </c>
-      <c r="C13" s="82"/>
-      <c r="D13" s="82"/>
-      <c r="E13" s="82"/>
-      <c r="F13" s="82"/>
-      <c r="G13" s="82"/>
-      <c r="H13" s="82"/>
-      <c r="I13" s="83"/>
+      <c r="A13" s="68" t="s">
+        <v>75</v>
+      </c>
+      <c r="B13" s="71" t="s">
+        <v>16</v>
+      </c>
+      <c r="C13" s="72"/>
+      <c r="D13" s="72"/>
+      <c r="E13" s="72"/>
+      <c r="F13" s="72"/>
+      <c r="G13" s="72"/>
+      <c r="H13" s="72"/>
+      <c r="I13" s="73"/>
     </row>
     <row r="14" spans="1:45" s="2" customFormat="1" ht="13.75" customHeight="1">
-      <c r="A14" s="79"/>
-      <c r="B14" s="84" t="s">
-        <v>27</v>
-      </c>
-      <c r="C14" s="85"/>
-      <c r="D14" s="86" t="s">
-        <v>28</v>
-      </c>
-      <c r="E14" s="88" t="s">
-        <v>66</v>
-      </c>
-      <c r="F14" s="89"/>
-      <c r="G14" s="89"/>
-      <c r="H14" s="89"/>
-      <c r="I14" s="90"/>
+      <c r="A14" s="69"/>
+      <c r="B14" s="74" t="s">
+        <v>76</v>
+      </c>
+      <c r="C14" s="75"/>
+      <c r="D14" s="76" t="s">
+        <v>77</v>
+      </c>
+      <c r="E14" s="78" t="s">
+        <v>17</v>
+      </c>
+      <c r="F14" s="79"/>
+      <c r="G14" s="79"/>
+      <c r="H14" s="79"/>
+      <c r="I14" s="80"/>
     </row>
     <row r="15" spans="1:45" ht="13" customHeight="1">
-      <c r="A15" s="80"/>
+      <c r="A15" s="70"/>
       <c r="B15" s="32" t="s">
-        <v>29</v>
+        <v>78</v>
       </c>
       <c r="C15" s="33" t="s">
-        <v>30</v>
-      </c>
-      <c r="D15" s="87"/>
-      <c r="E15" s="91"/>
-      <c r="F15" s="92"/>
-      <c r="G15" s="92"/>
-      <c r="H15" s="92"/>
-      <c r="I15" s="93"/>
+        <v>79</v>
+      </c>
+      <c r="D15" s="77"/>
+      <c r="E15" s="81"/>
+      <c r="F15" s="82"/>
+      <c r="G15" s="82"/>
+      <c r="H15" s="82"/>
+      <c r="I15" s="83"/>
     </row>
     <row r="16" spans="1:45" s="43" customFormat="1" ht="12">
       <c r="A16" s="40" t="s">
-        <v>31</v>
+        <v>80</v>
       </c>
       <c r="B16" s="41"/>
       <c r="C16" s="42"/>
@@ -3308,15 +3328,15 @@
         <f>C16-B16</f>
         <v>0</v>
       </c>
-      <c r="E16" s="71"/>
-      <c r="F16" s="72"/>
-      <c r="G16" s="72"/>
-      <c r="H16" s="72"/>
-      <c r="I16" s="73"/>
+      <c r="E16" s="60"/>
+      <c r="F16" s="61"/>
+      <c r="G16" s="61"/>
+      <c r="H16" s="61"/>
+      <c r="I16" s="62"/>
     </row>
     <row r="17" spans="1:9" s="43" customFormat="1" ht="12">
       <c r="A17" s="40" t="s">
-        <v>32</v>
+        <v>81</v>
       </c>
       <c r="B17" s="41"/>
       <c r="C17" s="42"/>
@@ -3324,15 +3344,15 @@
         <f t="shared" ref="D17:D48" si="0">C17-B17</f>
         <v>0</v>
       </c>
-      <c r="E17" s="71"/>
-      <c r="F17" s="72"/>
-      <c r="G17" s="72"/>
-      <c r="H17" s="72"/>
-      <c r="I17" s="73"/>
+      <c r="E17" s="60"/>
+      <c r="F17" s="61"/>
+      <c r="G17" s="61"/>
+      <c r="H17" s="61"/>
+      <c r="I17" s="62"/>
     </row>
     <row r="18" spans="1:9" s="43" customFormat="1" ht="12">
       <c r="A18" s="40" t="s">
-        <v>33</v>
+        <v>82</v>
       </c>
       <c r="B18" s="41"/>
       <c r="C18" s="42"/>
@@ -3340,15 +3360,15 @@
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="E18" s="71"/>
-      <c r="F18" s="72"/>
-      <c r="G18" s="72"/>
-      <c r="H18" s="72"/>
-      <c r="I18" s="73"/>
+      <c r="E18" s="60"/>
+      <c r="F18" s="61"/>
+      <c r="G18" s="61"/>
+      <c r="H18" s="61"/>
+      <c r="I18" s="62"/>
     </row>
     <row r="19" spans="1:9" s="43" customFormat="1" ht="12">
       <c r="A19" s="40" t="s">
-        <v>34</v>
+        <v>83</v>
       </c>
       <c r="B19" s="41">
         <v>0.58333333333333337</v>
@@ -3360,17 +3380,17 @@
         <f t="shared" si="0"/>
         <v>0.16666666666666663</v>
       </c>
-      <c r="E19" s="71" t="s">
-        <v>19</v>
-      </c>
-      <c r="F19" s="72"/>
-      <c r="G19" s="72"/>
-      <c r="H19" s="72"/>
-      <c r="I19" s="73"/>
+      <c r="E19" s="60" t="s">
+        <v>69</v>
+      </c>
+      <c r="F19" s="61"/>
+      <c r="G19" s="61"/>
+      <c r="H19" s="61"/>
+      <c r="I19" s="62"/>
     </row>
     <row r="20" spans="1:9" s="51" customFormat="1" ht="12">
       <c r="A20" s="48" t="s">
-        <v>35</v>
+        <v>84</v>
       </c>
       <c r="B20" s="49"/>
       <c r="C20" s="50"/>
@@ -3378,15 +3398,15 @@
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="E20" s="77"/>
-      <c r="F20" s="75"/>
-      <c r="G20" s="75"/>
-      <c r="H20" s="75"/>
-      <c r="I20" s="76"/>
+      <c r="E20" s="57"/>
+      <c r="F20" s="58"/>
+      <c r="G20" s="58"/>
+      <c r="H20" s="58"/>
+      <c r="I20" s="59"/>
     </row>
     <row r="21" spans="1:9" s="51" customFormat="1" ht="12">
       <c r="A21" s="48" t="s">
-        <v>36</v>
+        <v>85</v>
       </c>
       <c r="B21" s="49"/>
       <c r="C21" s="50"/>
@@ -3394,15 +3414,15 @@
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="E21" s="77"/>
-      <c r="F21" s="75"/>
-      <c r="G21" s="75"/>
-      <c r="H21" s="75"/>
-      <c r="I21" s="76"/>
+      <c r="E21" s="57"/>
+      <c r="F21" s="58"/>
+      <c r="G21" s="58"/>
+      <c r="H21" s="58"/>
+      <c r="I21" s="59"/>
     </row>
     <row r="22" spans="1:9" s="43" customFormat="1" ht="12">
       <c r="A22" s="40" t="s">
-        <v>37</v>
+        <v>86</v>
       </c>
       <c r="B22" s="41">
         <v>0.39583333333333331</v>
@@ -3414,17 +3434,17 @@
         <f t="shared" si="0"/>
         <v>0.16666666666666669</v>
       </c>
-      <c r="E22" s="71" t="s">
-        <v>24</v>
-      </c>
-      <c r="F22" s="72"/>
-      <c r="G22" s="72"/>
-      <c r="H22" s="72"/>
-      <c r="I22" s="73"/>
+      <c r="E22" s="60" t="s">
+        <v>73</v>
+      </c>
+      <c r="F22" s="61"/>
+      <c r="G22" s="61"/>
+      <c r="H22" s="61"/>
+      <c r="I22" s="62"/>
     </row>
     <row r="23" spans="1:9" s="43" customFormat="1" ht="12">
       <c r="A23" s="40" t="s">
-        <v>38</v>
+        <v>87</v>
       </c>
       <c r="B23" s="41">
         <v>0.41666666666666669</v>
@@ -3436,13 +3456,13 @@
         <f t="shared" si="0"/>
         <v>0.12499999999999994</v>
       </c>
-      <c r="E23" s="71" t="s">
-        <v>22</v>
-      </c>
-      <c r="F23" s="72"/>
-      <c r="G23" s="72"/>
-      <c r="H23" s="72"/>
-      <c r="I23" s="73"/>
+      <c r="E23" s="60" t="s">
+        <v>72</v>
+      </c>
+      <c r="F23" s="61"/>
+      <c r="G23" s="61"/>
+      <c r="H23" s="61"/>
+      <c r="I23" s="62"/>
     </row>
     <row r="24" spans="1:9" s="43" customFormat="1" ht="12">
       <c r="A24" s="40"/>
@@ -3456,17 +3476,17 @@
         <f t="shared" si="0"/>
         <v>8.333333333333337E-2</v>
       </c>
-      <c r="E24" s="71" t="s">
-        <v>3</v>
-      </c>
-      <c r="F24" s="72"/>
-      <c r="G24" s="72"/>
-      <c r="H24" s="72"/>
-      <c r="I24" s="73"/>
+      <c r="E24" s="60" t="s">
+        <v>53</v>
+      </c>
+      <c r="F24" s="61"/>
+      <c r="G24" s="61"/>
+      <c r="H24" s="61"/>
+      <c r="I24" s="62"/>
     </row>
     <row r="25" spans="1:9" s="43" customFormat="1" ht="12">
       <c r="A25" s="40" t="s">
-        <v>39</v>
+        <v>88</v>
       </c>
       <c r="B25" s="41"/>
       <c r="C25" s="42"/>
@@ -3474,15 +3494,15 @@
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="E25" s="71"/>
-      <c r="F25" s="72"/>
-      <c r="G25" s="72"/>
-      <c r="H25" s="72"/>
-      <c r="I25" s="73"/>
+      <c r="E25" s="60"/>
+      <c r="F25" s="61"/>
+      <c r="G25" s="61"/>
+      <c r="H25" s="61"/>
+      <c r="I25" s="62"/>
     </row>
     <row r="26" spans="1:9" s="43" customFormat="1" ht="12">
       <c r="A26" s="40" t="s">
-        <v>40</v>
+        <v>89</v>
       </c>
       <c r="B26" s="41">
         <v>0.75</v>
@@ -3494,17 +3514,17 @@
         <f t="shared" si="0"/>
         <v>0.16666666666666663</v>
       </c>
-      <c r="E26" s="71" t="s">
-        <v>21</v>
-      </c>
-      <c r="F26" s="72"/>
-      <c r="G26" s="72"/>
-      <c r="H26" s="72"/>
-      <c r="I26" s="73"/>
+      <c r="E26" s="60" t="s">
+        <v>71</v>
+      </c>
+      <c r="F26" s="61"/>
+      <c r="G26" s="61"/>
+      <c r="H26" s="61"/>
+      <c r="I26" s="62"/>
     </row>
     <row r="27" spans="1:9" s="43" customFormat="1" ht="12">
       <c r="A27" s="40" t="s">
-        <v>41</v>
+        <v>90</v>
       </c>
       <c r="B27" s="41"/>
       <c r="C27" s="42"/>
@@ -3512,15 +3532,15 @@
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="E27" s="71"/>
-      <c r="F27" s="72"/>
-      <c r="G27" s="72"/>
-      <c r="H27" s="72"/>
-      <c r="I27" s="73"/>
+      <c r="E27" s="60"/>
+      <c r="F27" s="61"/>
+      <c r="G27" s="61"/>
+      <c r="H27" s="61"/>
+      <c r="I27" s="62"/>
     </row>
     <row r="28" spans="1:9" s="51" customFormat="1" ht="12">
       <c r="A28" s="48" t="s">
-        <v>42</v>
+        <v>91</v>
       </c>
       <c r="B28" s="49"/>
       <c r="C28" s="50"/>
@@ -3528,15 +3548,15 @@
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="E28" s="77"/>
-      <c r="F28" s="75"/>
-      <c r="G28" s="75"/>
-      <c r="H28" s="75"/>
-      <c r="I28" s="76"/>
+      <c r="E28" s="57"/>
+      <c r="F28" s="58"/>
+      <c r="G28" s="58"/>
+      <c r="H28" s="58"/>
+      <c r="I28" s="59"/>
     </row>
     <row r="29" spans="1:9" s="51" customFormat="1" ht="12">
       <c r="A29" s="48" t="s">
-        <v>43</v>
+        <v>92</v>
       </c>
       <c r="B29" s="49">
         <v>0.45833333333333331</v>
@@ -3548,17 +3568,17 @@
         <f t="shared" si="0"/>
         <v>0.25000000000000006</v>
       </c>
-      <c r="E29" s="77" t="s">
-        <v>4</v>
-      </c>
-      <c r="F29" s="75"/>
-      <c r="G29" s="75"/>
-      <c r="H29" s="75"/>
-      <c r="I29" s="76"/>
+      <c r="E29" s="57" t="s">
+        <v>54</v>
+      </c>
+      <c r="F29" s="58"/>
+      <c r="G29" s="58"/>
+      <c r="H29" s="58"/>
+      <c r="I29" s="59"/>
     </row>
     <row r="30" spans="1:9" s="43" customFormat="1" ht="12">
       <c r="A30" s="40" t="s">
-        <v>44</v>
+        <v>93</v>
       </c>
       <c r="B30" s="41">
         <v>0.70833333333333337</v>
@@ -3570,17 +3590,17 @@
         <f t="shared" si="0"/>
         <v>0.20833333333333326</v>
       </c>
-      <c r="E30" s="71" t="s">
-        <v>20</v>
-      </c>
-      <c r="F30" s="72"/>
-      <c r="G30" s="72"/>
-      <c r="H30" s="72"/>
-      <c r="I30" s="73"/>
+      <c r="E30" s="60" t="s">
+        <v>70</v>
+      </c>
+      <c r="F30" s="61"/>
+      <c r="G30" s="61"/>
+      <c r="H30" s="61"/>
+      <c r="I30" s="62"/>
     </row>
     <row r="31" spans="1:9" s="43" customFormat="1" ht="12">
       <c r="A31" s="40" t="s">
-        <v>45</v>
+        <v>94</v>
       </c>
       <c r="B31" s="41">
         <v>0.66666666666666663</v>
@@ -3592,17 +3612,17 @@
         <f t="shared" si="0"/>
         <v>0.16666666666666674</v>
       </c>
-      <c r="E31" s="71" t="s">
-        <v>14</v>
-      </c>
-      <c r="F31" s="72"/>
-      <c r="G31" s="72"/>
-      <c r="H31" s="72"/>
-      <c r="I31" s="73"/>
+      <c r="E31" s="60" t="s">
+        <v>64</v>
+      </c>
+      <c r="F31" s="61"/>
+      <c r="G31" s="61"/>
+      <c r="H31" s="61"/>
+      <c r="I31" s="62"/>
     </row>
     <row r="32" spans="1:9" s="43" customFormat="1" ht="12">
       <c r="A32" s="40" t="s">
-        <v>46</v>
+        <v>95</v>
       </c>
       <c r="B32" s="41"/>
       <c r="C32" s="42"/>
@@ -3610,17 +3630,17 @@
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="E32" s="71" t="s">
-        <v>0</v>
-      </c>
-      <c r="F32" s="72"/>
-      <c r="G32" s="72"/>
-      <c r="H32" s="72"/>
-      <c r="I32" s="73"/>
+      <c r="E32" s="60" t="s">
+        <v>50</v>
+      </c>
+      <c r="F32" s="61"/>
+      <c r="G32" s="61"/>
+      <c r="H32" s="61"/>
+      <c r="I32" s="62"/>
     </row>
     <row r="33" spans="1:9" s="43" customFormat="1" ht="12">
       <c r="A33" s="40" t="s">
-        <v>47</v>
+        <v>96</v>
       </c>
       <c r="B33" s="41">
         <v>0.41666666666666669</v>
@@ -3632,13 +3652,13 @@
         <f t="shared" si="0"/>
         <v>4.166666666666663E-2</v>
       </c>
-      <c r="E33" s="71" t="s">
-        <v>1</v>
-      </c>
-      <c r="F33" s="72"/>
-      <c r="G33" s="72"/>
-      <c r="H33" s="72"/>
-      <c r="I33" s="73"/>
+      <c r="E33" s="60" t="s">
+        <v>51</v>
+      </c>
+      <c r="F33" s="61"/>
+      <c r="G33" s="61"/>
+      <c r="H33" s="61"/>
+      <c r="I33" s="62"/>
     </row>
     <row r="34" spans="1:9" s="43" customFormat="1" ht="12">
       <c r="A34" s="40"/>
@@ -3652,17 +3672,17 @@
         <f t="shared" si="0"/>
         <v>0.16666666666666663</v>
       </c>
-      <c r="E34" s="71" t="s">
-        <v>87</v>
-      </c>
-      <c r="F34" s="72"/>
-      <c r="G34" s="72"/>
-      <c r="H34" s="72"/>
-      <c r="I34" s="73"/>
+      <c r="E34" s="60" t="s">
+        <v>38</v>
+      </c>
+      <c r="F34" s="61"/>
+      <c r="G34" s="61"/>
+      <c r="H34" s="61"/>
+      <c r="I34" s="62"/>
     </row>
     <row r="35" spans="1:9" s="43" customFormat="1" ht="12">
       <c r="A35" s="40" t="s">
-        <v>51</v>
+        <v>2</v>
       </c>
       <c r="B35" s="41">
         <v>0.4375</v>
@@ -3674,17 +3694,17 @@
         <f t="shared" si="0"/>
         <v>0.10416666666666663</v>
       </c>
-      <c r="E35" s="71" t="s">
-        <v>2</v>
-      </c>
-      <c r="F35" s="72"/>
-      <c r="G35" s="72"/>
-      <c r="H35" s="72"/>
-      <c r="I35" s="73"/>
+      <c r="E35" s="60" t="s">
+        <v>52</v>
+      </c>
+      <c r="F35" s="61"/>
+      <c r="G35" s="61"/>
+      <c r="H35" s="61"/>
+      <c r="I35" s="62"/>
     </row>
     <row r="36" spans="1:9" s="51" customFormat="1" ht="12">
       <c r="A36" s="48" t="s">
-        <v>52</v>
+        <v>3</v>
       </c>
       <c r="B36" s="49">
         <v>0.33333333333333331</v>
@@ -3696,13 +3716,13 @@
         <f t="shared" si="0"/>
         <v>6.25E-2</v>
       </c>
-      <c r="E36" s="77" t="s">
-        <v>84</v>
-      </c>
-      <c r="F36" s="75"/>
-      <c r="G36" s="75"/>
-      <c r="H36" s="75"/>
-      <c r="I36" s="76"/>
+      <c r="E36" s="57" t="s">
+        <v>35</v>
+      </c>
+      <c r="F36" s="58"/>
+      <c r="G36" s="58"/>
+      <c r="H36" s="58"/>
+      <c r="I36" s="59"/>
     </row>
     <row r="37" spans="1:9" s="51" customFormat="1" ht="12">
       <c r="A37" s="48"/>
@@ -3716,17 +3736,17 @@
         <f t="shared" si="0"/>
         <v>0.125</v>
       </c>
-      <c r="E37" s="77" t="s">
-        <v>83</v>
-      </c>
-      <c r="F37" s="75"/>
-      <c r="G37" s="75"/>
-      <c r="H37" s="75"/>
-      <c r="I37" s="76"/>
+      <c r="E37" s="57" t="s">
+        <v>34</v>
+      </c>
+      <c r="F37" s="58"/>
+      <c r="G37" s="58"/>
+      <c r="H37" s="58"/>
+      <c r="I37" s="59"/>
     </row>
     <row r="38" spans="1:9" s="51" customFormat="1" ht="12">
       <c r="A38" s="48" t="s">
-        <v>53</v>
+        <v>4</v>
       </c>
       <c r="B38" s="49"/>
       <c r="C38" s="50"/>
@@ -3734,15 +3754,15 @@
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="E38" s="77"/>
-      <c r="F38" s="75"/>
-      <c r="G38" s="75"/>
-      <c r="H38" s="75"/>
-      <c r="I38" s="76"/>
+      <c r="E38" s="57"/>
+      <c r="F38" s="58"/>
+      <c r="G38" s="58"/>
+      <c r="H38" s="58"/>
+      <c r="I38" s="59"/>
     </row>
     <row r="39" spans="1:9" s="43" customFormat="1" ht="12">
       <c r="A39" s="40" t="s">
-        <v>54</v>
+        <v>5</v>
       </c>
       <c r="B39" s="41">
         <v>0.41666666666666669</v>
@@ -3754,17 +3774,17 @@
         <f t="shared" si="0"/>
         <v>0.41666666666666669</v>
       </c>
-      <c r="E39" s="71" t="s">
-        <v>86</v>
-      </c>
-      <c r="F39" s="72"/>
-      <c r="G39" s="72"/>
-      <c r="H39" s="72"/>
-      <c r="I39" s="73"/>
+      <c r="E39" s="60" t="s">
+        <v>37</v>
+      </c>
+      <c r="F39" s="61"/>
+      <c r="G39" s="61"/>
+      <c r="H39" s="61"/>
+      <c r="I39" s="62"/>
     </row>
     <row r="40" spans="1:9" s="43" customFormat="1" ht="12">
       <c r="A40" s="40" t="s">
-        <v>55</v>
+        <v>6</v>
       </c>
       <c r="B40" s="41">
         <v>0.375</v>
@@ -3776,17 +3796,17 @@
         <f t="shared" si="0"/>
         <v>0.29166666666666663</v>
       </c>
-      <c r="E40" s="71" t="s">
-        <v>82</v>
-      </c>
-      <c r="F40" s="72"/>
-      <c r="G40" s="72"/>
-      <c r="H40" s="72"/>
-      <c r="I40" s="73"/>
+      <c r="E40" s="60" t="s">
+        <v>33</v>
+      </c>
+      <c r="F40" s="61"/>
+      <c r="G40" s="61"/>
+      <c r="H40" s="61"/>
+      <c r="I40" s="62"/>
     </row>
     <row r="41" spans="1:9" s="43" customFormat="1" ht="12">
       <c r="A41" s="40" t="s">
-        <v>56</v>
+        <v>7</v>
       </c>
       <c r="B41" s="41"/>
       <c r="C41" s="42"/>
@@ -3794,15 +3814,15 @@
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="E41" s="71"/>
-      <c r="F41" s="72"/>
-      <c r="G41" s="72"/>
-      <c r="H41" s="72"/>
-      <c r="I41" s="73"/>
+      <c r="E41" s="60"/>
+      <c r="F41" s="61"/>
+      <c r="G41" s="61"/>
+      <c r="H41" s="61"/>
+      <c r="I41" s="62"/>
     </row>
     <row r="42" spans="1:9" s="43" customFormat="1" ht="12">
       <c r="A42" s="40" t="s">
-        <v>57</v>
+        <v>8</v>
       </c>
       <c r="B42" s="41"/>
       <c r="C42" s="42"/>
@@ -3810,15 +3830,15 @@
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="E42" s="71"/>
-      <c r="F42" s="72"/>
-      <c r="G42" s="72"/>
-      <c r="H42" s="72"/>
-      <c r="I42" s="73"/>
+      <c r="E42" s="60"/>
+      <c r="F42" s="61"/>
+      <c r="G42" s="61"/>
+      <c r="H42" s="61"/>
+      <c r="I42" s="62"/>
     </row>
     <row r="43" spans="1:9" s="43" customFormat="1" ht="12">
       <c r="A43" s="40" t="s">
-        <v>58</v>
+        <v>9</v>
       </c>
       <c r="B43" s="41">
         <v>0.58333333333333337</v>
@@ -3830,17 +3850,17 @@
         <f t="shared" si="0"/>
         <v>0.16666666666666663</v>
       </c>
-      <c r="E43" s="71" t="s">
-        <v>49</v>
-      </c>
-      <c r="F43" s="72"/>
-      <c r="G43" s="72"/>
-      <c r="H43" s="72"/>
-      <c r="I43" s="73"/>
+      <c r="E43" s="60" t="s">
+        <v>98</v>
+      </c>
+      <c r="F43" s="61"/>
+      <c r="G43" s="61"/>
+      <c r="H43" s="61"/>
+      <c r="I43" s="62"/>
     </row>
     <row r="44" spans="1:9" s="51" customFormat="1" ht="12">
       <c r="A44" s="48" t="s">
-        <v>59</v>
+        <v>10</v>
       </c>
       <c r="B44" s="49">
         <v>0.58333333333333337</v>
@@ -3852,17 +3872,17 @@
         <f t="shared" si="0"/>
         <v>0.16666666666666663</v>
       </c>
-      <c r="E44" s="77" t="s">
-        <v>49</v>
-      </c>
-      <c r="F44" s="75"/>
-      <c r="G44" s="75"/>
-      <c r="H44" s="75"/>
-      <c r="I44" s="76"/>
+      <c r="E44" s="57" t="s">
+        <v>98</v>
+      </c>
+      <c r="F44" s="58"/>
+      <c r="G44" s="58"/>
+      <c r="H44" s="58"/>
+      <c r="I44" s="59"/>
     </row>
     <row r="45" spans="1:9" s="51" customFormat="1" ht="12">
       <c r="A45" s="48" t="s">
-        <v>60</v>
+        <v>11</v>
       </c>
       <c r="B45" s="49">
         <v>0.45833333333333331</v>
@@ -3874,17 +3894,17 @@
         <f t="shared" si="0"/>
         <v>0.16666666666666669</v>
       </c>
-      <c r="E45" s="77" t="s">
-        <v>50</v>
-      </c>
-      <c r="F45" s="75"/>
-      <c r="G45" s="75"/>
-      <c r="H45" s="75"/>
-      <c r="I45" s="76"/>
+      <c r="E45" s="57" t="s">
+        <v>1</v>
+      </c>
+      <c r="F45" s="58"/>
+      <c r="G45" s="58"/>
+      <c r="H45" s="58"/>
+      <c r="I45" s="59"/>
     </row>
     <row r="46" spans="1:9" s="43" customFormat="1" ht="12">
       <c r="A46" s="40" t="s">
-        <v>61</v>
+        <v>12</v>
       </c>
       <c r="B46" s="41">
         <v>0.375</v>
@@ -3896,17 +3916,17 @@
         <f t="shared" si="0"/>
         <v>8.3333333333333315E-2</v>
       </c>
-      <c r="E46" s="71" t="s">
-        <v>48</v>
-      </c>
-      <c r="F46" s="72"/>
-      <c r="G46" s="72"/>
-      <c r="H46" s="72"/>
-      <c r="I46" s="73"/>
+      <c r="E46" s="60" t="s">
+        <v>97</v>
+      </c>
+      <c r="F46" s="61"/>
+      <c r="G46" s="61"/>
+      <c r="H46" s="61"/>
+      <c r="I46" s="62"/>
     </row>
     <row r="47" spans="1:9" s="43" customFormat="1" ht="12">
       <c r="A47" s="40" t="s">
-        <v>62</v>
+        <v>13</v>
       </c>
       <c r="B47" s="41"/>
       <c r="C47" s="42"/>
@@ -3914,15 +3934,15 @@
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="E47" s="71"/>
-      <c r="F47" s="72"/>
-      <c r="G47" s="72"/>
-      <c r="H47" s="72"/>
-      <c r="I47" s="73"/>
+      <c r="E47" s="60"/>
+      <c r="F47" s="61"/>
+      <c r="G47" s="61"/>
+      <c r="H47" s="61"/>
+      <c r="I47" s="62"/>
     </row>
     <row r="48" spans="1:9" s="43" customFormat="1" ht="12">
       <c r="A48" s="40" t="s">
-        <v>63</v>
+        <v>14</v>
       </c>
       <c r="B48" s="41"/>
       <c r="C48" s="42"/>
@@ -3930,25 +3950,25 @@
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="E48" s="71"/>
-      <c r="F48" s="72"/>
-      <c r="G48" s="72"/>
-      <c r="H48" s="72"/>
-      <c r="I48" s="73"/>
+      <c r="E48" s="60"/>
+      <c r="F48" s="61"/>
+      <c r="G48" s="61"/>
+      <c r="H48" s="61"/>
+      <c r="I48" s="62"/>
     </row>
     <row r="49" spans="1:12" s="47" customFormat="1" ht="13">
-      <c r="A49" s="94"/>
-      <c r="B49" s="95"/>
-      <c r="C49" s="95"/>
+      <c r="A49" s="63"/>
+      <c r="B49" s="64"/>
+      <c r="C49" s="64"/>
       <c r="D49" s="46">
         <f>SUM(D16:D48)</f>
         <v>3.1249999999999991</v>
       </c>
-      <c r="E49" s="96"/>
-      <c r="F49" s="96"/>
-      <c r="G49" s="96"/>
-      <c r="H49" s="96"/>
-      <c r="I49" s="97"/>
+      <c r="E49" s="65"/>
+      <c r="F49" s="65"/>
+      <c r="G49" s="65"/>
+      <c r="H49" s="65"/>
+      <c r="I49" s="66"/>
     </row>
     <row r="50" spans="1:12" ht="7" customHeight="1">
       <c r="A50" s="28"/>
@@ -3966,18 +3986,31 @@
     </row>
   </sheetData>
   <mergeCells count="53">
-    <mergeCell ref="E37:I37"/>
-    <mergeCell ref="A49:C49"/>
-    <mergeCell ref="E49:I49"/>
-    <mergeCell ref="E46:I46"/>
-    <mergeCell ref="E47:I47"/>
-    <mergeCell ref="E48:I48"/>
-    <mergeCell ref="E44:I44"/>
-    <mergeCell ref="E45:I45"/>
-    <mergeCell ref="E40:I40"/>
-    <mergeCell ref="E41:I41"/>
-    <mergeCell ref="E42:I42"/>
-    <mergeCell ref="E43:I43"/>
+    <mergeCell ref="E34:I34"/>
+    <mergeCell ref="E24:I24"/>
+    <mergeCell ref="A5:C5"/>
+    <mergeCell ref="D5:H5"/>
+    <mergeCell ref="A6:I6"/>
+    <mergeCell ref="E22:I22"/>
+    <mergeCell ref="E23:I23"/>
+    <mergeCell ref="E25:I25"/>
+    <mergeCell ref="E21:I21"/>
+    <mergeCell ref="E18:I18"/>
+    <mergeCell ref="E20:I20"/>
+    <mergeCell ref="E19:I19"/>
+    <mergeCell ref="A1:I1"/>
+    <mergeCell ref="A2:I2"/>
+    <mergeCell ref="A3:H3"/>
+    <mergeCell ref="A4:I4"/>
+    <mergeCell ref="E17:I17"/>
+    <mergeCell ref="A9:C9"/>
+    <mergeCell ref="D9:H9"/>
+    <mergeCell ref="A10:I10"/>
+    <mergeCell ref="E14:I15"/>
+    <mergeCell ref="E16:I16"/>
+    <mergeCell ref="A13:A15"/>
+    <mergeCell ref="B13:I13"/>
+    <mergeCell ref="B14:C14"/>
     <mergeCell ref="E36:I36"/>
     <mergeCell ref="E38:I38"/>
     <mergeCell ref="E39:I39"/>
@@ -3994,31 +4027,18 @@
     <mergeCell ref="E26:I26"/>
     <mergeCell ref="E27:I27"/>
     <mergeCell ref="E28:I28"/>
-    <mergeCell ref="A1:I1"/>
-    <mergeCell ref="A2:I2"/>
-    <mergeCell ref="A3:H3"/>
-    <mergeCell ref="A4:I4"/>
-    <mergeCell ref="E17:I17"/>
-    <mergeCell ref="A9:C9"/>
-    <mergeCell ref="D9:H9"/>
-    <mergeCell ref="A10:I10"/>
-    <mergeCell ref="E14:I15"/>
-    <mergeCell ref="E16:I16"/>
-    <mergeCell ref="A13:A15"/>
-    <mergeCell ref="B13:I13"/>
-    <mergeCell ref="B14:C14"/>
-    <mergeCell ref="E34:I34"/>
-    <mergeCell ref="E24:I24"/>
-    <mergeCell ref="A5:C5"/>
-    <mergeCell ref="D5:H5"/>
-    <mergeCell ref="A6:I6"/>
-    <mergeCell ref="E22:I22"/>
-    <mergeCell ref="E23:I23"/>
-    <mergeCell ref="E25:I25"/>
-    <mergeCell ref="E21:I21"/>
-    <mergeCell ref="E18:I18"/>
-    <mergeCell ref="E20:I20"/>
-    <mergeCell ref="E19:I19"/>
+    <mergeCell ref="E37:I37"/>
+    <mergeCell ref="A49:C49"/>
+    <mergeCell ref="E49:I49"/>
+    <mergeCell ref="E46:I46"/>
+    <mergeCell ref="E47:I47"/>
+    <mergeCell ref="E48:I48"/>
+    <mergeCell ref="E44:I44"/>
+    <mergeCell ref="E45:I45"/>
+    <mergeCell ref="E40:I40"/>
+    <mergeCell ref="E41:I41"/>
+    <mergeCell ref="E42:I42"/>
+    <mergeCell ref="E43:I43"/>
   </mergeCells>
   <phoneticPr fontId="32" type="noConversion"/>
   <printOptions horizontalCentered="1"/>
@@ -4037,10 +4057,10 @@
   <sheetPr enableFormatConditionsCalculation="0">
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A1:AN48"/>
+  <dimension ref="A1:AN52"/>
   <sheetViews>
-    <sheetView tabSelected="1" view="pageLayout" topLeftCell="A4" zoomScale="85" zoomScaleSheetLayoutView="85" workbookViewId="0">
-      <selection activeCell="E33" sqref="E33:I33"/>
+    <sheetView tabSelected="1" view="pageLayout" zoomScale="85" zoomScaleSheetLayoutView="85" workbookViewId="0">
+      <selection activeCell="B40" sqref="B40"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.1640625" defaultRowHeight="10"/>
@@ -4057,17 +4077,17 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:40" s="7" customFormat="1" ht="18" thickBot="1">
-      <c r="A1" s="66" t="s">
-        <v>67</v>
-      </c>
-      <c r="B1" s="66"/>
-      <c r="C1" s="66"/>
-      <c r="D1" s="66"/>
-      <c r="E1" s="66"/>
-      <c r="F1" s="66"/>
-      <c r="G1" s="66"/>
-      <c r="H1" s="66"/>
-      <c r="I1" s="66"/>
+      <c r="A1" s="84" t="s">
+        <v>18</v>
+      </c>
+      <c r="B1" s="84"/>
+      <c r="C1" s="84"/>
+      <c r="D1" s="84"/>
+      <c r="E1" s="84"/>
+      <c r="F1" s="84"/>
+      <c r="G1" s="84"/>
+      <c r="H1" s="84"/>
+      <c r="I1" s="84"/>
       <c r="J1" s="8"/>
       <c r="K1" s="8"/>
       <c r="L1" s="8"/>
@@ -4100,15 +4120,15 @@
       <c r="AM1" s="8"/>
     </row>
     <row r="2" spans="1:40" s="1" customFormat="1" ht="7.5" customHeight="1">
-      <c r="A2" s="67"/>
-      <c r="B2" s="67"/>
-      <c r="C2" s="67"/>
-      <c r="D2" s="67"/>
-      <c r="E2" s="67"/>
-      <c r="F2" s="67"/>
-      <c r="G2" s="67"/>
-      <c r="H2" s="67"/>
-      <c r="I2" s="67"/>
+      <c r="A2" s="85"/>
+      <c r="B2" s="85"/>
+      <c r="C2" s="85"/>
+      <c r="D2" s="85"/>
+      <c r="E2" s="85"/>
+      <c r="F2" s="85"/>
+      <c r="G2" s="85"/>
+      <c r="H2" s="85"/>
+      <c r="I2" s="85"/>
       <c r="J2" s="9"/>
       <c r="K2" s="9"/>
       <c r="L2" s="9"/>
@@ -4141,16 +4161,16 @@
       <c r="AM2" s="9"/>
     </row>
     <row r="3" spans="1:40" s="11" customFormat="1" ht="13.5" customHeight="1">
-      <c r="A3" s="68" t="s">
-        <v>71</v>
-      </c>
-      <c r="B3" s="68"/>
-      <c r="C3" s="68"/>
-      <c r="D3" s="68"/>
-      <c r="E3" s="68"/>
-      <c r="F3" s="68"/>
-      <c r="G3" s="68"/>
-      <c r="H3" s="68"/>
+      <c r="A3" s="86" t="s">
+        <v>22</v>
+      </c>
+      <c r="B3" s="86"/>
+      <c r="C3" s="86"/>
+      <c r="D3" s="86"/>
+      <c r="E3" s="86"/>
+      <c r="F3" s="86"/>
+      <c r="G3" s="86"/>
+      <c r="H3" s="86"/>
       <c r="I3" s="23"/>
       <c r="J3" s="22"/>
       <c r="K3" s="22"/>
@@ -4185,112 +4205,112 @@
       <c r="AN3" s="10"/>
     </row>
     <row r="4" spans="1:40" s="6" customFormat="1" ht="9" customHeight="1">
-      <c r="A4" s="69"/>
-      <c r="B4" s="69"/>
-      <c r="C4" s="69"/>
-      <c r="D4" s="69"/>
-      <c r="E4" s="69"/>
-      <c r="F4" s="69"/>
-      <c r="G4" s="69"/>
-      <c r="H4" s="69"/>
-      <c r="I4" s="69"/>
+      <c r="A4" s="87"/>
+      <c r="B4" s="87"/>
+      <c r="C4" s="87"/>
+      <c r="D4" s="87"/>
+      <c r="E4" s="87"/>
+      <c r="F4" s="87"/>
+      <c r="G4" s="87"/>
+      <c r="H4" s="87"/>
+      <c r="I4" s="87"/>
     </row>
     <row r="5" spans="1:40" s="1" customFormat="1" ht="13.75" customHeight="1">
-      <c r="A5" s="62" t="str">
+      <c r="A5" s="94" t="str">
         <f>October!A5</f>
         <v>Firstname Lastname</v>
       </c>
-      <c r="B5" s="63"/>
-      <c r="C5" s="63"/>
-      <c r="D5" s="58" t="str">
+      <c r="B5" s="95"/>
+      <c r="C5" s="95"/>
+      <c r="D5" s="90" t="str">
         <f>October!D5</f>
         <v>Augustin Hannah</v>
       </c>
-      <c r="E5" s="59"/>
-      <c r="F5" s="59"/>
-      <c r="G5" s="59"/>
-      <c r="H5" s="60"/>
+      <c r="E5" s="91"/>
+      <c r="F5" s="91"/>
+      <c r="G5" s="91"/>
+      <c r="H5" s="92"/>
       <c r="I5" s="23"/>
       <c r="J5" s="9"/>
       <c r="K5" s="9"/>
       <c r="L5" s="9"/>
     </row>
     <row r="6" spans="1:40" s="1" customFormat="1" ht="7.5" customHeight="1">
-      <c r="A6" s="64"/>
-      <c r="B6" s="64"/>
-      <c r="C6" s="64"/>
-      <c r="D6" s="64"/>
-      <c r="E6" s="64"/>
-      <c r="F6" s="64"/>
-      <c r="G6" s="64"/>
-      <c r="H6" s="64"/>
-      <c r="I6" s="64"/>
+      <c r="A6" s="96"/>
+      <c r="B6" s="96"/>
+      <c r="C6" s="96"/>
+      <c r="D6" s="96"/>
+      <c r="E6" s="96"/>
+      <c r="F6" s="96"/>
+      <c r="G6" s="96"/>
+      <c r="H6" s="96"/>
+      <c r="I6" s="96"/>
     </row>
     <row r="7" spans="1:40" s="1" customFormat="1" ht="13.75" customHeight="1">
-      <c r="A7" s="57" t="str">
+      <c r="A7" s="89" t="str">
         <f>October!A7</f>
         <v>Project Acronym</v>
       </c>
-      <c r="B7" s="57"/>
-      <c r="C7" s="57"/>
-      <c r="D7" s="65" t="str">
+      <c r="B7" s="89"/>
+      <c r="C7" s="89"/>
+      <c r="D7" s="97" t="str">
         <f>October!D7</f>
         <v>AIQ</v>
       </c>
-      <c r="E7" s="65"/>
-      <c r="F7" s="65"/>
-      <c r="G7" s="65"/>
-      <c r="H7" s="65"/>
+      <c r="E7" s="97"/>
+      <c r="F7" s="97"/>
+      <c r="G7" s="97"/>
+      <c r="H7" s="97"/>
       <c r="I7" s="24"/>
     </row>
     <row r="8" spans="1:40" s="1" customFormat="1" ht="7.5" customHeight="1">
-      <c r="A8" s="70"/>
-      <c r="B8" s="70"/>
-      <c r="C8" s="70"/>
-      <c r="D8" s="70"/>
-      <c r="E8" s="70"/>
-      <c r="F8" s="70"/>
-      <c r="G8" s="70"/>
-      <c r="H8" s="70"/>
-      <c r="I8" s="70"/>
+      <c r="A8" s="88"/>
+      <c r="B8" s="88"/>
+      <c r="C8" s="88"/>
+      <c r="D8" s="88"/>
+      <c r="E8" s="88"/>
+      <c r="F8" s="88"/>
+      <c r="G8" s="88"/>
+      <c r="H8" s="88"/>
+      <c r="I8" s="88"/>
     </row>
     <row r="9" spans="1:40" s="1" customFormat="1" ht="13.75" customHeight="1">
-      <c r="A9" s="57" t="str">
+      <c r="A9" s="89" t="str">
         <f>October!A9</f>
         <v>Project Title</v>
       </c>
-      <c r="B9" s="57"/>
-      <c r="C9" s="57"/>
-      <c r="D9" s="58" t="str">
+      <c r="B9" s="89"/>
+      <c r="C9" s="89"/>
+      <c r="D9" s="90" t="str">
         <f>October!D9</f>
         <v>Automating change detection in ImageQuerying</v>
       </c>
-      <c r="E9" s="59"/>
-      <c r="F9" s="59"/>
-      <c r="G9" s="59"/>
-      <c r="H9" s="60"/>
+      <c r="E9" s="91"/>
+      <c r="F9" s="91"/>
+      <c r="G9" s="91"/>
+      <c r="H9" s="92"/>
       <c r="I9" s="24"/>
       <c r="J9" s="15"/>
     </row>
     <row r="10" spans="1:40" s="1" customFormat="1" ht="7.5" customHeight="1">
-      <c r="A10" s="61"/>
-      <c r="B10" s="61"/>
-      <c r="C10" s="61"/>
-      <c r="D10" s="61"/>
-      <c r="E10" s="61"/>
-      <c r="F10" s="61"/>
-      <c r="G10" s="61"/>
-      <c r="H10" s="61"/>
-      <c r="I10" s="61"/>
+      <c r="A10" s="93"/>
+      <c r="B10" s="93"/>
+      <c r="C10" s="93"/>
+      <c r="D10" s="93"/>
+      <c r="E10" s="93"/>
+      <c r="F10" s="93"/>
+      <c r="G10" s="93"/>
+      <c r="H10" s="93"/>
+      <c r="I10" s="93"/>
     </row>
     <row r="11" spans="1:40" s="1" customFormat="1" ht="12">
       <c r="A11" s="21" t="s">
-        <v>69</v>
+        <v>20</v>
       </c>
       <c r="B11" s="21"/>
       <c r="C11" s="21"/>
       <c r="D11" s="21" t="s">
-        <v>70</v>
+        <v>21</v>
       </c>
       <c r="E11" s="21"/>
       <c r="F11" s="21"/>
@@ -4310,55 +4330,55 @@
       <c r="I12" s="26"/>
     </row>
     <row r="13" spans="1:40" s="2" customFormat="1" ht="15.5" customHeight="1">
-      <c r="A13" s="78" t="s">
-        <v>26</v>
-      </c>
-      <c r="B13" s="81" t="s">
-        <v>65</v>
-      </c>
-      <c r="C13" s="82"/>
-      <c r="D13" s="82"/>
-      <c r="E13" s="82"/>
-      <c r="F13" s="82"/>
-      <c r="G13" s="82"/>
-      <c r="H13" s="82"/>
-      <c r="I13" s="83"/>
+      <c r="A13" s="68" t="s">
+        <v>75</v>
+      </c>
+      <c r="B13" s="71" t="s">
+        <v>16</v>
+      </c>
+      <c r="C13" s="72"/>
+      <c r="D13" s="72"/>
+      <c r="E13" s="72"/>
+      <c r="F13" s="72"/>
+      <c r="G13" s="72"/>
+      <c r="H13" s="72"/>
+      <c r="I13" s="73"/>
     </row>
     <row r="14" spans="1:40" s="2" customFormat="1" ht="13.75" customHeight="1">
-      <c r="A14" s="79"/>
-      <c r="B14" s="84" t="s">
-        <v>27</v>
-      </c>
-      <c r="C14" s="85"/>
-      <c r="D14" s="86" t="s">
-        <v>28</v>
-      </c>
-      <c r="E14" s="88" t="s">
-        <v>66</v>
-      </c>
-      <c r="F14" s="89"/>
-      <c r="G14" s="89"/>
-      <c r="H14" s="89"/>
-      <c r="I14" s="90"/>
+      <c r="A14" s="69"/>
+      <c r="B14" s="74" t="s">
+        <v>76</v>
+      </c>
+      <c r="C14" s="75"/>
+      <c r="D14" s="76" t="s">
+        <v>77</v>
+      </c>
+      <c r="E14" s="78" t="s">
+        <v>17</v>
+      </c>
+      <c r="F14" s="79"/>
+      <c r="G14" s="79"/>
+      <c r="H14" s="79"/>
+      <c r="I14" s="80"/>
     </row>
     <row r="15" spans="1:40" ht="13" customHeight="1">
-      <c r="A15" s="80"/>
+      <c r="A15" s="70"/>
       <c r="B15" s="32" t="s">
-        <v>29</v>
+        <v>78</v>
       </c>
       <c r="C15" s="33" t="s">
-        <v>30</v>
-      </c>
-      <c r="D15" s="87"/>
-      <c r="E15" s="91"/>
-      <c r="F15" s="92"/>
-      <c r="G15" s="92"/>
-      <c r="H15" s="92"/>
-      <c r="I15" s="93"/>
+        <v>79</v>
+      </c>
+      <c r="D15" s="77"/>
+      <c r="E15" s="81"/>
+      <c r="F15" s="82"/>
+      <c r="G15" s="82"/>
+      <c r="H15" s="82"/>
+      <c r="I15" s="83"/>
     </row>
     <row r="16" spans="1:40" s="43" customFormat="1" ht="12">
       <c r="A16" s="40" t="s">
-        <v>31</v>
+        <v>80</v>
       </c>
       <c r="B16" s="41"/>
       <c r="C16" s="42"/>
@@ -4366,31 +4386,31 @@
         <f>C16-B16</f>
         <v>0</v>
       </c>
-      <c r="E16" s="71"/>
-      <c r="F16" s="72"/>
-      <c r="G16" s="72"/>
-      <c r="H16" s="72"/>
-      <c r="I16" s="73"/>
+      <c r="E16" s="60"/>
+      <c r="F16" s="61"/>
+      <c r="G16" s="61"/>
+      <c r="H16" s="61"/>
+      <c r="I16" s="62"/>
     </row>
     <row r="17" spans="1:9" s="43" customFormat="1" ht="12">
       <c r="A17" s="40" t="s">
-        <v>32</v>
+        <v>81</v>
       </c>
       <c r="B17" s="41"/>
       <c r="C17" s="42"/>
       <c r="D17" s="42">
-        <f t="shared" ref="D17:D46" si="0">C17-B17</f>
-        <v>0</v>
-      </c>
-      <c r="E17" s="71"/>
-      <c r="F17" s="72"/>
-      <c r="G17" s="72"/>
-      <c r="H17" s="72"/>
-      <c r="I17" s="73"/>
+        <f t="shared" ref="D17:D50" si="0">C17-B17</f>
+        <v>0</v>
+      </c>
+      <c r="E17" s="60"/>
+      <c r="F17" s="61"/>
+      <c r="G17" s="61"/>
+      <c r="H17" s="61"/>
+      <c r="I17" s="62"/>
     </row>
     <row r="18" spans="1:9" s="51" customFormat="1" ht="12">
       <c r="A18" s="48" t="s">
-        <v>33</v>
+        <v>82</v>
       </c>
       <c r="B18" s="49">
         <v>0.41666666666666669</v>
@@ -4402,17 +4422,17 @@
         <f t="shared" si="0"/>
         <v>0.24999999999999994</v>
       </c>
-      <c r="E18" s="77" t="s">
-        <v>12</v>
-      </c>
-      <c r="F18" s="75"/>
-      <c r="G18" s="75"/>
-      <c r="H18" s="75"/>
-      <c r="I18" s="76"/>
+      <c r="E18" s="57" t="s">
+        <v>62</v>
+      </c>
+      <c r="F18" s="58"/>
+      <c r="G18" s="58"/>
+      <c r="H18" s="58"/>
+      <c r="I18" s="59"/>
     </row>
     <row r="19" spans="1:9" s="51" customFormat="1" ht="12">
       <c r="A19" s="48" t="s">
-        <v>34</v>
+        <v>83</v>
       </c>
       <c r="B19" s="49">
         <v>0.5</v>
@@ -4424,17 +4444,17 @@
         <f t="shared" si="0"/>
         <v>0.16666666666666663</v>
       </c>
-      <c r="E19" s="77" t="s">
-        <v>13</v>
-      </c>
-      <c r="F19" s="75"/>
-      <c r="G19" s="75"/>
-      <c r="H19" s="75"/>
-      <c r="I19" s="76"/>
+      <c r="E19" s="57" t="s">
+        <v>63</v>
+      </c>
+      <c r="F19" s="58"/>
+      <c r="G19" s="58"/>
+      <c r="H19" s="58"/>
+      <c r="I19" s="59"/>
     </row>
     <row r="20" spans="1:9" s="43" customFormat="1" ht="12">
       <c r="A20" s="40" t="s">
-        <v>35</v>
+        <v>84</v>
       </c>
       <c r="B20" s="41"/>
       <c r="C20" s="42"/>
@@ -4442,15 +4462,15 @@
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="E20" s="71"/>
-      <c r="F20" s="72"/>
-      <c r="G20" s="72"/>
-      <c r="H20" s="72"/>
-      <c r="I20" s="73"/>
+      <c r="E20" s="60"/>
+      <c r="F20" s="61"/>
+      <c r="G20" s="61"/>
+      <c r="H20" s="61"/>
+      <c r="I20" s="62"/>
     </row>
     <row r="21" spans="1:9" s="43" customFormat="1" ht="12">
       <c r="A21" s="40" t="s">
-        <v>36</v>
+        <v>85</v>
       </c>
       <c r="B21" s="41"/>
       <c r="C21" s="42"/>
@@ -4458,15 +4478,15 @@
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="E21" s="71"/>
-      <c r="F21" s="72"/>
-      <c r="G21" s="72"/>
-      <c r="H21" s="72"/>
-      <c r="I21" s="73"/>
+      <c r="E21" s="60"/>
+      <c r="F21" s="61"/>
+      <c r="G21" s="61"/>
+      <c r="H21" s="61"/>
+      <c r="I21" s="62"/>
     </row>
     <row r="22" spans="1:9" s="43" customFormat="1" ht="12">
       <c r="A22" s="40" t="s">
-        <v>37</v>
+        <v>86</v>
       </c>
       <c r="B22" s="41"/>
       <c r="C22" s="42"/>
@@ -4474,15 +4494,15 @@
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="E22" s="71"/>
-      <c r="F22" s="72"/>
-      <c r="G22" s="72"/>
-      <c r="H22" s="72"/>
-      <c r="I22" s="73"/>
+      <c r="E22" s="60"/>
+      <c r="F22" s="61"/>
+      <c r="G22" s="61"/>
+      <c r="H22" s="61"/>
+      <c r="I22" s="62"/>
     </row>
     <row r="23" spans="1:9" s="43" customFormat="1" ht="12">
       <c r="A23" s="40" t="s">
-        <v>38</v>
+        <v>87</v>
       </c>
       <c r="B23" s="41"/>
       <c r="C23" s="42"/>
@@ -4490,15 +4510,15 @@
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="E23" s="71"/>
-      <c r="F23" s="72"/>
-      <c r="G23" s="72"/>
-      <c r="H23" s="72"/>
-      <c r="I23" s="73"/>
+      <c r="E23" s="60"/>
+      <c r="F23" s="61"/>
+      <c r="G23" s="61"/>
+      <c r="H23" s="61"/>
+      <c r="I23" s="62"/>
     </row>
     <row r="24" spans="1:9" s="43" customFormat="1" ht="12">
       <c r="A24" s="40" t="s">
-        <v>39</v>
+        <v>88</v>
       </c>
       <c r="B24" s="41"/>
       <c r="C24" s="42"/>
@@ -4506,15 +4526,15 @@
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="E24" s="71"/>
-      <c r="F24" s="72"/>
-      <c r="G24" s="72"/>
-      <c r="H24" s="72"/>
-      <c r="I24" s="73"/>
+      <c r="E24" s="60"/>
+      <c r="F24" s="61"/>
+      <c r="G24" s="61"/>
+      <c r="H24" s="61"/>
+      <c r="I24" s="62"/>
     </row>
     <row r="25" spans="1:9" s="51" customFormat="1" ht="12">
       <c r="A25" s="48" t="s">
-        <v>40</v>
+        <v>89</v>
       </c>
       <c r="B25" s="49"/>
       <c r="C25" s="50"/>
@@ -4522,15 +4542,15 @@
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="E25" s="77"/>
-      <c r="F25" s="75"/>
-      <c r="G25" s="75"/>
-      <c r="H25" s="75"/>
-      <c r="I25" s="76"/>
+      <c r="E25" s="57"/>
+      <c r="F25" s="58"/>
+      <c r="G25" s="58"/>
+      <c r="H25" s="58"/>
+      <c r="I25" s="59"/>
     </row>
     <row r="26" spans="1:9" s="51" customFormat="1" ht="12">
       <c r="A26" s="48" t="s">
-        <v>41</v>
+        <v>90</v>
       </c>
       <c r="B26" s="49"/>
       <c r="C26" s="50"/>
@@ -4538,15 +4558,15 @@
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="E26" s="77"/>
-      <c r="F26" s="75"/>
-      <c r="G26" s="75"/>
-      <c r="H26" s="75"/>
-      <c r="I26" s="76"/>
+      <c r="E26" s="57"/>
+      <c r="F26" s="58"/>
+      <c r="G26" s="58"/>
+      <c r="H26" s="58"/>
+      <c r="I26" s="59"/>
     </row>
     <row r="27" spans="1:9" s="43" customFormat="1" ht="12">
       <c r="A27" s="40" t="s">
-        <v>42</v>
+        <v>91</v>
       </c>
       <c r="B27" s="41">
         <v>0.375</v>
@@ -4558,17 +4578,17 @@
         <f t="shared" si="0"/>
         <v>8.3333333333333315E-2</v>
       </c>
-      <c r="E27" s="71" t="s">
-        <v>11</v>
-      </c>
-      <c r="F27" s="72"/>
-      <c r="G27" s="72"/>
-      <c r="H27" s="72"/>
-      <c r="I27" s="73"/>
+      <c r="E27" s="60" t="s">
+        <v>61</v>
+      </c>
+      <c r="F27" s="61"/>
+      <c r="G27" s="61"/>
+      <c r="H27" s="61"/>
+      <c r="I27" s="62"/>
     </row>
     <row r="28" spans="1:9" s="43" customFormat="1" ht="12">
       <c r="A28" s="40" t="s">
-        <v>43</v>
+        <v>92</v>
       </c>
       <c r="B28" s="41">
         <v>0.5</v>
@@ -4580,17 +4600,17 @@
         <f t="shared" si="0"/>
         <v>0.33333333333333337</v>
       </c>
-      <c r="E28" s="71" t="s">
-        <v>9</v>
-      </c>
-      <c r="F28" s="72"/>
-      <c r="G28" s="72"/>
-      <c r="H28" s="72"/>
-      <c r="I28" s="73"/>
+      <c r="E28" s="60" t="s">
+        <v>59</v>
+      </c>
+      <c r="F28" s="61"/>
+      <c r="G28" s="61"/>
+      <c r="H28" s="61"/>
+      <c r="I28" s="62"/>
     </row>
     <row r="29" spans="1:9" s="43" customFormat="1" ht="12">
       <c r="A29" s="40" t="s">
-        <v>44</v>
+        <v>93</v>
       </c>
       <c r="B29" s="41">
         <v>0.375</v>
@@ -4602,17 +4622,17 @@
         <f t="shared" si="0"/>
         <v>0.16666666666666663</v>
       </c>
-      <c r="E29" s="71" t="s">
-        <v>10</v>
-      </c>
-      <c r="F29" s="72"/>
-      <c r="G29" s="72"/>
-      <c r="H29" s="72"/>
-      <c r="I29" s="73"/>
+      <c r="E29" s="60" t="s">
+        <v>60</v>
+      </c>
+      <c r="F29" s="61"/>
+      <c r="G29" s="61"/>
+      <c r="H29" s="61"/>
+      <c r="I29" s="62"/>
     </row>
     <row r="30" spans="1:9" s="43" customFormat="1" ht="12">
       <c r="A30" s="40" t="s">
-        <v>45</v>
+        <v>94</v>
       </c>
       <c r="B30" s="41">
         <v>0.70833333333333337</v>
@@ -4624,17 +4644,17 @@
         <f t="shared" si="0"/>
         <v>0.125</v>
       </c>
-      <c r="E30" s="71" t="s">
-        <v>85</v>
-      </c>
-      <c r="F30" s="72"/>
-      <c r="G30" s="72"/>
-      <c r="H30" s="72"/>
-      <c r="I30" s="73"/>
+      <c r="E30" s="60" t="s">
+        <v>36</v>
+      </c>
+      <c r="F30" s="61"/>
+      <c r="G30" s="61"/>
+      <c r="H30" s="61"/>
+      <c r="I30" s="62"/>
     </row>
     <row r="31" spans="1:9" s="43" customFormat="1" ht="12">
       <c r="A31" s="40" t="s">
-        <v>46</v>
+        <v>95</v>
       </c>
       <c r="B31" s="41"/>
       <c r="C31" s="42"/>
@@ -4642,15 +4662,15 @@
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="E31" s="71"/>
-      <c r="F31" s="72"/>
-      <c r="G31" s="72"/>
-      <c r="H31" s="72"/>
-      <c r="I31" s="73"/>
+      <c r="E31" s="60"/>
+      <c r="F31" s="61"/>
+      <c r="G31" s="61"/>
+      <c r="H31" s="61"/>
+      <c r="I31" s="62"/>
     </row>
     <row r="32" spans="1:9" s="51" customFormat="1" ht="12">
       <c r="A32" s="48" t="s">
-        <v>47</v>
+        <v>96</v>
       </c>
       <c r="B32" s="49"/>
       <c r="C32" s="50"/>
@@ -4658,15 +4678,15 @@
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="E32" s="77"/>
-      <c r="F32" s="75"/>
-      <c r="G32" s="75"/>
-      <c r="H32" s="75"/>
-      <c r="I32" s="76"/>
-    </row>
-    <row r="33" spans="1:12" s="51" customFormat="1" ht="12">
+      <c r="E32" s="57"/>
+      <c r="F32" s="58"/>
+      <c r="G32" s="58"/>
+      <c r="H32" s="58"/>
+      <c r="I32" s="59"/>
+    </row>
+    <row r="33" spans="1:9" s="51" customFormat="1" ht="12">
       <c r="A33" s="48" t="s">
-        <v>51</v>
+        <v>2</v>
       </c>
       <c r="B33" s="49">
         <v>0.83333333333333337</v>
@@ -4678,17 +4698,17 @@
         <f t="shared" si="0"/>
         <v>4.166666666666663E-2</v>
       </c>
-      <c r="E33" s="77" t="s">
-        <v>23</v>
-      </c>
-      <c r="F33" s="75"/>
-      <c r="G33" s="75"/>
-      <c r="H33" s="75"/>
-      <c r="I33" s="76"/>
-    </row>
-    <row r="34" spans="1:12" s="43" customFormat="1" ht="12">
+      <c r="E33" s="57" t="s">
+        <v>45</v>
+      </c>
+      <c r="F33" s="58"/>
+      <c r="G33" s="58"/>
+      <c r="H33" s="58"/>
+      <c r="I33" s="59"/>
+    </row>
+    <row r="34" spans="1:9" s="43" customFormat="1" ht="12">
       <c r="A34" s="40" t="s">
-        <v>52</v>
+        <v>3</v>
       </c>
       <c r="B34" s="41"/>
       <c r="C34" s="42"/>
@@ -4696,111 +4716,133 @@
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="E34" s="71"/>
-      <c r="F34" s="72"/>
-      <c r="G34" s="72"/>
-      <c r="H34" s="72"/>
-      <c r="I34" s="73"/>
-    </row>
-    <row r="35" spans="1:12" s="43" customFormat="1" ht="12">
+      <c r="E34" s="60"/>
+      <c r="F34" s="61"/>
+      <c r="G34" s="61"/>
+      <c r="H34" s="61"/>
+      <c r="I34" s="62"/>
+    </row>
+    <row r="35" spans="1:9" s="43" customFormat="1" ht="12">
       <c r="A35" s="40" t="s">
-        <v>53</v>
-      </c>
-      <c r="B35" s="41"/>
-      <c r="C35" s="42"/>
+        <v>4</v>
+      </c>
+      <c r="B35" s="41">
+        <v>0.375</v>
+      </c>
+      <c r="C35" s="42">
+        <v>0.58333333333333337</v>
+      </c>
       <c r="D35" s="42">
         <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="E35" s="71"/>
-      <c r="F35" s="72"/>
-      <c r="G35" s="72"/>
-      <c r="H35" s="72"/>
-      <c r="I35" s="73"/>
-    </row>
-    <row r="36" spans="1:12" s="43" customFormat="1" ht="12">
-      <c r="A36" s="40" t="s">
-        <v>54</v>
-      </c>
-      <c r="B36" s="41"/>
-      <c r="C36" s="42"/>
+        <v>0.20833333333333337</v>
+      </c>
+      <c r="E35" s="60" t="s">
+        <v>46</v>
+      </c>
+      <c r="F35" s="61"/>
+      <c r="G35" s="61"/>
+      <c r="H35" s="61"/>
+      <c r="I35" s="62"/>
+    </row>
+    <row r="36" spans="1:9" s="43" customFormat="1" ht="12">
+      <c r="A36" s="40"/>
+      <c r="B36" s="41">
+        <v>0.625</v>
+      </c>
+      <c r="C36" s="42">
+        <v>0.66666666666666663</v>
+      </c>
       <c r="D36" s="42">
         <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="E36" s="71"/>
-      <c r="F36" s="72"/>
-      <c r="G36" s="72"/>
-      <c r="H36" s="72"/>
-      <c r="I36" s="73"/>
-    </row>
-    <row r="37" spans="1:12" s="43" customFormat="1" ht="12">
-      <c r="A37" s="40" t="s">
-        <v>55</v>
-      </c>
-      <c r="B37" s="41"/>
-      <c r="C37" s="42"/>
+        <v>4.166666666666663E-2</v>
+      </c>
+      <c r="E36" s="60" t="s">
+        <v>47</v>
+      </c>
+      <c r="F36" s="61"/>
+      <c r="G36" s="61"/>
+      <c r="H36" s="61"/>
+      <c r="I36" s="62"/>
+    </row>
+    <row r="37" spans="1:9" s="43" customFormat="1" ht="12">
+      <c r="A37" s="40"/>
+      <c r="B37" s="41">
+        <v>0.70833333333333337</v>
+      </c>
+      <c r="C37" s="42">
+        <v>0.75</v>
+      </c>
       <c r="D37" s="42">
         <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="E37" s="71"/>
-      <c r="F37" s="72"/>
-      <c r="G37" s="72"/>
-      <c r="H37" s="72"/>
-      <c r="I37" s="73"/>
-    </row>
-    <row r="38" spans="1:12" s="43" customFormat="1" ht="12">
+        <v>4.166666666666663E-2</v>
+      </c>
+      <c r="E37" s="60" t="s">
+        <v>48</v>
+      </c>
+      <c r="F37" s="61"/>
+      <c r="G37" s="61"/>
+      <c r="H37" s="61"/>
+      <c r="I37" s="62"/>
+    </row>
+    <row r="38" spans="1:9" s="43" customFormat="1" ht="12">
       <c r="A38" s="40" t="s">
-        <v>56</v>
-      </c>
-      <c r="B38" s="41"/>
-      <c r="C38" s="42"/>
+        <v>5</v>
+      </c>
+      <c r="B38" s="41">
+        <v>2.0833333333333332E-2</v>
+      </c>
+      <c r="C38" s="42">
+        <v>8.3333333333333329E-2</v>
+      </c>
       <c r="D38" s="42">
         <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="E38" s="71"/>
-      <c r="F38" s="72"/>
-      <c r="G38" s="72"/>
-      <c r="H38" s="72"/>
-      <c r="I38" s="73"/>
-    </row>
-    <row r="39" spans="1:12" s="51" customFormat="1" ht="12">
-      <c r="A39" s="48" t="s">
-        <v>57</v>
-      </c>
-      <c r="B39" s="49"/>
-      <c r="C39" s="50"/>
-      <c r="D39" s="50">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="E39" s="77"/>
-      <c r="F39" s="75"/>
-      <c r="G39" s="75"/>
-      <c r="H39" s="75"/>
-      <c r="I39" s="76"/>
-    </row>
-    <row r="40" spans="1:12" s="51" customFormat="1" ht="12">
-      <c r="A40" s="48" t="s">
-        <v>58</v>
-      </c>
-      <c r="B40" s="49"/>
-      <c r="C40" s="50"/>
-      <c r="D40" s="50">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="E40" s="77"/>
-      <c r="F40" s="75"/>
-      <c r="G40" s="75"/>
-      <c r="H40" s="75"/>
-      <c r="I40" s="76"/>
-    </row>
-    <row r="41" spans="1:12" s="43" customFormat="1" ht="12">
+        <v>6.25E-2</v>
+      </c>
+      <c r="E38" s="60" t="s">
+        <v>49</v>
+      </c>
+      <c r="F38" s="61"/>
+      <c r="G38" s="61"/>
+      <c r="H38" s="61"/>
+      <c r="I38" s="62"/>
+    </row>
+    <row r="39" spans="1:9" s="43" customFormat="1" ht="12">
+      <c r="A39" s="40"/>
+      <c r="B39" s="41">
+        <v>0.39583333333333331</v>
+      </c>
+      <c r="C39" s="42">
+        <v>0.47916666666666669</v>
+      </c>
+      <c r="D39" s="42">
+        <f t="shared" si="0"/>
+        <v>8.333333333333337E-2</v>
+      </c>
+      <c r="E39" s="60" t="s">
+        <v>0</v>
+      </c>
+      <c r="F39" s="61"/>
+      <c r="G39" s="61"/>
+      <c r="H39" s="61"/>
+      <c r="I39" s="62"/>
+    </row>
+    <row r="40" spans="1:9" s="43" customFormat="1" ht="12">
+      <c r="A40" s="40"/>
+      <c r="B40" s="41"/>
+      <c r="C40" s="42"/>
+      <c r="D40" s="42">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="E40" s="60"/>
+      <c r="F40" s="61"/>
+      <c r="G40" s="61"/>
+      <c r="H40" s="61"/>
+      <c r="I40" s="62"/>
+    </row>
+    <row r="41" spans="1:9" s="43" customFormat="1" ht="12">
       <c r="A41" s="40" t="s">
-        <v>59</v>
+        <v>6</v>
       </c>
       <c r="B41" s="41"/>
       <c r="C41" s="42"/>
@@ -4808,15 +4850,15 @@
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="E41" s="71"/>
-      <c r="F41" s="72"/>
-      <c r="G41" s="72"/>
-      <c r="H41" s="72"/>
-      <c r="I41" s="73"/>
-    </row>
-    <row r="42" spans="1:12" s="43" customFormat="1" ht="12">
+      <c r="E41" s="60"/>
+      <c r="F41" s="61"/>
+      <c r="G41" s="61"/>
+      <c r="H41" s="61"/>
+      <c r="I41" s="62"/>
+    </row>
+    <row r="42" spans="1:9" s="43" customFormat="1" ht="12">
       <c r="A42" s="40" t="s">
-        <v>60</v>
+        <v>7</v>
       </c>
       <c r="B42" s="41"/>
       <c r="C42" s="42"/>
@@ -4824,47 +4866,47 @@
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="E42" s="71"/>
-      <c r="F42" s="72"/>
-      <c r="G42" s="72"/>
-      <c r="H42" s="72"/>
-      <c r="I42" s="73"/>
-    </row>
-    <row r="43" spans="1:12" s="43" customFormat="1" ht="12">
-      <c r="A43" s="40" t="s">
-        <v>61</v>
-      </c>
-      <c r="B43" s="41"/>
-      <c r="C43" s="42"/>
-      <c r="D43" s="42">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="E43" s="71"/>
-      <c r="F43" s="72"/>
-      <c r="G43" s="72"/>
-      <c r="H43" s="72"/>
-      <c r="I43" s="73"/>
-    </row>
-    <row r="44" spans="1:12" s="43" customFormat="1" ht="12">
-      <c r="A44" s="40" t="s">
-        <v>62</v>
-      </c>
-      <c r="B44" s="41"/>
-      <c r="C44" s="42"/>
-      <c r="D44" s="42">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="E44" s="71"/>
-      <c r="F44" s="72"/>
-      <c r="G44" s="72"/>
-      <c r="H44" s="72"/>
-      <c r="I44" s="73"/>
-    </row>
-    <row r="45" spans="1:12" s="43" customFormat="1" ht="12">
+      <c r="E42" s="60"/>
+      <c r="F42" s="61"/>
+      <c r="G42" s="61"/>
+      <c r="H42" s="61"/>
+      <c r="I42" s="62"/>
+    </row>
+    <row r="43" spans="1:9" s="51" customFormat="1" ht="12">
+      <c r="A43" s="48" t="s">
+        <v>8</v>
+      </c>
+      <c r="B43" s="49"/>
+      <c r="C43" s="50"/>
+      <c r="D43" s="50">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="E43" s="57"/>
+      <c r="F43" s="58"/>
+      <c r="G43" s="58"/>
+      <c r="H43" s="58"/>
+      <c r="I43" s="59"/>
+    </row>
+    <row r="44" spans="1:9" s="51" customFormat="1" ht="12">
+      <c r="A44" s="48" t="s">
+        <v>9</v>
+      </c>
+      <c r="B44" s="49"/>
+      <c r="C44" s="50"/>
+      <c r="D44" s="50">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="E44" s="57"/>
+      <c r="F44" s="58"/>
+      <c r="G44" s="58"/>
+      <c r="H44" s="58"/>
+      <c r="I44" s="59"/>
+    </row>
+    <row r="45" spans="1:9" s="43" customFormat="1" ht="12">
       <c r="A45" s="40" t="s">
-        <v>63</v>
+        <v>10</v>
       </c>
       <c r="B45" s="41"/>
       <c r="C45" s="42"/>
@@ -4872,85 +4914,132 @@
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="E45" s="71"/>
-      <c r="F45" s="72"/>
-      <c r="G45" s="72"/>
-      <c r="H45" s="72"/>
-      <c r="I45" s="73"/>
-    </row>
-    <row r="46" spans="1:12" s="51" customFormat="1" ht="12">
-      <c r="A46" s="48" t="s">
-        <v>64</v>
-      </c>
-      <c r="B46" s="49"/>
-      <c r="C46" s="50"/>
-      <c r="D46" s="50">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="E46" s="77"/>
-      <c r="F46" s="75"/>
-      <c r="G46" s="75"/>
-      <c r="H46" s="75"/>
-      <c r="I46" s="76"/>
-    </row>
-    <row r="47" spans="1:12" s="35" customFormat="1" ht="13">
-      <c r="A47" s="100"/>
-      <c r="B47" s="101"/>
-      <c r="C47" s="101"/>
-      <c r="D47" s="34">
-        <f>SUM(D16:D46)</f>
-        <v>1.1666666666666665</v>
-      </c>
-      <c r="E47" s="98"/>
-      <c r="F47" s="98"/>
-      <c r="G47" s="98"/>
-      <c r="H47" s="98"/>
-      <c r="I47" s="99"/>
-    </row>
-    <row r="48" spans="1:12" ht="7" customHeight="1">
-      <c r="A48" s="28"/>
-      <c r="B48" s="28"/>
-      <c r="C48" s="28"/>
-      <c r="D48" s="29"/>
-      <c r="E48" s="30"/>
-      <c r="F48" s="30"/>
-      <c r="G48" s="30"/>
-      <c r="H48" s="30"/>
-      <c r="I48" s="31"/>
-      <c r="J48" s="14"/>
-      <c r="K48" s="13"/>
-      <c r="L48" s="13"/>
+      <c r="E45" s="60"/>
+      <c r="F45" s="61"/>
+      <c r="G45" s="61"/>
+      <c r="H45" s="61"/>
+      <c r="I45" s="62"/>
+    </row>
+    <row r="46" spans="1:9" s="43" customFormat="1" ht="12">
+      <c r="A46" s="40" t="s">
+        <v>11</v>
+      </c>
+      <c r="B46" s="41"/>
+      <c r="C46" s="42"/>
+      <c r="D46" s="42">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="E46" s="60"/>
+      <c r="F46" s="61"/>
+      <c r="G46" s="61"/>
+      <c r="H46" s="61"/>
+      <c r="I46" s="62"/>
+    </row>
+    <row r="47" spans="1:9" s="43" customFormat="1" ht="12">
+      <c r="A47" s="40" t="s">
+        <v>12</v>
+      </c>
+      <c r="B47" s="41"/>
+      <c r="C47" s="42"/>
+      <c r="D47" s="42">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="E47" s="60"/>
+      <c r="F47" s="61"/>
+      <c r="G47" s="61"/>
+      <c r="H47" s="61"/>
+      <c r="I47" s="62"/>
+    </row>
+    <row r="48" spans="1:9" s="43" customFormat="1" ht="12">
+      <c r="A48" s="40" t="s">
+        <v>13</v>
+      </c>
+      <c r="B48" s="41"/>
+      <c r="C48" s="42"/>
+      <c r="D48" s="42">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="E48" s="60"/>
+      <c r="F48" s="61"/>
+      <c r="G48" s="61"/>
+      <c r="H48" s="61"/>
+      <c r="I48" s="62"/>
+    </row>
+    <row r="49" spans="1:12" s="43" customFormat="1" ht="12">
+      <c r="A49" s="40" t="s">
+        <v>14</v>
+      </c>
+      <c r="B49" s="41"/>
+      <c r="C49" s="42"/>
+      <c r="D49" s="42">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="E49" s="60"/>
+      <c r="F49" s="61"/>
+      <c r="G49" s="61"/>
+      <c r="H49" s="61"/>
+      <c r="I49" s="62"/>
+    </row>
+    <row r="50" spans="1:12" s="51" customFormat="1" ht="12">
+      <c r="A50" s="48" t="s">
+        <v>15</v>
+      </c>
+      <c r="B50" s="49"/>
+      <c r="C50" s="50"/>
+      <c r="D50" s="50">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="E50" s="57"/>
+      <c r="F50" s="58"/>
+      <c r="G50" s="58"/>
+      <c r="H50" s="58"/>
+      <c r="I50" s="59"/>
+    </row>
+    <row r="51" spans="1:12" s="35" customFormat="1" ht="13">
+      <c r="A51" s="100"/>
+      <c r="B51" s="101"/>
+      <c r="C51" s="101"/>
+      <c r="D51" s="34">
+        <f>SUM(D16:D50)</f>
+        <v>1.6041666666666665</v>
+      </c>
+      <c r="E51" s="98"/>
+      <c r="F51" s="98"/>
+      <c r="G51" s="98"/>
+      <c r="H51" s="98"/>
+      <c r="I51" s="99"/>
+    </row>
+    <row r="52" spans="1:12" ht="7" customHeight="1">
+      <c r="A52" s="28"/>
+      <c r="B52" s="28"/>
+      <c r="C52" s="28"/>
+      <c r="D52" s="29"/>
+      <c r="E52" s="30"/>
+      <c r="F52" s="30"/>
+      <c r="G52" s="30"/>
+      <c r="H52" s="30"/>
+      <c r="I52" s="31"/>
+      <c r="J52" s="14"/>
+      <c r="K52" s="13"/>
+      <c r="L52" s="13"/>
     </row>
   </sheetData>
-  <mergeCells count="51">
-    <mergeCell ref="E41:I41"/>
-    <mergeCell ref="E42:I42"/>
-    <mergeCell ref="E43:I43"/>
-    <mergeCell ref="E16:I16"/>
-    <mergeCell ref="A7:C7"/>
-    <mergeCell ref="D7:H7"/>
-    <mergeCell ref="A8:I8"/>
-    <mergeCell ref="A13:A15"/>
-    <mergeCell ref="B13:I13"/>
-    <mergeCell ref="B14:C14"/>
-    <mergeCell ref="D14:D15"/>
-    <mergeCell ref="E14:I15"/>
-    <mergeCell ref="A9:C9"/>
-    <mergeCell ref="E38:I38"/>
-    <mergeCell ref="E39:I39"/>
-    <mergeCell ref="E40:I40"/>
-    <mergeCell ref="E47:I47"/>
-    <mergeCell ref="A47:C47"/>
-    <mergeCell ref="E44:I44"/>
-    <mergeCell ref="E45:I45"/>
-    <mergeCell ref="E46:I46"/>
-    <mergeCell ref="E35:I35"/>
-    <mergeCell ref="E36:I36"/>
-    <mergeCell ref="E37:I37"/>
-    <mergeCell ref="E32:I32"/>
-    <mergeCell ref="E33:I33"/>
-    <mergeCell ref="E34:I34"/>
+  <sheetCalcPr fullCalcOnLoad="1"/>
+  <mergeCells count="55">
+    <mergeCell ref="D9:H9"/>
+    <mergeCell ref="A10:I10"/>
+    <mergeCell ref="A1:I1"/>
+    <mergeCell ref="A2:I2"/>
+    <mergeCell ref="A3:H3"/>
+    <mergeCell ref="A4:I4"/>
+    <mergeCell ref="A5:C5"/>
+    <mergeCell ref="D5:H5"/>
+    <mergeCell ref="A6:I6"/>
     <mergeCell ref="E29:I29"/>
     <mergeCell ref="E30:I30"/>
     <mergeCell ref="E31:I31"/>
@@ -4966,20 +5055,42 @@
     <mergeCell ref="E22:I22"/>
     <mergeCell ref="E18:I18"/>
     <mergeCell ref="E19:I19"/>
-    <mergeCell ref="D9:H9"/>
-    <mergeCell ref="A10:I10"/>
-    <mergeCell ref="A1:I1"/>
-    <mergeCell ref="A2:I2"/>
-    <mergeCell ref="A3:H3"/>
-    <mergeCell ref="A4:I4"/>
-    <mergeCell ref="A5:C5"/>
-    <mergeCell ref="D5:H5"/>
-    <mergeCell ref="A6:I6"/>
+    <mergeCell ref="E35:I35"/>
+    <mergeCell ref="E38:I38"/>
+    <mergeCell ref="E41:I41"/>
+    <mergeCell ref="E32:I32"/>
+    <mergeCell ref="E33:I33"/>
+    <mergeCell ref="E34:I34"/>
+    <mergeCell ref="E36:I36"/>
+    <mergeCell ref="E37:I37"/>
+    <mergeCell ref="E39:I39"/>
+    <mergeCell ref="E40:I40"/>
+    <mergeCell ref="E51:I51"/>
+    <mergeCell ref="A51:C51"/>
+    <mergeCell ref="E48:I48"/>
+    <mergeCell ref="E49:I49"/>
+    <mergeCell ref="E50:I50"/>
+    <mergeCell ref="E45:I45"/>
+    <mergeCell ref="E46:I46"/>
+    <mergeCell ref="E47:I47"/>
+    <mergeCell ref="E16:I16"/>
+    <mergeCell ref="A7:C7"/>
+    <mergeCell ref="D7:H7"/>
+    <mergeCell ref="A8:I8"/>
+    <mergeCell ref="A13:A15"/>
+    <mergeCell ref="B13:I13"/>
+    <mergeCell ref="B14:C14"/>
+    <mergeCell ref="D14:D15"/>
+    <mergeCell ref="E14:I15"/>
+    <mergeCell ref="A9:C9"/>
+    <mergeCell ref="E42:I42"/>
+    <mergeCell ref="E43:I43"/>
+    <mergeCell ref="E44:I44"/>
   </mergeCells>
   <phoneticPr fontId="32" type="noConversion"/>
   <printOptions horizontalCentered="1"/>
   <pageMargins left="0.44" right="0.03" top="0.02" bottom="0.03" header="0.19685039370078741" footer="0.19685039370078741"/>
-  <pageSetup paperSize="9" scale="94" orientation="landscape"/>
+  <pageSetup paperSize="9" scale="87" orientation="landscape"/>
   <extLst>
     <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="http://schemas.microsoft.com/office/mac/excel/2008/main">
       <mx:PLV Mode="1" OnePage="0" WScale="0"/>
@@ -5013,17 +5124,17 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:40" s="7" customFormat="1" ht="18" thickBot="1">
-      <c r="A1" s="66" t="s">
-        <v>67</v>
-      </c>
-      <c r="B1" s="66"/>
-      <c r="C1" s="66"/>
-      <c r="D1" s="66"/>
-      <c r="E1" s="66"/>
-      <c r="F1" s="66"/>
-      <c r="G1" s="66"/>
-      <c r="H1" s="66"/>
-      <c r="I1" s="66"/>
+      <c r="A1" s="84" t="s">
+        <v>18</v>
+      </c>
+      <c r="B1" s="84"/>
+      <c r="C1" s="84"/>
+      <c r="D1" s="84"/>
+      <c r="E1" s="84"/>
+      <c r="F1" s="84"/>
+      <c r="G1" s="84"/>
+      <c r="H1" s="84"/>
+      <c r="I1" s="84"/>
       <c r="J1" s="8"/>
       <c r="K1" s="8"/>
       <c r="L1" s="8"/>
@@ -5056,15 +5167,15 @@
       <c r="AM1" s="8"/>
     </row>
     <row r="2" spans="1:40" s="1" customFormat="1" ht="7.5" customHeight="1">
-      <c r="A2" s="67"/>
-      <c r="B2" s="67"/>
-      <c r="C2" s="67"/>
-      <c r="D2" s="67"/>
-      <c r="E2" s="67"/>
-      <c r="F2" s="67"/>
-      <c r="G2" s="67"/>
-      <c r="H2" s="67"/>
-      <c r="I2" s="67"/>
+      <c r="A2" s="85"/>
+      <c r="B2" s="85"/>
+      <c r="C2" s="85"/>
+      <c r="D2" s="85"/>
+      <c r="E2" s="85"/>
+      <c r="F2" s="85"/>
+      <c r="G2" s="85"/>
+      <c r="H2" s="85"/>
+      <c r="I2" s="85"/>
       <c r="J2" s="9"/>
       <c r="K2" s="9"/>
       <c r="L2" s="9"/>
@@ -5097,16 +5208,16 @@
       <c r="AM2" s="9"/>
     </row>
     <row r="3" spans="1:40" s="11" customFormat="1" ht="13.5" customHeight="1">
-      <c r="A3" s="68" t="s">
-        <v>71</v>
-      </c>
-      <c r="B3" s="68"/>
-      <c r="C3" s="68"/>
-      <c r="D3" s="68"/>
-      <c r="E3" s="68"/>
-      <c r="F3" s="68"/>
-      <c r="G3" s="68"/>
-      <c r="H3" s="68"/>
+      <c r="A3" s="86" t="s">
+        <v>22</v>
+      </c>
+      <c r="B3" s="86"/>
+      <c r="C3" s="86"/>
+      <c r="D3" s="86"/>
+      <c r="E3" s="86"/>
+      <c r="F3" s="86"/>
+      <c r="G3" s="86"/>
+      <c r="H3" s="86"/>
       <c r="I3" s="23"/>
       <c r="J3" s="22"/>
       <c r="K3" s="22"/>
@@ -5141,112 +5252,112 @@
       <c r="AN3" s="10"/>
     </row>
     <row r="4" spans="1:40" s="6" customFormat="1" ht="9" customHeight="1">
-      <c r="A4" s="69"/>
-      <c r="B4" s="69"/>
-      <c r="C4" s="69"/>
-      <c r="D4" s="69"/>
-      <c r="E4" s="69"/>
-      <c r="F4" s="69"/>
-      <c r="G4" s="69"/>
-      <c r="H4" s="69"/>
-      <c r="I4" s="69"/>
+      <c r="A4" s="87"/>
+      <c r="B4" s="87"/>
+      <c r="C4" s="87"/>
+      <c r="D4" s="87"/>
+      <c r="E4" s="87"/>
+      <c r="F4" s="87"/>
+      <c r="G4" s="87"/>
+      <c r="H4" s="87"/>
+      <c r="I4" s="87"/>
     </row>
     <row r="5" spans="1:40" s="1" customFormat="1" ht="13.75" customHeight="1">
-      <c r="A5" s="62" t="str">
+      <c r="A5" s="94" t="str">
         <f>October!A5</f>
         <v>Firstname Lastname</v>
       </c>
-      <c r="B5" s="63"/>
-      <c r="C5" s="63"/>
-      <c r="D5" s="58" t="str">
+      <c r="B5" s="95"/>
+      <c r="C5" s="95"/>
+      <c r="D5" s="90" t="str">
         <f>October!D5</f>
         <v>Augustin Hannah</v>
       </c>
-      <c r="E5" s="59"/>
-      <c r="F5" s="59"/>
-      <c r="G5" s="59"/>
-      <c r="H5" s="60"/>
+      <c r="E5" s="91"/>
+      <c r="F5" s="91"/>
+      <c r="G5" s="91"/>
+      <c r="H5" s="92"/>
       <c r="I5" s="23"/>
       <c r="J5" s="9"/>
       <c r="K5" s="9"/>
       <c r="L5" s="9"/>
     </row>
     <row r="6" spans="1:40" s="1" customFormat="1" ht="7.5" customHeight="1">
-      <c r="A6" s="64"/>
-      <c r="B6" s="64"/>
-      <c r="C6" s="64"/>
-      <c r="D6" s="64"/>
-      <c r="E6" s="64"/>
-      <c r="F6" s="64"/>
-      <c r="G6" s="64"/>
-      <c r="H6" s="64"/>
-      <c r="I6" s="64"/>
+      <c r="A6" s="96"/>
+      <c r="B6" s="96"/>
+      <c r="C6" s="96"/>
+      <c r="D6" s="96"/>
+      <c r="E6" s="96"/>
+      <c r="F6" s="96"/>
+      <c r="G6" s="96"/>
+      <c r="H6" s="96"/>
+      <c r="I6" s="96"/>
     </row>
     <row r="7" spans="1:40" s="1" customFormat="1" ht="13.75" customHeight="1">
-      <c r="A7" s="57" t="str">
+      <c r="A7" s="89" t="str">
         <f>October!A7</f>
         <v>Project Acronym</v>
       </c>
-      <c r="B7" s="57"/>
-      <c r="C7" s="57"/>
-      <c r="D7" s="65" t="str">
+      <c r="B7" s="89"/>
+      <c r="C7" s="89"/>
+      <c r="D7" s="97" t="str">
         <f>October!D7</f>
         <v>AIQ</v>
       </c>
-      <c r="E7" s="65"/>
-      <c r="F7" s="65"/>
-      <c r="G7" s="65"/>
-      <c r="H7" s="65"/>
+      <c r="E7" s="97"/>
+      <c r="F7" s="97"/>
+      <c r="G7" s="97"/>
+      <c r="H7" s="97"/>
       <c r="I7" s="24"/>
     </row>
     <row r="8" spans="1:40" s="1" customFormat="1" ht="7.5" customHeight="1">
-      <c r="A8" s="70"/>
-      <c r="B8" s="70"/>
-      <c r="C8" s="70"/>
-      <c r="D8" s="70"/>
-      <c r="E8" s="70"/>
-      <c r="F8" s="70"/>
-      <c r="G8" s="70"/>
-      <c r="H8" s="70"/>
-      <c r="I8" s="70"/>
+      <c r="A8" s="88"/>
+      <c r="B8" s="88"/>
+      <c r="C8" s="88"/>
+      <c r="D8" s="88"/>
+      <c r="E8" s="88"/>
+      <c r="F8" s="88"/>
+      <c r="G8" s="88"/>
+      <c r="H8" s="88"/>
+      <c r="I8" s="88"/>
     </row>
     <row r="9" spans="1:40" s="1" customFormat="1" ht="13.75" customHeight="1">
-      <c r="A9" s="57" t="str">
+      <c r="A9" s="89" t="str">
         <f>October!A9</f>
         <v>Project Title</v>
       </c>
-      <c r="B9" s="57"/>
-      <c r="C9" s="57"/>
-      <c r="D9" s="58" t="str">
+      <c r="B9" s="89"/>
+      <c r="C9" s="89"/>
+      <c r="D9" s="90" t="str">
         <f>October!D9</f>
         <v>Automating change detection in ImageQuerying</v>
       </c>
-      <c r="E9" s="59"/>
-      <c r="F9" s="59"/>
-      <c r="G9" s="59"/>
-      <c r="H9" s="60"/>
+      <c r="E9" s="91"/>
+      <c r="F9" s="91"/>
+      <c r="G9" s="91"/>
+      <c r="H9" s="92"/>
       <c r="I9" s="24"/>
       <c r="J9" s="15"/>
     </row>
     <row r="10" spans="1:40" s="1" customFormat="1" ht="7.5" customHeight="1">
-      <c r="A10" s="61"/>
-      <c r="B10" s="61"/>
-      <c r="C10" s="61"/>
-      <c r="D10" s="61"/>
-      <c r="E10" s="61"/>
-      <c r="F10" s="61"/>
-      <c r="G10" s="61"/>
-      <c r="H10" s="61"/>
-      <c r="I10" s="61"/>
+      <c r="A10" s="93"/>
+      <c r="B10" s="93"/>
+      <c r="C10" s="93"/>
+      <c r="D10" s="93"/>
+      <c r="E10" s="93"/>
+      <c r="F10" s="93"/>
+      <c r="G10" s="93"/>
+      <c r="H10" s="93"/>
+      <c r="I10" s="93"/>
     </row>
     <row r="11" spans="1:40" s="1" customFormat="1" ht="12">
       <c r="A11" s="21" t="s">
-        <v>69</v>
+        <v>20</v>
       </c>
       <c r="B11" s="21"/>
       <c r="C11" s="21"/>
       <c r="D11" s="21" t="s">
-        <v>70</v>
+        <v>21</v>
       </c>
       <c r="E11" s="21"/>
       <c r="F11" s="21"/>
@@ -5266,55 +5377,55 @@
       <c r="I12" s="26"/>
     </row>
     <row r="13" spans="1:40" s="2" customFormat="1" ht="15.5" customHeight="1">
-      <c r="A13" s="78" t="s">
-        <v>26</v>
-      </c>
-      <c r="B13" s="81" t="s">
-        <v>65</v>
-      </c>
-      <c r="C13" s="82"/>
-      <c r="D13" s="82"/>
-      <c r="E13" s="82"/>
-      <c r="F13" s="82"/>
-      <c r="G13" s="82"/>
-      <c r="H13" s="82"/>
-      <c r="I13" s="83"/>
+      <c r="A13" s="68" t="s">
+        <v>75</v>
+      </c>
+      <c r="B13" s="71" t="s">
+        <v>16</v>
+      </c>
+      <c r="C13" s="72"/>
+      <c r="D13" s="72"/>
+      <c r="E13" s="72"/>
+      <c r="F13" s="72"/>
+      <c r="G13" s="72"/>
+      <c r="H13" s="72"/>
+      <c r="I13" s="73"/>
     </row>
     <row r="14" spans="1:40" s="2" customFormat="1" ht="13.75" customHeight="1">
-      <c r="A14" s="79"/>
-      <c r="B14" s="84" t="s">
-        <v>27</v>
-      </c>
-      <c r="C14" s="85"/>
-      <c r="D14" s="86" t="s">
-        <v>28</v>
-      </c>
-      <c r="E14" s="88" t="s">
-        <v>66</v>
-      </c>
-      <c r="F14" s="89"/>
-      <c r="G14" s="89"/>
-      <c r="H14" s="89"/>
-      <c r="I14" s="90"/>
+      <c r="A14" s="69"/>
+      <c r="B14" s="74" t="s">
+        <v>76</v>
+      </c>
+      <c r="C14" s="75"/>
+      <c r="D14" s="76" t="s">
+        <v>77</v>
+      </c>
+      <c r="E14" s="78" t="s">
+        <v>17</v>
+      </c>
+      <c r="F14" s="79"/>
+      <c r="G14" s="79"/>
+      <c r="H14" s="79"/>
+      <c r="I14" s="80"/>
     </row>
     <row r="15" spans="1:40" ht="12" customHeight="1">
-      <c r="A15" s="80"/>
+      <c r="A15" s="70"/>
       <c r="B15" s="32" t="s">
-        <v>29</v>
+        <v>78</v>
       </c>
       <c r="C15" s="33" t="s">
-        <v>30</v>
-      </c>
-      <c r="D15" s="87"/>
-      <c r="E15" s="91"/>
-      <c r="F15" s="92"/>
-      <c r="G15" s="92"/>
-      <c r="H15" s="92"/>
-      <c r="I15" s="93"/>
+        <v>79</v>
+      </c>
+      <c r="D15" s="77"/>
+      <c r="E15" s="81"/>
+      <c r="F15" s="82"/>
+      <c r="G15" s="82"/>
+      <c r="H15" s="82"/>
+      <c r="I15" s="83"/>
     </row>
     <row r="16" spans="1:40" s="51" customFormat="1" ht="12">
       <c r="A16" s="48" t="s">
-        <v>31</v>
+        <v>80</v>
       </c>
       <c r="B16" s="49"/>
       <c r="C16" s="50"/>
@@ -5322,15 +5433,15 @@
         <f>C16-B16</f>
         <v>0</v>
       </c>
-      <c r="E16" s="77"/>
-      <c r="F16" s="75"/>
-      <c r="G16" s="75"/>
-      <c r="H16" s="75"/>
-      <c r="I16" s="76"/>
+      <c r="E16" s="57"/>
+      <c r="F16" s="58"/>
+      <c r="G16" s="58"/>
+      <c r="H16" s="58"/>
+      <c r="I16" s="59"/>
     </row>
     <row r="17" spans="1:9" s="43" customFormat="1" ht="12">
       <c r="A17" s="40" t="s">
-        <v>32</v>
+        <v>81</v>
       </c>
       <c r="B17" s="41"/>
       <c r="C17" s="42"/>
@@ -5338,15 +5449,15 @@
         <f t="shared" ref="D17:D46" si="0">C17-B17</f>
         <v>0</v>
       </c>
-      <c r="E17" s="71"/>
-      <c r="F17" s="72"/>
-      <c r="G17" s="72"/>
-      <c r="H17" s="72"/>
-      <c r="I17" s="73"/>
+      <c r="E17" s="60"/>
+      <c r="F17" s="61"/>
+      <c r="G17" s="61"/>
+      <c r="H17" s="61"/>
+      <c r="I17" s="62"/>
     </row>
     <row r="18" spans="1:9" s="43" customFormat="1" ht="12">
       <c r="A18" s="40" t="s">
-        <v>33</v>
+        <v>82</v>
       </c>
       <c r="B18" s="41"/>
       <c r="C18" s="42"/>
@@ -5354,15 +5465,15 @@
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="E18" s="71"/>
-      <c r="F18" s="72"/>
-      <c r="G18" s="72"/>
-      <c r="H18" s="72"/>
-      <c r="I18" s="73"/>
+      <c r="E18" s="60"/>
+      <c r="F18" s="61"/>
+      <c r="G18" s="61"/>
+      <c r="H18" s="61"/>
+      <c r="I18" s="62"/>
     </row>
     <row r="19" spans="1:9" s="43" customFormat="1" ht="12">
       <c r="A19" s="40" t="s">
-        <v>34</v>
+        <v>83</v>
       </c>
       <c r="B19" s="41"/>
       <c r="C19" s="42"/>
@@ -5370,15 +5481,15 @@
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="E19" s="71"/>
-      <c r="F19" s="72"/>
-      <c r="G19" s="72"/>
-      <c r="H19" s="72"/>
-      <c r="I19" s="73"/>
+      <c r="E19" s="60"/>
+      <c r="F19" s="61"/>
+      <c r="G19" s="61"/>
+      <c r="H19" s="61"/>
+      <c r="I19" s="62"/>
     </row>
     <row r="20" spans="1:9" s="43" customFormat="1" ht="12">
       <c r="A20" s="40" t="s">
-        <v>35</v>
+        <v>84</v>
       </c>
       <c r="B20" s="41"/>
       <c r="C20" s="42"/>
@@ -5386,15 +5497,15 @@
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="E20" s="71"/>
-      <c r="F20" s="72"/>
-      <c r="G20" s="72"/>
-      <c r="H20" s="72"/>
-      <c r="I20" s="73"/>
+      <c r="E20" s="60"/>
+      <c r="F20" s="61"/>
+      <c r="G20" s="61"/>
+      <c r="H20" s="61"/>
+      <c r="I20" s="62"/>
     </row>
     <row r="21" spans="1:9" s="43" customFormat="1" ht="12">
       <c r="A21" s="40" t="s">
-        <v>36</v>
+        <v>85</v>
       </c>
       <c r="B21" s="41"/>
       <c r="C21" s="42"/>
@@ -5402,15 +5513,15 @@
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="E21" s="71"/>
-      <c r="F21" s="72"/>
-      <c r="G21" s="72"/>
-      <c r="H21" s="72"/>
-      <c r="I21" s="73"/>
+      <c r="E21" s="60"/>
+      <c r="F21" s="61"/>
+      <c r="G21" s="61"/>
+      <c r="H21" s="61"/>
+      <c r="I21" s="62"/>
     </row>
     <row r="22" spans="1:9" s="51" customFormat="1" ht="12">
       <c r="A22" s="48" t="s">
-        <v>37</v>
+        <v>86</v>
       </c>
       <c r="B22" s="49"/>
       <c r="C22" s="50"/>
@@ -5418,15 +5529,15 @@
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="E22" s="77"/>
-      <c r="F22" s="75"/>
-      <c r="G22" s="75"/>
-      <c r="H22" s="75"/>
-      <c r="I22" s="76"/>
+      <c r="E22" s="57"/>
+      <c r="F22" s="58"/>
+      <c r="G22" s="58"/>
+      <c r="H22" s="58"/>
+      <c r="I22" s="59"/>
     </row>
     <row r="23" spans="1:9" s="51" customFormat="1" ht="12">
       <c r="A23" s="48" t="s">
-        <v>38</v>
+        <v>87</v>
       </c>
       <c r="B23" s="49"/>
       <c r="C23" s="50"/>
@@ -5434,15 +5545,15 @@
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="E23" s="77"/>
-      <c r="F23" s="75"/>
-      <c r="G23" s="75"/>
-      <c r="H23" s="75"/>
-      <c r="I23" s="76"/>
+      <c r="E23" s="57"/>
+      <c r="F23" s="58"/>
+      <c r="G23" s="58"/>
+      <c r="H23" s="58"/>
+      <c r="I23" s="59"/>
     </row>
     <row r="24" spans="1:9" s="43" customFormat="1" ht="12">
       <c r="A24" s="40" t="s">
-        <v>39</v>
+        <v>88</v>
       </c>
       <c r="B24" s="41"/>
       <c r="C24" s="42"/>
@@ -5450,15 +5561,15 @@
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="E24" s="71"/>
-      <c r="F24" s="72"/>
-      <c r="G24" s="72"/>
-      <c r="H24" s="72"/>
-      <c r="I24" s="73"/>
+      <c r="E24" s="60"/>
+      <c r="F24" s="61"/>
+      <c r="G24" s="61"/>
+      <c r="H24" s="61"/>
+      <c r="I24" s="62"/>
     </row>
     <row r="25" spans="1:9" s="43" customFormat="1" ht="12">
       <c r="A25" s="40" t="s">
-        <v>40</v>
+        <v>89</v>
       </c>
       <c r="B25" s="41"/>
       <c r="C25" s="42"/>
@@ -5466,15 +5577,15 @@
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="E25" s="71"/>
-      <c r="F25" s="72"/>
-      <c r="G25" s="72"/>
-      <c r="H25" s="72"/>
-      <c r="I25" s="73"/>
+      <c r="E25" s="60"/>
+      <c r="F25" s="61"/>
+      <c r="G25" s="61"/>
+      <c r="H25" s="61"/>
+      <c r="I25" s="62"/>
     </row>
     <row r="26" spans="1:9" s="43" customFormat="1" ht="12">
       <c r="A26" s="40" t="s">
-        <v>41</v>
+        <v>90</v>
       </c>
       <c r="B26" s="41"/>
       <c r="C26" s="42"/>
@@ -5482,15 +5593,15 @@
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="E26" s="71"/>
-      <c r="F26" s="72"/>
-      <c r="G26" s="72"/>
-      <c r="H26" s="72"/>
-      <c r="I26" s="73"/>
+      <c r="E26" s="60"/>
+      <c r="F26" s="61"/>
+      <c r="G26" s="61"/>
+      <c r="H26" s="61"/>
+      <c r="I26" s="62"/>
     </row>
     <row r="27" spans="1:9" s="43" customFormat="1" ht="12">
       <c r="A27" s="40" t="s">
-        <v>42</v>
+        <v>91</v>
       </c>
       <c r="B27" s="41"/>
       <c r="C27" s="42"/>
@@ -5498,15 +5609,15 @@
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="E27" s="71"/>
-      <c r="F27" s="72"/>
-      <c r="G27" s="72"/>
-      <c r="H27" s="72"/>
-      <c r="I27" s="73"/>
+      <c r="E27" s="60"/>
+      <c r="F27" s="61"/>
+      <c r="G27" s="61"/>
+      <c r="H27" s="61"/>
+      <c r="I27" s="62"/>
     </row>
     <row r="28" spans="1:9" s="43" customFormat="1" ht="12">
       <c r="A28" s="40" t="s">
-        <v>43</v>
+        <v>92</v>
       </c>
       <c r="B28" s="41"/>
       <c r="C28" s="42"/>
@@ -5514,15 +5625,15 @@
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="E28" s="71"/>
-      <c r="F28" s="72"/>
-      <c r="G28" s="72"/>
-      <c r="H28" s="72"/>
-      <c r="I28" s="73"/>
+      <c r="E28" s="60"/>
+      <c r="F28" s="61"/>
+      <c r="G28" s="61"/>
+      <c r="H28" s="61"/>
+      <c r="I28" s="62"/>
     </row>
     <row r="29" spans="1:9" s="51" customFormat="1" ht="12">
       <c r="A29" s="48" t="s">
-        <v>44</v>
+        <v>93</v>
       </c>
       <c r="B29" s="49"/>
       <c r="C29" s="50"/>
@@ -5530,15 +5641,15 @@
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="E29" s="77"/>
-      <c r="F29" s="75"/>
-      <c r="G29" s="75"/>
-      <c r="H29" s="75"/>
-      <c r="I29" s="76"/>
+      <c r="E29" s="57"/>
+      <c r="F29" s="58"/>
+      <c r="G29" s="58"/>
+      <c r="H29" s="58"/>
+      <c r="I29" s="59"/>
     </row>
     <row r="30" spans="1:9" s="51" customFormat="1" ht="12">
       <c r="A30" s="48" t="s">
-        <v>45</v>
+        <v>94</v>
       </c>
       <c r="B30" s="49"/>
       <c r="C30" s="50"/>
@@ -5546,15 +5657,15 @@
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="E30" s="77"/>
-      <c r="F30" s="75"/>
-      <c r="G30" s="75"/>
-      <c r="H30" s="75"/>
-      <c r="I30" s="76"/>
+      <c r="E30" s="57"/>
+      <c r="F30" s="58"/>
+      <c r="G30" s="58"/>
+      <c r="H30" s="58"/>
+      <c r="I30" s="59"/>
     </row>
     <row r="31" spans="1:9" s="43" customFormat="1" ht="12">
       <c r="A31" s="40" t="s">
-        <v>46</v>
+        <v>95</v>
       </c>
       <c r="B31" s="41"/>
       <c r="C31" s="42"/>
@@ -5562,15 +5673,15 @@
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="E31" s="71"/>
-      <c r="F31" s="72"/>
-      <c r="G31" s="72"/>
-      <c r="H31" s="72"/>
-      <c r="I31" s="73"/>
+      <c r="E31" s="60"/>
+      <c r="F31" s="61"/>
+      <c r="G31" s="61"/>
+      <c r="H31" s="61"/>
+      <c r="I31" s="62"/>
     </row>
     <row r="32" spans="1:9" s="43" customFormat="1" ht="12">
       <c r="A32" s="40" t="s">
-        <v>47</v>
+        <v>96</v>
       </c>
       <c r="B32" s="41"/>
       <c r="C32" s="42"/>
@@ -5578,15 +5689,15 @@
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="E32" s="71"/>
-      <c r="F32" s="72"/>
-      <c r="G32" s="72"/>
-      <c r="H32" s="72"/>
-      <c r="I32" s="73"/>
+      <c r="E32" s="60"/>
+      <c r="F32" s="61"/>
+      <c r="G32" s="61"/>
+      <c r="H32" s="61"/>
+      <c r="I32" s="62"/>
     </row>
     <row r="33" spans="1:12" s="43" customFormat="1" ht="12">
       <c r="A33" s="40" t="s">
-        <v>51</v>
+        <v>2</v>
       </c>
       <c r="B33" s="41"/>
       <c r="C33" s="42"/>
@@ -5594,15 +5705,15 @@
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="E33" s="71"/>
-      <c r="F33" s="72"/>
-      <c r="G33" s="72"/>
-      <c r="H33" s="72"/>
-      <c r="I33" s="73"/>
+      <c r="E33" s="60"/>
+      <c r="F33" s="61"/>
+      <c r="G33" s="61"/>
+      <c r="H33" s="61"/>
+      <c r="I33" s="62"/>
     </row>
     <row r="34" spans="1:12" s="43" customFormat="1" ht="12">
       <c r="A34" s="40" t="s">
-        <v>52</v>
+        <v>3</v>
       </c>
       <c r="B34" s="41"/>
       <c r="C34" s="42"/>
@@ -5610,15 +5721,15 @@
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="E34" s="71"/>
-      <c r="F34" s="72"/>
-      <c r="G34" s="72"/>
-      <c r="H34" s="72"/>
-      <c r="I34" s="73"/>
+      <c r="E34" s="60"/>
+      <c r="F34" s="61"/>
+      <c r="G34" s="61"/>
+      <c r="H34" s="61"/>
+      <c r="I34" s="62"/>
     </row>
     <row r="35" spans="1:12" s="43" customFormat="1" ht="12">
       <c r="A35" s="40" t="s">
-        <v>53</v>
+        <v>4</v>
       </c>
       <c r="B35" s="41"/>
       <c r="C35" s="42"/>
@@ -5626,15 +5737,15 @@
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="E35" s="71"/>
-      <c r="F35" s="72"/>
-      <c r="G35" s="72"/>
-      <c r="H35" s="72"/>
-      <c r="I35" s="73"/>
+      <c r="E35" s="60"/>
+      <c r="F35" s="61"/>
+      <c r="G35" s="61"/>
+      <c r="H35" s="61"/>
+      <c r="I35" s="62"/>
     </row>
     <row r="36" spans="1:12" s="51" customFormat="1" ht="12">
       <c r="A36" s="48" t="s">
-        <v>54</v>
+        <v>5</v>
       </c>
       <c r="B36" s="49"/>
       <c r="C36" s="50"/>
@@ -5642,15 +5753,15 @@
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="E36" s="77"/>
-      <c r="F36" s="75"/>
-      <c r="G36" s="75"/>
-      <c r="H36" s="75"/>
-      <c r="I36" s="76"/>
+      <c r="E36" s="57"/>
+      <c r="F36" s="58"/>
+      <c r="G36" s="58"/>
+      <c r="H36" s="58"/>
+      <c r="I36" s="59"/>
     </row>
     <row r="37" spans="1:12" s="51" customFormat="1" ht="12">
       <c r="A37" s="48" t="s">
-        <v>55</v>
+        <v>6</v>
       </c>
       <c r="B37" s="49"/>
       <c r="C37" s="50"/>
@@ -5658,15 +5769,15 @@
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="E37" s="77"/>
-      <c r="F37" s="75"/>
-      <c r="G37" s="75"/>
-      <c r="H37" s="75"/>
-      <c r="I37" s="76"/>
+      <c r="E37" s="57"/>
+      <c r="F37" s="58"/>
+      <c r="G37" s="58"/>
+      <c r="H37" s="58"/>
+      <c r="I37" s="59"/>
     </row>
     <row r="38" spans="1:12" s="43" customFormat="1" ht="12">
       <c r="A38" s="40" t="s">
-        <v>56</v>
+        <v>7</v>
       </c>
       <c r="B38" s="41"/>
       <c r="C38" s="42"/>
@@ -5674,15 +5785,15 @@
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="E38" s="71"/>
-      <c r="F38" s="72"/>
-      <c r="G38" s="72"/>
-      <c r="H38" s="72"/>
-      <c r="I38" s="73"/>
+      <c r="E38" s="60"/>
+      <c r="F38" s="61"/>
+      <c r="G38" s="61"/>
+      <c r="H38" s="61"/>
+      <c r="I38" s="62"/>
     </row>
     <row r="39" spans="1:12" s="43" customFormat="1" ht="12">
       <c r="A39" s="40" t="s">
-        <v>57</v>
+        <v>8</v>
       </c>
       <c r="B39" s="41"/>
       <c r="C39" s="42"/>
@@ -5690,15 +5801,15 @@
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="E39" s="71"/>
-      <c r="F39" s="72"/>
-      <c r="G39" s="72"/>
-      <c r="H39" s="72"/>
-      <c r="I39" s="73"/>
+      <c r="E39" s="60"/>
+      <c r="F39" s="61"/>
+      <c r="G39" s="61"/>
+      <c r="H39" s="61"/>
+      <c r="I39" s="62"/>
     </row>
     <row r="40" spans="1:12" s="43" customFormat="1" ht="12">
       <c r="A40" s="40" t="s">
-        <v>58</v>
+        <v>9</v>
       </c>
       <c r="B40" s="41"/>
       <c r="C40" s="42"/>
@@ -5706,15 +5817,15 @@
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="E40" s="71"/>
-      <c r="F40" s="72"/>
-      <c r="G40" s="72"/>
-      <c r="H40" s="72"/>
-      <c r="I40" s="73"/>
+      <c r="E40" s="60"/>
+      <c r="F40" s="61"/>
+      <c r="G40" s="61"/>
+      <c r="H40" s="61"/>
+      <c r="I40" s="62"/>
     </row>
     <row r="41" spans="1:12" s="43" customFormat="1" ht="12">
       <c r="A41" s="40" t="s">
-        <v>59</v>
+        <v>10</v>
       </c>
       <c r="B41" s="41"/>
       <c r="C41" s="42"/>
@@ -5722,15 +5833,15 @@
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="E41" s="71"/>
-      <c r="F41" s="72"/>
-      <c r="G41" s="72"/>
-      <c r="H41" s="72"/>
-      <c r="I41" s="73"/>
+      <c r="E41" s="60"/>
+      <c r="F41" s="61"/>
+      <c r="G41" s="61"/>
+      <c r="H41" s="61"/>
+      <c r="I41" s="62"/>
     </row>
     <row r="42" spans="1:12" s="43" customFormat="1" ht="12">
       <c r="A42" s="40" t="s">
-        <v>60</v>
+        <v>11</v>
       </c>
       <c r="B42" s="41"/>
       <c r="C42" s="42"/>
@@ -5738,15 +5849,15 @@
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="E42" s="71"/>
-      <c r="F42" s="72"/>
-      <c r="G42" s="72"/>
-      <c r="H42" s="72"/>
-      <c r="I42" s="73"/>
+      <c r="E42" s="60"/>
+      <c r="F42" s="61"/>
+      <c r="G42" s="61"/>
+      <c r="H42" s="61"/>
+      <c r="I42" s="62"/>
     </row>
     <row r="43" spans="1:12" s="51" customFormat="1" ht="12">
       <c r="A43" s="48" t="s">
-        <v>61</v>
+        <v>12</v>
       </c>
       <c r="B43" s="49"/>
       <c r="C43" s="50"/>
@@ -5754,15 +5865,15 @@
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="E43" s="77"/>
-      <c r="F43" s="75"/>
-      <c r="G43" s="75"/>
-      <c r="H43" s="75"/>
-      <c r="I43" s="76"/>
+      <c r="E43" s="57"/>
+      <c r="F43" s="58"/>
+      <c r="G43" s="58"/>
+      <c r="H43" s="58"/>
+      <c r="I43" s="59"/>
     </row>
     <row r="44" spans="1:12" s="51" customFormat="1" ht="12">
       <c r="A44" s="48" t="s">
-        <v>62</v>
+        <v>13</v>
       </c>
       <c r="B44" s="49"/>
       <c r="C44" s="50"/>
@@ -5770,15 +5881,15 @@
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="E44" s="77"/>
-      <c r="F44" s="75"/>
-      <c r="G44" s="75"/>
-      <c r="H44" s="75"/>
-      <c r="I44" s="76"/>
+      <c r="E44" s="57"/>
+      <c r="F44" s="58"/>
+      <c r="G44" s="58"/>
+      <c r="H44" s="58"/>
+      <c r="I44" s="59"/>
     </row>
     <row r="45" spans="1:12" s="39" customFormat="1" ht="12">
       <c r="A45" s="36" t="s">
-        <v>63</v>
+        <v>14</v>
       </c>
       <c r="B45" s="37"/>
       <c r="C45" s="38"/>
@@ -5794,7 +5905,7 @@
     </row>
     <row r="46" spans="1:12" s="39" customFormat="1" ht="12">
       <c r="A46" s="36" t="s">
-        <v>79</v>
+        <v>30</v>
       </c>
       <c r="B46" s="37"/>
       <c r="C46" s="38"/>
@@ -5837,7 +5948,46 @@
       <c r="L48" s="13"/>
     </row>
   </sheetData>
+  <sheetCalcPr fullCalcOnLoad="1"/>
   <mergeCells count="51">
+    <mergeCell ref="A1:I1"/>
+    <mergeCell ref="A2:I2"/>
+    <mergeCell ref="A3:H3"/>
+    <mergeCell ref="A4:I4"/>
+    <mergeCell ref="A5:C5"/>
+    <mergeCell ref="D5:H5"/>
+    <mergeCell ref="A6:I6"/>
+    <mergeCell ref="A7:C7"/>
+    <mergeCell ref="D7:H7"/>
+    <mergeCell ref="A8:I8"/>
+    <mergeCell ref="A9:C9"/>
+    <mergeCell ref="D9:H9"/>
+    <mergeCell ref="A10:I10"/>
+    <mergeCell ref="A13:A15"/>
+    <mergeCell ref="B13:I13"/>
+    <mergeCell ref="B14:C14"/>
+    <mergeCell ref="D14:D15"/>
+    <mergeCell ref="E14:I15"/>
+    <mergeCell ref="E16:I16"/>
+    <mergeCell ref="E17:I17"/>
+    <mergeCell ref="E18:I18"/>
+    <mergeCell ref="E19:I19"/>
+    <mergeCell ref="E20:I20"/>
+    <mergeCell ref="E21:I21"/>
+    <mergeCell ref="E22:I22"/>
+    <mergeCell ref="E23:I23"/>
+    <mergeCell ref="E24:I24"/>
+    <mergeCell ref="E25:I25"/>
+    <mergeCell ref="E26:I26"/>
+    <mergeCell ref="E27:I27"/>
+    <mergeCell ref="E28:I28"/>
+    <mergeCell ref="E29:I29"/>
+    <mergeCell ref="E30:I30"/>
+    <mergeCell ref="E31:I31"/>
+    <mergeCell ref="E32:I32"/>
+    <mergeCell ref="E33:I33"/>
+    <mergeCell ref="E34:I34"/>
+    <mergeCell ref="E35:I35"/>
     <mergeCell ref="E36:I36"/>
     <mergeCell ref="E37:I37"/>
     <mergeCell ref="E38:I38"/>
@@ -5851,44 +6001,6 @@
     <mergeCell ref="E44:I44"/>
     <mergeCell ref="E46:I46"/>
     <mergeCell ref="E45:I45"/>
-    <mergeCell ref="E31:I31"/>
-    <mergeCell ref="E32:I32"/>
-    <mergeCell ref="E33:I33"/>
-    <mergeCell ref="E34:I34"/>
-    <mergeCell ref="E35:I35"/>
-    <mergeCell ref="E26:I26"/>
-    <mergeCell ref="E27:I27"/>
-    <mergeCell ref="E28:I28"/>
-    <mergeCell ref="E29:I29"/>
-    <mergeCell ref="E30:I30"/>
-    <mergeCell ref="E21:I21"/>
-    <mergeCell ref="E22:I22"/>
-    <mergeCell ref="E23:I23"/>
-    <mergeCell ref="E24:I24"/>
-    <mergeCell ref="E25:I25"/>
-    <mergeCell ref="E16:I16"/>
-    <mergeCell ref="E17:I17"/>
-    <mergeCell ref="E18:I18"/>
-    <mergeCell ref="E19:I19"/>
-    <mergeCell ref="E20:I20"/>
-    <mergeCell ref="A10:I10"/>
-    <mergeCell ref="A13:A15"/>
-    <mergeCell ref="B13:I13"/>
-    <mergeCell ref="B14:C14"/>
-    <mergeCell ref="D14:D15"/>
-    <mergeCell ref="E14:I15"/>
-    <mergeCell ref="A6:I6"/>
-    <mergeCell ref="A7:C7"/>
-    <mergeCell ref="D7:H7"/>
-    <mergeCell ref="A8:I8"/>
-    <mergeCell ref="A9:C9"/>
-    <mergeCell ref="D9:H9"/>
-    <mergeCell ref="A1:I1"/>
-    <mergeCell ref="A2:I2"/>
-    <mergeCell ref="A3:H3"/>
-    <mergeCell ref="A4:I4"/>
-    <mergeCell ref="A5:C5"/>
-    <mergeCell ref="D5:H5"/>
   </mergeCells>
   <phoneticPr fontId="32" type="noConversion"/>
   <printOptions horizontalCentered="1"/>
